--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE090FC5-DC43-40BD-BE59-A13FC2C98940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{678B690F-79CD-4D69-972C-BE74088B43B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="406">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1256,6 +1256,9 @@
     <t>mail for db remoting 20 mins,fun friday 1 hr 26 mins,break 40 mins,Total -2 hr 26 mins</t>
   </si>
   <si>
+    <t>visual studio code - .Net SDK is not found in VSCode - Stack Overflow</t>
+  </si>
+  <si>
     <t>web API(Role)</t>
   </si>
   <si>
@@ -1266,13 +1269,66 @@
   </si>
   <si>
     <t>1 hr : Chain of reponsibility,1.30 mins Fun friday,1.30 mins : lunch and break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layouts of TMS dashboard </t>
+  </si>
+  <si>
+    <t>Layout for Login</t>
+  </si>
+  <si>
+    <t>Team discussion-20 min,Meeting with Rafi-60 min,Discussion on Layout-30 min,Team discussion-30 min, Review of service-30 min</t>
+  </si>
+  <si>
+    <t>Lunch and Break-90 min,Fun friday -1.5 hours, Layout Exploration -1,5 hours</t>
+  </si>
+  <si>
+    <t>Web Api exploration</t>
+  </si>
+  <si>
+    <t>Team meeting - 30 mins,Meeting with Rafi - 1 hour,  Services review - 30 mins, Created Namespace ,classes and properties in VS code - 30 mins</t>
+  </si>
+  <si>
+    <t>Friday activities - 1 hour 30 mins, Others (Lunch and break) - 1 hour 30 mins , Web api Tutorial - 1 hour</t>
+  </si>
+  <si>
+    <t>Team Discussion(to know the progress of the team )-20mins
+Review Meeting with Rafi-1hr
+web api (review service)-1hr
+Team Discussion-30 mins,Created Namespace ,classes and properties in VS code - 30 mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Lunch &amp; Tea break - 1.5 hr
+Fun session with Training team-1.5hr</t>
+  </si>
+  <si>
+    <t>registration for trainee and trainer</t>
+  </si>
+  <si>
+    <t>registration for co-Ordinator</t>
+  </si>
+  <si>
+    <t>team disussion  -30mim, meeting with rafi-60min,  working on layout for registration page( head)-120min, reviewed the services-35min</t>
+  </si>
+  <si>
+    <t>Building Api for Department Service</t>
+  </si>
+  <si>
+    <t>Corrected operation files for all services</t>
+  </si>
+  <si>
+    <t>Team meeting -30 min , Client meeting - 60 mins ,Service operations modification - 1 hrs, Updating MOM - 15 mins</t>
+  </si>
+  <si>
+    <t>lunch and others 90mins, Softskill session - 2hr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1401,6 +1457,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1502,10 +1566,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1631,8 +1696,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3294,15 +3361,15 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2D3FBA-C93D-4333-B7E1-C7BA11A34680}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="30">
+    <row r="1" spans="1:9" ht="30">
       <c r="A1" s="27" t="s">
         <v>258</v>
       </c>
@@ -3325,7 +3392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="76.5">
+    <row r="2" spans="1:9" ht="129.75" customHeight="1">
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
@@ -3343,8 +3410,11 @@
         <v>384</v>
       </c>
       <c r="G2" s="28"/>
-    </row>
-    <row r="3" spans="1:7" ht="51">
+      <c r="I2" s="45" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="51">
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
@@ -3363,7 +3433,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="78.75" customHeight="1">
+    <row r="4" spans="1:9" ht="78.75" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
@@ -3382,102 +3452,98 @@
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" ht="71.25" customHeight="1">
+    <row r="5" spans="1:9" ht="131.25" customHeight="1">
       <c r="A5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="35" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:7" ht="51">
+    <row r="6" spans="1:9" ht="113.25" customHeight="1">
       <c r="A6" s="30" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="51">
+    <row r="7" spans="1:9" ht="77.25" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>363</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="C7" s="33"/>
       <c r="D7" s="14"/>
       <c r="E7" s="13" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="135" customHeight="1">
+    <row r="8" spans="1:9" ht="135" customHeight="1">
       <c r="A8" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>366</v>
-      </c>
+      <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="35" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="66" customHeight="1">
+    <row r="9" spans="1:9" ht="95.25" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>372</v>
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="63.75">
+    <row r="10" spans="1:9" ht="63.75">
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
@@ -3496,7 +3562,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="63" customHeight="1">
+    <row r="11" spans="1:9" ht="63" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
@@ -3515,26 +3581,29 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="57.75" customHeight="1">
+    <row r="12" spans="1:9" ht="57.75" customHeight="1">
       <c r="A12" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="G12" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{120B6D02-1A0C-47E1-B798-6049D6680E11}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{678B690F-79CD-4D69-972C-BE74088B43B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23E66DDB-9BDA-47F4-A9B5-D13638C68A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <sheet name="21-04-22" sheetId="54" r:id="rId13"/>
     <sheet name="22-04-22" sheetId="55" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1687,6 +1687,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1696,7 +1697,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2912,14 +2912,14 @@
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="16" t="s">
@@ -3410,7 +3410,7 @@
         <v>384</v>
       </c>
       <c r="G2" s="28"/>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="42" t="s">
         <v>385</v>
       </c>
     </row>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23E66DDB-9BDA-47F4-A9B5-D13638C68A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5CF87D3-F022-4A9B-A4EA-45619708F5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <sheet name="21-04-22" sheetId="54" r:id="rId13"/>
     <sheet name="22-04-22" sheetId="55" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="408">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1259,6 +1259,9 @@
     <t>visual studio code - .Net SDK is not found in VSCode - Stack Overflow</t>
   </si>
   <si>
+    <t>Dashboard and Layout Responsiveness</t>
+  </si>
+  <si>
     <t>web API(Role)</t>
   </si>
   <si>
@@ -1280,7 +1283,7 @@
     <t>Team discussion-20 min,Meeting with Rafi-60 min,Discussion on Layout-30 min,Team discussion-30 min, Review of service-30 min</t>
   </si>
   <si>
-    <t>Lunch and Break-90 min,Fun friday -1.5 hours, Layout Exploration -1,5 hours</t>
+    <t>Lunch and Break-90 min,Fun friday -2 hours, Layout Exploration -1 hours</t>
   </si>
   <si>
     <t>Web Api exploration</t>
@@ -1309,7 +1312,10 @@
     <t>registration for co-Ordinator</t>
   </si>
   <si>
-    <t>team disussion  -30mim, meeting with rafi-60min,  working on layout for registration page( head)-120min, reviewed the services-35min</t>
+    <t>team disussion  -30mim, meeting with rafi-60min,  working on layout for registration page( head)-90min, reviewed the services-35min</t>
+  </si>
+  <si>
+    <t>lunch -1.15hrs softskill(fun friday activity) with TN team-120min</t>
   </si>
   <si>
     <t>Building Api for Department Service</t>
@@ -3361,15 +3367,15 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2D3FBA-C93D-4333-B7E1-C7BA11A34680}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:22" ht="30">
       <c r="A1" s="27" t="s">
         <v>258</v>
       </c>
@@ -3392,7 +3398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="129.75" customHeight="1">
+    <row r="2" spans="1:22" ht="129.75" customHeight="1">
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
@@ -3410,11 +3416,11 @@
         <v>384</v>
       </c>
       <c r="G2" s="28"/>
-      <c r="I2" s="42" t="s">
+      <c r="V2" s="42" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="51">
+    <row r="3" spans="1:22" ht="51">
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
@@ -3433,15 +3439,15 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="78.75" customHeight="1">
+    <row r="4" spans="1:22" ht="78.75" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
@@ -3452,62 +3458,62 @@
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="131.25" customHeight="1">
+    <row r="5" spans="1:22" ht="131.25" customHeight="1">
       <c r="A5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="35" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:9" ht="113.25" customHeight="1">
+    <row r="6" spans="1:22" ht="113.25" customHeight="1">
       <c r="A6" s="30" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="77.25" customHeight="1">
+    <row r="7" spans="1:22" ht="77.25" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="14"/>
       <c r="E7" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="135" customHeight="1">
+    <row r="8" spans="1:22" ht="135" customHeight="1">
       <c r="A8" s="16" t="s">
         <v>21</v>
       </c>
@@ -3517,33 +3523,33 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="35" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="95.25" customHeight="1">
+    <row r="9" spans="1:22" ht="95.25" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="63.75">
+    <row r="10" spans="1:22" ht="63.75">
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
@@ -3562,7 +3568,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="63" customHeight="1">
+    <row r="11" spans="1:22" ht="63" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
@@ -3581,28 +3587,28 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="57.75" customHeight="1">
+    <row r="12" spans="1:22" ht="57.75" customHeight="1">
       <c r="A12" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G12" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{120B6D02-1A0C-47E1-B798-6049D6680E11}"/>
+    <hyperlink ref="V2" r:id="rId1" xr:uid="{120B6D02-1A0C-47E1-B798-6049D6680E11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5CF87D3-F022-4A9B-A4EA-45619708F5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21D256B8-856F-4F45-9476-B261AEAB477F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5-4-22" sheetId="40" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="20-04-22" sheetId="53" r:id="rId12"/>
     <sheet name="21-04-22" sheetId="54" r:id="rId13"/>
     <sheet name="22-04-22" sheetId="55" r:id="rId14"/>
+    <sheet name="23-04-22" sheetId="56" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="415">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1262,6 +1263,12 @@
     <t>Dashboard and Layout Responsiveness</t>
   </si>
   <si>
+    <t>Team Discussion about Work progress - 20mins, Meeting with Rafi - 60mins, Working and  Alteration on Head Dashboard 120mins</t>
+  </si>
+  <si>
+    <t>Lunch and Tea break-75min , Fun Friday Activity - 90mins</t>
+  </si>
+  <si>
     <t>web API(Role)</t>
   </si>
   <si>
@@ -1328,6 +1335,21 @@
   </si>
   <si>
     <t>lunch and others 90mins, Softskill session - 2hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team meeting -30 min , Client meeting - 60 mins ,1hr : review the all Layout and clarifying the doubt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 mins : lunch and break time </t>
+  </si>
+  <si>
+    <t>Department Service Api</t>
+  </si>
+  <si>
+    <t>Team meeting -30 min , Client meeting - 60 mins ,Updating MOM - 15min, Design pattern - 55 mins, Adding (Context,Controller,Httpverbs) in department service</t>
+  </si>
+  <si>
+    <t>lunch and breaks - 90mins</t>
   </si>
 </sst>
 </file>
@@ -1576,7 +1598,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1702,6 +1724,15 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3369,11 +3400,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2D3FBA-C93D-4333-B7E1-C7BA11A34680}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30">
       <c r="A1" s="27" t="s">
@@ -3439,22 +3474,22 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="78.75" customHeight="1">
+    <row r="4" spans="1:22" ht="101.25" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>386</v>
+        <v>319</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>386</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -3463,17 +3498,17 @@
         <v>17</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="35" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G5" s="29"/>
     </row>
@@ -3482,17 +3517,17 @@
         <v>19</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -3501,15 +3536,15 @@
         <v>20</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="14"/>
       <c r="E7" s="13" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -3523,10 +3558,10 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="35" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -3535,17 +3570,17 @@
         <v>22</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -3592,17 +3627,17 @@
         <v>86</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -3610,6 +3645,251 @@
   <hyperlinks>
     <hyperlink ref="V2" r:id="rId1" xr:uid="{120B6D02-1A0C-47E1-B798-6049D6680E11}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B509DB2-7281-4C29-BE82-B5795AEB1608}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="45">
+      <c r="A1" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="63.75">
+      <c r="A2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
+    </row>
+    <row r="4" spans="1:7" ht="51">
+      <c r="A4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" ht="38.25">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" ht="165.75">
+      <c r="A6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="178.5">
+      <c r="A7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="357">
+      <c r="A8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="165.75">
+      <c r="A9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="204">
+      <c r="A10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="191.25">
+      <c r="A11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="68.25" customHeight="1">
+      <c r="A12" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21D256B8-856F-4F45-9476-B261AEAB477F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2646ED88-29E5-486E-9368-B3A635E22988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5-4-22" sheetId="40" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="425">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1145,6 +1145,16 @@
     <t>exploring on web api(2 hrs),break-40 mins,total -2hrs 40 mins</t>
   </si>
   <si>
+    <t>Team meeting -30 min , 
+Client meeting - 60 mins ,
+Team meeting - 30mins,
+Services and classes - 2 hrs, 
+Angular - 3 hrs</t>
+  </si>
+  <si>
+    <t>4hrs</t>
+  </si>
+  <si>
     <t>Layout for TMS except Head navbar</t>
   </si>
   <si>
@@ -1260,13 +1270,13 @@
     <t>visual studio code - .Net SDK is not found in VSCode - Stack Overflow</t>
   </si>
   <si>
-    <t>Dashboard and Layout Responsiveness</t>
-  </si>
-  <si>
-    <t>Team Discussion about Work progress - 20mins, Meeting with Rafi - 60mins, Working and  Alteration on Head Dashboard 120mins</t>
-  </si>
-  <si>
-    <t>Lunch and Tea break-75min , Fun Friday Activity - 90mins</t>
+    <t>Footer, Head View pages(list of coordinator, trainer, trainee, reviewer)</t>
+  </si>
+  <si>
+    <t>Meeting with Rafi - 60mins, Working on Head Layout 120mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunch and Tea break-75min </t>
   </si>
   <si>
     <t>web API(Role)</t>
@@ -1337,19 +1347,43 @@
     <t>lunch and others 90mins, Softskill session - 2hr</t>
   </si>
   <si>
-    <t xml:space="preserve">Team meeting -30 min , Client meeting - 60 mins ,1hr : review the all Layout and clarifying the doubt </t>
+    <t>Team Meeting-30 mins,Meeting with Rafi-60mins,web api department-4hrs</t>
+  </si>
+  <si>
+    <t>Exploring Web api 1 hr,Break 40 mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 mins : Team meeting  ,  60 mins:Client meeting ,1hr : review the all Layout and clarifying the doubt </t>
   </si>
   <si>
     <t xml:space="preserve">30 mins : lunch and break time </t>
   </si>
   <si>
+    <t>Meeting with Rafi - 60mins, Working on layout for login and refining the training head</t>
+  </si>
+  <si>
+    <t>Lunch and Break-90 min,HTML exploration-60  min</t>
+  </si>
+  <si>
+    <t>Team meeting 30 mins , Meeting with Rafi - 1 hour,</t>
+  </si>
+  <si>
+    <t>Lunch and break - 1 hour 30 mins</t>
+  </si>
+  <si>
+    <t>course register page of co-ordinator</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> meeting with rafi-60min,  working on layout for  co ordinator-120min</t>
+  </si>
+  <si>
     <t>Department Service Api</t>
   </si>
   <si>
-    <t>Team meeting -30 min , Client meeting - 60 mins ,Updating MOM - 15min, Design pattern - 55 mins, Adding (Context,Controller,Httpverbs) in department service</t>
-  </si>
-  <si>
-    <t>lunch and breaks - 90mins</t>
+    <t>Team meeting -30 min , Client meeting - 60 mins ,Updating MOM - 15min,  Adding (Context,Controller,Httpverbs) in department service</t>
+  </si>
+  <si>
+    <t>lunch and breaks - 90mins,Design pattern - 55 mins,</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1726,13 +1760,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3149,13 +3192,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE4816C-CAE5-4525-AB01-5036960B55BC}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3201,22 +3245,22 @@
       </c>
       <c r="G2" s="28"/>
     </row>
-    <row r="3" spans="1:7" ht="53.25">
+    <row r="3" spans="1:7" ht="90.75" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>289</v>
+      <c r="C3" s="14" t="s">
+        <v>350</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="35" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -3225,17 +3269,17 @@
         <v>16</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -3244,36 +3288,36 @@
         <v>17</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="35" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:7" ht="53.25">
+    <row r="6" spans="1:7" ht="51">
       <c r="A6" s="30" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -3282,17 +3326,17 @@
         <v>20</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="13" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -3304,14 +3348,14 @@
         <v>302</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="35" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -3320,17 +3364,17 @@
         <v>22</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -3339,17 +3383,17 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="35" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -3361,14 +3405,14 @@
         <v>319</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -3377,17 +3421,17 @@
         <v>86</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -3401,7 +3445,7 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:G12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="15"/>
@@ -3445,34 +3489,28 @@
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="13" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G2" s="28"/>
       <c r="V2" s="42" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="51">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="G3" s="4"/>
+      <c r="B3" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:22" ht="101.25" customHeight="1">
       <c r="A4" s="16" t="s">
@@ -3482,14 +3520,14 @@
         <v>319</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -3498,17 +3536,17 @@
         <v>17</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="35" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G5" s="29"/>
     </row>
@@ -3517,17 +3555,17 @@
         <v>19</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -3536,15 +3574,15 @@
         <v>20</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="14"/>
       <c r="E7" s="13" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -3558,10 +3596,10 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="35" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -3570,17 +3608,17 @@
         <v>22</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -3589,17 +3627,17 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="35" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -3611,14 +3649,14 @@
         <v>319</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -3627,21 +3665,24 @@
         <v>86</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G12" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="V2" r:id="rId1" xr:uid="{120B6D02-1A0C-47E1-B798-6049D6680E11}"/>
   </hyperlinks>
@@ -3654,7 +3695,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3691,22 +3732,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="63.75">
+    <row r="2" spans="1:7" ht="38.25">
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>347</v>
-      </c>
+      <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="13" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="G2" s="28"/>
     </row>
@@ -3731,71 +3770,67 @@
         <v>319</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" ht="38.25">
+    <row r="5" spans="1:7" ht="53.25" customHeight="1">
       <c r="A5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="35" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:7" ht="165.75">
+    <row r="6" spans="1:7" ht="38.25">
       <c r="A6" s="30" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>394</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="178.5">
+    <row r="7" spans="1:7" ht="36" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>397</v>
-      </c>
+      <c r="B7" s="23"/>
       <c r="C7" s="33"/>
       <c r="D7" s="14"/>
       <c r="E7" s="13" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="357">
+    <row r="8" spans="1:7" ht="138" customHeight="1">
       <c r="A8" s="16" t="s">
         <v>21</v>
       </c>
@@ -3805,90 +3840,80 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="35" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="165.75">
+    <row r="9" spans="1:7" ht="133.5" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>402</v>
+        <v>319</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="204">
+    <row r="10" spans="1:7" ht="35.25" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
-        <v>373</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="35" t="s">
-        <v>375</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="191.25">
+      <c r="B10" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+    </row>
+    <row r="11" spans="1:7" ht="36.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="68.25" customHeight="1">
+      <c r="B11" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+    </row>
+    <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="G12" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D892F95C-87EA-44FB-AA7F-FC83200B6258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BB309B9-7011-4D47-BB3B-F2BAE722A734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="445">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1434,7 +1434,28 @@
 understanding EF ref code - 3 hr</t>
   </si>
   <si>
+    <t>3hrs</t>
+  </si>
+  <si>
     <t>Team Disscussion - 30mins, Meeting with Rafi - 20mins, Working on Head Layout 120mins</t>
+  </si>
+  <si>
+    <t>Common Layout of TMS</t>
+  </si>
+  <si>
+    <t>Common login for TMS and refining the layout</t>
+  </si>
+  <si>
+    <t>Meeting with Rafi - 20mins, Team discussion-20 min,Working on Login layout-60 min,Team discussion-30 min</t>
+  </si>
+  <si>
+    <t>Lunch and Break-90 min</t>
+  </si>
+  <si>
+    <t>Team meeting -30 min , Client meeting - 20mins ,Updating MOM - 10min,  Creating (CRUD operations) in department service</t>
+  </si>
+  <si>
+    <t>lunch and breaks - 90mins</t>
   </si>
 </sst>
 </file>
@@ -3992,7 +4013,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4057,8 +4078,12 @@
         <v>436</v>
       </c>
       <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="E3" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>351</v>
+      </c>
       <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:7" ht="74.25" customHeight="1">
@@ -4073,7 +4098,7 @@
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>390</v>
@@ -4102,15 +4127,17 @@
         <v>19</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="C6" s="14"/>
+        <v>439</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>440</v>
+      </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -4118,17 +4145,11 @@
       <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>424</v>
-      </c>
+      <c r="B7" s="23"/>
       <c r="C7" s="33"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>426</v>
-      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="138" customHeight="1">
@@ -4203,10 +4224,10 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="G12" s="4"/>
     </row>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BB309B9-7011-4D47-BB3B-F2BAE722A734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45460260-D540-4568-A0A6-D474465E80B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5-4-22" sheetId="40" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="449">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1422,6 +1422,12 @@
     <t>lunch and breaks - 90mins,Design pattern - 55 mins,</t>
   </si>
   <si>
+    <t xml:space="preserve">Team Meeting-30 mins,Meeting with Rafi-23mins,web api department-3hrs,total 3 hrs 53 mins </t>
+  </si>
+  <si>
+    <t>collecting System Issues in Corvus 40 mins,Exploring Web api 1 hr,Break 40 mins,relocating my system from caelum  to corvus-40 mins,total 3 hrs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Estimation
 web api
 </t>
@@ -1437,7 +1443,7 @@
     <t>3hrs</t>
   </si>
   <si>
-    <t>Team Disscussion - 30mins, Meeting with Rafi - 20mins, Working on Head Layout 120mins</t>
+    <t xml:space="preserve">Team Discussion - 30mins, Meeting with Rafi - 20mins, Team Discussion about </t>
   </si>
   <si>
     <t>Common Layout of TMS</t>
@@ -1450,6 +1456,12 @@
   </si>
   <si>
     <t>Lunch and Break-90 min</t>
+  </si>
+  <si>
+    <t>Team meeting - 30 mins, Meeting with Rafi - 20 mins , Created a layout page (Course Topic and Assign course) - 2 hours</t>
+  </si>
+  <si>
+    <t>Others(Lunch and break) - 1 hour 30 mins</t>
   </si>
   <si>
     <t>Team meeting -30 min , Client meeting - 20mins ,Updating MOM - 10min,  Creating (CRUD operations) in department service</t>
@@ -1828,6 +1840,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1854,12 +1872,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3079,14 +3091,14 @@
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="16" t="s">
@@ -3590,14 +3602,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:22" ht="101.25" customHeight="1">
       <c r="A4" s="16" t="s">
@@ -3781,7 +3793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B509DB2-7281-4C29-BE82-B5795AEB1608}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -3840,14 +3852,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:7" ht="51">
       <c r="A4" s="16" t="s">
@@ -3959,27 +3971,27 @@
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="11" spans="1:7" ht="36.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
     </row>
     <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
@@ -4012,8 +4024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14287F61-8AE3-4555-BA8D-07210E8D9156}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4050,7 +4062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="25.5">
+    <row r="2" spans="1:7" ht="63.75">
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
@@ -4060,10 +4072,10 @@
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="13" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="G2" s="28"/>
     </row>
@@ -4071,15 +4083,15 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>435</v>
+      <c r="B3" s="46" t="s">
+        <v>437</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D3" s="43"/>
       <c r="E3" s="43" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F3" s="43" t="s">
         <v>351</v>
@@ -4090,7 +4102,7 @@
       <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="45" t="s">
         <v>319</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -4098,7 +4110,7 @@
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>390</v>
@@ -4127,17 +4139,17 @@
         <v>19</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -4148,8 +4160,12 @@
       <c r="B7" s="23"/>
       <c r="C7" s="33"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="33"/>
+      <c r="E7" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>446</v>
+      </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="138" customHeight="1">
@@ -4192,27 +4208,27 @@
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="11" spans="1:7" ht="36.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
     </row>
     <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
@@ -4224,10 +4240,10 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G12" s="4"/>
     </row>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45460260-D540-4568-A0A6-D474465E80B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C267D55F-A2BA-48C1-B8C0-05074F08E65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5-4-22" sheetId="40" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="453">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1407,7 +1407,7 @@
 </t>
   </si>
   <si>
-    <t>course register page of co-ordinator</t>
+    <t>profile page for training head and refining all layout</t>
   </si>
   <si>
     <t xml:space="preserve"> meeting with rafi-60min,  working on layout for  co ordinator-120min</t>
@@ -1443,7 +1443,10 @@
     <t>3hrs</t>
   </si>
   <si>
-    <t xml:space="preserve">Team Discussion - 30mins, Meeting with Rafi - 20mins, Team Discussion about </t>
+    <t>Filter, Refining all pages and responsiveness</t>
+  </si>
+  <si>
+    <t>Team Discussion - 20mins, Meeting with Rafi - 20mins, Team Discussion about Layout Completion -30mins</t>
   </si>
   <si>
     <t>Common Layout of TMS</t>
@@ -1462,6 +1465,18 @@
   </si>
   <si>
     <t>Others(Lunch and break) - 1 hour 30 mins</t>
+  </si>
+  <si>
+    <t>HTML layout for confirmation message box</t>
+  </si>
+  <si>
+    <t>Team  meeting-20mins
+Review Meeting with Rafi-20mins
+team discussion -30 mins
+HTML layout (attendance,confirmation message box)-3.5hrs</t>
+  </si>
+  <si>
+    <t>course register page of co-ordinator</t>
   </si>
   <si>
     <t>Team meeting -30 min , Client meeting - 20mins ,Updating MOM - 10min,  Creating (CRUD operations) in department service</t>
@@ -1846,6 +1861,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1872,9 +1890,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3091,14 +3106,14 @@
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="16" t="s">
@@ -3602,14 +3617,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:22" ht="101.25" customHeight="1">
       <c r="A4" s="16" t="s">
@@ -3793,8 +3808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B509DB2-7281-4C29-BE82-B5795AEB1608}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3852,14 +3867,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:7" ht="51">
       <c r="A4" s="16" t="s">
@@ -3952,9 +3967,7 @@
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>319</v>
-      </c>
+      <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
         <v>430</v>
       </c>
@@ -3971,27 +3984,27 @@
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:7" ht="36.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="56"/>
     </row>
     <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
@@ -4024,8 +4037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14287F61-8AE3-4555-BA8D-07210E8D9156}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4086,7 +4099,7 @@
       <c r="B3" s="46" t="s">
         <v>437</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="47" t="s">
         <v>438</v>
       </c>
       <c r="D3" s="43"/>
@@ -4106,11 +4119,11 @@
         <v>319</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>390</v>
@@ -4139,17 +4152,17 @@
         <v>19</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -4161,10 +4174,10 @@
       <c r="C7" s="33"/>
       <c r="D7" s="14"/>
       <c r="E7" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -4173,12 +4186,14 @@
         <v>21</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="C8" s="14"/>
+        <v>302</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>448</v>
+      </c>
       <c r="D8" s="14"/>
       <c r="E8" s="35" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>429</v>
@@ -4193,7 +4208,7 @@
         <v>319</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
@@ -4208,27 +4223,27 @@
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:7" ht="36.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="56"/>
     </row>
     <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
@@ -4240,10 +4255,10 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G12" s="4"/>
     </row>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C267D55F-A2BA-48C1-B8C0-05074F08E65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F1D5D4D-F0EE-4280-90C2-2F471BD5206C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5-4-22" sheetId="40" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="455">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1410,7 +1410,7 @@
     <t>profile page for training head and refining all layout</t>
   </si>
   <si>
-    <t xml:space="preserve"> meeting with rafi-60min,  working on layout for  co ordinator-120min</t>
+    <t xml:space="preserve"> team discussion-20min,meeting with rafi-23min, team discussion-30min(abouth the layout completion)  working on layout for  profile view page (training head) -120min</t>
   </si>
   <si>
     <t>Department Service Api</t>
@@ -1461,10 +1461,13 @@
     <t>Lunch and Break-90 min</t>
   </si>
   <si>
-    <t>Team meeting - 30 mins, Meeting with Rafi - 20 mins , Created a layout page (Course Topic and Assign course) - 2 hours</t>
-  </si>
-  <si>
-    <t>Others(Lunch and break) - 1 hour 30 mins</t>
+    <t>Working on  Responsiveness for Create Topic page</t>
+  </si>
+  <si>
+    <t>Team meeting - 30 mins, Meeting with Rafi - 20 mins , Created a layout page (Create Topic and Assign course) - 2 hours</t>
+  </si>
+  <si>
+    <t>Others(Lunch and break) - 1 hour 30 mins, Tutorial about HTML - 1 hour</t>
   </si>
   <si>
     <t>HTML layout for confirmation message box</t>
@@ -1479,7 +1482,10 @@
     <t>course register page of co-ordinator</t>
   </si>
   <si>
-    <t>Team meeting -30 min , Client meeting - 20mins ,Updating MOM - 10min,  Creating (CRUD operations) in department service</t>
+    <t xml:space="preserve"> meeting with rafi-60min,  working on layout for  co ordinator-120min</t>
+  </si>
+  <si>
+    <t>Team meeting -30 min , Client meeting - 20mins ,Updating MOM - 10min,  Creating (CRUD operations) in department service - 4hrs</t>
   </si>
   <si>
     <t>lunch and breaks - 90mins</t>
@@ -3808,7 +3814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B509DB2-7281-4C29-BE82-B5795AEB1608}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -4038,7 +4044,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4170,14 +4176,16 @@
       <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="23" t="s">
+        <v>446</v>
+      </c>
       <c r="C7" s="33"/>
       <c r="D7" s="14"/>
       <c r="E7" s="13" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -4189,11 +4197,11 @@
         <v>302</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="35" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>429</v>
@@ -4208,11 +4216,11 @@
         <v>319</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>374</v>
@@ -4255,10 +4263,10 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G12" s="4"/>
     </row>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21D256B8-856F-4F45-9476-B261AEAB477F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE15C158-7294-4414-8999-3C8664BA9539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5-4-22" sheetId="40" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="21-04-22" sheetId="54" r:id="rId13"/>
     <sheet name="22-04-22" sheetId="55" r:id="rId14"/>
     <sheet name="23-04-22" sheetId="56" r:id="rId15"/>
+    <sheet name="25-04-22" sheetId="57" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="453">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1145,6 +1146,16 @@
     <t>exploring on web api(2 hrs),break-40 mins,total -2hrs 40 mins</t>
   </si>
   <si>
+    <t>Team meeting -30 min , 
+Client meeting - 60 mins ,
+Team meeting - 30mins,
+Services and classes - 2 hrs, 
+Angular - 3 hrs</t>
+  </si>
+  <si>
+    <t>4hrs</t>
+  </si>
+  <si>
     <t>Layout for TMS except Head navbar</t>
   </si>
   <si>
@@ -1260,13 +1271,13 @@
     <t>visual studio code - .Net SDK is not found in VSCode - Stack Overflow</t>
   </si>
   <si>
-    <t>Dashboard and Layout Responsiveness</t>
-  </si>
-  <si>
-    <t>Team Discussion about Work progress - 20mins, Meeting with Rafi - 60mins, Working and  Alteration on Head Dashboard 120mins</t>
-  </si>
-  <si>
-    <t>Lunch and Tea break-75min , Fun Friday Activity - 90mins</t>
+    <t>Footer, Head View pages(list of coordinator, trainer, trainee, reviewer)</t>
+  </si>
+  <si>
+    <t>Meeting with Rafi - 60mins, Working on Head Layout 120mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunch and Tea break-75min </t>
   </si>
   <si>
     <t>web API(Role)</t>
@@ -1325,6 +1336,24 @@
     <t>lunch -1.15hrs softskill(fun friday activity) with TN team-120min</t>
   </si>
   <si>
+    <t>refining system architecture,review the services</t>
+  </si>
+  <si>
+    <t>1hr : Meeting with Rafi,20 mins : Team Meeting, 35 mins : Review the Services</t>
+  </si>
+  <si>
+    <t>1.30 mins Fun friday,1.30 mins : lunch and break</t>
+  </si>
+  <si>
+    <t>Refining Head dashboard,reviewing services</t>
+  </si>
+  <si>
+    <t>Team discussion -30 min,Meeting with Rafi - 1hr, Working on Head Layout -30 mins, Review the services-20 mins.</t>
+  </si>
+  <si>
+    <t>Lunch -35mins,Break-20 min,fun friday-1.30 min</t>
+  </si>
+  <si>
     <t>Building Api for Department Service</t>
   </si>
   <si>
@@ -1337,16 +1366,120 @@
     <t>lunch and others 90mins, Softskill session - 2hr</t>
   </si>
   <si>
-    <t xml:space="preserve">Team meeting -30 min , Client meeting - 60 mins ,1hr : review the all Layout and clarifying the doubt </t>
+    <t>Meeting with Rafi-60mins,web api department-4hrs</t>
+  </si>
+  <si>
+    <t>Exploring Web api 1 hr,Break 40 mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 mins : Team meeting  ,  60 mins:Client meeting ,1hr : review the all Layout and clarifying the doubt </t>
   </si>
   <si>
     <t xml:space="preserve">30 mins : lunch and break time </t>
   </si>
   <si>
+    <t>Meeting with Rafi - 60mins, Working on layout for login and refining the training head-120mins</t>
+  </si>
+  <si>
+    <t>Lunch and Break-90 min,HTML exploration-60  min</t>
+  </si>
+  <si>
+    <t>Web API exploration ,Model for TMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meeting with Rafi - 1 hour, Web Api tutorial - 1 hour , Worked on namespace ,classes and properties-1hr</t>
+  </si>
+  <si>
+    <t>Lunch and break - 1 hour 30 mins</t>
+  </si>
+  <si>
+    <t>exploration on web api,Creating Model for TMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Review Meeting with Rafi-1hr
+web api (exploration)-2hr
+Creating Namespace ,classes and properties in VS code - 1hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Lunch &amp; Tea break - 1.5 hr
+</t>
+  </si>
+  <si>
+    <t>profile page for training head and refining all layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> meeting with rafi-60min,  working on layout for  co ordinator-120min</t>
+  </si>
+  <si>
     <t>Department Service Api</t>
   </si>
   <si>
-    <t>Team meeting -30 min , Client meeting - 60 mins ,Updating MOM - 15min, Design pattern - 55 mins, Adding (Context,Controller,Httpverbs) in department service</t>
+    <t>Team meeting -30 min , Client meeting - 60 mins ,Updating MOM - 15min,  Adding (Context,Controller,Httpverbs) in department service</t>
+  </si>
+  <si>
+    <t>lunch and breaks - 90mins,Design pattern - 55 mins,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Meeting-30 mins,Meeting with Rafi-23mins,web api department-3hrs,total 3 hrs 53 mins </t>
+  </si>
+  <si>
+    <t>collecting System Issues in Corvus 40 mins,Exploring Web api 1 hr,Break 40 mins,relocating my system from caelum  to corvus-40 mins,total 3 hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimation
+web api
+</t>
+  </si>
+  <si>
+    <t>team meeting - 30 mins
+web api middleware exploration - 1 hr 30 mins
+meeting with rafi - 20 mins
+team meeting - 30 mins
+understanding EF ref code - 3 hr</t>
+  </si>
+  <si>
+    <t>3hrs</t>
+  </si>
+  <si>
+    <t>Filter, Refining all pages and responsiveness</t>
+  </si>
+  <si>
+    <t>Team Discussion - 20mins, Meeting with Rafi - 20mins, Team Discussion about Layout Completion -30mins</t>
+  </si>
+  <si>
+    <t>Common Layout of TMS</t>
+  </si>
+  <si>
+    <t>Common login for TMS and refining the layout</t>
+  </si>
+  <si>
+    <t>Meeting with Rafi - 20mins, Team discussion-20 min,Working on Login layout-60 min,Team discussion-30 min</t>
+  </si>
+  <si>
+    <t>Lunch and Break-90 min</t>
+  </si>
+  <si>
+    <t>Team meeting - 30 mins, Meeting with Rafi - 20 mins , Created a layout page (Course Topic and Assign course) - 2 hours</t>
+  </si>
+  <si>
+    <t>Others(Lunch and break) - 1 hour 30 mins, Tutorial about HTML</t>
+  </si>
+  <si>
+    <t>HTML layout for confirmation message box</t>
+  </si>
+  <si>
+    <t>Team  meeting-20mins
+Review Meeting with Rafi-20mins
+team discussion -30 mins
+HTML layout (attendance,confirmation message box)-3.5hrs</t>
+  </si>
+  <si>
+    <t>course register page of co-ordinator</t>
+  </si>
+  <si>
+    <t>Team meeting -30 min , Client meeting - 20mins ,Updating MOM - 10min,  Creating (CRUD operations) in department service - 4hrs</t>
   </si>
   <si>
     <t>lunch and breaks - 90mins</t>
@@ -1598,7 +1731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1716,6 +1849,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1726,13 +1871,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2949,14 +3106,14 @@
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="16" t="s">
@@ -3149,13 +3306,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE4816C-CAE5-4525-AB01-5036960B55BC}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3201,22 +3359,22 @@
       </c>
       <c r="G2" s="28"/>
     </row>
-    <row r="3" spans="1:7" ht="53.25">
+    <row r="3" spans="1:7" ht="90.75" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>289</v>
+      <c r="C3" s="14" t="s">
+        <v>350</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="35" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -3225,17 +3383,17 @@
         <v>16</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -3244,36 +3402,36 @@
         <v>17</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="35" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:7" ht="53.25">
+    <row r="6" spans="1:7" ht="51">
       <c r="A6" s="30" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -3282,17 +3440,17 @@
         <v>20</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="13" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -3304,14 +3462,14 @@
         <v>302</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="35" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -3320,17 +3478,17 @@
         <v>22</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -3339,17 +3497,17 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="35" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -3361,14 +3519,14 @@
         <v>319</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -3377,17 +3535,17 @@
         <v>86</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -3400,8 +3558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2D3FBA-C93D-4333-B7E1-C7BA11A34680}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:G12"/>
+    <sheetView topLeftCell="J5" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="15"/>
@@ -3445,34 +3603,28 @@
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="13" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G2" s="28"/>
       <c r="V2" s="42" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="51">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="G3" s="4"/>
+      <c r="B3" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:22" ht="101.25" customHeight="1">
       <c r="A4" s="16" t="s">
@@ -3482,14 +3634,14 @@
         <v>319</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -3498,17 +3650,17 @@
         <v>17</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="35" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G5" s="29"/>
     </row>
@@ -3517,17 +3669,17 @@
         <v>19</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -3536,15 +3688,15 @@
         <v>20</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="14"/>
       <c r="E7" s="13" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -3558,10 +3710,10 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="35" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -3570,36 +3722,36 @@
         <v>22</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:22" ht="63.75">
+    <row r="10" spans="1:22" ht="38.25">
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="35" t="s">
-        <v>375</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>376</v>
+        <v>409</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>410</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -3611,14 +3763,14 @@
         <v>319</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>359</v>
+        <v>411</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -3627,21 +3779,24 @@
         <v>86</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="G12" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="V2" r:id="rId1" xr:uid="{120B6D02-1A0C-47E1-B798-6049D6680E11}"/>
   </hyperlinks>
@@ -3653,14 +3808,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B509DB2-7281-4C29-BE82-B5795AEB1608}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="29.42578125" customWidth="1"/>
@@ -3691,6 +3846,235 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:7" ht="25.5">
+      <c r="A2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="1:7" ht="70.5" customHeight="1">
+      <c r="A3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
+    </row>
+    <row r="4" spans="1:7" ht="51">
+      <c r="A4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" ht="53.25" customHeight="1">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" ht="93.75" customHeight="1">
+      <c r="A6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="106.5" customHeight="1">
+      <c r="A7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="138" customHeight="1">
+      <c r="A8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="133.5" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+    </row>
+    <row r="11" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
+    </row>
+    <row r="12" spans="1:7" ht="84" customHeight="1">
+      <c r="A12" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14287F61-8AE3-4555-BA8D-07210E8D9156}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="45">
+      <c r="A1" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="2" spans="1:7" ht="63.75">
       <c r="A2" s="16" t="s">
         <v>9</v>
@@ -3698,197 +4082,190 @@
       <c r="B2" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>347</v>
-      </c>
+      <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="13" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="G2" s="28"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="91.5" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>298</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-    </row>
-    <row r="4" spans="1:7" ht="51">
+        <v>437</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>438</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="G3" s="44"/>
+    </row>
+    <row r="4" spans="1:7" ht="74.25" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="45" t="s">
         <v>319</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" ht="38.25">
+    <row r="5" spans="1:7" ht="53.25" customHeight="1">
       <c r="A5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="35" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:7" ht="165.75">
+    <row r="6" spans="1:7" ht="93.75" customHeight="1">
       <c r="A6" s="30" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="178.5">
+    <row r="7" spans="1:7" ht="106.5" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>397</v>
-      </c>
+      <c r="B7" s="23"/>
       <c r="C7" s="33"/>
       <c r="D7" s="14"/>
       <c r="E7" s="13" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="357">
+    <row r="8" spans="1:7" ht="138" customHeight="1">
       <c r="A8" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="14" t="s">
+        <v>448</v>
+      </c>
       <c r="D8" s="14"/>
       <c r="E8" s="35" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="165.75">
+    <row r="9" spans="1:7" ht="133.5" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>402</v>
+        <v>319</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="204">
+    <row r="10" spans="1:7" ht="35.25" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
-        <v>373</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="35" t="s">
-        <v>375</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="191.25">
+      <c r="B10" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+    </row>
+    <row r="11" spans="1:7" ht="36.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="68.25" customHeight="1">
+      <c r="B11" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
+    </row>
+    <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>414</v>
+        <v>452</v>
       </c>
       <c r="G12" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:G3"/>
+  <mergeCells count="2">
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE15C158-7294-4414-8999-3C8664BA9539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C267D55F-A2BA-48C1-B8C0-05074F08E65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5-4-22" sheetId="40" r:id="rId1"/>
@@ -1464,7 +1464,7 @@
     <t>Team meeting - 30 mins, Meeting with Rafi - 20 mins , Created a layout page (Course Topic and Assign course) - 2 hours</t>
   </si>
   <si>
-    <t>Others(Lunch and break) - 1 hour 30 mins, Tutorial about HTML</t>
+    <t>Others(Lunch and break) - 1 hour 30 mins</t>
   </si>
   <si>
     <t>HTML layout for confirmation message box</t>
@@ -1479,7 +1479,7 @@
     <t>course register page of co-ordinator</t>
   </si>
   <si>
-    <t>Team meeting -30 min , Client meeting - 20mins ,Updating MOM - 10min,  Creating (CRUD operations) in department service - 4hrs</t>
+    <t>Team meeting -30 min , Client meeting - 20mins ,Updating MOM - 10min,  Creating (CRUD operations) in department service</t>
   </si>
   <si>
     <t>lunch and breaks - 90mins</t>
@@ -1861,6 +1861,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1887,9 +1890,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3106,14 +3106,14 @@
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="16" t="s">
@@ -3617,14 +3617,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:22" ht="101.25" customHeight="1">
       <c r="A4" s="16" t="s">
@@ -3808,8 +3808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B509DB2-7281-4C29-BE82-B5795AEB1608}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3867,14 +3867,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:7" ht="51">
       <c r="A4" s="16" t="s">
@@ -3984,27 +3984,27 @@
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:7" ht="36.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="56"/>
     </row>
     <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
@@ -4037,8 +4037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14287F61-8AE3-4555-BA8D-07210E8D9156}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4099,7 +4099,7 @@
       <c r="B3" s="46" t="s">
         <v>437</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="47" t="s">
         <v>438</v>
       </c>
       <c r="D3" s="43"/>
@@ -4223,27 +4223,27 @@
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:7" ht="36.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="56"/>
     </row>
     <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C267D55F-A2BA-48C1-B8C0-05074F08E65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59816D3B-6098-4A43-923A-A735DFFFE996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="458">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1410,7 +1410,7 @@
     <t>profile page for training head and refining all layout</t>
   </si>
   <si>
-    <t xml:space="preserve"> meeting with rafi-60min,  working on layout for  co ordinator-120min</t>
+    <t xml:space="preserve"> team discussion-20min,meeting with rafi-23min, team discussion-30min(abouth the layout completion)  working on layout for  profile view page (training head) -120min</t>
   </si>
   <si>
     <t>Department Service Api</t>
@@ -1443,10 +1443,25 @@
     <t>3hrs</t>
   </si>
   <si>
-    <t>Filter, Refining all pages and responsiveness</t>
-  </si>
-  <si>
-    <t>Team Discussion - 20mins, Meeting with Rafi - 20mins, Team Discussion about Layout Completion -30mins</t>
+    <t>Filter, Search , Refining all pages and responsiveness</t>
+  </si>
+  <si>
+    <t>Team Discussion - 20mins, Meeting with Rafi - 20mins, Team Discussion about Layout Completion -30mins, alteration in signin, signup page</t>
+  </si>
+  <si>
+    <t>Lunch and Break-75 min</t>
+  </si>
+  <si>
+    <t>Home page Layout</t>
+  </si>
+  <si>
+    <t>Entire MOM Layout</t>
+  </si>
+  <si>
+    <t>30 mins : Team meeting  ,  20 mins:Client meeting,30mins : Team discussion in Layout Completion, 1.30 mins MoM layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30 mins : lunch and break time </t>
   </si>
   <si>
     <t>Common Layout of TMS</t>
@@ -1461,10 +1476,13 @@
     <t>Lunch and Break-90 min</t>
   </si>
   <si>
-    <t>Team meeting - 30 mins, Meeting with Rafi - 20 mins , Created a layout page (Course Topic and Assign course) - 2 hours</t>
-  </si>
-  <si>
-    <t>Others(Lunch and break) - 1 hour 30 mins</t>
+    <t>Working on  Responsiveness for Create Topic page</t>
+  </si>
+  <si>
+    <t>Team meeting - 30 mins, Meeting with Rafi - 20 mins , Created a layout page (Create Topic and Assign course) - 2 hours</t>
+  </si>
+  <si>
+    <t>Others(Lunch and break) - 1 hour 30 mins, Tutorial about HTML - 1 hour</t>
   </si>
   <si>
     <t>HTML layout for confirmation message box</t>
@@ -1476,10 +1494,7 @@
 HTML layout (attendance,confirmation message box)-3.5hrs</t>
   </si>
   <si>
-    <t>course register page of co-ordinator</t>
-  </si>
-  <si>
-    <t>Team meeting -30 min , Client meeting - 20mins ,Updating MOM - 10min,  Creating (CRUD operations) in department service</t>
+    <t>Team meeting -30 min , Client meeting - 20mins ,Updating MOM - 10min,  Creating (CRUD operations) in department service - 4hrs</t>
   </si>
   <si>
     <t>lunch and breaks - 90mins</t>
@@ -1731,7 +1746,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1863,6 +1878,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3106,14 +3130,14 @@
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
     </row>
     <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="16" t="s">
@@ -3617,14 +3641,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:22" ht="101.25" customHeight="1">
       <c r="A4" s="16" t="s">
@@ -3809,7 +3833,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3867,14 +3891,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:7" ht="51">
       <c r="A4" s="16" t="s">
@@ -3984,27 +4008,27 @@
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="57" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7" ht="36.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="57" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="56"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
     </row>
     <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
@@ -4037,8 +4061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14287F61-8AE3-4555-BA8D-07210E8D9156}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4125,8 +4149,8 @@
       <c r="E4" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>390</v>
+      <c r="F4" s="19" t="s">
+        <v>442</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -4135,15 +4159,17 @@
         <v>17</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="C5" s="14"/>
+        <v>443</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>444</v>
+      </c>
       <c r="D5" s="14"/>
       <c r="E5" s="35" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="G5" s="29"/>
     </row>
@@ -4152,17 +4178,17 @@
         <v>19</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -4170,14 +4196,16 @@
       <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="23" t="s">
+        <v>451</v>
+      </c>
       <c r="C7" s="33"/>
       <c r="D7" s="14"/>
       <c r="E7" s="13" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -4189,11 +4217,11 @@
         <v>302</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="35" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>429</v>
@@ -4204,11 +4232,9 @@
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>319</v>
-      </c>
+      <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
@@ -4223,27 +4249,23 @@
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="57" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
-    </row>
-    <row r="11" spans="1:7" ht="36.75" customHeight="1">
-      <c r="A11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>298</v>
-      </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="56"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
+    </row>
+    <row r="11" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
     </row>
     <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
@@ -4255,17 +4277,16 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="G12" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C20D4B4-3E51-4065-AEE9-A492F7FB449B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21E988B3-782E-4A2B-8562-8207B5D50404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1771,7 +1771,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1913,12 +1913,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1945,6 +1939,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3161,14 +3164,14 @@
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
     </row>
     <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="16" t="s">
@@ -3672,14 +3675,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:22" ht="101.25" customHeight="1">
       <c r="A4" s="16" t="s">
@@ -3922,14 +3925,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:7" ht="51">
       <c r="A4" s="16" t="s">
@@ -4039,27 +4042,27 @@
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="57" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7" ht="36.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="57" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
     </row>
     <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
@@ -4093,7 +4096,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4276,14 +4279,14 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="35.25" customHeight="1">
+    <row r="10" spans="1:7" ht="55.5" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="45" t="s">
         <v>456</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="62" t="s">
         <v>457</v>
       </c>
       <c r="D10" s="46"/>
@@ -4295,16 +4298,16 @@
       </c>
       <c r="G10" s="47"/>
     </row>
-    <row r="11" spans="1:7" ht="60.75" customHeight="1">
+    <row r="11" spans="1:7" ht="79.5" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="45"/>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="61" t="s">
         <v>460</v>
       </c>
       <c r="D11" s="46"/>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="60" t="s">
         <v>461</v>
       </c>
       <c r="F11" s="46"/>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21E988B3-782E-4A2B-8562-8207B5D50404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2740D600-ACE2-4096-A1A5-3CC2121C0A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4095,8 +4095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14287F61-8AE3-4555-BA8D-07210E8D9156}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4310,8 +4310,7 @@
       <c r="E11" s="60" t="s">
         <v>461</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="13" t="s">
+      <c r="F11" s="13" t="s">
         <v>380</v>
       </c>
     </row>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2740D600-ACE2-4096-A1A5-3CC2121C0A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{209A5D8D-E6A9-4368-A567-AF0A5BC49C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5-4-22" sheetId="40" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="22-04-22" sheetId="55" r:id="rId14"/>
     <sheet name="23-04-22" sheetId="56" r:id="rId15"/>
     <sheet name="25-04-22" sheetId="57" r:id="rId16"/>
+    <sheet name="26-04-22" sheetId="58" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="476">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1516,6 +1517,93 @@
   </si>
   <si>
     <t>lunch and breaks - 90mins</t>
+  </si>
+  <si>
+    <t>Web Api services</t>
+  </si>
+  <si>
+    <t>8:30 - 9:05 : Updating timesheet and MOM,
+9:05 - 9:30 : Team meeting,      
+9:30 - 10:20 : Softskill,
+10:20 - 10:40 : break,
+10:45 - 11:45 : Web api services added(User,Department,Role),  
+11:45 - 12:15 : Estimation of pages in TMS, 
+12:15 - 12:35 : Helping in resolve a conflict,
+12:35 - 12:56 : Client meeting,
+1:00 - 1:40 : Lunch,
+2:00 - 2:40 : Web api session among team,  
+2:40 - 3:00 : worked on a Services,  
+3:00 - 3:40 : rework on a new repository,                                        
+3:40 - 4:15 : Implementing Serilog in api,
+4:15 - 4:30 : break,
+4:30 - 5:15 : Resolving conflict in webapi,
+5:15 - 5:45 : Clarifying about repository and worked on new repository</t>
+  </si>
+  <si>
+    <t>Web api (Debugging Errors-(8:15-9:00),                    repository(9:00-9:44),(10:40-12:00) ,                                 Estimation and discussion(12:00-12-33),Meeting with Rafi(12:36-12:52),Timesheet update(2:00-2:15),</t>
+  </si>
+  <si>
+    <t>Softskill session(9:44-10:33),Break(1:05-1:40),sending mail for installation(2:40-2:45),Webapi exploring(3:00-3:30),college call(3:30-3:45),Break(3:45-4:00),System installation (4:00-4:25),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Api exploration,
+Ef Core exploration
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:00 - 9:20 : TimeSheet,
+9:20 - 9:35 : Team meeting,      
+9:35 - 10:20 : Softskill,
+10:20 - 10:40 : Break,   
+10:40 - 10:55 : Estimation explaination,
+10:55 - 11:45 : Web api services added(DbContext,Migrations,UserService), 
+11:45 - 12:35 : Estimation of pages in TMS, 
+12:35 - 12:56 : Client meeting,
+12:56 - 1:30 : Lunch
+1:30 - 2:00 : preparing for web api session
+2:00 - 2:40 : Web api session among team,  
+2:40 - 3:30 : worked on UserServices.cs,
+3:30 - 4:00 : worked on IRepository.cs,                                        
+4:00 - 4:30 : Break 
+4:30 - 5:15 : Resolving conflict in Webapi                       </t>
+  </si>
+  <si>
+    <t>Estimation and Layout Correction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45-9.00 : Updating Timesheet and HLD Document
+9:05 - 9:30 : Team meeting
+10:40-10:55 : Estimation explanation meeting
+11:00-11:30 : Integrating my MOM layout with other layout pages 
+11.30-12.15: Helping in Attendence Layout
+12:35 - 12:56 : meeting with Rafi 
+3.00-4.30 mins : Identifying the pages and Estimation
+4.35-4.50 : Web API Session with other team 
+4.55-5.45: Layout Correction Explanation and Estimation
+</t>
+  </si>
+  <si>
+    <t>9:30 - 10:20 : Softskill
+2:00 - 3:00: webAPI Session with team
+10:20 - 10:40 : break
+1:00 - 1:40 : Lunch
+4:00- 4:15 : break</t>
+  </si>
+  <si>
+    <t>Refining the layout and responvise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimation explanation meeting-15 min
+30mins : Helping in Attendence Layout
+15 mins : meeting with Rafi 
+1.30 mins : Estimation
+10 mins : Layout Correction Explanation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Softskill-1 hour
+webAPI Session with team-1 hour, Prepare for Review -100 mins
+lunch and Break-80 mins </t>
   </si>
 </sst>
 </file>
@@ -1675,7 +1763,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1766,12 +1854,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1913,6 +2016,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1940,14 +2052,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3164,14 +3335,14 @@
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="16" t="s">
@@ -3282,7 +3453,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="51">
+    <row r="9" spans="1:10" ht="37.5">
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
@@ -3375,7 +3546,7 @@
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30">
+    <row r="1" spans="1:7" ht="27.75">
       <c r="A1" s="27" t="s">
         <v>258</v>
       </c>
@@ -3398,7 +3569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="63.75">
+    <row r="2" spans="1:7" ht="74.25">
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
@@ -3474,7 +3645,7 @@
       </c>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:7" ht="51">
+    <row r="6" spans="1:7" ht="49.5">
       <c r="A6" s="30" t="s">
         <v>19</v>
       </c>
@@ -3493,7 +3664,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="51">
+    <row r="7" spans="1:7" ht="49.5">
       <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
@@ -3550,7 +3721,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="89.25">
+    <row r="10" spans="1:7" ht="61.5">
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
@@ -3626,7 +3797,7 @@
     <col min="6" max="6" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30">
+    <row r="1" spans="1:22">
       <c r="A1" s="27" t="s">
         <v>258</v>
       </c>
@@ -3675,14 +3846,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="57" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="1:22" ht="101.25" customHeight="1">
       <c r="A4" s="16" t="s">
@@ -3794,7 +3965,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:22" ht="38.25">
+    <row r="10" spans="1:22" ht="25.5">
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
@@ -3881,7 +4052,7 @@
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45">
+    <row r="1" spans="1:7" ht="27.75">
       <c r="A1" s="27" t="s">
         <v>258</v>
       </c>
@@ -3925,16 +4096,16 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="57" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
-    </row>
-    <row r="4" spans="1:7" ht="51">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+    </row>
+    <row r="4" spans="1:7" ht="49.5">
       <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
@@ -4042,27 +4213,27 @@
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="60" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="1:7" ht="36.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="60" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
     </row>
     <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
@@ -4095,8 +4266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14287F61-8AE3-4555-BA8D-07210E8D9156}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4110,7 +4281,7 @@
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30">
+    <row r="1" spans="1:7">
       <c r="A1" s="27" t="s">
         <v>258</v>
       </c>
@@ -4133,7 +4304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="63.75">
+    <row r="2" spans="1:7" ht="61.5">
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
@@ -4286,7 +4457,7 @@
       <c r="B10" s="45" t="s">
         <v>456</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="53" t="s">
         <v>457</v>
       </c>
       <c r="D10" s="46"/>
@@ -4303,11 +4474,11 @@
         <v>24</v>
       </c>
       <c r="B11" s="45"/>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="52" t="s">
         <v>460</v>
       </c>
       <c r="D11" s="46"/>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="51" t="s">
         <v>461</v>
       </c>
       <c r="F11" s="13" t="s">
@@ -4332,6 +4503,240 @@
       <c r="G12" s="4"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7172FC-5606-4FD6-B7B3-02AB5BD496A0}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25" style="65"/>
+    <col min="2" max="2" width="30.28515625" style="65" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" style="65" customWidth="1"/>
+    <col min="4" max="4" width="25" style="65"/>
+    <col min="5" max="5" width="47" style="65" customWidth="1"/>
+    <col min="6" max="6" width="42" style="65" customWidth="1"/>
+    <col min="7" max="16384" width="25" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="66" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="196.5" customHeight="1">
+      <c r="A2" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>464</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>465</v>
+      </c>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="82"/>
+    </row>
+    <row r="3" spans="1:7" ht="89.25">
+      <c r="A3" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>346</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69" t="s">
+        <v>466</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>467</v>
+      </c>
+      <c r="G3" s="83"/>
+    </row>
+    <row r="4" spans="1:7" ht="229.5">
+      <c r="A4" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>468</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>469</v>
+      </c>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>351</v>
+      </c>
+      <c r="G4" s="64"/>
+    </row>
+    <row r="5" spans="1:7" ht="133.5" customHeight="1">
+      <c r="A5" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>440</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68" t="s">
+        <v>441</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>442</v>
+      </c>
+      <c r="G5" s="63"/>
+    </row>
+    <row r="6" spans="1:7" ht="150" customHeight="1">
+      <c r="A6" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="74"/>
+      <c r="C6" s="68" t="s">
+        <v>470</v>
+      </c>
+      <c r="D6" s="68"/>
+      <c r="E6" s="75" t="s">
+        <v>471</v>
+      </c>
+      <c r="F6" s="75" t="s">
+        <v>472</v>
+      </c>
+      <c r="G6" s="84"/>
+    </row>
+    <row r="7" spans="1:7" ht="89.25">
+      <c r="A7" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68" t="s">
+        <v>473</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="75" t="s">
+        <v>474</v>
+      </c>
+      <c r="F7" s="86" t="s">
+        <v>475</v>
+      </c>
+      <c r="G7" s="82"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="74"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="82"/>
+    </row>
+    <row r="9" spans="1:7" ht="63.75">
+      <c r="A9" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>454</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="75" t="s">
+        <v>455</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>429</v>
+      </c>
+      <c r="G9" s="82"/>
+    </row>
+    <row r="10" spans="1:7" ht="38.25">
+      <c r="A10" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68" t="s">
+        <v>430</v>
+      </c>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68" t="s">
+        <v>431</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>374</v>
+      </c>
+      <c r="G10" s="82"/>
+    </row>
+    <row r="11" spans="1:7" ht="38.25">
+      <c r="A11" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="79" t="s">
+        <v>461</v>
+      </c>
+      <c r="F11" s="69" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="141.75" customHeight="1">
+      <c r="A12" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>456</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>457</v>
+      </c>
+      <c r="D12" s="77"/>
+      <c r="E12" s="75" t="s">
+        <v>458</v>
+      </c>
+      <c r="F12" s="75" t="s">
+        <v>459</v>
+      </c>
+      <c r="G12" s="85"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G12">
+    <sortCondition ref="A2:A12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BB309B9-7011-4D47-BB3B-F2BAE722A734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24087D29-89FC-40D5-B61F-689E15182F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5-4-22" sheetId="40" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="22-04-22" sheetId="55" r:id="rId14"/>
     <sheet name="23-04-22" sheetId="56" r:id="rId15"/>
     <sheet name="25-04-22" sheetId="57" r:id="rId16"/>
+    <sheet name="26-04-22" sheetId="58" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="480">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1407,10 +1408,10 @@
 </t>
   </si>
   <si>
-    <t>course register page of co-ordinator</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> meeting with rafi-60min,  working on layout for  co ordinator-120min</t>
+    <t>profile page for training head and refining all layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> team discussion-20min,meeting with rafi-23min, team discussion-30min(abouth the layout completion)  working on layout for  profile view page (training head) -120min</t>
   </si>
   <si>
     <t>Department Service Api</t>
@@ -1420,6 +1421,12 @@
   </si>
   <si>
     <t>lunch and breaks - 90mins,Design pattern - 55 mins,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Meeting-30 mins,Meeting with Rafi-23mins,web api department-3hrs,total 3 hrs 53 mins </t>
+  </si>
+  <si>
+    <t>collecting System Issues in Corvus 40 mins,Exploring Web api 1 hr,Break 40 mins,relocating my system from caelum  to corvus-40 mins,total 3 hrs</t>
   </si>
   <si>
     <t xml:space="preserve">Estimation
@@ -1437,7 +1444,25 @@
     <t>3hrs</t>
   </si>
   <si>
-    <t>Team Disscussion - 30mins, Meeting with Rafi - 20mins, Working on Head Layout 120mins</t>
+    <t>Filter, Search , Refining all pages and responsiveness</t>
+  </si>
+  <si>
+    <t>Team Discussion - 20mins, Meeting with Rafi - 20mins, Team Discussion about Layout Completion -30mins, alteration in signin, signup page</t>
+  </si>
+  <si>
+    <t>Lunch and Break-75 min</t>
+  </si>
+  <si>
+    <t>Home page Layout</t>
+  </si>
+  <si>
+    <t>Entire MOM Layout</t>
+  </si>
+  <si>
+    <t>30 mins : Team meeting  ,  20 mins:Client meeting,30mins : Team discussion in Layout Completion, 1.30 mins MoM layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30 mins : lunch and break time </t>
   </si>
   <si>
     <t>Common Layout of TMS</t>
@@ -1452,17 +1477,153 @@
     <t>Lunch and Break-90 min</t>
   </si>
   <si>
-    <t>Team meeting -30 min , Client meeting - 20mins ,Updating MOM - 10min,  Creating (CRUD operations) in department service</t>
+    <t>Working on  Responsiveness for Create Topic page</t>
+  </si>
+  <si>
+    <t>Team meeting - 30 mins, Meeting with Rafi - 20 mins , Created a layout page (Create Topic and Assign course) - 2 hours</t>
+  </si>
+  <si>
+    <t>Others(Lunch and break) - 1 hour 30 mins, Tutorial about HTML - 1 hour</t>
+  </si>
+  <si>
+    <t>HTML layout for confirmation message box</t>
+  </si>
+  <si>
+    <t>Team  meeting-20mins
+Review Meeting with Rafi-20mins
+team discussion -30 mins
+HTML layout (attendance,confirmation message box)-3.5hrs</t>
+  </si>
+  <si>
+    <t>Home Page Layout</t>
+  </si>
+  <si>
+    <t>layout for schedule review and view review for TMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team meeting for 30 mins  , Client meeting- 20 mins, Team discussion for splitting the work - 30 mins, 1.30 mins for Review page</t>
+  </si>
+  <si>
+    <t>Lunch break - 1:30 mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trainee Feedback layout ,Course Feedback layout </t>
+  </si>
+  <si>
+    <t>Team meeting-20 mins, meeting with client -23 mins,Team meeting( About layout completion)-30 min, working on layout for trainee feedback and course feedback -3h30mins</t>
+  </si>
+  <si>
+    <t>Team meeting -30 min , Client meeting - 20mins ,Updating MOM - 10min,  Creating (CRUD operations) in department service - 4hrs</t>
   </si>
   <si>
     <t>lunch and breaks - 90mins</t>
+  </si>
+  <si>
+    <t>Web Api services</t>
+  </si>
+  <si>
+    <t>8:30 - 9:05(35mins) : Updating timesheet and MOM,
+9:05 - 9:30(25mins) : Team meeting,      
+9:30 - 10:20(50mins) : Softskill,
+10:20 - 10:40(20mins) : break,
+10:45 - 11:45(60mins) : Web api services added(User,Department,Role),  
+11:45 - 12:15(30mins) : Estimation of pages in TMS, 
+12:15 - 12:25(10mins) : Helping in resolve a conflict,
+12:35 - 12:55(20mins) : Client meeting,
+1:00 - 1:40(40mins) : Lunch,
+2:00 - 2:40(40mins) : Web api session among team,  
+2:40 - 3:00(10mins) : worked on a Services,  
+3:00 - 3:40(40mins) : rework on a new repository,                                        
+3:40 - 4:15(35mins) : Implementing Serilog in api,
+4:15 - 4:30(15mins) : break,
+4:30 - 5:15(45mins) : Resolving conflict in webapi,
+5:15 - 5:45(30mins) : Clarifying about repository and worked on new repository
+7:00 - 7:45(45mis) : Midlleware exploration</t>
+  </si>
+  <si>
+    <t>6.3 hrs</t>
+  </si>
+  <si>
+    <t>3.10 hrs</t>
+  </si>
+  <si>
+    <t>Web api (Debugging Errors-(8:15-9:00),                    repository(9:00-9:44),(10:40-12:00) ,                                 Estimation and discussion(12:00-12-33),Meeting with Rafi(12:36-12:52),Timesheet update(2:00-2:15),</t>
+  </si>
+  <si>
+    <t>Softskill session(9:44-10:33),Break(1:05-1:40),sending mail for installation(2:40-2:45),Webapi exploring(3:00-3:30),college call(3:30-3:45),Break(3:45-4:00),System installation (4:00-4:25),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Api exploration,
+Ef Core exploration
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:00 - 9:20 : TimeSheet,
+9:20 - 9:35 : Team meeting,      
+9:35 - 10:20 : Softskill,
+10:20 - 10:40 : Break,   
+10:40 - 10:55 : Estimation explaination,
+10:55 - 11:45 : Web api services added(DbContext,Migrations,UserService), 
+11:45 - 12:35 : Estimation of pages in TMS, 
+12:35 - 12:56 : Client meeting,
+12:56 - 1:30 : Lunch
+1:30 - 2:00 : preparing for web api session 
+2:00 - 3:00 : worked on UserServices.cs,
+3:00 - 4:00 : Web api session among team,                                         
+4:00 - 4:30 : worked on IRepository.cs,
+4:30 - 4:45 : Break,
+4:45 - 5:30 : Resolving conflict in Webapi </t>
+  </si>
+  <si>
+    <t>Estimation and Layout Correction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45-9.00 : Updating Timesheet and HLD Document
+9:05 - 9:30 : Team meeting
+10:40-10:55 : Estimation explanation meeting
+11:00-11:30 : Integrating my MOM layout with other layout pages 
+11.30-12.15: Helping in Attendence Layout
+12:35 - 12:56 : meeting with Rafi 
+2.00-3.00 mins : Identifying the pages and Estimation
+4.35-4.50 : Web API Session with other team 
+4.55-5.45: Layout Correction Explanation and Estimation
+</t>
+  </si>
+  <si>
+    <t>9:30 - 10:20 : Softskill
+3:00 - 4:00: webAPI Session with team
+10:20 - 10:40 : break
+1:00 - 1:40 : Lunch
+4:00- 4:15 : break</t>
+  </si>
+  <si>
+    <t>Refining the layout and responvise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimation explanation meeting-15 min
+30mins : Helping in Attendence Layout
+15 mins : meeting with Rafi 
+1.30 mins : Estimation
+10 mins : Layout Correction Explanation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Softskill-1 hour
+webAPI Session with team-1 hour, Prepare for Review -100 mins
+lunch and Break-80 mins </t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>9:30 - 10:20 - Softskill session</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1599,6 +1760,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1608,7 +1776,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1699,12 +1867,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1828,6 +2011,33 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1855,14 +2065,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3079,14 +3348,14 @@
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="16" t="s">
@@ -3197,7 +3466,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="51">
+    <row r="9" spans="1:10" ht="37.5">
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
@@ -3290,7 +3559,7 @@
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30">
+    <row r="1" spans="1:7" ht="27.75">
       <c r="A1" s="27" t="s">
         <v>258</v>
       </c>
@@ -3313,7 +3582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="63.75">
+    <row r="2" spans="1:7" ht="74.25">
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
@@ -3389,7 +3658,7 @@
       </c>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:7" ht="51">
+    <row r="6" spans="1:7" ht="49.5">
       <c r="A6" s="30" t="s">
         <v>19</v>
       </c>
@@ -3408,7 +3677,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="51">
+    <row r="7" spans="1:7" ht="49.5">
       <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
@@ -3465,7 +3734,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="89.25">
+    <row r="10" spans="1:7" ht="61.5">
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
@@ -3531,8 +3800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2D3FBA-C93D-4333-B7E1-C7BA11A34680}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView topLeftCell="J5" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="15"/>
@@ -3541,7 +3810,7 @@
     <col min="6" max="6" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30">
+    <row r="1" spans="1:22">
       <c r="A1" s="27" t="s">
         <v>258</v>
       </c>
@@ -3590,14 +3859,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="57" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="1:22" ht="101.25" customHeight="1">
       <c r="A4" s="16" t="s">
@@ -3709,7 +3978,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:22" ht="38.25">
+    <row r="10" spans="1:22" ht="25.5">
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
@@ -3781,8 +4050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B509DB2-7281-4C29-BE82-B5795AEB1608}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3796,7 +4065,7 @@
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45">
+    <row r="1" spans="1:7" ht="27.75">
       <c r="A1" s="27" t="s">
         <v>258</v>
       </c>
@@ -3840,16 +4109,16 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="57" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="51">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+    </row>
+    <row r="4" spans="1:7" ht="49.5">
       <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
@@ -3940,9 +4209,7 @@
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>319</v>
-      </c>
+      <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
         <v>430</v>
       </c>
@@ -3959,27 +4226,27 @@
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="60" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="1:7" ht="36.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="60" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
     </row>
     <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
@@ -4013,7 +4280,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4027,7 +4294,7 @@
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45">
+    <row r="1" spans="1:7">
       <c r="A1" s="27" t="s">
         <v>258</v>
       </c>
@@ -4050,7 +4317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="25.5">
+    <row r="2" spans="1:7" ht="61.5">
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
@@ -4060,10 +4327,10 @@
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="13" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="G2" s="28"/>
     </row>
@@ -4071,15 +4338,15 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>435</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>436</v>
+      <c r="B3" s="49" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>438</v>
       </c>
       <c r="D3" s="43"/>
       <c r="E3" s="43" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F3" s="43" t="s">
         <v>351</v>
@@ -4090,18 +4357,18 @@
       <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="48" t="s">
         <v>319</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>390</v>
+        <v>441</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>442</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -4110,15 +4377,17 @@
         <v>17</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="C5" s="14"/>
+        <v>443</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>444</v>
+      </c>
       <c r="D5" s="14"/>
       <c r="E5" s="35" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="G5" s="29"/>
     </row>
@@ -4127,17 +4396,17 @@
         <v>19</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -4145,11 +4414,17 @@
       <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="23" t="s">
+        <v>451</v>
+      </c>
       <c r="C7" s="33"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="33"/>
+      <c r="E7" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>453</v>
+      </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="138" customHeight="1">
@@ -4157,12 +4432,14 @@
         <v>21</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="C8" s="14"/>
+        <v>302</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>454</v>
+      </c>
       <c r="D8" s="14"/>
       <c r="E8" s="35" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>429</v>
@@ -4173,9 +4450,7 @@
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>319</v>
-      </c>
+      <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
         <v>430</v>
       </c>
@@ -4188,31 +4463,40 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="35.25" customHeight="1">
+    <row r="10" spans="1:7" ht="55.5" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="51" t="s">
-        <v>298</v>
-      </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53"/>
-    </row>
-    <row r="11" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B10" s="45" t="s">
+        <v>456</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>457</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="35" t="s">
+        <v>458</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="G10" s="47"/>
+    </row>
+    <row r="11" spans="1:7" ht="79.5" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="51" t="s">
-        <v>298</v>
-      </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="52" t="s">
+        <v>460</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="51" t="s">
+        <v>461</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
@@ -4224,18 +4508,254 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="G12" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7172FC-5606-4FD6-B7B3-02AB5BD496A0}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25" style="65"/>
+    <col min="2" max="2" width="30.28515625" style="65" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" style="65" customWidth="1"/>
+    <col min="4" max="4" width="25" style="65"/>
+    <col min="5" max="5" width="47" style="65" customWidth="1"/>
+    <col min="6" max="6" width="42" style="65" customWidth="1"/>
+    <col min="7" max="16384" width="25" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="66" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="267" customHeight="1">
+      <c r="A2" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>464</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>465</v>
+      </c>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68" t="s">
+        <v>466</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>467</v>
+      </c>
+      <c r="G2" s="82"/>
+    </row>
+    <row r="3" spans="1:7" ht="89.25">
+      <c r="A3" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>346</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69" t="s">
+        <v>468</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>469</v>
+      </c>
+      <c r="G3" s="83"/>
+    </row>
+    <row r="4" spans="1:7" ht="244.5" customHeight="1">
+      <c r="A4" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>471</v>
+      </c>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71" t="s">
+        <v>351</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>351</v>
+      </c>
+      <c r="G4" s="64"/>
+    </row>
+    <row r="5" spans="1:7" ht="133.5" customHeight="1">
+      <c r="A5" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>440</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68" t="s">
+        <v>441</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>442</v>
+      </c>
+      <c r="G5" s="63"/>
+    </row>
+    <row r="6" spans="1:7" ht="150" customHeight="1">
+      <c r="A6" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="74"/>
+      <c r="C6" s="68" t="s">
+        <v>472</v>
+      </c>
+      <c r="D6" s="68"/>
+      <c r="E6" s="75" t="s">
+        <v>473</v>
+      </c>
+      <c r="F6" s="75" t="s">
+        <v>474</v>
+      </c>
+      <c r="G6" s="84"/>
+    </row>
+    <row r="7" spans="1:7" ht="132.75" customHeight="1">
+      <c r="A7" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68" t="s">
+        <v>475</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="75" t="s">
+        <v>476</v>
+      </c>
+      <c r="F7" s="86" t="s">
+        <v>477</v>
+      </c>
+      <c r="G7" s="82"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="74"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69" t="s">
+        <v>478</v>
+      </c>
+      <c r="F8" s="76"/>
+      <c r="G8" s="82"/>
+    </row>
+    <row r="9" spans="1:7" ht="63.75">
+      <c r="A9" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>454</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="75" t="s">
+        <v>455</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>429</v>
+      </c>
+      <c r="G9" s="82"/>
+    </row>
+    <row r="10" spans="1:7" ht="75.75" customHeight="1">
+      <c r="A10" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68" t="s">
+        <v>430</v>
+      </c>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68" t="s">
+        <v>431</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>374</v>
+      </c>
+      <c r="G10" s="82"/>
+    </row>
+    <row r="11" spans="1:7" ht="144" customHeight="1">
+      <c r="A11" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>456</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>457</v>
+      </c>
+      <c r="D11" s="77"/>
+      <c r="E11" s="75" t="s">
+        <v>473</v>
+      </c>
+      <c r="F11" s="75" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="141.75" customHeight="1">
+      <c r="A12" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="79" t="s">
+        <v>461</v>
+      </c>
+      <c r="F12" s="69" t="s">
+        <v>479</v>
+      </c>
+      <c r="G12" s="85"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G12">
+    <sortCondition ref="A2:A12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE15C158-7294-4414-8999-3C8664BA9539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66BF6169-7F24-419C-BE45-FC83F4CF5173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5-4-22" sheetId="40" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="22-04-22" sheetId="55" r:id="rId14"/>
     <sheet name="23-04-22" sheetId="56" r:id="rId15"/>
     <sheet name="25-04-22" sheetId="57" r:id="rId16"/>
+    <sheet name="26-04-22" sheetId="58" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="480">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1410,7 +1411,7 @@
     <t>profile page for training head and refining all layout</t>
   </si>
   <si>
-    <t xml:space="preserve"> meeting with rafi-60min,  working on layout for  co ordinator-120min</t>
+    <t xml:space="preserve"> team discussion-20min,meeting with rafi-23min, team discussion-30min(abouth the layout completion)  working on layout for  profile view page (training head) -120min</t>
   </si>
   <si>
     <t>Department Service Api</t>
@@ -1443,10 +1444,25 @@
     <t>3hrs</t>
   </si>
   <si>
-    <t>Filter, Refining all pages and responsiveness</t>
-  </si>
-  <si>
-    <t>Team Discussion - 20mins, Meeting with Rafi - 20mins, Team Discussion about Layout Completion -30mins</t>
+    <t>Filter, Search , Refining all pages and responsiveness</t>
+  </si>
+  <si>
+    <t>Team Discussion - 20mins, Meeting with Rafi - 20mins, Team Discussion about Layout Completion -30mins, alteration in signin, signup page</t>
+  </si>
+  <si>
+    <t>Lunch and Break-75 min</t>
+  </si>
+  <si>
+    <t>Home page Layout</t>
+  </si>
+  <si>
+    <t>Entire MOM Layout</t>
+  </si>
+  <si>
+    <t>30 mins : Team meeting  ,  20 mins:Client meeting,30mins : Team discussion in Layout Completion, 1.30 mins MoM layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30 mins : lunch and break time </t>
   </si>
   <si>
     <t>Common Layout of TMS</t>
@@ -1461,10 +1477,13 @@
     <t>Lunch and Break-90 min</t>
   </si>
   <si>
-    <t>Team meeting - 30 mins, Meeting with Rafi - 20 mins , Created a layout page (Course Topic and Assign course) - 2 hours</t>
-  </si>
-  <si>
-    <t>Others(Lunch and break) - 1 hour 30 mins, Tutorial about HTML</t>
+    <t>Working on  Responsiveness for Create Topic page</t>
+  </si>
+  <si>
+    <t>Team meeting - 30 mins, Meeting with Rafi - 20 mins , Created a layout page (Create Topic and Assign course) - 2 hours</t>
+  </si>
+  <si>
+    <t>Others(Lunch and break) - 1 hour 30 mins, Tutorial about HTML - 1 hour</t>
   </si>
   <si>
     <t>HTML layout for confirmation message box</t>
@@ -1476,20 +1495,135 @@
 HTML layout (attendance,confirmation message box)-3.5hrs</t>
   </si>
   <si>
-    <t>course register page of co-ordinator</t>
+    <t>Home Page Layout</t>
+  </si>
+  <si>
+    <t>layout for schedule review and view review for TMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team meeting for 30 mins  , Client meeting- 20 mins, Team discussion for splitting the work - 30 mins, 1.30 mins for Review page</t>
+  </si>
+  <si>
+    <t>Lunch break - 1:30 mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trainee Feedback layout ,Course Feedback layout </t>
+  </si>
+  <si>
+    <t>Team meeting-20 mins, meeting with client -23 mins,Team meeting( About layout completion)-30 min, working on layout for trainee feedback and course feedback -3h30mins</t>
   </si>
   <si>
     <t>Team meeting -30 min , Client meeting - 20mins ,Updating MOM - 10min,  Creating (CRUD operations) in department service - 4hrs</t>
   </si>
   <si>
     <t>lunch and breaks - 90mins</t>
+  </si>
+  <si>
+    <t>Web Api services</t>
+  </si>
+  <si>
+    <t>8:30 - 9:05(35mins) : Updating timesheet and MOM,
+9:05 - 9:30(25mins) : Team meeting,      
+9:30 - 10:20(50mins) : Softskill,
+10:20 - 10:40(20mins) : break,
+10:45 - 11:45(60mins) : Web api services added(User,Department,Role),  
+11:45 - 12:15(30mins) : Estimation of pages in TMS, 
+12:15 - 12:25(10mins) : Helping in resolve a conflict,
+12:35 - 12:55(20mins) : Client meeting,
+1:00 - 1:40(40mins) : Lunch,
+2:00 - 2:40(40mins) : Web api session among team,  
+2:40 - 3:00(10mins) : worked on a Services,  
+3:00 - 3:40(40mins) : rework on a new repository,                                        
+3:40 - 4:15(35mins) : Implementing Serilog in api,
+4:15 - 4:30(15mins) : break,
+4:30 - 5:15(45mins) : Resolving conflict in webapi,
+5:15 - 5:45(30mins) : Clarifying about repository and worked on new repository
+7:00 - 7:45(45mis) : Midlleware exploration</t>
+  </si>
+  <si>
+    <t>6.3 hrs</t>
+  </si>
+  <si>
+    <t>3.10 hrs</t>
+  </si>
+  <si>
+    <t>Web api (Debugging Errors-(8:15-9:00),                    repository(9:00-9:44),(10:40-12:00) ,                                 Estimation and discussion(12:00-12-33),Meeting with Rafi(12:36-12:52),Timesheet update(2:00-2:15),</t>
+  </si>
+  <si>
+    <t>Softskill session(9:44-10:33),Break(1:05-1:40),sending mail for installation(2:40-2:45),Webapi exploring(3:00-3:30),college call(3:30-3:45),Break(3:45-4:00),System installation (4:00-4:25),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Api exploration,
+Ef Core exploration
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:00 - 9:20 : TimeSheet,
+9:20 - 9:35 : Team meeting,      
+9:35 - 10:20 : Softskill,
+10:20 - 10:40 : Break,   
+10:40 - 10:55 : Estimation explaination,
+10:55 - 11:45 : Web api services added(DbContext,Migrations,UserService), 
+11:45 - 12:35 : Estimation of pages in TMS, 
+12:35 - 12:56 : Client meeting,
+12:56 - 1:30 : Lunch
+1:30 - 2:00 : preparing for web api session 
+2:00 - 3:00 : worked on UserServices.cs,
+3:00 - 4:00 : Web api session among team,                                         
+4:00 - 4:30 : worked on IRepository.cs,
+4:30 - 4:45 : Break,
+4:45 - 5:30 : Resolving conflict in Webapi </t>
+  </si>
+  <si>
+    <t>Estimation and Layout Correction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45-9.00 : Updating Timesheet and HLD Document
+9:05 - 9:30 : Team meeting
+10:40-10:55 : Estimation explanation meeting
+11:00-11:30 : Integrating my MOM layout with other layout pages 
+11.30-12.15: Helping in Attendence Layout
+12:35 - 12:56 : meeting with Rafi 
+2.00-3.00 mins : Identifying the pages and Estimation
+4.35-4.50 : Web API Session with other team 
+4.55-5.45: Layout Correction Explanation and Estimation
+</t>
+  </si>
+  <si>
+    <t>9:30 - 10:20 : Softskill
+3:00 - 4:00: webAPI Session with team
+10:20 - 10:40 : break
+1:00 - 1:40 : Lunch
+4:00- 4:15 : break</t>
+  </si>
+  <si>
+    <t>Refining the layout and responvise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimation explanation meeting
+30mins : Helping in Attendence Layout
+15 mins : meeting with Rafi 
+1.30 mins : Estimation
+10 mins : Layout Correction Explanation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Softskill-1 hour
+webAPI Session with team-1 hour, Prepare for Review -100 mins
+lunch and Break-80 mins </t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>9:30 - 10:20 - Softskill session</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1626,6 +1760,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1635,7 +1776,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1726,12 +1867,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1855,12 +2011,33 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1888,8 +2065,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3106,14 +3348,14 @@
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="16" t="s">
@@ -3224,7 +3466,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="51">
+    <row r="9" spans="1:10" ht="37.5">
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
@@ -3317,7 +3559,7 @@
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30">
+    <row r="1" spans="1:7" ht="27.75">
       <c r="A1" s="27" t="s">
         <v>258</v>
       </c>
@@ -3340,7 +3582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="63.75">
+    <row r="2" spans="1:7" ht="74.25">
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
@@ -3416,7 +3658,7 @@
       </c>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:7" ht="51">
+    <row r="6" spans="1:7" ht="49.5">
       <c r="A6" s="30" t="s">
         <v>19</v>
       </c>
@@ -3435,7 +3677,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="51">
+    <row r="7" spans="1:7" ht="49.5">
       <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
@@ -3492,7 +3734,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="89.25">
+    <row r="10" spans="1:7" ht="61.5">
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
@@ -3558,8 +3800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2D3FBA-C93D-4333-B7E1-C7BA11A34680}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView topLeftCell="J5" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="15"/>
@@ -3568,7 +3810,7 @@
     <col min="6" max="6" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30">
+    <row r="1" spans="1:22">
       <c r="A1" s="27" t="s">
         <v>258</v>
       </c>
@@ -3617,14 +3859,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="57" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="1:22" ht="101.25" customHeight="1">
       <c r="A4" s="16" t="s">
@@ -3736,7 +3978,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:22" ht="38.25">
+    <row r="10" spans="1:22" ht="25.5">
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
@@ -3809,7 +4051,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3823,7 +4065,7 @@
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45">
+    <row r="1" spans="1:7" ht="27.75">
       <c r="A1" s="27" t="s">
         <v>258</v>
       </c>
@@ -3867,16 +4109,16 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="57" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
-    </row>
-    <row r="4" spans="1:7" ht="51">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+    </row>
+    <row r="4" spans="1:7" ht="49.5">
       <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
@@ -3984,27 +4226,27 @@
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="60" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="1:7" ht="36.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="60" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
     </row>
     <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
@@ -4037,8 +4279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14287F61-8AE3-4555-BA8D-07210E8D9156}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4052,7 +4294,7 @@
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45">
+    <row r="1" spans="1:7">
       <c r="A1" s="27" t="s">
         <v>258</v>
       </c>
@@ -4075,7 +4317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="63.75">
+    <row r="2" spans="1:7" ht="61.5">
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
@@ -4096,10 +4338,10 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="50" t="s">
         <v>438</v>
       </c>
       <c r="D3" s="43"/>
@@ -4115,7 +4357,7 @@
       <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="48" t="s">
         <v>319</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -4125,8 +4367,8 @@
       <c r="E4" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>390</v>
+      <c r="F4" s="19" t="s">
+        <v>442</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -4135,15 +4377,17 @@
         <v>17</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="C5" s="14"/>
+        <v>443</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>444</v>
+      </c>
       <c r="D5" s="14"/>
       <c r="E5" s="35" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="G5" s="29"/>
     </row>
@@ -4152,17 +4396,17 @@
         <v>19</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="13" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -4170,14 +4414,16 @@
       <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="23" t="s">
+        <v>451</v>
+      </c>
       <c r="C7" s="33"/>
       <c r="D7" s="14"/>
       <c r="E7" s="13" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -4189,11 +4435,11 @@
         <v>302</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="35" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>429</v>
@@ -4204,11 +4450,9 @@
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>319</v>
-      </c>
+      <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
@@ -4219,31 +4463,40 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="35.25" customHeight="1">
+    <row r="10" spans="1:7" ht="55.5" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-    </row>
-    <row r="11" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B10" s="45" t="s">
+        <v>456</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>457</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="35" t="s">
+        <v>458</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="G10" s="47"/>
+    </row>
+    <row r="11" spans="1:7" ht="79.5" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="52" t="s">
+        <v>460</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="51" t="s">
+        <v>461</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
@@ -4255,18 +4508,250 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="G12" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7172FC-5606-4FD6-B7B3-02AB5BD496A0}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25" style="65"/>
+    <col min="2" max="2" width="30.28515625" style="65" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" style="65" customWidth="1"/>
+    <col min="4" max="4" width="25" style="65"/>
+    <col min="5" max="5" width="47" style="65" customWidth="1"/>
+    <col min="6" max="6" width="42" style="65" customWidth="1"/>
+    <col min="7" max="16384" width="25" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="66" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="267" customHeight="1">
+      <c r="A2" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>464</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>465</v>
+      </c>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68" t="s">
+        <v>466</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>467</v>
+      </c>
+      <c r="G2" s="82"/>
+    </row>
+    <row r="3" spans="1:7" ht="89.25">
+      <c r="A3" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>346</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69" t="s">
+        <v>468</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>469</v>
+      </c>
+      <c r="G3" s="83"/>
+    </row>
+    <row r="4" spans="1:7" ht="244.5" customHeight="1">
+      <c r="A4" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>471</v>
+      </c>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71" t="s">
+        <v>351</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>351</v>
+      </c>
+      <c r="G4" s="64"/>
+    </row>
+    <row r="5" spans="1:7" ht="133.5" customHeight="1">
+      <c r="A5" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>440</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68" t="s">
+        <v>441</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>442</v>
+      </c>
+      <c r="G5" s="63"/>
+    </row>
+    <row r="6" spans="1:7" ht="120" customHeight="1">
+      <c r="A6" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="74"/>
+      <c r="C6" s="68" t="s">
+        <v>472</v>
+      </c>
+      <c r="D6" s="68"/>
+      <c r="E6" s="75" t="s">
+        <v>473</v>
+      </c>
+      <c r="F6" s="75" t="s">
+        <v>474</v>
+      </c>
+      <c r="G6" s="84"/>
+    </row>
+    <row r="7" spans="1:7" ht="132.75" customHeight="1">
+      <c r="A7" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68" t="s">
+        <v>475</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="75" t="s">
+        <v>476</v>
+      </c>
+      <c r="F7" s="86" t="s">
+        <v>477</v>
+      </c>
+      <c r="G7" s="82"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="74"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69" t="s">
+        <v>478</v>
+      </c>
+      <c r="F8" s="76"/>
+      <c r="G8" s="82"/>
+    </row>
+    <row r="9" spans="1:7" ht="63.75">
+      <c r="A9" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>454</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="75" t="s">
+        <v>455</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>429</v>
+      </c>
+      <c r="G9" s="82"/>
+    </row>
+    <row r="10" spans="1:7" ht="75.75" customHeight="1">
+      <c r="A10" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68" t="s">
+        <v>430</v>
+      </c>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68" t="s">
+        <v>431</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>374</v>
+      </c>
+      <c r="G10" s="82"/>
+    </row>
+    <row r="11" spans="1:7" ht="144" customHeight="1">
+      <c r="A11" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="77"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="75" t="s">
+        <v>473</v>
+      </c>
+      <c r="F11" s="75" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="141.75" customHeight="1">
+      <c r="A12" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="79" t="s">
+        <v>461</v>
+      </c>
+      <c r="F12" s="69" t="s">
+        <v>479</v>
+      </c>
+      <c r="G12" s="85"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G12">
+    <sortCondition ref="A2:A12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66BF6169-7F24-419C-BE45-FC83F4CF5173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D003C44-D2DC-4C5F-B8AC-EB5C4C2EA092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="491">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1575,6 +1575,27 @@
 4:45 - 5:30 : Resolving conflict in Webapi </t>
   </si>
   <si>
+    <t>Component in angular for common Layout pages</t>
+  </si>
+  <si>
+    <t>8.40-9.00   : Updating Timesheet
+9.05-9.30   : Team Discussion about work Progress
+10.40-12.30 : Layout Integration and corrections in Layout
+12.35-12.56 : Client(Rafi) Meeting
+2.00-2.20   : Uploading Layout pages as static pages to Git publish
+2.20-2.50   : Identify the Unique and Common Layout pages for Estimation
+3.00-4.00   : Web Api Session amoung Team
+4.30-4.50   : Presenting the Layout to the Client(Rafi)
+4.50-5.00   : Discussion with Layout team about changes in Layout
+5.00-5.40   : Discussion about Layout page Estimation</t>
+  </si>
+  <si>
+    <t>9.30-10.20  : Softskill session
+10.20-10.40 : Tea Break
+1.00-2.00   : Lunch Break
+4.00-4.30   : Tea Break</t>
+  </si>
+  <si>
     <t>Estimation and Layout Correction</t>
   </si>
   <si>
@@ -1585,7 +1606,7 @@
 11.30-12.15: Helping in Attendence Layout
 12:35 - 12:56 : meeting with Rafi 
 2.00-3.00 mins : Identifying the pages and Estimation
-4.35-4.50 : Web API Session with other team 
+4.35-4.50 : EF Session with other team 
 4.55-5.45: Layout Correction Explanation and Estimation
 </t>
   </si>
@@ -1600,23 +1621,110 @@
     <t>Refining the layout and responvise</t>
   </si>
   <si>
-    <t xml:space="preserve">Estimation explanation meeting
-30mins : Helping in Attendence Layout
-15 mins : meeting with Rafi 
-1.30 mins : Estimation
-10 mins : Layout Correction Explanation
+    <t xml:space="preserve">8.45-9.05 : Updating Timesheet 
+9:05 - 9:30 : Team meeting
+12:35 - 12:56 : meeting with Rafi 
+2.00-3.00 : Identifying the Unique page for Estimation
+4.35-4.50 : Web API Session with team 
+4.55-5.45: Layout Correction Explanation and Estimation
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Softskill-1 hour
-webAPI Session with team-1 hour, Prepare for Review -100 mins
-lunch and Break-80 mins </t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>9:30 - 10:20 - Softskill session</t>
+    <t xml:space="preserve">
+9.30-10.20 : Soft skill
+10.30-11.45: prepare for internal review
+1-1.45-Lunch
+4.35-4.50 : Web API Session with other team 
+4.55-5.45: Layout Correction Explanation and Estimation
+</t>
+  </si>
+  <si>
+    <t>Layout page for Assign course and Create topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:20-9:30-Team meeting,
+10:40-12:30:Worked on Layout page (Assign course and create topic),
+12:35-12:55:Meeting with Rafi,
+2:00-3:00: Web Api session among team,
+4:30-5:30-Layout corrections and responsivenss 
+</t>
+  </si>
+  <si>
+    <t>9:30-10:20:Softskill session,
+10:20-10:40:Break,
+1:00-1:50:lunch break,
+3:00-4:00:Explored about entity framework,
+4:00-4:20:Tea break,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45-9.00 : Updating Timesheet 
+9:05 - 9:30 : Team meeting
+9:30 - 10:20 : Softskill session(Problem Solving)
+10:20 - 10:40 : break
+10:40-10:55 : Estimation explanation meeting
+11.00-12.30: worked on attendace layout
+12:35 - 12:56 : meeting with Rafi 
+1:00 - 1:40 : Lunch
+2:00 - 3:00: webAPI Session with team members
+3.00-3.20:uploading files in github
+4:30- 4:45 : break
+4.45-5.45:Exploration on web api
+7.00-8.00:Brushing up of basic concepts in c#
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45-9.00 : Updating Timesheet 
+9:05 - 9:30 : Team meeting
+10:40-10:55 : Estimation explanation meeting
+11.00-12.30: worked on attendace layout
+12:35 - 12:56 : meeting with Rafi 
+3.00-3.20:uploading files in github
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+9:30 - 10:20 : Softskill session(Problem Solving)
+10:20 - 10:40 : break
+1:00 - 1:40 : Lunch
+2:00 - 3:00: webAPI Session with team members
+4:30- 4:45 : break
+4.45-5.45:Exploration on web api
+7.00-8.00:Brushing up of basic concepts in c#
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45-9.00 : Refining course feedback layout
+9:05 - 9:30 : Team meeting
+9:30 - 10:20(50mins) : Softskill,10:40-10:55 : Estimation explanation meeting
+11:00-11:30 : Integrating my MOM layout with other layout pages 
+11.30-12.15: Helping in Attendence Layout
+12:35 - 12:56 : meeting with Rafi 
+2.00-3.00 mins : Identifying the pages and Estimation
+4.35-4.50 : Web API Session with other team 
+4.55-5.45: Layout Correction Explanation and Estimation
+</t>
+  </si>
+  <si>
+    <t>Estimation for TMS and refinning layouts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45-9.00 : Updating Timesheet and HLD Document
+9:05 - 9:30 : Team meeting for work status
+10:40-10:55 : Estimation explanation meeting with team
+11:00-11:45 : Refining schedule review and review layout for TMS 
+11:45-12:30 : reviewing others layouts
+12:35 - 12:56 : meeting with client 
+2:00-3:00 : Identifying the pages for Estimation
+4.55-5.45: Layout Correction Explanation and Estimation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:30 - 10:20 : Softskill session
+10:20 - 10:40 : break
+1:00 - 1:40 : Lunch break
+3:00 - 4:00: Web API Session with team members
+4:00- 4:20 : break
+4.35-4.50 : Entity framework Session with other team </t>
   </si>
 </sst>
 </file>
@@ -2093,7 +2201,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2131,7 +2238,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4524,8 +4634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7172FC-5606-4FD6-B7B3-02AB5BD496A0}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="15"/>
@@ -4558,7 +4668,7 @@
       <c r="F1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="80" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4579,9 +4689,9 @@
       <c r="F2" s="68" t="s">
         <v>467</v>
       </c>
-      <c r="G2" s="82"/>
-    </row>
-    <row r="3" spans="1:7" ht="89.25">
+      <c r="G2" s="81"/>
+    </row>
+    <row r="3" spans="1:7" ht="147.75" customHeight="1">
       <c r="A3" s="67" t="s">
         <v>9</v>
       </c>
@@ -4596,7 +4706,7 @@
       <c r="F3" s="69" t="s">
         <v>469</v>
       </c>
-      <c r="G3" s="83"/>
+      <c r="G3" s="82"/>
     </row>
     <row r="4" spans="1:7" ht="244.5" customHeight="1">
       <c r="A4" s="67" t="s">
@@ -4617,22 +4727,22 @@
       </c>
       <c r="G4" s="64"/>
     </row>
-    <row r="5" spans="1:7" ht="133.5" customHeight="1">
+    <row r="5" spans="1:7" ht="228.75" customHeight="1">
       <c r="A5" s="67" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="72" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" s="68" t="s">
         <v>319</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>440</v>
       </c>
       <c r="D5" s="68"/>
       <c r="E5" s="68" t="s">
-        <v>441</v>
-      </c>
-      <c r="F5" s="73" t="s">
-        <v>442</v>
+        <v>473</v>
+      </c>
+      <c r="F5" s="85" t="s">
+        <v>474</v>
       </c>
       <c r="G5" s="63"/>
     </row>
@@ -4640,18 +4750,18 @@
       <c r="A6" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="74"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="68" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D6" s="68"/>
-      <c r="E6" s="75" t="s">
-        <v>473</v>
-      </c>
-      <c r="F6" s="75" t="s">
-        <v>474</v>
-      </c>
-      <c r="G6" s="84"/>
+      <c r="E6" s="74" t="s">
+        <v>476</v>
+      </c>
+      <c r="F6" s="74" t="s">
+        <v>477</v>
+      </c>
+      <c r="G6" s="83"/>
     </row>
     <row r="7" spans="1:7" ht="132.75" customHeight="1">
       <c r="A7" s="67" t="s">
@@ -4659,31 +4769,35 @@
       </c>
       <c r="B7" s="68"/>
       <c r="C7" s="68" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D7" s="68"/>
-      <c r="E7" s="75" t="s">
-        <v>476</v>
-      </c>
-      <c r="F7" s="86" t="s">
-        <v>477</v>
-      </c>
-      <c r="G7" s="82"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="E7" s="74" t="s">
+        <v>479</v>
+      </c>
+      <c r="F7" s="74" t="s">
+        <v>480</v>
+      </c>
+      <c r="G7" s="81"/>
+    </row>
+    <row r="8" spans="1:7" ht="150" customHeight="1">
       <c r="A8" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="76"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="86" t="s">
+        <v>481</v>
+      </c>
       <c r="D8" s="68"/>
       <c r="E8" s="69" t="s">
-        <v>478</v>
-      </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="82"/>
-    </row>
-    <row r="9" spans="1:7" ht="63.75">
+        <v>482</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>483</v>
+      </c>
+      <c r="G8" s="81"/>
+    </row>
+    <row r="9" spans="1:7" ht="230.25" customHeight="1">
       <c r="A9" s="67" t="s">
         <v>21</v>
       </c>
@@ -4691,18 +4805,18 @@
         <v>302</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="D9" s="68"/>
-      <c r="E9" s="75" t="s">
-        <v>455</v>
+      <c r="E9" s="74" t="s">
+        <v>485</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>429</v>
-      </c>
-      <c r="G9" s="82"/>
-    </row>
-    <row r="10" spans="1:7" ht="75.75" customHeight="1">
+        <v>486</v>
+      </c>
+      <c r="G9" s="81"/>
+    </row>
+    <row r="10" spans="1:7" ht="172.5" customHeight="1">
       <c r="A10" s="67" t="s">
         <v>22</v>
       </c>
@@ -4717,19 +4831,19 @@
       <c r="F10" s="68" t="s">
         <v>374</v>
       </c>
-      <c r="G10" s="82"/>
-    </row>
-    <row r="11" spans="1:7" ht="144" customHeight="1">
+      <c r="G10" s="81"/>
+    </row>
+    <row r="11" spans="1:7" ht="189.75" customHeight="1">
       <c r="A11" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="75" t="s">
-        <v>473</v>
-      </c>
-      <c r="F11" s="75" t="s">
+      <c r="B11" s="76"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="74" t="s">
+        <v>487</v>
+      </c>
+      <c r="F11" s="74" t="s">
         <v>459</v>
       </c>
     </row>
@@ -4737,19 +4851,21 @@
       <c r="A12" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="79" t="s">
-        <v>461</v>
+      <c r="B12" s="76"/>
+      <c r="C12" s="77" t="s">
+        <v>488</v>
+      </c>
+      <c r="D12" s="76"/>
+      <c r="E12" s="78" t="s">
+        <v>489</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>479</v>
-      </c>
-      <c r="G12" s="85"/>
+        <v>490</v>
+      </c>
+      <c r="G12" s="84"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
     <sortCondition ref="A2:A12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B505E32-3366-48BA-ACAC-CEC9DD38C15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BCAAEB8-CB95-4956-A755-6AF5DE8A7A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="494">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1702,16 +1702,16 @@
 4:00-4:30   : Tea Break</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45-9.00 : Refining course feedback layout
-9:05 - 9:30 : Team meeting
-9:30 - 10:20(50mins) : Softskill,10:40-10:55 : Estimation explanation meeting
-11:00-11:30 : Integrating my MOM layout with other layout pages 
-11.30-12.15: Helping in Attendence Layout
-12:35 - 12:56 : meeting with Rafi 
-2.00-3.00 mins : Identifying the pages and Estimation
-4.35-4.50 : Web API Session with other team 
-4.55-5.45: Layout Correction Explanation and Estimation
-</t>
+    <t>8.45-9.00    : Updating Timesheet
+9:00 - 9:30  : Team meeting
+10:40-10:55  : Estimation explanation meeting
+11:00-11:45  : Refining Feedback layout, integrating with other layouts and updating in git 
+11.45-12.15  : Helping in Estimation
+12:35 - 12:56: meeting with Rafi 
+2.00-3.00    : Identifying the pages and Estimation
+3.00-4.00    : Web API Session with other team 
+4.30-4.50    : Exploring web api and installing packages
+4.55- 5.45   : Layout Correction and Estimation layout pages</t>
   </si>
   <si>
     <t>Estimation for TMS and refineed layouts</t>
@@ -4852,9 +4852,7 @@
       <c r="E11" s="64" t="s">
         <v>490</v>
       </c>
-      <c r="F11" s="64" t="s">
-        <v>459</v>
-      </c>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" spans="1:7" ht="141.75" customHeight="1">
       <c r="A12" s="57" t="s">

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BCAAEB8-CB95-4956-A755-6AF5DE8A7A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81E8CC98-168F-4207-AE08-DCCCCAC1378C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="495">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1702,16 +1702,22 @@
 4:00-4:30   : Tea Break</t>
   </si>
   <si>
-    <t>8.45-9.00    : Updating Timesheet
+    <t xml:space="preserve">8.45-9.00    : Updating Timesheet
 9:00 - 9:30  : Team meeting
 10:40-10:55  : Estimation explanation meeting
-11:00-11:45  : Refining Feedback layout, integrating with other layouts and updating in git 
+11:00-11:45  : Refining Feedback layout, intergrating with other layouts and updating in git 
 11.45-12.15  : Helping in Estimation
 12:35 - 12:56: meeting with Rafi 
 2.00-3.00    : Identifying the pages and Estimation
-3.00-4.00    : Web API Session with other team 
-4.30-4.50    : Exploring web api and installing packages
-4.55- 5.45   : Layout Correction and Estimation layout pages</t>
+3.00-4.00    : Web API Session with team 
+4.30-4.50    : Web API Session with other team 
+4.55- 5.45   : Exploring web api and installing packages ,Estimationing layout pages
+</t>
+  </si>
+  <si>
+    <t>9:30 - 10:20 : Softskill
+10.20 -10.40 : Break
+1.00-1.40    : Lunch</t>
   </si>
   <si>
     <t>Estimation for TMS and refineed layouts</t>
@@ -2218,38 +2224,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3466,14 +3472,14 @@
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="77"/>
     </row>
     <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="16" t="s">
@@ -3977,14 +3983,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="82"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="1:22" ht="101.25" customHeight="1">
       <c r="A4" s="16" t="s">
@@ -4227,14 +4233,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="82"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="1:7" ht="49.5">
       <c r="A4" s="16" t="s">
@@ -4344,27 +4350,27 @@
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="81" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="85"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="83"/>
     </row>
     <row r="11" spans="1:7" ht="36.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="81" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="85"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="83"/>
     </row>
     <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
@@ -4397,8 +4403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14287F61-8AE3-4555-BA8D-07210E8D9156}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:G12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4642,8 +4648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7172FC-5606-4FD6-B7B3-02AB5BD496A0}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="15"/>
@@ -4746,7 +4752,7 @@
       <c r="E5" s="58" t="s">
         <v>473</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="85" t="s">
         <v>474</v>
       </c>
       <c r="G5" s="54"/>
@@ -4792,7 +4798,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="65"/>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="84" t="s">
         <v>481</v>
       </c>
       <c r="D8" s="58"/>
@@ -4852,7 +4858,9 @@
       <c r="E11" s="64" t="s">
         <v>490</v>
       </c>
-      <c r="F11" s="64"/>
+      <c r="F11" s="64" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="141.75" customHeight="1">
       <c r="A12" s="57" t="s">
@@ -4860,14 +4868,14 @@
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="67" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="68" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G12" s="74"/>
     </row>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81E8CC98-168F-4207-AE08-DCCCCAC1378C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1419FA45-F115-4308-9BFE-BC3FE40654ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="496">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1700,6 +1700,9 @@
 10:20-10:40 : Tea Break
 1:00-2:00   : Lunch Break
 4:00-4:30   : Tea Break</t>
+  </si>
+  <si>
+    <t>Exploration on web api</t>
   </si>
   <si>
     <t xml:space="preserve">8.45-9.00    : Updating Timesheet
@@ -2010,7 +2013,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2206,9 +2209,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2256,6 +2256,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3472,14 +3478,14 @@
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="77"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="76"/>
     </row>
     <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="16" t="s">
@@ -3983,14 +3989,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="77" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="79"/>
     </row>
     <row r="4" spans="1:22" ht="101.25" customHeight="1">
       <c r="A4" s="16" t="s">
@@ -4233,14 +4239,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="77" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="79"/>
     </row>
     <row r="4" spans="1:7" ht="49.5">
       <c r="A4" s="16" t="s">
@@ -4350,27 +4356,27 @@
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="80" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="83"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="82"/>
     </row>
     <row r="11" spans="1:7" ht="36.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="80" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="83"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
     </row>
     <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
@@ -4649,7 +4655,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="15"/>
@@ -4679,7 +4685,7 @@
       <c r="F1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="69" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4700,7 +4706,7 @@
       <c r="F2" s="58" t="s">
         <v>467</v>
       </c>
-      <c r="G2" s="71"/>
+      <c r="G2" s="70"/>
     </row>
     <row r="3" spans="1:7" ht="147.75" customHeight="1">
       <c r="A3" s="57" t="s">
@@ -4717,7 +4723,7 @@
       <c r="F3" s="59" t="s">
         <v>469</v>
       </c>
-      <c r="G3" s="72"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:7" ht="244.5" customHeight="1">
       <c r="A4" s="57" t="s">
@@ -4752,7 +4758,7 @@
       <c r="E5" s="58" t="s">
         <v>473</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="84" t="s">
         <v>474</v>
       </c>
       <c r="G5" s="54"/>
@@ -4772,7 +4778,7 @@
       <c r="F6" s="64" t="s">
         <v>477</v>
       </c>
-      <c r="G6" s="73"/>
+      <c r="G6" s="72"/>
     </row>
     <row r="7" spans="1:7" ht="162" customHeight="1">
       <c r="A7" s="57" t="s">
@@ -4791,14 +4797,14 @@
       <c r="F7" s="64" t="s">
         <v>480</v>
       </c>
-      <c r="G7" s="71"/>
+      <c r="G7" s="70"/>
     </row>
     <row r="8" spans="1:7" ht="150" customHeight="1">
       <c r="A8" s="57" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="65"/>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="83" t="s">
         <v>481</v>
       </c>
       <c r="D8" s="58"/>
@@ -4808,7 +4814,7 @@
       <c r="F8" s="65" t="s">
         <v>483</v>
       </c>
-      <c r="G8" s="71"/>
+      <c r="G8" s="70"/>
     </row>
     <row r="9" spans="1:7" ht="230.25" customHeight="1">
       <c r="A9" s="57" t="s">
@@ -4827,7 +4833,7 @@
       <c r="F9" s="59" t="s">
         <v>486</v>
       </c>
-      <c r="G9" s="71"/>
+      <c r="G9" s="70"/>
     </row>
     <row r="10" spans="1:7" ht="204.75" customHeight="1">
       <c r="A10" s="57" t="s">
@@ -4846,20 +4852,24 @@
       <c r="F10" s="58" t="s">
         <v>489</v>
       </c>
-      <c r="G10" s="71"/>
+      <c r="G10" s="70"/>
     </row>
     <row r="11" spans="1:7" ht="189.75" customHeight="1">
       <c r="A11" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="69"/>
+      <c r="B11" s="86" t="s">
+        <v>490</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>319</v>
+      </c>
       <c r="D11" s="66"/>
       <c r="E11" s="64" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="141.75" customHeight="1">
@@ -4868,16 +4878,16 @@
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="67" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="68" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>494</v>
-      </c>
-      <c r="G12" s="74"/>
+        <v>495</v>
+      </c>
+      <c r="G12" s="73"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G12">

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1419FA45-F115-4308-9BFE-BC3FE40654ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C37EC40-F2D4-4449-871A-5D5B4F31F4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5-4-22" sheetId="40" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="23-04-22" sheetId="56" r:id="rId15"/>
     <sheet name="25-04-22" sheetId="57" r:id="rId16"/>
     <sheet name="26-04-22" sheetId="58" r:id="rId17"/>
+    <sheet name="27-04-22" sheetId="59" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="556">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1744,12 +1745,195 @@
 4:00- 4:20 : break
 4.35-4.50 : Entity framework Session with other team </t>
   </si>
+  <si>
+    <t xml:space="preserve">Resource </t>
+  </si>
+  <si>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <t>Task Type</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Timesheet and MOM updating</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Team Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting </t>
+  </si>
+  <si>
+    <t>Non Project</t>
+  </si>
+  <si>
+    <t>Api Service refining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration </t>
+  </si>
+  <si>
+    <t>Customer Meeting</t>
+  </si>
+  <si>
+    <t>Customer Review</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Typescript Intorduction and Sample programs&gt;</t>
+  </si>
+  <si>
+    <t>Api Swagger Testing</t>
+  </si>
+  <si>
+    <t>Lunch and Break</t>
+  </si>
+  <si>
+    <t>Service explanation to Members</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunch </t>
+  </si>
+  <si>
+    <t>Morning Break</t>
+  </si>
+  <si>
+    <t>Evening Break</t>
+  </si>
+  <si>
+    <t>Soft Skill</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Topics&gt;</t>
+  </si>
+  <si>
+    <t>Working on HTML layout</t>
+  </si>
+  <si>
+    <t>Time Sheet</t>
+  </si>
+  <si>
+    <t>Database Migration</t>
+  </si>
+  <si>
+    <t>Logging in user services &amp; user controller</t>
+  </si>
+  <si>
+    <t>User Services List of Users by Role</t>
+  </si>
+  <si>
+    <t>client meeting</t>
+  </si>
+  <si>
+    <t>helping other team with ui</t>
+  </si>
+  <si>
+    <t>Time Sheet Updating</t>
+  </si>
+  <si>
+    <t>Estimation for Dashboard</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Typescript Introduction and  Installation&gt;</t>
+  </si>
+  <si>
+    <t>Discussion about Services with Arul and Spliting Services</t>
+  </si>
+  <si>
+    <t>Service-Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updating TimeSheet </t>
+  </si>
+  <si>
+    <t>Estimation Preparation</t>
+  </si>
+  <si>
+    <t>Web API Exploration</t>
+  </si>
+  <si>
+    <t>Working on Feedback services</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;TypeScript Introduction and Simple Examples&gt;</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Introduction of Typescript , VS code Installation&gt;</t>
+  </si>
+  <si>
+    <t>Service Discussion with Arul and Spliting the Service</t>
+  </si>
+  <si>
+    <t>Service-Course</t>
+  </si>
+  <si>
+    <t>Technical Session</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;data type &gt;</t>
+  </si>
+  <si>
+    <t>Working on WebAPI (Review )</t>
+  </si>
+  <si>
+    <t>Timesheet Updating</t>
+  </si>
+  <si>
+    <t>Estimation for ProfileView</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Typescript introduction&gt;</t>
+  </si>
+  <si>
+    <t>discussion on services and spliting the services</t>
+  </si>
+  <si>
+    <t>Service-Role</t>
+  </si>
+  <si>
+    <t>Timesheet</t>
+  </si>
+  <si>
+    <t>Pulling from git and Web API exploration</t>
+  </si>
+  <si>
+    <t>Estimation for department page</t>
+  </si>
+  <si>
+    <t>Customer review</t>
+  </si>
+  <si>
+    <t>013:00:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]hh:mm:ss;@"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1893,13 +2077,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -2013,7 +2211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2224,6 +2422,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2251,24 +2468,147 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="21" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3478,14 +3818,14 @@
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="76"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="87"/>
     </row>
     <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="16" t="s">
@@ -3989,14 +4329,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="88" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:22" ht="101.25" customHeight="1">
       <c r="A4" s="16" t="s">
@@ -4239,14 +4579,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="88" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:7" ht="49.5">
       <c r="A4" s="16" t="s">
@@ -4356,27 +4696,27 @@
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="91" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="82"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="93"/>
     </row>
     <row r="11" spans="1:7" ht="36.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="91" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="82"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="93"/>
     </row>
     <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
@@ -4654,7 +4994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7172FC-5606-4FD6-B7B3-02AB5BD496A0}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -4758,7 +5098,7 @@
       <c r="E5" s="58" t="s">
         <v>473</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="F5" s="75" t="s">
         <v>474</v>
       </c>
       <c r="G5" s="54"/>
@@ -4804,7 +5144,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="65"/>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="74" t="s">
         <v>481</v>
       </c>
       <c r="D8" s="58"/>
@@ -4858,10 +5198,10 @@
       <c r="A11" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="77" t="s">
         <v>490</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="76" t="s">
         <v>319</v>
       </c>
       <c r="D11" s="66"/>
@@ -4893,6 +5233,3454 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G12">
     <sortCondition ref="A2:A12"/>
   </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C319A4C-EADA-4641-96D7-D7B692B906C8}">
+  <dimension ref="A1:Q165"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="84" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="84" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="84" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="78" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>499</v>
+      </c>
+      <c r="E1" s="79" t="s">
+        <v>500</v>
+      </c>
+      <c r="F1" s="79" t="s">
+        <v>501</v>
+      </c>
+      <c r="G1" s="82"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>502</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D2" s="81">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E2" s="81">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="F2" s="81">
+        <f>E2-D2</f>
+        <v>1.7361111111111105E-2</v>
+      </c>
+      <c r="H2" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="I2" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="94"/>
+      <c r="B3" s="80" t="s">
+        <v>506</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E3" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F3" s="81">
+        <f t="shared" ref="F3:F60" si="0">E3-D3</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H3" s="83" t="s">
+        <v>503</v>
+      </c>
+      <c r="I3" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H3)</f>
+        <v>9.7222222222222154E-2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="94"/>
+      <c r="B4" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D4" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E4" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F4" s="81">
+        <f>E4-D4</f>
+        <v>4.8611111111111049E-2</v>
+      </c>
+      <c r="H4" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I4" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H4)</f>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="94"/>
+      <c r="B5" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D5" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E5" s="81">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="F5" s="81">
+        <f>E5-D5</f>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="H5" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I5" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H5)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="94"/>
+      <c r="B6" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D6" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E6" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F6" s="81">
+        <f>E6-D6</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H6" s="83" t="s">
+        <v>507</v>
+      </c>
+      <c r="I6" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H6)</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="94"/>
+      <c r="B7" s="80" t="s">
+        <v>514</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D7" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E7" s="81">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F7" s="81">
+        <f>E7-D7</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H7" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I7" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H7)</f>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="94"/>
+      <c r="B8" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D8" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E8" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F8" s="81">
+        <f>E8-D8</f>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="H8" s="83" t="s">
+        <v>515</v>
+      </c>
+      <c r="I8" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H8)</f>
+        <v>3.819444444444442E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="94"/>
+      <c r="B9" s="80" t="s">
+        <v>514</v>
+      </c>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81">
+        <f>E9-D9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="78" t="s">
+        <v>517</v>
+      </c>
+      <c r="I9" s="79">
+        <f>SUM(I3:I8)</f>
+        <v>0.30902777777777757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="94"/>
+      <c r="B10" s="80" t="s">
+        <v>514</v>
+      </c>
+      <c r="C10" s="80"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81">
+        <f>E10-D10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="84"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="94"/>
+      <c r="B11" s="80" t="s">
+        <v>514</v>
+      </c>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81">
+        <f>E11-D11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="84"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="94"/>
+      <c r="B12" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D12" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E12" s="81">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F12" s="81">
+        <f>E12-D12</f>
+        <v>2.777777777777779E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="94"/>
+      <c r="B13" s="80" t="s">
+        <v>519</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D13" s="81">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E13" s="81">
+        <v>0.4375</v>
+      </c>
+      <c r="F13" s="81">
+        <f>E13-D13</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="94"/>
+      <c r="B14" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D14" s="81">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E14" s="81">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="F14" s="81">
+        <f>E14-D14</f>
+        <v>3.4722222222222099E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="94"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="94"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>506</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D17" s="81">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E17" s="81">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F17" s="81">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H17" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="I17" s="79" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="94"/>
+      <c r="B18" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D18" s="81">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E18" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F18" s="81">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H18" s="83" t="s">
+        <v>503</v>
+      </c>
+      <c r="I18" s="81">
+        <f t="shared" ref="I18" si="1">SUMIFS(F17:F31, C17:C31,H18)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="94"/>
+      <c r="B19" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D19" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E19" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F19" s="81">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H19" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I19" s="81">
+        <f t="shared" ref="I19" si="2">SUMIFS(F17:F31, C17:C31,H19)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="94"/>
+      <c r="B20" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D20" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E20" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F20" s="81">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H20" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I20" s="81">
+        <f t="shared" ref="I20" si="3">SUMIFS(F17:F31, C17:C31,H20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="94"/>
+      <c r="B21" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D21" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E21" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F21" s="81">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H21" s="83" t="s">
+        <v>507</v>
+      </c>
+      <c r="I21" s="81">
+        <f t="shared" ref="I21" si="4">SUMIFS(F17:F31, C17:C31,H21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="94"/>
+      <c r="B22" s="80" t="s">
+        <v>519</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D22" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E22" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F22" s="81">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H22" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I22" s="81">
+        <f t="shared" ref="I22" si="5">SUMIFS(F17:F31, C17:C31,H22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="94"/>
+      <c r="B23" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C23" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D23" s="81">
+        <v>0.65625</v>
+      </c>
+      <c r="E23" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F23" s="81">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H23" s="83" t="s">
+        <v>515</v>
+      </c>
+      <c r="I23" s="81">
+        <f t="shared" ref="I23" si="6">SUMIFS(F17:F31, C17:C31,H23)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="94"/>
+      <c r="B24" s="80" t="s">
+        <v>522</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D24" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E24" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="81">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H24" s="78" t="s">
+        <v>517</v>
+      </c>
+      <c r="I24" s="79">
+        <f t="shared" ref="I24" si="7">SUM(I18:I23)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="94"/>
+      <c r="B25" s="80" t="s">
+        <v>523</v>
+      </c>
+      <c r="C25" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D25" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="E25" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="F25" s="81">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="I25" s="84"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="94"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="84"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="94"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="94"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="94"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="94"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="94"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="80" t="s">
+        <v>524</v>
+      </c>
+      <c r="C32" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D32" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E32" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F32" s="81">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H32" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="I32" s="79" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="94"/>
+      <c r="B33" s="80" t="s">
+        <v>525</v>
+      </c>
+      <c r="C33" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D33" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E33" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="F33" s="81">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H33" s="83" t="s">
+        <v>503</v>
+      </c>
+      <c r="I33" s="81">
+        <f>SUMIFS(F32:F45, C32:C45,H33)</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="94"/>
+      <c r="B34" s="80" t="s">
+        <v>506</v>
+      </c>
+      <c r="C34" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="D34" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E34" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F34" s="81">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H34" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I34" s="81">
+        <f>SUMIFS(F32:F45, C32:C45,H34)</f>
+        <v>2.3611111111111083E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="94"/>
+      <c r="B35" s="80" t="s">
+        <v>526</v>
+      </c>
+      <c r="C35" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D35" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E35" s="81">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="F35" s="81">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H35" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I35" s="81">
+        <f>SUMIFS(F32:F45, C32:C45,H35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="94"/>
+      <c r="B36" s="80" t="s">
+        <v>527</v>
+      </c>
+      <c r="C36" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D36" s="81">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E36" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F36" s="81">
+        <f>E36-D36</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H36" s="83" t="s">
+        <v>507</v>
+      </c>
+      <c r="I36" s="81">
+        <f>SUMIFS(F32:F45, C32:C45,H36)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="94"/>
+      <c r="B37" s="80" t="s">
+        <v>519</v>
+      </c>
+      <c r="C37" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D37" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E37" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F37" s="81">
+        <f>E37-D37</f>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="H37" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I37" s="81">
+        <f>SUMIFS(F32:F45, C32:C45,H37)</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="94"/>
+      <c r="B38" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C38" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D38" s="81">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="E38" s="81">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="F38" s="81">
+        <f>E38-D38</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+      <c r="H38" s="83" t="s">
+        <v>515</v>
+      </c>
+      <c r="I38" s="81">
+        <f>SUMIFS(F32:F45, C32:C45,H38)</f>
+        <v>1.7361111111111049E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="94"/>
+      <c r="B39" s="80" t="s">
+        <v>529</v>
+      </c>
+      <c r="C39" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D39" s="81">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="E39" s="81">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="F39" s="81">
+        <f>E39-D39</f>
+        <v>9.7222222222221877E-3</v>
+      </c>
+      <c r="H39" s="78" t="s">
+        <v>517</v>
+      </c>
+      <c r="I39" s="79">
+        <f t="shared" ref="I39" si="8">SUM(I33:I38)</f>
+        <v>0.14791666666666664</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="94"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81">
+        <f>E40-D40</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="84"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="94"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="81"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="94"/>
+      <c r="B42" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C42" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="94"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="94"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="94"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="80" t="s">
+        <v>530</v>
+      </c>
+      <c r="C46" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D46" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E46" s="81">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F46" s="81">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H46" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="I46" s="79" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="94"/>
+      <c r="B47" s="80" t="s">
+        <v>506</v>
+      </c>
+      <c r="C47" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="D47" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E47" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F47" s="81">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H47" s="83" t="s">
+        <v>503</v>
+      </c>
+      <c r="I47" s="81">
+        <f t="shared" ref="I47" si="9">SUMIFS(F46:F60, C46:C60,H47)</f>
+        <v>0.14236111111111099</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="94"/>
+      <c r="B48" s="80" t="s">
+        <v>531</v>
+      </c>
+      <c r="C48" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D48" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E48" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F48" s="81">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H48" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I48" s="81">
+        <f t="shared" ref="I48" si="10">SUMIFS(F46:F60, C46:C60,H48)</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="94"/>
+      <c r="B49" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C49" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D49" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E49" s="81">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="F49" s="81">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="H49" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I49" s="81">
+        <f t="shared" ref="I49" si="11">SUMIFS(F46:F60, C46:C60,H49)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="94"/>
+      <c r="B50" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C50" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D50" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E50" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F50" s="81">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="H50" s="83" t="s">
+        <v>507</v>
+      </c>
+      <c r="I50" s="81">
+        <f t="shared" ref="I50" si="12">SUMIFS(F46:F60, C46:C60,H50)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="94"/>
+      <c r="B51" s="80" t="s">
+        <v>519</v>
+      </c>
+      <c r="C51" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D51" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E51" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F51" s="81">
+        <f t="shared" si="0"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="H51" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I51" s="81">
+        <f t="shared" ref="I51" si="13">SUMIFS(F46:F60, C46:C60,H51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="94"/>
+      <c r="B52" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C52" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D52" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E52" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F52" s="81">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="H52" s="83" t="s">
+        <v>515</v>
+      </c>
+      <c r="I52" s="81">
+        <f t="shared" ref="I52" si="14">SUMIFS(F46:F60, C46:C60,H52)</f>
+        <v>6.9444444444444531E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="94"/>
+      <c r="B53" s="80" t="s">
+        <v>532</v>
+      </c>
+      <c r="C53" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D53" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E53" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F53" s="81">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H53" s="78" t="s">
+        <v>517</v>
+      </c>
+      <c r="I53" s="79">
+        <f t="shared" ref="I53" si="15">SUM(I47:I52)</f>
+        <v>0.32638888888888884</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="94"/>
+      <c r="B54" s="80" t="s">
+        <v>533</v>
+      </c>
+      <c r="C54" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D54" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E54" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F54" s="81">
+        <f t="shared" si="0"/>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="I54" s="84"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="94"/>
+      <c r="B55" s="80" t="s">
+        <v>534</v>
+      </c>
+      <c r="C55" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D55" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="E55" s="81">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F55" s="81">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="I55" s="84"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="94"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="94"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="94"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="94"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="94"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="80" t="s">
+        <v>535</v>
+      </c>
+      <c r="C61" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D61" s="81">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E61" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="F61" s="81">
+        <f>E61-D61</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H61" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="I61" s="79" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="94"/>
+      <c r="B62" s="80" t="s">
+        <v>523</v>
+      </c>
+      <c r="C62" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D62" s="81">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="E62" s="81">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="F62" s="81">
+        <f>E62-D62</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H62" s="83" t="s">
+        <v>503</v>
+      </c>
+      <c r="I62" s="81">
+        <f>SUMIFS(F61:F71, C61:C71,H62)</f>
+        <v>7.9861111111111119E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="94"/>
+      <c r="B63" s="80" t="s">
+        <v>506</v>
+      </c>
+      <c r="C63" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="D63" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E63" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F63" s="81">
+        <f>E63-D63</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H63" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I63" s="81">
+        <f>SUMIFS(F61:F71, C61:C71,H63)</f>
+        <v>4.1666666666666574E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="94"/>
+      <c r="B64" s="80" t="s">
+        <v>519</v>
+      </c>
+      <c r="C64" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D64" s="81">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E64" s="81">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="F64" s="81">
+        <f>E64-D64</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H64" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I64" s="81">
+        <f>SUMIFS(F61:F71, C61:C71,H64)</f>
+        <v>3.0625</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="94"/>
+      <c r="B65" s="80" t="s">
+        <v>536</v>
+      </c>
+      <c r="C65" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D65" s="81">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="E65" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F65" s="81">
+        <f>E65-D65</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H65" s="83" t="s">
+        <v>507</v>
+      </c>
+      <c r="I65" s="81">
+        <f>SUMIFS(F61:F71, C61:C71,H65)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="94"/>
+      <c r="B66" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C66" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D66" s="81">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="E66" s="81">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="F66" s="81">
+        <f>E66-D66</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+      <c r="H66" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I66" s="81">
+        <f>SUMIFS(F61:F71, C61:C71,H66)</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="94"/>
+      <c r="B67" s="80" t="s">
+        <v>537</v>
+      </c>
+      <c r="C67" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D67" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E67" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F67" s="81">
+        <f>E67-D67</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H67" s="83" t="s">
+        <v>515</v>
+      </c>
+      <c r="I67" s="81">
+        <f>SUMIFS(F61:F71, C61:C71,H67)</f>
+        <v>6.2500000000000167E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="94"/>
+      <c r="B68" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C68" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D68" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E68" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F68" s="81">
+        <f>E68-D68</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="H68" s="78" t="s">
+        <v>517</v>
+      </c>
+      <c r="I68" s="79">
+        <f t="shared" ref="I68" si="16">SUM(I62:I67)</f>
+        <v>3.3013888888888889</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="94"/>
+      <c r="B69" s="80" t="s">
+        <v>538</v>
+      </c>
+      <c r="C69" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D69" s="81">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="E69" s="81">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="F69" s="81">
+        <f>E69-D69</f>
+        <v>4.8611111111111119E-2</v>
+      </c>
+      <c r="I69" s="84"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="94"/>
+      <c r="B70" s="80" t="s">
+        <v>539</v>
+      </c>
+      <c r="C70" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D70" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E70" s="81">
+        <v>3.7083333333333335</v>
+      </c>
+      <c r="F70" s="81">
+        <f>E70-D70</f>
+        <v>3.0625</v>
+      </c>
+      <c r="I70" s="84"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="94"/>
+      <c r="B71" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C71" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D71" s="81">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E71" s="81">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="F71" s="81">
+        <f>E71-D71</f>
+        <v>1.0416666666666741E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="94"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="94"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="94"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="94"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="80" t="s">
+        <v>506</v>
+      </c>
+      <c r="C76" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="D76" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E76" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F76" s="81">
+        <f t="shared" ref="F76:F129" si="17">E76-D76</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H76" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="I76" s="79" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="94"/>
+      <c r="B77" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C77" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D77" s="81">
+        <v>0</v>
+      </c>
+      <c r="E77" s="81">
+        <v>0</v>
+      </c>
+      <c r="F77" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="83" t="s">
+        <v>503</v>
+      </c>
+      <c r="I77" s="81">
+        <f t="shared" ref="I77" si="18">SUMIFS(F76:F90, C76:C90,H77)</f>
+        <v>0.12986111111111098</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="94"/>
+      <c r="B78" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C78" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D78" s="81">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="E78" s="81">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="F78" s="81">
+        <f t="shared" si="17"/>
+        <v>2.5694444444444353E-2</v>
+      </c>
+      <c r="H78" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I78" s="81">
+        <f t="shared" ref="I78" si="19">SUMIFS(F76:F90, C76:C90,H78)</f>
+        <v>1.388888888888884E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="94"/>
+      <c r="B79" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C79" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D79" s="81">
+        <v>0</v>
+      </c>
+      <c r="E79" s="81">
+        <v>0</v>
+      </c>
+      <c r="F79" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I79" s="81">
+        <f t="shared" ref="I79" si="20">SUMIFS(F76:F90, C76:C90,H79)</f>
+        <v>6.3888888888888884E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="94"/>
+      <c r="B80" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C80" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D80" s="81">
+        <v>0.53125</v>
+      </c>
+      <c r="E80" s="81">
+        <v>0.5625</v>
+      </c>
+      <c r="F80" s="81">
+        <f t="shared" si="17"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H80" s="83" t="s">
+        <v>507</v>
+      </c>
+      <c r="I80" s="81">
+        <f t="shared" ref="I80" si="21">SUMIFS(F76:F90, C76:C90,H80)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="94"/>
+      <c r="B81" s="80" t="s">
+        <v>519</v>
+      </c>
+      <c r="C81" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D81" s="81">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E81" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F81" s="81">
+        <f t="shared" si="17"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H81" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I81" s="81">
+        <f t="shared" ref="I81" si="22">SUMIFS(F76:F90, C76:C90,H81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="94"/>
+      <c r="B82" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C82" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D82" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E82" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F82" s="81">
+        <f t="shared" si="17"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="H82" s="83" t="s">
+        <v>515</v>
+      </c>
+      <c r="I82" s="81">
+        <f t="shared" ref="I82" si="23">SUMIFS(F76:F90, C76:C90,H82)</f>
+        <v>5.5555555555555636E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="94"/>
+      <c r="B83" s="80" t="s">
+        <v>540</v>
+      </c>
+      <c r="C83" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D83" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E83" s="81">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="F83" s="81">
+        <f t="shared" si="17"/>
+        <v>6.3888888888888884E-2</v>
+      </c>
+      <c r="H83" s="78" t="s">
+        <v>517</v>
+      </c>
+      <c r="I83" s="79">
+        <f t="shared" ref="I83" si="24">SUM(I77:I82)</f>
+        <v>0.29444444444444434</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="94"/>
+      <c r="B84" s="80" t="s">
+        <v>524</v>
+      </c>
+      <c r="C84" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D84" s="81">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E84" s="81">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="F84" s="81">
+        <f t="shared" si="17"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="I84" s="84"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="94"/>
+      <c r="B85" s="80" t="s">
+        <v>541</v>
+      </c>
+      <c r="C85" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D85" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E85" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F85" s="81">
+        <f>E85-D85</f>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="I85" s="84"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="94"/>
+      <c r="B86" s="80" t="s">
+        <v>542</v>
+      </c>
+      <c r="C86" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D86" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="E86" s="81">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="F86" s="81">
+        <f t="shared" si="17"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="94"/>
+      <c r="B87" s="80"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="81"/>
+      <c r="F87" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="94"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="81"/>
+      <c r="E88" s="81"/>
+      <c r="F88" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="94"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="81"/>
+      <c r="F89" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="94"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="80"/>
+      <c r="D90" s="81"/>
+      <c r="E90" s="81"/>
+      <c r="F90" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" s="80" t="s">
+        <v>506</v>
+      </c>
+      <c r="C91" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="D91" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E91" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F91" s="81">
+        <f t="shared" si="17"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H91" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="I91" s="79" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="94"/>
+      <c r="B92" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C92" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D92" s="81">
+        <v>0</v>
+      </c>
+      <c r="E92" s="81">
+        <v>0</v>
+      </c>
+      <c r="F92" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="83" t="s">
+        <v>503</v>
+      </c>
+      <c r="I92" s="81">
+        <f t="shared" ref="I92" si="25">SUMIFS(F91:F105, C91:C105,H92)</f>
+        <v>0.22222222222222227</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="94"/>
+      <c r="B93" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C93" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D93" s="81">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="E93" s="81">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="F93" s="81">
+        <f t="shared" si="17"/>
+        <v>2.3611111111111138E-2</v>
+      </c>
+      <c r="H93" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I93" s="81">
+        <f t="shared" ref="I93" si="26">SUMIFS(F91:F105, C91:C105,H93)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="94"/>
+      <c r="B94" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C94" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D94" s="81">
+        <v>0</v>
+      </c>
+      <c r="E94" s="81">
+        <v>0</v>
+      </c>
+      <c r="F94" s="81">
+        <f>E94-D94</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I94" s="81">
+        <f t="shared" ref="I94" si="27">SUMIFS(F91:F105, C91:C105,H94)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="94"/>
+      <c r="B95" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C95" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D95" s="81">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E95" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F95" s="81">
+        <f t="shared" si="17"/>
+        <v>-6.9444444444444198E-3</v>
+      </c>
+      <c r="H95" s="83" t="s">
+        <v>507</v>
+      </c>
+      <c r="I95" s="81">
+        <f t="shared" ref="I95" si="28">SUMIFS(F91:F105, C91:C105,H95)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="94"/>
+      <c r="B96" s="80" t="s">
+        <v>519</v>
+      </c>
+      <c r="C96" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D96" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E96" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F96" s="81">
+        <f t="shared" si="17"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H96" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I96" s="81">
+        <f t="shared" ref="I96" si="29">SUMIFS(F91:F105, C91:C105,H96)</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="94"/>
+      <c r="B97" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C97" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D97" s="81">
+        <v>0.65625</v>
+      </c>
+      <c r="E97" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F97" s="81">
+        <f t="shared" si="17"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H97" s="83" t="s">
+        <v>515</v>
+      </c>
+      <c r="I97" s="81">
+        <f t="shared" ref="I97" si="30">SUMIFS(F91:F105, C91:C105,H97)</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="94"/>
+      <c r="B98" s="80" t="s">
+        <v>522</v>
+      </c>
+      <c r="C98" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D98" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E98" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="F98" s="81">
+        <f t="shared" si="17"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H98" s="78" t="s">
+        <v>517</v>
+      </c>
+      <c r="I98" s="79">
+        <f t="shared" ref="I98" si="31">SUM(I92:I97)</f>
+        <v>0.35000000000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="94"/>
+      <c r="B99" s="80" t="s">
+        <v>523</v>
+      </c>
+      <c r="C99" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D99" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="E99" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="F99" s="81">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="I99" s="84"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="94"/>
+      <c r="B100" s="80" t="s">
+        <v>535</v>
+      </c>
+      <c r="C100" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D100" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E100" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F100" s="81">
+        <f t="shared" si="17"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="I100" s="84"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="94"/>
+      <c r="B101" s="80" t="s">
+        <v>543</v>
+      </c>
+      <c r="C101" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D101" s="81">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E101" s="81">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F101" s="81">
+        <f t="shared" si="17"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="94"/>
+      <c r="B102" s="80"/>
+      <c r="C102" s="80"/>
+      <c r="D102" s="81"/>
+      <c r="E102" s="81"/>
+      <c r="F102" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="94"/>
+      <c r="B103" s="80"/>
+      <c r="C103" s="80"/>
+      <c r="D103" s="81"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="94"/>
+      <c r="B104" s="80"/>
+      <c r="C104" s="80"/>
+      <c r="D104" s="81"/>
+      <c r="E104" s="81"/>
+      <c r="F104" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="94"/>
+      <c r="B105" s="80"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="81"/>
+      <c r="E105" s="81"/>
+      <c r="F105" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" s="80" t="s">
+        <v>506</v>
+      </c>
+      <c r="C106" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="D106" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E106" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F106" s="81">
+        <f t="shared" si="17"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H106" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="I106" s="79" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="94"/>
+      <c r="B107" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="C107" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D107" s="95">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E107" s="81">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="F107" s="81">
+        <f t="shared" si="17"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H107" s="83" t="s">
+        <v>503</v>
+      </c>
+      <c r="I107" s="81">
+        <f t="shared" ref="I107" si="32">SUMIFS(F106:F120, C106:C120,H107)</f>
+        <v>9.7222222222222265E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="94"/>
+      <c r="B108" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C108" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D108" s="81">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="E108" s="81">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="F108" s="81">
+        <f t="shared" si="17"/>
+        <v>2.3611111111111138E-2</v>
+      </c>
+      <c r="H108" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I108" s="81">
+        <f t="shared" ref="I108" si="33">SUMIFS(F106:F120, C106:C120,H108)</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="94"/>
+      <c r="B109" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C109" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D109" s="81">
+        <v>0</v>
+      </c>
+      <c r="E109" s="81">
+        <v>0</v>
+      </c>
+      <c r="F109" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H109" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I109" s="81">
+        <f t="shared" ref="I109" si="34">SUMIFS(F106:F120, C106:C120,H109)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="94"/>
+      <c r="B110" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C110" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D110" s="81">
+        <v>0.5625</v>
+      </c>
+      <c r="E110" s="81">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="F110" s="81">
+        <f t="shared" si="17"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H110" s="83" t="s">
+        <v>507</v>
+      </c>
+      <c r="I110" s="81">
+        <f t="shared" ref="I110" si="35">SUMIFS(F106:F120, C106:C120,H110)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="94"/>
+      <c r="B111" s="80"/>
+      <c r="C111" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D111" s="81"/>
+      <c r="E111" s="81"/>
+      <c r="F111" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I111" s="81">
+        <f t="shared" ref="I111" si="36">SUMIFS(F106:F120, C106:C120,H111)</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="94"/>
+      <c r="B112" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C112" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D112" s="81">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E112" s="81">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="F112" s="81">
+        <f t="shared" si="17"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="H112" s="83" t="s">
+        <v>515</v>
+      </c>
+      <c r="I112" s="81">
+        <f t="shared" ref="I112" si="37">SUMIFS(F106:F120, C106:C120,H112)</f>
+        <v>2.4305555555555691E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="94"/>
+      <c r="B113" s="80" t="s">
+        <v>544</v>
+      </c>
+      <c r="C113" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D113" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E113" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F113" s="81">
+        <f t="shared" si="17"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H113" s="78" t="s">
+        <v>517</v>
+      </c>
+      <c r="I113" s="79">
+        <f t="shared" ref="I113" si="38">SUM(I107:I112)</f>
+        <v>0.24930555555555578</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="94"/>
+      <c r="B114" s="80" t="s">
+        <v>545</v>
+      </c>
+      <c r="C114" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D114" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E114" s="81">
+        <v>0.625</v>
+      </c>
+      <c r="F114" s="81">
+        <f t="shared" si="17"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="I114" s="84"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="94"/>
+      <c r="B115" s="80" t="s">
+        <v>535</v>
+      </c>
+      <c r="C115" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D115" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E115" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F115" s="81">
+        <f t="shared" si="17"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="I115" s="84"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="94"/>
+      <c r="B116" s="80"/>
+      <c r="C116" s="80"/>
+      <c r="D116" s="81"/>
+      <c r="E116" s="81"/>
+      <c r="F116" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="94"/>
+      <c r="B117" s="80"/>
+      <c r="C117" s="80"/>
+      <c r="D117" s="81"/>
+      <c r="E117" s="81"/>
+      <c r="F117" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="94"/>
+      <c r="B118" s="80"/>
+      <c r="C118" s="80"/>
+      <c r="D118" s="81"/>
+      <c r="E118" s="81"/>
+      <c r="F118" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="94"/>
+      <c r="B119" s="80"/>
+      <c r="C119" s="80"/>
+      <c r="D119" s="81"/>
+      <c r="E119" s="81"/>
+      <c r="F119" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="94"/>
+      <c r="B120" s="80"/>
+      <c r="C120" s="80"/>
+      <c r="D120" s="81"/>
+      <c r="E120" s="81"/>
+      <c r="F120" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="B121" s="80" t="s">
+        <v>546</v>
+      </c>
+      <c r="C121" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D121" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E121" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F121" s="81">
+        <f t="shared" si="17"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H121" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="I121" s="79" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="94"/>
+      <c r="B122" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="C122" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="D122" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E122" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F122" s="81">
+        <f t="shared" si="17"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H122" s="83" t="s">
+        <v>503</v>
+      </c>
+      <c r="I122" s="81">
+        <f t="shared" ref="I122" si="39">SUMIFS(F121:F135, C121:C135,H122)</f>
+        <v>0.12847222222222215</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="94"/>
+      <c r="B123" s="80" t="s">
+        <v>547</v>
+      </c>
+      <c r="C123" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D123" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E123" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F123" s="81">
+        <f t="shared" si="17"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H123" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I123" s="81">
+        <f t="shared" ref="I123" si="40">SUMIFS(F121:F135, C121:C135,H123)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="94"/>
+      <c r="B124" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C124" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D124" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E124" s="81">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="F124" s="81">
+        <f t="shared" si="17"/>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="H124" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I124" s="81">
+        <f t="shared" ref="I124" si="41">SUMIFS(F121:F135, C121:C135,H124)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="94"/>
+      <c r="B125" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C125" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D125" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E125" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F125" s="81">
+        <f t="shared" si="17"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="H125" s="83" t="s">
+        <v>507</v>
+      </c>
+      <c r="I125" s="81">
+        <f t="shared" ref="I125" si="42">SUMIFS(F121:F135, C121:C135,H125)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="94"/>
+      <c r="B126" s="80" t="s">
+        <v>519</v>
+      </c>
+      <c r="C126" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D126" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E126" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F126" s="81">
+        <f t="shared" si="17"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="H126" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I126" s="81">
+        <f t="shared" ref="I126" si="43">SUMIFS(F121:F135, C121:C135,H126)</f>
+        <v>2.7777777777777735E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="94"/>
+      <c r="B127" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C127" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D127" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E127" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F127" s="81">
+        <f t="shared" si="17"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="H127" s="83" t="s">
+        <v>515</v>
+      </c>
+      <c r="I127" s="81">
+        <f t="shared" ref="I127" si="44">SUMIFS(F121:F135, C121:C135,H127)</f>
+        <v>6.9444444444444531E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="94"/>
+      <c r="B128" s="80" t="s">
+        <v>548</v>
+      </c>
+      <c r="C128" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D128" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E128" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F128" s="81">
+        <f t="shared" si="17"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H128" s="78" t="s">
+        <v>517</v>
+      </c>
+      <c r="I128" s="79">
+        <f t="shared" ref="I128" si="45">SUM(I122:I127)</f>
+        <v>0.31944444444444442</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="94"/>
+      <c r="B129" s="80" t="s">
+        <v>549</v>
+      </c>
+      <c r="C129" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D129" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E129" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F129" s="81">
+        <f t="shared" si="17"/>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="I129" s="84"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="94"/>
+      <c r="B130" s="80" t="s">
+        <v>550</v>
+      </c>
+      <c r="C130" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D130" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="E130" s="81">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F130" s="81">
+        <f t="shared" ref="F130:F193" si="46">E130-D130</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="I130" s="84"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="94"/>
+      <c r="B131" s="80"/>
+      <c r="C131" s="80"/>
+      <c r="D131" s="81"/>
+      <c r="E131" s="81"/>
+      <c r="F131" s="81">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="94"/>
+      <c r="B132" s="80"/>
+      <c r="C132" s="80"/>
+      <c r="D132" s="81"/>
+      <c r="E132" s="81"/>
+      <c r="F132" s="81">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="94"/>
+      <c r="B133" s="80"/>
+      <c r="C133" s="80"/>
+      <c r="D133" s="81"/>
+      <c r="E133" s="81"/>
+      <c r="F133" s="81">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="94"/>
+      <c r="B134" s="80"/>
+      <c r="C134" s="80"/>
+      <c r="D134" s="81"/>
+      <c r="E134" s="81"/>
+      <c r="F134" s="81">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="94"/>
+      <c r="B135" s="80"/>
+      <c r="C135" s="80"/>
+      <c r="D135" s="81"/>
+      <c r="E135" s="81"/>
+      <c r="F135" s="81">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="B136" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C136" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D136" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E136" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F136" s="81">
+        <f t="shared" si="46"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H136" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="I136" s="79" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="94"/>
+      <c r="B137" s="80" t="s">
+        <v>552</v>
+      </c>
+      <c r="C137" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D137" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E137" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="F137" s="81">
+        <f t="shared" si="46"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H137" s="83" t="s">
+        <v>503</v>
+      </c>
+      <c r="I137" s="81">
+        <f t="shared" ref="I137" si="47">SUMIFS(F136:F150, C136:C150,H137)</f>
+        <v>0.24305555555555564</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="94"/>
+      <c r="B138" s="80" t="s">
+        <v>506</v>
+      </c>
+      <c r="C138" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="D138" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E138" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F138" s="81">
+        <f t="shared" si="46"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H138" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I138" s="81">
+        <f t="shared" ref="I138" si="48">SUMIFS(F136:F150, C136:C150,H138)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="94"/>
+      <c r="B139" s="80" t="s">
+        <v>553</v>
+      </c>
+      <c r="C139" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D139" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E139" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F139" s="81">
+        <f t="shared" si="46"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H139" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I139" s="81">
+        <f t="shared" ref="I139" si="49">SUMIFS(F136:F150, C136:C150,H139)</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="94"/>
+      <c r="B140" s="80" t="s">
+        <v>554</v>
+      </c>
+      <c r="C140" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D140" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E140" s="81">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="F140" s="81">
+        <f t="shared" si="46"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H140" s="83" t="s">
+        <v>507</v>
+      </c>
+      <c r="I140" s="81">
+        <f t="shared" ref="I140" si="50">SUMIFS(F136:F150, C136:C150,H140)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="94"/>
+      <c r="B141" s="80" t="s">
+        <v>519</v>
+      </c>
+      <c r="C141" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D141" s="81">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E141" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F141" s="81">
+        <f t="shared" si="46"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H141" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I141" s="81">
+        <f t="shared" ref="I141" si="51">SUMIFS(F136:F150, C136:C150,H141)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="94"/>
+      <c r="B142" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C142" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D142" s="81">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E142" s="81">
+        <v>0.125</v>
+      </c>
+      <c r="F142" s="81">
+        <f t="shared" si="46"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H142" s="83" t="s">
+        <v>515</v>
+      </c>
+      <c r="I142" s="81">
+        <f t="shared" ref="I142" si="52">SUMIFS(F136:F150, C136:C150,H142)</f>
+        <v>8.680555555555558E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="94"/>
+      <c r="B143" s="80" t="s">
+        <v>522</v>
+      </c>
+      <c r="C143" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D143" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E143" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="F143" s="81">
+        <f t="shared" si="46"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H143" s="78" t="s">
+        <v>517</v>
+      </c>
+      <c r="I143" s="79">
+        <f t="shared" ref="I143" si="53">SUM(I137:I142)</f>
+        <v>0.41319444444444459</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="94"/>
+      <c r="B144" s="80" t="s">
+        <v>523</v>
+      </c>
+      <c r="C144" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D144" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="E144" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="F144" s="81">
+        <f t="shared" si="46"/>
+        <v>0.125</v>
+      </c>
+      <c r="I144" s="84"/>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="94"/>
+      <c r="B145" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C145" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D145" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E145" s="81">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="F145" s="81">
+        <f t="shared" si="46"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="I145" s="84"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="94"/>
+      <c r="B146" s="80" t="s">
+        <v>519</v>
+      </c>
+      <c r="C146" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D146" s="81">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E146" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F146" s="81">
+        <f t="shared" si="46"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="94"/>
+      <c r="B147" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C147" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D147" s="81">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E147" s="81">
+        <v>0.125</v>
+      </c>
+      <c r="F147" s="81">
+        <f t="shared" si="46"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="94"/>
+      <c r="B148" s="80"/>
+      <c r="C148" s="80"/>
+      <c r="D148" s="81"/>
+      <c r="E148" s="81"/>
+      <c r="F148" s="81">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="94"/>
+      <c r="B149" s="80"/>
+      <c r="C149" s="80"/>
+      <c r="D149" s="81"/>
+      <c r="E149" s="81"/>
+      <c r="F149" s="81">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="94"/>
+      <c r="B150" s="80"/>
+      <c r="C150" s="80"/>
+      <c r="D150" s="81"/>
+      <c r="E150" s="81"/>
+      <c r="F150" s="81">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" s="80" t="s">
+        <v>506</v>
+      </c>
+      <c r="C151" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D151" s="81">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E151" s="81">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F151" s="81">
+        <f t="shared" si="46"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H151" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="I151" s="79" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="94"/>
+      <c r="B152" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C152" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D152" s="81">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E152" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F152" s="81">
+        <f t="shared" si="46"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H152" s="83" t="s">
+        <v>503</v>
+      </c>
+      <c r="I152" s="81">
+        <f t="shared" ref="I152" si="54">SUMIFS(F151:F165, C151:C165,H152)</f>
+        <v>0.23958333333333343</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="94"/>
+      <c r="B153" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C153" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D153" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E153" s="81">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="F153" s="81">
+        <f t="shared" si="46"/>
+        <v>2.4305555555555636E-2</v>
+      </c>
+      <c r="H153" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I153" s="81">
+        <f t="shared" ref="I153" si="55">SUMIFS(F151:F165, C151:C165,H153)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="94"/>
+      <c r="B154" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C154" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D154" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E154" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F154" s="81">
+        <f t="shared" si="46"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H154" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I154" s="81">
+        <f t="shared" ref="I154" si="56">SUMIFS(F151:F165, C151:C165,H154)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="94"/>
+      <c r="B155" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C155" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D155" s="81" t="s">
+        <v>555</v>
+      </c>
+      <c r="E155" s="81">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F155" s="81" t="e">
+        <f t="shared" si="46"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H155" s="83" t="s">
+        <v>507</v>
+      </c>
+      <c r="I155" s="81">
+        <f t="shared" ref="I155" si="57">SUMIFS(F151:F165, C151:C165,H155)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="94"/>
+      <c r="B156" s="80" t="s">
+        <v>519</v>
+      </c>
+      <c r="C156" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D156" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E156" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F156" s="81">
+        <f t="shared" si="46"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H156" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I156" s="81">
+        <f t="shared" ref="I156" si="58">SUMIFS(F151:F165, C151:C165,H156)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="94"/>
+      <c r="B157" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C157" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D157" s="81">
+        <v>0.65625</v>
+      </c>
+      <c r="E157" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F157" s="81">
+        <f t="shared" si="46"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H157" s="83" t="s">
+        <v>515</v>
+      </c>
+      <c r="I157" s="81" t="e">
+        <f t="shared" ref="I157" si="59">SUMIFS(F151:F165, C151:C165,H157)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="94"/>
+      <c r="B158" s="80" t="s">
+        <v>522</v>
+      </c>
+      <c r="C158" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D158" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E158" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="F158" s="81">
+        <f t="shared" si="46"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H158" s="78" t="s">
+        <v>517</v>
+      </c>
+      <c r="I158" s="79" t="e">
+        <f t="shared" ref="I158" si="60">SUM(I152:I157)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="94"/>
+      <c r="B159" s="80" t="s">
+        <v>523</v>
+      </c>
+      <c r="C159" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D159" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="E159" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="F159" s="81">
+        <f t="shared" si="46"/>
+        <v>0.125</v>
+      </c>
+      <c r="I159" s="84"/>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="94"/>
+      <c r="B160" s="80"/>
+      <c r="C160" s="80"/>
+      <c r="D160" s="81"/>
+      <c r="E160" s="81"/>
+      <c r="F160" s="81">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="I160" s="84"/>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="94"/>
+      <c r="B161" s="80"/>
+      <c r="C161" s="80"/>
+      <c r="D161" s="81"/>
+      <c r="E161" s="81"/>
+      <c r="F161" s="81">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="94"/>
+      <c r="B162" s="80"/>
+      <c r="C162" s="80"/>
+      <c r="D162" s="81"/>
+      <c r="E162" s="81"/>
+      <c r="F162" s="81">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="94"/>
+      <c r="B163" s="80"/>
+      <c r="C163" s="80"/>
+      <c r="D163" s="81"/>
+      <c r="E163" s="81"/>
+      <c r="F163" s="81">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="94"/>
+      <c r="B164" s="80"/>
+      <c r="C164" s="80"/>
+      <c r="D164" s="81"/>
+      <c r="E164" s="81"/>
+      <c r="F164" s="81">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="94"/>
+      <c r="B165" s="80"/>
+      <c r="C165" s="80"/>
+      <c r="D165" s="81"/>
+      <c r="E165" s="81"/>
+      <c r="F165" s="81">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A76:A90"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="A32:A45"/>
+    <mergeCell ref="A46:A60"/>
+    <mergeCell ref="A61:A75"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A106:A120"/>
+    <mergeCell ref="A121:A135"/>
+    <mergeCell ref="A136:A150"/>
+    <mergeCell ref="A151:A165"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I3 I18 I33 I47 I62 I77 I92 I107 I122 I137 I152">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="lessThan">
+      <formula>0.25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4 I19 I34 I48 I63 I78 I93 I108 I123 I138 I153">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5 I20 I35 I49 I64 I79 I94 I109 I124 I139 I154">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6 I21 I36 I50 I65 I80 I95 I110 I125 I140 I155">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7 I22 I37 I51 I66 I81 I96 I111 I126 I141 I156">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8 I23 I38 I52 I67 I82 I97 I112 I127 I142 I157">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0.0625</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0.0625</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C71 C76:C165" xr:uid="{6E4899FF-3B25-4EE1-B31B-EF5F8A1E414F}">
+      <formula1>$Q$1:$Q$7</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24087D29-89FC-40D5-B61F-689E15182F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{959B22BE-18E2-4D2B-B840-21C6ADB984B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5-4-22" sheetId="40" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="23-04-22" sheetId="56" r:id="rId15"/>
     <sheet name="25-04-22" sheetId="57" r:id="rId16"/>
     <sheet name="26-04-22" sheetId="58" r:id="rId17"/>
+    <sheet name="27-04-22" sheetId="59" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="563">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1547,10 +1548,16 @@
     <t>3.10 hrs</t>
   </si>
   <si>
-    <t>Web api (Debugging Errors-(8:15-9:00),                    repository(9:00-9:44),(10:40-12:00) ,                                 Estimation and discussion(12:00-12-33),Meeting with Rafi(12:36-12:52),Timesheet update(2:00-2:15),</t>
-  </si>
-  <si>
-    <t>Softskill session(9:44-10:33),Break(1:05-1:40),sending mail for installation(2:40-2:45),Webapi exploring(3:00-3:30),college call(3:30-3:45),Break(3:45-4:00),System installation (4:00-4:25),</t>
+    <t>web api Services and web api exploration</t>
+  </si>
+  <si>
+    <t>20:00-21:00 : reviewing and understanding the Api services,
+21:00-23:00 : Learning Angular&lt;Components and lifecycle&gt;,
+TOTAL-3 hrs</t>
+  </si>
+  <si>
+    <t>8:00-17:00 : Went college for internals ,
+TOTAL -9 hrs</t>
   </si>
   <si>
     <t xml:space="preserve">Web Api exploration,
@@ -1575,6 +1582,27 @@
 4:45 - 5:30 : Resolving conflict in Webapi </t>
   </si>
   <si>
+    <t>Component in angular for common Layout pages</t>
+  </si>
+  <si>
+    <t>8.40-9.00   : Updating Timesheet
+9.05-9.30   : Team Discussion about work Progress
+10.40-12.30 : Layout Integration and corrections in Layout
+12.35-12.56 : Client(Rafi) Meeting
+2.00-2.20   : Uploading Layout pages as static pages to Git publish
+2.20-2.50   : Identify the Unique and Common Layout pages for Estimation
+3.00-4.00   : Web Api Session amoung Team
+4.30-4.50   : Presenting the Layout to the Client(Rafi)
+4.50-5.00   : Discussion with Layout team about changes in Layout
+5.00-5.40   : Discussion about Layout page Estimation</t>
+  </si>
+  <si>
+    <t>9.30-10.20  : Softskill session
+10.20-10.40 : Tea Break
+1.00-2.00   : Lunch Break
+4.00-4.30   : Tea Break</t>
+  </si>
+  <si>
     <t>Estimation and Layout Correction</t>
   </si>
   <si>
@@ -1600,30 +1628,336 @@
     <t>Refining the layout and responvise</t>
   </si>
   <si>
-    <t xml:space="preserve">Estimation explanation meeting-15 min
-30mins : Helping in Attendence Layout
-15 mins : meeting with Rafi 
-1.30 mins : Estimation
-10 mins : Layout Correction Explanation
+    <t xml:space="preserve">8.45-9.05 : Updating Timesheet 
+9:05 - 9:30 : Team meeting
+12:35 - 12:56 : meeting with Rafi 
+2.00-3.00 : Identifying the Unique page for Estimation
+4.35-4.50 : Web API Session with team 
+4.55-5.30: Layout Correction Explanation and Estimation
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Softskill-1 hour
-webAPI Session with team-1 hour, Prepare for Review -100 mins
-lunch and Break-80 mins </t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>9:30 - 10:20 - Softskill session</t>
+    <t xml:space="preserve">
+9.30-10.20 : Soft skill
+10.30-11.45: prepare for internal review
+1-1.45-Lunch
+4.35-4.50 : Web API Session with other team 
+5.30-6: Internal Review with Anitha
+</t>
+  </si>
+  <si>
+    <t>Layout page for Assign course and Create topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:20-9:30-Team meeting,
+10:40-12:30:Worked on Layout page (Assign course and create topic),
+12:35-12:55:Meeting with Rafi,
+2:00-3:00: Web Api session among team,
+4:30-5:30-Layout corrections and responsivenss 
+</t>
+  </si>
+  <si>
+    <t>9:30-10:20:Softskill session,
+10:20-10:40:Break,
+1:00-1:50:lunch break,
+3:00-4:00:Explored about entity framework,
+4:00-4:20:Tea break,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45-9.00 : Updating Timesheet 
+9:05 - 9:30 : Team meeting
+9:30 - 10:20 : Softskill session(Problem Solving)
+10:20 - 10:40 : break
+10:40-10:55 : Estimation explanation meeting
+11.00-12.30: worked on attendace layout
+12:35 - 12:56 : meeting with Rafi 
+1:00 - 1:40 : Lunch
+2:00 - 3:00: webAPI Session with team members
+3.00-3.40:exploration on html
+3.40-4.00:uploading code in github
+4:30- 4:45 : break
+4.45-5.45:Exploration on web api
+7.00-8.00:Brushing up of basic concepts in c#
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     3 Hrs and 40 mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                              5 hrs and 10 mins</t>
+  </si>
+  <si>
+    <t>creating component in angular</t>
+  </si>
+  <si>
+    <t>8:50-9:00   : Updating Timesheet
+9:05-9:30   : Team Discussion about work Progress
+10:40-12:30 : intergarting the layout (TMS layout)
+12:35-12:56 : Client(Rafi) Meeting
+2:00-2:20   : creating the repositories and uploading the static page in github
+2:20-2:50   :  spliting the common page and prepaing for estimation
+3:00-4:00   : Web Api Session amoung Team
+4:30-4:50   : Presenting the Layout to the Client(Rafi)
+4:50-5:00   : Discussion with Layout team about changes in Layout
+5:00-5:40   : Discussion about Layout page Estimation               7:00-7:30   : correcting the changes in the layout</t>
+  </si>
+  <si>
+    <t>9:30-10:20  : Softskill session
+10:20-10:40 : Tea Break
+1:00-2:00   : Lunch Break
+4:00-4:30   : Tea Break</t>
+  </si>
+  <si>
+    <t>Exploration on web api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45-9.00    : Updating Timesheet
+9:00 - 9:30  : Team meeting
+10:40-10:55  : Estimation explanation meeting
+11:00-11:45  : Refining Feedback layout, intergrating with other layouts and updating in git 
+11.45-12.15  : Helping in Estimation
+12:35 - 12:56: meeting with Rafi 
+2.00-3.00    : Identifying the pages and Estimation
+3.00-4.00    : Web API Session with team 
+4.30-4.50    : Web API Session with other team 
+4.55- 5.45   : Exploring web api and installing packages ,Estimationing layout pages
+</t>
+  </si>
+  <si>
+    <t>9:30 - 10:20 : Softskill
+10.20 -10.40 : Break
+1.00-1.40    : Lunch</t>
+  </si>
+  <si>
+    <t>Estimation for TMS and refineed layouts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45-9.00 : Updating Timesheet and HLD Document
+9:05 - 9:30 : Team meeting for work status
+10:40-10:55 : Estimation explanation meeting with team
+11:00-11:45 : Refining schedule review and review layout for TMS 
+11:45-12:30 : reviewing others layouts
+12:35 - 12:56 : meeting with client 
+2:00-3:00 : Identifying the pages for Estimation
+4.55-5.45: Layout Correction Explanation and Estimation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:30 - 10:20 : Softskill session
+10:20 - 10:40 : break
+1:00 - 1:40 : Lunch break
+3:00 - 4:00: Web API Session with team members
+4:00- 4:20 : break
+4.35-4.50 : Entity framework Session with other team </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource </t>
+  </si>
+  <si>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <t>Task Type</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Timesheet and MOM updating</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Team Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting </t>
+  </si>
+  <si>
+    <t>Non Project</t>
+  </si>
+  <si>
+    <t>Api Service refining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration </t>
+  </si>
+  <si>
+    <t>Customer Meeting</t>
+  </si>
+  <si>
+    <t>Customer Review</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Typescript Intorduction and Sample programs&gt;</t>
+  </si>
+  <si>
+    <t>Api Service implementation on Controller</t>
+  </si>
+  <si>
+    <t>Lunch and Break</t>
+  </si>
+  <si>
+    <t>Service explanation to Members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunch </t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Morning Break</t>
+  </si>
+  <si>
+    <t>Evening Break</t>
+  </si>
+  <si>
+    <t>Api Swagger Testing</t>
+  </si>
+  <si>
+    <t>Soft Skill</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Topics&gt;</t>
+  </si>
+  <si>
+    <t>Working on HTML layout</t>
+  </si>
+  <si>
+    <t>Time Sheet</t>
+  </si>
+  <si>
+    <t>Database Migration</t>
+  </si>
+  <si>
+    <t>Logging in user services &amp; user controller</t>
+  </si>
+  <si>
+    <t>User Services List of Users by Role</t>
+  </si>
+  <si>
+    <t>client meeting</t>
+  </si>
+  <si>
+    <t>helping other team with ui</t>
+  </si>
+  <si>
+    <t>fixing errors in user services</t>
+  </si>
+  <si>
+    <t>ef core exploration</t>
+  </si>
+  <si>
+    <t>CRUD Operation in user Services</t>
+  </si>
+  <si>
+    <t>Technical Session</t>
+  </si>
+  <si>
+    <t>Time Sheet Updating</t>
+  </si>
+  <si>
+    <t>Estimation for Dashboard</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Typescript Introduction and  Installation&gt;</t>
+  </si>
+  <si>
+    <t>Discussion about Services with Arul and Spliting Services</t>
+  </si>
+  <si>
+    <t>Service-Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updating TimeSheet </t>
+  </si>
+  <si>
+    <t>Estimation Preparation</t>
+  </si>
+  <si>
+    <t>Web API Exploration (user services) with gokul</t>
+  </si>
+  <si>
+    <t>Working on Feedback services</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;TypeScript Introduction and Simple Examples&gt;</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Introduction of Typescript , VS code Installation&gt;</t>
+  </si>
+  <si>
+    <t>Service Discussion with Arul and Spliting the Service</t>
+  </si>
+  <si>
+    <t>Service-Course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared for Internal Review </t>
+  </si>
+  <si>
+    <t>Working on WebAPI (Review )</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;data type &gt;</t>
+  </si>
+  <si>
+    <t>Timesheet Updating</t>
+  </si>
+  <si>
+    <t>Estimation for ProfileView</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Typescript introduction&gt;</t>
+  </si>
+  <si>
+    <t>discussion on services and spliting the services</t>
+  </si>
+  <si>
+    <t>Service-Role</t>
+  </si>
+  <si>
+    <t>Estimation for unique pages</t>
+  </si>
+  <si>
+    <t>Timesheet</t>
+  </si>
+  <si>
+    <t>Working on HTML layout (Refining)</t>
+  </si>
+  <si>
+    <t>Estimation for department page</t>
+  </si>
+  <si>
+    <t>Pulling from git and Web API exploration</t>
+  </si>
+  <si>
+    <t>013:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]hh:mm:ss;@"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1767,13 +2101,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -1887,7 +2235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2038,6 +2386,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2065,80 +2492,147 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="21" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3348,14 +3842,14 @@
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="56"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="87"/>
     </row>
     <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="16" t="s">
@@ -3859,14 +4353,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="88" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:22" ht="101.25" customHeight="1">
       <c r="A4" s="16" t="s">
@@ -4109,14 +4603,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="88" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:7" ht="49.5">
       <c r="A4" s="16" t="s">
@@ -4226,27 +4720,27 @@
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="91" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="93"/>
     </row>
     <row r="11" spans="1:7" ht="36.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="91" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="93"/>
     </row>
     <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
@@ -4279,8 +4773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14287F61-8AE3-4555-BA8D-07210E8D9156}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:G12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4524,238 +5018,3739 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7172FC-5606-4FD6-B7B3-02AB5BD496A0}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25" style="65"/>
-    <col min="2" max="2" width="30.28515625" style="65" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" style="65" customWidth="1"/>
-    <col min="4" max="4" width="25" style="65"/>
-    <col min="5" max="5" width="47" style="65" customWidth="1"/>
-    <col min="6" max="6" width="42" style="65" customWidth="1"/>
-    <col min="7" max="16384" width="25" style="65"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="1"/>
+    <col min="5" max="5" width="47" customWidth="1"/>
+    <col min="6" max="6" width="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="56" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="69" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="267" customHeight="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="58" t="s">
         <v>464</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="58" t="s">
         <v>465</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58" t="s">
         <v>466</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="58" t="s">
         <v>467</v>
       </c>
-      <c r="G2" s="82"/>
-    </row>
-    <row r="3" spans="1:7" ht="89.25">
-      <c r="A3" s="67" t="s">
+      <c r="G2" s="70"/>
+    </row>
+    <row r="3" spans="1:7" ht="147.75" customHeight="1">
+      <c r="A3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="68" t="s">
-        <v>346</v>
-      </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69" t="s">
+      <c r="B3" s="58" t="s">
         <v>468</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59" t="s">
         <v>469</v>
       </c>
-      <c r="G3" s="83"/>
+      <c r="F3" s="59" t="s">
+        <v>470</v>
+      </c>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:7" ht="244.5" customHeight="1">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="70" t="s">
-        <v>470</v>
-      </c>
-      <c r="C4" s="70" t="s">
+      <c r="B4" s="60" t="s">
         <v>471</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71" t="s">
+      <c r="C4" s="60" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="G4" s="64"/>
-    </row>
-    <row r="5" spans="1:7" ht="133.5" customHeight="1">
-      <c r="A5" s="67" t="s">
+      <c r="G4" s="55"/>
+    </row>
+    <row r="5" spans="1:7" ht="228.75" customHeight="1">
+      <c r="A5" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="62" t="s">
+        <v>473</v>
+      </c>
+      <c r="C5" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="C5" s="68" t="s">
-        <v>440</v>
-      </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68" t="s">
-        <v>441</v>
-      </c>
-      <c r="F5" s="73" t="s">
-        <v>442</v>
-      </c>
-      <c r="G5" s="63"/>
-    </row>
-    <row r="6" spans="1:7" ht="150" customHeight="1">
-      <c r="A6" s="67" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="58" t="s">
+        <v>474</v>
+      </c>
+      <c r="F5" s="75" t="s">
+        <v>475</v>
+      </c>
+      <c r="G5" s="54"/>
+    </row>
+    <row r="6" spans="1:7" ht="120" customHeight="1">
+      <c r="A6" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="68" t="s">
-        <v>472</v>
-      </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="75" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="58" t="s">
+        <v>476</v>
+      </c>
+      <c r="D6" s="58"/>
+      <c r="E6" s="64" t="s">
+        <v>477</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>478</v>
+      </c>
+      <c r="G6" s="72"/>
+    </row>
+    <row r="7" spans="1:7" ht="162" customHeight="1">
+      <c r="A7" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="62" t="s">
         <v>473</v>
       </c>
-      <c r="F6" s="75" t="s">
-        <v>474</v>
-      </c>
-      <c r="G6" s="84"/>
-    </row>
-    <row r="7" spans="1:7" ht="132.75" customHeight="1">
-      <c r="A7" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68" t="s">
-        <v>475</v>
-      </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="75" t="s">
-        <v>476</v>
-      </c>
-      <c r="F7" s="86" t="s">
-        <v>477</v>
-      </c>
-      <c r="G7" s="82"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="67" t="s">
+      <c r="C7" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="D7" s="58"/>
+      <c r="E7" s="64" t="s">
+        <v>480</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>481</v>
+      </c>
+      <c r="G7" s="70"/>
+    </row>
+    <row r="8" spans="1:7" ht="150" customHeight="1">
+      <c r="A8" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69" t="s">
-        <v>478</v>
-      </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="82"/>
-    </row>
-    <row r="9" spans="1:7" ht="63.75">
-      <c r="A9" s="67" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="74" t="s">
+        <v>482</v>
+      </c>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59" t="s">
+        <v>483</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>484</v>
+      </c>
+      <c r="G8" s="70"/>
+    </row>
+    <row r="9" spans="1:7" ht="230.25" customHeight="1">
+      <c r="A9" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="58" t="s">
         <v>302</v>
       </c>
-      <c r="C9" s="68" t="s">
-        <v>454</v>
-      </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="75" t="s">
-        <v>455</v>
-      </c>
-      <c r="F9" s="69" t="s">
-        <v>429</v>
-      </c>
-      <c r="G9" s="82"/>
-    </row>
-    <row r="10" spans="1:7" ht="75.75" customHeight="1">
-      <c r="A10" s="67" t="s">
+      <c r="C9" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="D9" s="58"/>
+      <c r="E9" s="64" t="s">
+        <v>486</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>487</v>
+      </c>
+      <c r="G9" s="70"/>
+    </row>
+    <row r="10" spans="1:7" ht="204.75" customHeight="1">
+      <c r="A10" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68" t="s">
-        <v>430</v>
-      </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68" t="s">
-        <v>431</v>
-      </c>
-      <c r="F10" s="68" t="s">
-        <v>374</v>
-      </c>
-      <c r="G10" s="82"/>
-    </row>
-    <row r="11" spans="1:7" ht="144" customHeight="1">
-      <c r="A11" s="67" t="s">
+      <c r="B10" s="58" t="s">
+        <v>488</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58" t="s">
+        <v>489</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>490</v>
+      </c>
+      <c r="G10" s="70"/>
+    </row>
+    <row r="11" spans="1:7" ht="189.75" customHeight="1">
+      <c r="A11" s="57" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>456</v>
-      </c>
-      <c r="C11" s="80" t="s">
-        <v>457</v>
-      </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="75" t="s">
-        <v>473</v>
-      </c>
-      <c r="F11" s="75" t="s">
-        <v>459</v>
+        <v>491</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>319</v>
+      </c>
+      <c r="D11" s="66"/>
+      <c r="E11" s="64" t="s">
+        <v>492</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="141.75" customHeight="1">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="79" t="s">
-        <v>461</v>
-      </c>
-      <c r="F12" s="69" t="s">
-        <v>479</v>
-      </c>
-      <c r="G12" s="85"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="67" t="s">
+        <v>494</v>
+      </c>
+      <c r="D12" s="66"/>
+      <c r="E12" s="68" t="s">
+        <v>495</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>496</v>
+      </c>
+      <c r="G12" s="73"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G12">
     <sortCondition ref="A2:A12"/>
   </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C319A4C-EADA-4641-96D7-D7B692B906C8}">
+  <dimension ref="A1:Q165"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="84" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="84" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="84" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="78" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>500</v>
+      </c>
+      <c r="E1" s="79" t="s">
+        <v>501</v>
+      </c>
+      <c r="F1" s="79" t="s">
+        <v>502</v>
+      </c>
+      <c r="G1" s="82"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D2" s="81">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E2" s="81">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="F2" s="81">
+        <f>E2-D2</f>
+        <v>1.7361111111111105E-2</v>
+      </c>
+      <c r="H2" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I2" s="79" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="94"/>
+      <c r="B3" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D3" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E3" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F3" s="81">
+        <f t="shared" ref="F3:F60" si="0">E3-D3</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H3" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I3" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H3)</f>
+        <v>0.14583333333333331</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="94"/>
+      <c r="B4" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D4" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E4" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F4" s="81">
+        <f>E4-D4</f>
+        <v>4.8611111111111049E-2</v>
+      </c>
+      <c r="H4" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="I4" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H4)</f>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="94"/>
+      <c r="B5" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D5" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E5" s="81">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="F5" s="81">
+        <f>E5-D5</f>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="H5" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="I5" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H5)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="94"/>
+      <c r="B6" s="80" t="s">
+        <v>514</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="D6" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E6" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F6" s="81">
+        <f>E6-D6</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H6" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I6" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H6)</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="94"/>
+      <c r="B7" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D7" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E7" s="81">
+        <v>0.6875</v>
+      </c>
+      <c r="F7" s="81">
+        <f>E7-D7</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="H7" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I7" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H7)</f>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="94"/>
+      <c r="B8" s="80" t="s">
+        <v>517</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D8" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E8" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F8" s="81">
+        <f>E8-D8</f>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="H8" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I8" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H8)</f>
+        <v>3.819444444444442E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="94"/>
+      <c r="B9" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D9" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E9" s="81">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F9" s="81">
+        <f>E9-D9</f>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="H9" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I9" s="79">
+        <f>SUM(I3:I8)</f>
+        <v>0.35763888888888873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="94"/>
+      <c r="B10" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D10" s="81">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E10" s="81">
+        <v>0.4375</v>
+      </c>
+      <c r="F10" s="81">
+        <f>E10-D10</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="I10" s="84"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="94"/>
+      <c r="B11" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D11" s="81">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E11" s="81">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="F11" s="81">
+        <f>E11-D11</f>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="I11" s="84"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="94"/>
+      <c r="B12" s="80" t="s">
+        <v>522</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D12" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E12" s="81">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="F12" s="81">
+        <f>E12-D12</f>
+        <v>2.777777777777779E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="94"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81">
+        <f>E13-D13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="94"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81">
+        <f>E14-D14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="94"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="94"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D17" s="81">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E17" s="81">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F17" s="81">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H17" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I17" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="94"/>
+      <c r="B18" s="80" t="s">
+        <v>523</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D18" s="81">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E18" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F18" s="81">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H18" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I18" s="81">
+        <f t="shared" ref="I18" si="1">SUMIFS(F17:F31, C17:C31,H18)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="94"/>
+      <c r="B19" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D19" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E19" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F19" s="81">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H19" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="I19" s="81">
+        <f t="shared" ref="I19" si="2">SUMIFS(F17:F31, C17:C31,H19)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="94"/>
+      <c r="B20" s="80" t="s">
+        <v>523</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D20" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E20" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F20" s="81">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H20" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="I20" s="81">
+        <f t="shared" ref="I20" si="3">SUMIFS(F17:F31, C17:C31,H20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="94"/>
+      <c r="B21" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D21" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E21" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F21" s="81">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H21" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I21" s="81">
+        <f t="shared" ref="I21" si="4">SUMIFS(F17:F31, C17:C31,H21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="94"/>
+      <c r="B22" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D22" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E22" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F22" s="81">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H22" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I22" s="81">
+        <f t="shared" ref="I22" si="5">SUMIFS(F17:F31, C17:C31,H22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="94"/>
+      <c r="B23" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C23" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D23" s="81">
+        <v>0.65625</v>
+      </c>
+      <c r="E23" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F23" s="81">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H23" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I23" s="81">
+        <f t="shared" ref="I23" si="6">SUMIFS(F17:F31, C17:C31,H23)</f>
+        <v>3.8194444444444309E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="94"/>
+      <c r="B24" s="80" t="s">
+        <v>524</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D24" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E24" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="81">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H24" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I24" s="79">
+        <f t="shared" ref="I24" si="7">SUM(I18:I23)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="94"/>
+      <c r="B25" s="80" t="s">
+        <v>525</v>
+      </c>
+      <c r="C25" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D25" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="E25" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="F25" s="81">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="I25" s="84"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="94"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="84"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="94"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="94"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="94"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="94"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="94"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="80" t="s">
+        <v>526</v>
+      </c>
+      <c r="C32" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D32" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E32" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F32" s="81">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H32" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I32" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="94"/>
+      <c r="B33" s="80" t="s">
+        <v>527</v>
+      </c>
+      <c r="C33" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D33" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E33" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="F33" s="81">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H33" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I33" s="81">
+        <f>SUMIFS(F32:F45, C32:C45,H33)</f>
+        <v>0.12847222222222221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="94"/>
+      <c r="B34" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="C34" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D34" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E34" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F34" s="81">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H34" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="I34" s="81">
+        <f>SUMIFS(F32:F45, C32:C45,H34)</f>
+        <v>2.3611111111111083E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="94"/>
+      <c r="B35" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C35" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D35" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E35" s="81">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="F35" s="81">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H35" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="I35" s="81">
+        <f>SUMIFS(F32:F45, C32:C45,H35)</f>
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="94"/>
+      <c r="B36" s="80" t="s">
+        <v>529</v>
+      </c>
+      <c r="C36" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D36" s="81">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E36" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F36" s="81">
+        <f>E36-D36</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H36" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I36" s="81">
+        <f>SUMIFS(F32:F45, C32:C45,H36)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="94"/>
+      <c r="B37" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C37" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D37" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E37" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F37" s="81">
+        <f>E37-D37</f>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="H37" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I37" s="81">
+        <f>SUMIFS(F32:F45, C32:C45,H37)</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="94"/>
+      <c r="B38" s="80" t="s">
+        <v>530</v>
+      </c>
+      <c r="C38" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D38" s="81">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="E38" s="81">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="F38" s="81">
+        <f>E38-D38</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+      <c r="H38" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I38" s="81">
+        <f>SUMIFS(F32:F45, C32:C45,H38)</f>
+        <v>4.9999999999999933E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="94"/>
+      <c r="B39" s="80" t="s">
+        <v>531</v>
+      </c>
+      <c r="C39" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D39" s="81">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="E39" s="81">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="F39" s="81">
+        <f>E39-D39</f>
+        <v>9.7222222222221877E-3</v>
+      </c>
+      <c r="H39" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I39" s="79">
+        <f t="shared" ref="I39" si="8">SUM(I33:I38)</f>
+        <v>0.35069444444444436</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="94"/>
+      <c r="B40" s="80" t="s">
+        <v>532</v>
+      </c>
+      <c r="C40" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D40" s="81">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E40" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F40" s="81">
+        <f>E40-D40</f>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="I40" s="84"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="94"/>
+      <c r="B41" s="80" t="s">
+        <v>533</v>
+      </c>
+      <c r="C41" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="D41" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E41" s="81">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F41" s="81">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="K41" s="81"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="94"/>
+      <c r="B42" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C42" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D42" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E42" s="81">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="F42" s="81">
+        <f t="shared" si="0"/>
+        <v>3.2638888888888884E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="94"/>
+      <c r="B43" s="80" t="s">
+        <v>534</v>
+      </c>
+      <c r="C43" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D43" s="81">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E43" s="81">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="F43" s="81">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="94"/>
+      <c r="B44" s="80" t="s">
+        <v>535</v>
+      </c>
+      <c r="C44" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="D44" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E44" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F44" s="81">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="94"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="80" t="s">
+        <v>536</v>
+      </c>
+      <c r="C46" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D46" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E46" s="81">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F46" s="81">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H46" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I46" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="94"/>
+      <c r="B47" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="C47" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D47" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E47" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F47" s="81">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H47" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I47" s="81">
+        <f t="shared" ref="I47" si="9">SUMIFS(F46:F60, C46:C60,H47)</f>
+        <v>0.14236111111111099</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="94"/>
+      <c r="B48" s="80" t="s">
+        <v>537</v>
+      </c>
+      <c r="C48" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D48" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E48" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F48" s="81">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H48" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="I48" s="81">
+        <f t="shared" ref="I48" si="10">SUMIFS(F46:F60, C46:C60,H48)</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="94"/>
+      <c r="B49" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="C49" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D49" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E49" s="81">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="F49" s="81">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="H49" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="I49" s="81">
+        <f t="shared" ref="I49" si="11">SUMIFS(F46:F60, C46:C60,H49)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="94"/>
+      <c r="B50" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C50" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D50" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E50" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F50" s="81">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="H50" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I50" s="81">
+        <f t="shared" ref="I50" si="12">SUMIFS(F46:F60, C46:C60,H50)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="94"/>
+      <c r="B51" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C51" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D51" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E51" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F51" s="81">
+        <f t="shared" si="0"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="H51" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I51" s="81">
+        <f t="shared" ref="I51" si="13">SUMIFS(F46:F60, C46:C60,H51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="94"/>
+      <c r="B52" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C52" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D52" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E52" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F52" s="81">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="H52" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I52" s="81">
+        <f t="shared" ref="I52" si="14">SUMIFS(F46:F60, C46:C60,H52)</f>
+        <v>6.9444444444444531E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="94"/>
+      <c r="B53" s="80" t="s">
+        <v>538</v>
+      </c>
+      <c r="C53" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="D53" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E53" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F53" s="81">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H53" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I53" s="79">
+        <f t="shared" ref="I53" si="15">SUM(I47:I52)</f>
+        <v>0.32638888888888884</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="94"/>
+      <c r="B54" s="80" t="s">
+        <v>539</v>
+      </c>
+      <c r="C54" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D54" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E54" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F54" s="81">
+        <f t="shared" si="0"/>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="I54" s="84"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="94"/>
+      <c r="B55" s="80" t="s">
+        <v>540</v>
+      </c>
+      <c r="C55" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D55" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="E55" s="81">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F55" s="81">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="I55" s="84"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="94"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="94"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="94"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="94"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="94"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="80" t="s">
+        <v>541</v>
+      </c>
+      <c r="C61" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D61" s="81">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E61" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="F61" s="81">
+        <f>E61-D61</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H61" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I61" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="94"/>
+      <c r="B62" s="80" t="s">
+        <v>525</v>
+      </c>
+      <c r="C62" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D62" s="81">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="E62" s="81">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="F62" s="81">
+        <f>E62-D62</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H62" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I62" s="81">
+        <f>SUMIFS(F61:F71, C61:C71,H62)</f>
+        <v>0.10069444444444438</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="94"/>
+      <c r="B63" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="C63" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D63" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E63" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F63" s="81">
+        <f>E63-D63</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H63" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="I63" s="81">
+        <f>SUMIFS(F61:F71, C61:C71,H63)</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="94"/>
+      <c r="B64" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C64" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D64" s="81">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E64" s="81">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="F64" s="81">
+        <f>E64-D64</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H64" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="I64" s="81">
+        <f>SUMIFS(F61:F71, C61:C71,H64)</f>
+        <v>3.0625</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="94"/>
+      <c r="B65" s="80" t="s">
+        <v>542</v>
+      </c>
+      <c r="C65" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D65" s="81">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="E65" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F65" s="81">
+        <f>E65-D65</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H65" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I65" s="81">
+        <f>SUMIFS(F61:F71, C61:C71,H65)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="94"/>
+      <c r="B66" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="C66" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D66" s="81">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="E66" s="81">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="F66" s="81">
+        <f>E66-D66</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+      <c r="H66" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I66" s="81">
+        <f>SUMIFS(F61:F71, C61:C71,H66)</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="94"/>
+      <c r="B67" s="80" t="s">
+        <v>543</v>
+      </c>
+      <c r="C67" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D67" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E67" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F67" s="81">
+        <f>E67-D67</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H67" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I67" s="81">
+        <f>SUMIFS(F61:F71, C61:C71,H67)</f>
+        <v>6.2500000000000167E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="94"/>
+      <c r="B68" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C68" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D68" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E68" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F68" s="81">
+        <f>E68-D68</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="H68" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I68" s="79">
+        <f t="shared" ref="I68" si="16">SUM(I62:I67)</f>
+        <v>3.3013888888888889</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="94"/>
+      <c r="B69" s="80" t="s">
+        <v>544</v>
+      </c>
+      <c r="C69" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D69" s="81">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="E69" s="81">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="F69" s="81">
+        <f>E69-D69</f>
+        <v>4.8611111111111119E-2</v>
+      </c>
+      <c r="I69" s="84"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="94"/>
+      <c r="B70" s="80" t="s">
+        <v>545</v>
+      </c>
+      <c r="C70" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="D70" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E70" s="81">
+        <v>3.7083333333333335</v>
+      </c>
+      <c r="F70" s="81">
+        <f>E70-D70</f>
+        <v>3.0625</v>
+      </c>
+      <c r="I70" s="84"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="94"/>
+      <c r="B71" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C71" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D71" s="81">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E71" s="81">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="F71" s="81">
+        <f>E71-D71</f>
+        <v>1.0416666666666741E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="94"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="94"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="94"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="94"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="C76" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D76" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E76" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F76" s="81">
+        <f t="shared" ref="F76:F129" si="17">E76-D76</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H76" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I76" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="94"/>
+      <c r="B77" s="80" t="s">
+        <v>523</v>
+      </c>
+      <c r="C77" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D77" s="81">
+        <v>0</v>
+      </c>
+      <c r="E77" s="81">
+        <v>0</v>
+      </c>
+      <c r="F77" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I77" s="81">
+        <f t="shared" ref="I77" si="18">SUMIFS(F76:F90, C76:C90,H77)</f>
+        <v>0.12986111111111098</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="94"/>
+      <c r="B78" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="C78" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D78" s="81">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="E78" s="81">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="F78" s="81">
+        <f t="shared" si="17"/>
+        <v>2.5694444444444353E-2</v>
+      </c>
+      <c r="H78" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="I78" s="81">
+        <f t="shared" ref="I78" si="19">SUMIFS(F76:F90, C76:C90,H78)</f>
+        <v>1.388888888888884E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="94"/>
+      <c r="B79" s="80" t="s">
+        <v>523</v>
+      </c>
+      <c r="C79" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D79" s="81">
+        <v>0</v>
+      </c>
+      <c r="E79" s="81">
+        <v>0</v>
+      </c>
+      <c r="F79" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="I79" s="81">
+        <f t="shared" ref="I79" si="20">SUMIFS(F76:F90, C76:C90,H79)</f>
+        <v>6.3888888888888884E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="94"/>
+      <c r="B80" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C80" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D80" s="81">
+        <v>0.53125</v>
+      </c>
+      <c r="E80" s="81">
+        <v>0.5625</v>
+      </c>
+      <c r="F80" s="81">
+        <f t="shared" si="17"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H80" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I80" s="81">
+        <f t="shared" ref="I80" si="21">SUMIFS(F76:F90, C76:C90,H80)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="94"/>
+      <c r="B81" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C81" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D81" s="81">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E81" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F81" s="81">
+        <f t="shared" si="17"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H81" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I81" s="81">
+        <f t="shared" ref="I81" si="22">SUMIFS(F76:F90, C76:C90,H81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="94"/>
+      <c r="B82" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C82" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D82" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E82" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F82" s="81">
+        <f t="shared" si="17"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="H82" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I82" s="81">
+        <f t="shared" ref="I82" si="23">SUMIFS(F76:F90, C76:C90,H82)</f>
+        <v>5.5555555555555636E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="94"/>
+      <c r="B83" s="80" t="s">
+        <v>546</v>
+      </c>
+      <c r="C83" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="D83" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E83" s="81">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="F83" s="81">
+        <f t="shared" si="17"/>
+        <v>6.3888888888888884E-2</v>
+      </c>
+      <c r="H83" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I83" s="79">
+        <f t="shared" ref="I83" si="24">SUM(I77:I82)</f>
+        <v>0.29444444444444434</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="94"/>
+      <c r="B84" s="80" t="s">
+        <v>526</v>
+      </c>
+      <c r="C84" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D84" s="81">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E84" s="81">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="F84" s="81">
+        <f t="shared" si="17"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="I84" s="84"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="94"/>
+      <c r="B85" s="80" t="s">
+        <v>547</v>
+      </c>
+      <c r="C85" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D85" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E85" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F85" s="81">
+        <f>E85-D85</f>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="I85" s="84"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="94"/>
+      <c r="B86" s="80" t="s">
+        <v>548</v>
+      </c>
+      <c r="C86" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D86" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="E86" s="81">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="F86" s="81">
+        <f t="shared" si="17"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="94"/>
+      <c r="B87" s="80"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="81"/>
+      <c r="F87" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="94"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="81"/>
+      <c r="E88" s="81"/>
+      <c r="F88" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="94"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="81"/>
+      <c r="F89" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="94"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="80"/>
+      <c r="D90" s="81"/>
+      <c r="E90" s="81"/>
+      <c r="F90" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="C91" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D91" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E91" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F91" s="81">
+        <f t="shared" si="17"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H91" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I91" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="94"/>
+      <c r="B92" s="80" t="s">
+        <v>523</v>
+      </c>
+      <c r="C92" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D92" s="81">
+        <v>0</v>
+      </c>
+      <c r="E92" s="81">
+        <v>0</v>
+      </c>
+      <c r="F92" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I92" s="81">
+        <f t="shared" ref="I92" si="25">SUMIFS(F91:F105, C91:C105,H92)</f>
+        <v>1.3888888888888895E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="94"/>
+      <c r="B93" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="C93" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D93" s="81">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="E93" s="81">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="F93" s="81">
+        <f t="shared" si="17"/>
+        <v>2.3611111111111138E-2</v>
+      </c>
+      <c r="H93" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="I93" s="81">
+        <f t="shared" ref="I93" si="26">SUMIFS(F91:F105, C91:C105,H93)</f>
+        <v>0.16666666666666663</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="94"/>
+      <c r="B94" s="80" t="s">
+        <v>523</v>
+      </c>
+      <c r="C94" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D94" s="81">
+        <v>0</v>
+      </c>
+      <c r="E94" s="81">
+        <v>0</v>
+      </c>
+      <c r="F94" s="81">
+        <f>E94-D94</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="I94" s="81">
+        <f t="shared" ref="I94" si="27">SUMIFS(F91:F105, C91:C105,H94)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="94"/>
+      <c r="B95" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C95" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D95" s="81">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E95" s="81">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="F95" s="81">
+        <f t="shared" si="17"/>
+        <v>2.7777777777777901E-2</v>
+      </c>
+      <c r="H95" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I95" s="81">
+        <f t="shared" ref="I95" si="28">SUMIFS(F91:F105, C91:C105,H95)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="94"/>
+      <c r="B96" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C96" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D96" s="81">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E96" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F96" s="81">
+        <f t="shared" si="17"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H96" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I96" s="81">
+        <f t="shared" ref="I96" si="29">SUMIFS(F91:F105, C91:C105,H96)</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="94"/>
+      <c r="B97" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C97" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D97" s="81">
+        <v>0.65625</v>
+      </c>
+      <c r="E97" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F97" s="81">
+        <f t="shared" si="17"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H97" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I97" s="81">
+        <f t="shared" ref="I97" si="30">SUMIFS(F91:F105, C91:C105,H97)</f>
+        <v>6.9444444444444531E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="94"/>
+      <c r="B98" s="80" t="s">
+        <v>549</v>
+      </c>
+      <c r="C98" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D98" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E98" s="81">
+        <v>0.6875</v>
+      </c>
+      <c r="F98" s="81">
+        <f t="shared" si="17"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="H98" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I98" s="79">
+        <f t="shared" ref="I98" si="31">SUM(I92:I97)</f>
+        <v>0.30486111111111119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="94"/>
+      <c r="B99" s="80" t="s">
+        <v>525</v>
+      </c>
+      <c r="C99" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D99" s="81">
+        <v>0</v>
+      </c>
+      <c r="E99" s="81">
+        <v>0</v>
+      </c>
+      <c r="F99" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I99" s="84"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="94"/>
+      <c r="B100" s="80" t="s">
+        <v>541</v>
+      </c>
+      <c r="C100" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D100" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E100" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F100" s="81">
+        <f t="shared" si="17"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="I100" s="84"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="94"/>
+      <c r="B101" s="80" t="s">
+        <v>535</v>
+      </c>
+      <c r="C101" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D101" s="81">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E101" s="81">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F101" s="81">
+        <f t="shared" si="17"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="94"/>
+      <c r="B102" s="80"/>
+      <c r="C102" s="80"/>
+      <c r="D102" s="81"/>
+      <c r="E102" s="81"/>
+      <c r="F102" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="94"/>
+      <c r="B103" s="80"/>
+      <c r="C103" s="80"/>
+      <c r="D103" s="81"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="94"/>
+      <c r="B104" s="80"/>
+      <c r="C104" s="80"/>
+      <c r="D104" s="81"/>
+      <c r="E104" s="81"/>
+      <c r="F104" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="94"/>
+      <c r="B105" s="80"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="81"/>
+      <c r="E105" s="81"/>
+      <c r="F105" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="C106" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D106" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E106" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F106" s="81">
+        <f t="shared" si="17"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H106" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I106" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="94"/>
+      <c r="B107" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="C107" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D107" s="95">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E107" s="81">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="F107" s="81">
+        <f t="shared" si="17"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H107" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I107" s="81" t="e">
+        <f>SUMIFS(F106:F120, C106:C120,H107)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="94"/>
+      <c r="B108" s="80"/>
+      <c r="C108" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D108" s="81"/>
+      <c r="E108" s="81"/>
+      <c r="F108" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H108" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="I108" s="81">
+        <f t="shared" ref="I108" si="32">SUMIFS(F106:F120, C106:C120,H108)</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="94"/>
+      <c r="B109" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="C109" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D109" s="95">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="E109" s="81">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="F109" s="81">
+        <f t="shared" si="17"/>
+        <v>2.3611111111111138E-2</v>
+      </c>
+      <c r="H109" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="I109" s="81">
+        <f t="shared" ref="I109" si="33">SUMIFS(F106:F120, C106:C120,H109)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="94"/>
+      <c r="B110" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C110" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D110" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E110" s="81">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="F110" s="81">
+        <f t="shared" si="17"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H110" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I110" s="81">
+        <f t="shared" ref="I110" si="34">SUMIFS(F106:F120, C106:C120,H110)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="94"/>
+      <c r="B111" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="C111" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D111" s="81">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E111" s="81">
+        <v>0.625</v>
+      </c>
+      <c r="F111" s="81">
+        <f t="shared" si="17"/>
+        <v>4.8611111111111049E-2</v>
+      </c>
+      <c r="H111" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I111" s="81">
+        <f t="shared" ref="I111" si="35">SUMIFS(F106:F120, C106:C120,H111)</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="94"/>
+      <c r="B112" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C112" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D112" s="81">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E112" s="81">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="F112" s="81">
+        <f t="shared" si="17"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="H112" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I112" s="81">
+        <f t="shared" ref="I112" si="36">SUMIFS(F106:F120, C106:C120,H112)</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="94"/>
+      <c r="B113" s="80" t="s">
+        <v>550</v>
+      </c>
+      <c r="C113" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D113" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E113" s="81">
+        <v>0.625</v>
+      </c>
+      <c r="F113" s="81" t="e">
+        <f>#REF!-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H113" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I113" s="79" t="e">
+        <f t="shared" ref="I113" si="37">SUM(I107:I112)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="94"/>
+      <c r="C114" s="80"/>
+      <c r="F114" s="81"/>
+      <c r="I114" s="84"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="94"/>
+      <c r="B115" s="80" t="s">
+        <v>541</v>
+      </c>
+      <c r="C115" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D115" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E115" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F115" s="81">
+        <f t="shared" si="17"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="I115" s="84"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="94"/>
+      <c r="B116" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C116" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="D116" s="95">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E116" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F116" s="81">
+        <f t="shared" si="17"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="94"/>
+      <c r="B117" s="80"/>
+      <c r="C117" s="80"/>
+      <c r="D117" s="81"/>
+      <c r="E117" s="81"/>
+      <c r="F117" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="94"/>
+      <c r="B118" s="80"/>
+      <c r="C118" s="80"/>
+      <c r="D118" s="81"/>
+      <c r="E118" s="81"/>
+      <c r="F118" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="94"/>
+      <c r="B119" s="80"/>
+      <c r="C119" s="80"/>
+      <c r="D119" s="81"/>
+      <c r="E119" s="81"/>
+      <c r="F119" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="94"/>
+      <c r="B120" s="80"/>
+      <c r="C120" s="80"/>
+      <c r="D120" s="81"/>
+      <c r="E120" s="81"/>
+      <c r="F120" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="B121" s="80" t="s">
+        <v>552</v>
+      </c>
+      <c r="C121" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D121" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E121" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F121" s="81">
+        <f t="shared" si="17"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H121" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I121" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="94"/>
+      <c r="B122" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="C122" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D122" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E122" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F122" s="81">
+        <f t="shared" si="17"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H122" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I122" s="81">
+        <f t="shared" ref="I122" si="38">SUMIFS(F121:F135, C121:C135,H122)</f>
+        <v>0.17013888888888867</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="94"/>
+      <c r="B123" s="80" t="s">
+        <v>553</v>
+      </c>
+      <c r="C123" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D123" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E123" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F123" s="81">
+        <f t="shared" si="17"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H123" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="I123" s="81">
+        <f t="shared" ref="I123" si="39">SUMIFS(F121:F135, C121:C135,H123)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="94"/>
+      <c r="B124" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="C124" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D124" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E124" s="81">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="F124" s="81">
+        <f t="shared" si="17"/>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="H124" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="I124" s="81">
+        <f t="shared" ref="I124" si="40">SUMIFS(F121:F135, C121:C135,H124)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="94"/>
+      <c r="B125" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C125" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D125" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E125" s="81">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F125" s="81">
+        <f t="shared" si="17"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="H125" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I125" s="81">
+        <f t="shared" ref="I125" si="41">SUMIFS(F121:F135, C121:C135,H125)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="94"/>
+      <c r="B126" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C126" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D126" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E126" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F126" s="81">
+        <f t="shared" si="17"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="H126" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I126" s="81">
+        <f t="shared" ref="I126" si="42">SUMIFS(F121:F135, C121:C135,H126)</f>
+        <v>2.7777777777777735E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="94"/>
+      <c r="B127" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C127" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D127" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E127" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F127" s="81">
+        <f t="shared" si="17"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="H127" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I127" s="81">
+        <f t="shared" ref="I127" si="43">SUMIFS(F121:F135, C121:C135,H127)</f>
+        <v>5.555555555555558E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="94"/>
+      <c r="B128" s="80" t="s">
+        <v>554</v>
+      </c>
+      <c r="C128" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="D128" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E128" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F128" s="81">
+        <f t="shared" si="17"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H128" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I128" s="79">
+        <f t="shared" ref="I128" si="44">SUM(I122:I127)</f>
+        <v>0.34722222222222199</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="94"/>
+      <c r="B129" s="80" t="s">
+        <v>555</v>
+      </c>
+      <c r="C129" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D129" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E129" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F129" s="81">
+        <f t="shared" si="17"/>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="I129" s="84"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="94"/>
+      <c r="B130" s="80" t="s">
+        <v>556</v>
+      </c>
+      <c r="C130" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D130" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="E130" s="81">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F130" s="81">
+        <f t="shared" ref="F130:F165" si="45">E130-D130</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="I130" s="84"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="94"/>
+      <c r="B131" s="80" t="s">
+        <v>557</v>
+      </c>
+      <c r="C131" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D131" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E131" s="81">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F131" s="81">
+        <f t="shared" si="45"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="94"/>
+      <c r="B132" s="80" t="s">
+        <v>543</v>
+      </c>
+      <c r="C132" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D132" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E132" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F132" s="81">
+        <f t="shared" si="45"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="94"/>
+      <c r="B133" s="80"/>
+      <c r="C133" s="80"/>
+      <c r="D133" s="81"/>
+      <c r="E133" s="81"/>
+      <c r="F133" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="94"/>
+      <c r="B134" s="80"/>
+      <c r="C134" s="80"/>
+      <c r="D134" s="81"/>
+      <c r="E134" s="81"/>
+      <c r="F134" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="94"/>
+      <c r="B135" s="80"/>
+      <c r="C135" s="80"/>
+      <c r="D135" s="81"/>
+      <c r="E135" s="81"/>
+      <c r="F135" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="B136" s="80" t="s">
+        <v>558</v>
+      </c>
+      <c r="C136" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D136" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E136" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F136" s="81">
+        <f t="shared" si="45"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H136" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I136" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="94"/>
+      <c r="B137" s="80" t="s">
+        <v>559</v>
+      </c>
+      <c r="C137" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D137" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E137" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="F137" s="81">
+        <f t="shared" si="45"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H137" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I137" s="81">
+        <f t="shared" ref="I137" si="46">SUMIFS(F136:F150, C136:C150,H137)</f>
+        <v>0.26388888888888901</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="94"/>
+      <c r="B138" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="C138" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D138" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E138" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F138" s="81">
+        <f t="shared" si="45"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H138" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="I138" s="81">
+        <f t="shared" ref="I138" si="47">SUMIFS(F136:F150, C136:C150,H138)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="94"/>
+      <c r="B139" s="80" t="s">
+        <v>560</v>
+      </c>
+      <c r="C139" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D139" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E139" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F139" s="81">
+        <f t="shared" si="45"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H139" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="I139" s="81">
+        <f t="shared" ref="I139" si="48">SUMIFS(F136:F150, C136:C150,H139)</f>
+        <v>1.3888888888888895E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="94"/>
+      <c r="B140" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="C140" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D140" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E140" s="81">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="F140" s="81">
+        <f t="shared" si="45"/>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="H140" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I140" s="81">
+        <f t="shared" ref="I140" si="49">SUMIFS(F136:F150, C136:C150,H140)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="94"/>
+      <c r="B141" s="80" t="s">
+        <v>561</v>
+      </c>
+      <c r="C141" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="D141" s="81">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E141" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F141" s="81">
+        <f t="shared" si="45"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H141" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I141" s="81">
+        <f t="shared" ref="I141" si="50">SUMIFS(F136:F150, C136:C150,H141)</f>
+        <v>2.7777777777777735E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="94"/>
+      <c r="B142" s="80"/>
+      <c r="C142" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D142" s="81">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E142" s="81">
+        <v>0.125</v>
+      </c>
+      <c r="F142" s="81">
+        <f>E142-D142</f>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H142" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I142" s="81">
+        <f t="shared" ref="I142" si="51">SUMIFS(F136:F150, C136:C150,H142)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="94"/>
+      <c r="B143" s="80" t="s">
+        <v>524</v>
+      </c>
+      <c r="C143" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D143" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E143" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="F143" s="81">
+        <f>E143-D143</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H143" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I143" s="79">
+        <f t="shared" ref="I143" si="52">SUM(I137:I142)</f>
+        <v>0.40972222222222232</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="94"/>
+      <c r="B144" s="80" t="s">
+        <v>525</v>
+      </c>
+      <c r="C144" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D144" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="E144" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="F144" s="81">
+        <f>E144-D144</f>
+        <v>0.125</v>
+      </c>
+      <c r="I144" s="84"/>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="94"/>
+      <c r="B145" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C145" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D145" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E145" s="81">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="F145" s="81">
+        <f>E145-D145</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="I145" s="84"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="94"/>
+      <c r="B146" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C146" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D146" s="81">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E146" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F146" s="81">
+        <f>E146-D146</f>
+        <v>1.3888888888888895E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="94"/>
+      <c r="B147" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C147" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D147" s="81">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E147" s="81">
+        <v>0.125</v>
+      </c>
+      <c r="F147" s="81">
+        <f>E147-D147</f>
+        <v>1.3888888888888895E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="94"/>
+      <c r="B148" s="80"/>
+      <c r="C148" s="80"/>
+      <c r="D148" s="81"/>
+      <c r="E148" s="81"/>
+      <c r="F148" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="94"/>
+      <c r="B149" s="80"/>
+      <c r="C149" s="80"/>
+      <c r="D149" s="81"/>
+      <c r="E149" s="81"/>
+      <c r="F149" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="94"/>
+      <c r="B150" s="80"/>
+      <c r="C150" s="80"/>
+      <c r="D150" s="81"/>
+      <c r="E150" s="81"/>
+      <c r="F150" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="C151" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D151" s="81">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E151" s="81">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F151" s="81">
+        <f t="shared" si="45"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H151" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I151" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="94"/>
+      <c r="B152" s="80" t="s">
+        <v>523</v>
+      </c>
+      <c r="C152" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D152" s="81">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E152" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F152" s="81">
+        <f t="shared" si="45"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H152" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I152" s="81">
+        <f t="shared" ref="I152" si="53">SUMIFS(F151:F165, C151:C165,H152)</f>
+        <v>0.23958333333333343</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="94"/>
+      <c r="B153" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="C153" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D153" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E153" s="81">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="F153" s="81">
+        <f t="shared" si="45"/>
+        <v>2.4305555555555636E-2</v>
+      </c>
+      <c r="H153" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="I153" s="81">
+        <f t="shared" ref="I153" si="54">SUMIFS(F151:F165, C151:C165,H153)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="94"/>
+      <c r="B154" s="80" t="s">
+        <v>523</v>
+      </c>
+      <c r="C154" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D154" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E154" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F154" s="81">
+        <f t="shared" si="45"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H154" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="I154" s="81">
+        <f t="shared" ref="I154" si="55">SUMIFS(F151:F165, C151:C165,H154)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="94"/>
+      <c r="B155" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C155" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D155" s="81" t="s">
+        <v>562</v>
+      </c>
+      <c r="E155" s="81">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F155" s="81" t="e">
+        <f t="shared" si="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H155" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I155" s="81">
+        <f t="shared" ref="I155" si="56">SUMIFS(F151:F165, C151:C165,H155)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="94"/>
+      <c r="B156" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C156" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D156" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E156" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F156" s="81">
+        <f t="shared" si="45"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H156" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I156" s="81">
+        <f t="shared" ref="I156" si="57">SUMIFS(F151:F165, C151:C165,H156)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="94"/>
+      <c r="B157" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C157" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D157" s="81">
+        <v>0.65625</v>
+      </c>
+      <c r="E157" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F157" s="81">
+        <f t="shared" si="45"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H157" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I157" s="81" t="e">
+        <f t="shared" ref="I157" si="58">SUMIFS(F151:F165, C151:C165,H157)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="94"/>
+      <c r="B158" s="80" t="s">
+        <v>524</v>
+      </c>
+      <c r="C158" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D158" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E158" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="F158" s="81">
+        <f t="shared" si="45"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H158" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I158" s="79" t="e">
+        <f t="shared" ref="I158" si="59">SUM(I152:I157)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="94"/>
+      <c r="B159" s="80" t="s">
+        <v>525</v>
+      </c>
+      <c r="C159" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D159" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="E159" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="F159" s="81">
+        <f t="shared" si="45"/>
+        <v>0.125</v>
+      </c>
+      <c r="I159" s="84"/>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="94"/>
+      <c r="B160" s="80"/>
+      <c r="C160" s="80"/>
+      <c r="D160" s="81"/>
+      <c r="E160" s="81"/>
+      <c r="F160" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="I160" s="84"/>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="94"/>
+      <c r="B161" s="80"/>
+      <c r="C161" s="80"/>
+      <c r="D161" s="81"/>
+      <c r="E161" s="81"/>
+      <c r="F161" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="94"/>
+      <c r="B162" s="80"/>
+      <c r="C162" s="80"/>
+      <c r="D162" s="81"/>
+      <c r="E162" s="81"/>
+      <c r="F162" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="94"/>
+      <c r="B163" s="80"/>
+      <c r="C163" s="80"/>
+      <c r="D163" s="81"/>
+      <c r="E163" s="81"/>
+      <c r="F163" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="94"/>
+      <c r="B164" s="80"/>
+      <c r="C164" s="80"/>
+      <c r="D164" s="81"/>
+      <c r="E164" s="81"/>
+      <c r="F164" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="94"/>
+      <c r="B165" s="80"/>
+      <c r="C165" s="80"/>
+      <c r="D165" s="81"/>
+      <c r="E165" s="81"/>
+      <c r="F165" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A76:A90"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="A32:A45"/>
+    <mergeCell ref="A46:A60"/>
+    <mergeCell ref="A61:A75"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A106:A120"/>
+    <mergeCell ref="A121:A135"/>
+    <mergeCell ref="A136:A150"/>
+    <mergeCell ref="A151:A165"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I3 I18 I33 I47 I62 I77 I92 I107 I122 I137 I152">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="lessThan">
+      <formula>0.25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4 I19 I34 I48 I63 I78 I93 I108 I123 I138 I153">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5 I20 I35 I49 I64 I79 I94 I109 I124 I139 I154">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6 I21 I36 I50 I65 I80 I95 I110 I125 I140 I155">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7 I22 I37 I51 I66 I81 I96 I111 I126 I141 I156">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8 I23 I38 I52 I67 I82 I97 I112 I127 I142 I157">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0.0625</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0.0625</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C76:C165 C2:C71" xr:uid="{6E4899FF-3B25-4EE1-B31B-EF5F8A1E414F}">
+      <formula1>$Q$1:$Q$7</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1419FA45-F115-4308-9BFE-BC3FE40654ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B8E1EC4-19CC-46BD-B70C-076D2BA46D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5-4-22" sheetId="40" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="23-04-22" sheetId="56" r:id="rId15"/>
     <sheet name="25-04-22" sheetId="57" r:id="rId16"/>
     <sheet name="26-04-22" sheetId="58" r:id="rId17"/>
+    <sheet name="27-04-22" sheetId="59" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="578">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1547,10 +1548,16 @@
     <t>3.10 hrs</t>
   </si>
   <si>
-    <t>Web api (Debugging Errors-(8:15-9:00),                    repository(9:00-9:44),(10:40-12:00) ,                                 Estimation and discussion(12:00-12-33),Meeting with Rafi(12:36-12:52),Timesheet update(2:00-2:15),</t>
-  </si>
-  <si>
-    <t>Softskill session(9:44-10:33),Break(1:05-1:40),sending mail for installation(2:40-2:45),Webapi exploring(3:00-3:30),college call(3:30-3:45),Break(3:45-4:00),System installation (4:00-4:25),</t>
+    <t>web api Services and web api exploration</t>
+  </si>
+  <si>
+    <t>20:00-21:00 : reviewing and understanding the Api services,
+21:00-23:00 : Learning Angular&lt;Components and lifecycle&gt;,
+TOTAL-3 hrs</t>
+  </si>
+  <si>
+    <t>8:00-17:00 : Went college for internals ,
+TOTAL -9 hrs</t>
   </si>
   <si>
     <t xml:space="preserve">Web Api exploration,
@@ -1744,12 +1751,258 @@
 4:00- 4:20 : break
 4.35-4.50 : Entity framework Session with other team </t>
   </si>
+  <si>
+    <t xml:space="preserve">Resource </t>
+  </si>
+  <si>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <t>Task Type</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Timesheet and MOM updating</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Team Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting </t>
+  </si>
+  <si>
+    <t>Non Project</t>
+  </si>
+  <si>
+    <t>Api Service refining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration </t>
+  </si>
+  <si>
+    <t>Customer Meeting</t>
+  </si>
+  <si>
+    <t>Customer Review</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Typescript Intorduction and Sample programs&gt;</t>
+  </si>
+  <si>
+    <t>Api Service implementation on Controller</t>
+  </si>
+  <si>
+    <t>Lunch and Break</t>
+  </si>
+  <si>
+    <t>Service explanation to Members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunch </t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Morning Break</t>
+  </si>
+  <si>
+    <t>Evening Break</t>
+  </si>
+  <si>
+    <t>Api Swagger Testing</t>
+  </si>
+  <si>
+    <t>Went to College for internal exams</t>
+  </si>
+  <si>
+    <t>understanding and reviewing  API services</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Components and life cycle&gt;</t>
+  </si>
+  <si>
+    <t>Time Sheet</t>
+  </si>
+  <si>
+    <t>Database Migration</t>
+  </si>
+  <si>
+    <t>Logging in user services &amp; user controller</t>
+  </si>
+  <si>
+    <t>User Services List of Users by Role</t>
+  </si>
+  <si>
+    <t>client meeting</t>
+  </si>
+  <si>
+    <t>helping other team with ui</t>
+  </si>
+  <si>
+    <t>fixing errors in user services</t>
+  </si>
+  <si>
+    <t>ef core exploration</t>
+  </si>
+  <si>
+    <t>CRUD Operation in user Services</t>
+  </si>
+  <si>
+    <t>Technical Session</t>
+  </si>
+  <si>
+    <t>Time Sheet Updating</t>
+  </si>
+  <si>
+    <t>Estimation for Dashboard</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Typescript Introduction and  Installation&gt;</t>
+  </si>
+  <si>
+    <t>Discussion about Services with Arul and Spliting Services</t>
+  </si>
+  <si>
+    <t>Service-Review</t>
+  </si>
+  <si>
+    <t>Web API User Service Exploration with Gokul</t>
+  </si>
+  <si>
+    <t>Discussion about Timesheet and Team performance Index with Rafi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimation Discussion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updating TimeSheet </t>
+  </si>
+  <si>
+    <t>Working on HTML layout</t>
+  </si>
+  <si>
+    <t>Estimation Preparation</t>
+  </si>
+  <si>
+    <t>Web API Exploration (user services) with gokul</t>
+  </si>
+  <si>
+    <t>Working on Feedback services</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;TypeScript Introduction and Simple Examples&gt;</t>
+  </si>
+  <si>
+    <t>Soft Skill</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Introduction of Typescript , VS code Installation&gt;</t>
+  </si>
+  <si>
+    <t>Service Discussion with Arul and Spliting the Service</t>
+  </si>
+  <si>
+    <t>Service-Course</t>
+  </si>
+  <si>
+    <t>Discussion about New Timesheet And Team Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared for Internal Review </t>
+  </si>
+  <si>
+    <t>Session about Serivces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared for Internal review </t>
+  </si>
+  <si>
+    <t>Working on WebAPI (Review  services)</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;data type,variable,type script &gt;</t>
+  </si>
+  <si>
+    <t>evening Break</t>
+  </si>
+  <si>
+    <t>Understanding the Department,User Services</t>
+  </si>
+  <si>
+    <t>Estimation for Coordinator list page</t>
+  </si>
+  <si>
+    <t>Reworking on model(review service)</t>
+  </si>
+  <si>
+    <t>Timesheet Updating</t>
+  </si>
+  <si>
+    <t>Estimation for ProfileView</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Typescript introduction&gt;</t>
+  </si>
+  <si>
+    <t>discussion on services and spliting the services</t>
+  </si>
+  <si>
+    <t>Service-Role</t>
+  </si>
+  <si>
+    <t>Estimation for unique pages</t>
+  </si>
+  <si>
+    <t>discussion about the rank table</t>
+  </si>
+  <si>
+    <t>Timesheet</t>
+  </si>
+  <si>
+    <t>Working on HTML layout (Refining)</t>
+  </si>
+  <si>
+    <t>Estimation for department page</t>
+  </si>
+  <si>
+    <t>Discussion on services and spliting the services</t>
+  </si>
+  <si>
+    <t>Angular session &lt;Typescript introduction&gt;</t>
+  </si>
+  <si>
+    <t>Pulling from git  (Web API), Exploring and working on department services</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Topics&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]hh:mm:ss;@"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1893,13 +2146,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -2013,7 +2280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2224,6 +2491,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2251,24 +2538,146 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3478,14 +3887,14 @@
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="76"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="16" t="s">
@@ -3989,14 +4398,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="89" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
     </row>
     <row r="4" spans="1:22" ht="101.25" customHeight="1">
       <c r="A4" s="16" t="s">
@@ -4239,14 +4648,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="89" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
     </row>
     <row r="4" spans="1:7" ht="49.5">
       <c r="A4" s="16" t="s">
@@ -4356,27 +4765,27 @@
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="82"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
     </row>
     <row r="11" spans="1:7" ht="36.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="82"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="94"/>
     </row>
     <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
@@ -4654,7 +5063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7172FC-5606-4FD6-B7B3-02AB5BD496A0}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -4713,15 +5122,15 @@
         <v>9</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>346</v>
+        <v>468</v>
       </c>
       <c r="C3" s="58"/>
       <c r="D3" s="58"/>
       <c r="E3" s="59" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G3" s="71"/>
     </row>
@@ -4730,10 +5139,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D4" s="61"/>
       <c r="E4" s="61" t="s">
@@ -4749,17 +5158,17 @@
         <v>16</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C5" s="58" t="s">
         <v>319</v>
       </c>
       <c r="D5" s="58"/>
       <c r="E5" s="58" t="s">
-        <v>473</v>
-      </c>
-      <c r="F5" s="84" t="s">
         <v>474</v>
+      </c>
+      <c r="F5" s="75" t="s">
+        <v>475</v>
       </c>
       <c r="G5" s="54"/>
     </row>
@@ -4769,14 +5178,14 @@
       </c>
       <c r="B6" s="63"/>
       <c r="C6" s="58" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D6" s="58"/>
       <c r="E6" s="64" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G6" s="72"/>
     </row>
@@ -4785,17 +5194,17 @@
         <v>19</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D7" s="58"/>
       <c r="E7" s="64" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G7" s="70"/>
     </row>
@@ -4804,15 +5213,15 @@
         <v>20</v>
       </c>
       <c r="B8" s="65"/>
-      <c r="C8" s="83" t="s">
-        <v>481</v>
+      <c r="C8" s="74" t="s">
+        <v>482</v>
       </c>
       <c r="D8" s="58"/>
       <c r="E8" s="59" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G8" s="70"/>
     </row>
@@ -4824,14 +5233,14 @@
         <v>302</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D9" s="58"/>
       <c r="E9" s="64" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G9" s="70"/>
     </row>
@@ -4840,17 +5249,17 @@
         <v>22</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C10" s="58" t="s">
         <v>319</v>
       </c>
       <c r="D10" s="58"/>
       <c r="E10" s="58" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G10" s="70"/>
     </row>
@@ -4858,18 +5267,18 @@
       <c r="A11" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="86" t="s">
-        <v>490</v>
-      </c>
-      <c r="C11" s="85" t="s">
+      <c r="B11" s="77" t="s">
+        <v>491</v>
+      </c>
+      <c r="C11" s="76" t="s">
         <v>319</v>
       </c>
       <c r="D11" s="66"/>
       <c r="E11" s="64" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="141.75" customHeight="1">
@@ -4878,14 +5287,14 @@
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="67" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="68" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G12" s="73"/>
     </row>
@@ -4893,6 +5302,3538 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G12">
     <sortCondition ref="A2:A12"/>
   </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C319A4C-EADA-4641-96D7-D7B692B906C8}">
+  <dimension ref="A1:Q165"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="84" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="84" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="84" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="78" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>500</v>
+      </c>
+      <c r="E1" s="79" t="s">
+        <v>501</v>
+      </c>
+      <c r="F1" s="79" t="s">
+        <v>502</v>
+      </c>
+      <c r="G1" s="82"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D2" s="81">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E2" s="81">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="F2" s="81">
+        <f>E2-D2</f>
+        <v>1.7361111111111105E-2</v>
+      </c>
+      <c r="H2" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I2" s="79" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="95"/>
+      <c r="B3" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D3" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E3" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F3" s="81">
+        <f t="shared" ref="F3:F60" si="0">E3-D3</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H3" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I3" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H3)</f>
+        <v>0.14583333333333331</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="95"/>
+      <c r="B4" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D4" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E4" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F4" s="81">
+        <f>E4-D4</f>
+        <v>4.8611111111111049E-2</v>
+      </c>
+      <c r="H4" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="I4" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H4)</f>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="95"/>
+      <c r="B5" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D5" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E5" s="81">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="F5" s="81">
+        <f>E5-D5</f>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="H5" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="I5" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H5)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="95"/>
+      <c r="B6" s="80" t="s">
+        <v>514</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="D6" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E6" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F6" s="81">
+        <f>E6-D6</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H6" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I6" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H6)</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="95"/>
+      <c r="B7" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D7" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E7" s="81">
+        <v>0.6875</v>
+      </c>
+      <c r="F7" s="81">
+        <f>E7-D7</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="H7" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I7" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H7)</f>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="95"/>
+      <c r="B8" s="80" t="s">
+        <v>517</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D8" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E8" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F8" s="81">
+        <f>E8-D8</f>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="H8" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I8" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H8)</f>
+        <v>3.819444444444442E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="95"/>
+      <c r="B9" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D9" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E9" s="81">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F9" s="81">
+        <f>E9-D9</f>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="H9" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I9" s="79">
+        <f>SUM(I3:I8)</f>
+        <v>0.35763888888888873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="95"/>
+      <c r="B10" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D10" s="81">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E10" s="81">
+        <v>0.4375</v>
+      </c>
+      <c r="F10" s="81">
+        <f>E10-D10</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="I10" s="84"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="95"/>
+      <c r="B11" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D11" s="81">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E11" s="81">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="F11" s="81">
+        <f>E11-D11</f>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="I11" s="84"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="95"/>
+      <c r="B12" s="80" t="s">
+        <v>522</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D12" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E12" s="81">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="F12" s="81">
+        <f>E12-D12</f>
+        <v>2.777777777777779E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="95"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81">
+        <f>E13-D13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="95"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81">
+        <f>E14-D14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="95"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="95"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>523</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D17" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="81">
+        <v>17.708333333333332</v>
+      </c>
+      <c r="F17" s="81">
+        <f t="shared" si="0"/>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="H17" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I17" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="95"/>
+      <c r="B18" s="80" t="s">
+        <v>524</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D18" s="81">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E18" s="81">
+        <v>21.875</v>
+      </c>
+      <c r="F18" s="81">
+        <f t="shared" si="0"/>
+        <v>21.041666666666668</v>
+      </c>
+      <c r="H18" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I18" s="81">
+        <f t="shared" ref="I18" si="1">SUMIFS(F17:F31, C17:C31,H18)</f>
+        <v>21.125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="95"/>
+      <c r="B19" s="80" t="s">
+        <v>525</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D19" s="81">
+        <v>21.875</v>
+      </c>
+      <c r="E19" s="81">
+        <v>21.958333333333332</v>
+      </c>
+      <c r="F19" s="81">
+        <f t="shared" si="0"/>
+        <v>8.3333333333332149E-2</v>
+      </c>
+      <c r="H19" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="I19" s="81">
+        <f t="shared" ref="I19" si="2">SUMIFS(F17:F31, C17:C31,H19)</f>
+        <v>17.333333333333332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="95"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="I20" s="81">
+        <f t="shared" ref="I20" si="3">SUMIFS(F17:F31, C17:C31,H20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="95"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I21" s="81">
+        <f t="shared" ref="I21" si="4">SUMIFS(F17:F31, C17:C31,H21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="95"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I22" s="81">
+        <f t="shared" ref="I22" si="5">SUMIFS(F17:F31, C17:C31,H22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="95"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I23" s="81">
+        <f t="shared" ref="I23" si="6">SUMIFS(F17:F31, C17:C31,H23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="95"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I24" s="79">
+        <f t="shared" ref="I24" si="7">SUM(I18:I23)</f>
+        <v>38.458333333333329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="95"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="84"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="95"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="84"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="95"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="95"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="95"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="95"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="95"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="80" t="s">
+        <v>526</v>
+      </c>
+      <c r="C32" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D32" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E32" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F32" s="81">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H32" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I32" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="95"/>
+      <c r="B33" s="80" t="s">
+        <v>527</v>
+      </c>
+      <c r="C33" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D33" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E33" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="F33" s="81">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H33" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I33" s="81">
+        <f>SUMIFS(F32:F45, C32:C45,H33)</f>
+        <v>0.12847222222222221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="95"/>
+      <c r="B34" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="C34" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D34" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E34" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F34" s="81">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H34" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="I34" s="81">
+        <f>SUMIFS(F32:F45, C32:C45,H34)</f>
+        <v>2.3611111111111083E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="95"/>
+      <c r="B35" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C35" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D35" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E35" s="81">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="F35" s="81">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H35" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="I35" s="81">
+        <f>SUMIFS(F32:F45, C32:C45,H35)</f>
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="95"/>
+      <c r="B36" s="80" t="s">
+        <v>529</v>
+      </c>
+      <c r="C36" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D36" s="81">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E36" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F36" s="81">
+        <f>E36-D36</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H36" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I36" s="81">
+        <f>SUMIFS(F32:F45, C32:C45,H36)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="95"/>
+      <c r="B37" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C37" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D37" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E37" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F37" s="81">
+        <f>E37-D37</f>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="H37" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I37" s="81">
+        <f>SUMIFS(F32:F45, C32:C45,H37)</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="95"/>
+      <c r="B38" s="80" t="s">
+        <v>530</v>
+      </c>
+      <c r="C38" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D38" s="81">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="E38" s="81">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="F38" s="81">
+        <f>E38-D38</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+      <c r="H38" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I38" s="81">
+        <f>SUMIFS(F32:F45, C32:C45,H38)</f>
+        <v>4.9999999999999933E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="95"/>
+      <c r="B39" s="80" t="s">
+        <v>531</v>
+      </c>
+      <c r="C39" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D39" s="81">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="E39" s="81">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="F39" s="81">
+        <f>E39-D39</f>
+        <v>9.7222222222221877E-3</v>
+      </c>
+      <c r="H39" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I39" s="79">
+        <f t="shared" ref="I39" si="8">SUM(I33:I38)</f>
+        <v>0.35069444444444436</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="95"/>
+      <c r="B40" s="80" t="s">
+        <v>532</v>
+      </c>
+      <c r="C40" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D40" s="81">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E40" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F40" s="81">
+        <f>E40-D40</f>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="I40" s="84"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="95"/>
+      <c r="B41" s="80" t="s">
+        <v>533</v>
+      </c>
+      <c r="C41" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="D41" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E41" s="81">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F41" s="81">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="K41" s="81"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="95"/>
+      <c r="B42" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C42" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D42" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E42" s="81">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="F42" s="81">
+        <f t="shared" si="0"/>
+        <v>3.2638888888888884E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="95"/>
+      <c r="B43" s="80" t="s">
+        <v>534</v>
+      </c>
+      <c r="C43" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D43" s="81">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E43" s="81">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="F43" s="81">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="95"/>
+      <c r="B44" s="80" t="s">
+        <v>535</v>
+      </c>
+      <c r="C44" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="D44" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E44" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F44" s="81">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="95"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="80" t="s">
+        <v>536</v>
+      </c>
+      <c r="C46" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D46" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E46" s="81">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F46" s="81">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H46" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I46" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="95"/>
+      <c r="B47" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="C47" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D47" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E47" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F47" s="81">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H47" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I47" s="81">
+        <f t="shared" ref="I47" si="9">SUMIFS(F46:F60, C46:C60,H47)</f>
+        <v>13.149305555555555</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="95"/>
+      <c r="B48" s="80" t="s">
+        <v>537</v>
+      </c>
+      <c r="C48" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D48" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E48" s="81">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="F48" s="81">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="H48" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="I48" s="81">
+        <f t="shared" ref="I48" si="10">SUMIFS(F46:F60, C46:C60,H48)</f>
+        <v>2.6388888888888962E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="95"/>
+      <c r="B49" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="C49" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D49" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E49" s="81">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="F49" s="81">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="H49" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="I49" s="81">
+        <f t="shared" ref="I49" si="11">SUMIFS(F46:F60, C46:C60,H49)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="95"/>
+      <c r="B50" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C50" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D50" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E50" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F50" s="81">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="H50" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I50" s="81">
+        <f t="shared" ref="I50" si="12">SUMIFS(F46:F60, C46:C60,H50)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="95"/>
+      <c r="B51" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C51" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D51" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E51" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F51" s="81">
+        <f t="shared" si="0"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="H51" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I51" s="81">
+        <f t="shared" ref="I51" si="13">SUMIFS(F46:F60, C46:C60,H51)</f>
+        <v>2.7777777777777735E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="95"/>
+      <c r="B52" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C52" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D52" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E52" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F52" s="81">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="H52" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I52" s="81">
+        <f t="shared" ref="I52" si="14">SUMIFS(F46:F60, C46:C60,H52)</f>
+        <v>6.9444444444444531E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="95"/>
+      <c r="B53" s="80" t="s">
+        <v>538</v>
+      </c>
+      <c r="C53" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="D53" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E53" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F53" s="81">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H53" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I53" s="79">
+        <f t="shared" ref="I53" si="15">SUM(I47:I52)</f>
+        <v>13.366666666666667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="95"/>
+      <c r="B54" s="80" t="s">
+        <v>539</v>
+      </c>
+      <c r="C54" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D54" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E54" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F54" s="81">
+        <f t="shared" si="0"/>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="I54" s="84"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="95"/>
+      <c r="B55" s="80" t="s">
+        <v>540</v>
+      </c>
+      <c r="C55" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D55" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="E55" s="81">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F55" s="81">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="I55" s="84"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="95"/>
+      <c r="B56" s="80" t="s">
+        <v>541</v>
+      </c>
+      <c r="C56" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D56" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E56" s="81">
+        <v>13.541666666666666</v>
+      </c>
+      <c r="F56" s="81">
+        <f t="shared" si="0"/>
+        <v>13.020833333333332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="95"/>
+      <c r="B57" s="80" t="s">
+        <v>542</v>
+      </c>
+      <c r="C57" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D57" s="81">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E57" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F57" s="81">
+        <f>E57-D57</f>
+        <v>5.5555555555556468E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="95"/>
+      <c r="B58" s="80" t="s">
+        <v>543</v>
+      </c>
+      <c r="C58" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D58" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E58" s="81">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F58" s="81">
+        <f>E58-D58</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="95"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="95"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="80" t="s">
+        <v>544</v>
+      </c>
+      <c r="C61" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D61" s="81">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E61" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="F61" s="81">
+        <f>E61-D61</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H61" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I61" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="95"/>
+      <c r="B62" s="80" t="s">
+        <v>545</v>
+      </c>
+      <c r="C62" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D62" s="81">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="E62" s="81">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="F62" s="81">
+        <f>E62-D62</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H62" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I62" s="81">
+        <f>SUMIFS(F61:F71, C61:C71,H62)</f>
+        <v>0.10069444444444438</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="95"/>
+      <c r="B63" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="C63" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D63" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E63" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F63" s="81">
+        <f>E63-D63</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H63" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="I63" s="81">
+        <f>SUMIFS(F61:F71, C61:C71,H63)</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="95"/>
+      <c r="B64" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C64" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D64" s="81">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E64" s="81">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="F64" s="81">
+        <f>E64-D64</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H64" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="I64" s="81">
+        <f>SUMIFS(F61:F71, C61:C71,H64)</f>
+        <v>3.0625</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="95"/>
+      <c r="B65" s="80" t="s">
+        <v>546</v>
+      </c>
+      <c r="C65" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D65" s="81">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="E65" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F65" s="81">
+        <f>E65-D65</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H65" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I65" s="81">
+        <f>SUMIFS(F61:F71, C61:C71,H65)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="95"/>
+      <c r="B66" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="C66" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D66" s="81">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="E66" s="81">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="F66" s="81">
+        <f>E66-D66</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+      <c r="H66" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I66" s="81">
+        <f>SUMIFS(F61:F71, C61:C71,H66)</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="95"/>
+      <c r="B67" s="80" t="s">
+        <v>547</v>
+      </c>
+      <c r="C67" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D67" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E67" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F67" s="81">
+        <f>E67-D67</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H67" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I67" s="81">
+        <f>SUMIFS(F61:F71, C61:C71,H67)</f>
+        <v>6.2500000000000167E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="95"/>
+      <c r="B68" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C68" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D68" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E68" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F68" s="81">
+        <f>E68-D68</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="H68" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I68" s="79">
+        <f t="shared" ref="I68" si="16">SUM(I62:I67)</f>
+        <v>3.3013888888888889</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="95"/>
+      <c r="B69" s="80" t="s">
+        <v>548</v>
+      </c>
+      <c r="C69" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D69" s="81">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="E69" s="81">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="F69" s="81">
+        <f>E69-D69</f>
+        <v>4.8611111111111119E-2</v>
+      </c>
+      <c r="I69" s="84"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="95"/>
+      <c r="B70" s="80" t="s">
+        <v>549</v>
+      </c>
+      <c r="C70" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="D70" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E70" s="81">
+        <v>3.7083333333333335</v>
+      </c>
+      <c r="F70" s="81">
+        <f>E70-D70</f>
+        <v>3.0625</v>
+      </c>
+      <c r="I70" s="84"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="95"/>
+      <c r="B71" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C71" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D71" s="81">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E71" s="81">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="F71" s="81">
+        <f>E71-D71</f>
+        <v>1.0416666666666741E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="95"/>
+      <c r="B72" t="s">
+        <v>543</v>
+      </c>
+      <c r="C72" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D72" s="81">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="E72" s="81">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F72" s="81">
+        <f>E72-D72</f>
+        <v>1.388888888888884E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="95"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="95"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="95"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="C76" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D76" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E76" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F76" s="81">
+        <f t="shared" ref="F76:F129" si="17">E76-D76</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H76" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I76" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="95"/>
+      <c r="B77" s="80" t="s">
+        <v>550</v>
+      </c>
+      <c r="C77" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D77" s="81">
+        <v>0</v>
+      </c>
+      <c r="E77" s="81">
+        <v>0</v>
+      </c>
+      <c r="F77" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I77" s="81">
+        <f t="shared" ref="I77" si="18">SUMIFS(F76:F90, C76:C90,H77)</f>
+        <v>0.12986111111111098</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="95"/>
+      <c r="B78" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="C78" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D78" s="81">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="E78" s="81">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="F78" s="81">
+        <f t="shared" si="17"/>
+        <v>2.5694444444444353E-2</v>
+      </c>
+      <c r="H78" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="I78" s="81">
+        <f t="shared" ref="I78" si="19">SUMIFS(F76:F90, C76:C90,H78)</f>
+        <v>1.9444444444444486E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="95"/>
+      <c r="B79" s="80" t="s">
+        <v>550</v>
+      </c>
+      <c r="C79" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D79" s="81">
+        <v>0</v>
+      </c>
+      <c r="E79" s="81">
+        <v>0</v>
+      </c>
+      <c r="F79" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="I79" s="81">
+        <f t="shared" ref="I79" si="20">SUMIFS(F76:F90, C76:C90,H79)</f>
+        <v>6.3888888888888884E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="95"/>
+      <c r="B80" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C80" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D80" s="81">
+        <v>0.53125</v>
+      </c>
+      <c r="E80" s="81">
+        <v>0.5625</v>
+      </c>
+      <c r="F80" s="81">
+        <f t="shared" si="17"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H80" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I80" s="81">
+        <f t="shared" ref="I80" si="21">SUMIFS(F76:F90, C76:C90,H80)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="95"/>
+      <c r="B81" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C81" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D81" s="81">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E81" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F81" s="81">
+        <f t="shared" si="17"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H81" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I81" s="81">
+        <f t="shared" ref="I81" si="22">SUMIFS(F76:F90, C76:C90,H81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="95"/>
+      <c r="B82" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C82" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D82" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E82" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F82" s="81">
+        <f t="shared" si="17"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="H82" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I82" s="81">
+        <f t="shared" ref="I82" si="23">SUMIFS(F76:F90, C76:C90,H82)</f>
+        <v>5.5555555555555636E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="95"/>
+      <c r="B83" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C83" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="D83" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E83" s="81">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="F83" s="81">
+        <f t="shared" si="17"/>
+        <v>6.3888888888888884E-2</v>
+      </c>
+      <c r="H83" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I83" s="79">
+        <f t="shared" ref="I83" si="24">SUM(I77:I82)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="95"/>
+      <c r="B84" s="80" t="s">
+        <v>526</v>
+      </c>
+      <c r="C84" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D84" s="81">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E84" s="81">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="F84" s="81">
+        <f t="shared" si="17"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="I84" s="84"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="95"/>
+      <c r="B85" s="80" t="s">
+        <v>552</v>
+      </c>
+      <c r="C85" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D85" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E85" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F85" s="81">
+        <f>E85-D85</f>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="I85" s="84"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="95"/>
+      <c r="B86" s="80" t="s">
+        <v>553</v>
+      </c>
+      <c r="C86" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D86" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="E86" s="81">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="F86" s="81">
+        <f t="shared" si="17"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="95"/>
+      <c r="B87" s="80" t="s">
+        <v>554</v>
+      </c>
+      <c r="C87" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D87" s="81">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E87" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F87" s="81">
+        <f t="shared" si="17"/>
+        <v>5.5555555555556468E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="95"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="81"/>
+      <c r="E88" s="81"/>
+      <c r="F88" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="95"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="81"/>
+      <c r="F89" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="95"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="80"/>
+      <c r="D90" s="81"/>
+      <c r="E90" s="81"/>
+      <c r="F90" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="C91" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D91" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E91" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F91" s="81">
+        <f t="shared" si="17"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H91" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I91" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="95"/>
+      <c r="B92" s="80" t="s">
+        <v>550</v>
+      </c>
+      <c r="C92" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D92" s="81">
+        <v>0</v>
+      </c>
+      <c r="E92" s="81">
+        <v>0</v>
+      </c>
+      <c r="F92" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I92" s="81">
+        <f t="shared" ref="I92" si="25">SUMIFS(F91:F105, C91:C105,H92)</f>
+        <v>6.5972222222222154E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="95"/>
+      <c r="B93" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="C93" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D93" s="81">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="E93" s="81">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="F93" s="81">
+        <f t="shared" si="17"/>
+        <v>2.3611111111111138E-2</v>
+      </c>
+      <c r="H93" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="I93" s="81">
+        <f t="shared" ref="I93" si="26">SUMIFS(F91:F105, C91:C105,H93)</f>
+        <v>0.17708333333333326</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="95"/>
+      <c r="B94" s="80" t="s">
+        <v>550</v>
+      </c>
+      <c r="C94" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D94" s="81">
+        <v>0</v>
+      </c>
+      <c r="E94" s="81">
+        <v>0</v>
+      </c>
+      <c r="F94" s="81">
+        <f>E94-D94</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="I94" s="81">
+        <f t="shared" ref="I94" si="27">SUMIFS(F91:F105, C91:C105,H94)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="95"/>
+      <c r="B95" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C95" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D95" s="81">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E95" s="81">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="F95" s="81">
+        <f t="shared" si="17"/>
+        <v>2.7777777777777901E-2</v>
+      </c>
+      <c r="H95" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I95" s="81">
+        <f t="shared" ref="I95" si="28">SUMIFS(F91:F105, C91:C105,H95)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="95"/>
+      <c r="B96" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C96" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D96" s="81">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E96" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F96" s="81">
+        <f t="shared" si="17"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H96" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I96" s="81">
+        <f t="shared" ref="I96" si="29">SUMIFS(F91:F105, C91:C105,H96)</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="95"/>
+      <c r="B97" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C97" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D97" s="81">
+        <v>0</v>
+      </c>
+      <c r="E97" s="81">
+        <v>0</v>
+      </c>
+      <c r="F97" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H97" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I97" s="81">
+        <f t="shared" ref="I97" si="30">SUMIFS(F91:F105, C91:C105,H97)</f>
+        <v>3.8194444444444531E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="95"/>
+      <c r="B98" s="80" t="s">
+        <v>555</v>
+      </c>
+      <c r="C98" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D98" s="81">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E98" s="81">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F98" s="81">
+        <f t="shared" si="17"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H98" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I98" s="79">
+        <f t="shared" ref="I98" si="31">SUM(I92:I97)</f>
+        <v>0.33611111111111108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="95"/>
+      <c r="B99" s="80" t="s">
+        <v>556</v>
+      </c>
+      <c r="C99" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D99" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E99" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F99" s="81">
+        <f t="shared" si="17"/>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="I99" s="84"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="95"/>
+      <c r="B100" s="80" t="s">
+        <v>544</v>
+      </c>
+      <c r="C100" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D100" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E100" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F100" s="81">
+        <f t="shared" si="17"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="I100" s="84"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="95"/>
+      <c r="B101" s="80" t="s">
+        <v>535</v>
+      </c>
+      <c r="C101" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D101" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E101" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F101" s="81">
+        <f t="shared" si="17"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="95"/>
+      <c r="B102" s="80" t="s">
+        <v>557</v>
+      </c>
+      <c r="C102" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D102" s="81">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E102" s="81">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F102" s="81">
+        <f t="shared" si="17"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="95"/>
+      <c r="B103" s="80"/>
+      <c r="C103" s="80"/>
+      <c r="D103" s="81"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="95"/>
+      <c r="B104" s="80"/>
+      <c r="C104" s="80"/>
+      <c r="D104" s="81"/>
+      <c r="E104" s="81"/>
+      <c r="F104" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="95"/>
+      <c r="B105" s="80"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="81"/>
+      <c r="E105" s="81"/>
+      <c r="F105" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" s="80" t="s">
+        <v>544</v>
+      </c>
+      <c r="C106" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D106" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E106" s="81">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F106" s="81">
+        <f t="shared" si="17"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H106" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I106" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="95"/>
+      <c r="B107" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="C107" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D107" s="85">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E107" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F107" s="81">
+        <f t="shared" si="17"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H107" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I107" s="81">
+        <f>SUMIFS(F106:F120, C106:C120,H107)</f>
+        <v>0.1388888888888889</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="95"/>
+      <c r="B108" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C108" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D108" s="81">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E108" s="81">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="F108" s="81">
+        <f t="shared" si="17"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H108" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="I108" s="81">
+        <f t="shared" ref="I108" si="32">SUMIFS(F106:F120, C106:C120,H108)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="95"/>
+      <c r="B109" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="C109" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D109" s="85">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="E109" s="81">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="F109" s="81">
+        <f t="shared" si="17"/>
+        <v>2.3611111111111138E-2</v>
+      </c>
+      <c r="H109" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="I109" s="81">
+        <f t="shared" ref="I109" si="33">SUMIFS(F106:F120, C106:C120,H109)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="95"/>
+      <c r="B110" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C110" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D110" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E110" s="81">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="F110" s="81">
+        <f t="shared" si="17"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H110" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I110" s="81">
+        <f t="shared" ref="I110" si="34">SUMIFS(F106:F120, C106:C120,H110)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="95"/>
+      <c r="B111" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="C111" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D111" s="81">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E111" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F111" s="81">
+        <f t="shared" si="17"/>
+        <v>6.944444444444442E-2</v>
+      </c>
+      <c r="H111" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I111" s="81">
+        <f t="shared" ref="I111" si="35">SUMIFS(F106:F120, C106:C120,H111)</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="95"/>
+      <c r="B112" s="80" t="s">
+        <v>559</v>
+      </c>
+      <c r="C112" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="D112" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E112" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F112" s="81">
+        <f t="shared" si="17"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H112" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I112" s="81">
+        <f t="shared" ref="I112" si="36">SUMIFS(F106:F120, C106:C120,H112)</f>
+        <v>5.2083333333333315E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="95"/>
+      <c r="B113" s="80" t="s">
+        <v>560</v>
+      </c>
+      <c r="C113" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D113" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E113" s="81">
+        <v>0.71875</v>
+      </c>
+      <c r="F113" s="81">
+        <f>E113-D113</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H113" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I113" s="79">
+        <f t="shared" ref="I113" si="37">SUM(I107:I112)</f>
+        <v>0.30833333333333335</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="95"/>
+      <c r="B114" t="s">
+        <v>561</v>
+      </c>
+      <c r="C114" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D114" s="84">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E114" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F114" s="81">
+        <f>E114-D114</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="I114" s="84"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="95"/>
+      <c r="B115" s="80" t="s">
+        <v>562</v>
+      </c>
+      <c r="C115" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D115" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E115" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F115" s="81">
+        <f t="shared" si="17"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="I115" s="84"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="95"/>
+      <c r="B116" s="80" t="s">
+        <v>563</v>
+      </c>
+      <c r="C116" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D116" s="85">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E116" s="81">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F116" s="81">
+        <f t="shared" si="17"/>
+        <v>1.736111111111116E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="95"/>
+      <c r="B117" s="80"/>
+      <c r="C117" s="80"/>
+      <c r="D117" s="81"/>
+      <c r="E117" s="81"/>
+      <c r="F117" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="95"/>
+      <c r="B118" s="80"/>
+      <c r="C118" s="80"/>
+      <c r="D118" s="81"/>
+      <c r="E118" s="81"/>
+      <c r="F118" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="95"/>
+      <c r="B119" s="80"/>
+      <c r="C119" s="80"/>
+      <c r="D119" s="81"/>
+      <c r="E119" s="81"/>
+      <c r="F119" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="95"/>
+      <c r="B120" s="80"/>
+      <c r="C120" s="80"/>
+      <c r="D120" s="81"/>
+      <c r="E120" s="81"/>
+      <c r="F120" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="B121" s="80" t="s">
+        <v>564</v>
+      </c>
+      <c r="C121" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D121" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E121" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F121" s="81">
+        <f t="shared" si="17"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H121" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I121" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="95"/>
+      <c r="B122" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="C122" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D122" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E122" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F122" s="81">
+        <f t="shared" si="17"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H122" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I122" s="81">
+        <f t="shared" ref="I122" si="38">SUMIFS(F121:F135, C121:C135,H122)</f>
+        <v>0.15277777777777746</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="95"/>
+      <c r="B123" s="80" t="s">
+        <v>565</v>
+      </c>
+      <c r="C123" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D123" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E123" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F123" s="81">
+        <f t="shared" si="17"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="H123" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="I123" s="81">
+        <f t="shared" ref="I123" si="39">SUMIFS(F121:F135, C121:C135,H123)</f>
+        <v>1.9444444444444542E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="95"/>
+      <c r="B124" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="C124" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D124" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E124" s="81">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="F124" s="81">
+        <f t="shared" si="17"/>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="H124" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="I124" s="81">
+        <f t="shared" ref="I124" si="40">SUMIFS(F121:F135, C121:C135,H124)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="95"/>
+      <c r="B125" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C125" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D125" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E125" s="81">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F125" s="81">
+        <f t="shared" si="17"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="H125" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I125" s="81">
+        <f t="shared" ref="I125" si="41">SUMIFS(F121:F135, C121:C135,H125)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="95"/>
+      <c r="B126" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C126" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D126" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E126" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F126" s="81">
+        <f t="shared" si="17"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="H126" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I126" s="81">
+        <f t="shared" ref="I126" si="42">SUMIFS(F121:F135, C121:C135,H126)</f>
+        <v>2.7777777777777735E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="95"/>
+      <c r="B127" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C127" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D127" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E127" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F127" s="81">
+        <f t="shared" si="17"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="H127" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I127" s="81">
+        <f t="shared" ref="I127" si="43">SUMIFS(F121:F135, C121:C135,H127)</f>
+        <v>5.555555555555558E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="95"/>
+      <c r="B128" s="80" t="s">
+        <v>566</v>
+      </c>
+      <c r="C128" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="D128" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E128" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F128" s="81">
+        <f t="shared" si="17"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H128" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I128" s="79">
+        <f t="shared" ref="I128" si="44">SUM(I122:I127)</f>
+        <v>0.34930555555555531</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="95"/>
+      <c r="B129" s="80" t="s">
+        <v>567</v>
+      </c>
+      <c r="C129" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D129" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E129" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F129" s="81">
+        <f t="shared" si="17"/>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="I129" s="84"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="95"/>
+      <c r="B130" s="80" t="s">
+        <v>568</v>
+      </c>
+      <c r="C130" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D130" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="E130" s="81">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F130" s="81">
+        <f t="shared" ref="F130:F165" si="45">E130-D130</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="I130" s="84"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="95"/>
+      <c r="B131" s="80" t="s">
+        <v>569</v>
+      </c>
+      <c r="C131" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D131" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E131" s="81">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F131" s="81">
+        <f t="shared" si="45"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="95"/>
+      <c r="B132" s="80" t="s">
+        <v>547</v>
+      </c>
+      <c r="C132" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D132" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E132" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F132" s="81">
+        <f t="shared" si="45"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="95"/>
+      <c r="B133" s="80" t="s">
+        <v>570</v>
+      </c>
+      <c r="C133" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D133" s="81">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E133" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F133" s="81">
+        <f t="shared" si="45"/>
+        <v>5.5555555555556468E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="95"/>
+      <c r="B134" s="80"/>
+      <c r="C134" s="80"/>
+      <c r="D134" s="81"/>
+      <c r="E134" s="81"/>
+      <c r="F134" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="95"/>
+      <c r="B135" s="80"/>
+      <c r="C135" s="80"/>
+      <c r="D135" s="81"/>
+      <c r="E135" s="81"/>
+      <c r="F135" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="B136" s="80" t="s">
+        <v>571</v>
+      </c>
+      <c r="C136" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D136" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E136" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F136" s="81">
+        <f t="shared" si="45"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H136" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I136" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="95"/>
+      <c r="B137" s="80" t="s">
+        <v>572</v>
+      </c>
+      <c r="C137" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D137" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E137" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="F137" s="81">
+        <f t="shared" si="45"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H137" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I137" s="81">
+        <f t="shared" ref="I137" si="46">SUMIFS(F136:F150, C136:C150,H137)</f>
+        <v>0.14930555555555564</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="95"/>
+      <c r="B138" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="C138" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D138" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E138" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F138" s="81">
+        <f t="shared" si="45"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H138" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="I138" s="81">
+        <f t="shared" ref="I138" si="47">SUMIFS(F136:F150, C136:C150,H138)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="95"/>
+      <c r="B139" s="80" t="s">
+        <v>573</v>
+      </c>
+      <c r="C139" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D139" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E139" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F139" s="81">
+        <f t="shared" si="45"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H139" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="I139" s="81">
+        <f t="shared" ref="I139" si="48">SUMIFS(F136:F150, C136:C150,H139)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="95"/>
+      <c r="B140" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="C140" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D140" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E140" s="81">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="F140" s="81">
+        <f t="shared" si="45"/>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="H140" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I140" s="81">
+        <f t="shared" ref="I140" si="49">SUMIFS(F136:F150, C136:C150,H140)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="95"/>
+      <c r="B141" s="80" t="s">
+        <v>547</v>
+      </c>
+      <c r="C141" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D141" s="81">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="E141" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F141" s="81">
+        <f t="shared" si="45"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="H141" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I141" s="81">
+        <f t="shared" ref="I141" si="50">SUMIFS(F136:F150, C136:C150,H141)</f>
+        <v>2.7777777777777735E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="95"/>
+      <c r="B142" s="80" t="s">
+        <v>574</v>
+      </c>
+      <c r="C142" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D142" s="81">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E142" s="81">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="F142" s="81">
+        <f>E142-D142</f>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="H142" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I142" s="81">
+        <f t="shared" ref="I142" si="51">SUMIFS(F136:F150, C136:C150,H142)</f>
+        <v>5.9027777777777797E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="95"/>
+      <c r="B143" s="80" t="s">
+        <v>575</v>
+      </c>
+      <c r="C143" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="D143" s="81">
+        <v>0.625</v>
+      </c>
+      <c r="E143" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F143" s="81">
+        <f>E143-D143</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H143" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I143" s="79">
+        <f t="shared" ref="I143" si="52">SUM(I137:I142)</f>
+        <v>0.35069444444444453</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="95"/>
+      <c r="B144" s="80" t="s">
+        <v>576</v>
+      </c>
+      <c r="C144" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D144" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E144" s="81">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F144" s="81">
+        <f>E144-D144</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="I144" s="84"/>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="95"/>
+      <c r="B145" s="80"/>
+      <c r="C145" s="80"/>
+      <c r="D145" s="81"/>
+      <c r="E145" s="81"/>
+      <c r="F145" s="81">
+        <f>E145-D145</f>
+        <v>0</v>
+      </c>
+      <c r="I145" s="84"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="95"/>
+      <c r="B146" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C146" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D146" s="81">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E146" s="81">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="F146" s="81">
+        <f>E146-D146</f>
+        <v>3.1250000000000007E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="95"/>
+      <c r="B147" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C147" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D147" s="81">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E147" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F147" s="81">
+        <f>E147-D147</f>
+        <v>1.3888888888888895E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="95"/>
+      <c r="B148" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C148" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D148" s="81">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E148" s="81">
+        <v>0.125</v>
+      </c>
+      <c r="F148" s="81">
+        <f t="shared" si="45"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="95"/>
+      <c r="B149" s="80"/>
+      <c r="C149" s="80"/>
+      <c r="D149" s="81"/>
+      <c r="E149" s="81"/>
+      <c r="F149" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="95"/>
+      <c r="B150" s="80"/>
+      <c r="C150" s="80"/>
+      <c r="D150" s="81"/>
+      <c r="E150" s="81"/>
+      <c r="F150" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="C151" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D151" s="81">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E151" s="81">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F151" s="81">
+        <f t="shared" si="45"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H151" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I151" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="95"/>
+      <c r="B152" s="80" t="s">
+        <v>550</v>
+      </c>
+      <c r="C152" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D152" s="81">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E152" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F152" s="81">
+        <f t="shared" si="45"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H152" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I152" s="81">
+        <f t="shared" ref="I152" si="53">SUMIFS(F151:F165, C151:C165,H152)</f>
+        <v>0.23958333333333343</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="95"/>
+      <c r="B153" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="C153" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D153" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E153" s="81">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="F153" s="81">
+        <f t="shared" si="45"/>
+        <v>2.4305555555555636E-2</v>
+      </c>
+      <c r="H153" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="I153" s="81">
+        <f t="shared" ref="I153" si="54">SUMIFS(F151:F165, C151:C165,H153)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="95"/>
+      <c r="B154" s="80" t="s">
+        <v>550</v>
+      </c>
+      <c r="C154" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D154" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E154" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F154" s="81">
+        <f t="shared" si="45"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H154" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="I154" s="81">
+        <f t="shared" ref="I154" si="55">SUMIFS(F151:F165, C151:C165,H154)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="95"/>
+      <c r="B155" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C155" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D155" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E155" s="81">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F155" s="81">
+        <f t="shared" si="45"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="H155" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I155" s="81">
+        <f t="shared" ref="I155" si="56">SUMIFS(F151:F165, C151:C165,H155)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="95"/>
+      <c r="B156" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C156" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D156" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E156" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F156" s="81">
+        <f t="shared" si="45"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H156" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I156" s="81">
+        <f t="shared" ref="I156" si="57">SUMIFS(F151:F165, C151:C165,H156)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="95"/>
+      <c r="B157" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C157" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D157" s="81">
+        <v>0.65625</v>
+      </c>
+      <c r="E157" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F157" s="81">
+        <f t="shared" si="45"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H157" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I157" s="81">
+        <f t="shared" ref="I157" si="58">SUMIFS(F151:F165, C151:C165,H157)</f>
+        <v>4.513888888888884E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="95"/>
+      <c r="B158" s="80" t="s">
+        <v>577</v>
+      </c>
+      <c r="C158" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D158" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E158" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="F158" s="81">
+        <f t="shared" si="45"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H158" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I158" s="79">
+        <f t="shared" ref="I158" si="59">SUM(I152:I157)</f>
+        <v>0.35763888888888895</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="95"/>
+      <c r="B159" s="80" t="s">
+        <v>545</v>
+      </c>
+      <c r="C159" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D159" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="E159" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="F159" s="81">
+        <f t="shared" si="45"/>
+        <v>0.125</v>
+      </c>
+      <c r="I159" s="84"/>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="95"/>
+      <c r="B160" s="80"/>
+      <c r="C160" s="80"/>
+      <c r="D160" s="81"/>
+      <c r="E160" s="81"/>
+      <c r="F160" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="I160" s="84"/>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="95"/>
+      <c r="B161" s="80"/>
+      <c r="C161" s="80"/>
+      <c r="D161" s="81"/>
+      <c r="E161" s="81"/>
+      <c r="F161" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="95"/>
+      <c r="B162" s="80"/>
+      <c r="C162" s="80"/>
+      <c r="D162" s="81"/>
+      <c r="E162" s="81"/>
+      <c r="F162" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="95"/>
+      <c r="B163" s="80"/>
+      <c r="C163" s="80"/>
+      <c r="D163" s="81"/>
+      <c r="E163" s="81"/>
+      <c r="F163" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="95"/>
+      <c r="B164" s="80"/>
+      <c r="C164" s="80"/>
+      <c r="D164" s="81"/>
+      <c r="E164" s="81"/>
+      <c r="F164" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="95"/>
+      <c r="B165" s="80"/>
+      <c r="C165" s="80"/>
+      <c r="D165" s="81"/>
+      <c r="E165" s="81"/>
+      <c r="F165" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A106:A120"/>
+    <mergeCell ref="A121:A135"/>
+    <mergeCell ref="A136:A150"/>
+    <mergeCell ref="A151:A165"/>
+    <mergeCell ref="A76:A90"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="A32:A45"/>
+    <mergeCell ref="A46:A60"/>
+    <mergeCell ref="A61:A75"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I3 I18 I33 I47 I62 I77 I92 I107 I122 I137 I152">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="lessThan">
+      <formula>0.25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4 I19 I34 I48 I63 I78 I93 I108 I123 I138 I153">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5 I20 I35 I49 I64 I79 I94 I109 I124 I139 I154">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6 I21 I36 I50 I65 I80 I95 I110 I125 I140 I155">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7 I22 I37 I51 I66 I81 I96 I111 I126 I141 I156">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8 I23 I38 I52 I67 I82 I97 I112 I127 I142 I157">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0.0625</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0.0625</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C72 C76:C165" xr:uid="{6E4899FF-3B25-4EE1-B31B-EF5F8A1E414F}">
+      <formula1>$Q$1:$Q$7</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C37EC40-F2D4-4449-871A-5D5B4F31F4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B8E1EC4-19CC-46BD-B70C-076D2BA46D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="578">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1548,10 +1548,16 @@
     <t>3.10 hrs</t>
   </si>
   <si>
-    <t>Web api (Debugging Errors-(8:15-9:00),                    repository(9:00-9:44),(10:40-12:00) ,                                 Estimation and discussion(12:00-12-33),Meeting with Rafi(12:36-12:52),Timesheet update(2:00-2:15),</t>
-  </si>
-  <si>
-    <t>Softskill session(9:44-10:33),Break(1:05-1:40),sending mail for installation(2:40-2:45),Webapi exploring(3:00-3:30),college call(3:30-3:45),Break(3:45-4:00),System installation (4:00-4:25),</t>
+    <t>web api Services and web api exploration</t>
+  </si>
+  <si>
+    <t>20:00-21:00 : reviewing and understanding the Api services,
+21:00-23:00 : Learning Angular&lt;Components and lifecycle&gt;,
+TOTAL-3 hrs</t>
+  </si>
+  <si>
+    <t>8:00-17:00 : Went college for internals ,
+TOTAL -9 hrs</t>
   </si>
   <si>
     <t xml:space="preserve">Web Api exploration,
@@ -1800,130 +1806,193 @@
     <t>Learned Angular &lt;Typescript Intorduction and Sample programs&gt;</t>
   </si>
   <si>
+    <t>Api Service implementation on Controller</t>
+  </si>
+  <si>
+    <t>Lunch and Break</t>
+  </si>
+  <si>
+    <t>Service explanation to Members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunch </t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Morning Break</t>
+  </si>
+  <si>
+    <t>Evening Break</t>
+  </si>
+  <si>
     <t>Api Swagger Testing</t>
   </si>
   <si>
-    <t>Lunch and Break</t>
-  </si>
-  <si>
-    <t>Service explanation to Members</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lunch </t>
-  </si>
-  <si>
-    <t>Morning Break</t>
-  </si>
-  <si>
-    <t>Evening Break</t>
+    <t>Went to College for internal exams</t>
+  </si>
+  <si>
+    <t>understanding and reviewing  API services</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Components and life cycle&gt;</t>
+  </si>
+  <si>
+    <t>Time Sheet</t>
+  </si>
+  <si>
+    <t>Database Migration</t>
+  </si>
+  <si>
+    <t>Logging in user services &amp; user controller</t>
+  </si>
+  <si>
+    <t>User Services List of Users by Role</t>
+  </si>
+  <si>
+    <t>client meeting</t>
+  </si>
+  <si>
+    <t>helping other team with ui</t>
+  </si>
+  <si>
+    <t>fixing errors in user services</t>
+  </si>
+  <si>
+    <t>ef core exploration</t>
+  </si>
+  <si>
+    <t>CRUD Operation in user Services</t>
+  </si>
+  <si>
+    <t>Technical Session</t>
+  </si>
+  <si>
+    <t>Time Sheet Updating</t>
+  </si>
+  <si>
+    <t>Estimation for Dashboard</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Typescript Introduction and  Installation&gt;</t>
+  </si>
+  <si>
+    <t>Discussion about Services with Arul and Spliting Services</t>
+  </si>
+  <si>
+    <t>Service-Review</t>
+  </si>
+  <si>
+    <t>Web API User Service Exploration with Gokul</t>
+  </si>
+  <si>
+    <t>Discussion about Timesheet and Team performance Index with Rafi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimation Discussion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updating TimeSheet </t>
+  </si>
+  <si>
+    <t>Working on HTML layout</t>
+  </si>
+  <si>
+    <t>Estimation Preparation</t>
+  </si>
+  <si>
+    <t>Web API Exploration (user services) with gokul</t>
+  </si>
+  <si>
+    <t>Working on Feedback services</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;TypeScript Introduction and Simple Examples&gt;</t>
   </si>
   <si>
     <t>Soft Skill</t>
   </si>
   <si>
+    <t>Learned Angular &lt;Introduction of Typescript , VS code Installation&gt;</t>
+  </si>
+  <si>
+    <t>Service Discussion with Arul and Spliting the Service</t>
+  </si>
+  <si>
+    <t>Service-Course</t>
+  </si>
+  <si>
+    <t>Discussion about New Timesheet And Team Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared for Internal Review </t>
+  </si>
+  <si>
+    <t>Session about Serivces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared for Internal review </t>
+  </si>
+  <si>
+    <t>Working on WebAPI (Review  services)</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;data type,variable,type script &gt;</t>
+  </si>
+  <si>
+    <t>evening Break</t>
+  </si>
+  <si>
+    <t>Understanding the Department,User Services</t>
+  </si>
+  <si>
+    <t>Estimation for Coordinator list page</t>
+  </si>
+  <si>
+    <t>Reworking on model(review service)</t>
+  </si>
+  <si>
+    <t>Timesheet Updating</t>
+  </si>
+  <si>
+    <t>Estimation for ProfileView</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Typescript introduction&gt;</t>
+  </si>
+  <si>
+    <t>discussion on services and spliting the services</t>
+  </si>
+  <si>
+    <t>Service-Role</t>
+  </si>
+  <si>
+    <t>Estimation for unique pages</t>
+  </si>
+  <si>
+    <t>discussion about the rank table</t>
+  </si>
+  <si>
+    <t>Timesheet</t>
+  </si>
+  <si>
+    <t>Working on HTML layout (Refining)</t>
+  </si>
+  <si>
+    <t>Estimation for department page</t>
+  </si>
+  <si>
+    <t>Discussion on services and spliting the services</t>
+  </si>
+  <si>
+    <t>Angular session &lt;Typescript introduction&gt;</t>
+  </si>
+  <si>
+    <t>Pulling from git  (Web API), Exploring and working on department services</t>
+  </si>
+  <si>
     <t>Learned Angular &lt;Topics&gt;</t>
-  </si>
-  <si>
-    <t>Working on HTML layout</t>
-  </si>
-  <si>
-    <t>Time Sheet</t>
-  </si>
-  <si>
-    <t>Database Migration</t>
-  </si>
-  <si>
-    <t>Logging in user services &amp; user controller</t>
-  </si>
-  <si>
-    <t>User Services List of Users by Role</t>
-  </si>
-  <si>
-    <t>client meeting</t>
-  </si>
-  <si>
-    <t>helping other team with ui</t>
-  </si>
-  <si>
-    <t>Time Sheet Updating</t>
-  </si>
-  <si>
-    <t>Estimation for Dashboard</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;Typescript Introduction and  Installation&gt;</t>
-  </si>
-  <si>
-    <t>Discussion about Services with Arul and Spliting Services</t>
-  </si>
-  <si>
-    <t>Service-Review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Updating TimeSheet </t>
-  </si>
-  <si>
-    <t>Estimation Preparation</t>
-  </si>
-  <si>
-    <t>Web API Exploration</t>
-  </si>
-  <si>
-    <t>Working on Feedback services</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;TypeScript Introduction and Simple Examples&gt;</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;Introduction of Typescript , VS code Installation&gt;</t>
-  </si>
-  <si>
-    <t>Service Discussion with Arul and Spliting the Service</t>
-  </si>
-  <si>
-    <t>Service-Course</t>
-  </si>
-  <si>
-    <t>Technical Session</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;data type &gt;</t>
-  </si>
-  <si>
-    <t>Working on WebAPI (Review )</t>
-  </si>
-  <si>
-    <t>Timesheet Updating</t>
-  </si>
-  <si>
-    <t>Estimation for ProfileView</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;Typescript introduction&gt;</t>
-  </si>
-  <si>
-    <t>discussion on services and spliting the services</t>
-  </si>
-  <si>
-    <t>Service-Role</t>
-  </si>
-  <si>
-    <t>Timesheet</t>
-  </si>
-  <si>
-    <t>Pulling from git and Web API exploration</t>
-  </si>
-  <si>
-    <t>Estimation for department page</t>
-  </si>
-  <si>
-    <t>Customer review</t>
-  </si>
-  <si>
-    <t>013:00:00</t>
   </si>
 </sst>
 </file>
@@ -2441,6 +2510,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2471,7 +2541,6 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="21" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3818,14 +3887,14 @@
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="16" t="s">
@@ -4329,14 +4398,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="89" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
     </row>
     <row r="4" spans="1:22" ht="101.25" customHeight="1">
       <c r="A4" s="16" t="s">
@@ -4579,14 +4648,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="89" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
     </row>
     <row r="4" spans="1:7" ht="49.5">
       <c r="A4" s="16" t="s">
@@ -4696,27 +4765,27 @@
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
     </row>
     <row r="11" spans="1:7" ht="36.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="94"/>
     </row>
     <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
@@ -4994,7 +5063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7172FC-5606-4FD6-B7B3-02AB5BD496A0}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -5053,15 +5122,15 @@
         <v>9</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>346</v>
+        <v>468</v>
       </c>
       <c r="C3" s="58"/>
       <c r="D3" s="58"/>
       <c r="E3" s="59" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G3" s="71"/>
     </row>
@@ -5070,10 +5139,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D4" s="61"/>
       <c r="E4" s="61" t="s">
@@ -5089,17 +5158,17 @@
         <v>16</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C5" s="58" t="s">
         <v>319</v>
       </c>
       <c r="D5" s="58"/>
       <c r="E5" s="58" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F5" s="75" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G5" s="54"/>
     </row>
@@ -5109,14 +5178,14 @@
       </c>
       <c r="B6" s="63"/>
       <c r="C6" s="58" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D6" s="58"/>
       <c r="E6" s="64" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G6" s="72"/>
     </row>
@@ -5125,17 +5194,17 @@
         <v>19</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D7" s="58"/>
       <c r="E7" s="64" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G7" s="70"/>
     </row>
@@ -5145,14 +5214,14 @@
       </c>
       <c r="B8" s="65"/>
       <c r="C8" s="74" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D8" s="58"/>
       <c r="E8" s="59" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G8" s="70"/>
     </row>
@@ -5164,14 +5233,14 @@
         <v>302</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D9" s="58"/>
       <c r="E9" s="64" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G9" s="70"/>
     </row>
@@ -5180,17 +5249,17 @@
         <v>22</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C10" s="58" t="s">
         <v>319</v>
       </c>
       <c r="D10" s="58"/>
       <c r="E10" s="58" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G10" s="70"/>
     </row>
@@ -5199,17 +5268,17 @@
         <v>24</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C11" s="76" t="s">
         <v>319</v>
       </c>
       <c r="D11" s="66"/>
       <c r="E11" s="64" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="141.75" customHeight="1">
@@ -5218,14 +5287,14 @@
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="67" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="68" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G12" s="73"/>
     </row>
@@ -5241,8 +5310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C319A4C-EADA-4641-96D7-D7B692B906C8}">
   <dimension ref="A1:Q165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5261,34 +5330,34 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="78" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B1" s="78" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C1" s="78" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D1" s="79" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E1" s="79" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F1" s="79" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="95" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D2" s="81">
         <v>0.36458333333333331</v>
@@ -5301,22 +5370,22 @@
         <v>1.7361111111111105E-2</v>
       </c>
       <c r="H2" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I2" s="79" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q2" t="s">
         <v>504</v>
       </c>
-      <c r="I2" s="79" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>503</v>
-      </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="94"/>
+      <c r="A3" s="95"/>
       <c r="B3" s="80" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C3" s="80" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D3" s="81">
         <v>0.40972222222222227</v>
@@ -5329,23 +5398,23 @@
         <v>3.125E-2</v>
       </c>
       <c r="H3" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I3" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H3)</f>
-        <v>9.7222222222222154E-2</v>
+        <v>0.14583333333333331</v>
       </c>
       <c r="Q3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="94"/>
+      <c r="A4" s="95"/>
       <c r="B4" s="80" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D4" s="81">
         <v>0.44097222222222227</v>
@@ -5358,23 +5427,23 @@
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="H4" s="83" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I4" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H4)</f>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="Q4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="94"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="80" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D5" s="81">
         <v>0.48958333333333331</v>
@@ -5387,23 +5456,23 @@
         <v>2.7777777777777735E-2</v>
       </c>
       <c r="H5" s="83" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I5" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H5)</f>
         <v>6.25E-2</v>
       </c>
       <c r="Q5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="94"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="80" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D6" s="81">
         <v>0.64583333333333337</v>
@@ -5416,52 +5485,52 @@
         <v>6.25E-2</v>
       </c>
       <c r="H6" s="83" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I6" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H6)</f>
         <v>3.125E-2</v>
       </c>
       <c r="Q6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="94"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="80" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D7" s="81">
-        <v>0.70833333333333337</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="E7" s="81">
-        <v>0.73958333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="F7" s="81">
         <f>E7-D7</f>
-        <v>3.125E-2</v>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="H7" s="83" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I7" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H7)</f>
         <v>2.7777777777777735E-2</v>
       </c>
       <c r="Q7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="94"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="80" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D8" s="81">
         <v>0.58333333333333337</v>
@@ -5474,7 +5543,7 @@
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="H8" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I8" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H8)</f>
@@ -5482,66 +5551,84 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="94"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="80" t="s">
-        <v>514</v>
-      </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
+        <v>518</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D9" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E9" s="81">
+        <v>0.56944444444444442</v>
+      </c>
       <c r="F9" s="81">
         <f>E9-D9</f>
-        <v>0</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H9" s="78" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="I9" s="79">
         <f>SUM(I3:I8)</f>
-        <v>0.30902777777777757</v>
+        <v>0.35763888888888873</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="94"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="80" t="s">
-        <v>514</v>
-      </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
+        <v>520</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D10" s="81">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E10" s="81">
+        <v>0.4375</v>
+      </c>
       <c r="F10" s="81">
         <f>E10-D10</f>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="I10" s="84"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="94"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="80" t="s">
-        <v>514</v>
-      </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
+        <v>521</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D11" s="81">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E11" s="81">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="F11" s="81">
         <f>E11-D11</f>
-        <v>0</v>
+        <v>3.4722222222222099E-3</v>
       </c>
       <c r="I11" s="84"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="94"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="80" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="D12" s="81">
-        <v>0.54166666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E12" s="81">
-        <v>0.56944444444444442</v>
+        <v>0.73611111111111116</v>
       </c>
       <c r="F12" s="81">
         <f>E12-D12</f>
@@ -5549,45 +5636,29 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="94"/>
-      <c r="B13" s="80" t="s">
-        <v>519</v>
-      </c>
-      <c r="C13" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D13" s="81">
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="E13" s="81">
-        <v>0.4375</v>
-      </c>
+      <c r="A13" s="95"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
       <c r="F13" s="81">
         <f>E13-D13</f>
-        <v>6.9444444444444198E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="94"/>
-      <c r="B14" s="80" t="s">
-        <v>520</v>
-      </c>
-      <c r="C14" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D14" s="81">
-        <v>0.69791666666666663</v>
-      </c>
-      <c r="E14" s="81">
-        <v>0.70138888888888884</v>
-      </c>
+      <c r="A14" s="95"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
       <c r="F14" s="81">
         <f>E14-D14</f>
-        <v>3.4722222222222099E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="94"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="80"/>
       <c r="C15" s="80"/>
       <c r="D15" s="81"/>
@@ -5598,7 +5669,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="94"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="80"/>
       <c r="C16" s="80"/>
       <c r="D16" s="81"/>
@@ -5609,104 +5680,96 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="95" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="80" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D17" s="81">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="E17" s="81">
-        <v>0.4236111111111111</v>
+        <v>17.708333333333332</v>
       </c>
       <c r="F17" s="81">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="H17" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I17" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="95"/>
+      <c r="B18" s="80" t="s">
+        <v>524</v>
+      </c>
+      <c r="C18" s="80" t="s">
         <v>504</v>
       </c>
-      <c r="I17" s="79" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="94"/>
-      <c r="B18" s="80" t="s">
-        <v>521</v>
-      </c>
-      <c r="C18" s="80" t="s">
-        <v>508</v>
-      </c>
       <c r="D18" s="81">
-        <v>0.42708333333333331</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E18" s="81">
-        <v>0.45833333333333331</v>
+        <v>21.875</v>
       </c>
       <c r="F18" s="81">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>21.041666666666668</v>
       </c>
       <c r="H18" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I18" s="81">
         <f t="shared" ref="I18" si="1">SUMIFS(F17:F31, C17:C31,H18)</f>
-        <v>0.22916666666666674</v>
+        <v>21.125</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="94"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="80" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D19" s="81">
-        <v>0.45833333333333331</v>
+        <v>21.875</v>
       </c>
       <c r="E19" s="81">
-        <v>0.47222222222222227</v>
+        <v>21.958333333333332</v>
       </c>
       <c r="F19" s="81">
         <f t="shared" si="0"/>
-        <v>1.3888888888888951E-2</v>
+        <v>8.3333333333332149E-2</v>
       </c>
       <c r="H19" s="83" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I19" s="81">
         <f t="shared" ref="I19" si="2">SUMIFS(F17:F31, C17:C31,H19)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>17.333333333333332</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="94"/>
-      <c r="B20" s="80" t="s">
-        <v>521</v>
-      </c>
-      <c r="C20" s="80" t="s">
-        <v>508</v>
-      </c>
-      <c r="D20" s="81">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E20" s="81">
-        <v>0.52083333333333337</v>
-      </c>
+      <c r="A20" s="95"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
       <c r="F20" s="81">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>0</v>
       </c>
       <c r="H20" s="83" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I20" s="81">
         <f t="shared" ref="I20" si="3">SUMIFS(F17:F31, C17:C31,H20)</f>
@@ -5714,25 +5777,17 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="94"/>
-      <c r="B21" s="80" t="s">
-        <v>518</v>
-      </c>
-      <c r="C21" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D21" s="81">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E21" s="81">
-        <v>0.54166666666666663</v>
-      </c>
+      <c r="A21" s="95"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
       <c r="F21" s="81">
         <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
+        <v>0</v>
       </c>
       <c r="H21" s="83" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I21" s="81">
         <f t="shared" ref="I21" si="4">SUMIFS(F17:F31, C17:C31,H21)</f>
@@ -5740,25 +5795,17 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="94"/>
-      <c r="B22" s="80" t="s">
-        <v>519</v>
-      </c>
-      <c r="C22" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D22" s="81">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="E22" s="81">
-        <v>0.47916666666666669</v>
-      </c>
+      <c r="A22" s="95"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
       <c r="F22" s="81">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>0</v>
       </c>
       <c r="H22" s="83" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I22" s="81">
         <f t="shared" ref="I22" si="5">SUMIFS(F17:F31, C17:C31,H22)</f>
@@ -5766,79 +5813,55 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="94"/>
-      <c r="B23" s="80" t="s">
-        <v>520</v>
-      </c>
-      <c r="C23" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D23" s="81">
-        <v>0.65625</v>
-      </c>
-      <c r="E23" s="81">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="A23" s="95"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
       <c r="F23" s="81">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I23" s="81">
         <f t="shared" ref="I23" si="6">SUMIFS(F17:F31, C17:C31,H23)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="94"/>
-      <c r="B24" s="80" t="s">
-        <v>522</v>
-      </c>
-      <c r="C24" s="80" t="s">
-        <v>503</v>
-      </c>
-      <c r="D24" s="81">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E24" s="81">
-        <v>0.75</v>
-      </c>
+      <c r="A24" s="95"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
       <c r="F24" s="81">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="H24" s="78" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="I24" s="79">
         <f t="shared" ref="I24" si="7">SUM(I18:I23)</f>
-        <v>0.34027777777777773</v>
+        <v>38.458333333333329</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="94"/>
-      <c r="B25" s="80" t="s">
-        <v>523</v>
-      </c>
-      <c r="C25" s="80" t="s">
-        <v>503</v>
-      </c>
-      <c r="D25" s="81">
-        <v>0.75</v>
-      </c>
-      <c r="E25" s="81">
-        <v>0.875</v>
-      </c>
+      <c r="A25" s="95"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="81">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I25" s="84"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="94"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="80"/>
       <c r="C26" s="80"/>
       <c r="D26" s="81"/>
@@ -5850,7 +5873,7 @@
       <c r="I26" s="84"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="94"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="80"/>
       <c r="C27" s="80"/>
       <c r="D27" s="81"/>
@@ -5861,7 +5884,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="94"/>
+      <c r="A28" s="95"/>
       <c r="B28" s="80"/>
       <c r="C28" s="80"/>
       <c r="D28" s="81"/>
@@ -5872,7 +5895,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="94"/>
+      <c r="A29" s="95"/>
       <c r="B29" s="80"/>
       <c r="C29" s="80"/>
       <c r="D29" s="81"/>
@@ -5883,7 +5906,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="94"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="80"/>
       <c r="C30" s="80"/>
       <c r="D30" s="81"/>
@@ -5894,7 +5917,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="94"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="80"/>
       <c r="C31" s="80"/>
       <c r="D31" s="81"/>
@@ -5905,14 +5928,14 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="95" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="80" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C32" s="80" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D32" s="81">
         <v>0.375</v>
@@ -5925,19 +5948,19 @@
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="H32" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I32" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="95"/>
+      <c r="B33" s="80" t="s">
+        <v>527</v>
+      </c>
+      <c r="C33" s="80" t="s">
         <v>504</v>
-      </c>
-      <c r="I32" s="79" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="94"/>
-      <c r="B33" s="80" t="s">
-        <v>525</v>
-      </c>
-      <c r="C33" s="80" t="s">
-        <v>503</v>
       </c>
       <c r="D33" s="81">
         <v>0.3888888888888889</v>
@@ -5950,20 +5973,20 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H33" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I33" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H33)</f>
-        <v>5.208333333333337E-2</v>
+        <v>0.12847222222222221</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="94"/>
+      <c r="A34" s="95"/>
       <c r="B34" s="80" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C34" s="80" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D34" s="81">
         <v>0.40972222222222227</v>
@@ -5976,7 +5999,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="H34" s="83" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I34" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H34)</f>
@@ -5984,12 +6007,12 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="94"/>
+      <c r="A35" s="95"/>
       <c r="B35" s="80" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C35" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D35" s="81">
         <v>0.44097222222222227</v>
@@ -6002,20 +6025,20 @@
         <v>1.041666666666663E-2</v>
       </c>
       <c r="H35" s="83" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I35" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H35)</f>
-        <v>0</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="94"/>
+      <c r="A36" s="95"/>
       <c r="B36" s="80" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C36" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D36" s="81">
         <v>0.4513888888888889</v>
@@ -6028,7 +6051,7 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H36" s="83" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I36" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H36)</f>
@@ -6036,12 +6059,12 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="94"/>
+      <c r="A37" s="95"/>
       <c r="B37" s="80" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C37" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D37" s="81">
         <v>0.47222222222222227</v>
@@ -6054,7 +6077,7 @@
         <v>1.7361111111111049E-2</v>
       </c>
       <c r="H37" s="83" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I37" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H37)</f>
@@ -6062,12 +6085,12 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="94"/>
+      <c r="A38" s="95"/>
       <c r="B38" s="80" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C38" s="80" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D38" s="81">
         <v>0.4916666666666667</v>
@@ -6080,20 +6103,20 @@
         <v>2.3611111111111138E-2</v>
       </c>
       <c r="H38" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I38" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H38)</f>
-        <v>1.7361111111111049E-2</v>
+        <v>4.9999999999999933E-2</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="94"/>
+      <c r="A39" s="95"/>
       <c r="B39" s="80" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C39" s="80" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D39" s="81">
         <v>0.5180555555555556</v>
@@ -6106,76 +6129,112 @@
         <v>9.7222222222221877E-3</v>
       </c>
       <c r="H39" s="78" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="I39" s="79">
         <f t="shared" ref="I39" si="8">SUM(I33:I38)</f>
-        <v>0.14791666666666664</v>
+        <v>0.35069444444444436</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="94"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
+      <c r="A40" s="95"/>
+      <c r="B40" s="80" t="s">
+        <v>532</v>
+      </c>
+      <c r="C40" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D40" s="81">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E40" s="81">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="F40" s="81">
         <f>E40-D40</f>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="I40" s="84"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="94"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
+      <c r="A41" s="95"/>
+      <c r="B41" s="80" t="s">
+        <v>533</v>
+      </c>
+      <c r="C41" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="D41" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E41" s="81">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F41" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="K41" s="81"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="94"/>
+      <c r="A42" s="95"/>
       <c r="B42" s="80" t="s">
         <v>518</v>
       </c>
       <c r="C42" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
+        <v>516</v>
+      </c>
+      <c r="D42" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E42" s="81">
+        <v>0.57430555555555551</v>
+      </c>
       <c r="F42" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.2638888888888884E-2</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="94"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
+      <c r="A43" s="95"/>
+      <c r="B43" s="80" t="s">
+        <v>534</v>
+      </c>
+      <c r="C43" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D43" s="81">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E43" s="81">
+        <v>0.63888888888888895</v>
+      </c>
       <c r="F43" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="94"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
+      <c r="A44" s="95"/>
+      <c r="B44" s="80" t="s">
+        <v>535</v>
+      </c>
+      <c r="C44" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="D44" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E44" s="81">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F44" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="94"/>
+      <c r="A45" s="95"/>
       <c r="B45" s="80"/>
       <c r="C45" s="80"/>
       <c r="D45" s="81"/>
@@ -6186,14 +6245,14 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="94" t="s">
+      <c r="A46" s="95" t="s">
         <v>16</v>
       </c>
       <c r="B46" s="80" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="C46" s="80" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D46" s="81">
         <v>0.375</v>
@@ -6206,19 +6265,19 @@
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="H46" s="79" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I46" s="79" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="94"/>
+      <c r="A47" s="95"/>
       <c r="B47" s="80" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C47" s="80" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D47" s="81">
         <v>0.40972222222222227</v>
@@ -6231,46 +6290,46 @@
         <v>3.125E-2</v>
       </c>
       <c r="H47" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I47" s="81">
         <f t="shared" ref="I47" si="9">SUMIFS(F46:F60, C46:C60,H47)</f>
-        <v>0.14236111111111099</v>
+        <v>13.149305555555555</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="94"/>
+      <c r="A48" s="95"/>
       <c r="B48" s="80" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C48" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D48" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="E48" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="F48" s="81">
         <f t="shared" si="0"/>
-        <v>2.083333333333337E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="H48" s="83" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I48" s="81">
         <f t="shared" ref="I48" si="10">SUMIFS(F46:F60, C46:C60,H48)</f>
-        <v>2.0833333333333315E-2</v>
+        <v>2.6388888888888962E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="94"/>
+      <c r="A49" s="95"/>
       <c r="B49" s="80" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C49" s="80" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="D49" s="81">
         <v>0.48958333333333331</v>
@@ -6283,7 +6342,7 @@
         <v>2.7777777777777735E-2</v>
       </c>
       <c r="H49" s="83" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I49" s="81">
         <f t="shared" ref="I49" si="11">SUMIFS(F46:F60, C46:C60,H49)</f>
@@ -6291,12 +6350,12 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="94"/>
+      <c r="A50" s="95"/>
       <c r="B50" s="80" t="s">
         <v>518</v>
       </c>
       <c r="C50" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D50" s="81">
         <v>0.54166666666666663</v>
@@ -6309,7 +6368,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="H50" s="83" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I50" s="81">
         <f t="shared" ref="I50" si="12">SUMIFS(F46:F60, C46:C60,H50)</f>
@@ -6317,12 +6376,12 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="94"/>
+      <c r="A51" s="95"/>
       <c r="B51" s="80" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C51" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D51" s="81">
         <v>0.44097222222222227</v>
@@ -6335,20 +6394,20 @@
         <v>1.7361111111111049E-2</v>
       </c>
       <c r="H51" s="83" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I51" s="81">
         <f t="shared" ref="I51" si="13">SUMIFS(F46:F60, C46:C60,H51)</f>
-        <v>0</v>
+        <v>2.7777777777777735E-2</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="94"/>
+      <c r="A52" s="95"/>
       <c r="B52" s="80" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C52" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D52" s="81">
         <v>0.63541666666666663</v>
@@ -6361,7 +6420,7 @@
         <v>1.0416666666666741E-2</v>
       </c>
       <c r="H52" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I52" s="81">
         <f t="shared" ref="I52" si="14">SUMIFS(F46:F60, C46:C60,H52)</f>
@@ -6369,12 +6428,12 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="94"/>
+      <c r="A53" s="95"/>
       <c r="B53" s="80" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C53" s="80" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D53" s="81">
         <v>0.64583333333333337</v>
@@ -6387,20 +6446,20 @@
         <v>6.25E-2</v>
       </c>
       <c r="H53" s="78" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="I53" s="79">
         <f t="shared" ref="I53" si="15">SUM(I47:I52)</f>
-        <v>0.32638888888888884</v>
+        <v>13.366666666666667</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="94"/>
+      <c r="A54" s="95"/>
       <c r="B54" s="80" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C54" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D54" s="81">
         <v>0.58333333333333337</v>
@@ -6415,12 +6474,12 @@
       <c r="I54" s="84"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="94"/>
+      <c r="A55" s="95"/>
       <c r="B55" s="80" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C55" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D55" s="81">
         <v>0.875</v>
@@ -6435,40 +6494,64 @@
       <c r="I55" s="84"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="94"/>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
+      <c r="A56" s="95"/>
+      <c r="B56" s="80" t="s">
+        <v>541</v>
+      </c>
+      <c r="C56" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D56" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E56" s="81">
+        <v>13.541666666666666</v>
+      </c>
       <c r="F56" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.020833333333332</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="94"/>
-      <c r="B57" s="80"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
+      <c r="A57" s="95"/>
+      <c r="B57" s="80" t="s">
+        <v>542</v>
+      </c>
+      <c r="C57" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D57" s="81">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E57" s="81">
+        <v>0.47222222222222227</v>
+      </c>
       <c r="F57" s="81">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E57-D57</f>
+        <v>5.5555555555556468E-3</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="94"/>
-      <c r="B58" s="80"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
+      <c r="A58" s="95"/>
+      <c r="B58" s="80" t="s">
+        <v>543</v>
+      </c>
+      <c r="C58" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D58" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E58" s="81">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="F58" s="81">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E58-D58</f>
+        <v>2.0833333333333259E-2</v>
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="94"/>
+      <c r="A59" s="95"/>
       <c r="B59" s="80"/>
       <c r="C59" s="80"/>
       <c r="D59" s="81"/>
@@ -6479,7 +6562,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="94"/>
+      <c r="A60" s="95"/>
       <c r="B60" s="80"/>
       <c r="C60" s="80"/>
       <c r="D60" s="81"/>
@@ -6490,14 +6573,14 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="94" t="s">
+      <c r="A61" s="95" t="s">
         <v>17</v>
       </c>
       <c r="B61" s="80" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="C61" s="80" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D61" s="81">
         <v>0.35416666666666669</v>
@@ -6510,19 +6593,19 @@
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="H61" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I61" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="95"/>
+      <c r="B62" s="80" t="s">
+        <v>545</v>
+      </c>
+      <c r="C62" s="80" t="s">
         <v>504</v>
-      </c>
-      <c r="I61" s="79" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="94"/>
-      <c r="B62" s="80" t="s">
-        <v>523</v>
-      </c>
-      <c r="C62" s="80" t="s">
-        <v>503</v>
       </c>
       <c r="D62" s="81">
         <v>0.38194444444444442</v>
@@ -6535,20 +6618,20 @@
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="H62" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I62" s="81">
         <f>SUMIFS(F61:F71, C61:C71,H62)</f>
-        <v>7.9861111111111119E-2</v>
+        <v>0.10069444444444438</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="94"/>
+      <c r="A63" s="95"/>
       <c r="B63" s="80" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C63" s="80" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D63" s="81">
         <v>0.40972222222222227</v>
@@ -6561,20 +6644,20 @@
         <v>3.125E-2</v>
       </c>
       <c r="H63" s="83" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I63" s="81">
         <f>SUMIFS(F61:F71, C61:C71,H63)</f>
-        <v>4.1666666666666574E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="94"/>
+      <c r="A64" s="95"/>
       <c r="B64" s="80" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C64" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D64" s="81">
         <v>0.44444444444444442</v>
@@ -6587,7 +6670,7 @@
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="H64" s="83" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I64" s="81">
         <f>SUMIFS(F61:F71, C61:C71,H64)</f>
@@ -6595,12 +6678,12 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="94"/>
+      <c r="A65" s="95"/>
       <c r="B65" s="80" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="C65" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D65" s="81">
         <v>0.46180555555555558</v>
@@ -6613,7 +6696,7 @@
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="H65" s="83" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I65" s="81">
         <f>SUMIFS(F61:F71, C61:C71,H65)</f>
@@ -6621,12 +6704,12 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="94"/>
+      <c r="A66" s="95"/>
       <c r="B66" s="80" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C66" s="80" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D66" s="81">
         <v>0.4916666666666667</v>
@@ -6639,7 +6722,7 @@
         <v>2.3611111111111138E-2</v>
       </c>
       <c r="H66" s="83" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I66" s="81">
         <f>SUMIFS(F61:F71, C61:C71,H66)</f>
@@ -6647,12 +6730,12 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="94"/>
+      <c r="A67" s="95"/>
       <c r="B67" s="80" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="C67" s="80" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D67" s="81">
         <v>0.52083333333333337</v>
@@ -6665,7 +6748,7 @@
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="H67" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I67" s="81">
         <f>SUMIFS(F61:F71, C61:C71,H67)</f>
@@ -6673,12 +6756,12 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="94"/>
+      <c r="A68" s="95"/>
       <c r="B68" s="80" t="s">
         <v>518</v>
       </c>
       <c r="C68" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D68" s="81">
         <v>0.54166666666666663</v>
@@ -6691,7 +6774,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="H68" s="78" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="I68" s="79">
         <f t="shared" ref="I68" si="16">SUM(I62:I67)</f>
@@ -6699,12 +6782,12 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="94"/>
+      <c r="A69" s="95"/>
       <c r="B69" s="80" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="C69" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D69" s="81">
         <v>9.0277777777777776E-2</v>
@@ -6719,12 +6802,12 @@
       <c r="I69" s="84"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="94"/>
+      <c r="A70" s="95"/>
       <c r="B70" s="80" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="C70" s="80" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D70" s="81">
         <v>0.64583333333333337</v>
@@ -6739,12 +6822,12 @@
       <c r="I70" s="84"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="94"/>
+      <c r="A71" s="95"/>
       <c r="B71" s="80" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C71" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D71" s="81">
         <v>0.71527777777777779</v>
@@ -6758,26 +6841,42 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="94"/>
+      <c r="A72" s="95"/>
+      <c r="B72" t="s">
+        <v>543</v>
+      </c>
+      <c r="C72" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D72" s="81">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="E72" s="81">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F72" s="81">
+        <f>E72-D72</f>
+        <v>1.388888888888884E-2</v>
+      </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="94"/>
+      <c r="A73" s="95"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="94"/>
+      <c r="A74" s="95"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="94"/>
+      <c r="A75" s="95"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="94" t="s">
+      <c r="A76" s="95" t="s">
         <v>19</v>
       </c>
       <c r="B76" s="80" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C76" s="80" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D76" s="81">
         <v>0.40972222222222227</v>
@@ -6790,19 +6889,19 @@
         <v>3.125E-2</v>
       </c>
       <c r="H76" s="79" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I76" s="79" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="94"/>
+      <c r="A77" s="95"/>
       <c r="B77" s="80" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="C77" s="80" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D77" s="81">
         <v>0</v>
@@ -6815,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I77" s="81">
         <f t="shared" ref="I77" si="18">SUMIFS(F76:F90, C76:C90,H77)</f>
@@ -6823,12 +6922,12 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="94"/>
+      <c r="A78" s="95"/>
       <c r="B78" s="80" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C78" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D78" s="81">
         <v>0.4916666666666667</v>
@@ -6841,20 +6940,20 @@
         <v>2.5694444444444353E-2</v>
       </c>
       <c r="H78" s="83" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I78" s="81">
         <f t="shared" ref="I78" si="19">SUMIFS(F76:F90, C76:C90,H78)</f>
-        <v>1.388888888888884E-2</v>
+        <v>1.9444444444444486E-2</v>
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="94"/>
+      <c r="A79" s="95"/>
       <c r="B79" s="80" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="C79" s="80" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D79" s="81">
         <v>0</v>
@@ -6867,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="83" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I79" s="81">
         <f t="shared" ref="I79" si="20">SUMIFS(F76:F90, C76:C90,H79)</f>
@@ -6875,12 +6974,12 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="94"/>
+      <c r="A80" s="95"/>
       <c r="B80" s="80" t="s">
         <v>518</v>
       </c>
       <c r="C80" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D80" s="81">
         <v>0.53125</v>
@@ -6893,7 +6992,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="H80" s="83" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I80" s="81">
         <f t="shared" ref="I80" si="21">SUMIFS(F76:F90, C76:C90,H80)</f>
@@ -6901,12 +7000,12 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="94"/>
+      <c r="A81" s="95"/>
       <c r="B81" s="80" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C81" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D81" s="81">
         <v>0.44444444444444442</v>
@@ -6919,7 +7018,7 @@
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="H81" s="83" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I81" s="81">
         <f t="shared" ref="I81" si="22">SUMIFS(F76:F90, C76:C90,H81)</f>
@@ -6927,12 +7026,12 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="94"/>
+      <c r="A82" s="95"/>
       <c r="B82" s="80" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C82" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D82" s="81">
         <v>0.63541666666666663</v>
@@ -6945,7 +7044,7 @@
         <v>1.0416666666666741E-2</v>
       </c>
       <c r="H82" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I82" s="81">
         <f t="shared" ref="I82" si="23">SUMIFS(F76:F90, C76:C90,H82)</f>
@@ -6953,12 +7052,12 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="94"/>
+      <c r="A83" s="95"/>
       <c r="B83" s="80" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="C83" s="80" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D83" s="81">
         <v>0.64583333333333337</v>
@@ -6971,20 +7070,20 @@
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="H83" s="78" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="I83" s="79">
         <f t="shared" ref="I83" si="24">SUM(I77:I82)</f>
-        <v>0.29444444444444434</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="94"/>
+      <c r="A84" s="95"/>
       <c r="B84" s="80" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C84" s="80" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D84" s="81">
         <v>0.36805555555555558</v>
@@ -6999,12 +7098,12 @@
       <c r="I84" s="84"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="94"/>
+      <c r="A85" s="95"/>
       <c r="B85" s="80" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="C85" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D85" s="81">
         <v>0.58333333333333337</v>
@@ -7019,12 +7118,12 @@
       <c r="I85" s="84"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="94"/>
+      <c r="A86" s="95"/>
       <c r="B86" s="80" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="C86" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D86" s="81">
         <v>0.875</v>
@@ -7038,18 +7137,26 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="94"/>
-      <c r="B87" s="80"/>
-      <c r="C87" s="80"/>
-      <c r="D87" s="81"/>
-      <c r="E87" s="81"/>
+      <c r="A87" s="95"/>
+      <c r="B87" s="80" t="s">
+        <v>554</v>
+      </c>
+      <c r="C87" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D87" s="81">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E87" s="81">
+        <v>0.47222222222222227</v>
+      </c>
       <c r="F87" s="81">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>5.5555555555556468E-3</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="94"/>
+      <c r="A88" s="95"/>
       <c r="B88" s="80"/>
       <c r="C88" s="80"/>
       <c r="D88" s="81"/>
@@ -7060,7 +7167,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="94"/>
+      <c r="A89" s="95"/>
       <c r="B89" s="80"/>
       <c r="C89" s="80"/>
       <c r="D89" s="81"/>
@@ -7071,7 +7178,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="94"/>
+      <c r="A90" s="95"/>
       <c r="B90" s="80"/>
       <c r="C90" s="80"/>
       <c r="D90" s="81"/>
@@ -7082,14 +7189,14 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="94" t="s">
+      <c r="A91" s="95" t="s">
         <v>20</v>
       </c>
       <c r="B91" s="80" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C91" s="80" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D91" s="81">
         <v>0.40972222222222227</v>
@@ -7102,19 +7209,19 @@
         <v>3.125E-2</v>
       </c>
       <c r="H91" s="79" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I91" s="79" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="94"/>
+      <c r="A92" s="95"/>
       <c r="B92" s="80" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="C92" s="80" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D92" s="81">
         <v>0</v>
@@ -7127,20 +7234,20 @@
         <v>0</v>
       </c>
       <c r="H92" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I92" s="81">
         <f t="shared" ref="I92" si="25">SUMIFS(F91:F105, C91:C105,H92)</f>
-        <v>0.22222222222222227</v>
+        <v>6.5972222222222154E-2</v>
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="94"/>
+      <c r="A93" s="95"/>
       <c r="B93" s="80" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C93" s="80" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D93" s="81">
         <v>0.4916666666666667</v>
@@ -7153,20 +7260,20 @@
         <v>2.3611111111111138E-2</v>
       </c>
       <c r="H93" s="83" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I93" s="81">
         <f t="shared" ref="I93" si="26">SUMIFS(F91:F105, C91:C105,H93)</f>
-        <v>6.25E-2</v>
+        <v>0.17708333333333326</v>
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="94"/>
+      <c r="A94" s="95"/>
       <c r="B94" s="80" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="C94" s="80" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D94" s="81">
         <v>0</v>
@@ -7179,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="83" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I94" s="81">
         <f t="shared" ref="I94" si="27">SUMIFS(F91:F105, C91:C105,H94)</f>
@@ -7187,25 +7294,25 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="94"/>
+      <c r="A95" s="95"/>
       <c r="B95" s="80" t="s">
         <v>518</v>
       </c>
       <c r="C95" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D95" s="81">
         <v>0.54861111111111105</v>
       </c>
       <c r="E95" s="81">
-        <v>0.54166666666666663</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="F95" s="81">
         <f t="shared" si="17"/>
-        <v>-6.9444444444444198E-3</v>
+        <v>2.7777777777777901E-2</v>
       </c>
       <c r="H95" s="83" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I95" s="81">
         <f t="shared" ref="I95" si="28">SUMIFS(F91:F105, C91:C105,H95)</f>
@@ -7213,25 +7320,25 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="94"/>
+      <c r="A96" s="95"/>
       <c r="B96" s="80" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C96" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D96" s="81">
-        <v>0.47222222222222227</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="E96" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F96" s="81">
         <f t="shared" si="17"/>
-        <v>6.9444444444444198E-3</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H96" s="83" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I96" s="81">
         <f t="shared" ref="I96" si="29">SUMIFS(F91:F105, C91:C105,H96)</f>
@@ -7239,84 +7346,84 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="94"/>
+      <c r="A97" s="95"/>
       <c r="B97" s="80" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C97" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D97" s="81">
-        <v>0.65625</v>
+        <v>0</v>
       </c>
       <c r="E97" s="81">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="F97" s="81">
         <f t="shared" si="17"/>
-        <v>1.041666666666663E-2</v>
+        <v>0</v>
       </c>
       <c r="H97" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I97" s="81">
         <f t="shared" ref="I97" si="30">SUMIFS(F91:F105, C91:C105,H97)</f>
-        <v>1.041666666666663E-2</v>
+        <v>3.8194444444444531E-2</v>
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="94"/>
+      <c r="A98" s="95"/>
       <c r="B98" s="80" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="C98" s="80" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D98" s="81">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E98" s="81">
-        <v>0.75</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="F98" s="81">
         <f t="shared" si="17"/>
-        <v>8.333333333333337E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H98" s="78" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="I98" s="79">
         <f t="shared" ref="I98" si="31">SUM(I92:I97)</f>
-        <v>0.35000000000000003</v>
+        <v>0.33611111111111108</v>
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="94"/>
+      <c r="A99" s="95"/>
       <c r="B99" s="80" t="s">
-        <v>523</v>
+        <v>556</v>
       </c>
       <c r="C99" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D99" s="81">
-        <v>0.75</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E99" s="81">
-        <v>0.875</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F99" s="81">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>5.2083333333333259E-2</v>
       </c>
       <c r="I99" s="84"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="94"/>
+      <c r="A100" s="95"/>
       <c r="B100" s="80" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="C100" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D100" s="81">
         <v>0.375</v>
@@ -7331,18 +7438,18 @@
       <c r="I100" s="84"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="94"/>
+      <c r="A101" s="95"/>
       <c r="B101" s="80" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C101" s="80" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D101" s="81">
-        <v>0.14583333333333334</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E101" s="81">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F101" s="81">
         <f t="shared" si="17"/>
@@ -7350,18 +7457,26 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="94"/>
-      <c r="B102" s="80"/>
-      <c r="C102" s="80"/>
-      <c r="D102" s="81"/>
-      <c r="E102" s="81"/>
+      <c r="A102" s="95"/>
+      <c r="B102" s="80" t="s">
+        <v>557</v>
+      </c>
+      <c r="C102" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D102" s="81">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E102" s="81">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="F102" s="81">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="94"/>
+      <c r="A103" s="95"/>
       <c r="B103" s="80"/>
       <c r="C103" s="80"/>
       <c r="D103" s="81"/>
@@ -7372,7 +7487,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="94"/>
+      <c r="A104" s="95"/>
       <c r="B104" s="80"/>
       <c r="C104" s="80"/>
       <c r="D104" s="81"/>
@@ -7383,7 +7498,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="94"/>
+      <c r="A105" s="95"/>
       <c r="B105" s="80"/>
       <c r="C105" s="80"/>
       <c r="D105" s="81"/>
@@ -7394,261 +7509,275 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="94" t="s">
+      <c r="A106" s="95" t="s">
         <v>21</v>
       </c>
       <c r="B106" s="80" t="s">
-        <v>506</v>
+        <v>544</v>
       </c>
       <c r="C106" s="80" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D106" s="81">
-        <v>0.40972222222222227</v>
+        <v>0.375</v>
       </c>
       <c r="E106" s="81">
-        <v>0.44097222222222227</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="F106" s="81">
         <f t="shared" si="17"/>
-        <v>3.125E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H106" s="79" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I106" s="79" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="94"/>
+      <c r="A107" s="95"/>
       <c r="B107" s="18" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="C107" s="80" t="s">
         <v>508</v>
       </c>
-      <c r="D107" s="95">
-        <v>0.44444444444444442</v>
+      <c r="D107" s="85">
+        <v>0.40972222222222227</v>
       </c>
       <c r="E107" s="81">
-        <v>0.4548611111111111</v>
+        <v>0.44097222222222227</v>
       </c>
       <c r="F107" s="81">
         <f t="shared" si="17"/>
-        <v>1.0416666666666685E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H107" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I107" s="81">
-        <f t="shared" ref="I107" si="32">SUMIFS(F106:F120, C106:C120,H107)</f>
-        <v>9.7222222222222265E-2</v>
+        <f>SUMIFS(F106:F120, C106:C120,H107)</f>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="94"/>
+      <c r="A108" s="95"/>
       <c r="B108" s="80" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="C108" s="80" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D108" s="81">
-        <v>0.4916666666666667</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="E108" s="81">
-        <v>0.51527777777777783</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="F108" s="81">
         <f t="shared" si="17"/>
-        <v>2.3611111111111138E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H108" s="83" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I108" s="81">
-        <f t="shared" ref="I108" si="33">SUMIFS(F106:F120, C106:C120,H108)</f>
-        <v>1.0416666666666685E-2</v>
+        <f t="shared" ref="I108" si="32">SUMIFS(F106:F120, C106:C120,H108)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="94"/>
-      <c r="B109" s="80" t="s">
-        <v>521</v>
+      <c r="A109" s="95"/>
+      <c r="B109" s="18" t="s">
+        <v>512</v>
       </c>
       <c r="C109" s="80" t="s">
-        <v>508</v>
-      </c>
-      <c r="D109" s="81">
-        <v>0</v>
+        <v>513</v>
+      </c>
+      <c r="D109" s="85">
+        <v>0.4916666666666667</v>
       </c>
       <c r="E109" s="81">
-        <v>0</v>
+        <v>0.51527777777777783</v>
       </c>
       <c r="F109" s="81">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2.3611111111111138E-2</v>
       </c>
       <c r="H109" s="83" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I109" s="81">
-        <f t="shared" ref="I109" si="34">SUMIFS(F106:F120, C106:C120,H109)</f>
+        <f t="shared" ref="I109" si="33">SUMIFS(F106:F120, C106:C120,H109)</f>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="94"/>
+      <c r="A110" s="95"/>
       <c r="B110" s="80" t="s">
         <v>518</v>
       </c>
       <c r="C110" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D110" s="81">
-        <v>0.5625</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E110" s="81">
-        <v>0.57638888888888895</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="F110" s="81">
         <f t="shared" si="17"/>
-        <v>1.3888888888888951E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H110" s="83" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I110" s="81">
-        <f t="shared" ref="I110" si="35">SUMIFS(F106:F120, C106:C120,H110)</f>
+        <f t="shared" ref="I110" si="34">SUMIFS(F106:F120, C106:C120,H110)</f>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="94"/>
-      <c r="B111" s="80"/>
+      <c r="A111" s="95"/>
+      <c r="B111" s="18" t="s">
+        <v>558</v>
+      </c>
       <c r="C111" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D111" s="81"/>
-      <c r="E111" s="81"/>
+        <v>504</v>
+      </c>
+      <c r="D111" s="81">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E111" s="81">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="F111" s="81">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>6.944444444444442E-2</v>
       </c>
       <c r="H111" s="83" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I111" s="81">
-        <f t="shared" ref="I111" si="36">SUMIFS(F106:F120, C106:C120,H111)</f>
+        <f t="shared" ref="I111" si="35">SUMIFS(F106:F120, C106:C120,H111)</f>
         <v>2.3611111111111138E-2</v>
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="94"/>
+      <c r="A112" s="95"/>
       <c r="B112" s="80" t="s">
-        <v>520</v>
+        <v>559</v>
       </c>
       <c r="C112" s="80" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D112" s="81">
-        <v>0.71527777777777779</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E112" s="81">
-        <v>0.72569444444444453</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F112" s="81">
         <f t="shared" si="17"/>
-        <v>1.0416666666666741E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H112" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I112" s="81">
-        <f t="shared" ref="I112" si="37">SUMIFS(F106:F120, C106:C120,H112)</f>
-        <v>2.4305555555555691E-2</v>
+        <f t="shared" ref="I112" si="36">SUMIFS(F106:F120, C106:C120,H112)</f>
+        <v>5.2083333333333315E-2</v>
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="94"/>
+      <c r="A113" s="95"/>
       <c r="B113" s="80" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="C113" s="80" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D113" s="81">
-        <v>0.64583333333333337</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E113" s="81">
-        <v>0.70833333333333337</v>
+        <v>0.71875</v>
       </c>
       <c r="F113" s="81">
-        <f t="shared" si="17"/>
-        <v>6.25E-2</v>
+        <f>E113-D113</f>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H113" s="78" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="I113" s="79">
-        <f t="shared" ref="I113" si="38">SUM(I107:I112)</f>
-        <v>0.24930555555555578</v>
+        <f t="shared" ref="I113" si="37">SUM(I107:I112)</f>
+        <v>0.30833333333333335</v>
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="94"/>
-      <c r="B114" s="80" t="s">
-        <v>545</v>
+      <c r="A114" s="95"/>
+      <c r="B114" t="s">
+        <v>561</v>
       </c>
       <c r="C114" s="80" t="s">
-        <v>503</v>
-      </c>
-      <c r="D114" s="81">
+        <v>504</v>
+      </c>
+      <c r="D114" s="84">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E114" s="81">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E114" s="81">
-        <v>0.625</v>
-      </c>
       <c r="F114" s="81">
-        <f t="shared" si="17"/>
-        <v>8.333333333333337E-2</v>
+        <f>E114-D114</f>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="I114" s="84"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="94"/>
+      <c r="A115" s="95"/>
       <c r="B115" s="80" t="s">
-        <v>535</v>
+        <v>562</v>
       </c>
       <c r="C115" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D115" s="81">
-        <v>0.375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E115" s="81">
-        <v>0.3888888888888889</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F115" s="81">
         <f t="shared" si="17"/>
-        <v>1.3888888888888895E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="I115" s="84"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="94"/>
-      <c r="B116" s="80"/>
-      <c r="C116" s="80"/>
-      <c r="D116" s="81"/>
-      <c r="E116" s="81"/>
+      <c r="A116" s="95"/>
+      <c r="B116" s="80" t="s">
+        <v>563</v>
+      </c>
+      <c r="C116" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D116" s="85">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E116" s="81">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F116" s="81">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1.736111111111116E-2</v>
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="94"/>
+      <c r="A117" s="95"/>
       <c r="B117" s="80"/>
       <c r="C117" s="80"/>
       <c r="D117" s="81"/>
@@ -7659,7 +7788,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="94"/>
+      <c r="A118" s="95"/>
       <c r="B118" s="80"/>
       <c r="C118" s="80"/>
       <c r="D118" s="81"/>
@@ -7670,7 +7799,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="94"/>
+      <c r="A119" s="95"/>
       <c r="B119" s="80"/>
       <c r="C119" s="80"/>
       <c r="D119" s="81"/>
@@ -7681,7 +7810,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="94"/>
+      <c r="A120" s="95"/>
       <c r="B120" s="80"/>
       <c r="C120" s="80"/>
       <c r="D120" s="81"/>
@@ -7692,14 +7821,14 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="94" t="s">
+      <c r="A121" s="95" t="s">
         <v>22</v>
       </c>
       <c r="B121" s="80" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="C121" s="80" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D121" s="81">
         <v>0.375</v>
@@ -7712,19 +7841,19 @@
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="H121" s="79" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I121" s="79" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="94"/>
+      <c r="A122" s="95"/>
       <c r="B122" s="18" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C122" s="80" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D122" s="81">
         <v>0.40972222222222227</v>
@@ -7737,46 +7866,46 @@
         <v>3.125E-2</v>
       </c>
       <c r="H122" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I122" s="81">
-        <f t="shared" ref="I122" si="39">SUMIFS(F121:F135, C121:C135,H122)</f>
-        <v>0.12847222222222215</v>
+        <f t="shared" ref="I122" si="38">SUMIFS(F121:F135, C121:C135,H122)</f>
+        <v>0.15277777777777746</v>
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="94"/>
+      <c r="A123" s="95"/>
       <c r="B123" s="80" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="C123" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D123" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="E123" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="F123" s="81">
         <f t="shared" si="17"/>
-        <v>2.083333333333337E-2</v>
+        <v>1.7361111111111049E-2</v>
       </c>
       <c r="H123" s="83" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I123" s="81">
-        <f t="shared" ref="I123" si="40">SUMIFS(F121:F135, C121:C135,H123)</f>
-        <v>0</v>
+        <f t="shared" ref="I123" si="39">SUMIFS(F121:F135, C121:C135,H123)</f>
+        <v>1.9444444444444542E-2</v>
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="94"/>
+      <c r="A124" s="95"/>
       <c r="B124" s="80" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C124" s="80" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D124" s="81">
         <v>0.48958333333333331</v>
@@ -7789,46 +7918,46 @@
         <v>2.7777777777777735E-2</v>
       </c>
       <c r="H124" s="83" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I124" s="81">
-        <f t="shared" ref="I124" si="41">SUMIFS(F121:F135, C121:C135,H124)</f>
+        <f t="shared" ref="I124" si="40">SUMIFS(F121:F135, C121:C135,H124)</f>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="94"/>
+      <c r="A125" s="95"/>
       <c r="B125" s="80" t="s">
         <v>518</v>
       </c>
       <c r="C125" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D125" s="81">
         <v>0.54166666666666663</v>
       </c>
       <c r="E125" s="81">
-        <v>0.58333333333333337</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="F125" s="81">
         <f t="shared" si="17"/>
-        <v>4.1666666666666741E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H125" s="83" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I125" s="81">
-        <f t="shared" ref="I125" si="42">SUMIFS(F121:F135, C121:C135,H125)</f>
+        <f t="shared" ref="I125" si="41">SUMIFS(F121:F135, C121:C135,H125)</f>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="94"/>
+      <c r="A126" s="95"/>
       <c r="B126" s="80" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C126" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D126" s="81">
         <v>0.44097222222222227</v>
@@ -7841,20 +7970,20 @@
         <v>1.7361111111111049E-2</v>
       </c>
       <c r="H126" s="83" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I126" s="81">
-        <f t="shared" ref="I126" si="43">SUMIFS(F121:F135, C121:C135,H126)</f>
+        <f t="shared" ref="I126" si="42">SUMIFS(F121:F135, C121:C135,H126)</f>
         <v>2.7777777777777735E-2</v>
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="94"/>
+      <c r="A127" s="95"/>
       <c r="B127" s="80" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C127" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D127" s="81">
         <v>0.63541666666666663</v>
@@ -7867,20 +7996,20 @@
         <v>1.0416666666666741E-2</v>
       </c>
       <c r="H127" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I127" s="81">
-        <f t="shared" ref="I127" si="44">SUMIFS(F121:F135, C121:C135,H127)</f>
-        <v>6.9444444444444531E-2</v>
+        <f t="shared" ref="I127" si="43">SUMIFS(F121:F135, C121:C135,H127)</f>
+        <v>5.555555555555558E-2</v>
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="94"/>
+      <c r="A128" s="95"/>
       <c r="B128" s="80" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="C128" s="80" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D128" s="81">
         <v>0.64583333333333337</v>
@@ -7893,20 +8022,20 @@
         <v>6.25E-2</v>
       </c>
       <c r="H128" s="78" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="I128" s="79">
-        <f t="shared" ref="I128" si="45">SUM(I122:I127)</f>
-        <v>0.31944444444444442</v>
+        <f t="shared" ref="I128" si="44">SUM(I122:I127)</f>
+        <v>0.34930555555555531</v>
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="94"/>
+      <c r="A129" s="95"/>
       <c r="B129" s="80" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="C129" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D129" s="81">
         <v>0.58333333333333337</v>
@@ -7921,12 +8050,12 @@
       <c r="I129" s="84"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="94"/>
+      <c r="A130" s="95"/>
       <c r="B130" s="80" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="C130" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D130" s="81">
         <v>0.875</v>
@@ -7935,75 +8064,99 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F130" s="81">
-        <f t="shared" ref="F130:F193" si="46">E130-D130</f>
+        <f t="shared" ref="F130:F165" si="45">E130-D130</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="I130" s="84"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="94"/>
-      <c r="B131" s="80"/>
-      <c r="C131" s="80"/>
-      <c r="D131" s="81"/>
-      <c r="E131" s="81"/>
+      <c r="A131" s="95"/>
+      <c r="B131" s="80" t="s">
+        <v>569</v>
+      </c>
+      <c r="C131" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D131" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E131" s="81">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="F131" s="81">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>2.0833333333333259E-2</v>
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="94"/>
-      <c r="B132" s="80"/>
-      <c r="C132" s="80"/>
-      <c r="D132" s="81"/>
-      <c r="E132" s="81"/>
+      <c r="A132" s="95"/>
+      <c r="B132" s="80" t="s">
+        <v>547</v>
+      </c>
+      <c r="C132" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D132" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E132" s="81">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="F132" s="81">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>2.0833333333333259E-2</v>
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="94"/>
-      <c r="B133" s="80"/>
-      <c r="C133" s="80"/>
-      <c r="D133" s="81"/>
-      <c r="E133" s="81"/>
+      <c r="A133" s="95"/>
+      <c r="B133" s="80" t="s">
+        <v>570</v>
+      </c>
+      <c r="C133" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D133" s="81">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E133" s="81">
+        <v>0.47222222222222227</v>
+      </c>
       <c r="F133" s="81">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>5.5555555555556468E-3</v>
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="94"/>
+      <c r="A134" s="95"/>
       <c r="B134" s="80"/>
       <c r="C134" s="80"/>
       <c r="D134" s="81"/>
       <c r="E134" s="81"/>
       <c r="F134" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="94"/>
+      <c r="A135" s="95"/>
       <c r="B135" s="80"/>
       <c r="C135" s="80"/>
       <c r="D135" s="81"/>
       <c r="E135" s="81"/>
       <c r="F135" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="94" t="s">
+      <c r="A136" s="95" t="s">
         <v>24</v>
       </c>
       <c r="B136" s="80" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="C136" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D136" s="81">
         <v>0.375</v>
@@ -8012,23 +8165,23 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="F136" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="H136" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I136" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="95"/>
+      <c r="B137" s="80" t="s">
+        <v>572</v>
+      </c>
+      <c r="C137" s="80" t="s">
         <v>504</v>
-      </c>
-      <c r="I136" s="79" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="94"/>
-      <c r="B137" s="80" t="s">
-        <v>552</v>
-      </c>
-      <c r="C137" s="80" t="s">
-        <v>510</v>
       </c>
       <c r="D137" s="81">
         <v>0.3888888888888889</v>
@@ -8037,24 +8190,24 @@
         <v>0.40972222222222227</v>
       </c>
       <c r="F137" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H137" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I137" s="81">
-        <f t="shared" ref="I137" si="47">SUMIFS(F136:F150, C136:C150,H137)</f>
-        <v>0.24305555555555564</v>
+        <f t="shared" ref="I137" si="46">SUMIFS(F136:F150, C136:C150,H137)</f>
+        <v>0.14930555555555564</v>
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="94"/>
+      <c r="A138" s="95"/>
       <c r="B138" s="80" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C138" s="80" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D138" s="81">
         <v>0.40972222222222227</v>
@@ -8063,24 +8216,24 @@
         <v>0.44097222222222227</v>
       </c>
       <c r="F138" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>3.125E-2</v>
       </c>
       <c r="H138" s="83" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I138" s="81">
-        <f t="shared" ref="I138" si="48">SUMIFS(F136:F150, C136:C150,H138)</f>
+        <f t="shared" ref="I138" si="47">SUMIFS(F136:F150, C136:C150,H138)</f>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="94"/>
+      <c r="A139" s="95"/>
       <c r="B139" s="80" t="s">
-        <v>553</v>
+        <v>573</v>
       </c>
       <c r="C139" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D139" s="81">
         <v>0.45833333333333331</v>
@@ -8089,241 +8242,241 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="F139" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H139" s="83" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I139" s="81">
-        <f t="shared" ref="I139" si="49">SUMIFS(F136:F150, C136:C150,H139)</f>
-        <v>2.083333333333337E-2</v>
+        <f t="shared" ref="I139" si="48">SUMIFS(F136:F150, C136:C150,H139)</f>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="94"/>
+      <c r="A140" s="95"/>
       <c r="B140" s="80" t="s">
-        <v>554</v>
+        <v>513</v>
       </c>
       <c r="C140" s="80" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D140" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E140" s="81">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="F140" s="81">
+        <f t="shared" si="45"/>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="H140" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I140" s="81">
+        <f t="shared" ref="I140" si="49">SUMIFS(F136:F150, C136:C150,H140)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="95"/>
+      <c r="B141" s="80" t="s">
+        <v>547</v>
+      </c>
+      <c r="C141" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D141" s="81">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="E141" s="81">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E140" s="81">
+      <c r="F141" s="81">
+        <f t="shared" si="45"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="H141" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I141" s="81">
+        <f t="shared" ref="I141" si="50">SUMIFS(F136:F150, C136:C150,H141)</f>
+        <v>2.7777777777777735E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="95"/>
+      <c r="B142" s="80" t="s">
+        <v>574</v>
+      </c>
+      <c r="C142" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D142" s="81">
         <v>0.57291666666666663</v>
       </c>
-      <c r="F140" s="81">
-        <f t="shared" si="46"/>
+      <c r="E142" s="81">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="F142" s="81">
+        <f>E142-D142</f>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="H142" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I142" s="81">
+        <f t="shared" ref="I142" si="51">SUMIFS(F136:F150, C136:C150,H142)</f>
+        <v>5.9027777777777797E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="95"/>
+      <c r="B143" s="80" t="s">
+        <v>575</v>
+      </c>
+      <c r="C143" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="D143" s="81">
+        <v>0.625</v>
+      </c>
+      <c r="E143" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F143" s="81">
+        <f>E143-D143</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H143" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I143" s="79">
+        <f t="shared" ref="I143" si="52">SUM(I137:I142)</f>
+        <v>0.35069444444444453</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="95"/>
+      <c r="B144" s="80" t="s">
+        <v>576</v>
+      </c>
+      <c r="C144" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D144" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E144" s="81">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F144" s="81">
+        <f>E144-D144</f>
         <v>3.125E-2</v>
       </c>
-      <c r="H140" s="83" t="s">
-        <v>507</v>
-      </c>
-      <c r="I140" s="81">
-        <f t="shared" ref="I140" si="50">SUMIFS(F136:F150, C136:C150,H140)</f>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="94"/>
-      <c r="B141" s="80" t="s">
-        <v>519</v>
-      </c>
-      <c r="C141" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D141" s="81">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="E141" s="81">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F141" s="81">
-        <f t="shared" si="46"/>
-        <v>1.3888888888888895E-2</v>
-      </c>
-      <c r="H141" s="83" t="s">
-        <v>512</v>
-      </c>
-      <c r="I141" s="81">
-        <f t="shared" ref="I141" si="51">SUMIFS(F136:F150, C136:C150,H141)</f>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="94"/>
-      <c r="B142" s="80" t="s">
-        <v>520</v>
-      </c>
-      <c r="C142" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D142" s="81">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="E142" s="81">
-        <v>0.125</v>
-      </c>
-      <c r="F142" s="81">
-        <f t="shared" si="46"/>
-        <v>1.3888888888888895E-2</v>
-      </c>
-      <c r="H142" s="83" t="s">
-        <v>515</v>
-      </c>
-      <c r="I142" s="81">
-        <f t="shared" ref="I142" si="52">SUMIFS(F136:F150, C136:C150,H142)</f>
-        <v>8.680555555555558E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="94"/>
-      <c r="B143" s="80" t="s">
-        <v>522</v>
-      </c>
-      <c r="C143" s="80" t="s">
-        <v>503</v>
-      </c>
-      <c r="D143" s="81">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E143" s="81">
-        <v>0.75</v>
-      </c>
-      <c r="F143" s="81">
-        <f t="shared" si="46"/>
-        <v>8.333333333333337E-2</v>
-      </c>
-      <c r="H143" s="78" t="s">
-        <v>517</v>
-      </c>
-      <c r="I143" s="79">
-        <f t="shared" ref="I143" si="53">SUM(I137:I142)</f>
-        <v>0.41319444444444459</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="94"/>
-      <c r="B144" s="80" t="s">
-        <v>523</v>
-      </c>
-      <c r="C144" s="80" t="s">
-        <v>503</v>
-      </c>
-      <c r="D144" s="81">
-        <v>0.75</v>
-      </c>
-      <c r="E144" s="81">
-        <v>0.875</v>
-      </c>
-      <c r="F144" s="81">
-        <f t="shared" si="46"/>
-        <v>0.125</v>
-      </c>
       <c r="I144" s="84"/>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="94"/>
-      <c r="B145" s="80" t="s">
+      <c r="A145" s="95"/>
+      <c r="B145" s="80"/>
+      <c r="C145" s="80"/>
+      <c r="D145" s="81"/>
+      <c r="E145" s="81"/>
+      <c r="F145" s="81">
+        <f>E145-D145</f>
+        <v>0</v>
+      </c>
+      <c r="I145" s="84"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="95"/>
+      <c r="B146" s="80" t="s">
         <v>518</v>
       </c>
-      <c r="C145" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D145" s="81">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E145" s="81">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="F145" s="81">
-        <f t="shared" si="46"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="I145" s="84"/>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="94"/>
-      <c r="B146" s="80" t="s">
-        <v>519</v>
-      </c>
       <c r="C146" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D146" s="81">
-        <v>0.44444444444444442</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E146" s="81">
-        <v>0.45833333333333331</v>
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="F146" s="81">
-        <f t="shared" si="46"/>
-        <v>1.3888888888888895E-2</v>
+        <f>E146-D146</f>
+        <v>3.1250000000000007E-2</v>
       </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="94"/>
+      <c r="A147" s="95"/>
       <c r="B147" s="80" t="s">
         <v>520</v>
       </c>
       <c r="C147" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D147" s="81">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E147" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F147" s="81">
+        <f>E147-D147</f>
+        <v>1.3888888888888895E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="95"/>
+      <c r="B148" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C148" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D148" s="81">
         <v>0.1111111111111111</v>
       </c>
-      <c r="E147" s="81">
+      <c r="E148" s="81">
         <v>0.125</v>
       </c>
-      <c r="F147" s="81">
-        <f t="shared" si="46"/>
+      <c r="F148" s="81">
+        <f t="shared" si="45"/>
         <v>1.3888888888888895E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="94"/>
-      <c r="B148" s="80"/>
-      <c r="C148" s="80"/>
-      <c r="D148" s="81"/>
-      <c r="E148" s="81"/>
-      <c r="F148" s="81">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="94"/>
+      <c r="A149" s="95"/>
       <c r="B149" s="80"/>
       <c r="C149" s="80"/>
       <c r="D149" s="81"/>
       <c r="E149" s="81"/>
       <c r="F149" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="94"/>
+      <c r="A150" s="95"/>
       <c r="B150" s="80"/>
       <c r="C150" s="80"/>
       <c r="D150" s="81"/>
       <c r="E150" s="81"/>
       <c r="F150" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="94" t="s">
+      <c r="A151" s="95" t="s">
         <v>23</v>
       </c>
       <c r="B151" s="80" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C151" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D151" s="81">
         <v>0.41666666666666669</v>
@@ -8332,23 +8485,23 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="F151" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="H151" s="79" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I151" s="79" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="94"/>
+      <c r="A152" s="95"/>
       <c r="B152" s="80" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="C152" s="80" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D152" s="81">
         <v>0.42708333333333331</v>
@@ -8357,24 +8510,24 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F152" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>3.125E-2</v>
       </c>
       <c r="H152" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I152" s="81">
-        <f t="shared" ref="I152" si="54">SUMIFS(F151:F165, C151:C165,H152)</f>
+        <f t="shared" ref="I152" si="53">SUMIFS(F151:F165, C151:C165,H152)</f>
         <v>0.23958333333333343</v>
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="94"/>
+      <c r="A153" s="95"/>
       <c r="B153" s="80" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C153" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D153" s="81">
         <v>0.48958333333333331</v>
@@ -8383,24 +8536,24 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="F153" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2.4305555555555636E-2</v>
       </c>
       <c r="H153" s="83" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I153" s="81">
-        <f t="shared" ref="I153" si="55">SUMIFS(F151:F165, C151:C165,H153)</f>
+        <f t="shared" ref="I153" si="54">SUMIFS(F151:F165, C151:C165,H153)</f>
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="94"/>
+      <c r="A154" s="95"/>
       <c r="B154" s="80" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="C154" s="80" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D154" s="81">
         <v>0.47916666666666669</v>
@@ -8409,50 +8562,50 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="F154" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>4.1666666666666685E-2</v>
       </c>
       <c r="H154" s="83" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I154" s="81">
-        <f t="shared" ref="I154" si="56">SUMIFS(F151:F165, C151:C165,H154)</f>
+        <f t="shared" ref="I154" si="55">SUMIFS(F151:F165, C151:C165,H154)</f>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="94"/>
+      <c r="A155" s="95"/>
       <c r="B155" s="80" t="s">
         <v>518</v>
       </c>
       <c r="C155" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D155" s="81" t="s">
-        <v>555</v>
+        <v>516</v>
+      </c>
+      <c r="D155" s="81">
+        <v>0.54166666666666663</v>
       </c>
       <c r="E155" s="81">
         <v>0.56944444444444442</v>
       </c>
-      <c r="F155" s="81" t="e">
-        <f t="shared" si="46"/>
-        <v>#VALUE!</v>
+      <c r="F155" s="81">
+        <f t="shared" si="45"/>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H155" s="83" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I155" s="81">
-        <f t="shared" ref="I155" si="57">SUMIFS(F151:F165, C151:C165,H155)</f>
+        <f t="shared" ref="I155" si="56">SUMIFS(F151:F165, C151:C165,H155)</f>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="94"/>
+      <c r="A156" s="95"/>
       <c r="B156" s="80" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C156" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D156" s="81">
         <v>0.47222222222222227</v>
@@ -8461,24 +8614,24 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="F156" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="H156" s="83" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I156" s="81">
-        <f t="shared" ref="I156" si="58">SUMIFS(F151:F165, C151:C165,H156)</f>
+        <f t="shared" ref="I156" si="57">SUMIFS(F151:F165, C151:C165,H156)</f>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="94"/>
+      <c r="A157" s="95"/>
       <c r="B157" s="80" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C157" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D157" s="81">
         <v>0.65625</v>
@@ -8487,24 +8640,24 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F157" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="H157" s="83" t="s">
-        <v>515</v>
-      </c>
-      <c r="I157" s="81" t="e">
-        <f t="shared" ref="I157" si="59">SUMIFS(F151:F165, C151:C165,H157)</f>
-        <v>#VALUE!</v>
+        <v>516</v>
+      </c>
+      <c r="I157" s="81">
+        <f t="shared" ref="I157" si="58">SUMIFS(F151:F165, C151:C165,H157)</f>
+        <v>4.513888888888884E-2</v>
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="94"/>
+      <c r="A158" s="95"/>
       <c r="B158" s="80" t="s">
-        <v>522</v>
+        <v>577</v>
       </c>
       <c r="C158" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D158" s="81">
         <v>0.66666666666666663</v>
@@ -8513,24 +8666,24 @@
         <v>0.75</v>
       </c>
       <c r="F158" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="H158" s="78" t="s">
-        <v>517</v>
-      </c>
-      <c r="I158" s="79" t="e">
-        <f t="shared" ref="I158" si="60">SUM(I152:I157)</f>
-        <v>#VALUE!</v>
+        <v>519</v>
+      </c>
+      <c r="I158" s="79">
+        <f t="shared" ref="I158" si="59">SUM(I152:I157)</f>
+        <v>0.35763888888888895</v>
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="94"/>
+      <c r="A159" s="95"/>
       <c r="B159" s="80" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="C159" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D159" s="81">
         <v>0.75</v>
@@ -8539,91 +8692,91 @@
         <v>0.875</v>
       </c>
       <c r="F159" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0.125</v>
       </c>
       <c r="I159" s="84"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="94"/>
+      <c r="A160" s="95"/>
       <c r="B160" s="80"/>
       <c r="C160" s="80"/>
       <c r="D160" s="81"/>
       <c r="E160" s="81"/>
       <c r="F160" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="I160" s="84"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="94"/>
+      <c r="A161" s="95"/>
       <c r="B161" s="80"/>
       <c r="C161" s="80"/>
       <c r="D161" s="81"/>
       <c r="E161" s="81"/>
       <c r="F161" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="94"/>
+      <c r="A162" s="95"/>
       <c r="B162" s="80"/>
       <c r="C162" s="80"/>
       <c r="D162" s="81"/>
       <c r="E162" s="81"/>
       <c r="F162" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="94"/>
+      <c r="A163" s="95"/>
       <c r="B163" s="80"/>
       <c r="C163" s="80"/>
       <c r="D163" s="81"/>
       <c r="E163" s="81"/>
       <c r="F163" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="94"/>
+      <c r="A164" s="95"/>
       <c r="B164" s="80"/>
       <c r="C164" s="80"/>
       <c r="D164" s="81"/>
       <c r="E164" s="81"/>
       <c r="F164" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="94"/>
+      <c r="A165" s="95"/>
       <c r="B165" s="80"/>
       <c r="C165" s="80"/>
       <c r="D165" s="81"/>
       <c r="E165" s="81"/>
       <c r="F165" s="81">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A106:A120"/>
+    <mergeCell ref="A121:A135"/>
+    <mergeCell ref="A136:A150"/>
+    <mergeCell ref="A151:A165"/>
     <mergeCell ref="A76:A90"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A45"/>
     <mergeCell ref="A46:A60"/>
     <mergeCell ref="A61:A75"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A106:A120"/>
-    <mergeCell ref="A121:A135"/>
-    <mergeCell ref="A136:A150"/>
-    <mergeCell ref="A151:A165"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I47 I62 I77 I92 I107 I122 I137 I152">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
@@ -8677,7 +8830,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C71 C76:C165" xr:uid="{6E4899FF-3B25-4EE1-B31B-EF5F8A1E414F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C72 C76:C165" xr:uid="{6E4899FF-3B25-4EE1-B31B-EF5F8A1E414F}">
       <formula1>$Q$1:$Q$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE4FD784-D542-4716-AFF5-8E988014E8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0BD6D78-F6E5-45B5-AE58-9B1E3B809844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2510,6 +2510,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2540,7 +2541,6 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="21" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3887,14 +3887,14 @@
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="16" t="s">
@@ -4398,14 +4398,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="89" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
     </row>
     <row r="4" spans="1:22" ht="101.25" customHeight="1">
       <c r="A4" s="16" t="s">
@@ -4648,14 +4648,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="89" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
     </row>
     <row r="4" spans="1:7" ht="49.5">
       <c r="A4" s="16" t="s">
@@ -4765,27 +4765,27 @@
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
     </row>
     <row r="11" spans="1:7" ht="36.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="94"/>
     </row>
     <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
@@ -5310,8 +5310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C319A4C-EADA-4641-96D7-D7B692B906C8}">
   <dimension ref="A1:Q165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="H146" sqref="H146"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5350,7 +5350,7 @@
       <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="95" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="80" t="s">
@@ -5380,7 +5380,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="94"/>
+      <c r="A3" s="95"/>
       <c r="B3" s="80" t="s">
         <v>507</v>
       </c>
@@ -5409,7 +5409,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="94"/>
+      <c r="A4" s="95"/>
       <c r="B4" s="80" t="s">
         <v>510</v>
       </c>
@@ -5438,7 +5438,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="94"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="80" t="s">
         <v>512</v>
       </c>
@@ -5467,7 +5467,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="94"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="80" t="s">
         <v>514</v>
       </c>
@@ -5496,7 +5496,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="94"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="80" t="s">
         <v>515</v>
       </c>
@@ -5525,7 +5525,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="94"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="80" t="s">
         <v>517</v>
       </c>
@@ -5551,7 +5551,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="94"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="80" t="s">
         <v>518</v>
       </c>
@@ -5577,7 +5577,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="94"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="80" t="s">
         <v>520</v>
       </c>
@@ -5597,7 +5597,7 @@
       <c r="I10" s="84"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="94"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="80" t="s">
         <v>521</v>
       </c>
@@ -5617,7 +5617,7 @@
       <c r="I11" s="84"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="94"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="80" t="s">
         <v>522</v>
       </c>
@@ -5636,7 +5636,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="94"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
       <c r="D13" s="81"/>
@@ -5647,7 +5647,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="94"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="80"/>
       <c r="C14" s="80"/>
       <c r="D14" s="81"/>
@@ -5658,7 +5658,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="94"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="80"/>
       <c r="C15" s="80"/>
       <c r="D15" s="81"/>
@@ -5669,7 +5669,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="94"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="80"/>
       <c r="C16" s="80"/>
       <c r="D16" s="81"/>
@@ -5680,7 +5680,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="95" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="80" t="s">
@@ -5707,7 +5707,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="94"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="80" t="s">
         <v>524</v>
       </c>
@@ -5733,7 +5733,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="94"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="80" t="s">
         <v>525</v>
       </c>
@@ -5759,7 +5759,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="94"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="80"/>
       <c r="C20" s="80"/>
       <c r="D20" s="81"/>
@@ -5777,7 +5777,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="94"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="80"/>
       <c r="C21" s="80"/>
       <c r="D21" s="81"/>
@@ -5795,7 +5795,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="94"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="80"/>
       <c r="C22" s="80"/>
       <c r="D22" s="81"/>
@@ -5813,7 +5813,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="94"/>
+      <c r="A23" s="95"/>
       <c r="B23" s="80"/>
       <c r="C23" s="80"/>
       <c r="D23" s="81"/>
@@ -5831,7 +5831,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="94"/>
+      <c r="A24" s="95"/>
       <c r="B24" s="80"/>
       <c r="C24" s="80"/>
       <c r="D24" s="81"/>
@@ -5849,7 +5849,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="94"/>
+      <c r="A25" s="95"/>
       <c r="B25" s="80"/>
       <c r="C25" s="80"/>
       <c r="D25" s="81"/>
@@ -5861,7 +5861,7 @@
       <c r="I25" s="84"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="94"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="80"/>
       <c r="C26" s="80"/>
       <c r="D26" s="81"/>
@@ -5873,7 +5873,7 @@
       <c r="I26" s="84"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="94"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="80"/>
       <c r="C27" s="80"/>
       <c r="D27" s="81"/>
@@ -5884,7 +5884,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="94"/>
+      <c r="A28" s="95"/>
       <c r="B28" s="80"/>
       <c r="C28" s="80"/>
       <c r="D28" s="81"/>
@@ -5895,7 +5895,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="94"/>
+      <c r="A29" s="95"/>
       <c r="B29" s="80"/>
       <c r="C29" s="80"/>
       <c r="D29" s="81"/>
@@ -5906,7 +5906,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="94"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="80"/>
       <c r="C30" s="80"/>
       <c r="D30" s="81"/>
@@ -5917,7 +5917,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="94"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="80"/>
       <c r="C31" s="80"/>
       <c r="D31" s="81"/>
@@ -5928,7 +5928,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="95" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="80" t="s">
@@ -5955,7 +5955,7 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="94"/>
+      <c r="A33" s="95"/>
       <c r="B33" s="80" t="s">
         <v>527</v>
       </c>
@@ -5981,7 +5981,7 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="94"/>
+      <c r="A34" s="95"/>
       <c r="B34" s="80" t="s">
         <v>507</v>
       </c>
@@ -6007,7 +6007,7 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="94"/>
+      <c r="A35" s="95"/>
       <c r="B35" s="80" t="s">
         <v>528</v>
       </c>
@@ -6033,7 +6033,7 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="94"/>
+      <c r="A36" s="95"/>
       <c r="B36" s="80" t="s">
         <v>529</v>
       </c>
@@ -6059,7 +6059,7 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="94"/>
+      <c r="A37" s="95"/>
       <c r="B37" s="80" t="s">
         <v>520</v>
       </c>
@@ -6085,7 +6085,7 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="94"/>
+      <c r="A38" s="95"/>
       <c r="B38" s="80" t="s">
         <v>530</v>
       </c>
@@ -6111,7 +6111,7 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="94"/>
+      <c r="A39" s="95"/>
       <c r="B39" s="80" t="s">
         <v>531</v>
       </c>
@@ -6137,7 +6137,7 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="94"/>
+      <c r="A40" s="95"/>
       <c r="B40" s="80" t="s">
         <v>532</v>
       </c>
@@ -6157,7 +6157,7 @@
       <c r="I40" s="84"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="94"/>
+      <c r="A41" s="95"/>
       <c r="B41" s="80" t="s">
         <v>533</v>
       </c>
@@ -6177,7 +6177,7 @@
       <c r="K41" s="81"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="94"/>
+      <c r="A42" s="95"/>
       <c r="B42" s="80" t="s">
         <v>518</v>
       </c>
@@ -6196,7 +6196,7 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="94"/>
+      <c r="A43" s="95"/>
       <c r="B43" s="80" t="s">
         <v>534</v>
       </c>
@@ -6215,7 +6215,7 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="94"/>
+      <c r="A44" s="95"/>
       <c r="B44" s="80" t="s">
         <v>535</v>
       </c>
@@ -6234,7 +6234,7 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="94"/>
+      <c r="A45" s="95"/>
       <c r="B45" s="80"/>
       <c r="C45" s="80"/>
       <c r="D45" s="81"/>
@@ -6245,7 +6245,7 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="94" t="s">
+      <c r="A46" s="95" t="s">
         <v>16</v>
       </c>
       <c r="B46" s="80" t="s">
@@ -6272,7 +6272,7 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="94"/>
+      <c r="A47" s="95"/>
       <c r="B47" s="80" t="s">
         <v>507</v>
       </c>
@@ -6298,7 +6298,7 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="94"/>
+      <c r="A48" s="95"/>
       <c r="B48" s="80" t="s">
         <v>537</v>
       </c>
@@ -6324,7 +6324,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="94"/>
+      <c r="A49" s="95"/>
       <c r="B49" s="80" t="s">
         <v>512</v>
       </c>
@@ -6350,7 +6350,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="94"/>
+      <c r="A50" s="95"/>
       <c r="B50" s="80" t="s">
         <v>518</v>
       </c>
@@ -6376,7 +6376,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="94"/>
+      <c r="A51" s="95"/>
       <c r="B51" s="80" t="s">
         <v>520</v>
       </c>
@@ -6402,7 +6402,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="94"/>
+      <c r="A52" s="95"/>
       <c r="B52" s="80" t="s">
         <v>521</v>
       </c>
@@ -6428,7 +6428,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="94"/>
+      <c r="A53" s="95"/>
       <c r="B53" s="80" t="s">
         <v>538</v>
       </c>
@@ -6454,7 +6454,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="94"/>
+      <c r="A54" s="95"/>
       <c r="B54" s="80" t="s">
         <v>539</v>
       </c>
@@ -6474,7 +6474,7 @@
       <c r="I54" s="84"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="94"/>
+      <c r="A55" s="95"/>
       <c r="B55" s="80" t="s">
         <v>540</v>
       </c>
@@ -6494,7 +6494,7 @@
       <c r="I55" s="84"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="94"/>
+      <c r="A56" s="95"/>
       <c r="B56" s="80" t="s">
         <v>541</v>
       </c>
@@ -6513,7 +6513,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="94"/>
+      <c r="A57" s="95"/>
       <c r="B57" s="80" t="s">
         <v>542</v>
       </c>
@@ -6532,7 +6532,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="94"/>
+      <c r="A58" s="95"/>
       <c r="B58" s="80" t="s">
         <v>543</v>
       </c>
@@ -6551,7 +6551,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="94"/>
+      <c r="A59" s="95"/>
       <c r="B59" s="80"/>
       <c r="C59" s="80"/>
       <c r="D59" s="81"/>
@@ -6562,7 +6562,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="94"/>
+      <c r="A60" s="95"/>
       <c r="B60" s="80"/>
       <c r="C60" s="80"/>
       <c r="D60" s="81"/>
@@ -6573,7 +6573,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="94" t="s">
+      <c r="A61" s="95" t="s">
         <v>17</v>
       </c>
       <c r="B61" s="80" t="s">
@@ -6600,7 +6600,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="94"/>
+      <c r="A62" s="95"/>
       <c r="B62" s="80" t="s">
         <v>545</v>
       </c>
@@ -6626,7 +6626,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="94"/>
+      <c r="A63" s="95"/>
       <c r="B63" s="80" t="s">
         <v>507</v>
       </c>
@@ -6652,7 +6652,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="94"/>
+      <c r="A64" s="95"/>
       <c r="B64" s="80" t="s">
         <v>520</v>
       </c>
@@ -6678,7 +6678,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="94"/>
+      <c r="A65" s="95"/>
       <c r="B65" s="80" t="s">
         <v>546</v>
       </c>
@@ -6704,7 +6704,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="94"/>
+      <c r="A66" s="95"/>
       <c r="B66" s="80" t="s">
         <v>512</v>
       </c>
@@ -6730,7 +6730,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="94"/>
+      <c r="A67" s="95"/>
       <c r="B67" s="80" t="s">
         <v>547</v>
       </c>
@@ -6756,7 +6756,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="94"/>
+      <c r="A68" s="95"/>
       <c r="B68" s="80" t="s">
         <v>518</v>
       </c>
@@ -6782,7 +6782,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="94"/>
+      <c r="A69" s="95"/>
       <c r="B69" s="80" t="s">
         <v>548</v>
       </c>
@@ -6802,7 +6802,7 @@
       <c r="I69" s="84"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="94"/>
+      <c r="A70" s="95"/>
       <c r="B70" s="80" t="s">
         <v>549</v>
       </c>
@@ -6822,7 +6822,7 @@
       <c r="I70" s="84"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="94"/>
+      <c r="A71" s="95"/>
       <c r="B71" s="80" t="s">
         <v>521</v>
       </c>
@@ -6841,7 +6841,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="94"/>
+      <c r="A72" s="95"/>
       <c r="B72" t="s">
         <v>543</v>
       </c>
@@ -6860,16 +6860,16 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="94"/>
+      <c r="A73" s="95"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="94"/>
+      <c r="A74" s="95"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="94"/>
+      <c r="A75" s="95"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="94" t="s">
+      <c r="A76" s="95" t="s">
         <v>19</v>
       </c>
       <c r="B76" s="80" t="s">
@@ -6896,7 +6896,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="94"/>
+      <c r="A77" s="95"/>
       <c r="B77" s="80" t="s">
         <v>550</v>
       </c>
@@ -6922,7 +6922,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="94"/>
+      <c r="A78" s="95"/>
       <c r="B78" s="80" t="s">
         <v>512</v>
       </c>
@@ -6948,7 +6948,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="94"/>
+      <c r="A79" s="95"/>
       <c r="B79" s="80" t="s">
         <v>550</v>
       </c>
@@ -6974,7 +6974,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="94"/>
+      <c r="A80" s="95"/>
       <c r="B80" s="80" t="s">
         <v>518</v>
       </c>
@@ -7000,7 +7000,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="94"/>
+      <c r="A81" s="95"/>
       <c r="B81" s="80" t="s">
         <v>520</v>
       </c>
@@ -7026,7 +7026,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="94"/>
+      <c r="A82" s="95"/>
       <c r="B82" s="80" t="s">
         <v>521</v>
       </c>
@@ -7052,7 +7052,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="94"/>
+      <c r="A83" s="95"/>
       <c r="B83" s="80" t="s">
         <v>551</v>
       </c>
@@ -7078,7 +7078,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="94"/>
+      <c r="A84" s="95"/>
       <c r="B84" s="80" t="s">
         <v>526</v>
       </c>
@@ -7098,7 +7098,7 @@
       <c r="I84" s="84"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="94"/>
+      <c r="A85" s="95"/>
       <c r="B85" s="80" t="s">
         <v>552</v>
       </c>
@@ -7118,7 +7118,7 @@
       <c r="I85" s="84"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="94"/>
+      <c r="A86" s="95"/>
       <c r="B86" s="80" t="s">
         <v>553</v>
       </c>
@@ -7137,7 +7137,7 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="94"/>
+      <c r="A87" s="95"/>
       <c r="B87" s="80" t="s">
         <v>554</v>
       </c>
@@ -7156,7 +7156,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="94"/>
+      <c r="A88" s="95"/>
       <c r="B88" s="80"/>
       <c r="C88" s="80"/>
       <c r="D88" s="81"/>
@@ -7167,7 +7167,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="94"/>
+      <c r="A89" s="95"/>
       <c r="B89" s="80"/>
       <c r="C89" s="80"/>
       <c r="D89" s="81"/>
@@ -7178,7 +7178,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="94"/>
+      <c r="A90" s="95"/>
       <c r="B90" s="80"/>
       <c r="C90" s="80"/>
       <c r="D90" s="81"/>
@@ -7189,7 +7189,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="94" t="s">
+      <c r="A91" s="95" t="s">
         <v>20</v>
       </c>
       <c r="B91" s="80" t="s">
@@ -7216,7 +7216,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="94"/>
+      <c r="A92" s="95"/>
       <c r="B92" s="80" t="s">
         <v>550</v>
       </c>
@@ -7242,7 +7242,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="94"/>
+      <c r="A93" s="95"/>
       <c r="B93" s="80" t="s">
         <v>512</v>
       </c>
@@ -7268,7 +7268,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="94"/>
+      <c r="A94" s="95"/>
       <c r="B94" s="80" t="s">
         <v>550</v>
       </c>
@@ -7294,7 +7294,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="94"/>
+      <c r="A95" s="95"/>
       <c r="B95" s="80" t="s">
         <v>518</v>
       </c>
@@ -7320,7 +7320,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="94"/>
+      <c r="A96" s="95"/>
       <c r="B96" s="80" t="s">
         <v>520</v>
       </c>
@@ -7346,7 +7346,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="94"/>
+      <c r="A97" s="95"/>
       <c r="B97" s="80" t="s">
         <v>521</v>
       </c>
@@ -7372,7 +7372,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="94"/>
+      <c r="A98" s="95"/>
       <c r="B98" s="80" t="s">
         <v>555</v>
       </c>
@@ -7398,7 +7398,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="94"/>
+      <c r="A99" s="95"/>
       <c r="B99" s="80" t="s">
         <v>556</v>
       </c>
@@ -7418,7 +7418,7 @@
       <c r="I99" s="84"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="94"/>
+      <c r="A100" s="95"/>
       <c r="B100" s="80" t="s">
         <v>544</v>
       </c>
@@ -7438,7 +7438,7 @@
       <c r="I100" s="84"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="94"/>
+      <c r="A101" s="95"/>
       <c r="B101" s="80" t="s">
         <v>535</v>
       </c>
@@ -7457,7 +7457,7 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="94"/>
+      <c r="A102" s="95"/>
       <c r="B102" s="80" t="s">
         <v>557</v>
       </c>
@@ -7476,7 +7476,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="94"/>
+      <c r="A103" s="95"/>
       <c r="B103" s="80"/>
       <c r="C103" s="80"/>
       <c r="D103" s="81"/>
@@ -7487,7 +7487,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="94"/>
+      <c r="A104" s="95"/>
       <c r="B104" s="80"/>
       <c r="C104" s="80"/>
       <c r="D104" s="81"/>
@@ -7498,7 +7498,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="94"/>
+      <c r="A105" s="95"/>
       <c r="B105" s="80"/>
       <c r="C105" s="80"/>
       <c r="D105" s="81"/>
@@ -7509,7 +7509,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="94" t="s">
+      <c r="A106" s="95" t="s">
         <v>21</v>
       </c>
       <c r="B106" s="80" t="s">
@@ -7536,14 +7536,14 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="94"/>
+      <c r="A107" s="95"/>
       <c r="B107" s="18" t="s">
         <v>507</v>
       </c>
       <c r="C107" s="80" t="s">
         <v>508</v>
       </c>
-      <c r="D107" s="95">
+      <c r="D107" s="85">
         <v>0.40972222222222227</v>
       </c>
       <c r="E107" s="81">
@@ -7562,7 +7562,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="94"/>
+      <c r="A108" s="95"/>
       <c r="B108" s="80" t="s">
         <v>520</v>
       </c>
@@ -7588,14 +7588,14 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="94"/>
+      <c r="A109" s="95"/>
       <c r="B109" s="18" t="s">
         <v>512</v>
       </c>
       <c r="C109" s="80" t="s">
         <v>513</v>
       </c>
-      <c r="D109" s="95">
+      <c r="D109" s="85">
         <v>0.4916666666666667</v>
       </c>
       <c r="E109" s="81">
@@ -7614,7 +7614,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="94"/>
+      <c r="A110" s="95"/>
       <c r="B110" s="80" t="s">
         <v>518</v>
       </c>
@@ -7640,7 +7640,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="94"/>
+      <c r="A111" s="95"/>
       <c r="B111" s="18" t="s">
         <v>558</v>
       </c>
@@ -7666,7 +7666,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="94"/>
+      <c r="A112" s="95"/>
       <c r="B112" s="80" t="s">
         <v>559</v>
       </c>
@@ -7692,7 +7692,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="94"/>
+      <c r="A113" s="95"/>
       <c r="B113" s="80" t="s">
         <v>560</v>
       </c>
@@ -7718,7 +7718,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="94"/>
+      <c r="A114" s="95"/>
       <c r="B114" t="s">
         <v>561</v>
       </c>
@@ -7738,7 +7738,7 @@
       <c r="I114" s="84"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="94"/>
+      <c r="A115" s="95"/>
       <c r="B115" s="80" t="s">
         <v>562</v>
       </c>
@@ -7758,14 +7758,14 @@
       <c r="I115" s="84"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="94"/>
+      <c r="A116" s="95"/>
       <c r="B116" s="80" t="s">
         <v>563</v>
       </c>
       <c r="C116" s="80" t="s">
         <v>504</v>
       </c>
-      <c r="D116" s="95">
+      <c r="D116" s="85">
         <v>0.72222222222222221</v>
       </c>
       <c r="E116" s="81">
@@ -7777,7 +7777,7 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="94"/>
+      <c r="A117" s="95"/>
       <c r="B117" s="80"/>
       <c r="C117" s="80"/>
       <c r="D117" s="81"/>
@@ -7788,7 +7788,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="94"/>
+      <c r="A118" s="95"/>
       <c r="B118" s="80"/>
       <c r="C118" s="80"/>
       <c r="D118" s="81"/>
@@ -7799,7 +7799,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="94"/>
+      <c r="A119" s="95"/>
       <c r="B119" s="80"/>
       <c r="C119" s="80"/>
       <c r="D119" s="81"/>
@@ -7810,7 +7810,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="94"/>
+      <c r="A120" s="95"/>
       <c r="B120" s="80"/>
       <c r="C120" s="80"/>
       <c r="D120" s="81"/>
@@ -7821,7 +7821,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="94" t="s">
+      <c r="A121" s="95" t="s">
         <v>22</v>
       </c>
       <c r="B121" s="80" t="s">
@@ -7848,7 +7848,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="94"/>
+      <c r="A122" s="95"/>
       <c r="B122" s="18" t="s">
         <v>507</v>
       </c>
@@ -7874,7 +7874,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="94"/>
+      <c r="A123" s="95"/>
       <c r="B123" s="80" t="s">
         <v>565</v>
       </c>
@@ -7900,7 +7900,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="94"/>
+      <c r="A124" s="95"/>
       <c r="B124" s="80" t="s">
         <v>512</v>
       </c>
@@ -7926,7 +7926,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="94"/>
+      <c r="A125" s="95"/>
       <c r="B125" s="80" t="s">
         <v>518</v>
       </c>
@@ -7952,7 +7952,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="94"/>
+      <c r="A126" s="95"/>
       <c r="B126" s="80" t="s">
         <v>520</v>
       </c>
@@ -7978,7 +7978,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="94"/>
+      <c r="A127" s="95"/>
       <c r="B127" s="80" t="s">
         <v>521</v>
       </c>
@@ -8004,7 +8004,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="94"/>
+      <c r="A128" s="95"/>
       <c r="B128" s="80" t="s">
         <v>566</v>
       </c>
@@ -8030,7 +8030,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="94"/>
+      <c r="A129" s="95"/>
       <c r="B129" s="80" t="s">
         <v>567</v>
       </c>
@@ -8050,7 +8050,7 @@
       <c r="I129" s="84"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="94"/>
+      <c r="A130" s="95"/>
       <c r="B130" s="80" t="s">
         <v>568</v>
       </c>
@@ -8070,7 +8070,7 @@
       <c r="I130" s="84"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="94"/>
+      <c r="A131" s="95"/>
       <c r="B131" s="80" t="s">
         <v>569</v>
       </c>
@@ -8089,7 +8089,7 @@
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="94"/>
+      <c r="A132" s="95"/>
       <c r="B132" s="80" t="s">
         <v>547</v>
       </c>
@@ -8108,7 +8108,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="94"/>
+      <c r="A133" s="95"/>
       <c r="B133" s="80" t="s">
         <v>570</v>
       </c>
@@ -8127,7 +8127,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="94"/>
+      <c r="A134" s="95"/>
       <c r="B134" s="80"/>
       <c r="C134" s="80"/>
       <c r="D134" s="81"/>
@@ -8138,7 +8138,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="94"/>
+      <c r="A135" s="95"/>
       <c r="B135" s="80"/>
       <c r="C135" s="80"/>
       <c r="D135" s="81"/>
@@ -8149,7 +8149,7 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="94" t="s">
+      <c r="A136" s="95" t="s">
         <v>24</v>
       </c>
       <c r="B136" s="80" t="s">
@@ -8176,7 +8176,7 @@
       </c>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="94"/>
+      <c r="A137" s="95"/>
       <c r="B137" s="80" t="s">
         <v>572</v>
       </c>
@@ -8202,7 +8202,7 @@
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="94"/>
+      <c r="A138" s="95"/>
       <c r="B138" s="80" t="s">
         <v>507</v>
       </c>
@@ -8228,7 +8228,7 @@
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="94"/>
+      <c r="A139" s="95"/>
       <c r="B139" s="80" t="s">
         <v>573</v>
       </c>
@@ -8254,7 +8254,7 @@
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="94"/>
+      <c r="A140" s="95"/>
       <c r="B140" s="80" t="s">
         <v>513</v>
       </c>
@@ -8280,7 +8280,7 @@
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="94"/>
+      <c r="A141" s="95"/>
       <c r="B141" s="80" t="s">
         <v>547</v>
       </c>
@@ -8306,7 +8306,7 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="94"/>
+      <c r="A142" s="95"/>
       <c r="B142" s="80" t="s">
         <v>574</v>
       </c>
@@ -8332,7 +8332,7 @@
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="94"/>
+      <c r="A143" s="95"/>
       <c r="B143" s="80" t="s">
         <v>575</v>
       </c>
@@ -8358,7 +8358,7 @@
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="94"/>
+      <c r="A144" s="95"/>
       <c r="B144" s="80" t="s">
         <v>576</v>
       </c>
@@ -8378,7 +8378,7 @@
       <c r="I144" s="84"/>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="94"/>
+      <c r="A145" s="95"/>
       <c r="B145" s="80"/>
       <c r="C145" s="80"/>
       <c r="D145" s="81"/>
@@ -8390,7 +8390,7 @@
       <c r="I145" s="84"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="94"/>
+      <c r="A146" s="95"/>
       <c r="B146" s="80" t="s">
         <v>518</v>
       </c>
@@ -8409,7 +8409,7 @@
       </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="94"/>
+      <c r="A147" s="95"/>
       <c r="B147" s="80" t="s">
         <v>520</v>
       </c>
@@ -8428,7 +8428,7 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="94"/>
+      <c r="A148" s="95"/>
       <c r="B148" s="80" t="s">
         <v>521</v>
       </c>
@@ -8447,7 +8447,7 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="94"/>
+      <c r="A149" s="95"/>
       <c r="B149" s="80"/>
       <c r="C149" s="80"/>
       <c r="D149" s="81"/>
@@ -8458,7 +8458,7 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="94"/>
+      <c r="A150" s="95"/>
       <c r="B150" s="80"/>
       <c r="C150" s="80"/>
       <c r="D150" s="81"/>
@@ -8469,7 +8469,7 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="94" t="s">
+      <c r="A151" s="95" t="s">
         <v>23</v>
       </c>
       <c r="B151" s="80" t="s">
@@ -8496,7 +8496,7 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="94"/>
+      <c r="A152" s="95"/>
       <c r="B152" s="80" t="s">
         <v>550</v>
       </c>
@@ -8522,7 +8522,7 @@
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="94"/>
+      <c r="A153" s="95"/>
       <c r="B153" s="80" t="s">
         <v>512</v>
       </c>
@@ -8548,7 +8548,7 @@
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="94"/>
+      <c r="A154" s="95"/>
       <c r="B154" s="80" t="s">
         <v>550</v>
       </c>
@@ -8574,7 +8574,7 @@
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="94"/>
+      <c r="A155" s="95"/>
       <c r="B155" s="80" t="s">
         <v>518</v>
       </c>
@@ -8600,7 +8600,7 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="94"/>
+      <c r="A156" s="95"/>
       <c r="B156" s="80" t="s">
         <v>520</v>
       </c>
@@ -8626,7 +8626,7 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="94"/>
+      <c r="A157" s="95"/>
       <c r="B157" s="80" t="s">
         <v>521</v>
       </c>
@@ -8652,7 +8652,7 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="94"/>
+      <c r="A158" s="95"/>
       <c r="B158" s="80" t="s">
         <v>577</v>
       </c>
@@ -8678,7 +8678,7 @@
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="94"/>
+      <c r="A159" s="95"/>
       <c r="B159" s="80" t="s">
         <v>545</v>
       </c>
@@ -8698,7 +8698,7 @@
       <c r="I159" s="84"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="94"/>
+      <c r="A160" s="95"/>
       <c r="B160" s="80"/>
       <c r="C160" s="80"/>
       <c r="D160" s="81"/>
@@ -8710,7 +8710,7 @@
       <c r="I160" s="84"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="94"/>
+      <c r="A161" s="95"/>
       <c r="B161" s="80"/>
       <c r="C161" s="80"/>
       <c r="D161" s="81"/>
@@ -8721,7 +8721,7 @@
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="94"/>
+      <c r="A162" s="95"/>
       <c r="B162" s="80"/>
       <c r="C162" s="80"/>
       <c r="D162" s="81"/>
@@ -8732,7 +8732,7 @@
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="94"/>
+      <c r="A163" s="95"/>
       <c r="B163" s="80"/>
       <c r="C163" s="80"/>
       <c r="D163" s="81"/>
@@ -8743,7 +8743,7 @@
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="94"/>
+      <c r="A164" s="95"/>
       <c r="B164" s="80"/>
       <c r="C164" s="80"/>
       <c r="D164" s="81"/>
@@ -8754,7 +8754,7 @@
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="94"/>
+      <c r="A165" s="95"/>
       <c r="B165" s="80"/>
       <c r="C165" s="80"/>
       <c r="D165" s="81"/>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0BD6D78-F6E5-45B5-AE58-9B1E3B809844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FF12E81-3057-4EBA-B997-A21C2DF3204D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="559">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1548,16 +1548,10 @@
     <t>3.10 hrs</t>
   </si>
   <si>
-    <t>web api Services and web api exploration</t>
-  </si>
-  <si>
-    <t>20:00-21:00 : reviewing and understanding the Api services,
-21:00-23:00 : Learning Angular&lt;Components and lifecycle&gt;,
-TOTAL-3 hrs</t>
-  </si>
-  <si>
-    <t>8:00-17:00 : Went college for internals ,
-TOTAL -9 hrs</t>
+    <t>Web api (Debugging Errors-(8:15-9:00),                    repository(9:00-9:44),(10:40-12:00) ,                                 Estimation and discussion(12:00-12-33),Meeting with Rafi(12:36-12:52),Timesheet update(2:00-2:15),</t>
+  </si>
+  <si>
+    <t>Softskill session(9:44-10:33),Break(1:05-1:40),sending mail for installation(2:40-2:45),Webapi exploring(3:00-3:30),college call(3:30-3:45),Break(3:45-4:00),System installation (4:00-4:25),</t>
   </si>
   <si>
     <t xml:space="preserve">Web Api exploration,
@@ -1830,13 +1824,13 @@
     <t>Api Swagger Testing</t>
   </si>
   <si>
-    <t>Went to College for internal exams</t>
-  </si>
-  <si>
-    <t>understanding and reviewing  API services</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;Components and life cycle&gt;</t>
+    <t>Soft Skill</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Topics&gt;</t>
+  </si>
+  <si>
+    <t>Working on HTML layout</t>
   </si>
   <si>
     <t>Time Sheet</t>
@@ -1857,100 +1851,58 @@
     <t>helping other team with ui</t>
   </si>
   <si>
-    <t>fixing errors in user services</t>
-  </si>
-  <si>
-    <t>ef core exploration</t>
-  </si>
-  <si>
     <t>CRUD Operation in user Services</t>
   </si>
   <si>
+    <t>Time Sheet Updating</t>
+  </si>
+  <si>
+    <t>Estimation for Dashboard</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Typescript Introduction and  Installation&gt;</t>
+  </si>
+  <si>
+    <t>Discussion about Services with Arul and Spliting Services</t>
+  </si>
+  <si>
+    <t>Service-Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updating TimeSheet </t>
+  </si>
+  <si>
+    <t>Estimation Preparation</t>
+  </si>
+  <si>
+    <t>Web API Exploration</t>
+  </si>
+  <si>
+    <t>Working on Feedback services</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;TypeScript Introduction and Simple Examples&gt;</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Introduction of Typescript , VS code Installation&gt;</t>
+  </si>
+  <si>
+    <t>Service Discussion with Arul and Spliting the Service</t>
+  </si>
+  <si>
+    <t>Service-Course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared for Internal Review </t>
+  </si>
+  <si>
     <t>Technical Session</t>
   </si>
   <si>
-    <t>Time Sheet Updating</t>
-  </si>
-  <si>
-    <t>Estimation for Dashboard</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;Typescript Introduction and  Installation&gt;</t>
-  </si>
-  <si>
-    <t>Discussion about Services with Arul and Spliting Services</t>
-  </si>
-  <si>
-    <t>Service-Review</t>
-  </si>
-  <si>
-    <t>Web API User Service Exploration with Gokul</t>
-  </si>
-  <si>
-    <t>Discussion about Timesheet and Team performance Index with Rafi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimation Discussion </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Updating TimeSheet </t>
-  </si>
-  <si>
-    <t>Working on HTML layout</t>
-  </si>
-  <si>
-    <t>Estimation Preparation</t>
-  </si>
-  <si>
-    <t>Web API Exploration (user services) with gokul</t>
-  </si>
-  <si>
-    <t>Working on Feedback services</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;TypeScript Introduction and Simple Examples&gt;</t>
-  </si>
-  <si>
-    <t>Soft Skill</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;Introduction of Typescript , VS code Installation&gt;</t>
-  </si>
-  <si>
-    <t>Service Discussion with Arul and Spliting the Service</t>
-  </si>
-  <si>
-    <t>Service-Course</t>
-  </si>
-  <si>
-    <t>Discussion about New Timesheet And Team Performance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepared for Internal Review </t>
-  </si>
-  <si>
-    <t>Session about Serivces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepared for Internal review </t>
-  </si>
-  <si>
-    <t>Working on WebAPI (Review  services)</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;data type,variable,type script &gt;</t>
-  </si>
-  <si>
-    <t>evening Break</t>
-  </si>
-  <si>
-    <t>Understanding the Department,User Services</t>
-  </si>
-  <si>
-    <t>Estimation for Coordinator list page</t>
-  </si>
-  <si>
-    <t>Reworking on model(review service)</t>
+    <t>Working on WebAPI (Review )</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;data type &gt;</t>
   </si>
   <si>
     <t>Timesheet Updating</t>
@@ -1971,28 +1923,16 @@
     <t>Estimation for unique pages</t>
   </si>
   <si>
-    <t>discussion about the rank table</t>
-  </si>
-  <si>
     <t>Timesheet</t>
   </si>
   <si>
-    <t>Working on HTML layout (Refining)</t>
+    <t>Pulling from git and Web API exploration</t>
   </si>
   <si>
     <t>Estimation for department page</t>
   </si>
   <si>
-    <t>Discussion on services and spliting the services</t>
-  </si>
-  <si>
-    <t>Angular session &lt;Typescript introduction&gt;</t>
-  </si>
-  <si>
-    <t>Pulling from git  (Web API), Exploring and working on department services</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;Topics&gt;</t>
+    <t>013:00:00</t>
   </si>
 </sst>
 </file>
@@ -2510,7 +2450,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2541,6 +2480,7 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="21" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3887,14 +3827,14 @@
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="87"/>
     </row>
     <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="16" t="s">
@@ -4398,14 +4338,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="88" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:22" ht="101.25" customHeight="1">
       <c r="A4" s="16" t="s">
@@ -4648,14 +4588,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="88" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:7" ht="49.5">
       <c r="A4" s="16" t="s">
@@ -4765,27 +4705,27 @@
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="91" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="94"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="93"/>
     </row>
     <row r="11" spans="1:7" ht="36.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="91" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="94"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="93"/>
     </row>
     <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
@@ -5063,7 +5003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7172FC-5606-4FD6-B7B3-02AB5BD496A0}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -5122,15 +5062,15 @@
         <v>9</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>468</v>
+        <v>346</v>
       </c>
       <c r="C3" s="58"/>
       <c r="D3" s="58"/>
       <c r="E3" s="59" t="s">
+        <v>468</v>
+      </c>
+      <c r="F3" s="59" t="s">
         <v>469</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>470</v>
       </c>
       <c r="G3" s="71"/>
     </row>
@@ -5139,10 +5079,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="60" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4" s="60" t="s">
         <v>471</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>472</v>
       </c>
       <c r="D4" s="61"/>
       <c r="E4" s="61" t="s">
@@ -5158,17 +5098,17 @@
         <v>16</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C5" s="58" t="s">
         <v>319</v>
       </c>
       <c r="D5" s="58"/>
       <c r="E5" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="F5" s="75" t="s">
         <v>474</v>
-      </c>
-      <c r="F5" s="75" t="s">
-        <v>475</v>
       </c>
       <c r="G5" s="54"/>
     </row>
@@ -5178,14 +5118,14 @@
       </c>
       <c r="B6" s="63"/>
       <c r="C6" s="58" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D6" s="58"/>
       <c r="E6" s="64" t="s">
+        <v>476</v>
+      </c>
+      <c r="F6" s="64" t="s">
         <v>477</v>
-      </c>
-      <c r="F6" s="64" t="s">
-        <v>478</v>
       </c>
       <c r="G6" s="72"/>
     </row>
@@ -5194,17 +5134,17 @@
         <v>19</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D7" s="58"/>
       <c r="E7" s="64" t="s">
+        <v>479</v>
+      </c>
+      <c r="F7" s="64" t="s">
         <v>480</v>
-      </c>
-      <c r="F7" s="64" t="s">
-        <v>481</v>
       </c>
       <c r="G7" s="70"/>
     </row>
@@ -5214,14 +5154,14 @@
       </c>
       <c r="B8" s="65"/>
       <c r="C8" s="74" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D8" s="58"/>
       <c r="E8" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="F8" s="65" t="s">
         <v>483</v>
-      </c>
-      <c r="F8" s="65" t="s">
-        <v>484</v>
       </c>
       <c r="G8" s="70"/>
     </row>
@@ -5233,14 +5173,14 @@
         <v>302</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D9" s="58"/>
       <c r="E9" s="64" t="s">
+        <v>485</v>
+      </c>
+      <c r="F9" s="59" t="s">
         <v>486</v>
-      </c>
-      <c r="F9" s="59" t="s">
-        <v>487</v>
       </c>
       <c r="G9" s="70"/>
     </row>
@@ -5249,17 +5189,17 @@
         <v>22</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C10" s="58" t="s">
         <v>319</v>
       </c>
       <c r="D10" s="58"/>
       <c r="E10" s="58" t="s">
+        <v>488</v>
+      </c>
+      <c r="F10" s="58" t="s">
         <v>489</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>490</v>
       </c>
       <c r="G10" s="70"/>
     </row>
@@ -5268,17 +5208,17 @@
         <v>24</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C11" s="76" t="s">
         <v>319</v>
       </c>
       <c r="D11" s="66"/>
       <c r="E11" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="F11" s="64" t="s">
         <v>492</v>
-      </c>
-      <c r="F11" s="64" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="141.75" customHeight="1">
@@ -5287,14 +5227,14 @@
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="67" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="68" t="s">
+        <v>494</v>
+      </c>
+      <c r="F12" s="59" t="s">
         <v>495</v>
-      </c>
-      <c r="F12" s="59" t="s">
-        <v>496</v>
       </c>
       <c r="G12" s="73"/>
     </row>
@@ -5310,8 +5250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C319A4C-EADA-4641-96D7-D7B692B906C8}">
   <dimension ref="A1:Q165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="E134" sqref="E134"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5330,34 +5270,34 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="78" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1" s="78" t="s">
         <v>497</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="C1" s="78" t="s">
         <v>498</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="D1" s="79" t="s">
         <v>499</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="E1" s="79" t="s">
         <v>500</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="F1" s="79" t="s">
         <v>501</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="G1" s="82"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="80" t="s">
         <v>502</v>
       </c>
-      <c r="G1" s="82"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="80" t="s">
+      <c r="C2" s="80" t="s">
         <v>503</v>
-      </c>
-      <c r="C2" s="80" t="s">
-        <v>504</v>
       </c>
       <c r="D2" s="81">
         <v>0.36458333333333331</v>
@@ -5370,22 +5310,22 @@
         <v>1.7361111111111105E-2</v>
       </c>
       <c r="H2" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="I2" s="79" t="s">
         <v>505</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="Q2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="94"/>
+      <c r="B3" s="80" t="s">
         <v>506</v>
       </c>
-      <c r="Q2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="95"/>
-      <c r="B3" s="80" t="s">
+      <c r="C3" s="80" t="s">
         <v>507</v>
-      </c>
-      <c r="C3" s="80" t="s">
-        <v>508</v>
       </c>
       <c r="D3" s="81">
         <v>0.40972222222222227</v>
@@ -5398,23 +5338,23 @@
         <v>3.125E-2</v>
       </c>
       <c r="H3" s="83" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I3" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H3)</f>
         <v>0.14583333333333331</v>
       </c>
       <c r="Q3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="94"/>
+      <c r="B4" s="80" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="95"/>
-      <c r="B4" s="80" t="s">
-        <v>510</v>
-      </c>
       <c r="C4" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D4" s="81">
         <v>0.44097222222222227</v>
@@ -5427,23 +5367,23 @@
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="H4" s="83" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I4" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H4)</f>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="Q4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="94"/>
+      <c r="B5" s="80" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="95"/>
-      <c r="B5" s="80" t="s">
+      <c r="C5" s="80" t="s">
         <v>512</v>
-      </c>
-      <c r="C5" s="80" t="s">
-        <v>513</v>
       </c>
       <c r="D5" s="81">
         <v>0.48958333333333331</v>
@@ -5452,27 +5392,27 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="F5" s="81">
-        <f>E5-D5</f>
+        <f t="shared" ref="F5" si="1">E5-D5</f>
         <v>2.7777777777777735E-2</v>
       </c>
       <c r="H5" s="83" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I5" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H5)</f>
         <v>6.25E-2</v>
       </c>
       <c r="Q5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="95"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="80" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D6" s="81">
         <v>0.64583333333333337</v>
@@ -5485,23 +5425,23 @@
         <v>6.25E-2</v>
       </c>
       <c r="H6" s="83" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I6" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H6)</f>
         <v>3.125E-2</v>
       </c>
       <c r="Q6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="95"/>
+      <c r="A7" s="94"/>
       <c r="B7" s="80" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D7" s="81">
         <v>0.63541666666666663</v>
@@ -5514,23 +5454,23 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="H7" s="83" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I7" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H7)</f>
         <v>2.7777777777777735E-2</v>
       </c>
       <c r="Q7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="94"/>
+      <c r="B8" s="80" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="95"/>
-      <c r="B8" s="80" t="s">
-        <v>517</v>
-      </c>
       <c r="C8" s="80" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D8" s="81">
         <v>0.58333333333333337</v>
@@ -5539,11 +5479,11 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="F8" s="81">
-        <f>E8-D8</f>
+        <f t="shared" ref="F8" si="2">E8-D8</f>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="H8" s="83" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I8" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H8)</f>
@@ -5551,12 +5491,12 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="95"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="80" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D9" s="81">
         <v>0.54166666666666663</v>
@@ -5569,7 +5509,7 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="H9" s="78" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I9" s="79">
         <f>SUM(I3:I8)</f>
@@ -5577,12 +5517,12 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="95"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="80" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D10" s="81">
         <v>0.43055555555555558</v>
@@ -5597,12 +5537,12 @@
       <c r="I10" s="84"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="95"/>
+      <c r="A11" s="94"/>
       <c r="B11" s="80" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C11" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D11" s="81">
         <v>0.69791666666666663</v>
@@ -5617,12 +5557,12 @@
       <c r="I11" s="84"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="95"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="80" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D12" s="81">
         <v>0.70833333333333337</v>
@@ -5631,34 +5571,34 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="F12" s="81">
-        <f>E12-D12</f>
+        <f t="shared" ref="F12:F14" si="3">E12-D12</f>
         <v>2.777777777777779E-2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="95"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
       <c r="D13" s="81"/>
       <c r="E13" s="81"/>
       <c r="F13" s="81">
-        <f>E13-D13</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="95"/>
+      <c r="A14" s="94"/>
       <c r="B14" s="80"/>
       <c r="C14" s="80"/>
       <c r="D14" s="81"/>
       <c r="E14" s="81"/>
       <c r="F14" s="81">
-        <f>E14-D14</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="95"/>
+      <c r="A15" s="94"/>
       <c r="B15" s="80"/>
       <c r="C15" s="80"/>
       <c r="D15" s="81"/>
@@ -5669,7 +5609,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="95"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="80"/>
       <c r="C16" s="80"/>
       <c r="D16" s="81"/>
@@ -5680,188 +5620,236 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="94" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="80" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D17" s="81">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E17" s="81">
-        <v>17.708333333333332</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="F17" s="81">
         <f t="shared" si="0"/>
-        <v>17.333333333333332</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H17" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="I17" s="79" t="s">
         <v>505</v>
       </c>
-      <c r="I17" s="79" t="s">
-        <v>506</v>
-      </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="95"/>
+      <c r="A18" s="94"/>
       <c r="B18" s="80" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D18" s="81">
-        <v>0.83333333333333337</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="E18" s="81">
-        <v>21.875</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F18" s="81">
         <f t="shared" si="0"/>
-        <v>21.041666666666668</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H18" s="83" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I18" s="81">
-        <f t="shared" ref="I18" si="1">SUMIFS(F17:F31, C17:C31,H18)</f>
-        <v>21.125</v>
+        <f t="shared" ref="I18" si="4">SUMIFS(F17:F31, C17:C31,H18)</f>
+        <v>0.22916666666666674</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="95"/>
+      <c r="A19" s="94"/>
       <c r="B19" s="80" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D19" s="81">
-        <v>21.875</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E19" s="81">
-        <v>21.958333333333332</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="F19" s="81">
         <f t="shared" si="0"/>
-        <v>8.3333333333332149E-2</v>
+        <v>1.3888888888888951E-2</v>
       </c>
       <c r="H19" s="83" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I19" s="81">
-        <f t="shared" ref="I19" si="2">SUMIFS(F17:F31, C17:C31,H19)</f>
-        <v>17.333333333333332</v>
+        <f t="shared" ref="I19" si="5">SUMIFS(F17:F31, C17:C31,H19)</f>
+        <v>7.2916666666666685E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="95"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="80" t="s">
+        <v>522</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D20" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E20" s="81">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="F20" s="81">
         <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H20" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I20" s="81">
+        <f t="shared" ref="I20" si="6">SUMIFS(F17:F31, C17:C31,H20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="83" t="s">
-        <v>511</v>
-      </c>
-      <c r="I20" s="81">
-        <f t="shared" ref="I20" si="3">SUMIFS(F17:F31, C17:C31,H20)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="95"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="80" t="s">
+        <v>517</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D21" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E21" s="81">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="F21" s="81">
         <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H21" s="83" t="s">
+        <v>507</v>
+      </c>
+      <c r="I21" s="81">
+        <f t="shared" ref="I21" si="7">SUMIFS(F17:F31, C17:C31,H21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="83" t="s">
-        <v>508</v>
-      </c>
-      <c r="I21" s="81">
-        <f t="shared" ref="I21" si="4">SUMIFS(F17:F31, C17:C31,H21)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="95"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="80" t="s">
+        <v>519</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D22" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E22" s="81">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="F22" s="81">
         <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H22" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I22" s="81">
+        <f t="shared" ref="I22" si="8">SUMIFS(F17:F31, C17:C31,H22)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="83" t="s">
-        <v>513</v>
-      </c>
-      <c r="I22" s="81">
-        <f t="shared" ref="I22" si="5">SUMIFS(F17:F31, C17:C31,H22)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="95"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C23" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D23" s="81">
+        <v>0.65625</v>
+      </c>
+      <c r="E23" s="81">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F23" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H23" s="83" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I23" s="81">
-        <f t="shared" ref="I23" si="6">SUMIFS(F17:F31, C17:C31,H23)</f>
-        <v>0</v>
+        <f t="shared" ref="I23" si="9">SUMIFS(F17:F31, C17:C31,H23)</f>
+        <v>3.8194444444444309E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="95"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="80" t="s">
+        <v>523</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D24" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E24" s="81">
+        <v>0.75</v>
+      </c>
       <c r="F24" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="H24" s="78" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I24" s="79">
-        <f t="shared" ref="I24" si="7">SUM(I18:I23)</f>
-        <v>38.458333333333329</v>
+        <f t="shared" ref="I24" si="10">SUM(I18:I23)</f>
+        <v>0.34027777777777773</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="95"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
+      <c r="A25" s="94"/>
+      <c r="B25" s="80" t="s">
+        <v>524</v>
+      </c>
+      <c r="C25" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D25" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="E25" s="81">
+        <v>0.875</v>
+      </c>
       <c r="F25" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="I25" s="84"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="95"/>
+      <c r="A26" s="94"/>
       <c r="B26" s="80"/>
       <c r="C26" s="80"/>
       <c r="D26" s="81"/>
@@ -5873,7 +5861,7 @@
       <c r="I26" s="84"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="95"/>
+      <c r="A27" s="94"/>
       <c r="B27" s="80"/>
       <c r="C27" s="80"/>
       <c r="D27" s="81"/>
@@ -5884,7 +5872,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="95"/>
+      <c r="A28" s="94"/>
       <c r="B28" s="80"/>
       <c r="C28" s="80"/>
       <c r="D28" s="81"/>
@@ -5895,7 +5883,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="95"/>
+      <c r="A29" s="94"/>
       <c r="B29" s="80"/>
       <c r="C29" s="80"/>
       <c r="D29" s="81"/>
@@ -5906,7 +5894,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="95"/>
+      <c r="A30" s="94"/>
       <c r="B30" s="80"/>
       <c r="C30" s="80"/>
       <c r="D30" s="81"/>
@@ -5917,7 +5905,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="95"/>
+      <c r="A31" s="94"/>
       <c r="B31" s="80"/>
       <c r="C31" s="80"/>
       <c r="D31" s="81"/>
@@ -5928,14 +5916,14 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="95" t="s">
+      <c r="A32" s="94" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="80" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C32" s="80" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D32" s="81">
         <v>0.375</v>
@@ -5948,19 +5936,19 @@
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="H32" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="I32" s="79" t="s">
         <v>505</v>
       </c>
-      <c r="I32" s="79" t="s">
-        <v>506</v>
-      </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="95"/>
+      <c r="A33" s="94"/>
       <c r="B33" s="80" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C33" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D33" s="81">
         <v>0.3888888888888889</v>
@@ -5973,20 +5961,20 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H33" s="83" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I33" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H33)</f>
-        <v>0.12847222222222221</v>
+        <v>0.11458333333333337</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="95"/>
+      <c r="A34" s="94"/>
       <c r="B34" s="80" t="s">
+        <v>506</v>
+      </c>
+      <c r="C34" s="80" t="s">
         <v>507</v>
-      </c>
-      <c r="C34" s="80" t="s">
-        <v>508</v>
       </c>
       <c r="D34" s="81">
         <v>0.40972222222222227</v>
@@ -5999,7 +5987,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="H34" s="83" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I34" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H34)</f>
@@ -6007,12 +5995,12 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="95"/>
+      <c r="A35" s="94"/>
       <c r="B35" s="80" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C35" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D35" s="81">
         <v>0.44097222222222227</v>
@@ -6025,20 +6013,20 @@
         <v>1.041666666666663E-2</v>
       </c>
       <c r="H35" s="83" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I35" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H35)</f>
-        <v>9.375E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="95"/>
+      <c r="A36" s="94"/>
       <c r="B36" s="80" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C36" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D36" s="81">
         <v>0.4513888888888889</v>
@@ -6051,7 +6039,7 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H36" s="83" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I36" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H36)</f>
@@ -6059,12 +6047,12 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="95"/>
+      <c r="A37" s="94"/>
       <c r="B37" s="80" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C37" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D37" s="81">
         <v>0.47222222222222227</v>
@@ -6077,7 +6065,7 @@
         <v>1.7361111111111049E-2</v>
       </c>
       <c r="H37" s="83" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I37" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H37)</f>
@@ -6085,12 +6073,12 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="95"/>
+      <c r="A38" s="94"/>
       <c r="B38" s="80" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C38" s="80" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D38" s="81">
         <v>0.4916666666666667</v>
@@ -6103,7 +6091,7 @@
         <v>2.3611111111111138E-2</v>
       </c>
       <c r="H38" s="83" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I38" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H38)</f>
@@ -6111,12 +6099,12 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="95"/>
+      <c r="A39" s="94"/>
       <c r="B39" s="80" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C39" s="80" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D39" s="81">
         <v>0.5180555555555556</v>
@@ -6129,60 +6117,44 @@
         <v>9.7222222222221877E-3</v>
       </c>
       <c r="H39" s="78" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I39" s="79">
-        <f t="shared" ref="I39" si="8">SUM(I33:I38)</f>
-        <v>0.35069444444444436</v>
+        <f t="shared" ref="I39" si="11">SUM(I33:I38)</f>
+        <v>0.24305555555555552</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="95"/>
-      <c r="B40" s="80" t="s">
-        <v>532</v>
-      </c>
-      <c r="C40" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D40" s="81">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="E40" s="81">
-        <v>0.54166666666666663</v>
-      </c>
+      <c r="A40" s="94"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
       <c r="F40" s="81">
         <f>E40-D40</f>
-        <v>1.388888888888884E-2</v>
+        <v>0</v>
       </c>
       <c r="I40" s="84"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="95"/>
-      <c r="B41" s="80" t="s">
-        <v>533</v>
-      </c>
-      <c r="C41" s="80" t="s">
-        <v>511</v>
-      </c>
-      <c r="D41" s="81">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E41" s="81">
-        <v>0.73958333333333337</v>
-      </c>
+      <c r="A41" s="94"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
       <c r="F41" s="81">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
       <c r="K41" s="81"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="95"/>
+      <c r="A42" s="94"/>
       <c r="B42" s="80" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C42" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D42" s="81">
         <v>0.54166666666666663</v>
@@ -6196,12 +6168,12 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="95"/>
+      <c r="A43" s="94"/>
       <c r="B43" s="80" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C43" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D43" s="81">
         <v>0.57638888888888895</v>
@@ -6215,26 +6187,18 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="95"/>
-      <c r="B44" s="80" t="s">
-        <v>535</v>
-      </c>
-      <c r="C44" s="80" t="s">
-        <v>511</v>
-      </c>
-      <c r="D44" s="81">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="E44" s="81">
-        <v>0.70833333333333337</v>
-      </c>
+      <c r="A44" s="94"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
       <c r="F44" s="81">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="95"/>
+      <c r="A45" s="94"/>
       <c r="B45" s="80"/>
       <c r="C45" s="80"/>
       <c r="D45" s="81"/>
@@ -6245,14 +6209,14 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="95" t="s">
+      <c r="A46" s="94" t="s">
         <v>16</v>
       </c>
       <c r="B46" s="80" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C46" s="80" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D46" s="81">
         <v>0.375</v>
@@ -6265,19 +6229,19 @@
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="H46" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="I46" s="79" t="s">
         <v>505</v>
       </c>
-      <c r="I46" s="79" t="s">
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="94"/>
+      <c r="B47" s="80" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="95"/>
-      <c r="B47" s="80" t="s">
+      <c r="C47" s="80" t="s">
         <v>507</v>
-      </c>
-      <c r="C47" s="80" t="s">
-        <v>508</v>
       </c>
       <c r="D47" s="81">
         <v>0.40972222222222227</v>
@@ -6290,46 +6254,46 @@
         <v>3.125E-2</v>
       </c>
       <c r="H47" s="83" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I47" s="81">
-        <f t="shared" ref="I47" si="9">SUMIFS(F46:F60, C46:C60,H47)</f>
-        <v>13.149305555555555</v>
+        <f t="shared" ref="I47" si="12">SUMIFS(F46:F60, C46:C60,H47)</f>
+        <v>0.14236111111111099</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="95"/>
+      <c r="A48" s="94"/>
       <c r="B48" s="80" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C48" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D48" s="81">
-        <v>0.47222222222222227</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E48" s="81">
-        <v>0.4861111111111111</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F48" s="81">
         <f t="shared" si="0"/>
-        <v>1.388888888888884E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H48" s="83" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I48" s="81">
-        <f t="shared" ref="I48" si="10">SUMIFS(F46:F60, C46:C60,H48)</f>
-        <v>2.6388888888888962E-2</v>
+        <f t="shared" ref="I48" si="13">SUMIFS(F46:F60, C46:C60,H48)</f>
+        <v>2.0833333333333315E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="95"/>
+      <c r="A49" s="94"/>
       <c r="B49" s="80" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C49" s="80" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="D49" s="81">
         <v>0.48958333333333331</v>
@@ -6342,20 +6306,20 @@
         <v>2.7777777777777735E-2</v>
       </c>
       <c r="H49" s="83" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I49" s="81">
-        <f t="shared" ref="I49" si="11">SUMIFS(F46:F60, C46:C60,H49)</f>
+        <f t="shared" ref="I49" si="14">SUMIFS(F46:F60, C46:C60,H49)</f>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="95"/>
+      <c r="A50" s="94"/>
       <c r="B50" s="80" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C50" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D50" s="81">
         <v>0.54166666666666663</v>
@@ -6368,20 +6332,20 @@
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="H50" s="83" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I50" s="81">
-        <f t="shared" ref="I50" si="12">SUMIFS(F46:F60, C46:C60,H50)</f>
+        <f t="shared" ref="I50" si="15">SUMIFS(F46:F60, C46:C60,H50)</f>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="95"/>
+      <c r="A51" s="94"/>
       <c r="B51" s="80" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C51" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D51" s="81">
         <v>0.44097222222222227</v>
@@ -6394,20 +6358,20 @@
         <v>1.7361111111111049E-2</v>
       </c>
       <c r="H51" s="83" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I51" s="81">
-        <f t="shared" ref="I51" si="13">SUMIFS(F46:F60, C46:C60,H51)</f>
-        <v>2.7777777777777735E-2</v>
+        <f t="shared" ref="I51" si="16">SUMIFS(F46:F60, C46:C60,H51)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="95"/>
+      <c r="A52" s="94"/>
       <c r="B52" s="80" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C52" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D52" s="81">
         <v>0.63541666666666663</v>
@@ -6420,20 +6384,20 @@
         <v>1.0416666666666741E-2</v>
       </c>
       <c r="H52" s="83" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I52" s="81">
-        <f t="shared" ref="I52" si="14">SUMIFS(F46:F60, C46:C60,H52)</f>
+        <f t="shared" ref="I52" si="17">SUMIFS(F46:F60, C46:C60,H52)</f>
         <v>6.9444444444444531E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="95"/>
+      <c r="A53" s="94"/>
       <c r="B53" s="80" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C53" s="80" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D53" s="81">
         <v>0.64583333333333337</v>
@@ -6446,20 +6410,20 @@
         <v>6.25E-2</v>
       </c>
       <c r="H53" s="78" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I53" s="79">
-        <f t="shared" ref="I53" si="15">SUM(I47:I52)</f>
-        <v>13.366666666666667</v>
+        <f t="shared" ref="I53" si="18">SUM(I47:I52)</f>
+        <v>0.32638888888888884</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="95"/>
+      <c r="A54" s="94"/>
       <c r="B54" s="80" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C54" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D54" s="81">
         <v>0.58333333333333337</v>
@@ -6474,12 +6438,12 @@
       <c r="I54" s="84"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="95"/>
+      <c r="A55" s="94"/>
       <c r="B55" s="80" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C55" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D55" s="81">
         <v>0.875</v>
@@ -6494,64 +6458,40 @@
       <c r="I55" s="84"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="95"/>
-      <c r="B56" s="80" t="s">
-        <v>541</v>
-      </c>
-      <c r="C56" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D56" s="81">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E56" s="81">
-        <v>13.541666666666666</v>
-      </c>
+      <c r="A56" s="94"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
       <c r="F56" s="81">
         <f t="shared" si="0"/>
-        <v>13.020833333333332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="95"/>
-      <c r="B57" s="80" t="s">
-        <v>542</v>
-      </c>
-      <c r="C57" s="80" t="s">
-        <v>509</v>
-      </c>
-      <c r="D57" s="81">
-        <v>0.46666666666666662</v>
-      </c>
-      <c r="E57" s="81">
-        <v>0.47222222222222227</v>
-      </c>
+      <c r="A57" s="94"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
       <c r="F57" s="81">
-        <f>E57-D57</f>
-        <v>5.5555555555556468E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="95"/>
-      <c r="B58" s="80" t="s">
-        <v>543</v>
-      </c>
-      <c r="C58" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D58" s="81">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E58" s="81">
-        <v>0.72916666666666663</v>
-      </c>
+      <c r="A58" s="94"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
       <c r="F58" s="81">
-        <f>E58-D58</f>
-        <v>2.0833333333333259E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="95"/>
+      <c r="A59" s="94"/>
       <c r="B59" s="80"/>
       <c r="C59" s="80"/>
       <c r="D59" s="81"/>
@@ -6562,7 +6502,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="95"/>
+      <c r="A60" s="94"/>
       <c r="B60" s="80"/>
       <c r="C60" s="80"/>
       <c r="D60" s="81"/>
@@ -6573,14 +6513,14 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="95" t="s">
+      <c r="A61" s="94" t="s">
         <v>17</v>
       </c>
       <c r="B61" s="80" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C61" s="80" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D61" s="81">
         <v>0.35416666666666669</v>
@@ -6593,19 +6533,19 @@
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="H61" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="I61" s="79" t="s">
         <v>505</v>
       </c>
-      <c r="I61" s="79" t="s">
-        <v>506</v>
-      </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="95"/>
+      <c r="A62" s="94"/>
       <c r="B62" s="80" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="C62" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D62" s="81">
         <v>0.38194444444444442</v>
@@ -6618,20 +6558,20 @@
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="H62" s="83" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I62" s="81">
         <f>SUMIFS(F61:F71, C61:C71,H62)</f>
-        <v>0.10069444444444438</v>
+        <v>7.9861111111111119E-2</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="95"/>
+      <c r="A63" s="94"/>
       <c r="B63" s="80" t="s">
+        <v>506</v>
+      </c>
+      <c r="C63" s="80" t="s">
         <v>507</v>
-      </c>
-      <c r="C63" s="80" t="s">
-        <v>508</v>
       </c>
       <c r="D63" s="81">
         <v>0.40972222222222227</v>
@@ -6644,20 +6584,20 @@
         <v>3.125E-2</v>
       </c>
       <c r="H63" s="83" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I63" s="81">
         <f>SUMIFS(F61:F71, C61:C71,H63)</f>
-        <v>2.0833333333333315E-2</v>
+        <v>4.1666666666666574E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="95"/>
+      <c r="A64" s="94"/>
       <c r="B64" s="80" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C64" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D64" s="81">
         <v>0.44444444444444442</v>
@@ -6670,7 +6610,7 @@
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="H64" s="83" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I64" s="81">
         <f>SUMIFS(F61:F71, C61:C71,H64)</f>
@@ -6678,12 +6618,12 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="95"/>
+      <c r="A65" s="94"/>
       <c r="B65" s="80" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C65" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D65" s="81">
         <v>0.46180555555555558</v>
@@ -6696,7 +6636,7 @@
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="H65" s="83" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I65" s="81">
         <f>SUMIFS(F61:F71, C61:C71,H65)</f>
@@ -6704,12 +6644,12 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="95"/>
+      <c r="A66" s="94"/>
       <c r="B66" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C66" s="80" t="s">
         <v>512</v>
-      </c>
-      <c r="C66" s="80" t="s">
-        <v>513</v>
       </c>
       <c r="D66" s="81">
         <v>0.4916666666666667</v>
@@ -6722,7 +6662,7 @@
         <v>2.3611111111111138E-2</v>
       </c>
       <c r="H66" s="83" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I66" s="81">
         <f>SUMIFS(F61:F71, C61:C71,H66)</f>
@@ -6730,12 +6670,12 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="95"/>
+      <c r="A67" s="94"/>
       <c r="B67" s="80" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C67" s="80" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D67" s="81">
         <v>0.52083333333333337</v>
@@ -6748,7 +6688,7 @@
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="H67" s="83" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I67" s="81">
         <f>SUMIFS(F61:F71, C61:C71,H67)</f>
@@ -6756,12 +6696,12 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="95"/>
+      <c r="A68" s="94"/>
       <c r="B68" s="80" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C68" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D68" s="81">
         <v>0.54166666666666663</v>
@@ -6774,20 +6714,20 @@
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="H68" s="78" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I68" s="79">
-        <f t="shared" ref="I68" si="16">SUM(I62:I67)</f>
+        <f t="shared" ref="I68" si="19">SUM(I62:I67)</f>
         <v>3.3013888888888889</v>
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="95"/>
+      <c r="A69" s="94"/>
       <c r="B69" s="80" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C69" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D69" s="81">
         <v>9.0277777777777776E-2</v>
@@ -6802,12 +6742,12 @@
       <c r="I69" s="84"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="95"/>
+      <c r="A70" s="94"/>
       <c r="B70" s="80" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C70" s="80" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D70" s="81">
         <v>0.64583333333333337</v>
@@ -6822,12 +6762,12 @@
       <c r="I70" s="84"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="95"/>
+      <c r="A71" s="94"/>
       <c r="B71" s="80" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C71" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D71" s="81">
         <v>0.71527777777777779</v>
@@ -6841,42 +6781,26 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="95"/>
-      <c r="B72" t="s">
-        <v>543</v>
-      </c>
-      <c r="C72" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D72" s="81">
-        <v>0.72569444444444453</v>
-      </c>
-      <c r="E72" s="81">
-        <v>0.73958333333333337</v>
-      </c>
-      <c r="F72" s="81">
-        <f>E72-D72</f>
-        <v>1.388888888888884E-2</v>
-      </c>
+      <c r="A72" s="94"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="95"/>
+      <c r="A73" s="94"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="95"/>
+      <c r="A74" s="94"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="95"/>
+      <c r="A75" s="94"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="95" t="s">
+      <c r="A76" s="94" t="s">
         <v>19</v>
       </c>
       <c r="B76" s="80" t="s">
+        <v>506</v>
+      </c>
+      <c r="C76" s="80" t="s">
         <v>507</v>
-      </c>
-      <c r="C76" s="80" t="s">
-        <v>508</v>
       </c>
       <c r="D76" s="81">
         <v>0.40972222222222227</v>
@@ -6885,23 +6809,23 @@
         <v>0.44097222222222227</v>
       </c>
       <c r="F76" s="81">
-        <f t="shared" ref="F76:F129" si="17">E76-D76</f>
+        <f t="shared" ref="F76:F129" si="20">E76-D76</f>
         <v>3.125E-2</v>
       </c>
       <c r="H76" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="I76" s="79" t="s">
         <v>505</v>
       </c>
-      <c r="I76" s="79" t="s">
-        <v>506</v>
-      </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="95"/>
+      <c r="A77" s="94"/>
       <c r="B77" s="80" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="C77" s="80" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D77" s="81">
         <v>0</v>
@@ -6910,24 +6834,24 @@
         <v>0</v>
       </c>
       <c r="F77" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H77" s="83" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I77" s="81">
-        <f t="shared" ref="I77" si="18">SUMIFS(F76:F90, C76:C90,H77)</f>
+        <f t="shared" ref="I77" si="21">SUMIFS(F76:F90, C76:C90,H77)</f>
         <v>0.12986111111111098</v>
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="95"/>
+      <c r="A78" s="94"/>
       <c r="B78" s="80" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C78" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D78" s="81">
         <v>0.4916666666666667</v>
@@ -6936,24 +6860,24 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="F78" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.5694444444444353E-2</v>
       </c>
       <c r="H78" s="83" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I78" s="81">
-        <f t="shared" ref="I78" si="19">SUMIFS(F76:F90, C76:C90,H78)</f>
-        <v>1.9444444444444486E-2</v>
+        <f t="shared" ref="I78" si="22">SUMIFS(F76:F90, C76:C90,H78)</f>
+        <v>1.388888888888884E-2</v>
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="95"/>
+      <c r="A79" s="94"/>
       <c r="B79" s="80" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="C79" s="80" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D79" s="81">
         <v>0</v>
@@ -6962,24 +6886,24 @@
         <v>0</v>
       </c>
       <c r="F79" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H79" s="83" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I79" s="81">
-        <f t="shared" ref="I79" si="20">SUMIFS(F76:F90, C76:C90,H79)</f>
+        <f t="shared" ref="I79" si="23">SUMIFS(F76:F90, C76:C90,H79)</f>
         <v>6.3888888888888884E-2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="95"/>
+      <c r="A80" s="94"/>
       <c r="B80" s="80" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C80" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D80" s="81">
         <v>0.53125</v>
@@ -6988,24 +6912,24 @@
         <v>0.5625</v>
       </c>
       <c r="F80" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3.125E-2</v>
       </c>
       <c r="H80" s="83" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I80" s="81">
-        <f t="shared" ref="I80" si="21">SUMIFS(F76:F90, C76:C90,H80)</f>
+        <f t="shared" ref="I80" si="24">SUMIFS(F76:F90, C76:C90,H80)</f>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="95"/>
+      <c r="A81" s="94"/>
       <c r="B81" s="80" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C81" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D81" s="81">
         <v>0.44444444444444442</v>
@@ -7014,24 +6938,24 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F81" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="H81" s="83" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I81" s="81">
-        <f t="shared" ref="I81" si="22">SUMIFS(F76:F90, C76:C90,H81)</f>
+        <f t="shared" ref="I81" si="25">SUMIFS(F76:F90, C76:C90,H81)</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="95"/>
+      <c r="A82" s="94"/>
       <c r="B82" s="80" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C82" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D82" s="81">
         <v>0.63541666666666663</v>
@@ -7040,24 +6964,24 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F82" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.0416666666666741E-2</v>
       </c>
       <c r="H82" s="83" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I82" s="81">
-        <f t="shared" ref="I82" si="23">SUMIFS(F76:F90, C76:C90,H82)</f>
+        <f t="shared" ref="I82" si="26">SUMIFS(F76:F90, C76:C90,H82)</f>
         <v>5.5555555555555636E-2</v>
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="95"/>
+      <c r="A83" s="94"/>
       <c r="B83" s="80" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="C83" s="80" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D83" s="81">
         <v>0.64583333333333337</v>
@@ -7066,24 +6990,24 @@
         <v>0.70972222222222225</v>
       </c>
       <c r="F83" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="H83" s="78" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I83" s="79">
-        <f t="shared" ref="I83" si="24">SUM(I77:I82)</f>
-        <v>0.3</v>
+        <f t="shared" ref="I83" si="27">SUM(I77:I82)</f>
+        <v>0.29444444444444434</v>
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="95"/>
+      <c r="A84" s="94"/>
       <c r="B84" s="80" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C84" s="80" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D84" s="81">
         <v>0.36805555555555558</v>
@@ -7092,18 +7016,18 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="F84" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.388888888888884E-2</v>
       </c>
       <c r="I84" s="84"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="95"/>
+      <c r="A85" s="94"/>
       <c r="B85" s="80" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="C85" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D85" s="81">
         <v>0.58333333333333337</v>
@@ -7118,12 +7042,12 @@
       <c r="I85" s="84"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="95"/>
+      <c r="A86" s="94"/>
       <c r="B86" s="80" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="C86" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D86" s="81">
         <v>0.875</v>
@@ -7132,71 +7056,63 @@
         <v>0.92708333333333337</v>
       </c>
       <c r="F86" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5.208333333333337E-2</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="95"/>
-      <c r="B87" s="80" t="s">
-        <v>554</v>
-      </c>
-      <c r="C87" s="80" t="s">
-        <v>509</v>
-      </c>
-      <c r="D87" s="81">
-        <v>0.46666666666666662</v>
-      </c>
-      <c r="E87" s="81">
-        <v>0.47222222222222227</v>
-      </c>
+      <c r="A87" s="94"/>
+      <c r="B87" s="80"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="81"/>
       <c r="F87" s="81">
-        <f t="shared" si="17"/>
-        <v>5.5555555555556468E-3</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="95"/>
+      <c r="A88" s="94"/>
       <c r="B88" s="80"/>
       <c r="C88" s="80"/>
       <c r="D88" s="81"/>
       <c r="E88" s="81"/>
       <c r="F88" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="95"/>
+      <c r="A89" s="94"/>
       <c r="B89" s="80"/>
       <c r="C89" s="80"/>
       <c r="D89" s="81"/>
       <c r="E89" s="81"/>
       <c r="F89" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="95"/>
+      <c r="A90" s="94"/>
       <c r="B90" s="80"/>
       <c r="C90" s="80"/>
       <c r="D90" s="81"/>
       <c r="E90" s="81"/>
       <c r="F90" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="95" t="s">
+      <c r="A91" s="94" t="s">
         <v>20</v>
       </c>
       <c r="B91" s="80" t="s">
+        <v>506</v>
+      </c>
+      <c r="C91" s="80" t="s">
         <v>507</v>
-      </c>
-      <c r="C91" s="80" t="s">
-        <v>508</v>
       </c>
       <c r="D91" s="81">
         <v>0.40972222222222227</v>
@@ -7205,23 +7121,23 @@
         <v>0.44097222222222227</v>
       </c>
       <c r="F91" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3.125E-2</v>
       </c>
       <c r="H91" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="I91" s="79" t="s">
         <v>505</v>
       </c>
-      <c r="I91" s="79" t="s">
-        <v>506</v>
-      </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="95"/>
+      <c r="A92" s="94"/>
       <c r="B92" s="80" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="C92" s="80" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D92" s="81">
         <v>0</v>
@@ -7230,24 +7146,24 @@
         <v>0</v>
       </c>
       <c r="F92" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H92" s="83" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I92" s="81">
-        <f t="shared" ref="I92" si="25">SUMIFS(F91:F105, C91:C105,H92)</f>
-        <v>6.5972222222222154E-2</v>
+        <f t="shared" ref="I92" si="28">SUMIFS(F91:F105, C91:C105,H92)</f>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="95"/>
+      <c r="A93" s="94"/>
       <c r="B93" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C93" s="80" t="s">
         <v>512</v>
-      </c>
-      <c r="C93" s="80" t="s">
-        <v>513</v>
       </c>
       <c r="D93" s="81">
         <v>0.4916666666666667</v>
@@ -7256,24 +7172,24 @@
         <v>0.51527777777777783</v>
       </c>
       <c r="F93" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.3611111111111138E-2</v>
       </c>
       <c r="H93" s="83" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I93" s="81">
-        <f t="shared" ref="I93" si="26">SUMIFS(F91:F105, C91:C105,H93)</f>
-        <v>0.17708333333333326</v>
+        <f t="shared" ref="I93" si="29">SUMIFS(F91:F105, C91:C105,H93)</f>
+        <v>0.14583333333333337</v>
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="95"/>
+      <c r="A94" s="94"/>
       <c r="B94" s="80" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="C94" s="80" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D94" s="81">
         <v>0</v>
@@ -7286,20 +7202,20 @@
         <v>0</v>
       </c>
       <c r="H94" s="83" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I94" s="81">
-        <f t="shared" ref="I94" si="27">SUMIFS(F91:F105, C91:C105,H94)</f>
+        <f t="shared" ref="I94" si="30">SUMIFS(F91:F105, C91:C105,H94)</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="95"/>
+      <c r="A95" s="94"/>
       <c r="B95" s="80" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C95" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D95" s="81">
         <v>0.54861111111111105</v>
@@ -7308,122 +7224,122 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="F95" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.7777777777777901E-2</v>
       </c>
       <c r="H95" s="83" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I95" s="81">
-        <f t="shared" ref="I95" si="28">SUMIFS(F91:F105, C91:C105,H95)</f>
+        <f t="shared" ref="I95" si="31">SUMIFS(F91:F105, C91:C105,H95)</f>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="95"/>
+      <c r="A96" s="94"/>
       <c r="B96" s="80" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C96" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D96" s="81">
         <v>0.44791666666666669</v>
       </c>
       <c r="E96" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F96" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H96" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I96" s="81">
+        <f t="shared" ref="I96" si="32">SUMIFS(F91:F105, C91:C105,H96)</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="94"/>
+      <c r="B97" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C97" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D97" s="81">
+        <v>0.65625</v>
+      </c>
+      <c r="E97" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F97" s="81">
+        <f t="shared" si="20"/>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="H96" s="83" t="s">
-        <v>513</v>
-      </c>
-      <c r="I96" s="81">
-        <f t="shared" ref="I96" si="29">SUMIFS(F91:F105, C91:C105,H96)</f>
-        <v>2.3611111111111138E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="95"/>
-      <c r="B97" s="80" t="s">
-        <v>521</v>
-      </c>
-      <c r="C97" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D97" s="81">
-        <v>0</v>
-      </c>
-      <c r="E97" s="81">
-        <v>0</v>
-      </c>
-      <c r="F97" s="81">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
       <c r="H97" s="83" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I97" s="81">
-        <f t="shared" ref="I97" si="30">SUMIFS(F91:F105, C91:C105,H97)</f>
-        <v>3.8194444444444531E-2</v>
+        <f t="shared" ref="I97" si="33">SUMIFS(F91:F105, C91:C105,H97)</f>
+        <v>6.9444444444444531E-2</v>
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="95"/>
+      <c r="A98" s="94"/>
       <c r="B98" s="80" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C98" s="80" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D98" s="81">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E98" s="81">
-        <v>0.44791666666666669</v>
+        <v>0.75</v>
       </c>
       <c r="F98" s="81">
-        <f t="shared" si="17"/>
-        <v>3.125E-2</v>
+        <f t="shared" si="20"/>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="H98" s="78" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I98" s="79">
-        <f t="shared" ref="I98" si="31">SUM(I92:I97)</f>
-        <v>0.33611111111111108</v>
+        <f t="shared" ref="I98" si="34">SUM(I92:I97)</f>
+        <v>0.40902777777777793</v>
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="95"/>
+      <c r="A99" s="94"/>
       <c r="B99" s="80" t="s">
-        <v>556</v>
+        <v>524</v>
       </c>
       <c r="C99" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D99" s="81">
-        <v>0.58333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E99" s="81">
-        <v>0.63541666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="F99" s="81">
-        <f t="shared" si="17"/>
-        <v>5.2083333333333259E-2</v>
+        <f t="shared" si="20"/>
+        <v>0.125</v>
       </c>
       <c r="I99" s="84"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="95"/>
+      <c r="A100" s="94"/>
       <c r="B100" s="80" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C100" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D100" s="81">
         <v>0.375</v>
@@ -7432,403 +7348,377 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="F100" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="I100" s="84"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="95"/>
+      <c r="A101" s="94"/>
       <c r="B101" s="80" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="C101" s="80" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D101" s="81">
-        <v>0.64583333333333337</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E101" s="81">
-        <v>0.70833333333333337</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="F101" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="95"/>
-      <c r="B102" s="80" t="s">
-        <v>557</v>
-      </c>
-      <c r="C102" s="80" t="s">
-        <v>509</v>
-      </c>
-      <c r="D102" s="81">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E102" s="81">
-        <v>0.91666666666666663</v>
-      </c>
+      <c r="A102" s="94"/>
+      <c r="B102" s="80"/>
+      <c r="C102" s="80"/>
+      <c r="D102" s="81"/>
+      <c r="E102" s="81"/>
       <c r="F102" s="81">
-        <f t="shared" si="17"/>
-        <v>8.3333333333333259E-2</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="95"/>
+      <c r="A103" s="94"/>
       <c r="B103" s="80"/>
       <c r="C103" s="80"/>
       <c r="D103" s="81"/>
       <c r="E103" s="81"/>
       <c r="F103" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="95"/>
+      <c r="A104" s="94"/>
       <c r="B104" s="80"/>
       <c r="C104" s="80"/>
       <c r="D104" s="81"/>
       <c r="E104" s="81"/>
       <c r="F104" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="95"/>
+      <c r="A105" s="94"/>
       <c r="B105" s="80"/>
       <c r="C105" s="80"/>
       <c r="D105" s="81"/>
       <c r="E105" s="81"/>
       <c r="F105" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="95" t="s">
+      <c r="A106" s="94" t="s">
         <v>21</v>
       </c>
       <c r="B106" s="80" t="s">
-        <v>544</v>
+        <v>506</v>
       </c>
       <c r="C106" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="D106" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E106" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F106" s="81">
+        <f t="shared" si="20"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H106" s="79" t="s">
         <v>504</v>
       </c>
-      <c r="D106" s="81">
-        <v>0.375</v>
-      </c>
-      <c r="E106" s="81">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="F106" s="81">
-        <f t="shared" si="17"/>
-        <v>1.0416666666666685E-2</v>
-      </c>
-      <c r="H106" s="79" t="s">
+      <c r="I106" s="79" t="s">
         <v>505</v>
       </c>
-      <c r="I106" s="79" t="s">
-        <v>506</v>
-      </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="95"/>
+      <c r="A107" s="94"/>
       <c r="B107" s="18" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="C107" s="80" t="s">
         <v>508</v>
       </c>
-      <c r="D107" s="85">
-        <v>0.40972222222222227</v>
+      <c r="D107" s="95">
+        <v>0.44444444444444442</v>
       </c>
       <c r="E107" s="81">
-        <v>0.44097222222222227</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="F107" s="81">
-        <f t="shared" si="17"/>
-        <v>3.125E-2</v>
+        <f t="shared" si="20"/>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H107" s="83" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I107" s="81">
-        <f>SUMIFS(F106:F120, C106:C120,H107)</f>
-        <v>0.1388888888888889</v>
+        <f t="shared" ref="I107" si="35">SUMIFS(F106:F120, C106:C120,H107)</f>
+        <v>0.18055555555555564</v>
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="95"/>
-      <c r="B108" s="80" t="s">
-        <v>520</v>
-      </c>
+      <c r="A108" s="94"/>
+      <c r="B108" s="80"/>
       <c r="C108" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D108" s="81">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="E108" s="81">
-        <v>0.4548611111111111</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="D108" s="81"/>
+      <c r="E108" s="81"/>
       <c r="F108" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H108" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I108" s="81">
+        <f t="shared" ref="I108" si="36">SUMIFS(F106:F120, C106:C120,H108)</f>
         <v>1.0416666666666685E-2</v>
       </c>
-      <c r="H108" s="83" t="s">
-        <v>509</v>
-      </c>
-      <c r="I108" s="81">
-        <f t="shared" ref="I108" si="32">SUMIFS(F106:F120, C106:C120,H108)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="95"/>
+      <c r="A109" s="94"/>
       <c r="B109" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="C109" s="80" t="s">
         <v>512</v>
       </c>
-      <c r="C109" s="80" t="s">
-        <v>513</v>
-      </c>
-      <c r="D109" s="85">
+      <c r="D109" s="95">
         <v>0.4916666666666667</v>
       </c>
       <c r="E109" s="81">
         <v>0.51527777777777783</v>
       </c>
       <c r="F109" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.3611111111111138E-2</v>
       </c>
       <c r="H109" s="83" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I109" s="81">
-        <f t="shared" ref="I109" si="33">SUMIFS(F106:F120, C106:C120,H109)</f>
+        <f t="shared" ref="I109" si="37">SUMIFS(F106:F120, C106:C120,H109)</f>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="95"/>
+      <c r="A110" s="94"/>
       <c r="B110" s="80" t="s">
+        <v>517</v>
+      </c>
+      <c r="C110" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D110" s="81"/>
+      <c r="E110" s="81"/>
+      <c r="F110" s="81">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H110" s="83" t="s">
+        <v>507</v>
+      </c>
+      <c r="I110" s="81">
+        <f t="shared" ref="I110" si="38">SUMIFS(F106:F120, C106:C120,H110)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="94"/>
+      <c r="B111" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="C111" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D111" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E111" s="81">
+        <v>0.625</v>
+      </c>
+      <c r="F111" s="81">
+        <f t="shared" si="20"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H111" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I111" s="81">
+        <f t="shared" ref="I111" si="39">SUMIFS(F106:F120, C106:C120,H111)</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="94"/>
+      <c r="B112" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C112" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D112" s="81">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E112" s="81">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="F112" s="81">
+        <f t="shared" si="20"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="H112" s="83" t="s">
+        <v>515</v>
+      </c>
+      <c r="I112" s="81">
+        <f t="shared" ref="I112" si="40">SUMIFS(F106:F120, C106:C120,H112)</f>
+        <v>1.0416666666666741E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="94"/>
+      <c r="B113" s="80" t="s">
+        <v>548</v>
+      </c>
+      <c r="C113" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D113" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E113" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F113" s="81">
+        <f t="shared" si="20"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H113" s="78" t="s">
         <v>518</v>
       </c>
-      <c r="C110" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D110" s="81">
+      <c r="I113" s="79">
+        <f t="shared" ref="I113" si="41">SUM(I107:I112)</f>
+        <v>0.3187500000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="94"/>
+      <c r="B114" s="80" t="s">
+        <v>547</v>
+      </c>
+      <c r="C114" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D114" s="81">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E110" s="81">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="F110" s="81">
-        <f t="shared" si="17"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="H110" s="83" t="s">
-        <v>508</v>
-      </c>
-      <c r="I110" s="81">
-        <f t="shared" ref="I110" si="34">SUMIFS(F106:F120, C106:C120,H110)</f>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="95"/>
-      <c r="B111" s="18" t="s">
-        <v>558</v>
-      </c>
-      <c r="C111" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D111" s="81">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="E111" s="81">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F111" s="81">
-        <f t="shared" si="17"/>
-        <v>6.944444444444442E-2</v>
-      </c>
-      <c r="H111" s="83" t="s">
-        <v>513</v>
-      </c>
-      <c r="I111" s="81">
-        <f t="shared" ref="I111" si="35">SUMIFS(F106:F120, C106:C120,H111)</f>
-        <v>2.3611111111111138E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="95"/>
-      <c r="B112" s="80" t="s">
-        <v>559</v>
-      </c>
-      <c r="C112" s="80" t="s">
-        <v>511</v>
-      </c>
-      <c r="D112" s="81">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="E112" s="81">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F112" s="81">
-        <f t="shared" si="17"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="H112" s="83" t="s">
-        <v>516</v>
-      </c>
-      <c r="I112" s="81">
-        <f t="shared" ref="I112" si="36">SUMIFS(F106:F120, C106:C120,H112)</f>
-        <v>5.2083333333333315E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="95"/>
-      <c r="B113" s="80" t="s">
-        <v>560</v>
-      </c>
-      <c r="C113" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D113" s="81">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E113" s="81">
-        <v>0.71875</v>
-      </c>
-      <c r="F113" s="81">
-        <f>E113-D113</f>
-        <v>1.041666666666663E-2</v>
-      </c>
-      <c r="H113" s="78" t="s">
-        <v>519</v>
-      </c>
-      <c r="I113" s="79">
-        <f t="shared" ref="I113" si="37">SUM(I107:I112)</f>
-        <v>0.30833333333333335</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="95"/>
-      <c r="B114" t="s">
-        <v>561</v>
-      </c>
-      <c r="C114" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D114" s="84">
-        <v>0.52083333333333337</v>
-      </c>
       <c r="E114" s="81">
-        <v>0.54166666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="F114" s="81">
-        <f>E114-D114</f>
-        <v>2.0833333333333259E-2</v>
+        <f t="shared" si="20"/>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="I114" s="84"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="95"/>
+      <c r="A115" s="94"/>
       <c r="B115" s="80" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="C115" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D115" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="E115" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="F115" s="81">
-        <f t="shared" si="17"/>
-        <v>2.083333333333337E-2</v>
+        <f t="shared" si="20"/>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="I115" s="84"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="95"/>
-      <c r="B116" s="80" t="s">
-        <v>563</v>
-      </c>
-      <c r="C116" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D116" s="85">
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="E116" s="81">
-        <v>0.73958333333333337</v>
-      </c>
+      <c r="A116" s="94"/>
+      <c r="B116" s="80"/>
+      <c r="C116" s="80"/>
+      <c r="D116" s="81"/>
+      <c r="E116" s="81"/>
       <c r="F116" s="81">
-        <f t="shared" si="17"/>
-        <v>1.736111111111116E-2</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="95"/>
+      <c r="A117" s="94"/>
       <c r="B117" s="80"/>
       <c r="C117" s="80"/>
       <c r="D117" s="81"/>
       <c r="E117" s="81"/>
       <c r="F117" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="95"/>
+      <c r="A118" s="94"/>
       <c r="B118" s="80"/>
       <c r="C118" s="80"/>
       <c r="D118" s="81"/>
       <c r="E118" s="81"/>
       <c r="F118" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="95"/>
+      <c r="A119" s="94"/>
       <c r="B119" s="80"/>
       <c r="C119" s="80"/>
       <c r="D119" s="81"/>
       <c r="E119" s="81"/>
       <c r="F119" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="95"/>
+      <c r="A120" s="94"/>
       <c r="B120" s="80"/>
       <c r="C120" s="80"/>
       <c r="D120" s="81"/>
       <c r="E120" s="81"/>
       <c r="F120" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="95" t="s">
+      <c r="A121" s="94" t="s">
         <v>22</v>
       </c>
       <c r="B121" s="80" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="C121" s="80" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D121" s="81">
         <v>0.375</v>
@@ -7837,23 +7727,23 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="F121" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="H121" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="I121" s="79" t="s">
         <v>505</v>
       </c>
-      <c r="I121" s="79" t="s">
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="94"/>
+      <c r="B122" s="18" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" s="95"/>
-      <c r="B122" s="18" t="s">
+      <c r="C122" s="80" t="s">
         <v>507</v>
-      </c>
-      <c r="C122" s="80" t="s">
-        <v>508</v>
       </c>
       <c r="D122" s="81">
         <v>0.40972222222222227</v>
@@ -7862,50 +7752,50 @@
         <v>0.44097222222222227</v>
       </c>
       <c r="F122" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3.125E-2</v>
       </c>
       <c r="H122" s="83" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I122" s="81">
-        <f t="shared" ref="I122" si="38">SUMIFS(F121:F135, C121:C135,H122)</f>
-        <v>0.15277777777777746</v>
+        <f t="shared" ref="I122" si="42">SUMIFS(F121:F135, C121:C135,H122)</f>
+        <v>0.12847222222222215</v>
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="95"/>
+      <c r="A123" s="94"/>
       <c r="B123" s="80" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="C123" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D123" s="81">
-        <v>0.47222222222222227</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E123" s="81">
-        <v>0.48958333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F123" s="81">
-        <f t="shared" si="17"/>
-        <v>1.7361111111111049E-2</v>
+        <f t="shared" si="20"/>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H123" s="83" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I123" s="81">
-        <f t="shared" ref="I123" si="39">SUMIFS(F121:F135, C121:C135,H123)</f>
-        <v>1.9444444444444542E-2</v>
+        <f t="shared" ref="I123" si="43">SUMIFS(F121:F135, C121:C135,H123)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="95"/>
+      <c r="A124" s="94"/>
       <c r="B124" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C124" s="80" t="s">
         <v>512</v>
-      </c>
-      <c r="C124" s="80" t="s">
-        <v>513</v>
       </c>
       <c r="D124" s="81">
         <v>0.48958333333333331</v>
@@ -7914,24 +7804,24 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="F124" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.7777777777777735E-2</v>
       </c>
       <c r="H124" s="83" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I124" s="81">
-        <f t="shared" ref="I124" si="40">SUMIFS(F121:F135, C121:C135,H124)</f>
+        <f t="shared" ref="I124" si="44">SUMIFS(F121:F135, C121:C135,H124)</f>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="95"/>
+      <c r="A125" s="94"/>
       <c r="B125" s="80" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C125" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D125" s="81">
         <v>0.54166666666666663</v>
@@ -7940,24 +7830,24 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="F125" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="H125" s="83" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I125" s="81">
-        <f t="shared" ref="I125" si="41">SUMIFS(F121:F135, C121:C135,H125)</f>
+        <f t="shared" ref="I125" si="45">SUMIFS(F121:F135, C121:C135,H125)</f>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="95"/>
+      <c r="A126" s="94"/>
       <c r="B126" s="80" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C126" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D126" s="81">
         <v>0.44097222222222227</v>
@@ -7966,24 +7856,24 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F126" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7361111111111049E-2</v>
       </c>
       <c r="H126" s="83" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I126" s="81">
-        <f t="shared" ref="I126" si="42">SUMIFS(F121:F135, C121:C135,H126)</f>
+        <f t="shared" ref="I126" si="46">SUMIFS(F121:F135, C121:C135,H126)</f>
         <v>2.7777777777777735E-2</v>
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="95"/>
+      <c r="A127" s="94"/>
       <c r="B127" s="80" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C127" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D127" s="81">
         <v>0.63541666666666663</v>
@@ -7992,24 +7882,24 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F127" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.0416666666666741E-2</v>
       </c>
       <c r="H127" s="83" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I127" s="81">
-        <f t="shared" ref="I127" si="43">SUMIFS(F121:F135, C121:C135,H127)</f>
+        <f t="shared" ref="I127" si="47">SUMIFS(F121:F135, C121:C135,H127)</f>
         <v>5.555555555555558E-2</v>
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="95"/>
+      <c r="A128" s="94"/>
       <c r="B128" s="80" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="C128" s="80" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D128" s="81">
         <v>0.64583333333333337</v>
@@ -8018,24 +7908,24 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F128" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6.25E-2</v>
       </c>
       <c r="H128" s="78" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I128" s="79">
-        <f t="shared" ref="I128" si="44">SUM(I122:I127)</f>
-        <v>0.34930555555555531</v>
+        <f t="shared" ref="I128" si="48">SUM(I122:I127)</f>
+        <v>0.30555555555555547</v>
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="95"/>
+      <c r="A129" s="94"/>
       <c r="B129" s="80" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="C129" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D129" s="81">
         <v>0.58333333333333337</v>
@@ -8044,18 +7934,18 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="F129" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="I129" s="84"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="95"/>
+      <c r="A130" s="94"/>
       <c r="B130" s="80" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="C130" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D130" s="81">
         <v>0.875</v>
@@ -8064,99 +7954,79 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F130" s="81">
-        <f t="shared" ref="F130:F165" si="45">E130-D130</f>
+        <f t="shared" ref="F130:F193" si="49">E130-D130</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="I130" s="84"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="95"/>
+      <c r="A131" s="94"/>
       <c r="B131" s="80" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="C131" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D131" s="81">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E131" s="81">
-        <v>0.72916666666666663</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="D131" s="81"/>
+      <c r="E131" s="81"/>
       <c r="F131" s="81">
-        <f t="shared" si="45"/>
-        <v>2.0833333333333259E-2</v>
+        <f t="shared" si="49"/>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="95"/>
-      <c r="B132" s="80" t="s">
-        <v>547</v>
-      </c>
-      <c r="C132" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D132" s="81">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E132" s="81">
-        <v>0.54166666666666663</v>
-      </c>
+      <c r="A132" s="94"/>
+      <c r="B132" s="80"/>
+      <c r="C132" s="80"/>
+      <c r="D132" s="81"/>
+      <c r="E132" s="81"/>
       <c r="F132" s="81">
-        <f t="shared" si="45"/>
-        <v>2.0833333333333259E-2</v>
+        <f t="shared" si="49"/>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="95"/>
-      <c r="B133" s="80" t="s">
-        <v>570</v>
-      </c>
-      <c r="C133" s="80" t="s">
-        <v>509</v>
-      </c>
-      <c r="D133" s="81">
-        <v>0.46666666666666662</v>
-      </c>
-      <c r="E133" s="81">
-        <v>0.47222222222222227</v>
-      </c>
+      <c r="A133" s="94"/>
+      <c r="B133" s="80"/>
+      <c r="C133" s="80"/>
+      <c r="D133" s="81"/>
+      <c r="E133" s="81"/>
       <c r="F133" s="81">
-        <f t="shared" si="45"/>
-        <v>5.5555555555556468E-3</v>
+        <f t="shared" si="49"/>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="95"/>
+      <c r="A134" s="94"/>
       <c r="B134" s="80"/>
       <c r="C134" s="80"/>
       <c r="D134" s="81"/>
       <c r="E134" s="81"/>
       <c r="F134" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="95"/>
+      <c r="A135" s="94"/>
       <c r="B135" s="80"/>
       <c r="C135" s="80"/>
       <c r="D135" s="81"/>
       <c r="E135" s="81"/>
       <c r="F135" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="95" t="s">
+      <c r="A136" s="94" t="s">
         <v>24</v>
       </c>
       <c r="B136" s="80" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="C136" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D136" s="81">
         <v>0.375</v>
@@ -8165,23 +8035,23 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="F136" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="H136" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="I136" s="79" t="s">
         <v>505</v>
       </c>
-      <c r="I136" s="79" t="s">
-        <v>506</v>
-      </c>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="95"/>
+      <c r="A137" s="94"/>
       <c r="B137" s="80" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="C137" s="80" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="D137" s="81">
         <v>0.3888888888888889</v>
@@ -8190,24 +8060,24 @@
         <v>0.40972222222222227</v>
       </c>
       <c r="F137" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H137" s="83" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I137" s="81">
-        <f t="shared" ref="I137" si="46">SUMIFS(F136:F150, C136:C150,H137)</f>
-        <v>0.14930555555555564</v>
+        <f t="shared" ref="I137" si="50">SUMIFS(F136:F150, C136:C150,H137)</f>
+        <v>0.24305555555555564</v>
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="95"/>
+      <c r="A138" s="94"/>
       <c r="B138" s="80" t="s">
+        <v>506</v>
+      </c>
+      <c r="C138" s="80" t="s">
         <v>507</v>
-      </c>
-      <c r="C138" s="80" t="s">
-        <v>508</v>
       </c>
       <c r="D138" s="81">
         <v>0.40972222222222227</v>
@@ -8216,24 +8086,24 @@
         <v>0.44097222222222227</v>
       </c>
       <c r="F138" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>3.125E-2</v>
       </c>
       <c r="H138" s="83" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I138" s="81">
-        <f t="shared" ref="I138" si="47">SUMIFS(F136:F150, C136:C150,H138)</f>
+        <f t="shared" ref="I138" si="51">SUMIFS(F136:F150, C136:C150,H138)</f>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="95"/>
+      <c r="A139" s="94"/>
       <c r="B139" s="80" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C139" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D139" s="81">
         <v>0.45833333333333331</v>
@@ -8242,24 +8112,24 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="F139" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H139" s="83" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I139" s="81">
-        <f t="shared" ref="I139" si="48">SUMIFS(F136:F150, C136:C150,H139)</f>
-        <v>8.333333333333337E-2</v>
+        <f t="shared" ref="I139" si="52">SUMIFS(F136:F150, C136:C150,H139)</f>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="95"/>
+      <c r="A140" s="94"/>
       <c r="B140" s="80" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C140" s="80" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D140" s="81">
         <v>0.48958333333333331</v>
@@ -8268,215 +8138,211 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="F140" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>2.7777777777777735E-2</v>
       </c>
       <c r="H140" s="83" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I140" s="81">
-        <f t="shared" ref="I140" si="49">SUMIFS(F136:F150, C136:C150,H140)</f>
+        <f t="shared" ref="I140" si="53">SUMIFS(F136:F150, C136:C150,H140)</f>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="95"/>
-      <c r="B141" s="80" t="s">
-        <v>547</v>
-      </c>
+      <c r="A141" s="94"/>
+      <c r="B141" s="80"/>
       <c r="C141" s="80" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="D141" s="81">
-        <v>0.51736111111111105</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="E141" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F141" s="81">
+        <f t="shared" si="49"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H141" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I141" s="81">
+        <f t="shared" ref="I141" si="54">SUMIFS(F136:F150, C136:C150,H141)</f>
+        <v>2.7777777777777735E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="94"/>
+      <c r="B142" s="80"/>
+      <c r="C142" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D142" s="81">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E142" s="81">
+        <v>0.125</v>
+      </c>
+      <c r="F142" s="81">
+        <f t="shared" si="49"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H142" s="83" t="s">
+        <v>515</v>
+      </c>
+      <c r="I142" s="81">
+        <f t="shared" ref="I142" si="55">SUMIFS(F136:F150, C136:C150,H142)</f>
+        <v>8.680555555555558E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="94"/>
+      <c r="B143" s="80" t="s">
+        <v>523</v>
+      </c>
+      <c r="C143" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D143" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E143" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="F143" s="81">
+        <f t="shared" si="49"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H143" s="78" t="s">
+        <v>518</v>
+      </c>
+      <c r="I143" s="79">
+        <f t="shared" ref="I143" si="56">SUM(I137:I142)</f>
+        <v>0.40972222222222232</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="94"/>
+      <c r="B144" s="80" t="s">
+        <v>524</v>
+      </c>
+      <c r="C144" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="D144" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="E144" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="F144" s="81">
+        <f t="shared" si="49"/>
+        <v>0.125</v>
+      </c>
+      <c r="I144" s="84"/>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="94"/>
+      <c r="B145" s="80" t="s">
+        <v>517</v>
+      </c>
+      <c r="C145" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="D145" s="81">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F141" s="81">
-        <f t="shared" si="45"/>
-        <v>2.430555555555558E-2</v>
-      </c>
-      <c r="H141" s="83" t="s">
-        <v>513</v>
-      </c>
-      <c r="I141" s="81">
-        <f t="shared" ref="I141" si="50">SUMIFS(F136:F150, C136:C150,H141)</f>
-        <v>2.7777777777777735E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="95"/>
-      <c r="B142" s="80" t="s">
-        <v>574</v>
-      </c>
-      <c r="C142" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D142" s="81">
+      <c r="E145" s="81">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E142" s="81">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="F142" s="81">
-        <f>E142-D142</f>
-        <v>3.819444444444442E-2</v>
-      </c>
-      <c r="H142" s="83" t="s">
-        <v>516</v>
-      </c>
-      <c r="I142" s="81">
-        <f t="shared" ref="I142" si="51">SUMIFS(F136:F150, C136:C150,H142)</f>
-        <v>5.9027777777777797E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="95"/>
-      <c r="B143" s="80" t="s">
-        <v>575</v>
-      </c>
-      <c r="C143" s="80" t="s">
-        <v>511</v>
-      </c>
-      <c r="D143" s="81">
-        <v>0.625</v>
-      </c>
-      <c r="E143" s="81">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F143" s="81">
-        <f>E143-D143</f>
-        <v>8.333333333333337E-2</v>
-      </c>
-      <c r="H143" s="78" t="s">
+      <c r="F145" s="81">
+        <f t="shared" si="49"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="I145" s="84"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="94"/>
+      <c r="B146" s="80" t="s">
         <v>519</v>
       </c>
-      <c r="I143" s="79">
-        <f t="shared" ref="I143" si="52">SUM(I137:I142)</f>
-        <v>0.35069444444444453</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="95"/>
-      <c r="B144" s="80" t="s">
-        <v>576</v>
-      </c>
-      <c r="C144" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D144" s="81">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E144" s="81">
-        <v>0.73958333333333337</v>
-      </c>
-      <c r="F144" s="81">
-        <f>E144-D144</f>
-        <v>3.125E-2</v>
-      </c>
-      <c r="I144" s="84"/>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="95"/>
-      <c r="B145" s="80"/>
-      <c r="C145" s="80"/>
-      <c r="D145" s="81"/>
-      <c r="E145" s="81"/>
-      <c r="F145" s="81">
-        <f>E145-D145</f>
-        <v>0</v>
-      </c>
-      <c r="I145" s="84"/>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="95"/>
-      <c r="B146" s="80" t="s">
-        <v>518</v>
-      </c>
       <c r="C146" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D146" s="81">
-        <v>4.1666666666666664E-2</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="E146" s="81">
-        <v>7.2916666666666671E-2</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F146" s="81">
-        <f>E146-D146</f>
-        <v>3.1250000000000007E-2</v>
+        <f t="shared" si="49"/>
+        <v>1.3888888888888895E-2</v>
       </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="95"/>
+      <c r="A147" s="94"/>
       <c r="B147" s="80" t="s">
         <v>520</v>
       </c>
       <c r="C147" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D147" s="81">
-        <v>0.44444444444444442</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E147" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="F147" s="81">
-        <f>E147-D147</f>
+        <f t="shared" si="49"/>
         <v>1.3888888888888895E-2</v>
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="95"/>
-      <c r="B148" s="80" t="s">
-        <v>521</v>
-      </c>
-      <c r="C148" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D148" s="81">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="E148" s="81">
-        <v>0.125</v>
-      </c>
+      <c r="A148" s="94"/>
+      <c r="B148" s="80"/>
+      <c r="C148" s="80"/>
+      <c r="D148" s="81"/>
+      <c r="E148" s="81"/>
       <c r="F148" s="81">
-        <f t="shared" si="45"/>
-        <v>1.3888888888888895E-2</v>
+        <f t="shared" si="49"/>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="95"/>
+      <c r="A149" s="94"/>
       <c r="B149" s="80"/>
       <c r="C149" s="80"/>
       <c r="D149" s="81"/>
       <c r="E149" s="81"/>
       <c r="F149" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="95"/>
+      <c r="A150" s="94"/>
       <c r="B150" s="80"/>
       <c r="C150" s="80"/>
       <c r="D150" s="81"/>
       <c r="E150" s="81"/>
       <c r="F150" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="95" t="s">
+      <c r="A151" s="94" t="s">
         <v>23</v>
       </c>
       <c r="B151" s="80" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C151" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D151" s="81">
         <v>0.41666666666666669</v>
@@ -8485,23 +8351,23 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="F151" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="H151" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="I151" s="79" t="s">
         <v>505</v>
       </c>
-      <c r="I151" s="79" t="s">
-        <v>506</v>
-      </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="95"/>
+      <c r="A152" s="94"/>
       <c r="B152" s="80" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="C152" s="80" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D152" s="81">
         <v>0.42708333333333331</v>
@@ -8510,24 +8376,24 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F152" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>3.125E-2</v>
       </c>
       <c r="H152" s="83" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I152" s="81">
-        <f t="shared" ref="I152" si="53">SUMIFS(F151:F165, C151:C165,H152)</f>
+        <f t="shared" ref="I152" si="57">SUMIFS(F151:F165, C151:C165,H152)</f>
         <v>0.23958333333333343</v>
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="95"/>
+      <c r="A153" s="94"/>
       <c r="B153" s="80" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C153" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D153" s="81">
         <v>0.48958333333333331</v>
@@ -8536,24 +8402,24 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="F153" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>2.4305555555555636E-2</v>
       </c>
       <c r="H153" s="83" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I153" s="81">
-        <f t="shared" ref="I153" si="54">SUMIFS(F151:F165, C151:C165,H153)</f>
+        <f t="shared" ref="I153" si="58">SUMIFS(F151:F165, C151:C165,H153)</f>
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="95"/>
+      <c r="A154" s="94"/>
       <c r="B154" s="80" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="C154" s="80" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D154" s="81">
         <v>0.47916666666666669</v>
@@ -8562,50 +8428,50 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="F154" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>4.1666666666666685E-2</v>
       </c>
       <c r="H154" s="83" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I154" s="81">
-        <f t="shared" ref="I154" si="55">SUMIFS(F151:F165, C151:C165,H154)</f>
+        <f t="shared" ref="I154" si="59">SUMIFS(F151:F165, C151:C165,H154)</f>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="95"/>
+      <c r="A155" s="94"/>
       <c r="B155" s="80" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C155" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D155" s="81">
-        <v>0.54166666666666663</v>
+        <v>515</v>
+      </c>
+      <c r="D155" s="81" t="s">
+        <v>558</v>
       </c>
       <c r="E155" s="81">
         <v>0.56944444444444442</v>
       </c>
-      <c r="F155" s="81">
-        <f t="shared" si="45"/>
-        <v>2.777777777777779E-2</v>
+      <c r="F155" s="81" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
       </c>
       <c r="H155" s="83" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I155" s="81">
-        <f t="shared" ref="I155" si="56">SUMIFS(F151:F165, C151:C165,H155)</f>
+        <f t="shared" ref="I155" si="60">SUMIFS(F151:F165, C151:C165,H155)</f>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="95"/>
+      <c r="A156" s="94"/>
       <c r="B156" s="80" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C156" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D156" s="81">
         <v>0.47222222222222227</v>
@@ -8614,24 +8480,24 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="F156" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="H156" s="83" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I156" s="81">
-        <f t="shared" ref="I156" si="57">SUMIFS(F151:F165, C151:C165,H156)</f>
+        <f t="shared" ref="I156" si="61">SUMIFS(F151:F165, C151:C165,H156)</f>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="95"/>
+      <c r="A157" s="94"/>
       <c r="B157" s="80" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C157" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D157" s="81">
         <v>0.65625</v>
@@ -8640,24 +8506,24 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F157" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="H157" s="83" t="s">
-        <v>516</v>
-      </c>
-      <c r="I157" s="81">
-        <f t="shared" ref="I157" si="58">SUMIFS(F151:F165, C151:C165,H157)</f>
-        <v>4.513888888888884E-2</v>
+        <v>515</v>
+      </c>
+      <c r="I157" s="81" t="e">
+        <f t="shared" ref="I157" si="62">SUMIFS(F151:F165, C151:C165,H157)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="95"/>
+      <c r="A158" s="94"/>
       <c r="B158" s="80" t="s">
-        <v>577</v>
+        <v>523</v>
       </c>
       <c r="C158" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D158" s="81">
         <v>0.66666666666666663</v>
@@ -8666,24 +8532,24 @@
         <v>0.75</v>
       </c>
       <c r="F158" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="H158" s="78" t="s">
-        <v>519</v>
-      </c>
-      <c r="I158" s="79">
-        <f t="shared" ref="I158" si="59">SUM(I152:I157)</f>
-        <v>0.35763888888888895</v>
+        <v>518</v>
+      </c>
+      <c r="I158" s="79" t="e">
+        <f t="shared" ref="I158" si="63">SUM(I152:I157)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="95"/>
+      <c r="A159" s="94"/>
       <c r="B159" s="80" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="C159" s="80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D159" s="81">
         <v>0.75</v>
@@ -8692,91 +8558,91 @@
         <v>0.875</v>
       </c>
       <c r="F159" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.125</v>
       </c>
       <c r="I159" s="84"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="95"/>
+      <c r="A160" s="94"/>
       <c r="B160" s="80"/>
       <c r="C160" s="80"/>
       <c r="D160" s="81"/>
       <c r="E160" s="81"/>
       <c r="F160" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="I160" s="84"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="95"/>
+      <c r="A161" s="94"/>
       <c r="B161" s="80"/>
       <c r="C161" s="80"/>
       <c r="D161" s="81"/>
       <c r="E161" s="81"/>
       <c r="F161" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="95"/>
+      <c r="A162" s="94"/>
       <c r="B162" s="80"/>
       <c r="C162" s="80"/>
       <c r="D162" s="81"/>
       <c r="E162" s="81"/>
       <c r="F162" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="95"/>
+      <c r="A163" s="94"/>
       <c r="B163" s="80"/>
       <c r="C163" s="80"/>
       <c r="D163" s="81"/>
       <c r="E163" s="81"/>
       <c r="F163" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="95"/>
+      <c r="A164" s="94"/>
       <c r="B164" s="80"/>
       <c r="C164" s="80"/>
       <c r="D164" s="81"/>
       <c r="E164" s="81"/>
       <c r="F164" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="95"/>
+      <c r="A165" s="94"/>
       <c r="B165" s="80"/>
       <c r="C165" s="80"/>
       <c r="D165" s="81"/>
       <c r="E165" s="81"/>
       <c r="F165" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A106:A120"/>
-    <mergeCell ref="A121:A135"/>
-    <mergeCell ref="A136:A150"/>
-    <mergeCell ref="A151:A165"/>
     <mergeCell ref="A76:A90"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A45"/>
     <mergeCell ref="A46:A60"/>
     <mergeCell ref="A61:A75"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A106:A120"/>
+    <mergeCell ref="A121:A135"/>
+    <mergeCell ref="A136:A150"/>
+    <mergeCell ref="A151:A165"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I47 I62 I77 I92 I107 I122 I137 I152">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
@@ -8830,7 +8696,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C72 C76:C165" xr:uid="{6E4899FF-3B25-4EE1-B31B-EF5F8A1E414F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C76:C165 C2:C71" xr:uid="{6E4899FF-3B25-4EE1-B31B-EF5F8A1E414F}">
       <formula1>$Q$1:$Q$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FF12E81-3057-4EBA-B997-A21C2DF3204D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52F5215A-0FC0-427E-82D4-18BADE8CEC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
     <sheet name="26-04-22" sheetId="58" r:id="rId17"/>
     <sheet name="27-04-22" sheetId="59" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="578">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1548,10 +1548,16 @@
     <t>3.10 hrs</t>
   </si>
   <si>
-    <t>Web api (Debugging Errors-(8:15-9:00),                    repository(9:00-9:44),(10:40-12:00) ,                                 Estimation and discussion(12:00-12-33),Meeting with Rafi(12:36-12:52),Timesheet update(2:00-2:15),</t>
-  </si>
-  <si>
-    <t>Softskill session(9:44-10:33),Break(1:05-1:40),sending mail for installation(2:40-2:45),Webapi exploring(3:00-3:30),college call(3:30-3:45),Break(3:45-4:00),System installation (4:00-4:25),</t>
+    <t>web api Services and web api exploration</t>
+  </si>
+  <si>
+    <t>20:00-21:00 : reviewing and understanding the Api services,
+21:00-23:00 : Learning Angular&lt;Components and lifecycle&gt;,
+TOTAL-3 hrs</t>
+  </si>
+  <si>
+    <t>8:00-17:00 : Went college for internals ,
+TOTAL -9 hrs</t>
   </si>
   <si>
     <t xml:space="preserve">Web Api exploration,
@@ -1824,115 +1830,169 @@
     <t>Api Swagger Testing</t>
   </si>
   <si>
+    <t>Went to College for internal exams</t>
+  </si>
+  <si>
+    <t>understanding and reviewing  API services</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Components and life cycle&gt;</t>
+  </si>
+  <si>
+    <t>Time Sheet</t>
+  </si>
+  <si>
+    <t>Database Migration</t>
+  </si>
+  <si>
+    <t>Logging in user services &amp; user controller</t>
+  </si>
+  <si>
+    <t>User Services List of Users by Role</t>
+  </si>
+  <si>
+    <t>client meeting</t>
+  </si>
+  <si>
+    <t>helping other team with ui</t>
+  </si>
+  <si>
+    <t>fixing errors in user services</t>
+  </si>
+  <si>
+    <t>ef core exploration</t>
+  </si>
+  <si>
+    <t>CRUD Operation in user Services</t>
+  </si>
+  <si>
+    <t>Technical Session</t>
+  </si>
+  <si>
+    <t>Time Sheet Updating</t>
+  </si>
+  <si>
+    <t>Estimation for Dashboard</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Typescript Introduction and  Installation&gt;</t>
+  </si>
+  <si>
+    <t>Discussion about Services with Arul and Spliting Services</t>
+  </si>
+  <si>
+    <t>Service-Review</t>
+  </si>
+  <si>
+    <t>Web API User Service Exploration with Gokul</t>
+  </si>
+  <si>
+    <t>Discussion about Timesheet and Team performance Index with Rafi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimation Discussion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updating TimeSheet </t>
+  </si>
+  <si>
+    <t>Working on HTML layout</t>
+  </si>
+  <si>
+    <t>Estimation Preparation</t>
+  </si>
+  <si>
+    <t>Web API Exploration (user services) with gokul</t>
+  </si>
+  <si>
+    <t>Working on Feedback services</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;TypeScript Introduction and Simple Examples&gt;</t>
+  </si>
+  <si>
     <t>Soft Skill</t>
   </si>
   <si>
+    <t>Learned Angular &lt;Introduction of Typescript , VS code Installation&gt;</t>
+  </si>
+  <si>
+    <t>Service Discussion with Arul and Spliting the Service</t>
+  </si>
+  <si>
+    <t>Service-Course</t>
+  </si>
+  <si>
+    <t>Discussion about New Timesheet And Team Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared for Internal Review </t>
+  </si>
+  <si>
+    <t>Session about Serivces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared for Internal review </t>
+  </si>
+  <si>
+    <t>Working on WebAPI (Review  services)</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;data type,variable,type script &gt;</t>
+  </si>
+  <si>
+    <t>evening Break</t>
+  </si>
+  <si>
+    <t>Understanding the Department,User Services</t>
+  </si>
+  <si>
+    <t>Estimation for Coordinator list page</t>
+  </si>
+  <si>
+    <t>Reworking on model(review service)</t>
+  </si>
+  <si>
+    <t>Timesheet Updating</t>
+  </si>
+  <si>
+    <t>Estimation for ProfileView</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Typescript introduction&gt;</t>
+  </si>
+  <si>
+    <t>discussion on services and spliting the services</t>
+  </si>
+  <si>
+    <t>Service-Role</t>
+  </si>
+  <si>
+    <t>Estimation for unique pages</t>
+  </si>
+  <si>
+    <t>discussion about the rank table</t>
+  </si>
+  <si>
+    <t>Timesheet</t>
+  </si>
+  <si>
+    <t>Working on HTML layout (Refining)</t>
+  </si>
+  <si>
+    <t>Estimation for department page</t>
+  </si>
+  <si>
+    <t>Discussion on services and spliting the services</t>
+  </si>
+  <si>
+    <t>Angular session &lt;Typescript introduction&gt;</t>
+  </si>
+  <si>
+    <t>Pulling from git  (Web API), Exploring and working on department services</t>
+  </si>
+  <si>
     <t>Learned Angular &lt;Topics&gt;</t>
-  </si>
-  <si>
-    <t>Working on HTML layout</t>
-  </si>
-  <si>
-    <t>Time Sheet</t>
-  </si>
-  <si>
-    <t>Database Migration</t>
-  </si>
-  <si>
-    <t>Logging in user services &amp; user controller</t>
-  </si>
-  <si>
-    <t>User Services List of Users by Role</t>
-  </si>
-  <si>
-    <t>client meeting</t>
-  </si>
-  <si>
-    <t>helping other team with ui</t>
-  </si>
-  <si>
-    <t>CRUD Operation in user Services</t>
-  </si>
-  <si>
-    <t>Time Sheet Updating</t>
-  </si>
-  <si>
-    <t>Estimation for Dashboard</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;Typescript Introduction and  Installation&gt;</t>
-  </si>
-  <si>
-    <t>Discussion about Services with Arul and Spliting Services</t>
-  </si>
-  <si>
-    <t>Service-Review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Updating TimeSheet </t>
-  </si>
-  <si>
-    <t>Estimation Preparation</t>
-  </si>
-  <si>
-    <t>Web API Exploration</t>
-  </si>
-  <si>
-    <t>Working on Feedback services</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;TypeScript Introduction and Simple Examples&gt;</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;Introduction of Typescript , VS code Installation&gt;</t>
-  </si>
-  <si>
-    <t>Service Discussion with Arul and Spliting the Service</t>
-  </si>
-  <si>
-    <t>Service-Course</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepared for Internal Review </t>
-  </si>
-  <si>
-    <t>Technical Session</t>
-  </si>
-  <si>
-    <t>Working on WebAPI (Review )</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;data type &gt;</t>
-  </si>
-  <si>
-    <t>Timesheet Updating</t>
-  </si>
-  <si>
-    <t>Estimation for ProfileView</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;Typescript introduction&gt;</t>
-  </si>
-  <si>
-    <t>discussion on services and spliting the services</t>
-  </si>
-  <si>
-    <t>Service-Role</t>
-  </si>
-  <si>
-    <t>Estimation for unique pages</t>
-  </si>
-  <si>
-    <t>Timesheet</t>
-  </si>
-  <si>
-    <t>Pulling from git and Web API exploration</t>
-  </si>
-  <si>
-    <t>Estimation for department page</t>
-  </si>
-  <si>
-    <t>013:00:00</t>
   </si>
 </sst>
 </file>
@@ -2450,6 +2510,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2480,7 +2541,6 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="21" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3827,14 +3887,14 @@
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="16" t="s">
@@ -4338,14 +4398,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="89" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
     </row>
     <row r="4" spans="1:22" ht="101.25" customHeight="1">
       <c r="A4" s="16" t="s">
@@ -4588,14 +4648,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="89" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
     </row>
     <row r="4" spans="1:7" ht="49.5">
       <c r="A4" s="16" t="s">
@@ -4705,27 +4765,27 @@
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
     </row>
     <row r="11" spans="1:7" ht="36.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="94"/>
     </row>
     <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
@@ -5003,7 +5063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7172FC-5606-4FD6-B7B3-02AB5BD496A0}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -5062,15 +5122,15 @@
         <v>9</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>346</v>
+        <v>468</v>
       </c>
       <c r="C3" s="58"/>
       <c r="D3" s="58"/>
       <c r="E3" s="59" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G3" s="71"/>
     </row>
@@ -5079,10 +5139,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D4" s="61"/>
       <c r="E4" s="61" t="s">
@@ -5098,17 +5158,17 @@
         <v>16</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C5" s="58" t="s">
         <v>319</v>
       </c>
       <c r="D5" s="58"/>
       <c r="E5" s="58" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F5" s="75" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G5" s="54"/>
     </row>
@@ -5118,14 +5178,14 @@
       </c>
       <c r="B6" s="63"/>
       <c r="C6" s="58" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D6" s="58"/>
       <c r="E6" s="64" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G6" s="72"/>
     </row>
@@ -5134,17 +5194,17 @@
         <v>19</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D7" s="58"/>
       <c r="E7" s="64" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G7" s="70"/>
     </row>
@@ -5154,14 +5214,14 @@
       </c>
       <c r="B8" s="65"/>
       <c r="C8" s="74" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D8" s="58"/>
       <c r="E8" s="59" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G8" s="70"/>
     </row>
@@ -5173,14 +5233,14 @@
         <v>302</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D9" s="58"/>
       <c r="E9" s="64" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G9" s="70"/>
     </row>
@@ -5189,17 +5249,17 @@
         <v>22</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C10" s="58" t="s">
         <v>319</v>
       </c>
       <c r="D10" s="58"/>
       <c r="E10" s="58" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G10" s="70"/>
     </row>
@@ -5208,17 +5268,17 @@
         <v>24</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C11" s="76" t="s">
         <v>319</v>
       </c>
       <c r="D11" s="66"/>
       <c r="E11" s="64" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="141.75" customHeight="1">
@@ -5227,14 +5287,14 @@
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="67" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="68" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G12" s="73"/>
     </row>
@@ -5250,8 +5310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C319A4C-EADA-4641-96D7-D7B692B906C8}">
   <dimension ref="A1:Q165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="H146" sqref="H146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5270,34 +5330,34 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="78" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B1" s="78" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C1" s="78" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D1" s="79" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E1" s="79" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F1" s="79" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="95" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D2" s="81">
         <v>0.36458333333333331</v>
@@ -5310,22 +5370,22 @@
         <v>1.7361111111111105E-2</v>
       </c>
       <c r="H2" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I2" s="79" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q2" t="s">
         <v>504</v>
       </c>
-      <c r="I2" s="79" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>503</v>
-      </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="94"/>
+      <c r="A3" s="95"/>
       <c r="B3" s="80" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C3" s="80" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D3" s="81">
         <v>0.40972222222222227</v>
@@ -5338,23 +5398,23 @@
         <v>3.125E-2</v>
       </c>
       <c r="H3" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I3" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H3)</f>
         <v>0.14583333333333331</v>
       </c>
       <c r="Q3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="94"/>
+      <c r="A4" s="95"/>
       <c r="B4" s="80" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D4" s="81">
         <v>0.44097222222222227</v>
@@ -5367,23 +5427,23 @@
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="H4" s="83" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I4" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H4)</f>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="Q4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="94"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="80" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D5" s="81">
         <v>0.48958333333333331</v>
@@ -5392,27 +5452,27 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="F5" s="81">
-        <f t="shared" ref="F5" si="1">E5-D5</f>
+        <f>E5-D5</f>
         <v>2.7777777777777735E-2</v>
       </c>
       <c r="H5" s="83" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I5" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H5)</f>
         <v>6.25E-2</v>
       </c>
       <c r="Q5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="94"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="80" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D6" s="81">
         <v>0.64583333333333337</v>
@@ -5425,23 +5485,23 @@
         <v>6.25E-2</v>
       </c>
       <c r="H6" s="83" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I6" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H6)</f>
         <v>3.125E-2</v>
       </c>
       <c r="Q6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="94"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="80" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D7" s="81">
         <v>0.63541666666666663</v>
@@ -5454,23 +5514,23 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="H7" s="83" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I7" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H7)</f>
         <v>2.7777777777777735E-2</v>
       </c>
       <c r="Q7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="94"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="80" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D8" s="81">
         <v>0.58333333333333337</v>
@@ -5479,11 +5539,11 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="F8" s="81">
-        <f t="shared" ref="F8" si="2">E8-D8</f>
+        <f>E8-D8</f>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="H8" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I8" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H8)</f>
@@ -5491,12 +5551,12 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="94"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="80" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D9" s="81">
         <v>0.54166666666666663</v>
@@ -5509,7 +5569,7 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="H9" s="78" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I9" s="79">
         <f>SUM(I3:I8)</f>
@@ -5517,12 +5577,12 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="94"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="80" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D10" s="81">
         <v>0.43055555555555558</v>
@@ -5537,12 +5597,12 @@
       <c r="I10" s="84"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="94"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="80" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C11" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D11" s="81">
         <v>0.69791666666666663</v>
@@ -5557,12 +5617,12 @@
       <c r="I11" s="84"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="94"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="80" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D12" s="81">
         <v>0.70833333333333337</v>
@@ -5571,34 +5631,34 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="F12" s="81">
-        <f t="shared" ref="F12:F14" si="3">E12-D12</f>
+        <f>E12-D12</f>
         <v>2.777777777777779E-2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="94"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
       <c r="D13" s="81"/>
       <c r="E13" s="81"/>
       <c r="F13" s="81">
-        <f t="shared" si="3"/>
+        <f>E13-D13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="94"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="80"/>
       <c r="C14" s="80"/>
       <c r="D14" s="81"/>
       <c r="E14" s="81"/>
       <c r="F14" s="81">
-        <f t="shared" si="3"/>
+        <f>E14-D14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="94"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="80"/>
       <c r="C15" s="80"/>
       <c r="D15" s="81"/>
@@ -5609,7 +5669,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="94"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="80"/>
       <c r="C16" s="80"/>
       <c r="D16" s="81"/>
@@ -5620,236 +5680,188 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="95" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="80" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D17" s="81">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="E17" s="81">
-        <v>0.4236111111111111</v>
+        <v>17.708333333333332</v>
       </c>
       <c r="F17" s="81">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="H17" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I17" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="95"/>
+      <c r="B18" s="80" t="s">
+        <v>524</v>
+      </c>
+      <c r="C18" s="80" t="s">
         <v>504</v>
       </c>
-      <c r="I17" s="79" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="94"/>
-      <c r="B18" s="80" t="s">
-        <v>522</v>
-      </c>
-      <c r="C18" s="80" t="s">
-        <v>508</v>
-      </c>
       <c r="D18" s="81">
-        <v>0.42708333333333331</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E18" s="81">
-        <v>0.45833333333333331</v>
+        <v>21.875</v>
       </c>
       <c r="F18" s="81">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>21.041666666666668</v>
       </c>
       <c r="H18" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I18" s="81">
-        <f t="shared" ref="I18" si="4">SUMIFS(F17:F31, C17:C31,H18)</f>
-        <v>0.22916666666666674</v>
+        <f t="shared" ref="I18" si="1">SUMIFS(F17:F31, C17:C31,H18)</f>
+        <v>21.125</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="94"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="80" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D19" s="81">
-        <v>0.45833333333333331</v>
+        <v>21.875</v>
       </c>
       <c r="E19" s="81">
-        <v>0.47222222222222227</v>
+        <v>21.958333333333332</v>
       </c>
       <c r="F19" s="81">
         <f t="shared" si="0"/>
-        <v>1.3888888888888951E-2</v>
+        <v>8.3333333333332149E-2</v>
       </c>
       <c r="H19" s="83" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I19" s="81">
-        <f t="shared" ref="I19" si="5">SUMIFS(F17:F31, C17:C31,H19)</f>
-        <v>7.2916666666666685E-2</v>
+        <f t="shared" ref="I19" si="2">SUMIFS(F17:F31, C17:C31,H19)</f>
+        <v>17.333333333333332</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="94"/>
-      <c r="B20" s="80" t="s">
-        <v>522</v>
-      </c>
-      <c r="C20" s="80" t="s">
-        <v>508</v>
-      </c>
-      <c r="D20" s="81">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E20" s="81">
-        <v>0.52083333333333337</v>
-      </c>
+      <c r="A20" s="95"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
       <c r="F20" s="81">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>0</v>
       </c>
       <c r="H20" s="83" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I20" s="81">
-        <f t="shared" ref="I20" si="6">SUMIFS(F17:F31, C17:C31,H20)</f>
+        <f t="shared" ref="I20" si="3">SUMIFS(F17:F31, C17:C31,H20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="94"/>
-      <c r="B21" s="80" t="s">
-        <v>517</v>
-      </c>
-      <c r="C21" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D21" s="81">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E21" s="81">
-        <v>0.54166666666666663</v>
-      </c>
+      <c r="A21" s="95"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
       <c r="F21" s="81">
         <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
+        <v>0</v>
       </c>
       <c r="H21" s="83" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I21" s="81">
-        <f t="shared" ref="I21" si="7">SUMIFS(F17:F31, C17:C31,H21)</f>
+        <f t="shared" ref="I21" si="4">SUMIFS(F17:F31, C17:C31,H21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="94"/>
-      <c r="B22" s="80" t="s">
-        <v>519</v>
-      </c>
-      <c r="C22" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D22" s="81">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="E22" s="81">
-        <v>0.47916666666666669</v>
-      </c>
+      <c r="A22" s="95"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
       <c r="F22" s="81">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>0</v>
       </c>
       <c r="H22" s="83" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I22" s="81">
-        <f t="shared" ref="I22" si="8">SUMIFS(F17:F31, C17:C31,H22)</f>
+        <f t="shared" ref="I22" si="5">SUMIFS(F17:F31, C17:C31,H22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="94"/>
-      <c r="B23" s="80" t="s">
-        <v>520</v>
-      </c>
-      <c r="C23" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D23" s="81">
-        <v>0.65625</v>
-      </c>
-      <c r="E23" s="81">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="A23" s="95"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
       <c r="F23" s="81">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I23" s="81">
-        <f t="shared" ref="I23" si="9">SUMIFS(F17:F31, C17:C31,H23)</f>
-        <v>3.8194444444444309E-2</v>
+        <f t="shared" ref="I23" si="6">SUMIFS(F17:F31, C17:C31,H23)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="94"/>
-      <c r="B24" s="80" t="s">
-        <v>523</v>
-      </c>
-      <c r="C24" s="80" t="s">
-        <v>503</v>
-      </c>
-      <c r="D24" s="81">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E24" s="81">
-        <v>0.75</v>
-      </c>
+      <c r="A24" s="95"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
       <c r="F24" s="81">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="H24" s="78" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I24" s="79">
-        <f t="shared" ref="I24" si="10">SUM(I18:I23)</f>
-        <v>0.34027777777777773</v>
+        <f t="shared" ref="I24" si="7">SUM(I18:I23)</f>
+        <v>38.458333333333329</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="94"/>
-      <c r="B25" s="80" t="s">
-        <v>524</v>
-      </c>
-      <c r="C25" s="80" t="s">
-        <v>503</v>
-      </c>
-      <c r="D25" s="81">
-        <v>0.75</v>
-      </c>
-      <c r="E25" s="81">
-        <v>0.875</v>
-      </c>
+      <c r="A25" s="95"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="81">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I25" s="84"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="94"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="80"/>
       <c r="C26" s="80"/>
       <c r="D26" s="81"/>
@@ -5861,7 +5873,7 @@
       <c r="I26" s="84"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="94"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="80"/>
       <c r="C27" s="80"/>
       <c r="D27" s="81"/>
@@ -5872,7 +5884,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="94"/>
+      <c r="A28" s="95"/>
       <c r="B28" s="80"/>
       <c r="C28" s="80"/>
       <c r="D28" s="81"/>
@@ -5883,7 +5895,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="94"/>
+      <c r="A29" s="95"/>
       <c r="B29" s="80"/>
       <c r="C29" s="80"/>
       <c r="D29" s="81"/>
@@ -5894,7 +5906,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="94"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="80"/>
       <c r="C30" s="80"/>
       <c r="D30" s="81"/>
@@ -5905,7 +5917,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="94"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="80"/>
       <c r="C31" s="80"/>
       <c r="D31" s="81"/>
@@ -5916,14 +5928,14 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="95" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="80" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C32" s="80" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D32" s="81">
         <v>0.375</v>
@@ -5936,19 +5948,19 @@
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="H32" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I32" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="95"/>
+      <c r="B33" s="80" t="s">
+        <v>527</v>
+      </c>
+      <c r="C33" s="80" t="s">
         <v>504</v>
-      </c>
-      <c r="I32" s="79" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="94"/>
-      <c r="B33" s="80" t="s">
-        <v>526</v>
-      </c>
-      <c r="C33" s="80" t="s">
-        <v>503</v>
       </c>
       <c r="D33" s="81">
         <v>0.3888888888888889</v>
@@ -5961,20 +5973,20 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H33" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I33" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H33)</f>
-        <v>0.11458333333333337</v>
+        <v>0.12847222222222221</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="94"/>
+      <c r="A34" s="95"/>
       <c r="B34" s="80" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C34" s="80" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D34" s="81">
         <v>0.40972222222222227</v>
@@ -5987,7 +5999,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="H34" s="83" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I34" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H34)</f>
@@ -5995,12 +6007,12 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="94"/>
+      <c r="A35" s="95"/>
       <c r="B35" s="80" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C35" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D35" s="81">
         <v>0.44097222222222227</v>
@@ -6013,20 +6025,20 @@
         <v>1.041666666666663E-2</v>
       </c>
       <c r="H35" s="83" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I35" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H35)</f>
-        <v>0</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="94"/>
+      <c r="A36" s="95"/>
       <c r="B36" s="80" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C36" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D36" s="81">
         <v>0.4513888888888889</v>
@@ -6039,7 +6051,7 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H36" s="83" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I36" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H36)</f>
@@ -6047,12 +6059,12 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="94"/>
+      <c r="A37" s="95"/>
       <c r="B37" s="80" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C37" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D37" s="81">
         <v>0.47222222222222227</v>
@@ -6065,7 +6077,7 @@
         <v>1.7361111111111049E-2</v>
       </c>
       <c r="H37" s="83" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I37" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H37)</f>
@@ -6073,12 +6085,12 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="94"/>
+      <c r="A38" s="95"/>
       <c r="B38" s="80" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C38" s="80" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D38" s="81">
         <v>0.4916666666666667</v>
@@ -6091,7 +6103,7 @@
         <v>2.3611111111111138E-2</v>
       </c>
       <c r="H38" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I38" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H38)</f>
@@ -6099,12 +6111,12 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="94"/>
+      <c r="A39" s="95"/>
       <c r="B39" s="80" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C39" s="80" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D39" s="81">
         <v>0.5180555555555556</v>
@@ -6117,44 +6129,60 @@
         <v>9.7222222222221877E-3</v>
       </c>
       <c r="H39" s="78" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I39" s="79">
-        <f t="shared" ref="I39" si="11">SUM(I33:I38)</f>
-        <v>0.24305555555555552</v>
+        <f t="shared" ref="I39" si="8">SUM(I33:I38)</f>
+        <v>0.35069444444444436</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="94"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
+      <c r="A40" s="95"/>
+      <c r="B40" s="80" t="s">
+        <v>532</v>
+      </c>
+      <c r="C40" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D40" s="81">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E40" s="81">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="F40" s="81">
         <f>E40-D40</f>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="I40" s="84"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="94"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
+      <c r="A41" s="95"/>
+      <c r="B41" s="80" t="s">
+        <v>533</v>
+      </c>
+      <c r="C41" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="D41" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E41" s="81">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F41" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="K41" s="81"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="94"/>
+      <c r="A42" s="95"/>
       <c r="B42" s="80" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C42" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D42" s="81">
         <v>0.54166666666666663</v>
@@ -6168,12 +6196,12 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="94"/>
+      <c r="A43" s="95"/>
       <c r="B43" s="80" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C43" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D43" s="81">
         <v>0.57638888888888895</v>
@@ -6187,18 +6215,26 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="94"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
+      <c r="A44" s="95"/>
+      <c r="B44" s="80" t="s">
+        <v>535</v>
+      </c>
+      <c r="C44" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="D44" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E44" s="81">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F44" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="94"/>
+      <c r="A45" s="95"/>
       <c r="B45" s="80"/>
       <c r="C45" s="80"/>
       <c r="D45" s="81"/>
@@ -6209,14 +6245,14 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="94" t="s">
+      <c r="A46" s="95" t="s">
         <v>16</v>
       </c>
       <c r="B46" s="80" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C46" s="80" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D46" s="81">
         <v>0.375</v>
@@ -6229,19 +6265,19 @@
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="H46" s="79" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I46" s="79" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="94"/>
+      <c r="A47" s="95"/>
       <c r="B47" s="80" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C47" s="80" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D47" s="81">
         <v>0.40972222222222227</v>
@@ -6254,46 +6290,46 @@
         <v>3.125E-2</v>
       </c>
       <c r="H47" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I47" s="81">
-        <f t="shared" ref="I47" si="12">SUMIFS(F46:F60, C46:C60,H47)</f>
-        <v>0.14236111111111099</v>
+        <f t="shared" ref="I47" si="9">SUMIFS(F46:F60, C46:C60,H47)</f>
+        <v>13.149305555555555</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="94"/>
+      <c r="A48" s="95"/>
       <c r="B48" s="80" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C48" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D48" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="E48" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="F48" s="81">
         <f t="shared" si="0"/>
-        <v>2.083333333333337E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="H48" s="83" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I48" s="81">
-        <f t="shared" ref="I48" si="13">SUMIFS(F46:F60, C46:C60,H48)</f>
-        <v>2.0833333333333315E-2</v>
+        <f t="shared" ref="I48" si="10">SUMIFS(F46:F60, C46:C60,H48)</f>
+        <v>2.6388888888888962E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="94"/>
+      <c r="A49" s="95"/>
       <c r="B49" s="80" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C49" s="80" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="D49" s="81">
         <v>0.48958333333333331</v>
@@ -6306,20 +6342,20 @@
         <v>2.7777777777777735E-2</v>
       </c>
       <c r="H49" s="83" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I49" s="81">
-        <f t="shared" ref="I49" si="14">SUMIFS(F46:F60, C46:C60,H49)</f>
+        <f t="shared" ref="I49" si="11">SUMIFS(F46:F60, C46:C60,H49)</f>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="94"/>
+      <c r="A50" s="95"/>
       <c r="B50" s="80" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C50" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D50" s="81">
         <v>0.54166666666666663</v>
@@ -6332,20 +6368,20 @@
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="H50" s="83" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I50" s="81">
-        <f t="shared" ref="I50" si="15">SUMIFS(F46:F60, C46:C60,H50)</f>
+        <f t="shared" ref="I50" si="12">SUMIFS(F46:F60, C46:C60,H50)</f>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="94"/>
+      <c r="A51" s="95"/>
       <c r="B51" s="80" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C51" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D51" s="81">
         <v>0.44097222222222227</v>
@@ -6358,20 +6394,20 @@
         <v>1.7361111111111049E-2</v>
       </c>
       <c r="H51" s="83" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I51" s="81">
-        <f t="shared" ref="I51" si="16">SUMIFS(F46:F60, C46:C60,H51)</f>
-        <v>0</v>
+        <f t="shared" ref="I51" si="13">SUMIFS(F46:F60, C46:C60,H51)</f>
+        <v>2.7777777777777735E-2</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="94"/>
+      <c r="A52" s="95"/>
       <c r="B52" s="80" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C52" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D52" s="81">
         <v>0.63541666666666663</v>
@@ -6384,20 +6420,20 @@
         <v>1.0416666666666741E-2</v>
       </c>
       <c r="H52" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I52" s="81">
-        <f t="shared" ref="I52" si="17">SUMIFS(F46:F60, C46:C60,H52)</f>
+        <f t="shared" ref="I52" si="14">SUMIFS(F46:F60, C46:C60,H52)</f>
         <v>6.9444444444444531E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="94"/>
+      <c r="A53" s="95"/>
       <c r="B53" s="80" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C53" s="80" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D53" s="81">
         <v>0.64583333333333337</v>
@@ -6410,20 +6446,20 @@
         <v>6.25E-2</v>
       </c>
       <c r="H53" s="78" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I53" s="79">
-        <f t="shared" ref="I53" si="18">SUM(I47:I52)</f>
-        <v>0.32638888888888884</v>
+        <f t="shared" ref="I53" si="15">SUM(I47:I52)</f>
+        <v>13.366666666666667</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="94"/>
+      <c r="A54" s="95"/>
       <c r="B54" s="80" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C54" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D54" s="81">
         <v>0.58333333333333337</v>
@@ -6438,12 +6474,12 @@
       <c r="I54" s="84"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="94"/>
+      <c r="A55" s="95"/>
       <c r="B55" s="80" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C55" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D55" s="81">
         <v>0.875</v>
@@ -6458,40 +6494,64 @@
       <c r="I55" s="84"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="94"/>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
+      <c r="A56" s="95"/>
+      <c r="B56" s="80" t="s">
+        <v>541</v>
+      </c>
+      <c r="C56" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D56" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E56" s="81">
+        <v>13.541666666666666</v>
+      </c>
       <c r="F56" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.020833333333332</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="94"/>
-      <c r="B57" s="80"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
+      <c r="A57" s="95"/>
+      <c r="B57" s="80" t="s">
+        <v>542</v>
+      </c>
+      <c r="C57" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D57" s="81">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E57" s="81">
+        <v>0.47222222222222227</v>
+      </c>
       <c r="F57" s="81">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E57-D57</f>
+        <v>5.5555555555556468E-3</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="94"/>
-      <c r="B58" s="80"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
+      <c r="A58" s="95"/>
+      <c r="B58" s="80" t="s">
+        <v>543</v>
+      </c>
+      <c r="C58" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D58" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E58" s="81">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="F58" s="81">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E58-D58</f>
+        <v>2.0833333333333259E-2</v>
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="94"/>
+      <c r="A59" s="95"/>
       <c r="B59" s="80"/>
       <c r="C59" s="80"/>
       <c r="D59" s="81"/>
@@ -6502,7 +6562,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="94"/>
+      <c r="A60" s="95"/>
       <c r="B60" s="80"/>
       <c r="C60" s="80"/>
       <c r="D60" s="81"/>
@@ -6513,14 +6573,14 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="94" t="s">
+      <c r="A61" s="95" t="s">
         <v>17</v>
       </c>
       <c r="B61" s="80" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="C61" s="80" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D61" s="81">
         <v>0.35416666666666669</v>
@@ -6533,19 +6593,19 @@
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="H61" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I61" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="95"/>
+      <c r="B62" s="80" t="s">
+        <v>545</v>
+      </c>
+      <c r="C62" s="80" t="s">
         <v>504</v>
-      </c>
-      <c r="I61" s="79" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="94"/>
-      <c r="B62" s="80" t="s">
-        <v>524</v>
-      </c>
-      <c r="C62" s="80" t="s">
-        <v>503</v>
       </c>
       <c r="D62" s="81">
         <v>0.38194444444444442</v>
@@ -6558,20 +6618,20 @@
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="H62" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I62" s="81">
         <f>SUMIFS(F61:F71, C61:C71,H62)</f>
-        <v>7.9861111111111119E-2</v>
+        <v>0.10069444444444438</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="94"/>
+      <c r="A63" s="95"/>
       <c r="B63" s="80" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C63" s="80" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D63" s="81">
         <v>0.40972222222222227</v>
@@ -6584,20 +6644,20 @@
         <v>3.125E-2</v>
       </c>
       <c r="H63" s="83" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I63" s="81">
         <f>SUMIFS(F61:F71, C61:C71,H63)</f>
-        <v>4.1666666666666574E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="94"/>
+      <c r="A64" s="95"/>
       <c r="B64" s="80" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C64" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D64" s="81">
         <v>0.44444444444444442</v>
@@ -6610,7 +6670,7 @@
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="H64" s="83" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I64" s="81">
         <f>SUMIFS(F61:F71, C61:C71,H64)</f>
@@ -6618,12 +6678,12 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="94"/>
+      <c r="A65" s="95"/>
       <c r="B65" s="80" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="C65" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D65" s="81">
         <v>0.46180555555555558</v>
@@ -6636,7 +6696,7 @@
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="H65" s="83" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I65" s="81">
         <f>SUMIFS(F61:F71, C61:C71,H65)</f>
@@ -6644,12 +6704,12 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="94"/>
+      <c r="A66" s="95"/>
       <c r="B66" s="80" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C66" s="80" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D66" s="81">
         <v>0.4916666666666667</v>
@@ -6662,7 +6722,7 @@
         <v>2.3611111111111138E-2</v>
       </c>
       <c r="H66" s="83" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I66" s="81">
         <f>SUMIFS(F61:F71, C61:C71,H66)</f>
@@ -6670,12 +6730,12 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="94"/>
+      <c r="A67" s="95"/>
       <c r="B67" s="80" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C67" s="80" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D67" s="81">
         <v>0.52083333333333337</v>
@@ -6688,7 +6748,7 @@
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="H67" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I67" s="81">
         <f>SUMIFS(F61:F71, C61:C71,H67)</f>
@@ -6696,12 +6756,12 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="94"/>
+      <c r="A68" s="95"/>
       <c r="B68" s="80" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C68" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D68" s="81">
         <v>0.54166666666666663</v>
@@ -6714,20 +6774,20 @@
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="H68" s="78" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I68" s="79">
-        <f t="shared" ref="I68" si="19">SUM(I62:I67)</f>
+        <f t="shared" ref="I68" si="16">SUM(I62:I67)</f>
         <v>3.3013888888888889</v>
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="94"/>
+      <c r="A69" s="95"/>
       <c r="B69" s="80" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="C69" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D69" s="81">
         <v>9.0277777777777776E-2</v>
@@ -6742,12 +6802,12 @@
       <c r="I69" s="84"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="94"/>
+      <c r="A70" s="95"/>
       <c r="B70" s="80" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="C70" s="80" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D70" s="81">
         <v>0.64583333333333337</v>
@@ -6762,12 +6822,12 @@
       <c r="I70" s="84"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="94"/>
+      <c r="A71" s="95"/>
       <c r="B71" s="80" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C71" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D71" s="81">
         <v>0.71527777777777779</v>
@@ -6781,26 +6841,42 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="94"/>
+      <c r="A72" s="95"/>
+      <c r="B72" t="s">
+        <v>543</v>
+      </c>
+      <c r="C72" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D72" s="81">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="E72" s="81">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F72" s="81">
+        <f>E72-D72</f>
+        <v>1.388888888888884E-2</v>
+      </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="94"/>
+      <c r="A73" s="95"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="94"/>
+      <c r="A74" s="95"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="94"/>
+      <c r="A75" s="95"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="94" t="s">
+      <c r="A76" s="95" t="s">
         <v>19</v>
       </c>
       <c r="B76" s="80" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C76" s="80" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D76" s="81">
         <v>0.40972222222222227</v>
@@ -6809,23 +6885,23 @@
         <v>0.44097222222222227</v>
       </c>
       <c r="F76" s="81">
-        <f t="shared" ref="F76:F129" si="20">E76-D76</f>
+        <f t="shared" ref="F76:F129" si="17">E76-D76</f>
         <v>3.125E-2</v>
       </c>
       <c r="H76" s="79" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I76" s="79" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="94"/>
+      <c r="A77" s="95"/>
       <c r="B77" s="80" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="C77" s="80" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D77" s="81">
         <v>0</v>
@@ -6834,24 +6910,24 @@
         <v>0</v>
       </c>
       <c r="F77" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H77" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I77" s="81">
-        <f t="shared" ref="I77" si="21">SUMIFS(F76:F90, C76:C90,H77)</f>
+        <f t="shared" ref="I77" si="18">SUMIFS(F76:F90, C76:C90,H77)</f>
         <v>0.12986111111111098</v>
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="94"/>
+      <c r="A78" s="95"/>
       <c r="B78" s="80" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C78" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D78" s="81">
         <v>0.4916666666666667</v>
@@ -6860,24 +6936,24 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="F78" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>2.5694444444444353E-2</v>
       </c>
       <c r="H78" s="83" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I78" s="81">
-        <f t="shared" ref="I78" si="22">SUMIFS(F76:F90, C76:C90,H78)</f>
-        <v>1.388888888888884E-2</v>
+        <f t="shared" ref="I78" si="19">SUMIFS(F76:F90, C76:C90,H78)</f>
+        <v>1.9444444444444486E-2</v>
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="94"/>
+      <c r="A79" s="95"/>
       <c r="B79" s="80" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="C79" s="80" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D79" s="81">
         <v>0</v>
@@ -6886,24 +6962,24 @@
         <v>0</v>
       </c>
       <c r="F79" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H79" s="83" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I79" s="81">
-        <f t="shared" ref="I79" si="23">SUMIFS(F76:F90, C76:C90,H79)</f>
+        <f t="shared" ref="I79" si="20">SUMIFS(F76:F90, C76:C90,H79)</f>
         <v>6.3888888888888884E-2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="94"/>
+      <c r="A80" s="95"/>
       <c r="B80" s="80" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C80" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D80" s="81">
         <v>0.53125</v>
@@ -6912,24 +6988,24 @@
         <v>0.5625</v>
       </c>
       <c r="F80" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>3.125E-2</v>
       </c>
       <c r="H80" s="83" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I80" s="81">
-        <f t="shared" ref="I80" si="24">SUMIFS(F76:F90, C76:C90,H80)</f>
+        <f t="shared" ref="I80" si="21">SUMIFS(F76:F90, C76:C90,H80)</f>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="94"/>
+      <c r="A81" s="95"/>
       <c r="B81" s="80" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C81" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D81" s="81">
         <v>0.44444444444444442</v>
@@ -6938,24 +7014,24 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F81" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="H81" s="83" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I81" s="81">
-        <f t="shared" ref="I81" si="25">SUMIFS(F76:F90, C76:C90,H81)</f>
+        <f t="shared" ref="I81" si="22">SUMIFS(F76:F90, C76:C90,H81)</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="94"/>
+      <c r="A82" s="95"/>
       <c r="B82" s="80" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C82" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D82" s="81">
         <v>0.63541666666666663</v>
@@ -6964,24 +7040,24 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F82" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1.0416666666666741E-2</v>
       </c>
       <c r="H82" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I82" s="81">
-        <f t="shared" ref="I82" si="26">SUMIFS(F76:F90, C76:C90,H82)</f>
+        <f t="shared" ref="I82" si="23">SUMIFS(F76:F90, C76:C90,H82)</f>
         <v>5.5555555555555636E-2</v>
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="94"/>
+      <c r="A83" s="95"/>
       <c r="B83" s="80" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="C83" s="80" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D83" s="81">
         <v>0.64583333333333337</v>
@@ -6990,24 +7066,24 @@
         <v>0.70972222222222225</v>
       </c>
       <c r="F83" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="H83" s="78" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I83" s="79">
-        <f t="shared" ref="I83" si="27">SUM(I77:I82)</f>
-        <v>0.29444444444444434</v>
+        <f t="shared" ref="I83" si="24">SUM(I77:I82)</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="94"/>
+      <c r="A84" s="95"/>
       <c r="B84" s="80" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C84" s="80" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D84" s="81">
         <v>0.36805555555555558</v>
@@ -7016,18 +7092,18 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="F84" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1.388888888888884E-2</v>
       </c>
       <c r="I84" s="84"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="94"/>
+      <c r="A85" s="95"/>
       <c r="B85" s="80" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="C85" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D85" s="81">
         <v>0.58333333333333337</v>
@@ -7042,12 +7118,12 @@
       <c r="I85" s="84"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="94"/>
+      <c r="A86" s="95"/>
       <c r="B86" s="80" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="C86" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D86" s="81">
         <v>0.875</v>
@@ -7056,63 +7132,71 @@
         <v>0.92708333333333337</v>
       </c>
       <c r="F86" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>5.208333333333337E-2</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="94"/>
-      <c r="B87" s="80"/>
-      <c r="C87" s="80"/>
-      <c r="D87" s="81"/>
-      <c r="E87" s="81"/>
+      <c r="A87" s="95"/>
+      <c r="B87" s="80" t="s">
+        <v>554</v>
+      </c>
+      <c r="C87" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D87" s="81">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E87" s="81">
+        <v>0.47222222222222227</v>
+      </c>
       <c r="F87" s="81">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>5.5555555555556468E-3</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="94"/>
+      <c r="A88" s="95"/>
       <c r="B88" s="80"/>
       <c r="C88" s="80"/>
       <c r="D88" s="81"/>
       <c r="E88" s="81"/>
       <c r="F88" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="94"/>
+      <c r="A89" s="95"/>
       <c r="B89" s="80"/>
       <c r="C89" s="80"/>
       <c r="D89" s="81"/>
       <c r="E89" s="81"/>
       <c r="F89" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="94"/>
+      <c r="A90" s="95"/>
       <c r="B90" s="80"/>
       <c r="C90" s="80"/>
       <c r="D90" s="81"/>
       <c r="E90" s="81"/>
       <c r="F90" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="94" t="s">
+      <c r="A91" s="95" t="s">
         <v>20</v>
       </c>
       <c r="B91" s="80" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C91" s="80" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D91" s="81">
         <v>0.40972222222222227</v>
@@ -7121,23 +7205,23 @@
         <v>0.44097222222222227</v>
       </c>
       <c r="F91" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>3.125E-2</v>
       </c>
       <c r="H91" s="79" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I91" s="79" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="94"/>
+      <c r="A92" s="95"/>
       <c r="B92" s="80" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="C92" s="80" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D92" s="81">
         <v>0</v>
@@ -7146,24 +7230,24 @@
         <v>0</v>
       </c>
       <c r="F92" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H92" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I92" s="81">
-        <f t="shared" ref="I92" si="28">SUMIFS(F91:F105, C91:C105,H92)</f>
-        <v>0.1388888888888889</v>
+        <f t="shared" ref="I92" si="25">SUMIFS(F91:F105, C91:C105,H92)</f>
+        <v>6.5972222222222154E-2</v>
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="94"/>
+      <c r="A93" s="95"/>
       <c r="B93" s="80" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C93" s="80" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D93" s="81">
         <v>0.4916666666666667</v>
@@ -7172,24 +7256,24 @@
         <v>0.51527777777777783</v>
       </c>
       <c r="F93" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>2.3611111111111138E-2</v>
       </c>
       <c r="H93" s="83" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I93" s="81">
-        <f t="shared" ref="I93" si="29">SUMIFS(F91:F105, C91:C105,H93)</f>
-        <v>0.14583333333333337</v>
+        <f t="shared" ref="I93" si="26">SUMIFS(F91:F105, C91:C105,H93)</f>
+        <v>0.17708333333333326</v>
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="94"/>
+      <c r="A94" s="95"/>
       <c r="B94" s="80" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="C94" s="80" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D94" s="81">
         <v>0</v>
@@ -7202,20 +7286,20 @@
         <v>0</v>
       </c>
       <c r="H94" s="83" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I94" s="81">
-        <f t="shared" ref="I94" si="30">SUMIFS(F91:F105, C91:C105,H94)</f>
+        <f t="shared" ref="I94" si="27">SUMIFS(F91:F105, C91:C105,H94)</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="94"/>
+      <c r="A95" s="95"/>
       <c r="B95" s="80" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C95" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D95" s="81">
         <v>0.54861111111111105</v>
@@ -7224,122 +7308,122 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="F95" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>2.7777777777777901E-2</v>
       </c>
       <c r="H95" s="83" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I95" s="81">
-        <f t="shared" ref="I95" si="31">SUMIFS(F91:F105, C91:C105,H95)</f>
+        <f t="shared" ref="I95" si="28">SUMIFS(F91:F105, C91:C105,H95)</f>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="94"/>
+      <c r="A96" s="95"/>
       <c r="B96" s="80" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C96" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D96" s="81">
         <v>0.44791666666666669</v>
       </c>
       <c r="E96" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F96" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H96" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I96" s="81">
+        <f t="shared" ref="I96" si="29">SUMIFS(F91:F105, C91:C105,H96)</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="95"/>
+      <c r="B97" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C97" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D97" s="81">
+        <v>0</v>
+      </c>
+      <c r="E97" s="81">
+        <v>0</v>
+      </c>
+      <c r="F97" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H97" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I97" s="81">
+        <f t="shared" ref="I97" si="30">SUMIFS(F91:F105, C91:C105,H97)</f>
+        <v>3.8194444444444531E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="95"/>
+      <c r="B98" s="80" t="s">
+        <v>555</v>
+      </c>
+      <c r="C98" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D98" s="81">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E98" s="81">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F98" s="81">
+        <f t="shared" si="17"/>
         <v>3.125E-2</v>
       </c>
-      <c r="H96" s="83" t="s">
-        <v>512</v>
-      </c>
-      <c r="I96" s="81">
-        <f t="shared" ref="I96" si="32">SUMIFS(F91:F105, C91:C105,H96)</f>
-        <v>2.3611111111111138E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="94"/>
-      <c r="B97" s="80" t="s">
-        <v>520</v>
-      </c>
-      <c r="C97" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D97" s="81">
-        <v>0.65625</v>
-      </c>
-      <c r="E97" s="81">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F97" s="81">
-        <f t="shared" si="20"/>
-        <v>1.041666666666663E-2</v>
-      </c>
-      <c r="H97" s="83" t="s">
-        <v>515</v>
-      </c>
-      <c r="I97" s="81">
-        <f t="shared" ref="I97" si="33">SUMIFS(F91:F105, C91:C105,H97)</f>
-        <v>6.9444444444444531E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="94"/>
-      <c r="B98" s="80" t="s">
-        <v>545</v>
-      </c>
-      <c r="C98" s="80" t="s">
-        <v>508</v>
-      </c>
-      <c r="D98" s="81">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E98" s="81">
-        <v>0.75</v>
-      </c>
-      <c r="F98" s="81">
-        <f t="shared" si="20"/>
-        <v>8.333333333333337E-2</v>
-      </c>
       <c r="H98" s="78" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I98" s="79">
-        <f t="shared" ref="I98" si="34">SUM(I92:I97)</f>
-        <v>0.40902777777777793</v>
+        <f t="shared" ref="I98" si="31">SUM(I92:I97)</f>
+        <v>0.33611111111111108</v>
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="94"/>
+      <c r="A99" s="95"/>
       <c r="B99" s="80" t="s">
-        <v>524</v>
+        <v>556</v>
       </c>
       <c r="C99" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D99" s="81">
-        <v>0.75</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E99" s="81">
-        <v>0.875</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F99" s="81">
-        <f t="shared" si="20"/>
-        <v>0.125</v>
+        <f t="shared" si="17"/>
+        <v>5.2083333333333259E-2</v>
       </c>
       <c r="I99" s="84"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="94"/>
+      <c r="A100" s="95"/>
       <c r="B100" s="80" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="C100" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D100" s="81">
         <v>0.375</v>
@@ -7348,377 +7432,403 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="F100" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="I100" s="84"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="94"/>
+      <c r="A101" s="95"/>
       <c r="B101" s="80" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C101" s="80" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D101" s="81">
-        <v>0.14583333333333334</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E101" s="81">
-        <v>0.20833333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F101" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="94"/>
-      <c r="B102" s="80"/>
-      <c r="C102" s="80"/>
-      <c r="D102" s="81"/>
-      <c r="E102" s="81"/>
+      <c r="A102" s="95"/>
+      <c r="B102" s="80" t="s">
+        <v>557</v>
+      </c>
+      <c r="C102" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D102" s="81">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E102" s="81">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="F102" s="81">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>8.3333333333333259E-2</v>
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="94"/>
+      <c r="A103" s="95"/>
       <c r="B103" s="80"/>
       <c r="C103" s="80"/>
       <c r="D103" s="81"/>
       <c r="E103" s="81"/>
       <c r="F103" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="94"/>
+      <c r="A104" s="95"/>
       <c r="B104" s="80"/>
       <c r="C104" s="80"/>
       <c r="D104" s="81"/>
       <c r="E104" s="81"/>
       <c r="F104" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="94"/>
+      <c r="A105" s="95"/>
       <c r="B105" s="80"/>
       <c r="C105" s="80"/>
       <c r="D105" s="81"/>
       <c r="E105" s="81"/>
       <c r="F105" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="94" t="s">
+      <c r="A106" s="95" t="s">
         <v>21</v>
       </c>
       <c r="B106" s="80" t="s">
+        <v>544</v>
+      </c>
+      <c r="C106" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D106" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E106" s="81">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F106" s="81">
+        <f t="shared" si="17"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H106" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I106" s="79" t="s">
         <v>506</v>
       </c>
-      <c r="C106" s="80" t="s">
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="95"/>
+      <c r="B107" s="18" t="s">
         <v>507</v>
-      </c>
-      <c r="D106" s="81">
-        <v>0.40972222222222227</v>
-      </c>
-      <c r="E106" s="81">
-        <v>0.44097222222222227</v>
-      </c>
-      <c r="F106" s="81">
-        <f t="shared" si="20"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="H106" s="79" t="s">
-        <v>504</v>
-      </c>
-      <c r="I106" s="79" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="94"/>
-      <c r="B107" s="18" t="s">
-        <v>519</v>
       </c>
       <c r="C107" s="80" t="s">
         <v>508</v>
       </c>
-      <c r="D107" s="95">
+      <c r="D107" s="85">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E107" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F107" s="81">
+        <f t="shared" si="17"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H107" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I107" s="81">
+        <f>SUMIFS(F106:F120, C106:C120,H107)</f>
+        <v>0.1388888888888889</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="95"/>
+      <c r="B108" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C108" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D108" s="81">
         <v>0.44444444444444442</v>
       </c>
-      <c r="E107" s="81">
+      <c r="E108" s="81">
         <v>0.4548611111111111</v>
       </c>
-      <c r="F107" s="81">
-        <f t="shared" si="20"/>
+      <c r="F108" s="81">
+        <f t="shared" si="17"/>
         <v>1.0416666666666685E-2</v>
       </c>
-      <c r="H107" s="83" t="s">
-        <v>503</v>
-      </c>
-      <c r="I107" s="81">
-        <f t="shared" ref="I107" si="35">SUMIFS(F106:F120, C106:C120,H107)</f>
-        <v>0.18055555555555564</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="94"/>
-      <c r="B108" s="80"/>
-      <c r="C108" s="80" t="s">
+      <c r="H108" s="83" t="s">
+        <v>509</v>
+      </c>
+      <c r="I108" s="81">
+        <f t="shared" ref="I108" si="32">SUMIFS(F106:F120, C106:C120,H108)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="95"/>
+      <c r="B109" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="D108" s="81"/>
-      <c r="E108" s="81"/>
-      <c r="F108" s="81">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H108" s="83" t="s">
-        <v>508</v>
-      </c>
-      <c r="I108" s="81">
-        <f t="shared" ref="I108" si="36">SUMIFS(F106:F120, C106:C120,H108)</f>
-        <v>1.0416666666666685E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="94"/>
-      <c r="B109" s="18" t="s">
-        <v>511</v>
-      </c>
       <c r="C109" s="80" t="s">
-        <v>512</v>
-      </c>
-      <c r="D109" s="95">
+        <v>513</v>
+      </c>
+      <c r="D109" s="85">
         <v>0.4916666666666667</v>
       </c>
       <c r="E109" s="81">
         <v>0.51527777777777783</v>
       </c>
       <c r="F109" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>2.3611111111111138E-2</v>
       </c>
       <c r="H109" s="83" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I109" s="81">
-        <f t="shared" ref="I109" si="37">SUMIFS(F106:F120, C106:C120,H109)</f>
+        <f t="shared" ref="I109" si="33">SUMIFS(F106:F120, C106:C120,H109)</f>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="94"/>
+      <c r="A110" s="95"/>
       <c r="B110" s="80" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C110" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D110" s="81"/>
-      <c r="E110" s="81"/>
+        <v>516</v>
+      </c>
+      <c r="D110" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E110" s="81">
+        <v>0.57291666666666663</v>
+      </c>
       <c r="F110" s="81">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>3.125E-2</v>
       </c>
       <c r="H110" s="83" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I110" s="81">
-        <f t="shared" ref="I110" si="38">SUMIFS(F106:F120, C106:C120,H110)</f>
+        <f t="shared" ref="I110" si="34">SUMIFS(F106:F120, C106:C120,H110)</f>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="94"/>
+      <c r="A111" s="95"/>
       <c r="B111" s="18" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="C111" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D111" s="81">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E111" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F111" s="81">
+        <f t="shared" si="17"/>
+        <v>6.944444444444442E-2</v>
+      </c>
+      <c r="H111" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I111" s="81">
+        <f t="shared" ref="I111" si="35">SUMIFS(F106:F120, C106:C120,H111)</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="95"/>
+      <c r="B112" s="80" t="s">
+        <v>559</v>
+      </c>
+      <c r="C112" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="D112" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E112" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F112" s="81">
+        <f t="shared" si="17"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H112" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I112" s="81">
+        <f t="shared" ref="I112" si="36">SUMIFS(F106:F120, C106:C120,H112)</f>
+        <v>5.2083333333333315E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="95"/>
+      <c r="B113" s="80" t="s">
+        <v>560</v>
+      </c>
+      <c r="C113" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D113" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E113" s="81">
+        <v>0.71875</v>
+      </c>
+      <c r="F113" s="81">
+        <f>E113-D113</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H113" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I113" s="79">
+        <f t="shared" ref="I113" si="37">SUM(I107:I112)</f>
+        <v>0.30833333333333335</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="95"/>
+      <c r="B114" t="s">
+        <v>561</v>
+      </c>
+      <c r="C114" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D114" s="84">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E114" s="81">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E111" s="81">
-        <v>0.625</v>
-      </c>
-      <c r="F111" s="81">
-        <f t="shared" si="20"/>
-        <v>8.333333333333337E-2</v>
-      </c>
-      <c r="H111" s="83" t="s">
-        <v>512</v>
-      </c>
-      <c r="I111" s="81">
-        <f t="shared" ref="I111" si="39">SUMIFS(F106:F120, C106:C120,H111)</f>
-        <v>2.3611111111111138E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="94"/>
-      <c r="B112" s="80" t="s">
-        <v>520</v>
-      </c>
-      <c r="C112" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D112" s="81">
-        <v>0.71527777777777779</v>
-      </c>
-      <c r="E112" s="81">
-        <v>0.72569444444444453</v>
-      </c>
-      <c r="F112" s="81">
-        <f t="shared" si="20"/>
-        <v>1.0416666666666741E-2</v>
-      </c>
-      <c r="H112" s="83" t="s">
-        <v>515</v>
-      </c>
-      <c r="I112" s="81">
-        <f t="shared" ref="I112" si="40">SUMIFS(F106:F120, C106:C120,H112)</f>
-        <v>1.0416666666666741E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="94"/>
-      <c r="B113" s="80" t="s">
-        <v>548</v>
-      </c>
-      <c r="C113" s="80" t="s">
-        <v>510</v>
-      </c>
-      <c r="D113" s="81">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="E113" s="81">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F113" s="81">
-        <f t="shared" si="20"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="H113" s="78" t="s">
-        <v>518</v>
-      </c>
-      <c r="I113" s="79">
-        <f t="shared" ref="I113" si="41">SUM(I107:I112)</f>
-        <v>0.3187500000000002</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="94"/>
-      <c r="B114" s="80" t="s">
-        <v>547</v>
-      </c>
-      <c r="C114" s="80" t="s">
-        <v>503</v>
-      </c>
-      <c r="D114" s="81">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E114" s="81">
-        <v>0.625</v>
-      </c>
       <c r="F114" s="81">
-        <f t="shared" si="20"/>
-        <v>8.333333333333337E-2</v>
+        <f>E114-D114</f>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="I114" s="84"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="94"/>
+      <c r="A115" s="95"/>
       <c r="B115" s="80" t="s">
-        <v>537</v>
+        <v>562</v>
       </c>
       <c r="C115" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D115" s="81">
-        <v>0.375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E115" s="81">
-        <v>0.3888888888888889</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F115" s="81">
-        <f t="shared" si="20"/>
-        <v>1.3888888888888895E-2</v>
+        <f t="shared" si="17"/>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="I115" s="84"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="94"/>
-      <c r="B116" s="80"/>
-      <c r="C116" s="80"/>
-      <c r="D116" s="81"/>
-      <c r="E116" s="81"/>
+      <c r="A116" s="95"/>
+      <c r="B116" s="80" t="s">
+        <v>563</v>
+      </c>
+      <c r="C116" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D116" s="85">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E116" s="81">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F116" s="81">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1.736111111111116E-2</v>
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="94"/>
+      <c r="A117" s="95"/>
       <c r="B117" s="80"/>
       <c r="C117" s="80"/>
       <c r="D117" s="81"/>
       <c r="E117" s="81"/>
       <c r="F117" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="94"/>
+      <c r="A118" s="95"/>
       <c r="B118" s="80"/>
       <c r="C118" s="80"/>
       <c r="D118" s="81"/>
       <c r="E118" s="81"/>
       <c r="F118" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="94"/>
+      <c r="A119" s="95"/>
       <c r="B119" s="80"/>
       <c r="C119" s="80"/>
       <c r="D119" s="81"/>
       <c r="E119" s="81"/>
       <c r="F119" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="94"/>
+      <c r="A120" s="95"/>
       <c r="B120" s="80"/>
       <c r="C120" s="80"/>
       <c r="D120" s="81"/>
       <c r="E120" s="81"/>
       <c r="F120" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="94" t="s">
+      <c r="A121" s="95" t="s">
         <v>22</v>
       </c>
       <c r="B121" s="80" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="C121" s="80" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D121" s="81">
         <v>0.375</v>
@@ -7727,23 +7837,23 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="F121" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="H121" s="79" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I121" s="79" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="94"/>
+      <c r="A122" s="95"/>
       <c r="B122" s="18" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C122" s="80" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D122" s="81">
         <v>0.40972222222222227</v>
@@ -7752,50 +7862,50 @@
         <v>0.44097222222222227</v>
       </c>
       <c r="F122" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>3.125E-2</v>
       </c>
       <c r="H122" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I122" s="81">
-        <f t="shared" ref="I122" si="42">SUMIFS(F121:F135, C121:C135,H122)</f>
-        <v>0.12847222222222215</v>
+        <f t="shared" ref="I122" si="38">SUMIFS(F121:F135, C121:C135,H122)</f>
+        <v>0.15277777777777746</v>
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="94"/>
+      <c r="A123" s="95"/>
       <c r="B123" s="80" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="C123" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D123" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="E123" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="F123" s="81">
-        <f t="shared" si="20"/>
-        <v>2.083333333333337E-2</v>
+        <f t="shared" si="17"/>
+        <v>1.7361111111111049E-2</v>
       </c>
       <c r="H123" s="83" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I123" s="81">
-        <f t="shared" ref="I123" si="43">SUMIFS(F121:F135, C121:C135,H123)</f>
-        <v>0</v>
+        <f t="shared" ref="I123" si="39">SUMIFS(F121:F135, C121:C135,H123)</f>
+        <v>1.9444444444444542E-2</v>
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="94"/>
+      <c r="A124" s="95"/>
       <c r="B124" s="80" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C124" s="80" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D124" s="81">
         <v>0.48958333333333331</v>
@@ -7804,24 +7914,24 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="F124" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>2.7777777777777735E-2</v>
       </c>
       <c r="H124" s="83" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I124" s="81">
-        <f t="shared" ref="I124" si="44">SUMIFS(F121:F135, C121:C135,H124)</f>
+        <f t="shared" ref="I124" si="40">SUMIFS(F121:F135, C121:C135,H124)</f>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="94"/>
+      <c r="A125" s="95"/>
       <c r="B125" s="80" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C125" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D125" s="81">
         <v>0.54166666666666663</v>
@@ -7830,24 +7940,24 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="F125" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="H125" s="83" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I125" s="81">
-        <f t="shared" ref="I125" si="45">SUMIFS(F121:F135, C121:C135,H125)</f>
+        <f t="shared" ref="I125" si="41">SUMIFS(F121:F135, C121:C135,H125)</f>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="94"/>
+      <c r="A126" s="95"/>
       <c r="B126" s="80" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C126" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D126" s="81">
         <v>0.44097222222222227</v>
@@ -7856,24 +7966,24 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F126" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1.7361111111111049E-2</v>
       </c>
       <c r="H126" s="83" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I126" s="81">
-        <f t="shared" ref="I126" si="46">SUMIFS(F121:F135, C121:C135,H126)</f>
+        <f t="shared" ref="I126" si="42">SUMIFS(F121:F135, C121:C135,H126)</f>
         <v>2.7777777777777735E-2</v>
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="94"/>
+      <c r="A127" s="95"/>
       <c r="B127" s="80" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C127" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D127" s="81">
         <v>0.63541666666666663</v>
@@ -7882,24 +7992,24 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F127" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1.0416666666666741E-2</v>
       </c>
       <c r="H127" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I127" s="81">
-        <f t="shared" ref="I127" si="47">SUMIFS(F121:F135, C121:C135,H127)</f>
+        <f t="shared" ref="I127" si="43">SUMIFS(F121:F135, C121:C135,H127)</f>
         <v>5.555555555555558E-2</v>
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="94"/>
+      <c r="A128" s="95"/>
       <c r="B128" s="80" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="C128" s="80" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D128" s="81">
         <v>0.64583333333333337</v>
@@ -7908,24 +8018,24 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F128" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>6.25E-2</v>
       </c>
       <c r="H128" s="78" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I128" s="79">
-        <f t="shared" ref="I128" si="48">SUM(I122:I127)</f>
-        <v>0.30555555555555547</v>
+        <f t="shared" ref="I128" si="44">SUM(I122:I127)</f>
+        <v>0.34930555555555531</v>
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="94"/>
+      <c r="A129" s="95"/>
       <c r="B129" s="80" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="C129" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D129" s="81">
         <v>0.58333333333333337</v>
@@ -7934,18 +8044,18 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="F129" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="I129" s="84"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="94"/>
+      <c r="A130" s="95"/>
       <c r="B130" s="80" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="C130" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D130" s="81">
         <v>0.875</v>
@@ -7954,79 +8064,99 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F130" s="81">
-        <f t="shared" ref="F130:F193" si="49">E130-D130</f>
+        <f t="shared" ref="F130:F165" si="45">E130-D130</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="I130" s="84"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="94"/>
+      <c r="A131" s="95"/>
       <c r="B131" s="80" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="C131" s="80" t="s">
-        <v>503</v>
-      </c>
-      <c r="D131" s="81"/>
-      <c r="E131" s="81"/>
+        <v>504</v>
+      </c>
+      <c r="D131" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E131" s="81">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="F131" s="81">
-        <f t="shared" si="49"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>2.0833333333333259E-2</v>
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="94"/>
-      <c r="B132" s="80"/>
-      <c r="C132" s="80"/>
-      <c r="D132" s="81"/>
-      <c r="E132" s="81"/>
+      <c r="A132" s="95"/>
+      <c r="B132" s="80" t="s">
+        <v>547</v>
+      </c>
+      <c r="C132" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D132" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E132" s="81">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="F132" s="81">
-        <f t="shared" si="49"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>2.0833333333333259E-2</v>
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="94"/>
-      <c r="B133" s="80"/>
-      <c r="C133" s="80"/>
-      <c r="D133" s="81"/>
-      <c r="E133" s="81"/>
+      <c r="A133" s="95"/>
+      <c r="B133" s="80" t="s">
+        <v>570</v>
+      </c>
+      <c r="C133" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D133" s="81">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E133" s="81">
+        <v>0.47222222222222227</v>
+      </c>
       <c r="F133" s="81">
-        <f t="shared" si="49"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>5.5555555555556468E-3</v>
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="94"/>
+      <c r="A134" s="95"/>
       <c r="B134" s="80"/>
       <c r="C134" s="80"/>
       <c r="D134" s="81"/>
       <c r="E134" s="81"/>
       <c r="F134" s="81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="94"/>
+      <c r="A135" s="95"/>
       <c r="B135" s="80"/>
       <c r="C135" s="80"/>
       <c r="D135" s="81"/>
       <c r="E135" s="81"/>
       <c r="F135" s="81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="94" t="s">
+      <c r="A136" s="95" t="s">
         <v>24</v>
       </c>
       <c r="B136" s="80" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="C136" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D136" s="81">
         <v>0.375</v>
@@ -8035,23 +8165,23 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="F136" s="81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="H136" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I136" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="95"/>
+      <c r="B137" s="80" t="s">
+        <v>572</v>
+      </c>
+      <c r="C137" s="80" t="s">
         <v>504</v>
-      </c>
-      <c r="I136" s="79" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="94"/>
-      <c r="B137" s="80" t="s">
-        <v>556</v>
-      </c>
-      <c r="C137" s="80" t="s">
-        <v>510</v>
       </c>
       <c r="D137" s="81">
         <v>0.3888888888888889</v>
@@ -8060,24 +8190,24 @@
         <v>0.40972222222222227</v>
       </c>
       <c r="F137" s="81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H137" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I137" s="81">
-        <f t="shared" ref="I137" si="50">SUMIFS(F136:F150, C136:C150,H137)</f>
-        <v>0.24305555555555564</v>
+        <f t="shared" ref="I137" si="46">SUMIFS(F136:F150, C136:C150,H137)</f>
+        <v>0.14930555555555564</v>
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="94"/>
+      <c r="A138" s="95"/>
       <c r="B138" s="80" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C138" s="80" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D138" s="81">
         <v>0.40972222222222227</v>
@@ -8086,24 +8216,24 @@
         <v>0.44097222222222227</v>
       </c>
       <c r="F138" s="81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>3.125E-2</v>
       </c>
       <c r="H138" s="83" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I138" s="81">
-        <f t="shared" ref="I138" si="51">SUMIFS(F136:F150, C136:C150,H138)</f>
+        <f t="shared" ref="I138" si="47">SUMIFS(F136:F150, C136:C150,H138)</f>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="94"/>
+      <c r="A139" s="95"/>
       <c r="B139" s="80" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="C139" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D139" s="81">
         <v>0.45833333333333331</v>
@@ -8112,24 +8242,24 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="F139" s="81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H139" s="83" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I139" s="81">
-        <f t="shared" ref="I139" si="52">SUMIFS(F136:F150, C136:C150,H139)</f>
-        <v>2.083333333333337E-2</v>
+        <f t="shared" ref="I139" si="48">SUMIFS(F136:F150, C136:C150,H139)</f>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="94"/>
+      <c r="A140" s="95"/>
       <c r="B140" s="80" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C140" s="80" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D140" s="81">
         <v>0.48958333333333331</v>
@@ -8138,211 +8268,215 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="F140" s="81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>2.7777777777777735E-2</v>
       </c>
       <c r="H140" s="83" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I140" s="81">
-        <f t="shared" ref="I140" si="53">SUMIFS(F136:F150, C136:C150,H140)</f>
+        <f t="shared" ref="I140" si="49">SUMIFS(F136:F150, C136:C150,H140)</f>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="94"/>
-      <c r="B141" s="80"/>
+      <c r="A141" s="95"/>
+      <c r="B141" s="80" t="s">
+        <v>547</v>
+      </c>
       <c r="C141" s="80" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="D141" s="81">
-        <v>0.44444444444444442</v>
+        <v>0.51736111111111105</v>
       </c>
       <c r="E141" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F141" s="81">
-        <f t="shared" si="49"/>
-        <v>1.3888888888888895E-2</v>
+        <f t="shared" si="45"/>
+        <v>2.430555555555558E-2</v>
       </c>
       <c r="H141" s="83" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I141" s="81">
-        <f t="shared" ref="I141" si="54">SUMIFS(F136:F150, C136:C150,H141)</f>
+        <f t="shared" ref="I141" si="50">SUMIFS(F136:F150, C136:C150,H141)</f>
         <v>2.7777777777777735E-2</v>
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="94"/>
-      <c r="B142" s="80"/>
+      <c r="A142" s="95"/>
+      <c r="B142" s="80" t="s">
+        <v>574</v>
+      </c>
       <c r="C142" s="80" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="D142" s="81">
-        <v>0.1111111111111111</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E142" s="81">
-        <v>0.125</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="F142" s="81">
-        <f t="shared" si="49"/>
-        <v>1.3888888888888895E-2</v>
+        <f>E142-D142</f>
+        <v>3.819444444444442E-2</v>
       </c>
       <c r="H142" s="83" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I142" s="81">
-        <f t="shared" ref="I142" si="55">SUMIFS(F136:F150, C136:C150,H142)</f>
-        <v>8.680555555555558E-2</v>
+        <f t="shared" ref="I142" si="51">SUMIFS(F136:F150, C136:C150,H142)</f>
+        <v>5.9027777777777797E-2</v>
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="94"/>
+      <c r="A143" s="95"/>
       <c r="B143" s="80" t="s">
-        <v>523</v>
+        <v>575</v>
       </c>
       <c r="C143" s="80" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="D143" s="81">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="E143" s="81">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F143" s="81">
-        <f t="shared" si="49"/>
+        <f>E143-D143</f>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="H143" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I143" s="79">
+        <f t="shared" ref="I143" si="52">SUM(I137:I142)</f>
+        <v>0.35069444444444453</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="95"/>
+      <c r="B144" s="80" t="s">
+        <v>576</v>
+      </c>
+      <c r="C144" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D144" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E144" s="81">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F144" s="81">
+        <f>E144-D144</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="I144" s="84"/>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="95"/>
+      <c r="B145" s="80"/>
+      <c r="C145" s="80"/>
+      <c r="D145" s="81"/>
+      <c r="E145" s="81"/>
+      <c r="F145" s="81">
+        <f>E145-D145</f>
+        <v>0</v>
+      </c>
+      <c r="I145" s="84"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="95"/>
+      <c r="B146" s="80" t="s">
         <v>518</v>
       </c>
-      <c r="I143" s="79">
-        <f t="shared" ref="I143" si="56">SUM(I137:I142)</f>
-        <v>0.40972222222222232</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="94"/>
-      <c r="B144" s="80" t="s">
-        <v>524</v>
-      </c>
-      <c r="C144" s="80" t="s">
-        <v>503</v>
-      </c>
-      <c r="D144" s="81">
-        <v>0.75</v>
-      </c>
-      <c r="E144" s="81">
-        <v>0.875</v>
-      </c>
-      <c r="F144" s="81">
-        <f t="shared" si="49"/>
-        <v>0.125</v>
-      </c>
-      <c r="I144" s="84"/>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="94"/>
-      <c r="B145" s="80" t="s">
-        <v>517</v>
-      </c>
-      <c r="C145" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D145" s="81">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E145" s="81">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="F145" s="81">
-        <f t="shared" si="49"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="I145" s="84"/>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="94"/>
-      <c r="B146" s="80" t="s">
-        <v>519</v>
-      </c>
       <c r="C146" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D146" s="81">
-        <v>0.44444444444444442</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E146" s="81">
-        <v>0.45833333333333331</v>
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="F146" s="81">
-        <f t="shared" si="49"/>
-        <v>1.3888888888888895E-2</v>
+        <f>E146-D146</f>
+        <v>3.1250000000000007E-2</v>
       </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="94"/>
+      <c r="A147" s="95"/>
       <c r="B147" s="80" t="s">
         <v>520</v>
       </c>
       <c r="C147" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D147" s="81">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E147" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F147" s="81">
+        <f>E147-D147</f>
+        <v>1.3888888888888895E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="95"/>
+      <c r="B148" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C148" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D148" s="81">
         <v>0.1111111111111111</v>
       </c>
-      <c r="E147" s="81">
+      <c r="E148" s="81">
         <v>0.125</v>
       </c>
-      <c r="F147" s="81">
-        <f t="shared" si="49"/>
+      <c r="F148" s="81">
+        <f t="shared" si="45"/>
         <v>1.3888888888888895E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="94"/>
-      <c r="B148" s="80"/>
-      <c r="C148" s="80"/>
-      <c r="D148" s="81"/>
-      <c r="E148" s="81"/>
-      <c r="F148" s="81">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="94"/>
+      <c r="A149" s="95"/>
       <c r="B149" s="80"/>
       <c r="C149" s="80"/>
       <c r="D149" s="81"/>
       <c r="E149" s="81"/>
       <c r="F149" s="81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="94"/>
+      <c r="A150" s="95"/>
       <c r="B150" s="80"/>
       <c r="C150" s="80"/>
       <c r="D150" s="81"/>
       <c r="E150" s="81"/>
       <c r="F150" s="81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="94" t="s">
+      <c r="A151" s="95" t="s">
         <v>23</v>
       </c>
       <c r="B151" s="80" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C151" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D151" s="81">
         <v>0.41666666666666669</v>
@@ -8351,23 +8485,23 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="F151" s="81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="H151" s="79" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I151" s="79" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="94"/>
+      <c r="A152" s="95"/>
       <c r="B152" s="80" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="C152" s="80" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D152" s="81">
         <v>0.42708333333333331</v>
@@ -8376,24 +8510,24 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F152" s="81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>3.125E-2</v>
       </c>
       <c r="H152" s="83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I152" s="81">
-        <f t="shared" ref="I152" si="57">SUMIFS(F151:F165, C151:C165,H152)</f>
+        <f t="shared" ref="I152" si="53">SUMIFS(F151:F165, C151:C165,H152)</f>
         <v>0.23958333333333343</v>
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="94"/>
+      <c r="A153" s="95"/>
       <c r="B153" s="80" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C153" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D153" s="81">
         <v>0.48958333333333331</v>
@@ -8402,24 +8536,24 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="F153" s="81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>2.4305555555555636E-2</v>
       </c>
       <c r="H153" s="83" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I153" s="81">
-        <f t="shared" ref="I153" si="58">SUMIFS(F151:F165, C151:C165,H153)</f>
+        <f t="shared" ref="I153" si="54">SUMIFS(F151:F165, C151:C165,H153)</f>
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="94"/>
+      <c r="A154" s="95"/>
       <c r="B154" s="80" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="C154" s="80" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D154" s="81">
         <v>0.47916666666666669</v>
@@ -8428,50 +8562,50 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="F154" s="81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>4.1666666666666685E-2</v>
       </c>
       <c r="H154" s="83" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I154" s="81">
-        <f t="shared" ref="I154" si="59">SUMIFS(F151:F165, C151:C165,H154)</f>
+        <f t="shared" ref="I154" si="55">SUMIFS(F151:F165, C151:C165,H154)</f>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="94"/>
+      <c r="A155" s="95"/>
       <c r="B155" s="80" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C155" s="80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D155" s="81" t="s">
-        <v>558</v>
+        <v>516</v>
+      </c>
+      <c r="D155" s="81">
+        <v>0.54166666666666663</v>
       </c>
       <c r="E155" s="81">
         <v>0.56944444444444442</v>
       </c>
-      <c r="F155" s="81" t="e">
-        <f t="shared" si="49"/>
-        <v>#VALUE!</v>
+      <c r="F155" s="81">
+        <f t="shared" si="45"/>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H155" s="83" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I155" s="81">
-        <f t="shared" ref="I155" si="60">SUMIFS(F151:F165, C151:C165,H155)</f>
+        <f t="shared" ref="I155" si="56">SUMIFS(F151:F165, C151:C165,H155)</f>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="94"/>
+      <c r="A156" s="95"/>
       <c r="B156" s="80" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C156" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D156" s="81">
         <v>0.47222222222222227</v>
@@ -8480,24 +8614,24 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="F156" s="81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="H156" s="83" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I156" s="81">
-        <f t="shared" ref="I156" si="61">SUMIFS(F151:F165, C151:C165,H156)</f>
+        <f t="shared" ref="I156" si="57">SUMIFS(F151:F165, C151:C165,H156)</f>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="94"/>
+      <c r="A157" s="95"/>
       <c r="B157" s="80" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C157" s="80" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D157" s="81">
         <v>0.65625</v>
@@ -8506,24 +8640,24 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F157" s="81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="H157" s="83" t="s">
-        <v>515</v>
-      </c>
-      <c r="I157" s="81" t="e">
-        <f t="shared" ref="I157" si="62">SUMIFS(F151:F165, C151:C165,H157)</f>
-        <v>#VALUE!</v>
+        <v>516</v>
+      </c>
+      <c r="I157" s="81">
+        <f t="shared" ref="I157" si="58">SUMIFS(F151:F165, C151:C165,H157)</f>
+        <v>4.513888888888884E-2</v>
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="94"/>
+      <c r="A158" s="95"/>
       <c r="B158" s="80" t="s">
-        <v>523</v>
+        <v>577</v>
       </c>
       <c r="C158" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D158" s="81">
         <v>0.66666666666666663</v>
@@ -8532,24 +8666,24 @@
         <v>0.75</v>
       </c>
       <c r="F158" s="81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="H158" s="78" t="s">
-        <v>518</v>
-      </c>
-      <c r="I158" s="79" t="e">
-        <f t="shared" ref="I158" si="63">SUM(I152:I157)</f>
-        <v>#VALUE!</v>
+        <v>519</v>
+      </c>
+      <c r="I158" s="79">
+        <f t="shared" ref="I158" si="59">SUM(I152:I157)</f>
+        <v>0.35763888888888895</v>
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="94"/>
+      <c r="A159" s="95"/>
       <c r="B159" s="80" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="C159" s="80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D159" s="81">
         <v>0.75</v>
@@ -8558,75 +8692,75 @@
         <v>0.875</v>
       </c>
       <c r="F159" s="81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>0.125</v>
       </c>
       <c r="I159" s="84"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="94"/>
+      <c r="A160" s="95"/>
       <c r="B160" s="80"/>
       <c r="C160" s="80"/>
       <c r="D160" s="81"/>
       <c r="E160" s="81"/>
       <c r="F160" s="81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="I160" s="84"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="94"/>
+      <c r="A161" s="95"/>
       <c r="B161" s="80"/>
       <c r="C161" s="80"/>
       <c r="D161" s="81"/>
       <c r="E161" s="81"/>
       <c r="F161" s="81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="94"/>
+      <c r="A162" s="95"/>
       <c r="B162" s="80"/>
       <c r="C162" s="80"/>
       <c r="D162" s="81"/>
       <c r="E162" s="81"/>
       <c r="F162" s="81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="94"/>
+      <c r="A163" s="95"/>
       <c r="B163" s="80"/>
       <c r="C163" s="80"/>
       <c r="D163" s="81"/>
       <c r="E163" s="81"/>
       <c r="F163" s="81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="94"/>
+      <c r="A164" s="95"/>
       <c r="B164" s="80"/>
       <c r="C164" s="80"/>
       <c r="D164" s="81"/>
       <c r="E164" s="81"/>
       <c r="F164" s="81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="94"/>
+      <c r="A165" s="95"/>
       <c r="B165" s="80"/>
       <c r="C165" s="80"/>
       <c r="D165" s="81"/>
       <c r="E165" s="81"/>
       <c r="F165" s="81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
@@ -8696,7 +8830,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C76:C165 C2:C71" xr:uid="{6E4899FF-3B25-4EE1-B31B-EF5F8A1E414F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C72 C76:C165" xr:uid="{6E4899FF-3B25-4EE1-B31B-EF5F8A1E414F}">
       <formula1>$Q$1:$Q$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{959B22BE-18E2-4D2B-B840-21C6ADB984B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BBAF6AA-F67D-412A-BFCD-92A49E4C5439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5-4-22" sheetId="40" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="25-04-22" sheetId="57" r:id="rId16"/>
     <sheet name="26-04-22" sheetId="58" r:id="rId17"/>
     <sheet name="27-04-22" sheetId="59" r:id="rId18"/>
+    <sheet name="28-04-22" sheetId="60" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="627">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1770,7 +1771,7 @@
     <t>Total Time</t>
   </si>
   <si>
-    <t>Timesheet and MOM updating</t>
+    <t>Timesheet updating</t>
   </si>
   <si>
     <t>Project</t>
@@ -1782,180 +1783,373 @@
     <t>Time</t>
   </si>
   <si>
+    <t>SoftSkill</t>
+  </si>
+  <si>
+    <t>Non Project</t>
+  </si>
+  <si>
+    <t>Api Service resolvinng conflicts &amp; Estimations for Pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration </t>
+  </si>
+  <si>
+    <t>Customer Meeting</t>
+  </si>
+  <si>
+    <t>Customer Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting </t>
+  </si>
+  <si>
+    <t>MOM update</t>
+  </si>
+  <si>
+    <t>Api Service implementation on Controller</t>
+  </si>
+  <si>
+    <t>Lunch and Break</t>
+  </si>
+  <si>
+    <t>Service explanation to Members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunch </t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Morning Break</t>
+  </si>
+  <si>
+    <t>Evening Break</t>
+  </si>
+  <si>
+    <t>Api Swagger Testing</t>
+  </si>
+  <si>
+    <t>Went to College for internal exams</t>
+  </si>
+  <si>
+    <t>understanding and reviewing  API services</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Components and life cycle&gt;</t>
+  </si>
+  <si>
+    <t>Time Sheet</t>
+  </si>
+  <si>
+    <t>Database Migration</t>
+  </si>
+  <si>
     <t>Team Meeting</t>
   </si>
   <si>
-    <t xml:space="preserve">Meeting </t>
-  </si>
-  <si>
-    <t>Non Project</t>
-  </si>
-  <si>
-    <t>Api Service refining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration </t>
-  </si>
-  <si>
-    <t>Customer Meeting</t>
-  </si>
-  <si>
-    <t>Customer Review</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;Typescript Intorduction and Sample programs&gt;</t>
-  </si>
-  <si>
-    <t>Api Service implementation on Controller</t>
-  </si>
-  <si>
-    <t>Lunch and Break</t>
-  </si>
-  <si>
-    <t>Service explanation to Members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lunch </t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Morning Break</t>
-  </si>
-  <si>
-    <t>Evening Break</t>
-  </si>
-  <si>
-    <t>Api Swagger Testing</t>
+    <t>Logging in user services &amp; user controller</t>
+  </si>
+  <si>
+    <t>User Services List of Users by Role</t>
+  </si>
+  <si>
+    <t>client meeting</t>
+  </si>
+  <si>
+    <t>helping other team with ui</t>
+  </si>
+  <si>
+    <t>fixing errors in user services</t>
+  </si>
+  <si>
+    <t>ef core exploration</t>
+  </si>
+  <si>
+    <t>CRUD Operation in user Services</t>
+  </si>
+  <si>
+    <t>Technical Session</t>
+  </si>
+  <si>
+    <t>Time Sheet Updating</t>
+  </si>
+  <si>
+    <t>Estimation for Dashboard</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Typescript Introduction and  Installation&gt;</t>
+  </si>
+  <si>
+    <t>Discussion about Services with Arul and Spliting Services</t>
+  </si>
+  <si>
+    <t>Service-Review</t>
+  </si>
+  <si>
+    <t>Web API User Service Exploration with Gokul</t>
+  </si>
+  <si>
+    <t>Discussion about Timesheet and Team performance Index with Rafi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimation Discussion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updating TimeSheet </t>
+  </si>
+  <si>
+    <t>Working on HTML layout</t>
+  </si>
+  <si>
+    <t>Estimation Preparation</t>
+  </si>
+  <si>
+    <t>Web API Exploration (user services) with gokul</t>
+  </si>
+  <si>
+    <t>Working on Feedback services</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;TypeScript Introduction and Simple Examples&gt;</t>
   </si>
   <si>
     <t>Soft Skill</t>
   </si>
   <si>
+    <t>Learned Angular &lt;Introduction of Typescript , VS code Installation&gt;</t>
+  </si>
+  <si>
+    <t>Service Discussion with Arul and Spliting the Service</t>
+  </si>
+  <si>
+    <t>Service-Course</t>
+  </si>
+  <si>
+    <t>Discussion about New Timesheet And Team Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared for Internal Review </t>
+  </si>
+  <si>
+    <t>Session about Serivces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared for Internal review </t>
+  </si>
+  <si>
+    <t>Working on WebAPI (Review  services)</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;data type,variable,type script &gt;</t>
+  </si>
+  <si>
+    <t>evening Break</t>
+  </si>
+  <si>
+    <t>Understanding the Department,User Services</t>
+  </si>
+  <si>
+    <t>Estimation for Coordinator list page</t>
+  </si>
+  <si>
+    <t>Reworking on model(review service)</t>
+  </si>
+  <si>
+    <t>Timesheet Updating</t>
+  </si>
+  <si>
+    <t>Estimation for ProfileView</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Typescript introduction&gt;</t>
+  </si>
+  <si>
+    <t>discussion on services and spliting the services</t>
+  </si>
+  <si>
+    <t>Service-Role</t>
+  </si>
+  <si>
+    <t>Estimation for unique pages</t>
+  </si>
+  <si>
+    <t>discussion about the rank table</t>
+  </si>
+  <si>
+    <t>Timesheet</t>
+  </si>
+  <si>
+    <t>Working on HTML layout (Refining)</t>
+  </si>
+  <si>
+    <t>Estimation for department page</t>
+  </si>
+  <si>
+    <t>Discussion on services and spliting the services</t>
+  </si>
+  <si>
+    <t>Angular session &lt;Typescript introduction&gt;</t>
+  </si>
+  <si>
+    <t>Pulling from git  (Web API), Exploring and working on department services</t>
+  </si>
+  <si>
     <t>Learned Angular &lt;Topics&gt;</t>
   </si>
   <si>
-    <t>Working on HTML layout</t>
-  </si>
-  <si>
-    <t>Time Sheet</t>
-  </si>
-  <si>
-    <t>Database Migration</t>
-  </si>
-  <si>
-    <t>Logging in user services &amp; user controller</t>
-  </si>
-  <si>
-    <t>User Services List of Users by Role</t>
-  </si>
-  <si>
-    <t>client meeting</t>
-  </si>
-  <si>
-    <t>helping other team with ui</t>
-  </si>
-  <si>
-    <t>fixing errors in user services</t>
-  </si>
-  <si>
-    <t>ef core exploration</t>
-  </si>
-  <si>
-    <t>CRUD Operation in user Services</t>
-  </si>
-  <si>
-    <t>Technical Session</t>
-  </si>
-  <si>
-    <t>Time Sheet Updating</t>
-  </si>
-  <si>
-    <t>Estimation for Dashboard</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;Typescript Introduction and  Installation&gt;</t>
-  </si>
-  <si>
-    <t>Discussion about Services with Arul and Spliting Services</t>
-  </si>
-  <si>
-    <t>Service-Review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Updating TimeSheet </t>
-  </si>
-  <si>
-    <t>Estimation Preparation</t>
-  </si>
-  <si>
-    <t>Web API Exploration (user services) with gokul</t>
-  </si>
-  <si>
-    <t>Working on Feedback services</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;TypeScript Introduction and Simple Examples&gt;</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;Introduction of Typescript , VS code Installation&gt;</t>
-  </si>
-  <si>
-    <t>Service Discussion with Arul and Spliting the Service</t>
-  </si>
-  <si>
-    <t>Service-Course</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepared for Internal Review </t>
-  </si>
-  <si>
-    <t>Working on WebAPI (Review )</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;data type &gt;</t>
-  </si>
-  <si>
-    <t>Timesheet Updating</t>
-  </si>
-  <si>
-    <t>Estimation for ProfileView</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;Typescript introduction&gt;</t>
-  </si>
-  <si>
-    <t>discussion on services and spliting the services</t>
-  </si>
-  <si>
-    <t>Service-Role</t>
-  </si>
-  <si>
-    <t>Estimation for unique pages</t>
-  </si>
-  <si>
-    <t>Timesheet</t>
-  </si>
-  <si>
-    <t>Working on HTML layout (Refining)</t>
-  </si>
-  <si>
-    <t>Estimation for department page</t>
-  </si>
-  <si>
-    <t>Pulling from git and Web API exploration</t>
-  </si>
-  <si>
-    <t>013:00:00</t>
+    <t>Buildinng models and migrations</t>
+  </si>
+  <si>
+    <t>Angular Explorations</t>
+  </si>
+  <si>
+    <t>Scoreboard Discussion</t>
+  </si>
+  <si>
+    <t>Html layout for add,edit pages(Trainer,Trainee,Co,Reviewer)</t>
+  </si>
+  <si>
+    <t>Working on models and adding auditinng</t>
+  </si>
+  <si>
+    <t>updating Timesheet</t>
+  </si>
+  <si>
+    <t>Learning Angular &lt;components&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web api exploration </t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>Relearned css,html</t>
+  </si>
+  <si>
+    <t>Gathering Mom Details</t>
+  </si>
+  <si>
+    <t>Refactoring api service</t>
+  </si>
+  <si>
+    <t>Working on HTML layout(course list)</t>
+  </si>
+  <si>
+    <t>Working on HTML layout(course list,add course)</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked in user services crud operation </t>
+  </si>
+  <si>
+    <t>Meeting with rafi</t>
+  </si>
+  <si>
+    <t>Refactoring user service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolving git conflicts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code review by Kavin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defensive coding, exception handling , surfing Logger documentation </t>
+  </si>
+  <si>
+    <t>Updating Timesheet</t>
+  </si>
+  <si>
+    <t>Estimation for all Unique Pages</t>
+  </si>
+  <si>
+    <t>Meeting with Client (Rafi)</t>
+  </si>
+  <si>
+    <t>Spliting all Pages induvidualy</t>
+  </si>
+  <si>
+    <t>Discussion about Page spliting with Team</t>
+  </si>
+  <si>
+    <t>Reviewing the Controller and Service for Department and User</t>
+  </si>
+  <si>
+    <t>Meeting with Rafi</t>
+  </si>
+  <si>
+    <t>Spliting the each individual pages</t>
+  </si>
+  <si>
+    <t>Working on TraineeFeedback service</t>
+  </si>
+  <si>
+    <t>Team meeting</t>
+  </si>
+  <si>
+    <t>Working on Feedback Layout</t>
+  </si>
+  <si>
+    <t>Angular Component Exploration</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Angular Components&gt;</t>
+  </si>
+  <si>
+    <t>Resource Name 7</t>
+  </si>
+  <si>
+    <t>Prathima L</t>
+  </si>
+  <si>
+    <t>Creating models for TMS</t>
+  </si>
+  <si>
+    <t>Worked on HTML layout(trainee list ,trainer list)</t>
+  </si>
+  <si>
+    <t>Working on HTML layout(review list layout,review details layout)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">updating timesheet </t>
+  </si>
+  <si>
+    <t>estimation for all pages</t>
+  </si>
+  <si>
+    <t>meeting with client (rafi)</t>
+  </si>
+  <si>
+    <t>spliting the each individual pages</t>
+  </si>
+  <si>
+    <t>scoreboard discussion</t>
+  </si>
+  <si>
+    <t>discussion about team</t>
+  </si>
+  <si>
+    <t>Working on HTML layout(co-ordinator navbar,my courselist)</t>
+  </si>
+  <si>
+    <t>Resource Name 10</t>
+  </si>
+  <si>
+    <t>Resource Name 11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-14009]hh:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2235,7 +2429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2465,6 +2659,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2495,13 +2691,142 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="21" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3842,14 +4167,14 @@
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="87"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
     </row>
     <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="16" t="s">
@@ -3960,7 +4285,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="37.5">
+    <row r="9" spans="1:10" ht="49.5">
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
@@ -4353,14 +4678,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="90" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
     </row>
     <row r="4" spans="1:22" ht="101.25" customHeight="1">
       <c r="A4" s="16" t="s">
@@ -4603,14 +4928,14 @@
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="90" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
     </row>
     <row r="4" spans="1:7" ht="49.5">
       <c r="A4" s="16" t="s">
@@ -4720,27 +5045,27 @@
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="93" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="93"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="95"/>
     </row>
     <row r="11" spans="1:7" ht="36.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="93" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="93"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="95"/>
     </row>
     <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="16" t="s">
@@ -5018,8 +5343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7172FC-5606-4FD6-B7B3-02AB5BD496A0}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="15"/>
@@ -5265,8 +5590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C319A4C-EADA-4641-96D7-D7B692B906C8}">
   <dimension ref="A1:Q165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5305,7 +5630,7 @@
       <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="96" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="80" t="s">
@@ -5315,14 +5640,14 @@
         <v>504</v>
       </c>
       <c r="D2" s="81">
-        <v>0.36458333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="E2" s="81">
-        <v>0.38194444444444442</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="F2" s="81">
         <f>E2-D2</f>
-        <v>1.7361111111111105E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H2" s="79" t="s">
         <v>505</v>
@@ -5335,7 +5660,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="94"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="80" t="s">
         <v>507</v>
       </c>
@@ -5343,30 +5668,30 @@
         <v>508</v>
       </c>
       <c r="D3" s="81">
-        <v>0.40972222222222227</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E3" s="81">
-        <v>0.44097222222222227</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="F3" s="81">
         <f t="shared" ref="F3:F60" si="0">E3-D3</f>
-        <v>3.125E-2</v>
+        <v>3.4722222222222265E-2</v>
       </c>
       <c r="H3" s="83" t="s">
         <v>504</v>
       </c>
       <c r="I3" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H3)</f>
-        <v>0.14583333333333331</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="Q3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="96"/>
+      <c r="B4" s="80" t="s">
         <v>509</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="94"/>
-      <c r="B4" s="80" t="s">
-        <v>510</v>
       </c>
       <c r="C4" s="80" t="s">
         <v>504</v>
@@ -5375,83 +5700,83 @@
         <v>0.44097222222222227</v>
       </c>
       <c r="E4" s="81">
-        <v>0.48958333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="81">
         <f>E4-D4</f>
-        <v>4.8611111111111049E-2</v>
+        <v>5.9027777777777735E-2</v>
       </c>
       <c r="H4" s="83" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I4" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H4)</f>
-        <v>5.2083333333333259E-2</v>
+        <v>8.6805555555555525E-2</v>
       </c>
       <c r="Q4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="96"/>
+      <c r="B5" s="80" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="94"/>
-      <c r="B5" s="80" t="s">
+      <c r="C5" s="80" t="s">
         <v>512</v>
       </c>
-      <c r="C5" s="80" t="s">
-        <v>513</v>
-      </c>
       <c r="D5" s="81">
-        <v>0.48958333333333331</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="E5" s="81">
-        <v>0.51736111111111105</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="F5" s="81">
         <f>E5-D5</f>
-        <v>2.7777777777777735E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H5" s="83" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I5" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H5)</f>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="94"/>
+      <c r="A6" s="96"/>
       <c r="B6" s="80" t="s">
         <v>514</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="D6" s="81">
-        <v>0.64583333333333337</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="E6" s="81">
-        <v>0.70833333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F6" s="81">
         <f>E6-D6</f>
-        <v>6.25E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H6" s="83" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="I6" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H6)</f>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="94"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="80" t="s">
         <v>515</v>
       </c>
@@ -5469,23 +5794,23 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="H7" s="83" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I7" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H7)</f>
-        <v>2.7777777777777735E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="Q7" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="94"/>
+      <c r="A8" s="96"/>
       <c r="B8" s="80" t="s">
         <v>517</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D8" s="81">
         <v>0.58333333333333337</v>
@@ -5502,11 +5827,11 @@
       </c>
       <c r="I8" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H8)</f>
-        <v>3.819444444444442E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="94"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="80" t="s">
         <v>518</v>
       </c>
@@ -5528,11 +5853,11 @@
       </c>
       <c r="I9" s="79">
         <f>SUM(I3:I8)</f>
-        <v>0.35763888888888873</v>
+        <v>0.32638888888888884</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="94"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="80" t="s">
         <v>520</v>
       </c>
@@ -5543,16 +5868,16 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="E10" s="81">
-        <v>0.4375</v>
+        <v>0.44097222222222227</v>
       </c>
       <c r="F10" s="81">
         <f>E10-D10</f>
-        <v>6.9444444444444198E-3</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="I10" s="84"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="94"/>
+      <c r="A11" s="96"/>
       <c r="B11" s="80" t="s">
         <v>521</v>
       </c>
@@ -5572,7 +5897,7 @@
       <c r="I11" s="84"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="94"/>
+      <c r="A12" s="96"/>
       <c r="B12" s="80" t="s">
         <v>522</v>
       </c>
@@ -5591,7 +5916,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="94"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
       <c r="D13" s="81"/>
@@ -5602,7 +5927,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="94"/>
+      <c r="A14" s="96"/>
       <c r="B14" s="80"/>
       <c r="C14" s="80"/>
       <c r="D14" s="81"/>
@@ -5613,7 +5938,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="94"/>
+      <c r="A15" s="96"/>
       <c r="B15" s="80"/>
       <c r="C15" s="80"/>
       <c r="D15" s="81"/>
@@ -5624,7 +5949,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="94"/>
+      <c r="A16" s="96"/>
       <c r="B16" s="80"/>
       <c r="C16" s="80"/>
       <c r="D16" s="81"/>
@@ -5635,24 +5960,24 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="96" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="80" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D17" s="81">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="E17" s="81">
-        <v>0.4236111111111111</v>
+        <v>17.708333333333332</v>
       </c>
       <c r="F17" s="81">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="H17" s="79" t="s">
         <v>505</v>
@@ -5662,77 +5987,69 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="94"/>
+      <c r="A18" s="96"/>
       <c r="B18" s="80" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D18" s="81">
-        <v>0.42708333333333331</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E18" s="81">
-        <v>0.45833333333333331</v>
+        <v>21.875</v>
       </c>
       <c r="F18" s="81">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>21.041666666666668</v>
       </c>
       <c r="H18" s="83" t="s">
         <v>504</v>
       </c>
       <c r="I18" s="81">
         <f t="shared" ref="I18" si="1">SUMIFS(F17:F31, C17:C31,H18)</f>
-        <v>0.22916666666666674</v>
+        <v>21.125</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="94"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="80" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="C19" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D19" s="81">
-        <v>0.45833333333333331</v>
+        <v>21.875</v>
       </c>
       <c r="E19" s="81">
-        <v>0.47222222222222227</v>
+        <v>21.958333333333332</v>
       </c>
       <c r="F19" s="81">
         <f t="shared" si="0"/>
-        <v>1.3888888888888951E-2</v>
+        <v>8.3333333333332149E-2</v>
       </c>
       <c r="H19" s="83" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I19" s="81">
         <f t="shared" ref="I19" si="2">SUMIFS(F17:F31, C17:C31,H19)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>17.333333333333332</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="94"/>
-      <c r="B20" s="80" t="s">
-        <v>523</v>
-      </c>
-      <c r="C20" s="80" t="s">
-        <v>509</v>
-      </c>
-      <c r="D20" s="81">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E20" s="81">
-        <v>0.52083333333333337</v>
-      </c>
+      <c r="A20" s="96"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
       <c r="F20" s="81">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>0</v>
       </c>
       <c r="H20" s="83" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I20" s="81">
         <f t="shared" ref="I20" si="3">SUMIFS(F17:F31, C17:C31,H20)</f>
@@ -5740,25 +6057,17 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="94"/>
-      <c r="B21" s="80" t="s">
-        <v>518</v>
-      </c>
-      <c r="C21" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D21" s="81">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E21" s="81">
-        <v>0.54166666666666663</v>
-      </c>
+      <c r="A21" s="96"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
       <c r="F21" s="81">
         <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
+        <v>0</v>
       </c>
       <c r="H21" s="83" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="I21" s="81">
         <f t="shared" ref="I21" si="4">SUMIFS(F17:F31, C17:C31,H21)</f>
@@ -5766,25 +6075,17 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="94"/>
-      <c r="B22" s="80" t="s">
-        <v>520</v>
-      </c>
-      <c r="C22" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D22" s="81">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="E22" s="81">
-        <v>0.47916666666666669</v>
-      </c>
+      <c r="A22" s="96"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
       <c r="F22" s="81">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>0</v>
       </c>
       <c r="H22" s="83" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I22" s="81">
         <f t="shared" ref="I22" si="5">SUMIFS(F17:F31, C17:C31,H22)</f>
@@ -5792,79 +6093,55 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="94"/>
-      <c r="B23" s="80" t="s">
-        <v>521</v>
-      </c>
-      <c r="C23" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D23" s="81">
-        <v>0.65625</v>
-      </c>
-      <c r="E23" s="81">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="A23" s="96"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
       <c r="F23" s="81">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="83" t="s">
         <v>516</v>
       </c>
       <c r="I23" s="81">
         <f t="shared" ref="I23" si="6">SUMIFS(F17:F31, C17:C31,H23)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="94"/>
-      <c r="B24" s="80" t="s">
-        <v>524</v>
-      </c>
-      <c r="C24" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D24" s="81">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E24" s="81">
-        <v>0.75</v>
-      </c>
+      <c r="A24" s="96"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
       <c r="F24" s="81">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="H24" s="78" t="s">
         <v>519</v>
       </c>
       <c r="I24" s="79">
         <f t="shared" ref="I24" si="7">SUM(I18:I23)</f>
-        <v>0.34027777777777773</v>
+        <v>38.458333333333329</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="94"/>
-      <c r="B25" s="80" t="s">
-        <v>525</v>
-      </c>
-      <c r="C25" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D25" s="81">
-        <v>0.75</v>
-      </c>
-      <c r="E25" s="81">
-        <v>0.875</v>
-      </c>
+      <c r="A25" s="96"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="81">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I25" s="84"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="94"/>
+      <c r="A26" s="96"/>
       <c r="B26" s="80"/>
       <c r="C26" s="80"/>
       <c r="D26" s="81"/>
@@ -5876,7 +6153,7 @@
       <c r="I26" s="84"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="94"/>
+      <c r="A27" s="96"/>
       <c r="B27" s="80"/>
       <c r="C27" s="80"/>
       <c r="D27" s="81"/>
@@ -5887,7 +6164,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="94"/>
+      <c r="A28" s="96"/>
       <c r="B28" s="80"/>
       <c r="C28" s="80"/>
       <c r="D28" s="81"/>
@@ -5898,7 +6175,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="94"/>
+      <c r="A29" s="96"/>
       <c r="B29" s="80"/>
       <c r="C29" s="80"/>
       <c r="D29" s="81"/>
@@ -5909,7 +6186,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="94"/>
+      <c r="A30" s="96"/>
       <c r="B30" s="80"/>
       <c r="C30" s="80"/>
       <c r="D30" s="81"/>
@@ -5920,7 +6197,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="94"/>
+      <c r="A31" s="96"/>
       <c r="B31" s="80"/>
       <c r="C31" s="80"/>
       <c r="D31" s="81"/>
@@ -5931,14 +6208,14 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="96" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="80" t="s">
         <v>526</v>
       </c>
       <c r="C32" s="80" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D32" s="81">
         <v>0.375</v>
@@ -5958,7 +6235,7 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="94"/>
+      <c r="A33" s="96"/>
       <c r="B33" s="80" t="s">
         <v>527</v>
       </c>
@@ -5984,12 +6261,12 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="94"/>
+      <c r="A34" s="96"/>
       <c r="B34" s="80" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="C34" s="80" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="D34" s="81">
         <v>0.40972222222222227</v>
@@ -6002,7 +6279,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="H34" s="83" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I34" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H34)</f>
@@ -6010,9 +6287,9 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="94"/>
+      <c r="A35" s="96"/>
       <c r="B35" s="80" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C35" s="80" t="s">
         <v>504</v>
@@ -6028,7 +6305,7 @@
         <v>1.041666666666663E-2</v>
       </c>
       <c r="H35" s="83" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I35" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H35)</f>
@@ -6036,9 +6313,9 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="94"/>
+      <c r="A36" s="96"/>
       <c r="B36" s="80" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C36" s="80" t="s">
         <v>504</v>
@@ -6054,7 +6331,7 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H36" s="83" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="I36" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H36)</f>
@@ -6062,7 +6339,7 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="94"/>
+      <c r="A37" s="96"/>
       <c r="B37" s="80" t="s">
         <v>520</v>
       </c>
@@ -6080,7 +6357,7 @@
         <v>1.7361111111111049E-2</v>
       </c>
       <c r="H37" s="83" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I37" s="81">
         <f>SUMIFS(F32:F45, C32:C45,H37)</f>
@@ -6088,12 +6365,12 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="94"/>
+      <c r="A38" s="96"/>
       <c r="B38" s="80" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C38" s="80" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D38" s="81">
         <v>0.4916666666666667</v>
@@ -6114,12 +6391,12 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="94"/>
+      <c r="A39" s="96"/>
       <c r="B39" s="80" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C39" s="80" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D39" s="81">
         <v>0.5180555555555556</v>
@@ -6140,9 +6417,9 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="94"/>
+      <c r="A40" s="96"/>
       <c r="B40" s="80" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C40" s="80" t="s">
         <v>504</v>
@@ -6160,12 +6437,12 @@
       <c r="I40" s="84"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="94"/>
+      <c r="A41" s="96"/>
       <c r="B41" s="80" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C41" s="80" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D41" s="81">
         <v>0.70833333333333337</v>
@@ -6180,7 +6457,7 @@
       <c r="K41" s="81"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="94"/>
+      <c r="A42" s="96"/>
       <c r="B42" s="80" t="s">
         <v>518</v>
       </c>
@@ -6199,9 +6476,9 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="94"/>
+      <c r="A43" s="96"/>
       <c r="B43" s="80" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C43" s="80" t="s">
         <v>504</v>
@@ -6218,12 +6495,12 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="94"/>
+      <c r="A44" s="96"/>
       <c r="B44" s="80" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C44" s="80" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D44" s="81">
         <v>0.64583333333333337</v>
@@ -6237,7 +6514,7 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="94"/>
+      <c r="A45" s="96"/>
       <c r="B45" s="80"/>
       <c r="C45" s="80"/>
       <c r="D45" s="81"/>
@@ -6248,14 +6525,14 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="94" t="s">
+      <c r="A46" s="96" t="s">
         <v>16</v>
       </c>
       <c r="B46" s="80" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C46" s="80" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D46" s="81">
         <v>0.375</v>
@@ -6275,12 +6552,12 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="94"/>
+      <c r="A47" s="96"/>
       <c r="B47" s="80" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="C47" s="80" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="D47" s="81">
         <v>0.40972222222222227</v>
@@ -6297,42 +6574,42 @@
       </c>
       <c r="I47" s="81">
         <f t="shared" ref="I47" si="9">SUMIFS(F46:F60, C46:C60,H47)</f>
-        <v>0.14236111111111099</v>
+        <v>13.149305555555555</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="94"/>
+      <c r="A48" s="96"/>
       <c r="B48" s="80" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C48" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D48" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="E48" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="F48" s="81">
         <f t="shared" si="0"/>
-        <v>2.083333333333337E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="H48" s="83" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I48" s="81">
         <f t="shared" ref="I48" si="10">SUMIFS(F46:F60, C46:C60,H48)</f>
-        <v>2.0833333333333315E-2</v>
+        <v>2.6388888888888962E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="94"/>
+      <c r="A49" s="96"/>
       <c r="B49" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C49" s="80" t="s">
         <v>512</v>
-      </c>
-      <c r="C49" s="80" t="s">
-        <v>504</v>
       </c>
       <c r="D49" s="81">
         <v>0.48958333333333331</v>
@@ -6345,7 +6622,7 @@
         <v>2.7777777777777735E-2</v>
       </c>
       <c r="H49" s="83" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I49" s="81">
         <f t="shared" ref="I49" si="11">SUMIFS(F46:F60, C46:C60,H49)</f>
@@ -6353,7 +6630,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="94"/>
+      <c r="A50" s="96"/>
       <c r="B50" s="80" t="s">
         <v>518</v>
       </c>
@@ -6371,7 +6648,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="H50" s="83" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="I50" s="81">
         <f t="shared" ref="I50" si="12">SUMIFS(F46:F60, C46:C60,H50)</f>
@@ -6379,7 +6656,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="94"/>
+      <c r="A51" s="96"/>
       <c r="B51" s="80" t="s">
         <v>520</v>
       </c>
@@ -6397,15 +6674,15 @@
         <v>1.7361111111111049E-2</v>
       </c>
       <c r="H51" s="83" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I51" s="81">
         <f t="shared" ref="I51" si="13">SUMIFS(F46:F60, C46:C60,H51)</f>
-        <v>0</v>
+        <v>2.7777777777777735E-2</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="94"/>
+      <c r="A52" s="96"/>
       <c r="B52" s="80" t="s">
         <v>521</v>
       </c>
@@ -6431,12 +6708,12 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="94"/>
+      <c r="A53" s="96"/>
       <c r="B53" s="80" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C53" s="80" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D53" s="81">
         <v>0.64583333333333337</v>
@@ -6453,13 +6730,13 @@
       </c>
       <c r="I53" s="79">
         <f t="shared" ref="I53" si="15">SUM(I47:I52)</f>
-        <v>0.32638888888888884</v>
+        <v>13.366666666666667</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="94"/>
+      <c r="A54" s="96"/>
       <c r="B54" s="80" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C54" s="80" t="s">
         <v>504</v>
@@ -6477,9 +6754,9 @@
       <c r="I54" s="84"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="94"/>
+      <c r="A55" s="96"/>
       <c r="B55" s="80" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C55" s="80" t="s">
         <v>504</v>
@@ -6497,7 +6774,3634 @@
       <c r="I55" s="84"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="94"/>
+      <c r="A56" s="96"/>
+      <c r="B56" s="80" t="s">
+        <v>542</v>
+      </c>
+      <c r="C56" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D56" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E56" s="81">
+        <v>13.541666666666666</v>
+      </c>
+      <c r="F56" s="81">
+        <f t="shared" si="0"/>
+        <v>13.020833333333332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="96"/>
+      <c r="B57" s="80" t="s">
+        <v>543</v>
+      </c>
+      <c r="C57" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D57" s="81">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E57" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F57" s="81">
+        <f>E57-D57</f>
+        <v>5.5555555555556468E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="96"/>
+      <c r="B58" s="80" t="s">
+        <v>544</v>
+      </c>
+      <c r="C58" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D58" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E58" s="81">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F58" s="81">
+        <f>E58-D58</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="96"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="96"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="80" t="s">
+        <v>545</v>
+      </c>
+      <c r="C61" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D61" s="81">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E61" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="F61" s="81">
+        <f>E61-D61</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H61" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I61" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="96"/>
+      <c r="B62" s="80" t="s">
+        <v>546</v>
+      </c>
+      <c r="C62" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D62" s="81">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="E62" s="81">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="F62" s="81">
+        <f>E62-D62</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H62" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I62" s="81">
+        <f>SUMIFS(F61:F71, C61:C71,H62)</f>
+        <v>0.10069444444444438</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="96"/>
+      <c r="B63" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C63" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D63" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E63" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F63" s="81">
+        <f>E63-D63</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H63" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I63" s="81">
+        <f>SUMIFS(F61:F71, C61:C71,H63)</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="96"/>
+      <c r="B64" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C64" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D64" s="81">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E64" s="81">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="F64" s="81">
+        <f>E64-D64</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H64" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I64" s="81">
+        <f>SUMIFS(F61:F71, C61:C71,H64)</f>
+        <v>3.0625</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="96"/>
+      <c r="B65" s="80" t="s">
+        <v>547</v>
+      </c>
+      <c r="C65" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D65" s="81">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="E65" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F65" s="81">
+        <f>E65-D65</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H65" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I65" s="81">
+        <f>SUMIFS(F61:F71, C61:C71,H65)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="96"/>
+      <c r="B66" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C66" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D66" s="81">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="E66" s="81">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="F66" s="81">
+        <f>E66-D66</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+      <c r="H66" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I66" s="81">
+        <f>SUMIFS(F61:F71, C61:C71,H66)</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="96"/>
+      <c r="B67" s="80" t="s">
+        <v>548</v>
+      </c>
+      <c r="C67" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D67" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E67" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F67" s="81">
+        <f>E67-D67</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="H67" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I67" s="81">
+        <f>SUMIFS(F61:F71, C61:C71,H67)</f>
+        <v>6.2500000000000167E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="96"/>
+      <c r="B68" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C68" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D68" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E68" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F68" s="81">
+        <f>E68-D68</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="H68" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I68" s="79">
+        <f t="shared" ref="I68" si="16">SUM(I62:I67)</f>
+        <v>3.3013888888888889</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="96"/>
+      <c r="B69" s="80" t="s">
+        <v>549</v>
+      </c>
+      <c r="C69" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D69" s="81">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="E69" s="81">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="F69" s="81">
+        <f>E69-D69</f>
+        <v>4.8611111111111119E-2</v>
+      </c>
+      <c r="I69" s="84"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="96"/>
+      <c r="B70" s="80" t="s">
+        <v>550</v>
+      </c>
+      <c r="C70" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D70" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E70" s="81">
+        <v>3.7083333333333335</v>
+      </c>
+      <c r="F70" s="81">
+        <f>E70-D70</f>
+        <v>3.0625</v>
+      </c>
+      <c r="I70" s="84"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="96"/>
+      <c r="B71" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C71" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D71" s="81">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E71" s="81">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="F71" s="81">
+        <f>E71-D71</f>
+        <v>1.0416666666666741E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="96"/>
+      <c r="B72" t="s">
+        <v>544</v>
+      </c>
+      <c r="C72" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D72" s="81">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="E72" s="81">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F72" s="81">
+        <f>E72-D72</f>
+        <v>1.388888888888884E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="96"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="96"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="96"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C76" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D76" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E76" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F76" s="81">
+        <f t="shared" ref="F76:F129" si="17">E76-D76</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H76" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I76" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="96"/>
+      <c r="B77" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C77" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D77" s="81">
+        <v>0</v>
+      </c>
+      <c r="E77" s="81">
+        <v>0</v>
+      </c>
+      <c r="F77" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I77" s="81">
+        <f t="shared" ref="I77" si="18">SUMIFS(F76:F90, C76:C90,H77)</f>
+        <v>0.12986111111111098</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="96"/>
+      <c r="B78" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C78" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D78" s="81">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="E78" s="81">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="F78" s="81">
+        <f t="shared" si="17"/>
+        <v>2.5694444444444353E-2</v>
+      </c>
+      <c r="H78" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I78" s="81">
+        <f t="shared" ref="I78" si="19">SUMIFS(F76:F90, C76:C90,H78)</f>
+        <v>1.9444444444444486E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="96"/>
+      <c r="B79" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C79" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D79" s="81">
+        <v>0</v>
+      </c>
+      <c r="E79" s="81">
+        <v>0</v>
+      </c>
+      <c r="F79" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I79" s="81">
+        <f t="shared" ref="I79" si="20">SUMIFS(F76:F90, C76:C90,H79)</f>
+        <v>6.3888888888888884E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="96"/>
+      <c r="B80" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C80" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D80" s="81">
+        <v>0.53125</v>
+      </c>
+      <c r="E80" s="81">
+        <v>0.5625</v>
+      </c>
+      <c r="F80" s="81">
+        <f t="shared" si="17"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H80" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I80" s="81">
+        <f t="shared" ref="I80" si="21">SUMIFS(F76:F90, C76:C90,H80)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="96"/>
+      <c r="B81" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C81" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D81" s="81">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E81" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F81" s="81">
+        <f t="shared" si="17"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H81" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I81" s="81">
+        <f t="shared" ref="I81" si="22">SUMIFS(F76:F90, C76:C90,H81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="96"/>
+      <c r="B82" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C82" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D82" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E82" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F82" s="81">
+        <f t="shared" si="17"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="H82" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I82" s="81">
+        <f t="shared" ref="I82" si="23">SUMIFS(F76:F90, C76:C90,H82)</f>
+        <v>5.5555555555555636E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="96"/>
+      <c r="B83" s="80" t="s">
+        <v>552</v>
+      </c>
+      <c r="C83" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D83" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E83" s="81">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="F83" s="81">
+        <f t="shared" si="17"/>
+        <v>6.3888888888888884E-2</v>
+      </c>
+      <c r="H83" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I83" s="79">
+        <f t="shared" ref="I83" si="24">SUM(I77:I82)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="96"/>
+      <c r="B84" s="80" t="s">
+        <v>526</v>
+      </c>
+      <c r="C84" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D84" s="81">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E84" s="81">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="F84" s="81">
+        <f t="shared" si="17"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="I84" s="84"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="96"/>
+      <c r="B85" s="80" t="s">
+        <v>553</v>
+      </c>
+      <c r="C85" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D85" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E85" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F85" s="81">
+        <f>E85-D85</f>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="I85" s="84"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="96"/>
+      <c r="B86" s="80" t="s">
+        <v>554</v>
+      </c>
+      <c r="C86" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D86" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="E86" s="81">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="F86" s="81">
+        <f t="shared" si="17"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="96"/>
+      <c r="B87" s="80" t="s">
+        <v>555</v>
+      </c>
+      <c r="C87" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D87" s="81">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E87" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F87" s="81">
+        <f t="shared" si="17"/>
+        <v>5.5555555555556468E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="96"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="81"/>
+      <c r="E88" s="81"/>
+      <c r="F88" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="96"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="81"/>
+      <c r="F89" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="96"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="80"/>
+      <c r="D90" s="81"/>
+      <c r="E90" s="81"/>
+      <c r="F90" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C91" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D91" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E91" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F91" s="81">
+        <f t="shared" si="17"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H91" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I91" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="96"/>
+      <c r="B92" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C92" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D92" s="81">
+        <v>0</v>
+      </c>
+      <c r="E92" s="81">
+        <v>0</v>
+      </c>
+      <c r="F92" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I92" s="81">
+        <f t="shared" ref="I92" si="25">SUMIFS(F91:F105, C91:C105,H92)</f>
+        <v>6.5972222222222154E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="96"/>
+      <c r="B93" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C93" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D93" s="81">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="E93" s="81">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="F93" s="81">
+        <f t="shared" si="17"/>
+        <v>2.3611111111111138E-2</v>
+      </c>
+      <c r="H93" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I93" s="81">
+        <f t="shared" ref="I93" si="26">SUMIFS(F91:F105, C91:C105,H93)</f>
+        <v>0.17708333333333326</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="96"/>
+      <c r="B94" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C94" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D94" s="81">
+        <v>0</v>
+      </c>
+      <c r="E94" s="81">
+        <v>0</v>
+      </c>
+      <c r="F94" s="81">
+        <f>E94-D94</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I94" s="81">
+        <f t="shared" ref="I94" si="27">SUMIFS(F91:F105, C91:C105,H94)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="96"/>
+      <c r="B95" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C95" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D95" s="81">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E95" s="81">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="F95" s="81">
+        <f t="shared" si="17"/>
+        <v>2.7777777777777901E-2</v>
+      </c>
+      <c r="H95" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I95" s="81">
+        <f t="shared" ref="I95" si="28">SUMIFS(F91:F105, C91:C105,H95)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="96"/>
+      <c r="B96" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C96" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D96" s="81">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E96" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F96" s="81">
+        <f t="shared" si="17"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H96" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I96" s="81">
+        <f t="shared" ref="I96" si="29">SUMIFS(F91:F105, C91:C105,H96)</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="96"/>
+      <c r="B97" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C97" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D97" s="81">
+        <v>0</v>
+      </c>
+      <c r="E97" s="81">
+        <v>0</v>
+      </c>
+      <c r="F97" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H97" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I97" s="81">
+        <f t="shared" ref="I97" si="30">SUMIFS(F91:F105, C91:C105,H97)</f>
+        <v>3.8194444444444531E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="96"/>
+      <c r="B98" s="80" t="s">
+        <v>556</v>
+      </c>
+      <c r="C98" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D98" s="81">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E98" s="81">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F98" s="81">
+        <f t="shared" si="17"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H98" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I98" s="79">
+        <f t="shared" ref="I98" si="31">SUM(I92:I97)</f>
+        <v>0.33611111111111108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="96"/>
+      <c r="B99" s="80" t="s">
+        <v>557</v>
+      </c>
+      <c r="C99" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D99" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E99" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F99" s="81">
+        <f t="shared" si="17"/>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="I99" s="84"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="96"/>
+      <c r="B100" s="80" t="s">
+        <v>545</v>
+      </c>
+      <c r="C100" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D100" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E100" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F100" s="81">
+        <f t="shared" si="17"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="I100" s="84"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="96"/>
+      <c r="B101" s="80" t="s">
+        <v>536</v>
+      </c>
+      <c r="C101" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D101" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E101" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F101" s="81">
+        <f t="shared" si="17"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="96"/>
+      <c r="B102" s="80" t="s">
+        <v>558</v>
+      </c>
+      <c r="C102" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D102" s="81">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E102" s="81">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F102" s="81">
+        <f t="shared" si="17"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="96"/>
+      <c r="B103" s="80"/>
+      <c r="C103" s="80"/>
+      <c r="D103" s="81"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="96"/>
+      <c r="B104" s="80"/>
+      <c r="C104" s="80"/>
+      <c r="D104" s="81"/>
+      <c r="E104" s="81"/>
+      <c r="F104" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="96"/>
+      <c r="B105" s="80"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="81"/>
+      <c r="E105" s="81"/>
+      <c r="F105" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" s="80" t="s">
+        <v>545</v>
+      </c>
+      <c r="C106" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D106" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E106" s="81">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F106" s="81">
+        <f t="shared" si="17"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H106" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I106" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="96"/>
+      <c r="B107" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C107" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D107" s="85">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E107" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F107" s="81">
+        <f t="shared" si="17"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H107" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I107" s="81">
+        <f>SUMIFS(F106:F120, C106:C120,H107)</f>
+        <v>0.1388888888888889</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="96"/>
+      <c r="B108" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C108" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D108" s="81">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E108" s="81">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="F108" s="81">
+        <f t="shared" si="17"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H108" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I108" s="81">
+        <f t="shared" ref="I108" si="32">SUMIFS(F106:F120, C106:C120,H108)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="96"/>
+      <c r="B109" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="C109" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D109" s="85">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="E109" s="81">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="F109" s="81">
+        <f t="shared" si="17"/>
+        <v>2.3611111111111138E-2</v>
+      </c>
+      <c r="H109" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I109" s="81">
+        <f t="shared" ref="I109" si="33">SUMIFS(F106:F120, C106:C120,H109)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="96"/>
+      <c r="B110" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C110" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D110" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E110" s="81">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="F110" s="81">
+        <f t="shared" si="17"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H110" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I110" s="81">
+        <f t="shared" ref="I110" si="34">SUMIFS(F106:F120, C106:C120,H110)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="96"/>
+      <c r="B111" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="C111" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D111" s="81">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E111" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F111" s="81">
+        <f t="shared" si="17"/>
+        <v>6.944444444444442E-2</v>
+      </c>
+      <c r="H111" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I111" s="81">
+        <f t="shared" ref="I111" si="35">SUMIFS(F106:F120, C106:C120,H111)</f>
+        <v>2.3611111111111138E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="96"/>
+      <c r="B112" s="80" t="s">
+        <v>560</v>
+      </c>
+      <c r="C112" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D112" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E112" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F112" s="81">
+        <f t="shared" si="17"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H112" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I112" s="81">
+        <f t="shared" ref="I112" si="36">SUMIFS(F106:F120, C106:C120,H112)</f>
+        <v>5.2083333333333315E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="96"/>
+      <c r="B113" s="80" t="s">
+        <v>561</v>
+      </c>
+      <c r="C113" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D113" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E113" s="81">
+        <v>0.71875</v>
+      </c>
+      <c r="F113" s="81">
+        <f>E113-D113</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H113" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I113" s="79">
+        <f t="shared" ref="I113" si="37">SUM(I107:I112)</f>
+        <v>0.30833333333333335</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="96"/>
+      <c r="B114" t="s">
+        <v>562</v>
+      </c>
+      <c r="C114" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D114" s="84">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E114" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F114" s="81">
+        <f>E114-D114</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="I114" s="84"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="96"/>
+      <c r="B115" s="80" t="s">
+        <v>563</v>
+      </c>
+      <c r="C115" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D115" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E115" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F115" s="81">
+        <f t="shared" si="17"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="I115" s="84"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="96"/>
+      <c r="B116" s="80" t="s">
+        <v>564</v>
+      </c>
+      <c r="C116" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D116" s="85">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E116" s="81">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F116" s="81">
+        <f t="shared" si="17"/>
+        <v>1.736111111111116E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="96"/>
+      <c r="B117" s="80"/>
+      <c r="C117" s="80"/>
+      <c r="D117" s="81"/>
+      <c r="E117" s="81"/>
+      <c r="F117" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="96"/>
+      <c r="B118" s="80"/>
+      <c r="C118" s="80"/>
+      <c r="D118" s="81"/>
+      <c r="E118" s="81"/>
+      <c r="F118" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="96"/>
+      <c r="B119" s="80"/>
+      <c r="C119" s="80"/>
+      <c r="D119" s="81"/>
+      <c r="E119" s="81"/>
+      <c r="F119" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="96"/>
+      <c r="B120" s="80"/>
+      <c r="C120" s="80"/>
+      <c r="D120" s="81"/>
+      <c r="E120" s="81"/>
+      <c r="F120" s="81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="B121" s="80" t="s">
+        <v>565</v>
+      </c>
+      <c r="C121" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D121" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E121" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F121" s="81">
+        <f t="shared" si="17"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H121" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I121" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="96"/>
+      <c r="B122" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C122" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D122" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E122" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F122" s="81">
+        <f t="shared" si="17"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H122" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I122" s="81">
+        <f t="shared" ref="I122" si="38">SUMIFS(F121:F135, C121:C135,H122)</f>
+        <v>0.15277777777777746</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="96"/>
+      <c r="B123" s="80" t="s">
+        <v>566</v>
+      </c>
+      <c r="C123" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D123" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E123" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F123" s="81">
+        <f t="shared" si="17"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="H123" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I123" s="81">
+        <f t="shared" ref="I123" si="39">SUMIFS(F121:F135, C121:C135,H123)</f>
+        <v>1.9444444444444542E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="96"/>
+      <c r="B124" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C124" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D124" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E124" s="81">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="F124" s="81">
+        <f t="shared" si="17"/>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="H124" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I124" s="81">
+        <f t="shared" ref="I124" si="40">SUMIFS(F121:F135, C121:C135,H124)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="96"/>
+      <c r="B125" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C125" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D125" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E125" s="81">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F125" s="81">
+        <f t="shared" si="17"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="H125" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I125" s="81">
+        <f t="shared" ref="I125" si="41">SUMIFS(F121:F135, C121:C135,H125)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="96"/>
+      <c r="B126" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C126" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D126" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E126" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F126" s="81">
+        <f t="shared" si="17"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="H126" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I126" s="81">
+        <f t="shared" ref="I126" si="42">SUMIFS(F121:F135, C121:C135,H126)</f>
+        <v>2.7777777777777735E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="96"/>
+      <c r="B127" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C127" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D127" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E127" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F127" s="81">
+        <f t="shared" si="17"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="H127" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I127" s="81">
+        <f t="shared" ref="I127" si="43">SUMIFS(F121:F135, C121:C135,H127)</f>
+        <v>5.555555555555558E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="96"/>
+      <c r="B128" s="80" t="s">
+        <v>567</v>
+      </c>
+      <c r="C128" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D128" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E128" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F128" s="81">
+        <f t="shared" si="17"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H128" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I128" s="79">
+        <f t="shared" ref="I128" si="44">SUM(I122:I127)</f>
+        <v>0.34930555555555531</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="96"/>
+      <c r="B129" s="80" t="s">
+        <v>568</v>
+      </c>
+      <c r="C129" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D129" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E129" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F129" s="81">
+        <f t="shared" si="17"/>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="I129" s="84"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="96"/>
+      <c r="B130" s="80" t="s">
+        <v>569</v>
+      </c>
+      <c r="C130" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D130" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="E130" s="81">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F130" s="81">
+        <f t="shared" ref="F130:F165" si="45">E130-D130</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="I130" s="84"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="96"/>
+      <c r="B131" s="80" t="s">
+        <v>570</v>
+      </c>
+      <c r="C131" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D131" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E131" s="81">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F131" s="81">
+        <f t="shared" si="45"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="96"/>
+      <c r="B132" s="80" t="s">
+        <v>548</v>
+      </c>
+      <c r="C132" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D132" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E132" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F132" s="81">
+        <f t="shared" si="45"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="96"/>
+      <c r="B133" s="80" t="s">
+        <v>571</v>
+      </c>
+      <c r="C133" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D133" s="81">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E133" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F133" s="81">
+        <f t="shared" si="45"/>
+        <v>5.5555555555556468E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="96"/>
+      <c r="B134" s="80"/>
+      <c r="C134" s="80"/>
+      <c r="D134" s="81"/>
+      <c r="E134" s="81"/>
+      <c r="F134" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="96"/>
+      <c r="B135" s="80"/>
+      <c r="C135" s="80"/>
+      <c r="D135" s="81"/>
+      <c r="E135" s="81"/>
+      <c r="F135" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="B136" s="80" t="s">
+        <v>572</v>
+      </c>
+      <c r="C136" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D136" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E136" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F136" s="81">
+        <f t="shared" si="45"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H136" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I136" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="96"/>
+      <c r="B137" s="80" t="s">
+        <v>573</v>
+      </c>
+      <c r="C137" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D137" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E137" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="F137" s="81">
+        <f t="shared" si="45"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H137" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I137" s="81">
+        <f t="shared" ref="I137" si="46">SUMIFS(F136:F150, C136:C150,H137)</f>
+        <v>0.14930555555555564</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="96"/>
+      <c r="B138" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C138" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D138" s="81">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E138" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F138" s="81">
+        <f t="shared" si="45"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H138" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I138" s="81">
+        <f t="shared" ref="I138" si="47">SUMIFS(F136:F150, C136:C150,H138)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="96"/>
+      <c r="B139" s="80" t="s">
+        <v>574</v>
+      </c>
+      <c r="C139" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D139" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E139" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F139" s="81">
+        <f t="shared" si="45"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H139" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I139" s="81">
+        <f t="shared" ref="I139" si="48">SUMIFS(F136:F150, C136:C150,H139)</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="96"/>
+      <c r="B140" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="C140" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D140" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E140" s="81">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="F140" s="81">
+        <f t="shared" si="45"/>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="H140" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I140" s="81">
+        <f t="shared" ref="I140" si="49">SUMIFS(F136:F150, C136:C150,H140)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="96"/>
+      <c r="B141" s="80" t="s">
+        <v>548</v>
+      </c>
+      <c r="C141" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D141" s="81">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="E141" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F141" s="81">
+        <f t="shared" si="45"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="H141" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I141" s="81">
+        <f t="shared" ref="I141" si="50">SUMIFS(F136:F150, C136:C150,H141)</f>
+        <v>2.7777777777777735E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="96"/>
+      <c r="B142" s="80" t="s">
+        <v>575</v>
+      </c>
+      <c r="C142" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D142" s="81">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E142" s="81">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="F142" s="81">
+        <f>E142-D142</f>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="H142" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I142" s="81">
+        <f t="shared" ref="I142" si="51">SUMIFS(F136:F150, C136:C150,H142)</f>
+        <v>5.9027777777777797E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="96"/>
+      <c r="B143" s="80" t="s">
+        <v>576</v>
+      </c>
+      <c r="C143" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D143" s="81">
+        <v>0.625</v>
+      </c>
+      <c r="E143" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F143" s="81">
+        <f>E143-D143</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H143" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I143" s="79">
+        <f t="shared" ref="I143" si="52">SUM(I137:I142)</f>
+        <v>0.35069444444444453</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="96"/>
+      <c r="B144" s="80" t="s">
+        <v>577</v>
+      </c>
+      <c r="C144" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D144" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E144" s="81">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="F144" s="81">
+        <f>E144-D144</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="I144" s="84"/>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="96"/>
+      <c r="B145" s="80"/>
+      <c r="C145" s="80"/>
+      <c r="D145" s="81"/>
+      <c r="E145" s="81"/>
+      <c r="F145" s="81">
+        <f>E145-D145</f>
+        <v>0</v>
+      </c>
+      <c r="I145" s="84"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="96"/>
+      <c r="B146" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C146" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D146" s="81">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E146" s="81">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="F146" s="81">
+        <f>E146-D146</f>
+        <v>3.1250000000000007E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="96"/>
+      <c r="B147" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C147" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D147" s="81">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E147" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F147" s="81">
+        <f>E147-D147</f>
+        <v>1.3888888888888895E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="96"/>
+      <c r="B148" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C148" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D148" s="81">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E148" s="81">
+        <v>0.125</v>
+      </c>
+      <c r="F148" s="81">
+        <f t="shared" si="45"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="96"/>
+      <c r="B149" s="80"/>
+      <c r="C149" s="80"/>
+      <c r="D149" s="81"/>
+      <c r="E149" s="81"/>
+      <c r="F149" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="96"/>
+      <c r="B150" s="80"/>
+      <c r="C150" s="80"/>
+      <c r="D150" s="81"/>
+      <c r="E150" s="81"/>
+      <c r="F150" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C151" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D151" s="81">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E151" s="81">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F151" s="81">
+        <f t="shared" si="45"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H151" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I151" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="96"/>
+      <c r="B152" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C152" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D152" s="81">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E152" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F152" s="81">
+        <f t="shared" si="45"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H152" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I152" s="81">
+        <f t="shared" ref="I152" si="53">SUMIFS(F151:F165, C151:C165,H152)</f>
+        <v>0.23958333333333343</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="96"/>
+      <c r="B153" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C153" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D153" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E153" s="81">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="F153" s="81">
+        <f t="shared" si="45"/>
+        <v>2.4305555555555636E-2</v>
+      </c>
+      <c r="H153" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I153" s="81">
+        <f t="shared" ref="I153" si="54">SUMIFS(F151:F165, C151:C165,H153)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="96"/>
+      <c r="B154" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C154" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D154" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E154" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F154" s="81">
+        <f t="shared" si="45"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H154" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I154" s="81">
+        <f t="shared" ref="I154" si="55">SUMIFS(F151:F165, C151:C165,H154)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="96"/>
+      <c r="B155" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C155" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D155" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E155" s="81">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F155" s="81">
+        <f t="shared" si="45"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="H155" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I155" s="81">
+        <f t="shared" ref="I155" si="56">SUMIFS(F151:F165, C151:C165,H155)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="96"/>
+      <c r="B156" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C156" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D156" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E156" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F156" s="81">
+        <f t="shared" si="45"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H156" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I156" s="81">
+        <f t="shared" ref="I156" si="57">SUMIFS(F151:F165, C151:C165,H156)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="96"/>
+      <c r="B157" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C157" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D157" s="81">
+        <v>0.65625</v>
+      </c>
+      <c r="E157" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F157" s="81">
+        <f t="shared" si="45"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H157" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I157" s="81">
+        <f t="shared" ref="I157" si="58">SUMIFS(F151:F165, C151:C165,H157)</f>
+        <v>4.513888888888884E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="96"/>
+      <c r="B158" s="80" t="s">
+        <v>578</v>
+      </c>
+      <c r="C158" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D158" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E158" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="F158" s="81">
+        <f t="shared" si="45"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H158" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I158" s="79">
+        <f t="shared" ref="I158" si="59">SUM(I152:I157)</f>
+        <v>0.35763888888888895</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="96"/>
+      <c r="B159" s="80" t="s">
+        <v>546</v>
+      </c>
+      <c r="C159" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D159" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="E159" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="F159" s="81">
+        <f t="shared" si="45"/>
+        <v>0.125</v>
+      </c>
+      <c r="I159" s="84"/>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="96"/>
+      <c r="B160" s="80"/>
+      <c r="C160" s="80"/>
+      <c r="D160" s="81"/>
+      <c r="E160" s="81"/>
+      <c r="F160" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="I160" s="84"/>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="96"/>
+      <c r="B161" s="80"/>
+      <c r="C161" s="80"/>
+      <c r="D161" s="81"/>
+      <c r="E161" s="81"/>
+      <c r="F161" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="96"/>
+      <c r="B162" s="80"/>
+      <c r="C162" s="80"/>
+      <c r="D162" s="81"/>
+      <c r="E162" s="81"/>
+      <c r="F162" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="96"/>
+      <c r="B163" s="80"/>
+      <c r="C163" s="80"/>
+      <c r="D163" s="81"/>
+      <c r="E163" s="81"/>
+      <c r="F163" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="96"/>
+      <c r="B164" s="80"/>
+      <c r="C164" s="80"/>
+      <c r="D164" s="81"/>
+      <c r="E164" s="81"/>
+      <c r="F164" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="96"/>
+      <c r="B165" s="80"/>
+      <c r="C165" s="80"/>
+      <c r="D165" s="81"/>
+      <c r="E165" s="81"/>
+      <c r="F165" s="81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A106:A120"/>
+    <mergeCell ref="A121:A135"/>
+    <mergeCell ref="A136:A150"/>
+    <mergeCell ref="A151:A165"/>
+    <mergeCell ref="A76:A90"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="A32:A45"/>
+    <mergeCell ref="A46:A60"/>
+    <mergeCell ref="A61:A75"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I3 I18 I33 I47 I62 I77 I92 I107 I122 I137 I152">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="lessThan">
+      <formula>0.25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4 I19 I34 I48 I63 I78 I93 I108 I123 I138 I153">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5 I20 I35 I49 I64 I79 I94 I109 I124 I139 I154">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="lessThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="greaterThan">
+      <formula>0.0833333333333333</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6 I21 I36 I50 I65 I80 I95 I110 I125 I140 I155">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7 I22 I37 I51 I66 I81 I96 I111 I126 I141 I156">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="greaterThan">
+      <formula>0.0416666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8 I23 I38 I52 I67 I82 I97 I112 I127 I142 I157">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+      <formula>0.0625</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+      <formula>0.0625</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C72 C76:C165" xr:uid="{6E4899FF-3B25-4EE1-B31B-EF5F8A1E414F}">
+      <formula1>$Q$1:$Q$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13FBC9E-6B7C-42AF-90E3-40C9ABA19EBC}">
+  <dimension ref="A1:Q166"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="H118" sqref="H118"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="84" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="84" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="84" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="78" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>500</v>
+      </c>
+      <c r="E1" s="79" t="s">
+        <v>501</v>
+      </c>
+      <c r="F1" s="79" t="s">
+        <v>502</v>
+      </c>
+      <c r="G1" s="82"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="96" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E2" s="81">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F2" s="81">
+        <f t="shared" ref="F2:F64" si="0">E2-D2</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H2" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I2" s="79" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="96"/>
+      <c r="B3" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D3" s="81">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E3" s="81">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="F3" s="81">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222265E-2</v>
+      </c>
+      <c r="H3" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I3" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H3)</f>
+        <v>0.22569444444444436</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="96"/>
+      <c r="B4" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D4" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E4" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="81">
+        <f t="shared" si="0"/>
+        <v>5.9027777777777735E-2</v>
+      </c>
+      <c r="H4" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I4" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H4)</f>
+        <v>5.902777777777779E-2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="96"/>
+      <c r="B5" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D5" s="81">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E5" s="81">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="F5" s="81">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H5" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I5" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H5)</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="96"/>
+      <c r="B6" s="80" t="s">
+        <v>514</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D6" s="81">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E6" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F6" s="81">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H6" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I6" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="96"/>
+      <c r="B7" s="80" t="s">
+        <v>579</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D7" s="81">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="E7" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F7" s="81">
+        <f t="shared" si="0"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="H7" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I7" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H7)</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="96"/>
+      <c r="B8" s="80" t="s">
+        <v>580</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D8" s="81">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E8" s="81">
+        <v>0.6875</v>
+      </c>
+      <c r="F8" s="81">
+        <f>E8-D8</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="H8" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I8" s="81">
+        <f>SUMIFS(F2:F16, C2:C16,H8)</f>
+        <v>3.8194444444444364E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="96"/>
+      <c r="B9" s="80" t="s">
+        <v>581</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D9" s="81">
+        <v>0.6875</v>
+      </c>
+      <c r="E9" s="81">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="F9" s="81">
+        <f>E9-D9</f>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="H9" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I9" s="79">
+        <f>SUM(I3:I8)</f>
+        <v>0.40624999999999989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="96"/>
+      <c r="B10" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D10" s="81">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E10" s="81">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="F10" s="81">
+        <f>E10-D10</f>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="I10" s="84"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="96"/>
+      <c r="B11" s="80" t="s">
+        <v>582</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D11" s="81">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="E11" s="81">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="F11" s="81">
+        <f>E11-D11</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="I11" s="84"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="96"/>
+      <c r="B12" s="80" t="s">
+        <v>583</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D12" s="81">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="E12" s="81">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F12" s="81">
+        <f>E12-D12</f>
+        <v>2.777777777777779E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="96"/>
+      <c r="B13" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D13" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E13" s="81">
+        <v>0.5625</v>
+      </c>
+      <c r="F13" s="81">
+        <f>E13-D13</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="96"/>
+      <c r="B14" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D14" s="81">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E14" s="81">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F14" s="81">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="96"/>
+      <c r="B15" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D15" s="81">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="E15" s="81">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="F15" s="81">
+        <f t="shared" si="0"/>
+        <v>6.9444444444443088E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="96"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81">
+        <f>E16-D16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>584</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D17" s="81">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E17" s="81">
+        <v>0.34375</v>
+      </c>
+      <c r="F17" s="81">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H17" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I17" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="96"/>
+      <c r="B18" s="80" t="s">
+        <v>585</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D18" s="81">
+        <v>0.34375</v>
+      </c>
+      <c r="E18" s="81">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="F18" s="81">
+        <f t="shared" si="0"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="H18" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I18" s="81">
+        <f t="shared" ref="I18" si="1">SUMIFS(F17:F31, C17:C31,H18)</f>
+        <v>1.2423611111111117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="96"/>
+      <c r="B19" s="80" t="s">
+        <v>586</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D19" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="81">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="F19" s="81">
+        <f>E19-D19</f>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="H19" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I19" s="81">
+        <f t="shared" ref="I19" si="2">SUMIFS(F17:F31, C17:C31,H19)</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="96"/>
+      <c r="B20" s="80" t="s">
+        <v>587</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D20" s="81">
+        <v>0.4375</v>
+      </c>
+      <c r="E20" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F20" s="81">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H20" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I20" s="81">
+        <f t="shared" ref="I20" si="3">SUMIFS(F17:F31, C17:C31,H20)</f>
+        <v>0.12152777777777785</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="96"/>
+      <c r="B21" s="80" t="s">
+        <v>588</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D21" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E21" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="81">
+        <f>E21-D21</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H21" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I21" s="81">
+        <f t="shared" ref="I21" si="4">SUMIFS(F17:F31, C17:C31,H21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="96"/>
+      <c r="B22" s="80" t="s">
+        <v>587</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D22" s="81">
+        <v>23.5</v>
+      </c>
+      <c r="E22" s="86">
+        <v>24.5625</v>
+      </c>
+      <c r="F22" s="81">
+        <f>E22-D22</f>
+        <v>1.0625</v>
+      </c>
+      <c r="H22" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I22" s="81">
+        <f t="shared" ref="I22" si="5">SUMIFS(F17:F31, C17:C31,H22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="96"/>
+      <c r="B23" s="80" t="s">
+        <v>589</v>
+      </c>
+      <c r="C23" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D23" s="81">
+        <v>0.5625</v>
+      </c>
+      <c r="E23" s="81">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F23" s="81">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="H23" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I23" s="81">
+        <f t="shared" ref="I23" si="6">SUMIFS(F17:F31, C17:C31,H23)</f>
+        <v>1.1041666666666665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="96"/>
+      <c r="B24" s="80" t="s">
+        <v>590</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D24" s="81">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E24" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F24" s="81">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="H24" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I24" s="79">
+        <f t="shared" ref="I24" si="7">SUM(I18:I23)</f>
+        <v>2.4784722222222229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="96"/>
+      <c r="B25" s="80" t="s">
+        <v>587</v>
+      </c>
+      <c r="C25" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D25" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E25" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F25" s="81">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="I25" s="84"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="96"/>
+      <c r="B26" s="80" t="s">
+        <v>591</v>
+      </c>
+      <c r="C26" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D26" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E26" s="81">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="F26" s="81">
+        <f t="shared" si="0"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="I26" s="84"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="96"/>
+      <c r="B27" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C27" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D27" s="81">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E27" s="81">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="F27" s="81">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="96"/>
+      <c r="B28" s="80" t="s">
+        <v>592</v>
+      </c>
+      <c r="C28" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D28" s="81">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E28" s="81">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F28" s="81">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="96"/>
+      <c r="B29" s="80" t="s">
+        <v>592</v>
+      </c>
+      <c r="C29" s="80" t="s">
+        <v>593</v>
+      </c>
+      <c r="D29" s="81">
+        <v>23.958333333333332</v>
+      </c>
+      <c r="E29" s="81">
+        <v>24.999305555555555</v>
+      </c>
+      <c r="F29" s="81">
+        <f t="shared" si="0"/>
+        <v>1.0409722222222229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="96"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="96"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="80" t="s">
+        <v>526</v>
+      </c>
+      <c r="C32" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D32" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E32" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F32" s="81">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H32" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I32" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="96"/>
+      <c r="B33" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C33" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D33" s="81">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E33" s="81">
+        <v>0.4375</v>
+      </c>
+      <c r="F33" s="81">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H33" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I33" s="81">
+        <f t="shared" ref="I33" si="8">SUMIFS(F32:F46, C32:C46,H33)</f>
+        <v>0.23611111111111122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="96"/>
+      <c r="B34" s="80" t="s">
+        <v>594</v>
+      </c>
+      <c r="C34" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D34" s="81">
+        <v>0.4375</v>
+      </c>
+      <c r="E34" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F34" s="81">
+        <f t="shared" si="0"/>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="H34" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I34" s="81">
+        <f t="shared" ref="I34" si="9">SUMIFS(F32:F46, C32:C46,H34)</f>
+        <v>7.5000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="96"/>
+      <c r="B35" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C35" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D35" s="81">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E35" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="81">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H35" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I35" s="81">
+        <f t="shared" ref="I35" si="10">SUMIFS(F32:F46, C32:C46,H35)</f>
+        <v>9.0277777777777901E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="96"/>
+      <c r="B36" s="80" t="s">
+        <v>595</v>
+      </c>
+      <c r="C36" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D36" s="81">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E36" s="81">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="F36" s="81">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H36" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I36" s="81">
+        <f t="shared" ref="I36" si="11">SUMIFS(F32:F46, C32:C46,H36)</f>
+        <v>1.388888888888884E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="96"/>
+      <c r="B37" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C37" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D37" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E37" s="81">
+        <v>0.5625</v>
+      </c>
+      <c r="F37" s="81">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H37" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I37" s="81">
+        <f t="shared" ref="I37" si="12">SUMIFS(F32:F46, C32:C46,H37)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="96"/>
+      <c r="B38" s="80" t="s">
+        <v>596</v>
+      </c>
+      <c r="C38" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D38" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E38" s="81">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="F38" s="81">
+        <f t="shared" si="0"/>
+        <v>9.7222222222222321E-2</v>
+      </c>
+      <c r="H38" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I38" s="81">
+        <f t="shared" ref="I38" si="13">SUMIFS(F32:F46, C32:C46,H38)</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="96"/>
+      <c r="B39" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C39" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D39" s="81">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="E39" s="81">
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="F39" s="81">
+        <f t="shared" si="0"/>
+        <v>9.0277777777777457E-3</v>
+      </c>
+      <c r="H39" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I39" s="79">
+        <f t="shared" ref="I39" si="14">SUM(I33:I38)</f>
+        <v>0.46736111111111134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="96"/>
+      <c r="B40" s="80" t="s">
+        <v>597</v>
+      </c>
+      <c r="C40" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D40" s="81">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="E40" s="81">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F40" s="81">
+        <f t="shared" si="0"/>
+        <v>7.9861111111111049E-2</v>
+      </c>
+      <c r="I40" s="84"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="96"/>
+      <c r="B41" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C41" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D41" s="81">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E41" s="81">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="F41" s="81">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="I41" s="84"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="96"/>
+      <c r="B42" s="80" t="s">
+        <v>586</v>
+      </c>
+      <c r="C42" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D42" s="81">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="E42" s="81">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F42" s="81">
+        <f t="shared" si="0"/>
+        <v>4.861111111111116E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="96"/>
+      <c r="B43" s="80" t="s">
+        <v>598</v>
+      </c>
+      <c r="C43" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D43" s="81">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E43" s="81">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="F43" s="81">
+        <f t="shared" si="0"/>
+        <v>6.9444444444445308E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="96"/>
+      <c r="B44" s="80" t="s">
+        <v>599</v>
+      </c>
+      <c r="C44" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D44" s="81">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E44" s="81">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F44" s="81">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="96"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="96"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="80" t="s">
+        <v>600</v>
+      </c>
+      <c r="C47" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D47" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E47" s="81">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F47" s="81">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H47" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I47" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="96"/>
+      <c r="B48" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C48" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D48" s="81">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E48" s="81">
+        <v>0.4375</v>
+      </c>
+      <c r="F48" s="81">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H48" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I48" s="81">
+        <f t="shared" ref="I48" si="15">SUMIFS(F47:F61, C47:C61,H48)</f>
+        <v>0.36805555555555552</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="96"/>
+      <c r="B49" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C49" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D49" s="81">
+        <v>0.4375</v>
+      </c>
+      <c r="E49" s="81">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F49" s="81">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H49" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I49" s="81">
+        <f t="shared" ref="I49" si="16">SUMIFS(F47:F61, C47:C61,H49)</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="96"/>
+      <c r="B50" s="80" t="s">
+        <v>601</v>
+      </c>
+      <c r="C50" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D50" s="81">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E50" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="F50" s="81">
+        <f t="shared" si="0"/>
+        <v>4.8611111111111105E-2</v>
+      </c>
+      <c r="H50" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I50" s="81">
+        <f t="shared" ref="I50" si="17">SUMIFS(F47:F61, C47:C61,H50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="96"/>
+      <c r="B51" s="80" t="s">
+        <v>602</v>
+      </c>
+      <c r="C51" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D51" s="81">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E51" s="81">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="F51" s="81">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H51" s="83" t="s">
+        <v>513</v>
+      </c>
+      <c r="I51" s="81">
+        <f t="shared" ref="I51" si="18">SUMIFS(F47:F61, C47:C61,H51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="96"/>
+      <c r="B52" s="80" t="s">
+        <v>518</v>
+      </c>
+      <c r="C52" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D52" s="81">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E52" s="81">
+        <v>0.5625</v>
+      </c>
+      <c r="F52" s="81">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H52" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I52" s="81">
+        <f t="shared" ref="I52" si="19">SUMIFS(F47:F61, C47:C61,H52)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="96"/>
+      <c r="B53" s="80" t="s">
+        <v>603</v>
+      </c>
+      <c r="C53" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D53" s="81">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E53" s="81">
+        <v>0.6875</v>
+      </c>
+      <c r="F53" s="81">
+        <f t="shared" si="0"/>
+        <v>0.11111111111111105</v>
+      </c>
+      <c r="H53" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I53" s="81">
+        <f t="shared" ref="I53" si="20">SUMIFS(F47:F61, C47:C61,H53)</f>
+        <v>3.1250000000000056E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="96"/>
+      <c r="B54" s="80" t="s">
+        <v>604</v>
+      </c>
+      <c r="C54" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D54" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E54" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="F54" s="81">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H54" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I54" s="79">
+        <f t="shared" ref="I54" si="21">SUM(I48:I53)</f>
+        <v>0.48263888888888895</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="96"/>
+      <c r="B55" s="80" t="s">
+        <v>546</v>
+      </c>
+      <c r="C55" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D55" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="E55" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="F55" s="81">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="I55" s="84"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="96"/>
       <c r="B56" s="80"/>
       <c r="C56" s="80"/>
       <c r="D56" s="81"/>
@@ -6506,9 +10410,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I56" s="84"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="94"/>
+      <c r="A57" s="96"/>
       <c r="B57" s="80"/>
       <c r="C57" s="80"/>
       <c r="D57" s="81"/>
@@ -6519,7 +10424,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="94"/>
+      <c r="A58" s="96"/>
       <c r="B58" s="80"/>
       <c r="C58" s="80"/>
       <c r="D58" s="81"/>
@@ -6530,7 +10435,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="94"/>
+      <c r="A59" s="96"/>
       <c r="B59" s="80"/>
       <c r="C59" s="80"/>
       <c r="D59" s="81"/>
@@ -6541,7 +10446,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="94"/>
+      <c r="A60" s="96"/>
       <c r="B60" s="80"/>
       <c r="C60" s="80"/>
       <c r="D60" s="81"/>
@@ -6552,86 +10457,71 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="94" t="s">
+      <c r="A61" s="96"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="80" t="s">
-        <v>541</v>
-      </c>
-      <c r="C61" s="80" t="s">
-        <v>509</v>
-      </c>
-      <c r="D61" s="81">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E61" s="81">
+      <c r="B62" s="80" t="s">
+        <v>584</v>
+      </c>
+      <c r="C62" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D62" s="81">
         <v>0.375</v>
       </c>
-      <c r="F61" s="81">
-        <f>E61-D61</f>
-        <v>2.0833333333333315E-2</v>
-      </c>
-      <c r="H61" s="79" t="s">
+      <c r="E62" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F62" s="81">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H62" s="79" t="s">
         <v>505</v>
       </c>
-      <c r="I61" s="79" t="s">
+      <c r="I62" s="79" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="94"/>
-      <c r="B62" s="80" t="s">
-        <v>525</v>
-      </c>
-      <c r="C62" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D62" s="81">
-        <v>0.38194444444444442</v>
-      </c>
-      <c r="E62" s="81">
-        <v>0.40277777777777773</v>
-      </c>
-      <c r="F62" s="81">
-        <f>E62-D62</f>
-        <v>2.0833333333333315E-2</v>
-      </c>
-      <c r="H62" s="83" t="s">
-        <v>504</v>
-      </c>
-      <c r="I62" s="81">
-        <f>SUMIFS(F61:F71, C61:C71,H62)</f>
-        <v>0.10069444444444438</v>
-      </c>
-    </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="94"/>
+      <c r="A63" s="96"/>
       <c r="B63" s="80" t="s">
-        <v>507</v>
+        <v>551</v>
       </c>
       <c r="C63" s="80" t="s">
         <v>508</v>
       </c>
       <c r="D63" s="81">
-        <v>0.40972222222222227</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E63" s="81">
-        <v>0.44097222222222227</v>
+        <v>0.4375</v>
       </c>
       <c r="F63" s="81">
-        <f>E63-D63</f>
-        <v>3.125E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H63" s="83" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="I63" s="81">
-        <f>SUMIFS(F61:F71, C61:C71,H63)</f>
-        <v>2.0833333333333315E-2</v>
+        <f t="shared" ref="I63" si="22">SUMIFS(F62:F76, C62:C76,H63)</f>
+        <v>0.22222222222222227</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="94"/>
+      <c r="A64" s="96"/>
       <c r="B64" s="80" t="s">
         <v>520</v>
       </c>
@@ -6639,1517 +10529,1559 @@
         <v>516</v>
       </c>
       <c r="D64" s="81">
-        <v>0.44444444444444442</v>
+        <v>0.4375</v>
       </c>
       <c r="E64" s="81">
-        <v>0.4548611111111111</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="F64" s="81">
-        <f>E64-D64</f>
+        <f t="shared" si="0"/>
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="H64" s="83" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I64" s="81">
-        <f>SUMIFS(F61:F71, C61:C71,H64)</f>
-        <v>3.0625</v>
+        <f t="shared" ref="I64" si="23">SUMIFS(F62:F76, C62:C76,H64)</f>
+        <v>6.2500000000000111E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="94"/>
-      <c r="B65" s="80" t="s">
-        <v>542</v>
+      <c r="A65" s="96"/>
+      <c r="B65" t="s">
+        <v>605</v>
       </c>
       <c r="C65" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D65" s="81">
-        <v>0.46180555555555558</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="E65" s="81">
-        <v>0.47222222222222227</v>
+        <v>0.5</v>
       </c>
       <c r="F65" s="81">
         <f>E65-D65</f>
-        <v>1.0416666666666685E-2</v>
+        <v>4.8611111111111105E-2</v>
       </c>
       <c r="H65" s="83" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="I65" s="81">
-        <f>SUMIFS(F61:F71, C61:C71,H65)</f>
-        <v>3.125E-2</v>
+        <f t="shared" ref="I65" si="24">SUMIFS(F62:F76, C62:C76,H65)</f>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="94"/>
+      <c r="A66" s="96"/>
       <c r="B66" s="80" t="s">
+        <v>606</v>
+      </c>
+      <c r="C66" s="80" t="s">
         <v>512</v>
       </c>
-      <c r="C66" s="80" t="s">
-        <v>513</v>
-      </c>
       <c r="D66" s="81">
-        <v>0.4916666666666667</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="E66" s="81">
-        <v>0.51527777777777783</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="F66" s="81">
         <f>E66-D66</f>
-        <v>2.3611111111111138E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H66" s="83" t="s">
         <v>513</v>
       </c>
       <c r="I66" s="81">
-        <f>SUMIFS(F61:F71, C61:C71,H66)</f>
-        <v>2.3611111111111138E-2</v>
+        <f t="shared" ref="I66" si="25">SUMIFS(F62:F76, C62:C76,H66)</f>
+        <v>2.0833333333333259E-2</v>
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="94"/>
+      <c r="A67" s="96"/>
       <c r="B67" s="80" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="C67" s="80" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="D67" s="81">
         <v>0.52083333333333337</v>
       </c>
       <c r="E67" s="81">
-        <v>0.54166666666666663</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="F67" s="81">
         <f>E67-D67</f>
-        <v>2.0833333333333259E-2</v>
+        <v>4.8611111111111049E-2</v>
       </c>
       <c r="H67" s="83" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="I67" s="81">
-        <f>SUMIFS(F61:F71, C61:C71,H67)</f>
-        <v>6.2500000000000167E-2</v>
+        <f t="shared" ref="I67" si="26">SUMIFS(F62:F76, C62:C76,H67)</f>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="94"/>
+      <c r="A68" s="96"/>
       <c r="B68" s="80" t="s">
-        <v>518</v>
+        <v>607</v>
       </c>
       <c r="C68" s="80" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D68" s="81">
-        <v>0.54166666666666663</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="E68" s="81">
-        <v>0.58333333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="F68" s="81">
         <f>E68-D68</f>
-        <v>4.1666666666666741E-2</v>
-      </c>
-      <c r="H68" s="78" t="s">
-        <v>519</v>
-      </c>
-      <c r="I68" s="79">
-        <f t="shared" ref="I68" si="16">SUM(I62:I67)</f>
-        <v>3.3013888888888889</v>
+        <v>0.11805555555555558</v>
+      </c>
+      <c r="H68" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I68" s="81">
+        <f t="shared" ref="I68" si="27">SUMIFS(F62:F76, C62:C76,H68)</f>
+        <v>6.9444444444444364E-2</v>
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="94"/>
+      <c r="A69" s="96"/>
       <c r="B69" s="80" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="C69" s="80" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="D69" s="81">
-        <v>9.0277777777777776E-2</v>
+        <v>0.65625</v>
       </c>
       <c r="E69" s="81">
-        <v>0.1388888888888889</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F69" s="81">
         <f>E69-D69</f>
-        <v>4.8611111111111119E-2</v>
-      </c>
-      <c r="I69" s="84"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H69" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I69" s="79">
+        <f t="shared" ref="I69" si="28">SUM(I63:I68)</f>
+        <v>0.44791666666666663</v>
+      </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="94"/>
+      <c r="A70" s="96"/>
       <c r="B70" s="80" t="s">
-        <v>545</v>
+        <v>581</v>
       </c>
       <c r="C70" s="80" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D70" s="81">
-        <v>0.64583333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="E70" s="81">
-        <v>3.7083333333333335</v>
+        <v>0.69444444444444453</v>
       </c>
       <c r="F70" s="81">
         <f>E70-D70</f>
-        <v>3.0625</v>
+        <v>6.9444444444445308E-3</v>
       </c>
       <c r="I70" s="84"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="94"/>
-      <c r="B71" s="80" t="s">
-        <v>521</v>
+      <c r="A71" s="96"/>
+      <c r="B71" t="s">
+        <v>608</v>
       </c>
       <c r="C71" s="80" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D71" s="81">
-        <v>0.71527777777777779</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E71" s="81">
-        <v>0.72569444444444453</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="F71" s="81">
         <f>E71-D71</f>
-        <v>1.0416666666666741E-2</v>
-      </c>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="I71" s="84"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="94"/>
+      <c r="A72" s="96"/>
+      <c r="B72" s="80" t="s">
+        <v>609</v>
+      </c>
+      <c r="C72" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D72" s="81">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E72" s="81">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="F72" s="81">
+        <f>E72-D72</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="94"/>
+      <c r="A73" s="96"/>
+      <c r="B73" s="81" t="s">
+        <v>610</v>
+      </c>
+      <c r="C73" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D73" s="81">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E73" s="81">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F73" s="81">
+        <f t="shared" ref="F73" si="29">E73-D73</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="94"/>
+      <c r="A74" s="96"/>
+      <c r="B74" s="80" t="s">
+        <v>611</v>
+      </c>
+      <c r="C74" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D74" s="81">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E74" s="81">
+        <v>0.875</v>
+      </c>
+      <c r="F74" s="81">
+        <f>E74-D74</f>
+        <v>4.166666666666663E-2</v>
+      </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="94"/>
+      <c r="A75" s="96"/>
+      <c r="B75" s="80"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="81"/>
+      <c r="E75" s="81"/>
+      <c r="F75" s="81">
+        <f t="shared" ref="F75:F129" si="30">E75-D75</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="94" t="s">
+      <c r="A76" s="96"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="80"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="81"/>
+      <c r="F76" s="81">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B76" s="80" t="s">
-        <v>507</v>
-      </c>
-      <c r="C76" s="80" t="s">
+      <c r="B77" s="80" t="s">
+        <v>526</v>
+      </c>
+      <c r="C77" s="80" t="s">
         <v>508</v>
       </c>
-      <c r="D76" s="81">
-        <v>0.40972222222222227</v>
-      </c>
-      <c r="E76" s="81">
-        <v>0.44097222222222227</v>
-      </c>
-      <c r="F76" s="81">
-        <f t="shared" ref="F76:F129" si="17">E76-D76</f>
+      <c r="D77" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E77" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F77" s="81">
+        <f t="shared" si="30"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H77" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I77" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="96"/>
+      <c r="B78" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C78" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D78" s="81">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E78" s="81">
+        <v>0.4375</v>
+      </c>
+      <c r="F78" s="81">
+        <f t="shared" si="30"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H78" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I78" s="81">
+        <f t="shared" ref="I78" si="31">SUMIFS(F77:F91, C77:C91,H78)</f>
+        <v>0.25972222222222224</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="96"/>
+      <c r="B79" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C79" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D79" s="81">
+        <v>0.4375</v>
+      </c>
+      <c r="E79" s="81">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="F79" s="81">
+        <f t="shared" si="30"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H79" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I79" s="81">
+        <f t="shared" ref="I79" si="32">SUMIFS(F77:F91, C77:C91,H79)</f>
+        <v>5.555555555555558E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="96"/>
+      <c r="B80" s="80" t="s">
+        <v>601</v>
+      </c>
+      <c r="C80" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D80" s="81">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E80" s="81">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="F80" s="81">
+        <f t="shared" si="30"/>
+        <v>5.1388888888888873E-2</v>
+      </c>
+      <c r="H80" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I80" s="81">
+        <f t="shared" ref="I80" si="33">SUMIFS(F77:F91, C77:C91,H80)</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="96"/>
+      <c r="B81" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C81" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D81" s="81">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E81" s="81">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="F81" s="81">
+        <f t="shared" si="30"/>
         <v>3.125E-2</v>
-      </c>
-      <c r="H76" s="79" t="s">
-        <v>505</v>
-      </c>
-      <c r="I76" s="79" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="94"/>
-      <c r="B77" s="80" t="s">
-        <v>523</v>
-      </c>
-      <c r="C77" s="80" t="s">
-        <v>509</v>
-      </c>
-      <c r="D77" s="81">
-        <v>0</v>
-      </c>
-      <c r="E77" s="81">
-        <v>0</v>
-      </c>
-      <c r="F77" s="81">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H77" s="83" t="s">
-        <v>504</v>
-      </c>
-      <c r="I77" s="81">
-        <f t="shared" ref="I77" si="18">SUMIFS(F76:F90, C76:C90,H77)</f>
-        <v>0.12986111111111098</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="94"/>
-      <c r="B78" s="80" t="s">
-        <v>512</v>
-      </c>
-      <c r="C78" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D78" s="81">
-        <v>0.4916666666666667</v>
-      </c>
-      <c r="E78" s="81">
-        <v>0.51736111111111105</v>
-      </c>
-      <c r="F78" s="81">
-        <f t="shared" si="17"/>
-        <v>2.5694444444444353E-2</v>
-      </c>
-      <c r="H78" s="83" t="s">
-        <v>509</v>
-      </c>
-      <c r="I78" s="81">
-        <f t="shared" ref="I78" si="19">SUMIFS(F76:F90, C76:C90,H78)</f>
-        <v>1.388888888888884E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="94"/>
-      <c r="B79" s="80" t="s">
-        <v>523</v>
-      </c>
-      <c r="C79" s="80" t="s">
-        <v>509</v>
-      </c>
-      <c r="D79" s="81">
-        <v>0</v>
-      </c>
-      <c r="E79" s="81">
-        <v>0</v>
-      </c>
-      <c r="F79" s="81">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H79" s="83" t="s">
-        <v>511</v>
-      </c>
-      <c r="I79" s="81">
-        <f t="shared" ref="I79" si="20">SUMIFS(F76:F90, C76:C90,H79)</f>
-        <v>6.3888888888888884E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="94"/>
-      <c r="B80" s="80" t="s">
-        <v>518</v>
-      </c>
-      <c r="C80" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D80" s="81">
-        <v>0.53125</v>
-      </c>
-      <c r="E80" s="81">
-        <v>0.5625</v>
-      </c>
-      <c r="F80" s="81">
-        <f t="shared" si="17"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="H80" s="83" t="s">
-        <v>508</v>
-      </c>
-      <c r="I80" s="81">
-        <f t="shared" ref="I80" si="21">SUMIFS(F76:F90, C76:C90,H80)</f>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="94"/>
-      <c r="B81" s="80" t="s">
-        <v>520</v>
-      </c>
-      <c r="C81" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D81" s="81">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="E81" s="81">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F81" s="81">
-        <f t="shared" si="17"/>
-        <v>1.3888888888888895E-2</v>
       </c>
       <c r="H81" s="83" t="s">
         <v>513</v>
       </c>
       <c r="I81" s="81">
-        <f t="shared" ref="I81" si="22">SUMIFS(F76:F90, C76:C90,H81)</f>
+        <f t="shared" ref="I81" si="34">SUMIFS(F77:F91, C77:C91,H81)</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="94"/>
+      <c r="A82" s="96"/>
       <c r="B82" s="80" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C82" s="80" t="s">
         <v>516</v>
       </c>
       <c r="D82" s="81">
-        <v>0.63541666666666663</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="E82" s="81">
-        <v>0.64583333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="F82" s="81">
-        <f t="shared" si="17"/>
-        <v>1.0416666666666741E-2</v>
+        <f t="shared" si="30"/>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H82" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I82" s="81">
+        <f t="shared" ref="I82" si="35">SUMIFS(F77:F91, C77:C91,H82)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="96"/>
+      <c r="B83" s="80" t="s">
+        <v>612</v>
+      </c>
+      <c r="C83" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D83" s="81">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E83" s="81">
+        <v>0.59375</v>
+      </c>
+      <c r="F83" s="81">
+        <f t="shared" si="30"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H83" s="83" t="s">
         <v>516</v>
       </c>
-      <c r="I82" s="81">
-        <f t="shared" ref="I82" si="23">SUMIFS(F76:F90, C76:C90,H82)</f>
-        <v>5.5555555555555636E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="94"/>
-      <c r="B83" s="80" t="s">
+      <c r="I83" s="81">
+        <f t="shared" ref="I83" si="36">SUMIFS(F77:F91, C77:C91,H83)</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="96"/>
+      <c r="B84" s="80"/>
+      <c r="C84" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D84" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E84" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="F84" s="81">
+        <f t="shared" si="30"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H84" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I84" s="79">
+        <f t="shared" ref="I84" si="37">SUM(I78:I83)</f>
+        <v>0.40902777777777788</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="96"/>
+      <c r="B85" s="80" t="s">
         <v>546</v>
-      </c>
-      <c r="C83" s="80" t="s">
-        <v>511</v>
-      </c>
-      <c r="D83" s="81">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="E83" s="81">
-        <v>0.70972222222222225</v>
-      </c>
-      <c r="F83" s="81">
-        <f t="shared" si="17"/>
-        <v>6.3888888888888884E-2</v>
-      </c>
-      <c r="H83" s="78" t="s">
-        <v>519</v>
-      </c>
-      <c r="I83" s="79">
-        <f t="shared" ref="I83" si="24">SUM(I77:I82)</f>
-        <v>0.29444444444444434</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="94"/>
-      <c r="B84" s="80" t="s">
-        <v>526</v>
-      </c>
-      <c r="C84" s="80" t="s">
-        <v>509</v>
-      </c>
-      <c r="D84" s="81">
-        <v>0.36805555555555558</v>
-      </c>
-      <c r="E84" s="81">
-        <v>0.38194444444444442</v>
-      </c>
-      <c r="F84" s="81">
-        <f t="shared" si="17"/>
-        <v>1.388888888888884E-2</v>
-      </c>
-      <c r="I84" s="84"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="94"/>
-      <c r="B85" s="80" t="s">
-        <v>547</v>
       </c>
       <c r="C85" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D85" s="81">
-        <v>0.58333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E85" s="81">
-        <v>0.63541666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="F85" s="81">
-        <f>E85-D85</f>
-        <v>5.2083333333333259E-2</v>
+        <f t="shared" si="30"/>
+        <v>0.125</v>
       </c>
       <c r="I85" s="84"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="94"/>
-      <c r="B86" s="80" t="s">
-        <v>548</v>
-      </c>
-      <c r="C86" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D86" s="81">
-        <v>0.875</v>
-      </c>
-      <c r="E86" s="81">
-        <v>0.92708333333333337</v>
-      </c>
+      <c r="A86" s="96"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="80"/>
+      <c r="D86" s="81"/>
+      <c r="E86" s="81"/>
       <c r="F86" s="81">
-        <f t="shared" si="17"/>
-        <v>5.208333333333337E-2</v>
-      </c>
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="84"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="94"/>
+      <c r="A87" s="96"/>
       <c r="B87" s="80"/>
       <c r="C87" s="80"/>
       <c r="D87" s="81"/>
       <c r="E87" s="81"/>
       <c r="F87" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="94"/>
+      <c r="A88" s="96"/>
       <c r="B88" s="80"/>
       <c r="C88" s="80"/>
       <c r="D88" s="81"/>
       <c r="E88" s="81"/>
       <c r="F88" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="94"/>
+      <c r="A89" s="96"/>
       <c r="B89" s="80"/>
       <c r="C89" s="80"/>
       <c r="D89" s="81"/>
       <c r="E89" s="81"/>
       <c r="F89" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="94"/>
+      <c r="A90" s="96"/>
       <c r="B90" s="80"/>
       <c r="C90" s="80"/>
       <c r="D90" s="81"/>
       <c r="E90" s="81"/>
       <c r="F90" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="94" t="s">
-        <v>20</v>
-      </c>
-      <c r="B91" s="80" t="s">
-        <v>507</v>
-      </c>
-      <c r="C91" s="80" t="s">
+      <c r="A91" s="96"/>
+      <c r="B91" s="80"/>
+      <c r="C91" s="80"/>
+      <c r="D91" s="81"/>
+      <c r="E91" s="81"/>
+      <c r="F91" s="81">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="96" t="s">
+        <v>613</v>
+      </c>
+      <c r="B92" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C92" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D92" s="81">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E92" s="81">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F92" s="81">
+        <f t="shared" si="30"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H92" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I92" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="96"/>
+      <c r="B93" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C93" s="80" t="s">
         <v>508</v>
       </c>
-      <c r="D91" s="81">
-        <v>0.40972222222222227</v>
-      </c>
-      <c r="E91" s="81">
-        <v>0.44097222222222227</v>
-      </c>
-      <c r="F91" s="81">
-        <f t="shared" si="17"/>
+      <c r="D93" s="81">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E93" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F93" s="81">
+        <f t="shared" si="30"/>
         <v>3.125E-2</v>
       </c>
-      <c r="H91" s="79" t="s">
-        <v>505</v>
-      </c>
-      <c r="I91" s="79" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="94"/>
-      <c r="B92" s="80" t="s">
-        <v>523</v>
-      </c>
-      <c r="C92" s="80" t="s">
-        <v>509</v>
-      </c>
-      <c r="D92" s="81">
+      <c r="H93" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I93" s="81">
+        <f t="shared" ref="I93" si="38">SUMIFS(F92:F106, C92:C106,H93)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="96"/>
+      <c r="B94" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C94" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D94" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E94" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F94" s="81">
+        <f t="shared" si="30"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H94" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I94" s="81">
+        <f t="shared" ref="I94" si="39">SUMIFS(F92:F106, C92:C106,H94)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="96"/>
+      <c r="B95" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C95" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D95" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E95" s="81">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F95" s="81">
+        <f t="shared" si="30"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H95" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I95" s="81">
+        <f t="shared" ref="I95" si="40">SUMIFS(F92:F106, C92:C106,H95)</f>
         <v>0</v>
       </c>
-      <c r="E92" s="81">
-        <v>0</v>
-      </c>
-      <c r="F92" s="81">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H92" s="83" t="s">
-        <v>504</v>
-      </c>
-      <c r="I92" s="81">
-        <f t="shared" ref="I92" si="25">SUMIFS(F91:F105, C91:C105,H92)</f>
-        <v>1.3888888888888895E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="94"/>
-      <c r="B93" s="80" t="s">
-        <v>512</v>
-      </c>
-      <c r="C93" s="80" t="s">
-        <v>513</v>
-      </c>
-      <c r="D93" s="81">
-        <v>0.4916666666666667</v>
-      </c>
-      <c r="E93" s="81">
-        <v>0.51527777777777783</v>
-      </c>
-      <c r="F93" s="81">
-        <f t="shared" si="17"/>
-        <v>2.3611111111111138E-2</v>
-      </c>
-      <c r="H93" s="83" t="s">
-        <v>509</v>
-      </c>
-      <c r="I93" s="81">
-        <f t="shared" ref="I93" si="26">SUMIFS(F91:F105, C91:C105,H93)</f>
-        <v>0.16666666666666663</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="94"/>
-      <c r="B94" s="80" t="s">
-        <v>523</v>
-      </c>
-      <c r="C94" s="80" t="s">
-        <v>509</v>
-      </c>
-      <c r="D94" s="81">
-        <v>0</v>
-      </c>
-      <c r="E94" s="81">
-        <v>0</v>
-      </c>
-      <c r="F94" s="81">
-        <f>E94-D94</f>
-        <v>0</v>
-      </c>
-      <c r="H94" s="83" t="s">
-        <v>511</v>
-      </c>
-      <c r="I94" s="81">
-        <f t="shared" ref="I94" si="27">SUMIFS(F91:F105, C91:C105,H94)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="94"/>
-      <c r="B95" s="80" t="s">
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="96"/>
+      <c r="B96" s="80" t="s">
         <v>518</v>
-      </c>
-      <c r="C95" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D95" s="81">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="E95" s="81">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="F95" s="81">
-        <f t="shared" si="17"/>
-        <v>2.7777777777777901E-2</v>
-      </c>
-      <c r="H95" s="83" t="s">
-        <v>508</v>
-      </c>
-      <c r="I95" s="81">
-        <f t="shared" ref="I95" si="28">SUMIFS(F91:F105, C91:C105,H95)</f>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="94"/>
-      <c r="B96" s="80" t="s">
-        <v>520</v>
       </c>
       <c r="C96" s="80" t="s">
         <v>516</v>
       </c>
       <c r="D96" s="81">
-        <v>0.44791666666666669</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E96" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F96" s="81">
-        <f t="shared" si="17"/>
-        <v>3.125E-2</v>
+        <f t="shared" si="30"/>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="H96" s="83" t="s">
         <v>513</v>
       </c>
       <c r="I96" s="81">
-        <f t="shared" ref="I96" si="29">SUMIFS(F91:F105, C91:C105,H96)</f>
-        <v>2.3611111111111138E-2</v>
+        <f t="shared" ref="I96" si="41">SUMIFS(F92:F106, C92:C106,H96)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="94"/>
+      <c r="A97" s="96"/>
       <c r="B97" s="80" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C97" s="80" t="s">
         <v>516</v>
       </c>
       <c r="D97" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E97" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F97" s="81">
+        <f t="shared" si="30"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H97" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I97" s="81">
+        <f t="shared" ref="I97" si="42">SUMIFS(F92:F106, C92:C106,H97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="96"/>
+      <c r="B98" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C98" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D98" s="81">
         <v>0.65625</v>
       </c>
-      <c r="E97" s="81">
+      <c r="E98" s="81">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F97" s="81">
-        <f t="shared" si="17"/>
+      <c r="F98" s="81">
+        <f t="shared" si="30"/>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="H97" s="83" t="s">
+      <c r="H98" s="83" t="s">
         <v>516</v>
       </c>
-      <c r="I97" s="81">
-        <f t="shared" ref="I97" si="30">SUMIFS(F91:F105, C91:C105,H97)</f>
-        <v>6.9444444444444531E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="94"/>
-      <c r="B98" s="80" t="s">
-        <v>549</v>
-      </c>
-      <c r="C98" s="80" t="s">
-        <v>509</v>
-      </c>
-      <c r="D98" s="81">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E98" s="81">
-        <v>0.6875</v>
-      </c>
-      <c r="F98" s="81">
-        <f t="shared" si="17"/>
-        <v>0.10416666666666663</v>
-      </c>
-      <c r="H98" s="78" t="s">
-        <v>519</v>
-      </c>
-      <c r="I98" s="79">
-        <f t="shared" ref="I98" si="31">SUM(I92:I97)</f>
-        <v>0.30486111111111119</v>
+      <c r="I98" s="81">
+        <f t="shared" ref="I98" si="43">SUMIFS(F92:F106, C92:C106,H98)</f>
+        <v>3.8194444444444309E-2</v>
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="94"/>
+      <c r="A99" s="96"/>
       <c r="B99" s="80" t="s">
-        <v>525</v>
+        <v>578</v>
       </c>
       <c r="C99" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D99" s="81">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E99" s="81">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F99" s="81">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I99" s="84"/>
+        <f t="shared" si="30"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H99" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I99" s="79">
+        <f t="shared" ref="I99" si="44">SUM(I93:I98)</f>
+        <v>0.34027777777777773</v>
+      </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="94"/>
+      <c r="A100" s="96"/>
       <c r="B100" s="80" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="C100" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D100" s="81">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="E100" s="81">
-        <v>0.3888888888888889</v>
+        <v>0.875</v>
       </c>
       <c r="F100" s="81">
-        <f t="shared" si="17"/>
-        <v>1.3888888888888895E-2</v>
+        <f t="shared" si="30"/>
+        <v>0.125</v>
       </c>
       <c r="I100" s="84"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="94"/>
-      <c r="B101" s="80" t="s">
-        <v>535</v>
-      </c>
-      <c r="C101" s="80" t="s">
-        <v>509</v>
-      </c>
-      <c r="D101" s="81">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="E101" s="81">
-        <v>0.20833333333333334</v>
-      </c>
+      <c r="A101" s="96"/>
+      <c r="B101" s="80"/>
+      <c r="C101" s="80"/>
+      <c r="D101" s="81"/>
+      <c r="E101" s="81"/>
       <c r="F101" s="81">
-        <f t="shared" si="17"/>
-        <v>6.25E-2</v>
-      </c>
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I101" s="84"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="94"/>
+      <c r="A102" s="96"/>
       <c r="B102" s="80"/>
       <c r="C102" s="80"/>
       <c r="D102" s="81"/>
       <c r="E102" s="81"/>
       <c r="F102" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="94"/>
+      <c r="A103" s="96"/>
       <c r="B103" s="80"/>
       <c r="C103" s="80"/>
       <c r="D103" s="81"/>
       <c r="E103" s="81"/>
       <c r="F103" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="94"/>
+      <c r="A104" s="96"/>
       <c r="B104" s="80"/>
       <c r="C104" s="80"/>
       <c r="D104" s="81"/>
       <c r="E104" s="81"/>
       <c r="F104" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="94"/>
+      <c r="A105" s="96"/>
       <c r="B105" s="80"/>
       <c r="C105" s="80"/>
       <c r="D105" s="81"/>
       <c r="E105" s="81"/>
       <c r="F105" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="94" t="s">
-        <v>21</v>
-      </c>
-      <c r="B106" s="80" t="s">
-        <v>507</v>
-      </c>
-      <c r="C106" s="80" t="s">
+      <c r="A106" s="96"/>
+      <c r="B106" s="80"/>
+      <c r="C106" s="80"/>
+      <c r="D106" s="81"/>
+      <c r="E106" s="81"/>
+      <c r="F106" s="81">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="96" t="s">
+        <v>614</v>
+      </c>
+      <c r="B107" s="80" t="s">
+        <v>526</v>
+      </c>
+      <c r="C107" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D107" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="E107" s="81">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F107" s="81">
+        <f t="shared" si="30"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H107" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I107" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="96"/>
+      <c r="B108" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C108" s="80" t="s">
         <v>508</v>
       </c>
-      <c r="D106" s="81">
-        <v>0.40972222222222227</v>
-      </c>
-      <c r="E106" s="81">
-        <v>0.44097222222222227</v>
-      </c>
-      <c r="F106" s="81">
-        <f t="shared" si="17"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="H106" s="79" t="s">
-        <v>505</v>
-      </c>
-      <c r="I106" s="79" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="94"/>
-      <c r="B107" s="18" t="s">
+      <c r="D108" s="81">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E108" s="81">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="F108" s="81">
+        <f t="shared" si="30"/>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="H108" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I108" s="81">
+        <f t="shared" ref="I108" si="45">SUMIFS(F107:F121, C107:C121,H108)</f>
+        <v>0.28819444444444459</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="96"/>
+      <c r="B109" s="80" t="s">
         <v>520</v>
       </c>
-      <c r="C107" s="80" t="s">
-        <v>509</v>
-      </c>
-      <c r="D107" s="95">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="E107" s="81">
-        <v>0.4548611111111111</v>
-      </c>
-      <c r="F107" s="81">
-        <f t="shared" si="17"/>
-        <v>1.0416666666666685E-2</v>
-      </c>
-      <c r="H107" s="83" t="s">
-        <v>504</v>
-      </c>
-      <c r="I107" s="81" t="e">
-        <f>SUMIFS(F106:F120, C106:C120,H107)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="94"/>
-      <c r="B108" s="80"/>
-      <c r="C108" s="80" t="s">
-        <v>513</v>
-      </c>
-      <c r="D108" s="81"/>
-      <c r="E108" s="81"/>
-      <c r="F108" s="81">
-        <f t="shared" si="17"/>
+      <c r="C109" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D109" s="81">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="E109" s="81">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F109" s="81">
+        <f t="shared" si="30"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H109" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I109" s="81">
+        <f t="shared" ref="I109" si="46">SUMIFS(F107:F121, C107:C121,H109)</f>
+        <v>3.819444444444442E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="96"/>
+      <c r="B110" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C110" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D110" s="81">
         <v>0</v>
       </c>
-      <c r="H108" s="83" t="s">
-        <v>509</v>
-      </c>
-      <c r="I108" s="81">
-        <f t="shared" ref="I108" si="32">SUMIFS(F106:F120, C106:C120,H108)</f>
-        <v>1.0416666666666685E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="94"/>
-      <c r="B109" s="18" t="s">
+      <c r="E110" s="81">
+        <v>0</v>
+      </c>
+      <c r="F110" s="81">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H110" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I110" s="81">
+        <f t="shared" ref="I110" si="47">SUMIFS(F107:F121, C107:C121,H110)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="96"/>
+      <c r="B111" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C111" s="80" t="s">
         <v>512</v>
       </c>
-      <c r="C109" s="80" t="s">
-        <v>513</v>
-      </c>
-      <c r="D109" s="95">
-        <v>0.4916666666666667</v>
-      </c>
-      <c r="E109" s="81">
-        <v>0.51527777777777783</v>
-      </c>
-      <c r="F109" s="81">
-        <f t="shared" si="17"/>
-        <v>2.3611111111111138E-2</v>
-      </c>
-      <c r="H109" s="83" t="s">
-        <v>511</v>
-      </c>
-      <c r="I109" s="81">
-        <f t="shared" ref="I109" si="33">SUMIFS(F106:F120, C106:C120,H109)</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="94"/>
-      <c r="B110" s="80" t="s">
-        <v>518</v>
-      </c>
-      <c r="C110" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D110" s="81">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E110" s="81">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="F110" s="81">
-        <f t="shared" si="17"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="H110" s="83" t="s">
-        <v>508</v>
-      </c>
-      <c r="I110" s="81">
-        <f t="shared" ref="I110" si="34">SUMIFS(F106:F120, C106:C120,H110)</f>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="94"/>
-      <c r="B111" s="18" t="s">
-        <v>550</v>
-      </c>
-      <c r="C111" s="80" t="s">
-        <v>504</v>
-      </c>
       <c r="D111" s="81">
-        <v>0.57638888888888895</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="E111" s="81">
-        <v>0.625</v>
+        <v>0.53125</v>
       </c>
       <c r="F111" s="81">
-        <f t="shared" si="17"/>
-        <v>4.8611111111111049E-2</v>
+        <f t="shared" si="30"/>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H111" s="83" t="s">
         <v>513</v>
       </c>
       <c r="I111" s="81">
-        <f t="shared" ref="I111" si="35">SUMIFS(F106:F120, C106:C120,H111)</f>
-        <v>2.3611111111111138E-2</v>
+        <f t="shared" ref="I111" si="48">SUMIFS(F107:F121, C107:C121,H111)</f>
+        <v>2.0833333333333259E-2</v>
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="94"/>
+      <c r="A112" s="96"/>
       <c r="B112" s="80" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C112" s="80" t="s">
         <v>516</v>
       </c>
       <c r="D112" s="81">
-        <v>0.71527777777777779</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E112" s="81">
-        <v>0.72569444444444453</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="F112" s="81">
-        <f t="shared" si="17"/>
-        <v>1.0416666666666741E-2</v>
+        <f t="shared" si="30"/>
+        <v>3.125E-2</v>
       </c>
       <c r="H112" s="83" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="I112" s="81">
-        <f t="shared" ref="I112" si="36">SUMIFS(F106:F120, C106:C120,H112)</f>
-        <v>4.1666666666666741E-2</v>
+        <f t="shared" ref="I112" si="49">SUMIFS(F107:F121, C107:C121,H112)</f>
+        <v>2.777777777777779E-2</v>
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="94"/>
+      <c r="A113" s="96"/>
       <c r="B113" s="80" t="s">
-        <v>550</v>
+        <v>615</v>
       </c>
       <c r="C113" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D113" s="81">
-        <v>0.54166666666666663</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E113" s="81">
-        <v>0.625</v>
-      </c>
-      <c r="F113" s="81" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H113" s="78" t="s">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="F113" s="81">
+        <f t="shared" si="30"/>
+        <v>7.986111111111116E-2</v>
+      </c>
+      <c r="H113" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I113" s="81">
+        <f t="shared" ref="I113" si="50">SUMIFS(F107:F121, C107:C121,H113)</f>
+        <v>6.0416666666666674E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="96"/>
+      <c r="B114" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C114" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D114" s="81">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="E114" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F114" s="81">
+        <f t="shared" si="30"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H114" s="78" t="s">
         <v>519</v>
       </c>
-      <c r="I113" s="79" t="e">
-        <f t="shared" ref="I113" si="37">SUM(I107:I112)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="94"/>
-      <c r="C114" s="80"/>
-      <c r="F114" s="81"/>
-      <c r="I114" s="84"/>
+      <c r="I114" s="79">
+        <f t="shared" ref="I114" si="51">SUM(I108:I113)</f>
+        <v>0.43541666666666673</v>
+      </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="94"/>
+      <c r="A115" s="96"/>
       <c r="B115" s="80" t="s">
-        <v>541</v>
+        <v>616</v>
       </c>
       <c r="C115" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D115" s="81">
-        <v>0.375</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E115" s="81">
-        <v>0.3888888888888889</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F115" s="81">
-        <f t="shared" si="17"/>
-        <v>1.3888888888888895E-2</v>
+        <f t="shared" si="30"/>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="I115" s="84"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="94"/>
+      <c r="A116" s="96"/>
       <c r="B116" s="80" t="s">
-        <v>551</v>
+        <v>521</v>
       </c>
       <c r="C116" s="80" t="s">
-        <v>511</v>
-      </c>
-      <c r="D116" s="95">
-        <v>0.64583333333333337</v>
+        <v>516</v>
+      </c>
+      <c r="D116" s="81">
+        <v>0.70833333333333337</v>
       </c>
       <c r="E116" s="81">
-        <v>0.70833333333333337</v>
+        <v>0.72361111111111109</v>
       </c>
       <c r="F116" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
+        <v>1.5277777777777724E-2</v>
+      </c>
+      <c r="I116" s="84"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="96"/>
+      <c r="B117" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C117" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D117" s="81">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E117" s="81">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="F117" s="81">
+        <f t="shared" si="30"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="96"/>
+      <c r="B118" s="80" t="s">
+        <v>546</v>
+      </c>
+      <c r="C118" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D118" s="81">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E118" s="81">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F118" s="81">
+        <f t="shared" si="30"/>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="94"/>
-      <c r="B117" s="80"/>
-      <c r="C117" s="80"/>
-      <c r="D117" s="81"/>
-      <c r="E117" s="81"/>
-      <c r="F117" s="81">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="94"/>
-      <c r="B118" s="80"/>
-      <c r="C118" s="80"/>
-      <c r="D118" s="81"/>
-      <c r="E118" s="81"/>
-      <c r="F118" s="81">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="94"/>
-      <c r="B119" s="80"/>
-      <c r="C119" s="80"/>
-      <c r="D119" s="81"/>
-      <c r="E119" s="81"/>
+      <c r="A119" s="96"/>
+      <c r="B119" s="80" t="s">
+        <v>617</v>
+      </c>
+      <c r="C119" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D119" s="81">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E119" s="81">
+        <v>0.9375</v>
+      </c>
       <c r="F119" s="81">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="94"/>
+      <c r="A120" s="96"/>
       <c r="B120" s="80"/>
       <c r="C120" s="80"/>
       <c r="D120" s="81"/>
       <c r="E120" s="81"/>
       <c r="F120" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="94" t="s">
+      <c r="A121" s="96"/>
+      <c r="B121" s="80"/>
+      <c r="C121" s="80"/>
+      <c r="D121" s="81"/>
+      <c r="E121" s="81"/>
+      <c r="F121" s="81">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B121" s="80" t="s">
-        <v>552</v>
-      </c>
-      <c r="C121" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D121" s="81">
-        <v>0.375</v>
-      </c>
-      <c r="E121" s="81">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="F121" s="81">
-        <f t="shared" si="17"/>
-        <v>1.3888888888888895E-2</v>
-      </c>
-      <c r="H121" s="79" t="s">
-        <v>505</v>
-      </c>
-      <c r="I121" s="79" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" s="94"/>
-      <c r="B122" s="18" t="s">
-        <v>507</v>
+      <c r="B122" s="80" t="s">
+        <v>618</v>
       </c>
       <c r="C122" s="80" t="s">
         <v>508</v>
       </c>
       <c r="D122" s="81">
-        <v>0.40972222222222227</v>
+        <v>0.375</v>
       </c>
       <c r="E122" s="81">
-        <v>0.44097222222222227</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="F122" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H122" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I122" s="79" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="96"/>
+      <c r="B123" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C123" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D123" s="81">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E123" s="81">
+        <v>0.4375</v>
+      </c>
+      <c r="F123" s="81">
+        <f t="shared" si="30"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="H123" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="I123" s="81">
+        <f t="shared" ref="I123" si="52">SUMIFS(F122:F136, C122:C136,H123)</f>
+        <v>0.3229166666666668</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="96"/>
+      <c r="B124" s="80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C124" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D124" s="81">
+        <v>0.4375</v>
+      </c>
+      <c r="E124" s="81">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F124" s="81">
+        <f t="shared" si="30"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H124" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I124" s="81">
+        <f t="shared" ref="I124" si="53">SUMIFS(F122:F136, C122:C136,H124)</f>
+        <v>5.5555555555555636E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="96"/>
+      <c r="B125" s="80" t="s">
+        <v>619</v>
+      </c>
+      <c r="C125" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D125" s="81">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E125" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="F125" s="81">
+        <f t="shared" si="30"/>
+        <v>4.8611111111111105E-2</v>
+      </c>
+      <c r="H125" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I125" s="81">
+        <f t="shared" ref="I125" si="54">SUMIFS(F122:F136, C122:C136,H125)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="96"/>
+      <c r="B126" s="80" t="s">
+        <v>620</v>
+      </c>
+      <c r="C126" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D126" s="81">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E126" s="81">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="F126" s="81">
+        <f t="shared" si="30"/>
         <v>3.125E-2</v>
-      </c>
-      <c r="H122" s="83" t="s">
-        <v>504</v>
-      </c>
-      <c r="I122" s="81">
-        <f t="shared" ref="I122" si="38">SUMIFS(F121:F135, C121:C135,H122)</f>
-        <v>0.17013888888888867</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="94"/>
-      <c r="B123" s="80" t="s">
-        <v>553</v>
-      </c>
-      <c r="C123" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D123" s="81">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E123" s="81">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="F123" s="81">
-        <f t="shared" si="17"/>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="H123" s="83" t="s">
-        <v>509</v>
-      </c>
-      <c r="I123" s="81">
-        <f t="shared" ref="I123" si="39">SUMIFS(F121:F135, C121:C135,H123)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="94"/>
-      <c r="B124" s="80" t="s">
-        <v>512</v>
-      </c>
-      <c r="C124" s="80" t="s">
-        <v>513</v>
-      </c>
-      <c r="D124" s="81">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="E124" s="81">
-        <v>0.51736111111111105</v>
-      </c>
-      <c r="F124" s="81">
-        <f t="shared" si="17"/>
-        <v>2.7777777777777735E-2</v>
-      </c>
-      <c r="H124" s="83" t="s">
-        <v>511</v>
-      </c>
-      <c r="I124" s="81">
-        <f t="shared" ref="I124" si="40">SUMIFS(F121:F135, C121:C135,H124)</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="94"/>
-      <c r="B125" s="80" t="s">
-        <v>518</v>
-      </c>
-      <c r="C125" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D125" s="81">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E125" s="81">
-        <v>0.56944444444444442</v>
-      </c>
-      <c r="F125" s="81">
-        <f t="shared" si="17"/>
-        <v>2.777777777777779E-2</v>
-      </c>
-      <c r="H125" s="83" t="s">
-        <v>508</v>
-      </c>
-      <c r="I125" s="81">
-        <f t="shared" ref="I125" si="41">SUMIFS(F121:F135, C121:C135,H125)</f>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="94"/>
-      <c r="B126" s="80" t="s">
-        <v>520</v>
-      </c>
-      <c r="C126" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D126" s="81">
-        <v>0.44097222222222227</v>
-      </c>
-      <c r="E126" s="81">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F126" s="81">
-        <f t="shared" si="17"/>
-        <v>1.7361111111111049E-2</v>
       </c>
       <c r="H126" s="83" t="s">
         <v>513</v>
       </c>
       <c r="I126" s="81">
-        <f t="shared" ref="I126" si="42">SUMIFS(F121:F135, C121:C135,H126)</f>
-        <v>2.7777777777777735E-2</v>
+        <f t="shared" ref="I126" si="55">SUMIFS(F122:F136, C122:C136,H126)</f>
+        <v>2.0833333333333259E-2</v>
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="94"/>
+      <c r="A127" s="96"/>
       <c r="B127" s="80" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C127" s="80" t="s">
         <v>516</v>
       </c>
       <c r="D127" s="81">
-        <v>0.63541666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E127" s="81">
-        <v>0.64583333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="F127" s="81">
-        <f t="shared" si="17"/>
-        <v>1.0416666666666741E-2</v>
+        <f t="shared" si="30"/>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H127" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I127" s="81">
+        <f t="shared" ref="I127" si="56">SUMIFS(F122:F136, C122:C136,H127)</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="96"/>
+      <c r="B128" s="80" t="s">
+        <v>621</v>
+      </c>
+      <c r="C128" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D128" s="81">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E128" s="81">
+        <v>0.6875</v>
+      </c>
+      <c r="F128" s="81">
+        <f t="shared" si="30"/>
+        <v>0.11458333333333337</v>
+      </c>
+      <c r="H128" s="83" t="s">
         <v>516</v>
       </c>
-      <c r="I127" s="81">
-        <f t="shared" ref="I127" si="43">SUMIFS(F121:F135, C121:C135,H127)</f>
-        <v>5.555555555555558E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="94"/>
-      <c r="B128" s="80" t="s">
-        <v>554</v>
-      </c>
-      <c r="C128" s="80" t="s">
-        <v>511</v>
-      </c>
-      <c r="D128" s="81">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="E128" s="81">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F128" s="81">
-        <f t="shared" si="17"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="H128" s="78" t="s">
+      <c r="I128" s="81">
+        <f t="shared" ref="I128" si="57">SUMIFS(F122:F136, C122:C136,H128)</f>
+        <v>3.1250000000000056E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="96"/>
+      <c r="B129" s="80" t="s">
+        <v>622</v>
+      </c>
+      <c r="C129" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D129" s="81">
+        <v>0.6875</v>
+      </c>
+      <c r="E129" s="81">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="F129" s="81">
+        <f t="shared" si="30"/>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="H129" s="78" t="s">
         <v>519</v>
       </c>
-      <c r="I128" s="79">
-        <f t="shared" ref="I128" si="44">SUM(I122:I127)</f>
-        <v>0.34722222222222199</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="94"/>
-      <c r="B129" s="80" t="s">
-        <v>555</v>
-      </c>
-      <c r="C129" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D129" s="81">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E129" s="81">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="F129" s="81">
-        <f t="shared" si="17"/>
-        <v>5.2083333333333259E-2</v>
-      </c>
-      <c r="I129" s="84"/>
+      <c r="I129" s="79">
+        <f t="shared" ref="I129" si="58">SUM(I123:I128)</f>
+        <v>0.46180555555555575</v>
+      </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="94"/>
+      <c r="A130" s="96"/>
       <c r="B130" s="80" t="s">
-        <v>556</v>
+        <v>623</v>
       </c>
       <c r="C130" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D130" s="81">
-        <v>0.875</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="E130" s="81">
-        <v>0.91666666666666663</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="F130" s="81">
-        <f t="shared" ref="F130:F165" si="45">E130-D130</f>
-        <v>4.166666666666663E-2</v>
+        <f t="shared" ref="F130:F193" si="59">E130-D130</f>
+        <v>1.3888888888888951E-2</v>
       </c>
       <c r="I130" s="84"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="94"/>
+      <c r="A131" s="96"/>
       <c r="B131" s="80" t="s">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="C131" s="80" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="D131" s="81">
-        <v>0.70833333333333337</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="E131" s="81">
-        <v>0.72916666666666663</v>
+        <v>0.74305555555555547</v>
       </c>
       <c r="F131" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>2.0833333333333259E-2</v>
       </c>
+      <c r="I131" s="84"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="94"/>
+      <c r="A132" s="96"/>
       <c r="B132" s="80" t="s">
-        <v>543</v>
+        <v>624</v>
       </c>
       <c r="C132" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D132" s="81">
-        <v>0.52083333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E132" s="81">
-        <v>0.54166666666666663</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="F132" s="81">
-        <f t="shared" si="45"/>
-        <v>2.0833333333333259E-2</v>
+        <f t="shared" si="59"/>
+        <v>0.14583333333333337</v>
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="94"/>
+      <c r="A133" s="96"/>
       <c r="B133" s="80"/>
       <c r="C133" s="80"/>
       <c r="D133" s="81"/>
       <c r="E133" s="81"/>
       <c r="F133" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="94"/>
+      <c r="A134" s="96"/>
       <c r="B134" s="80"/>
       <c r="C134" s="80"/>
       <c r="D134" s="81"/>
       <c r="E134" s="81"/>
       <c r="F134" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="94"/>
+      <c r="A135" s="96"/>
       <c r="B135" s="80"/>
       <c r="C135" s="80"/>
       <c r="D135" s="81"/>
       <c r="E135" s="81"/>
       <c r="F135" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="B136" s="80" t="s">
-        <v>558</v>
-      </c>
-      <c r="C136" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D136" s="81">
-        <v>0.375</v>
-      </c>
-      <c r="E136" s="81">
-        <v>0.3888888888888889</v>
-      </c>
+      <c r="A136" s="96"/>
+      <c r="B136" s="80"/>
+      <c r="C136" s="80"/>
+      <c r="D136" s="81"/>
+      <c r="E136" s="81"/>
       <c r="F136" s="81">
-        <f t="shared" si="45"/>
-        <v>1.3888888888888895E-2</v>
-      </c>
-      <c r="H136" s="79" t="s">
-        <v>505</v>
-      </c>
-      <c r="I136" s="79" t="s">
-        <v>506</v>
+        <f t="shared" si="59"/>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="94"/>
+      <c r="A137" s="96" t="s">
+        <v>625</v>
+      </c>
       <c r="B137" s="80" t="s">
-        <v>559</v>
+        <v>528</v>
       </c>
       <c r="C137" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D137" s="81">
-        <v>0.3888888888888889</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E137" s="81">
-        <v>0.40972222222222227</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="F137" s="81">
-        <f t="shared" si="45"/>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="H137" s="83" t="s">
-        <v>504</v>
-      </c>
-      <c r="I137" s="81">
-        <f t="shared" ref="I137" si="46">SUMIFS(F136:F150, C136:C150,H137)</f>
-        <v>0.26388888888888901</v>
+        <f t="shared" si="59"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H137" s="79" t="s">
+        <v>505</v>
+      </c>
+      <c r="I137" s="79" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="94"/>
+      <c r="A138" s="96"/>
       <c r="B138" s="80" t="s">
-        <v>507</v>
+        <v>551</v>
       </c>
       <c r="C138" s="80" t="s">
         <v>508</v>
       </c>
       <c r="D138" s="81">
-        <v>0.40972222222222227</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="E138" s="81">
-        <v>0.44097222222222227</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F138" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>3.125E-2</v>
       </c>
       <c r="H138" s="83" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="I138" s="81">
-        <f t="shared" ref="I138" si="47">SUMIFS(F136:F150, C136:C150,H138)</f>
-        <v>0</v>
+        <f t="shared" ref="I138" si="60">SUMIFS(F137:F151, C137:C151,H138)</f>
+        <v>0.22916666666666674</v>
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="94"/>
+      <c r="A139" s="96"/>
       <c r="B139" s="80" t="s">
-        <v>560</v>
+        <v>511</v>
       </c>
       <c r="C139" s="80" t="s">
         <v>504</v>
@@ -8158,544 +12090,548 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E139" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F139" s="81">
+        <f t="shared" si="59"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H139" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I139" s="81">
+        <f t="shared" ref="I139" si="61">SUMIFS(F137:F151, C137:C151,H139)</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="96"/>
+      <c r="B140" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C140" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D140" s="81">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F139" s="81">
-        <f t="shared" si="45"/>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="H139" s="83" t="s">
-        <v>511</v>
-      </c>
-      <c r="I139" s="81">
-        <f t="shared" ref="I139" si="48">SUMIFS(F136:F150, C136:C150,H139)</f>
-        <v>1.3888888888888895E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="94"/>
-      <c r="B140" s="80" t="s">
-        <v>513</v>
-      </c>
-      <c r="C140" s="80" t="s">
-        <v>513</v>
-      </c>
-      <c r="D140" s="81">
-        <v>0.48958333333333331</v>
-      </c>
       <c r="E140" s="81">
-        <v>0.51736111111111105</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="F140" s="81">
-        <f t="shared" si="45"/>
-        <v>2.7777777777777735E-2</v>
+        <f t="shared" si="59"/>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H140" s="83" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="I140" s="81">
-        <f t="shared" ref="I140" si="49">SUMIFS(F136:F150, C136:C150,H140)</f>
-        <v>3.125E-2</v>
+        <f t="shared" ref="I140" si="62">SUMIFS(F137:F151, C137:C151,H140)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="94"/>
+      <c r="A141" s="96"/>
       <c r="B141" s="80" t="s">
-        <v>561</v>
+        <v>518</v>
       </c>
       <c r="C141" s="80" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="D141" s="81">
-        <v>0.44444444444444442</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E141" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F141" s="81">
-        <f t="shared" si="45"/>
-        <v>1.3888888888888895E-2</v>
+        <f t="shared" si="59"/>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="H141" s="83" t="s">
         <v>513</v>
       </c>
       <c r="I141" s="81">
-        <f t="shared" ref="I141" si="50">SUMIFS(F136:F150, C136:C150,H141)</f>
-        <v>2.7777777777777735E-2</v>
+        <f t="shared" ref="I141" si="63">SUMIFS(F137:F151, C137:C151,H141)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="94"/>
-      <c r="B142" s="80"/>
+      <c r="A142" s="96"/>
+      <c r="B142" s="80" t="s">
+        <v>520</v>
+      </c>
       <c r="C142" s="80" t="s">
         <v>516</v>
       </c>
       <c r="D142" s="81">
-        <v>0.1111111111111111</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="E142" s="81">
-        <v>0.125</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F142" s="81">
-        <f>E142-D142</f>
-        <v>1.3888888888888895E-2</v>
+        <f t="shared" si="59"/>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H142" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I142" s="81">
+        <f t="shared" ref="I142" si="64">SUMIFS(F137:F151, C137:C151,H142)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="96"/>
+      <c r="B143" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C143" s="80" t="s">
         <v>516</v>
       </c>
-      <c r="I142" s="81">
-        <f t="shared" ref="I142" si="51">SUMIFS(F136:F150, C136:C150,H142)</f>
-        <v>7.2916666666666685E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="94"/>
-      <c r="B143" s="80" t="s">
-        <v>524</v>
-      </c>
-      <c r="C143" s="80" t="s">
-        <v>504</v>
-      </c>
       <c r="D143" s="81">
+        <v>0.65625</v>
+      </c>
+      <c r="E143" s="81">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E143" s="81">
-        <v>0.75</v>
-      </c>
       <c r="F143" s="81">
-        <f>E143-D143</f>
-        <v>8.333333333333337E-2</v>
-      </c>
-      <c r="H143" s="78" t="s">
-        <v>519</v>
-      </c>
-      <c r="I143" s="79">
-        <f t="shared" ref="I143" si="52">SUM(I137:I142)</f>
-        <v>0.40972222222222232</v>
+        <f t="shared" si="59"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H143" s="83" t="s">
+        <v>516</v>
+      </c>
+      <c r="I143" s="81">
+        <f t="shared" ref="I143" si="65">SUMIFS(F137:F151, C137:C151,H143)</f>
+        <v>3.8194444444444309E-2</v>
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="94"/>
+      <c r="A144" s="96"/>
       <c r="B144" s="80" t="s">
-        <v>525</v>
+        <v>578</v>
       </c>
       <c r="C144" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D144" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E144" s="81">
         <v>0.75</v>
       </c>
-      <c r="E144" s="81">
+      <c r="F144" s="81">
+        <f t="shared" si="59"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H144" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I144" s="79">
+        <f t="shared" ref="I144" si="66">SUM(I138:I143)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="96"/>
+      <c r="B145" s="80" t="s">
+        <v>546</v>
+      </c>
+      <c r="C145" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D145" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="E145" s="81">
         <v>0.875</v>
       </c>
-      <c r="F144" s="81">
-        <f>E144-D144</f>
+      <c r="F145" s="81">
+        <f t="shared" si="59"/>
         <v>0.125</v>
       </c>
-      <c r="I144" s="84"/>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="94"/>
-      <c r="B145" s="80" t="s">
-        <v>518</v>
-      </c>
-      <c r="C145" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D145" s="81">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E145" s="81">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="F145" s="81">
-        <f>E145-D145</f>
-        <v>3.125E-2</v>
-      </c>
       <c r="I145" s="84"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="94"/>
-      <c r="B146" s="80" t="s">
-        <v>520</v>
-      </c>
-      <c r="C146" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D146" s="81">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="E146" s="81">
-        <v>0.45833333333333331</v>
-      </c>
+      <c r="A146" s="96"/>
+      <c r="B146" s="80"/>
+      <c r="C146" s="80"/>
+      <c r="D146" s="81"/>
+      <c r="E146" s="81"/>
       <c r="F146" s="81">
-        <f>E146-D146</f>
-        <v>1.3888888888888895E-2</v>
-      </c>
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="I146" s="84"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="94"/>
-      <c r="B147" s="80" t="s">
-        <v>521</v>
-      </c>
-      <c r="C147" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D147" s="81">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="E147" s="81">
-        <v>0.125</v>
-      </c>
+      <c r="A147" s="96"/>
+      <c r="B147" s="80"/>
+      <c r="C147" s="80"/>
+      <c r="D147" s="81"/>
+      <c r="E147" s="81"/>
       <c r="F147" s="81">
-        <f>E147-D147</f>
-        <v>1.3888888888888895E-2</v>
+        <f t="shared" si="59"/>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="94"/>
+      <c r="A148" s="96"/>
       <c r="B148" s="80"/>
       <c r="C148" s="80"/>
       <c r="D148" s="81"/>
       <c r="E148" s="81"/>
       <c r="F148" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="94"/>
+      <c r="A149" s="96"/>
       <c r="B149" s="80"/>
       <c r="C149" s="80"/>
       <c r="D149" s="81"/>
       <c r="E149" s="81"/>
       <c r="F149" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="94"/>
+      <c r="A150" s="96"/>
       <c r="B150" s="80"/>
       <c r="C150" s="80"/>
       <c r="D150" s="81"/>
       <c r="E150" s="81"/>
       <c r="F150" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="B151" s="80" t="s">
-        <v>507</v>
-      </c>
-      <c r="C151" s="80" t="s">
+      <c r="A151" s="96"/>
+      <c r="B151" s="80"/>
+      <c r="C151" s="80"/>
+      <c r="D151" s="81"/>
+      <c r="E151" s="81"/>
+      <c r="F151" s="81">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="96" t="s">
+        <v>626</v>
+      </c>
+      <c r="B152" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C152" s="80" t="s">
         <v>504</v>
       </c>
-      <c r="D151" s="81">
+      <c r="D152" s="81">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E151" s="81">
+      <c r="E152" s="81">
         <v>0.4236111111111111</v>
       </c>
-      <c r="F151" s="81">
-        <f t="shared" si="45"/>
+      <c r="F152" s="81">
+        <f t="shared" si="59"/>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="H151" s="79" t="s">
+      <c r="H152" s="79" t="s">
         <v>505</v>
       </c>
-      <c r="I151" s="79" t="s">
+      <c r="I152" s="79" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
-      <c r="A152" s="94"/>
-      <c r="B152" s="80" t="s">
-        <v>523</v>
-      </c>
-      <c r="C152" s="80" t="s">
-        <v>509</v>
-      </c>
-      <c r="D152" s="81">
+    <row r="153" spans="1:9">
+      <c r="A153" s="96"/>
+      <c r="B153" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C153" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D153" s="81">
         <v>0.42708333333333331</v>
       </c>
-      <c r="E152" s="81">
+      <c r="E153" s="81">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F152" s="81">
-        <f t="shared" si="45"/>
+      <c r="F153" s="81">
+        <f t="shared" si="59"/>
         <v>3.125E-2</v>
       </c>
-      <c r="H152" s="83" t="s">
+      <c r="H153" s="83" t="s">
         <v>504</v>
       </c>
-      <c r="I152" s="81">
-        <f t="shared" ref="I152" si="53">SUMIFS(F151:F165, C151:C165,H152)</f>
-        <v>0.23958333333333343</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
-      <c r="A153" s="94"/>
-      <c r="B153" s="80" t="s">
-        <v>512</v>
-      </c>
-      <c r="C153" s="80" t="s">
+      <c r="I153" s="81">
+        <f t="shared" ref="I153" si="67">SUMIFS(F152:F166, C152:C166,H153)</f>
+        <v>0.22916666666666674</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="96"/>
+      <c r="B154" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C154" s="80" t="s">
         <v>504</v>
       </c>
-      <c r="D153" s="81">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="E153" s="81">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="F153" s="81">
-        <f t="shared" si="45"/>
-        <v>2.4305555555555636E-2</v>
-      </c>
-      <c r="H153" s="83" t="s">
-        <v>509</v>
-      </c>
-      <c r="I153" s="81">
-        <f t="shared" ref="I153" si="54">SUMIFS(F151:F165, C151:C165,H153)</f>
+      <c r="D154" s="81">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E154" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F154" s="81">
+        <f t="shared" si="59"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H154" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I154" s="81">
+        <f t="shared" ref="I154" si="68">SUMIFS(F152:F166, C152:C166,H154)</f>
         <v>7.2916666666666685E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
-      <c r="A154" s="94"/>
-      <c r="B154" s="80" t="s">
-        <v>523</v>
-      </c>
-      <c r="C154" s="80" t="s">
-        <v>509</v>
-      </c>
-      <c r="D154" s="81">
+    <row r="155" spans="1:9">
+      <c r="A155" s="96"/>
+      <c r="B155" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="C155" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D155" s="81">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E154" s="81">
+      <c r="E155" s="81">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F154" s="81">
-        <f t="shared" si="45"/>
+      <c r="F155" s="81">
+        <f t="shared" si="59"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="H154" s="83" t="s">
-        <v>511</v>
-      </c>
-      <c r="I154" s="81">
-        <f t="shared" ref="I154" si="55">SUMIFS(F151:F165, C151:C165,H154)</f>
+      <c r="H155" s="83" t="s">
+        <v>510</v>
+      </c>
+      <c r="I155" s="81">
+        <f t="shared" ref="I155" si="69">SUMIFS(F152:F166, C152:C166,H155)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="94"/>
-      <c r="B155" s="80" t="s">
+    <row r="156" spans="1:9">
+      <c r="A156" s="96"/>
+      <c r="B156" s="80" t="s">
         <v>518</v>
-      </c>
-      <c r="C155" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D155" s="81" t="s">
-        <v>562</v>
-      </c>
-      <c r="E155" s="81">
-        <v>0.56944444444444442</v>
-      </c>
-      <c r="F155" s="81" t="e">
-        <f t="shared" si="45"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H155" s="83" t="s">
-        <v>508</v>
-      </c>
-      <c r="I155" s="81">
-        <f t="shared" ref="I155" si="56">SUMIFS(F151:F165, C151:C165,H155)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="94"/>
-      <c r="B156" s="80" t="s">
-        <v>520</v>
       </c>
       <c r="C156" s="80" t="s">
         <v>516</v>
       </c>
       <c r="D156" s="81">
-        <v>0.47222222222222227</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E156" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F156" s="81">
-        <f t="shared" si="45"/>
-        <v>6.9444444444444198E-3</v>
+        <f t="shared" si="59"/>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="H156" s="83" t="s">
         <v>513</v>
       </c>
       <c r="I156" s="81">
-        <f t="shared" ref="I156" si="57">SUMIFS(F151:F165, C151:C165,H156)</f>
+        <f t="shared" ref="I156" si="70">SUMIFS(F152:F166, C152:C166,H156)</f>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="94"/>
+      <c r="A157" s="96"/>
       <c r="B157" s="80" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C157" s="80" t="s">
         <v>516</v>
       </c>
       <c r="D157" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E157" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F157" s="81">
+        <f t="shared" si="59"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H157" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="I157" s="81">
+        <f t="shared" ref="I157" si="71">SUMIFS(F152:F166, C152:C166,H157)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="96"/>
+      <c r="B158" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C158" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D158" s="81">
         <v>0.65625</v>
       </c>
-      <c r="E157" s="81">
+      <c r="E158" s="81">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F157" s="81">
-        <f t="shared" si="45"/>
+      <c r="F158" s="81">
+        <f t="shared" si="59"/>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="H157" s="83" t="s">
+      <c r="H158" s="83" t="s">
         <v>516</v>
       </c>
-      <c r="I157" s="81" t="e">
-        <f t="shared" ref="I157" si="58">SUMIFS(F151:F165, C151:C165,H157)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="94"/>
-      <c r="B158" s="80" t="s">
-        <v>524</v>
-      </c>
-      <c r="C158" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D158" s="81">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E158" s="81">
-        <v>0.75</v>
-      </c>
-      <c r="F158" s="81">
-        <f t="shared" si="45"/>
-        <v>8.333333333333337E-2</v>
-      </c>
-      <c r="H158" s="78" t="s">
-        <v>519</v>
-      </c>
-      <c r="I158" s="79" t="e">
-        <f t="shared" ref="I158" si="59">SUM(I152:I157)</f>
-        <v>#VALUE!</v>
+      <c r="I158" s="81">
+        <f t="shared" ref="I158" si="72">SUMIFS(F152:F166, C152:C166,H158)</f>
+        <v>3.8194444444444309E-2</v>
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="94"/>
+      <c r="A159" s="96"/>
       <c r="B159" s="80" t="s">
-        <v>525</v>
+        <v>578</v>
       </c>
       <c r="C159" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D159" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E159" s="81">
         <v>0.75</v>
       </c>
-      <c r="E159" s="81">
+      <c r="F159" s="81">
+        <f t="shared" si="59"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H159" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I159" s="79">
+        <f t="shared" ref="I159" si="73">SUM(I153:I158)</f>
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="96"/>
+      <c r="B160" s="80" t="s">
+        <v>546</v>
+      </c>
+      <c r="C160" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D160" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="E160" s="81">
         <v>0.875</v>
       </c>
-      <c r="F159" s="81">
-        <f t="shared" si="45"/>
+      <c r="F160" s="81">
+        <f t="shared" si="59"/>
         <v>0.125</v>
       </c>
-      <c r="I159" s="84"/>
-    </row>
-    <row r="160" spans="1:9">
-      <c r="A160" s="94"/>
-      <c r="B160" s="80"/>
-      <c r="C160" s="80"/>
-      <c r="D160" s="81"/>
-      <c r="E160" s="81"/>
-      <c r="F160" s="81">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
       <c r="I160" s="84"/>
     </row>
-    <row r="161" spans="1:6">
-      <c r="A161" s="94"/>
+    <row r="161" spans="1:9">
+      <c r="A161" s="96"/>
       <c r="B161" s="80"/>
       <c r="C161" s="80"/>
       <c r="D161" s="81"/>
       <c r="E161" s="81"/>
       <c r="F161" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162" s="94"/>
+      <c r="I161" s="84"/>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="96"/>
       <c r="B162" s="80"/>
       <c r="C162" s="80"/>
       <c r="D162" s="81"/>
       <c r="E162" s="81"/>
       <c r="F162" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
-      <c r="A163" s="94"/>
+    <row r="163" spans="1:9">
+      <c r="A163" s="96"/>
       <c r="B163" s="80"/>
       <c r="C163" s="80"/>
       <c r="D163" s="81"/>
       <c r="E163" s="81"/>
       <c r="F163" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="94"/>
+    <row r="164" spans="1:9">
+      <c r="A164" s="96"/>
       <c r="B164" s="80"/>
       <c r="C164" s="80"/>
       <c r="D164" s="81"/>
       <c r="E164" s="81"/>
       <c r="F164" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="94"/>
+    <row r="165" spans="1:9">
+      <c r="A165" s="96"/>
       <c r="B165" s="80"/>
       <c r="C165" s="80"/>
       <c r="D165" s="81"/>
       <c r="E165" s="81"/>
       <c r="F165" s="81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="96"/>
+      <c r="B166" s="80"/>
+      <c r="C166" s="80"/>
+      <c r="D166" s="81"/>
+      <c r="E166" s="81"/>
+      <c r="F166" s="81">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A76:A90"/>
+    <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
-    <mergeCell ref="A32:A45"/>
-    <mergeCell ref="A46:A60"/>
-    <mergeCell ref="A61:A75"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A106:A120"/>
-    <mergeCell ref="A121:A135"/>
-    <mergeCell ref="A136:A150"/>
-    <mergeCell ref="A151:A165"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3 I18 I33 I47 I62 I77 I92 I107 I122 I137 I152">
+  <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
       <formula>0.25</formula>
     </cfRule>
@@ -8703,7 +12639,7 @@
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4 I19 I34 I48 I63 I78 I93 I108 I123 I138 I153">
+  <conditionalFormatting sqref="I4 I19 I34 I49 I64 I79 I94 I109 I124 I139 I154">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="lessThan">
       <formula>0.0416666666666667</formula>
     </cfRule>
@@ -8714,7 +12650,7 @@
       <formula>0.0416666666666667</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5 I20 I35 I49 I64 I79 I94 I109 I124 I139 I154">
+  <conditionalFormatting sqref="I5 I20 I35 I50 I65 I80 I95 I110 I125 I140 I155">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0.0833333333333333</formula>
     </cfRule>
@@ -8722,7 +12658,7 @@
       <formula>0.0833333333333333</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6 I21 I36 I50 I65 I80 I95 I110 I125 I140 I155">
+  <conditionalFormatting sqref="I6 I21 I36 I51 I66 I81 I96 I111 I126 I141 I156">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0.0416666666666667</formula>
     </cfRule>
@@ -8730,7 +12666,7 @@
       <formula>0.0416666666666667</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7 I22 I37 I51 I66 I81 I96 I111 I126 I141 I156">
+  <conditionalFormatting sqref="I7 I22 I37 I52 I67 I82 I97 I112 I127 I142 I157">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0.0416666666666667</formula>
     </cfRule>
@@ -8738,7 +12674,7 @@
       <formula>0.0416666666666667</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8 I23 I38 I52 I67 I82 I97 I112 I127 I142 I157">
+  <conditionalFormatting sqref="I8 I23 I38 I53 I68 I83 I98 I113 I128 I143 I158">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0.0625</formula>
     </cfRule>
@@ -8747,7 +12683,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C76:C165 C2:C71" xr:uid="{6E4899FF-3B25-4EE1-B31B-EF5F8A1E414F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C166" xr:uid="{FEDDA3A6-1FCA-46C7-B5B4-47C38DBA43DD}">
       <formula1>$Q$1:$Q$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BBAF6AA-F67D-412A-BFCD-92A49E4C5439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{868298F1-4179-4244-850F-29AD6DC52010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="643">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1999,6 +1999,9 @@
     <t>Learned Angular &lt;Topics&gt;</t>
   </si>
   <si>
+    <t>IN Progress</t>
+  </si>
+  <si>
     <t>Buildinng models and migrations</t>
   </si>
   <si>
@@ -2044,9 +2047,15 @@
     <t>project</t>
   </si>
   <si>
+    <t>User service hashing password</t>
+  </si>
+  <si>
     <t xml:space="preserve">Worked in user services crud operation </t>
   </si>
   <si>
+    <t>audit fields</t>
+  </si>
+  <si>
     <t>Meeting with rafi</t>
   </si>
   <si>
@@ -2065,9 +2074,18 @@
     <t>Updating Timesheet</t>
   </si>
   <si>
+    <t>Dashboard for all users</t>
+  </si>
+  <si>
+    <t>Home Pages</t>
+  </si>
+  <si>
     <t>Estimation for all Unique Pages</t>
   </si>
   <si>
+    <t>Angular Exploration</t>
+  </si>
+  <si>
     <t>Meeting with Client (Rafi)</t>
   </si>
   <si>
@@ -2077,6 +2095,15 @@
     <t>Discussion about Page spliting with Team</t>
   </si>
   <si>
+    <t>Working on HTML Layout(Trainer,Reviewer,Profile for all users)</t>
+  </si>
+  <si>
+    <t>Working on HTML Layout(Consistancy for List pages )</t>
+  </si>
+  <si>
+    <t>Feedback Service controller</t>
+  </si>
+  <si>
     <t>Reviewing the Controller and Service for Department and User</t>
   </si>
   <si>
@@ -2101,6 +2128,12 @@
     <t>Learned Angular &lt;Angular Components&gt;</t>
   </si>
   <si>
+    <t>Spliting the Each Individual pages for team</t>
+  </si>
+  <si>
+    <t>Working on HTML layout(Trainee navbar,View Mom)</t>
+  </si>
+  <si>
     <t>Resource Name 7</t>
   </si>
   <si>
@@ -2119,6 +2152,12 @@
     <t xml:space="preserve">updating timesheet </t>
   </si>
   <si>
+    <t>Inprogress</t>
+  </si>
+  <si>
+    <t>my course list</t>
+  </si>
+  <si>
     <t>estimation for all pages</t>
   </si>
   <si>
@@ -2128,16 +2167,25 @@
     <t>spliting the each individual pages</t>
   </si>
   <si>
-    <t>scoreboard discussion</t>
-  </si>
-  <si>
-    <t>discussion about team</t>
+    <t>evening break</t>
   </si>
   <si>
     <t>Working on HTML layout(co-ordinator navbar,my courselist)</t>
   </si>
   <si>
-    <t>Resource Name 10</t>
+    <t>working on html consistancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobhana </t>
+  </si>
+  <si>
+    <t>Estimation for all pages</t>
+  </si>
+  <si>
+    <t>Meeting with client (rafi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">undaerstanding </t>
   </si>
   <si>
     <t>Resource Name 11</t>
@@ -5590,7 +5638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C319A4C-EADA-4641-96D7-D7B692B906C8}">
   <dimension ref="A1:Q165"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A96" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -9046,17 +9094,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A106:A120"/>
-    <mergeCell ref="A121:A135"/>
-    <mergeCell ref="A136:A150"/>
-    <mergeCell ref="A151:A165"/>
     <mergeCell ref="A76:A90"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A45"/>
     <mergeCell ref="A46:A60"/>
     <mergeCell ref="A61:A75"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A106:A120"/>
+    <mergeCell ref="A121:A135"/>
+    <mergeCell ref="A136:A150"/>
+    <mergeCell ref="A151:A165"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I47 I62 I77 I92 I107 I122 I137 I152">
     <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
@@ -9122,8 +9170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13FBC9E-6B7C-42AF-90E3-40C9ABA19EBC}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="H118" sqref="H118"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="M132" sqref="M132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9136,6 +9184,7 @@
     <col min="6" max="6" width="9.85546875" style="84" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="28.28515625" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.5703125" hidden="1" customWidth="1"/>
   </cols>
@@ -9245,6 +9294,9 @@
         <f>SUMIFS(F2:F16, C2:C16,H4)</f>
         <v>5.902777777777779E-2</v>
       </c>
+      <c r="M4" s="82" t="s">
+        <v>579</v>
+      </c>
       <c r="Q4" t="s">
         <v>510</v>
       </c>
@@ -9310,7 +9362,7 @@
     <row r="7" spans="1:17">
       <c r="A7" s="96"/>
       <c r="B7" s="80" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C7" s="80" t="s">
         <v>504</v>
@@ -9339,7 +9391,7 @@
     <row r="8" spans="1:17">
       <c r="A8" s="96"/>
       <c r="B8" s="80" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C8" s="80" t="s">
         <v>510</v>
@@ -9365,7 +9417,7 @@
     <row r="9" spans="1:17">
       <c r="A9" s="96"/>
       <c r="B9" s="80" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C9" s="80" t="s">
         <v>508</v>
@@ -9411,7 +9463,7 @@
     <row r="11" spans="1:17">
       <c r="A11" s="96"/>
       <c r="B11" s="80" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C11" s="80" t="s">
         <v>504</v>
@@ -9431,7 +9483,7 @@
     <row r="12" spans="1:17">
       <c r="A12" s="96"/>
       <c r="B12" s="80" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C12" s="80" t="s">
         <v>504</v>
@@ -9515,12 +9567,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:13">
       <c r="A17" s="96" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="80" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C17" s="80" t="s">
         <v>508</v>
@@ -9542,10 +9594,10 @@
         <v>506</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:13">
       <c r="A18" s="96"/>
       <c r="B18" s="80" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C18" s="80" t="s">
         <v>510</v>
@@ -9568,10 +9620,10 @@
         <v>1.2423611111111117</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:13">
       <c r="A19" s="96"/>
       <c r="B19" s="80" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C19" s="80" t="s">
         <v>510</v>
@@ -9594,10 +9646,10 @@
         <v>1.0416666666666685E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:13">
       <c r="A20" s="96"/>
       <c r="B20" s="80" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C20" s="80" t="s">
         <v>516</v>
@@ -9620,10 +9672,10 @@
         <v>0.12152777777777785</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:13">
       <c r="A21" s="96"/>
       <c r="B21" s="80" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C21" s="80" t="s">
         <v>510</v>
@@ -9646,10 +9698,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:13">
       <c r="A22" s="96"/>
       <c r="B22" s="80" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C22" s="80" t="s">
         <v>516</v>
@@ -9672,10 +9724,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:13">
       <c r="A23" s="96"/>
       <c r="B23" s="80" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C23" s="80" t="s">
         <v>504</v>
@@ -9698,10 +9750,10 @@
         <v>1.1041666666666665</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:13">
       <c r="A24" s="96"/>
       <c r="B24" s="80" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C24" s="80" t="s">
         <v>504</v>
@@ -9724,10 +9776,10 @@
         <v>2.4784722222222229</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:13">
       <c r="A25" s="96"/>
       <c r="B25" s="80" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C25" s="80" t="s">
         <v>516</v>
@@ -9744,10 +9796,10 @@
       </c>
       <c r="I25" s="84"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:13">
       <c r="A26" s="96"/>
       <c r="B26" s="80" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C26" s="80" t="s">
         <v>504</v>
@@ -9764,7 +9816,7 @@
       </c>
       <c r="I26" s="84"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:13">
       <c r="A27" s="96"/>
       <c r="B27" s="80" t="s">
         <v>528</v>
@@ -9783,10 +9835,10 @@
         <v>2.0833333333333259E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:13">
       <c r="A28" s="96"/>
       <c r="B28" s="80" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C28" s="80" t="s">
         <v>504</v>
@@ -9802,13 +9854,13 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:13">
       <c r="A29" s="96"/>
       <c r="B29" s="80" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C29" s="80" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D29" s="81">
         <v>23.958333333333332</v>
@@ -9821,7 +9873,7 @@
         <v>1.0409722222222229</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:13">
       <c r="A30" s="96"/>
       <c r="B30" s="80"/>
       <c r="C30" s="80"/>
@@ -9832,7 +9884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:13">
       <c r="A31" s="96"/>
       <c r="B31" s="80"/>
       <c r="C31" s="80"/>
@@ -9843,7 +9895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:13">
       <c r="A32" s="96" t="s">
         <v>13</v>
       </c>
@@ -9869,8 +9921,11 @@
       <c r="I32" s="79" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="M32" s="82" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="96"/>
       <c r="B33" s="80" t="s">
         <v>551</v>
@@ -9895,11 +9950,14 @@
         <f t="shared" ref="I33" si="8">SUMIFS(F32:F46, C32:C46,H33)</f>
         <v>0.23611111111111122</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="M33" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="96"/>
       <c r="B34" s="80" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C34" s="80" t="s">
         <v>504</v>
@@ -9921,8 +9979,11 @@
         <f t="shared" ref="I34" si="9">SUMIFS(F32:F46, C32:C46,H34)</f>
         <v>7.5000000000000011E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="M34" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="96"/>
       <c r="B35" s="80" t="s">
         <v>520</v>
@@ -9948,10 +10009,10 @@
         <v>9.0277777777777901E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:13">
       <c r="A36" s="96"/>
       <c r="B36" s="80" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C36" s="80" t="s">
         <v>512</v>
@@ -9974,7 +10035,7 @@
         <v>1.388888888888884E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:13">
       <c r="A37" s="96"/>
       <c r="B37" s="80" t="s">
         <v>518</v>
@@ -10000,10 +10061,10 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:13">
       <c r="A38" s="96"/>
       <c r="B38" s="80" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C38" s="80" t="s">
         <v>504</v>
@@ -10026,7 +10087,7 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:13">
       <c r="A39" s="96"/>
       <c r="B39" s="80" t="s">
         <v>521</v>
@@ -10052,10 +10113,10 @@
         <v>0.46736111111111134</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:13">
       <c r="A40" s="96"/>
       <c r="B40" s="80" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C40" s="80" t="s">
         <v>504</v>
@@ -10072,7 +10133,7 @@
       </c>
       <c r="I40" s="84"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:13">
       <c r="A41" s="96"/>
       <c r="B41" s="80" t="s">
         <v>528</v>
@@ -10092,10 +10153,10 @@
       </c>
       <c r="I41" s="84"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:13">
       <c r="A42" s="96"/>
       <c r="B42" s="80" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C42" s="80" t="s">
         <v>510</v>
@@ -10111,10 +10172,10 @@
         <v>4.861111111111116E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:13">
       <c r="A43" s="96"/>
       <c r="B43" s="80" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C43" s="80" t="s">
         <v>504</v>
@@ -10130,10 +10191,10 @@
         <v>6.9444444444445308E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:13">
       <c r="A44" s="96"/>
       <c r="B44" s="80" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C44" s="80" t="s">
         <v>510</v>
@@ -10149,7 +10210,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:13">
       <c r="A45" s="96"/>
       <c r="B45" s="80"/>
       <c r="C45" s="80"/>
@@ -10160,7 +10221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:13">
       <c r="A46" s="96"/>
       <c r="B46" s="80"/>
       <c r="C46" s="80"/>
@@ -10171,12 +10232,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:13">
       <c r="A47" s="96" t="s">
         <v>16</v>
       </c>
       <c r="B47" s="80" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C47" s="80" t="s">
         <v>508</v>
@@ -10197,8 +10258,11 @@
       <c r="I47" s="79" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="M47" s="82" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="96"/>
       <c r="B48" s="80" t="s">
         <v>551</v>
@@ -10221,10 +10285,13 @@
       </c>
       <c r="I48" s="81">
         <f t="shared" ref="I48" si="15">SUMIFS(F47:F61, C47:C61,H48)</f>
-        <v>0.36805555555555552</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="M48" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="96"/>
       <c r="B49" s="80" t="s">
         <v>520</v>
@@ -10247,13 +10314,16 @@
       </c>
       <c r="I49" s="81">
         <f t="shared" ref="I49" si="16">SUMIFS(F47:F61, C47:C61,H49)</f>
-        <v>5.208333333333337E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>5.902777777777779E-2</v>
+      </c>
+      <c r="M49" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="96"/>
       <c r="B50" s="80" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="C50" s="80" t="s">
         <v>504</v>
@@ -10275,11 +10345,14 @@
         <f t="shared" ref="I50" si="17">SUMIFS(F47:F61, C47:C61,H50)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="M50" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="96"/>
       <c r="B51" s="80" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="C51" s="80" t="s">
         <v>512</v>
@@ -10299,10 +10372,10 @@
       </c>
       <c r="I51" s="81">
         <f t="shared" ref="I51" si="18">SUMIFS(F47:F61, C47:C61,H51)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="96"/>
       <c r="B52" s="80" t="s">
         <v>518</v>
@@ -10328,10 +10401,10 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:13">
       <c r="A53" s="96"/>
       <c r="B53" s="80" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="C53" s="80" t="s">
         <v>504</v>
@@ -10351,101 +10424,133 @@
       </c>
       <c r="I53" s="81">
         <f t="shared" ref="I53" si="20">SUMIFS(F47:F61, C47:C61,H53)</f>
-        <v>3.1250000000000056E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>3.8194444444444364E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="96"/>
       <c r="B54" s="80" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="C54" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D54" s="81">
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="E54" s="81">
-        <v>0.75</v>
+        <v>0.69444444444444453</v>
       </c>
       <c r="F54" s="81">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>6.9444444444445308E-3</v>
       </c>
       <c r="H54" s="78" t="s">
         <v>519</v>
       </c>
       <c r="I54" s="79">
         <f t="shared" ref="I54" si="21">SUM(I48:I53)</f>
-        <v>0.48263888888888895</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.5034722222222221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="96"/>
       <c r="B55" s="80" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="C55" s="80" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="D55" s="81">
-        <v>0.75</v>
+        <v>0.69444444444444453</v>
       </c>
       <c r="E55" s="81">
-        <v>0.875</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="F55" s="81">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>6.9444444444443088E-3</v>
       </c>
       <c r="I55" s="84"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:13">
       <c r="A56" s="96"/>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
+      <c r="B56" s="80" t="s">
+        <v>582</v>
+      </c>
+      <c r="C56" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D56" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E56" s="81">
+        <v>0.71527777777777779</v>
+      </c>
       <c r="F56" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="I56" s="84"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:13">
       <c r="A57" s="96"/>
-      <c r="B57" s="80"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
+      <c r="B57" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C57" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D57" s="81">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E57" s="81">
+        <v>0.74305555555555547</v>
+      </c>
       <c r="F57" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="96"/>
-      <c r="B58" s="80"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
+      <c r="B58" s="80" t="s">
+        <v>611</v>
+      </c>
+      <c r="C58" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D58" s="81">
+        <v>0.75</v>
+      </c>
+      <c r="E58" s="81">
+        <v>0.875</v>
+      </c>
       <c r="F58" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="96"/>
-      <c r="B59" s="80"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="81"/>
+      <c r="B59" s="80" t="s">
+        <v>612</v>
+      </c>
+      <c r="C59" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D59" s="81">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E59" s="81">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="F59" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="96"/>
       <c r="B60" s="80"/>
       <c r="C60" s="80"/>
@@ -10456,7 +10561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:13">
       <c r="A61" s="96"/>
       <c r="B61" s="80"/>
       <c r="C61" s="80"/>
@@ -10467,12 +10572,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:13">
       <c r="A62" s="96" t="s">
         <v>17</v>
       </c>
       <c r="B62" s="80" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C62" s="80" t="s">
         <v>508</v>
@@ -10493,8 +10598,11 @@
       <c r="I62" s="79" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="M62" s="82" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="96"/>
       <c r="B63" s="80" t="s">
         <v>551</v>
@@ -10519,8 +10627,11 @@
         <f t="shared" ref="I63" si="22">SUMIFS(F62:F76, C62:C76,H63)</f>
         <v>0.22222222222222227</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="M63" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="96"/>
       <c r="B64" s="80" t="s">
         <v>520</v>
@@ -10545,11 +10656,14 @@
         <f t="shared" ref="I64" si="23">SUMIFS(F62:F76, C62:C76,H64)</f>
         <v>6.2500000000000111E-2</v>
       </c>
+      <c r="M64" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="96"/>
       <c r="B65" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="C65" s="80" t="s">
         <v>504</v>
@@ -10575,7 +10689,7 @@
     <row r="66" spans="1:9">
       <c r="A66" s="96"/>
       <c r="B66" s="80" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="C66" s="80" t="s">
         <v>512</v>
@@ -10627,7 +10741,7 @@
     <row r="68" spans="1:9">
       <c r="A68" s="96"/>
       <c r="B68" s="80" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="C68" s="80" t="s">
         <v>504</v>
@@ -10679,7 +10793,7 @@
     <row r="70" spans="1:9">
       <c r="A70" s="96"/>
       <c r="B70" s="80" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C70" s="80" t="s">
         <v>508</v>
@@ -10699,7 +10813,7 @@
     <row r="71" spans="1:9">
       <c r="A71" s="96"/>
       <c r="B71" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="C71" s="80" t="s">
         <v>504</v>
@@ -10719,7 +10833,7 @@
     <row r="72" spans="1:9">
       <c r="A72" s="96"/>
       <c r="B72" s="80" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="C72" s="80" t="s">
         <v>513</v>
@@ -10738,7 +10852,7 @@
     <row r="73" spans="1:9">
       <c r="A73" s="96"/>
       <c r="B73" s="81" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="C73" s="80" t="s">
         <v>504</v>
@@ -10757,7 +10871,7 @@
     <row r="74" spans="1:9">
       <c r="A74" s="96"/>
       <c r="B74" s="80" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="C74" s="80" t="s">
         <v>510</v>
@@ -10845,7 +10959,7 @@
       </c>
       <c r="I78" s="81">
         <f t="shared" ref="I78" si="31">SUMIFS(F77:F91, C77:C91,H78)</f>
-        <v>0.25972222222222224</v>
+        <v>0.27361111111111119</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -10871,13 +10985,13 @@
       </c>
       <c r="I79" s="81">
         <f t="shared" ref="I79" si="32">SUMIFS(F77:F91, C77:C91,H79)</f>
-        <v>5.555555555555558E-2</v>
+        <v>6.2500000000000111E-2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="96"/>
       <c r="B80" s="80" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="C80" s="80" t="s">
         <v>504</v>
@@ -10923,7 +11037,7 @@
       </c>
       <c r="I81" s="81">
         <f t="shared" ref="I81" si="34">SUMIFS(F77:F91, C77:C91,H81)</f>
-        <v>0</v>
+        <v>2.4305555555555469E-2</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -10955,7 +11069,7 @@
     <row r="83" spans="1:9">
       <c r="A83" s="96"/>
       <c r="B83" s="80" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="C83" s="80" t="s">
         <v>510</v>
@@ -10975,20 +11089,22 @@
       </c>
       <c r="I83" s="81">
         <f t="shared" ref="I83" si="36">SUMIFS(F77:F91, C77:C91,H83)</f>
-        <v>4.1666666666666685E-2</v>
+        <v>5.2083333333333315E-2</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="96"/>
-      <c r="B84" s="80"/>
+      <c r="B84" s="80" t="s">
+        <v>622</v>
+      </c>
       <c r="C84" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D84" s="81">
-        <v>0.66666666666666663</v>
+        <v>0.59375</v>
       </c>
       <c r="E84" s="81">
-        <v>0.75</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="F84" s="81">
         <f t="shared" si="30"/>
@@ -10999,72 +11115,104 @@
       </c>
       <c r="I84" s="79">
         <f t="shared" ref="I84" si="37">SUM(I78:I83)</f>
-        <v>0.40902777777777788</v>
+        <v>0.46458333333333346</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="96"/>
       <c r="B85" s="80" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="C85" s="80" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="D85" s="81">
-        <v>0.75</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="E85" s="81">
-        <v>0.875</v>
+        <v>0.6875</v>
       </c>
       <c r="F85" s="81">
         <f t="shared" si="30"/>
-        <v>0.125</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="I85" s="84"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="96"/>
-      <c r="B86" s="80"/>
-      <c r="C86" s="80"/>
-      <c r="D86" s="81"/>
-      <c r="E86" s="81"/>
+      <c r="B86" s="80" t="s">
+        <v>582</v>
+      </c>
+      <c r="C86" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D86" s="81">
+        <v>0.6875</v>
+      </c>
+      <c r="E86" s="81">
+        <v>0.69444444444444453</v>
+      </c>
       <c r="F86" s="81">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>6.9444444444445308E-3</v>
       </c>
       <c r="I86" s="84"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="96"/>
-      <c r="B87" s="80"/>
-      <c r="C87" s="80"/>
-      <c r="D87" s="81"/>
-      <c r="E87" s="81"/>
+      <c r="B87" s="80" t="s">
+        <v>610</v>
+      </c>
+      <c r="C87" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D87" s="81">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="E87" s="81">
+        <v>0.71527777777777779</v>
+      </c>
       <c r="F87" s="81">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1.3888888888888951E-2</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="96"/>
-      <c r="B88" s="80"/>
-      <c r="C88" s="80"/>
-      <c r="D88" s="81"/>
-      <c r="E88" s="81"/>
+      <c r="B88" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C88" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D88" s="81">
+        <v>0.71875</v>
+      </c>
+      <c r="E88" s="81">
+        <v>0.74305555555555547</v>
+      </c>
       <c r="F88" s="81">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>2.4305555555555469E-2</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="96"/>
-      <c r="B89" s="80"/>
-      <c r="C89" s="80"/>
-      <c r="D89" s="81"/>
-      <c r="E89" s="81"/>
+      <c r="B89" s="80" t="s">
+        <v>623</v>
+      </c>
+      <c r="C89" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D89" s="81">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="E89" s="81">
+        <v>0.86805555555555547</v>
+      </c>
       <c r="F89" s="81">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -11091,7 +11239,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="96" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="B92" s="80" t="s">
         <v>528</v>
@@ -11387,7 +11535,7 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="96" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="B107" s="80" t="s">
         <v>526</v>
@@ -11542,10 +11690,10 @@
         <v>2.777777777777779E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:13">
       <c r="A113" s="96"/>
       <c r="B113" s="80" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="C113" s="80" t="s">
         <v>504</v>
@@ -11568,7 +11716,7 @@
         <v>6.0416666666666674E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:13">
       <c r="A114" s="96"/>
       <c r="B114" s="80" t="s">
         <v>528</v>
@@ -11594,10 +11742,10 @@
         <v>0.43541666666666673</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:13">
       <c r="A115" s="96"/>
       <c r="B115" s="80" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="C115" s="80" t="s">
         <v>504</v>
@@ -11614,7 +11762,7 @@
       </c>
       <c r="I115" s="84"/>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:13">
       <c r="A116" s="96"/>
       <c r="B116" s="80" t="s">
         <v>521</v>
@@ -11634,7 +11782,7 @@
       </c>
       <c r="I116" s="84"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:13">
       <c r="A117" s="96"/>
       <c r="B117" s="80" t="s">
         <v>528</v>
@@ -11653,7 +11801,7 @@
         <v>1.388888888888884E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:13">
       <c r="A118" s="96"/>
       <c r="B118" s="80" t="s">
         <v>546</v>
@@ -11672,10 +11820,10 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:13">
       <c r="A119" s="96"/>
       <c r="B119" s="80" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="C119" s="80" t="s">
         <v>504</v>
@@ -11691,7 +11839,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:13">
       <c r="A120" s="96"/>
       <c r="B120" s="80"/>
       <c r="C120" s="80"/>
@@ -11702,7 +11850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:13">
       <c r="A121" s="96"/>
       <c r="B121" s="80"/>
       <c r="C121" s="80"/>
@@ -11713,12 +11861,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:13">
       <c r="A122" s="96" t="s">
         <v>22</v>
       </c>
       <c r="B122" s="80" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="C122" s="80" t="s">
         <v>508</v>
@@ -11739,8 +11887,11 @@
       <c r="I122" s="79" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="M122" s="82" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" s="96"/>
       <c r="B123" s="80" t="s">
         <v>551</v>
@@ -11763,10 +11914,13 @@
       </c>
       <c r="I123" s="81">
         <f t="shared" ref="I123" si="52">SUMIFS(F122:F136, C122:C136,H123)</f>
-        <v>0.3229166666666668</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>0.30902777777777785</v>
+      </c>
+      <c r="M123" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" s="96"/>
       <c r="B124" s="80" t="s">
         <v>520</v>
@@ -11789,13 +11943,16 @@
       </c>
       <c r="I124" s="81">
         <f t="shared" ref="I124" si="53">SUMIFS(F122:F136, C122:C136,H124)</f>
-        <v>5.5555555555555636E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="M124" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" s="96"/>
       <c r="B125" s="80" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="C125" s="80" t="s">
         <v>504</v>
@@ -11818,10 +11975,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:13">
       <c r="A126" s="96"/>
       <c r="B126" s="80" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="C126" s="80" t="s">
         <v>512</v>
@@ -11844,7 +12001,7 @@
         <v>2.0833333333333259E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:13">
       <c r="A127" s="96"/>
       <c r="B127" s="80" t="s">
         <v>518</v>
@@ -11870,10 +12027,10 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:13">
       <c r="A128" s="96"/>
       <c r="B128" s="80" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="C128" s="80" t="s">
         <v>504</v>
@@ -11893,16 +12050,16 @@
       </c>
       <c r="I128" s="81">
         <f t="shared" ref="I128" si="57">SUMIFS(F122:F136, C122:C136,H128)</f>
-        <v>3.1250000000000056E-2</v>
+        <v>3.8194444444444586E-2</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="96"/>
       <c r="B129" s="80" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="C129" s="80" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="D129" s="81">
         <v>0.6875</v>
@@ -11919,26 +12076,26 @@
       </c>
       <c r="I129" s="79">
         <f t="shared" ref="I129" si="58">SUM(I123:I128)</f>
-        <v>0.46180555555555575</v>
+        <v>0.47569444444444459</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="96"/>
       <c r="B130" s="80" t="s">
-        <v>623</v>
+        <v>582</v>
       </c>
       <c r="C130" s="80" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D130" s="81">
-        <v>0.70138888888888884</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E130" s="81">
         <v>0.71527777777777779</v>
       </c>
       <c r="F130" s="81">
         <f t="shared" ref="F130:F193" si="59">E130-D130</f>
-        <v>1.3888888888888951E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="I130" s="84"/>
     </row>
@@ -11965,7 +12122,7 @@
     <row r="132" spans="1:9">
       <c r="A132" s="96"/>
       <c r="B132" s="80" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="C132" s="80" t="s">
         <v>504</v>
@@ -11983,13 +12140,21 @@
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="96"/>
-      <c r="B133" s="80"/>
-      <c r="C133" s="80"/>
-      <c r="D133" s="81"/>
-      <c r="E133" s="81"/>
+      <c r="B133" s="80" t="s">
+        <v>637</v>
+      </c>
+      <c r="C133" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D133" s="81">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E133" s="81">
+        <v>0.9375</v>
+      </c>
       <c r="F133" s="81">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -12027,23 +12192,23 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="96" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="B137" s="80" t="s">
-        <v>528</v>
+        <v>572</v>
       </c>
       <c r="C137" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D137" s="81">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="E137" s="81">
-        <v>0.4236111111111111</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="F137" s="81">
         <f t="shared" si="59"/>
-        <v>6.9444444444444198E-3</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H137" s="79" t="s">
         <v>505</v>
@@ -12061,66 +12226,66 @@
         <v>508</v>
       </c>
       <c r="D138" s="81">
-        <v>0.42708333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E138" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="F138" s="81">
         <f t="shared" si="59"/>
-        <v>3.125E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H138" s="83" t="s">
         <v>504</v>
       </c>
       <c r="I138" s="81">
         <f t="shared" ref="I138" si="60">SUMIFS(F137:F151, C137:C151,H138)</f>
-        <v>0.22916666666666674</v>
+        <v>0.28125</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="96"/>
       <c r="B139" s="80" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="C139" s="80" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="D139" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="E139" s="81">
-        <v>0.47222222222222227</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="F139" s="81">
         <f t="shared" si="59"/>
-        <v>1.3888888888888951E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H139" s="83" t="s">
         <v>508</v>
       </c>
       <c r="I139" s="81">
         <f t="shared" ref="I139" si="61">SUMIFS(F137:F151, C137:C151,H139)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="96"/>
       <c r="B140" s="80" t="s">
-        <v>551</v>
+        <v>639</v>
       </c>
       <c r="C140" s="80" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D140" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="E140" s="81">
-        <v>0.52083333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="F140" s="81">
         <f t="shared" si="59"/>
-        <v>4.1666666666666685E-2</v>
+        <v>5.2083333333333315E-2</v>
       </c>
       <c r="H140" s="83" t="s">
         <v>510</v>
@@ -12133,20 +12298,20 @@
     <row r="141" spans="1:9">
       <c r="A141" s="96"/>
       <c r="B141" s="80" t="s">
-        <v>518</v>
+        <v>640</v>
       </c>
       <c r="C141" s="80" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D141" s="81">
-        <v>0.52083333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="E141" s="81">
-        <v>0.54166666666666663</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="F141" s="81">
         <f t="shared" si="59"/>
-        <v>2.0833333333333259E-2</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="H141" s="83" t="s">
         <v>513</v>
@@ -12159,33 +12324,33 @@
     <row r="142" spans="1:9">
       <c r="A142" s="96"/>
       <c r="B142" s="80" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C142" s="80" t="s">
         <v>516</v>
       </c>
       <c r="D142" s="81">
-        <v>0.47222222222222227</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="E142" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.56597222222222221</v>
       </c>
       <c r="F142" s="81">
         <f t="shared" si="59"/>
-        <v>6.9444444444444198E-3</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H142" s="83" t="s">
         <v>512</v>
       </c>
       <c r="I142" s="81">
         <f t="shared" ref="I142" si="64">SUMIFS(F137:F151, C137:C151,H142)</f>
-        <v>0</v>
+        <v>3.472222222222221E-2</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="96"/>
       <c r="B143" s="80" t="s">
-        <v>521</v>
+        <v>641</v>
       </c>
       <c r="C143" s="80" t="s">
         <v>516</v>
@@ -12205,7 +12370,7 @@
       </c>
       <c r="I143" s="81">
         <f t="shared" ref="I143" si="65">SUMIFS(F137:F151, C137:C151,H143)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>5.2083333333333315E-2</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -12231,7 +12396,7 @@
       </c>
       <c r="I144" s="79">
         <f t="shared" ref="I144" si="66">SUM(I138:I143)</f>
-        <v>0.34027777777777773</v>
+        <v>0.40972222222222221</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -12323,7 +12488,7 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="96" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="B152" s="80" t="s">
         <v>528</v>
@@ -12619,17 +12784,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{868298F1-4179-4244-850F-29AD6DC52010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08AE3025-7EFC-4C89-ABF1-B1ECBF89AAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="647">
   <si>
     <t>Resource Name</t>
   </si>
@@ -2002,6 +2002,12 @@
     <t>IN Progress</t>
   </si>
   <si>
+    <t>Services Implementation</t>
+  </si>
+  <si>
+    <t>Component binding</t>
+  </si>
+  <si>
     <t>Buildinng models and migrations</t>
   </si>
   <si>
@@ -2125,6 +2131,12 @@
     <t>Angular Component Exploration</t>
   </si>
   <si>
+    <t>Assign Review List</t>
+  </si>
+  <si>
+    <t>Completed review list</t>
+  </si>
+  <si>
     <t>Learned Angular &lt;Angular Components&gt;</t>
   </si>
   <si>
@@ -2134,9 +2146,6 @@
     <t>Working on HTML layout(Trainee navbar,View Mom)</t>
   </si>
   <si>
-    <t>Resource Name 7</t>
-  </si>
-  <si>
     <t>Prathima L</t>
   </si>
   <si>
@@ -2185,7 +2194,10 @@
     <t>Meeting with client (rafi)</t>
   </si>
   <si>
-    <t xml:space="preserve">undaerstanding </t>
+    <t xml:space="preserve">Understanding the controller and services in web api </t>
+  </si>
+  <si>
+    <t>understanding and reviewing the models with arul</t>
   </si>
   <si>
     <t>Resource Name 11</t>
@@ -5638,7 +5650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C319A4C-EADA-4641-96D7-D7B692B906C8}">
   <dimension ref="A1:Q165"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
+    <sheetView topLeftCell="A89" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -9094,17 +9106,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A106:A120"/>
+    <mergeCell ref="A121:A135"/>
+    <mergeCell ref="A136:A150"/>
+    <mergeCell ref="A151:A165"/>
     <mergeCell ref="A76:A90"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A45"/>
     <mergeCell ref="A46:A60"/>
     <mergeCell ref="A61:A75"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A106:A120"/>
-    <mergeCell ref="A121:A135"/>
-    <mergeCell ref="A136:A150"/>
-    <mergeCell ref="A151:A165"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I47 I62 I77 I92 I107 I122 I137 I152">
     <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
@@ -9170,8 +9182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13FBC9E-6B7C-42AF-90E3-40C9ABA19EBC}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="M132" sqref="M132"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9326,6 +9338,9 @@
         <f>SUMIFS(F2:F16, C2:C16,H5)</f>
         <v>5.208333333333337E-2</v>
       </c>
+      <c r="M5" t="s">
+        <v>580</v>
+      </c>
       <c r="Q5" t="s">
         <v>513</v>
       </c>
@@ -9355,6 +9370,9 @@
         <f>SUMIFS(F2:F16, C2:C16,H6)</f>
         <v>0</v>
       </c>
+      <c r="M6" t="s">
+        <v>581</v>
+      </c>
       <c r="Q6" t="s">
         <v>512</v>
       </c>
@@ -9362,7 +9380,7 @@
     <row r="7" spans="1:17">
       <c r="A7" s="96"/>
       <c r="B7" s="80" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C7" s="80" t="s">
         <v>504</v>
@@ -9391,7 +9409,7 @@
     <row r="8" spans="1:17">
       <c r="A8" s="96"/>
       <c r="B8" s="80" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C8" s="80" t="s">
         <v>510</v>
@@ -9417,7 +9435,7 @@
     <row r="9" spans="1:17">
       <c r="A9" s="96"/>
       <c r="B9" s="80" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C9" s="80" t="s">
         <v>508</v>
@@ -9463,7 +9481,7 @@
     <row r="11" spans="1:17">
       <c r="A11" s="96"/>
       <c r="B11" s="80" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C11" s="80" t="s">
         <v>504</v>
@@ -9483,7 +9501,7 @@
     <row r="12" spans="1:17">
       <c r="A12" s="96"/>
       <c r="B12" s="80" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C12" s="80" t="s">
         <v>504</v>
@@ -9572,7 +9590,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="80" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C17" s="80" t="s">
         <v>508</v>
@@ -9597,7 +9615,7 @@
     <row r="18" spans="1:13">
       <c r="A18" s="96"/>
       <c r="B18" s="80" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C18" s="80" t="s">
         <v>510</v>
@@ -9623,7 +9641,7 @@
     <row r="19" spans="1:13">
       <c r="A19" s="96"/>
       <c r="B19" s="80" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C19" s="80" t="s">
         <v>510</v>
@@ -9649,7 +9667,7 @@
     <row r="20" spans="1:13">
       <c r="A20" s="96"/>
       <c r="B20" s="80" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C20" s="80" t="s">
         <v>516</v>
@@ -9675,7 +9693,7 @@
     <row r="21" spans="1:13">
       <c r="A21" s="96"/>
       <c r="B21" s="80" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C21" s="80" t="s">
         <v>510</v>
@@ -9701,7 +9719,7 @@
     <row r="22" spans="1:13">
       <c r="A22" s="96"/>
       <c r="B22" s="80" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C22" s="80" t="s">
         <v>516</v>
@@ -9727,7 +9745,7 @@
     <row r="23" spans="1:13">
       <c r="A23" s="96"/>
       <c r="B23" s="80" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C23" s="80" t="s">
         <v>504</v>
@@ -9753,7 +9771,7 @@
     <row r="24" spans="1:13">
       <c r="A24" s="96"/>
       <c r="B24" s="80" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C24" s="80" t="s">
         <v>504</v>
@@ -9779,7 +9797,7 @@
     <row r="25" spans="1:13">
       <c r="A25" s="96"/>
       <c r="B25" s="80" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C25" s="80" t="s">
         <v>516</v>
@@ -9799,7 +9817,7 @@
     <row r="26" spans="1:13">
       <c r="A26" s="96"/>
       <c r="B26" s="80" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C26" s="80" t="s">
         <v>504</v>
@@ -9838,7 +9856,7 @@
     <row r="28" spans="1:13">
       <c r="A28" s="96"/>
       <c r="B28" s="80" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C28" s="80" t="s">
         <v>504</v>
@@ -9857,10 +9875,10 @@
     <row r="29" spans="1:13">
       <c r="A29" s="96"/>
       <c r="B29" s="80" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C29" s="80" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D29" s="81">
         <v>23.958333333333332</v>
@@ -9951,13 +9969,13 @@
         <v>0.23611111111111122</v>
       </c>
       <c r="M33" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="96"/>
       <c r="B34" s="80" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C34" s="80" t="s">
         <v>504</v>
@@ -9980,7 +9998,7 @@
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="M34" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -10012,7 +10030,7 @@
     <row r="36" spans="1:13">
       <c r="A36" s="96"/>
       <c r="B36" s="80" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C36" s="80" t="s">
         <v>512</v>
@@ -10064,7 +10082,7 @@
     <row r="38" spans="1:13">
       <c r="A38" s="96"/>
       <c r="B38" s="80" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C38" s="80" t="s">
         <v>504</v>
@@ -10116,7 +10134,7 @@
     <row r="40" spans="1:13">
       <c r="A40" s="96"/>
       <c r="B40" s="80" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C40" s="80" t="s">
         <v>504</v>
@@ -10156,7 +10174,7 @@
     <row r="42" spans="1:13">
       <c r="A42" s="96"/>
       <c r="B42" s="80" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C42" s="80" t="s">
         <v>510</v>
@@ -10175,7 +10193,7 @@
     <row r="43" spans="1:13">
       <c r="A43" s="96"/>
       <c r="B43" s="80" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C43" s="80" t="s">
         <v>504</v>
@@ -10194,7 +10212,7 @@
     <row r="44" spans="1:13">
       <c r="A44" s="96"/>
       <c r="B44" s="80" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C44" s="80" t="s">
         <v>510</v>
@@ -10237,7 +10255,7 @@
         <v>16</v>
       </c>
       <c r="B47" s="80" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C47" s="80" t="s">
         <v>508</v>
@@ -10288,7 +10306,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="M48" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -10317,13 +10335,13 @@
         <v>5.902777777777779E-2</v>
       </c>
       <c r="M49" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="96"/>
       <c r="B50" s="80" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C50" s="80" t="s">
         <v>504</v>
@@ -10346,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="96"/>
       <c r="B51" s="80" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C51" s="80" t="s">
         <v>512</v>
@@ -10404,7 +10422,7 @@
     <row r="53" spans="1:13">
       <c r="A53" s="96"/>
       <c r="B53" s="80" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C53" s="80" t="s">
         <v>504</v>
@@ -10430,7 +10448,7 @@
     <row r="54" spans="1:13">
       <c r="A54" s="96"/>
       <c r="B54" s="80" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C54" s="80" t="s">
         <v>504</v>
@@ -10476,7 +10494,7 @@
     <row r="56" spans="1:13">
       <c r="A56" s="96"/>
       <c r="B56" s="80" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C56" s="80" t="s">
         <v>508</v>
@@ -10515,7 +10533,7 @@
     <row r="58" spans="1:13">
       <c r="A58" s="96"/>
       <c r="B58" s="80" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C58" s="80" t="s">
         <v>504</v>
@@ -10534,7 +10552,7 @@
     <row r="59" spans="1:13">
       <c r="A59" s="96"/>
       <c r="B59" s="80" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C59" s="80" t="s">
         <v>504</v>
@@ -10577,7 +10595,7 @@
         <v>17</v>
       </c>
       <c r="B62" s="80" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C62" s="80" t="s">
         <v>508</v>
@@ -10628,7 +10646,7 @@
         <v>0.22222222222222227</v>
       </c>
       <c r="M63" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -10660,10 +10678,10 @@
         <v>299</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:13">
       <c r="A65" s="96"/>
       <c r="B65" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C65" s="80" t="s">
         <v>504</v>
@@ -10686,10 +10704,10 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:13">
       <c r="A66" s="96"/>
       <c r="B66" s="80" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C66" s="80" t="s">
         <v>512</v>
@@ -10712,7 +10730,7 @@
         <v>2.0833333333333259E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:13">
       <c r="A67" s="96"/>
       <c r="B67" s="80" t="s">
         <v>518</v>
@@ -10738,10 +10756,10 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:13">
       <c r="A68" s="96"/>
       <c r="B68" s="80" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C68" s="80" t="s">
         <v>504</v>
@@ -10764,7 +10782,7 @@
         <v>6.9444444444444364E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:13">
       <c r="A69" s="96"/>
       <c r="B69" s="80" t="s">
         <v>561</v>
@@ -10790,10 +10808,10 @@
         <v>0.44791666666666663</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:13">
       <c r="A70" s="96"/>
       <c r="B70" s="80" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C70" s="80" t="s">
         <v>508</v>
@@ -10810,10 +10828,10 @@
       </c>
       <c r="I70" s="84"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:13">
       <c r="A71" s="96"/>
       <c r="B71" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C71" s="80" t="s">
         <v>504</v>
@@ -10830,10 +10848,10 @@
       </c>
       <c r="I71" s="84"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:13">
       <c r="A72" s="96"/>
       <c r="B72" s="80" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C72" s="80" t="s">
         <v>513</v>
@@ -10849,10 +10867,10 @@
         <v>2.0833333333333259E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:13">
       <c r="A73" s="96"/>
       <c r="B73" s="81" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C73" s="80" t="s">
         <v>504</v>
@@ -10868,10 +10886,10 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:13">
       <c r="A74" s="96"/>
       <c r="B74" s="80" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C74" s="80" t="s">
         <v>510</v>
@@ -10887,7 +10905,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:13">
       <c r="A75" s="96"/>
       <c r="B75" s="80"/>
       <c r="C75" s="80"/>
@@ -10898,7 +10916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:13">
       <c r="A76" s="96"/>
       <c r="B76" s="80"/>
       <c r="C76" s="80"/>
@@ -10909,7 +10927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:13">
       <c r="A77" s="96" t="s">
         <v>19</v>
       </c>
@@ -10935,8 +10953,11 @@
       <c r="I77" s="79" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="M77" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="96"/>
       <c r="B78" s="80" t="s">
         <v>551</v>
@@ -10959,10 +10980,13 @@
       </c>
       <c r="I78" s="81">
         <f t="shared" ref="I78" si="31">SUMIFS(F77:F91, C77:C91,H78)</f>
-        <v>0.27361111111111119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.2770833333333334</v>
+      </c>
+      <c r="M78" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="96"/>
       <c r="B79" s="80" t="s">
         <v>520</v>
@@ -10985,13 +11009,16 @@
       </c>
       <c r="I79" s="81">
         <f t="shared" ref="I79" si="32">SUMIFS(F77:F91, C77:C91,H79)</f>
-        <v>6.2500000000000111E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M79" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="96"/>
       <c r="B80" s="80" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C80" s="80" t="s">
         <v>504</v>
@@ -11037,7 +11064,7 @@
       </c>
       <c r="I81" s="81">
         <f t="shared" ref="I81" si="34">SUMIFS(F77:F91, C77:C91,H81)</f>
-        <v>2.4305555555555469E-2</v>
+        <v>2.7777777777777679E-2</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -11069,7 +11096,7 @@
     <row r="83" spans="1:9">
       <c r="A83" s="96"/>
       <c r="B83" s="80" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C83" s="80" t="s">
         <v>510</v>
@@ -11095,7 +11122,7 @@
     <row r="84" spans="1:9">
       <c r="A84" s="96"/>
       <c r="B84" s="80" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C84" s="80" t="s">
         <v>504</v>
@@ -11104,18 +11131,18 @@
         <v>0.59375</v>
       </c>
       <c r="E84" s="81">
-        <v>0.67708333333333337</v>
+        <v>0.69444444444444453</v>
       </c>
       <c r="F84" s="81">
         <f t="shared" si="30"/>
-        <v>8.333333333333337E-2</v>
+        <v>0.10069444444444453</v>
       </c>
       <c r="H84" s="78" t="s">
         <v>519</v>
       </c>
       <c r="I84" s="79">
         <f t="shared" ref="I84" si="37">SUM(I78:I83)</f>
-        <v>0.46458333333333346</v>
+        <v>0.47152777777777777</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -11141,78 +11168,70 @@
     <row r="86" spans="1:9">
       <c r="A86" s="96"/>
       <c r="B86" s="80" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C86" s="80" t="s">
         <v>508</v>
       </c>
       <c r="D86" s="81">
-        <v>0.6875</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E86" s="81">
-        <v>0.69444444444444453</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="F86" s="81">
         <f t="shared" si="30"/>
-        <v>6.9444444444445308E-3</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="I86" s="84"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="96"/>
       <c r="B87" s="80" t="s">
-        <v>610</v>
+        <v>528</v>
       </c>
       <c r="C87" s="80" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="D87" s="81">
-        <v>0.70138888888888884</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="E87" s="81">
-        <v>0.71527777777777779</v>
+        <v>0.74305555555555547</v>
       </c>
       <c r="F87" s="81">
         <f t="shared" si="30"/>
-        <v>1.3888888888888951E-2</v>
+        <v>2.7777777777777679E-2</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="96"/>
       <c r="B88" s="80" t="s">
-        <v>528</v>
+        <v>627</v>
       </c>
       <c r="C88" s="80" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="D88" s="81">
-        <v>0.71875</v>
+        <v>0.74305555555555547</v>
       </c>
       <c r="E88" s="81">
-        <v>0.74305555555555547</v>
+        <v>0.86805555555555547</v>
       </c>
       <c r="F88" s="81">
         <f t="shared" si="30"/>
-        <v>2.4305555555555469E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="96"/>
-      <c r="B89" s="80" t="s">
-        <v>623</v>
-      </c>
-      <c r="C89" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D89" s="81">
-        <v>0.74305555555555547</v>
-      </c>
-      <c r="E89" s="81">
-        <v>0.86805555555555547</v>
-      </c>
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="81"/>
       <c r="F89" s="81">
         <f t="shared" si="30"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -11239,7 +11258,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="96" t="s">
-        <v>624</v>
+        <v>20</v>
       </c>
       <c r="B92" s="80" t="s">
         <v>528</v>
@@ -11535,7 +11554,7 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="96" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B107" s="80" t="s">
         <v>526</v>
@@ -11583,7 +11602,7 @@
       </c>
       <c r="I108" s="81">
         <f t="shared" ref="I108" si="45">SUMIFS(F107:F121, C107:C121,H108)</f>
-        <v>0.28819444444444459</v>
+        <v>0.29861111111111133</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -11693,7 +11712,7 @@
     <row r="113" spans="1:13">
       <c r="A113" s="96"/>
       <c r="B113" s="80" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C113" s="80" t="s">
         <v>504</v>
@@ -11739,13 +11758,13 @@
       </c>
       <c r="I114" s="79">
         <f t="shared" ref="I114" si="51">SUM(I108:I113)</f>
-        <v>0.43541666666666673</v>
+        <v>0.44583333333333347</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="96"/>
       <c r="B115" s="80" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C115" s="80" t="s">
         <v>504</v>
@@ -11810,20 +11829,20 @@
         <v>504</v>
       </c>
       <c r="D118" s="81">
-        <v>0.77083333333333337</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="E118" s="81">
         <v>0.83333333333333337</v>
       </c>
       <c r="F118" s="81">
         <f t="shared" si="30"/>
-        <v>6.25E-2</v>
+        <v>7.2916666666666741E-2</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="96"/>
       <c r="B119" s="80" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C119" s="80" t="s">
         <v>504</v>
@@ -11866,7 +11885,7 @@
         <v>22</v>
       </c>
       <c r="B122" s="80" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C122" s="80" t="s">
         <v>508</v>
@@ -11888,7 +11907,7 @@
         <v>506</v>
       </c>
       <c r="M122" s="82" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -11917,7 +11936,7 @@
         <v>0.30902777777777785</v>
       </c>
       <c r="M123" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -11952,7 +11971,7 @@
     <row r="125" spans="1:13">
       <c r="A125" s="96"/>
       <c r="B125" s="80" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C125" s="80" t="s">
         <v>504</v>
@@ -11978,7 +11997,7 @@
     <row r="126" spans="1:13">
       <c r="A126" s="96"/>
       <c r="B126" s="80" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C126" s="80" t="s">
         <v>512</v>
@@ -12030,7 +12049,7 @@
     <row r="128" spans="1:13">
       <c r="A128" s="96"/>
       <c r="B128" s="80" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C128" s="80" t="s">
         <v>504</v>
@@ -12056,7 +12075,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="96"/>
       <c r="B129" s="80" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C129" s="80" t="s">
         <v>516</v>
@@ -12082,7 +12101,7 @@
     <row r="130" spans="1:9">
       <c r="A130" s="96"/>
       <c r="B130" s="80" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C130" s="80" t="s">
         <v>508</v>
@@ -12122,7 +12141,7 @@
     <row r="132" spans="1:9">
       <c r="A132" s="96"/>
       <c r="B132" s="80" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C132" s="80" t="s">
         <v>504</v>
@@ -12141,7 +12160,7 @@
     <row r="133" spans="1:9">
       <c r="A133" s="96"/>
       <c r="B133" s="80" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C133" s="80" t="s">
         <v>508</v>
@@ -12192,7 +12211,7 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="96" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B137" s="80" t="s">
         <v>572</v>
@@ -12240,7 +12259,7 @@
       </c>
       <c r="I138" s="81">
         <f t="shared" ref="I138" si="60">SUMIFS(F137:F151, C137:C151,H138)</f>
-        <v>0.28125</v>
+        <v>0.29166666666666663</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -12272,7 +12291,7 @@
     <row r="140" spans="1:9">
       <c r="A140" s="96"/>
       <c r="B140" s="80" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C140" s="80" t="s">
         <v>504</v>
@@ -12298,7 +12317,7 @@
     <row r="141" spans="1:9">
       <c r="A141" s="96"/>
       <c r="B141" s="80" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C141" s="80" t="s">
         <v>512</v>
@@ -12350,46 +12369,46 @@
     <row r="143" spans="1:9">
       <c r="A143" s="96"/>
       <c r="B143" s="80" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C143" s="80" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D143" s="81">
-        <v>0.65625</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E143" s="81">
-        <v>0.66666666666666663</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="F143" s="81">
         <f t="shared" si="59"/>
-        <v>1.041666666666663E-2</v>
+        <v>5.902777777777779E-2</v>
       </c>
       <c r="H143" s="83" t="s">
         <v>516</v>
       </c>
       <c r="I143" s="81">
         <f t="shared" ref="I143" si="65">SUMIFS(F137:F151, C137:C151,H143)</f>
-        <v>5.2083333333333315E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="96"/>
       <c r="B144" s="80" t="s">
-        <v>578</v>
+        <v>645</v>
       </c>
       <c r="C144" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D144" s="81">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="E144" s="81">
         <v>0.66666666666666663</v>
-      </c>
-      <c r="E144" s="81">
-        <v>0.75</v>
       </c>
       <c r="F144" s="81">
         <f t="shared" si="59"/>
-        <v>8.333333333333337E-2</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="H144" s="78" t="s">
         <v>519</v>
@@ -12488,7 +12507,7 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="96" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B152" s="80" t="s">
         <v>528</v>
@@ -12784,17 +12803,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{868298F1-4179-4244-850F-29AD6DC52010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44BFA11C-F063-4C97-A516-BF18E89AABCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="648">
   <si>
     <t>Resource Name</t>
   </si>
@@ -2002,6 +2002,12 @@
     <t>IN Progress</t>
   </si>
   <si>
+    <t>Services Implementation</t>
+  </si>
+  <si>
+    <t>Component binding</t>
+  </si>
+  <si>
     <t>Buildinng models and migrations</t>
   </si>
   <si>
@@ -2125,6 +2131,12 @@
     <t>Angular Component Exploration</t>
   </si>
   <si>
+    <t>Assign Review List</t>
+  </si>
+  <si>
+    <t>Completed review list</t>
+  </si>
+  <si>
     <t>Learned Angular &lt;Angular Components&gt;</t>
   </si>
   <si>
@@ -2134,12 +2146,12 @@
     <t>Working on HTML layout(Trainee navbar,View Mom)</t>
   </si>
   <si>
-    <t>Resource Name 7</t>
-  </si>
-  <si>
     <t>Prathima L</t>
   </si>
   <si>
+    <t>Understanding the services</t>
+  </si>
+  <si>
     <t>Creating models for TMS</t>
   </si>
   <si>
@@ -2185,7 +2197,10 @@
     <t>Meeting with client (rafi)</t>
   </si>
   <si>
-    <t xml:space="preserve">undaerstanding </t>
+    <t xml:space="preserve">Understanding the controller and services in web api </t>
+  </si>
+  <si>
+    <t>understanding and reviewing the models with arul</t>
   </si>
   <si>
     <t>Resource Name 11</t>
@@ -9263,7 +9278,7 @@
       </c>
       <c r="I3" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H3)</f>
-        <v>0.22569444444444436</v>
+        <v>0.24305555555555552</v>
       </c>
       <c r="Q3" t="s">
         <v>508</v>
@@ -9324,7 +9339,10 @@
       </c>
       <c r="I5" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H5)</f>
-        <v>5.208333333333337E-2</v>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>580</v>
       </c>
       <c r="Q5" t="s">
         <v>513</v>
@@ -9355,6 +9373,9 @@
         <f>SUMIFS(F2:F16, C2:C16,H6)</f>
         <v>0</v>
       </c>
+      <c r="M6" t="s">
+        <v>581</v>
+      </c>
       <c r="Q6" t="s">
         <v>512</v>
       </c>
@@ -9362,7 +9383,7 @@
     <row r="7" spans="1:17">
       <c r="A7" s="96"/>
       <c r="B7" s="80" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C7" s="80" t="s">
         <v>504</v>
@@ -9371,11 +9392,11 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="E7" s="81">
-        <v>0.63541666666666663</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="F7" s="81">
         <f t="shared" si="0"/>
-        <v>6.597222222222221E-2</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="H7" s="83" t="s">
         <v>512</v>
@@ -9391,20 +9412,20 @@
     <row r="8" spans="1:17">
       <c r="A8" s="96"/>
       <c r="B8" s="80" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C8" s="80" t="s">
         <v>510</v>
       </c>
       <c r="D8" s="81">
-        <v>0.63541666666666663</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="E8" s="81">
         <v>0.6875</v>
       </c>
       <c r="F8" s="81">
         <f>E8-D8</f>
-        <v>5.208333333333337E-2</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="H8" s="83" t="s">
         <v>516</v>
@@ -9417,7 +9438,7 @@
     <row r="9" spans="1:17">
       <c r="A9" s="96"/>
       <c r="B9" s="80" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C9" s="80" t="s">
         <v>508</v>
@@ -9463,7 +9484,7 @@
     <row r="11" spans="1:17">
       <c r="A11" s="96"/>
       <c r="B11" s="80" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C11" s="80" t="s">
         <v>504</v>
@@ -9483,7 +9504,7 @@
     <row r="12" spans="1:17">
       <c r="A12" s="96"/>
       <c r="B12" s="80" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C12" s="80" t="s">
         <v>504</v>
@@ -9572,7 +9593,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="80" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C17" s="80" t="s">
         <v>508</v>
@@ -9597,7 +9618,7 @@
     <row r="18" spans="1:13">
       <c r="A18" s="96"/>
       <c r="B18" s="80" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C18" s="80" t="s">
         <v>510</v>
@@ -9623,7 +9644,7 @@
     <row r="19" spans="1:13">
       <c r="A19" s="96"/>
       <c r="B19" s="80" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C19" s="80" t="s">
         <v>510</v>
@@ -9649,7 +9670,7 @@
     <row r="20" spans="1:13">
       <c r="A20" s="96"/>
       <c r="B20" s="80" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C20" s="80" t="s">
         <v>516</v>
@@ -9675,7 +9696,7 @@
     <row r="21" spans="1:13">
       <c r="A21" s="96"/>
       <c r="B21" s="80" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C21" s="80" t="s">
         <v>510</v>
@@ -9701,7 +9722,7 @@
     <row r="22" spans="1:13">
       <c r="A22" s="96"/>
       <c r="B22" s="80" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C22" s="80" t="s">
         <v>516</v>
@@ -9727,7 +9748,7 @@
     <row r="23" spans="1:13">
       <c r="A23" s="96"/>
       <c r="B23" s="80" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C23" s="80" t="s">
         <v>504</v>
@@ -9753,7 +9774,7 @@
     <row r="24" spans="1:13">
       <c r="A24" s="96"/>
       <c r="B24" s="80" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C24" s="80" t="s">
         <v>504</v>
@@ -9779,7 +9800,7 @@
     <row r="25" spans="1:13">
       <c r="A25" s="96"/>
       <c r="B25" s="80" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C25" s="80" t="s">
         <v>516</v>
@@ -9799,7 +9820,7 @@
     <row r="26" spans="1:13">
       <c r="A26" s="96"/>
       <c r="B26" s="80" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C26" s="80" t="s">
         <v>504</v>
@@ -9838,7 +9859,7 @@
     <row r="28" spans="1:13">
       <c r="A28" s="96"/>
       <c r="B28" s="80" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C28" s="80" t="s">
         <v>504</v>
@@ -9857,10 +9878,10 @@
     <row r="29" spans="1:13">
       <c r="A29" s="96"/>
       <c r="B29" s="80" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C29" s="80" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D29" s="81">
         <v>23.958333333333332</v>
@@ -9951,13 +9972,13 @@
         <v>0.23611111111111122</v>
       </c>
       <c r="M33" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="96"/>
       <c r="B34" s="80" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C34" s="80" t="s">
         <v>504</v>
@@ -9980,7 +10001,7 @@
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="M34" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -10012,7 +10033,7 @@
     <row r="36" spans="1:13">
       <c r="A36" s="96"/>
       <c r="B36" s="80" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C36" s="80" t="s">
         <v>512</v>
@@ -10064,7 +10085,7 @@
     <row r="38" spans="1:13">
       <c r="A38" s="96"/>
       <c r="B38" s="80" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C38" s="80" t="s">
         <v>504</v>
@@ -10116,7 +10137,7 @@
     <row r="40" spans="1:13">
       <c r="A40" s="96"/>
       <c r="B40" s="80" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C40" s="80" t="s">
         <v>504</v>
@@ -10156,7 +10177,7 @@
     <row r="42" spans="1:13">
       <c r="A42" s="96"/>
       <c r="B42" s="80" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C42" s="80" t="s">
         <v>510</v>
@@ -10175,7 +10196,7 @@
     <row r="43" spans="1:13">
       <c r="A43" s="96"/>
       <c r="B43" s="80" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C43" s="80" t="s">
         <v>504</v>
@@ -10194,7 +10215,7 @@
     <row r="44" spans="1:13">
       <c r="A44" s="96"/>
       <c r="B44" s="80" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C44" s="80" t="s">
         <v>510</v>
@@ -10237,7 +10258,7 @@
         <v>16</v>
       </c>
       <c r="B47" s="80" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C47" s="80" t="s">
         <v>508</v>
@@ -10288,7 +10309,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="M48" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -10317,13 +10338,13 @@
         <v>5.902777777777779E-2</v>
       </c>
       <c r="M49" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="96"/>
       <c r="B50" s="80" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C50" s="80" t="s">
         <v>504</v>
@@ -10346,13 +10367,13 @@
         <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="96"/>
       <c r="B51" s="80" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C51" s="80" t="s">
         <v>512</v>
@@ -10404,7 +10425,7 @@
     <row r="53" spans="1:13">
       <c r="A53" s="96"/>
       <c r="B53" s="80" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C53" s="80" t="s">
         <v>504</v>
@@ -10430,7 +10451,7 @@
     <row r="54" spans="1:13">
       <c r="A54" s="96"/>
       <c r="B54" s="80" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C54" s="80" t="s">
         <v>504</v>
@@ -10476,7 +10497,7 @@
     <row r="56" spans="1:13">
       <c r="A56" s="96"/>
       <c r="B56" s="80" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C56" s="80" t="s">
         <v>508</v>
@@ -10515,7 +10536,7 @@
     <row r="58" spans="1:13">
       <c r="A58" s="96"/>
       <c r="B58" s="80" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C58" s="80" t="s">
         <v>504</v>
@@ -10534,7 +10555,7 @@
     <row r="59" spans="1:13">
       <c r="A59" s="96"/>
       <c r="B59" s="80" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C59" s="80" t="s">
         <v>504</v>
@@ -10577,7 +10598,7 @@
         <v>17</v>
       </c>
       <c r="B62" s="80" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C62" s="80" t="s">
         <v>508</v>
@@ -10628,7 +10649,7 @@
         <v>0.22222222222222227</v>
       </c>
       <c r="M63" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -10660,10 +10681,10 @@
         <v>299</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:13">
       <c r="A65" s="96"/>
       <c r="B65" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C65" s="80" t="s">
         <v>504</v>
@@ -10686,10 +10707,10 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:13">
       <c r="A66" s="96"/>
       <c r="B66" s="80" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C66" s="80" t="s">
         <v>512</v>
@@ -10712,7 +10733,7 @@
         <v>2.0833333333333259E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:13">
       <c r="A67" s="96"/>
       <c r="B67" s="80" t="s">
         <v>518</v>
@@ -10738,10 +10759,10 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:13">
       <c r="A68" s="96"/>
       <c r="B68" s="80" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C68" s="80" t="s">
         <v>504</v>
@@ -10764,7 +10785,7 @@
         <v>6.9444444444444364E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:13">
       <c r="A69" s="96"/>
       <c r="B69" s="80" t="s">
         <v>561</v>
@@ -10790,10 +10811,10 @@
         <v>0.44791666666666663</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:13">
       <c r="A70" s="96"/>
       <c r="B70" s="80" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C70" s="80" t="s">
         <v>508</v>
@@ -10810,10 +10831,10 @@
       </c>
       <c r="I70" s="84"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:13">
       <c r="A71" s="96"/>
       <c r="B71" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C71" s="80" t="s">
         <v>504</v>
@@ -10830,10 +10851,10 @@
       </c>
       <c r="I71" s="84"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:13">
       <c r="A72" s="96"/>
       <c r="B72" s="80" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C72" s="80" t="s">
         <v>513</v>
@@ -10849,10 +10870,10 @@
         <v>2.0833333333333259E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:13">
       <c r="A73" s="96"/>
       <c r="B73" s="81" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C73" s="80" t="s">
         <v>504</v>
@@ -10868,10 +10889,10 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:13">
       <c r="A74" s="96"/>
       <c r="B74" s="80" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C74" s="80" t="s">
         <v>510</v>
@@ -10887,7 +10908,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:13">
       <c r="A75" s="96"/>
       <c r="B75" s="80"/>
       <c r="C75" s="80"/>
@@ -10898,7 +10919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:13">
       <c r="A76" s="96"/>
       <c r="B76" s="80"/>
       <c r="C76" s="80"/>
@@ -10909,7 +10930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:13">
       <c r="A77" s="96" t="s">
         <v>19</v>
       </c>
@@ -10935,8 +10956,11 @@
       <c r="I77" s="79" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="M77" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="96"/>
       <c r="B78" s="80" t="s">
         <v>551</v>
@@ -10959,10 +10983,13 @@
       </c>
       <c r="I78" s="81">
         <f t="shared" ref="I78" si="31">SUMIFS(F77:F91, C77:C91,H78)</f>
-        <v>0.27361111111111119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.2770833333333334</v>
+      </c>
+      <c r="M78" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="96"/>
       <c r="B79" s="80" t="s">
         <v>520</v>
@@ -10985,13 +11012,16 @@
       </c>
       <c r="I79" s="81">
         <f t="shared" ref="I79" si="32">SUMIFS(F77:F91, C77:C91,H79)</f>
-        <v>6.2500000000000111E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M79" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="96"/>
       <c r="B80" s="80" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C80" s="80" t="s">
         <v>504</v>
@@ -11037,7 +11067,7 @@
       </c>
       <c r="I81" s="81">
         <f t="shared" ref="I81" si="34">SUMIFS(F77:F91, C77:C91,H81)</f>
-        <v>2.4305555555555469E-2</v>
+        <v>2.7777777777777679E-2</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -11069,7 +11099,7 @@
     <row r="83" spans="1:9">
       <c r="A83" s="96"/>
       <c r="B83" s="80" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C83" s="80" t="s">
         <v>510</v>
@@ -11095,7 +11125,7 @@
     <row r="84" spans="1:9">
       <c r="A84" s="96"/>
       <c r="B84" s="80" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C84" s="80" t="s">
         <v>504</v>
@@ -11104,18 +11134,18 @@
         <v>0.59375</v>
       </c>
       <c r="E84" s="81">
-        <v>0.67708333333333337</v>
+        <v>0.69444444444444453</v>
       </c>
       <c r="F84" s="81">
         <f t="shared" si="30"/>
-        <v>8.333333333333337E-2</v>
+        <v>0.10069444444444453</v>
       </c>
       <c r="H84" s="78" t="s">
         <v>519</v>
       </c>
       <c r="I84" s="79">
         <f t="shared" ref="I84" si="37">SUM(I78:I83)</f>
-        <v>0.46458333333333346</v>
+        <v>0.47152777777777777</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -11141,78 +11171,70 @@
     <row r="86" spans="1:9">
       <c r="A86" s="96"/>
       <c r="B86" s="80" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C86" s="80" t="s">
         <v>508</v>
       </c>
       <c r="D86" s="81">
-        <v>0.6875</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E86" s="81">
-        <v>0.69444444444444453</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="F86" s="81">
         <f t="shared" si="30"/>
-        <v>6.9444444444445308E-3</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="I86" s="84"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="96"/>
       <c r="B87" s="80" t="s">
-        <v>610</v>
+        <v>528</v>
       </c>
       <c r="C87" s="80" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="D87" s="81">
-        <v>0.70138888888888884</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="E87" s="81">
-        <v>0.71527777777777779</v>
+        <v>0.74305555555555547</v>
       </c>
       <c r="F87" s="81">
         <f t="shared" si="30"/>
-        <v>1.3888888888888951E-2</v>
+        <v>2.7777777777777679E-2</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="96"/>
       <c r="B88" s="80" t="s">
-        <v>528</v>
+        <v>627</v>
       </c>
       <c r="C88" s="80" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="D88" s="81">
-        <v>0.71875</v>
+        <v>0.74305555555555547</v>
       </c>
       <c r="E88" s="81">
-        <v>0.74305555555555547</v>
+        <v>0.86805555555555547</v>
       </c>
       <c r="F88" s="81">
         <f t="shared" si="30"/>
-        <v>2.4305555555555469E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="96"/>
-      <c r="B89" s="80" t="s">
-        <v>623</v>
-      </c>
-      <c r="C89" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D89" s="81">
-        <v>0.74305555555555547</v>
-      </c>
-      <c r="E89" s="81">
-        <v>0.86805555555555547</v>
-      </c>
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="81"/>
       <c r="F89" s="81">
         <f t="shared" si="30"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -11239,7 +11261,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="96" t="s">
-        <v>624</v>
+        <v>20</v>
       </c>
       <c r="B92" s="80" t="s">
         <v>528</v>
@@ -11248,14 +11270,14 @@
         <v>504</v>
       </c>
       <c r="D92" s="81">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="E92" s="81">
         <v>0.4236111111111111</v>
       </c>
       <c r="F92" s="81">
         <f t="shared" si="30"/>
-        <v>6.9444444444444198E-3</v>
+        <v>4.8611111111111105E-2</v>
       </c>
       <c r="H92" s="79" t="s">
         <v>505</v>
@@ -11287,7 +11309,7 @@
       </c>
       <c r="I93" s="81">
         <f t="shared" ref="I93" si="38">SUMIFS(F92:F106, C92:C106,H93)</f>
-        <v>0.22916666666666674</v>
+        <v>0.27083333333333343</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -11443,7 +11465,7 @@
       </c>
       <c r="I99" s="79">
         <f t="shared" ref="I99" si="44">SUM(I93:I98)</f>
-        <v>0.34027777777777773</v>
+        <v>0.38194444444444442</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -11535,7 +11557,7 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="96" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B107" s="80" t="s">
         <v>526</v>
@@ -11583,7 +11605,7 @@
       </c>
       <c r="I108" s="81">
         <f t="shared" ref="I108" si="45">SUMIFS(F107:F121, C107:C121,H108)</f>
-        <v>0.28819444444444459</v>
+        <v>0.28472222222222249</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -11615,20 +11637,20 @@
     <row r="110" spans="1:9">
       <c r="A110" s="96"/>
       <c r="B110" s="80" t="s">
-        <v>551</v>
+        <v>629</v>
       </c>
       <c r="C110" s="80" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D110" s="81">
-        <v>0</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="E110" s="81">
-        <v>0</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F110" s="81">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H110" s="83" t="s">
         <v>510</v>
@@ -11693,7 +11715,7 @@
     <row r="113" spans="1:13">
       <c r="A113" s="96"/>
       <c r="B113" s="80" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C113" s="80" t="s">
         <v>504</v>
@@ -11739,13 +11761,13 @@
       </c>
       <c r="I114" s="79">
         <f t="shared" ref="I114" si="51">SUM(I108:I113)</f>
-        <v>0.43541666666666673</v>
+        <v>0.43194444444444463</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="96"/>
       <c r="B115" s="80" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C115" s="80" t="s">
         <v>504</v>
@@ -11810,20 +11832,20 @@
         <v>504</v>
       </c>
       <c r="D118" s="81">
-        <v>0.77083333333333337</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="E118" s="81">
         <v>0.83333333333333337</v>
       </c>
       <c r="F118" s="81">
         <f t="shared" si="30"/>
-        <v>6.25E-2</v>
+        <v>7.2916666666666741E-2</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="96"/>
       <c r="B119" s="80" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C119" s="80" t="s">
         <v>504</v>
@@ -11832,11 +11854,11 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="E119" s="81">
-        <v>0.9375</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="F119" s="81">
         <f t="shared" si="30"/>
-        <v>8.333333333333337E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -11866,7 +11888,7 @@
         <v>22</v>
       </c>
       <c r="B122" s="80" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C122" s="80" t="s">
         <v>508</v>
@@ -11888,7 +11910,7 @@
         <v>506</v>
       </c>
       <c r="M122" s="82" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -11917,7 +11939,7 @@
         <v>0.30902777777777785</v>
       </c>
       <c r="M123" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -11952,7 +11974,7 @@
     <row r="125" spans="1:13">
       <c r="A125" s="96"/>
       <c r="B125" s="80" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C125" s="80" t="s">
         <v>504</v>
@@ -11978,7 +12000,7 @@
     <row r="126" spans="1:13">
       <c r="A126" s="96"/>
       <c r="B126" s="80" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C126" s="80" t="s">
         <v>512</v>
@@ -12030,7 +12052,7 @@
     <row r="128" spans="1:13">
       <c r="A128" s="96"/>
       <c r="B128" s="80" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C128" s="80" t="s">
         <v>504</v>
@@ -12056,7 +12078,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="96"/>
       <c r="B129" s="80" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C129" s="80" t="s">
         <v>516</v>
@@ -12082,7 +12104,7 @@
     <row r="130" spans="1:9">
       <c r="A130" s="96"/>
       <c r="B130" s="80" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C130" s="80" t="s">
         <v>508</v>
@@ -12122,7 +12144,7 @@
     <row r="132" spans="1:9">
       <c r="A132" s="96"/>
       <c r="B132" s="80" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C132" s="80" t="s">
         <v>504</v>
@@ -12141,7 +12163,7 @@
     <row r="133" spans="1:9">
       <c r="A133" s="96"/>
       <c r="B133" s="80" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C133" s="80" t="s">
         <v>508</v>
@@ -12192,7 +12214,7 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="96" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B137" s="80" t="s">
         <v>572</v>
@@ -12240,7 +12262,7 @@
       </c>
       <c r="I138" s="81">
         <f t="shared" ref="I138" si="60">SUMIFS(F137:F151, C137:C151,H138)</f>
-        <v>0.28125</v>
+        <v>0.15972222222222221</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -12272,7 +12294,7 @@
     <row r="140" spans="1:9">
       <c r="A140" s="96"/>
       <c r="B140" s="80" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C140" s="80" t="s">
         <v>504</v>
@@ -12298,7 +12320,7 @@
     <row r="141" spans="1:9">
       <c r="A141" s="96"/>
       <c r="B141" s="80" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C141" s="80" t="s">
         <v>512</v>
@@ -12350,72 +12372,72 @@
     <row r="143" spans="1:9">
       <c r="A143" s="96"/>
       <c r="B143" s="80" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C143" s="80" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D143" s="81">
-        <v>0.65625</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E143" s="81">
-        <v>0.66666666666666663</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="F143" s="81">
         <f t="shared" si="59"/>
-        <v>1.041666666666663E-2</v>
+        <v>5.902777777777779E-2</v>
       </c>
       <c r="H143" s="83" t="s">
         <v>516</v>
       </c>
       <c r="I143" s="81">
         <f t="shared" ref="I143" si="65">SUMIFS(F137:F151, C137:C151,H143)</f>
-        <v>5.2083333333333315E-2</v>
+        <v>5.5555555555555636E-2</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="96"/>
       <c r="B144" s="80" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
       <c r="C144" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D144" s="81">
-        <v>0.66666666666666663</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="E144" s="81">
-        <v>0.75</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="F144" s="81">
         <f t="shared" si="59"/>
-        <v>8.333333333333337E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H144" s="78" t="s">
         <v>519</v>
       </c>
       <c r="I144" s="79">
         <f t="shared" ref="I144" si="66">SUM(I138:I143)</f>
-        <v>0.40972222222222221</v>
+        <v>0.29166666666666674</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="96"/>
       <c r="B145" s="80" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="C145" s="80" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="D145" s="81">
-        <v>0.75</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="E145" s="81">
-        <v>0.875</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="F145" s="81">
         <f t="shared" si="59"/>
-        <v>0.125</v>
+        <v>1.3888888888888951E-2</v>
       </c>
       <c r="I145" s="84"/>
     </row>
@@ -12488,7 +12510,7 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="96" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B152" s="80" t="s">
         <v>528</v>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44BFA11C-F063-4C97-A516-BF18E89AABCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F475BE77-D1F8-44DD-83AB-2C8FF880028C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="652">
   <si>
     <t>Resource Name</t>
   </si>
@@ -2146,25 +2146,37 @@
     <t>Working on HTML layout(Trainee navbar,View Mom)</t>
   </si>
   <si>
+    <t>Reviewed Layout</t>
+  </si>
+  <si>
     <t>Prathima L</t>
   </si>
   <si>
+    <t>Inprogress</t>
+  </si>
+  <si>
     <t>Understanding the services</t>
   </si>
   <si>
+    <t xml:space="preserve">exploration on web api </t>
+  </si>
+  <si>
+    <t xml:space="preserve">exploration on angular </t>
+  </si>
+  <si>
     <t>Creating models for TMS</t>
   </si>
   <si>
-    <t>Worked on HTML layout(trainee list ,trainer list)</t>
+    <t>Worked on HTML layout(head trainee list ,head trainer list)</t>
+  </si>
+  <si>
+    <t>Working on HTML layout(co-ordinator list, Co ordinator trainee list ,Co ordinator trainer list)</t>
   </si>
   <si>
     <t>Working on HTML layout(review list layout,review details layout)</t>
   </si>
   <si>
     <t xml:space="preserve">updating timesheet </t>
-  </si>
-  <si>
-    <t>Inprogress</t>
   </si>
   <si>
     <t>my course list</t>
@@ -11273,11 +11285,11 @@
         <v>0.375</v>
       </c>
       <c r="E92" s="81">
-        <v>0.4236111111111111</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="F92" s="81">
         <f t="shared" si="30"/>
-        <v>4.8611111111111105E-2</v>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="H92" s="79" t="s">
         <v>505</v>
@@ -11295,47 +11307,47 @@
         <v>508</v>
       </c>
       <c r="D93" s="81">
-        <v>0.42708333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E93" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="F93" s="81">
         <f t="shared" si="30"/>
-        <v>3.125E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H93" s="83" t="s">
         <v>504</v>
       </c>
       <c r="I93" s="81">
         <f t="shared" ref="I93" si="38">SUMIFS(F92:F106, C92:C106,H93)</f>
-        <v>0.27083333333333343</v>
+        <v>0.27430555555555558</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="96"/>
       <c r="B94" s="80" t="s">
-        <v>511</v>
+        <v>628</v>
       </c>
       <c r="C94" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D94" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="E94" s="81">
-        <v>0.47222222222222227</v>
+        <v>0.5</v>
       </c>
       <c r="F94" s="81">
         <f t="shared" si="30"/>
-        <v>1.3888888888888951E-2</v>
+        <v>5.2083333333333315E-2</v>
       </c>
       <c r="H94" s="83" t="s">
         <v>508</v>
       </c>
       <c r="I94" s="81">
         <f t="shared" ref="I94" si="39">SUMIFS(F92:F106, C92:C106,H94)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -11390,7 +11402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:13">
       <c r="A97" s="96"/>
       <c r="B97" s="80" t="s">
         <v>520</v>
@@ -11416,7 +11428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:13">
       <c r="A98" s="96"/>
       <c r="B98" s="80" t="s">
         <v>521</v>
@@ -11442,7 +11454,7 @@
         <v>3.8194444444444309E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:13">
       <c r="A99" s="96"/>
       <c r="B99" s="80" t="s">
         <v>578</v>
@@ -11465,10 +11477,10 @@
       </c>
       <c r="I99" s="79">
         <f t="shared" ref="I99" si="44">SUM(I93:I98)</f>
-        <v>0.38194444444444442</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.39583333333333326</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="96"/>
       <c r="B100" s="80" t="s">
         <v>546</v>
@@ -11488,7 +11500,7 @@
       </c>
       <c r="I100" s="84"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:13">
       <c r="A101" s="96"/>
       <c r="B101" s="80"/>
       <c r="C101" s="80"/>
@@ -11500,7 +11512,7 @@
       </c>
       <c r="I101" s="84"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:13">
       <c r="A102" s="96"/>
       <c r="B102" s="80"/>
       <c r="C102" s="80"/>
@@ -11511,7 +11523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:13">
       <c r="A103" s="96"/>
       <c r="B103" s="80"/>
       <c r="C103" s="80"/>
@@ -11522,7 +11534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:13">
       <c r="A104" s="96"/>
       <c r="B104" s="80"/>
       <c r="C104" s="80"/>
@@ -11533,7 +11545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:13">
       <c r="A105" s="96"/>
       <c r="B105" s="80"/>
       <c r="C105" s="80"/>
@@ -11544,7 +11556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:13">
       <c r="A106" s="96"/>
       <c r="B106" s="80"/>
       <c r="C106" s="80"/>
@@ -11555,9 +11567,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:13">
       <c r="A107" s="96" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B107" s="80" t="s">
         <v>526</v>
@@ -11582,7 +11594,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:13">
       <c r="A108" s="96"/>
       <c r="B108" s="80" t="s">
         <v>551</v>
@@ -11605,10 +11617,13 @@
       </c>
       <c r="I108" s="81">
         <f t="shared" ref="I108" si="45">SUMIFS(F107:F121, C107:C121,H108)</f>
-        <v>0.28472222222222249</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>0.29861111111111133</v>
+      </c>
+      <c r="M108" s="82" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="96"/>
       <c r="B109" s="80" t="s">
         <v>520</v>
@@ -11634,10 +11649,10 @@
         <v>3.819444444444442E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:13">
       <c r="A110" s="96"/>
       <c r="B110" s="80" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C110" s="80" t="s">
         <v>504</v>
@@ -11646,11 +11661,11 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="E110" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="F110" s="81">
         <f t="shared" si="30"/>
-        <v>2.777777777777779E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H110" s="83" t="s">
         <v>510</v>
@@ -11659,8 +11674,11 @@
         <f t="shared" ref="I110" si="47">SUMIFS(F107:F121, C107:C121,H110)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="M110" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="96"/>
       <c r="B111" s="80" t="s">
         <v>511</v>
@@ -11685,8 +11703,11 @@
         <f t="shared" ref="I111" si="48">SUMIFS(F107:F121, C107:C121,H111)</f>
         <v>2.0833333333333259E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="M111" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="96"/>
       <c r="B112" s="80" t="s">
         <v>518</v>
@@ -11715,7 +11736,7 @@
     <row r="113" spans="1:13">
       <c r="A113" s="96"/>
       <c r="B113" s="80" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C113" s="80" t="s">
         <v>504</v>
@@ -11761,13 +11782,13 @@
       </c>
       <c r="I114" s="79">
         <f t="shared" ref="I114" si="51">SUM(I108:I113)</f>
-        <v>0.43194444444444463</v>
+        <v>0.44583333333333347</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="96"/>
       <c r="B115" s="80" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C115" s="80" t="s">
         <v>504</v>
@@ -11826,7 +11847,7 @@
     <row r="118" spans="1:13">
       <c r="A118" s="96"/>
       <c r="B118" s="80" t="s">
-        <v>546</v>
+        <v>636</v>
       </c>
       <c r="C118" s="80" t="s">
         <v>504</v>
@@ -11845,7 +11866,7 @@
     <row r="119" spans="1:13">
       <c r="A119" s="96"/>
       <c r="B119" s="80" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="C119" s="80" t="s">
         <v>504</v>
@@ -11854,11 +11875,11 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="E119" s="81">
-        <v>0.89583333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="F119" s="81">
         <f t="shared" si="30"/>
-        <v>4.1666666666666741E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -11888,7 +11909,7 @@
         <v>22</v>
       </c>
       <c r="B122" s="80" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="C122" s="80" t="s">
         <v>508</v>
@@ -11910,7 +11931,7 @@
         <v>506</v>
       </c>
       <c r="M122" s="82" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -11939,7 +11960,7 @@
         <v>0.30902777777777785</v>
       </c>
       <c r="M123" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -11974,7 +11995,7 @@
     <row r="125" spans="1:13">
       <c r="A125" s="96"/>
       <c r="B125" s="80" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C125" s="80" t="s">
         <v>504</v>
@@ -12000,7 +12021,7 @@
     <row r="126" spans="1:13">
       <c r="A126" s="96"/>
       <c r="B126" s="80" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C126" s="80" t="s">
         <v>512</v>
@@ -12052,7 +12073,7 @@
     <row r="128" spans="1:13">
       <c r="A128" s="96"/>
       <c r="B128" s="80" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C128" s="80" t="s">
         <v>504</v>
@@ -12078,7 +12099,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="96"/>
       <c r="B129" s="80" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C129" s="80" t="s">
         <v>516</v>
@@ -12144,7 +12165,7 @@
     <row r="132" spans="1:9">
       <c r="A132" s="96"/>
       <c r="B132" s="80" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C132" s="80" t="s">
         <v>504</v>
@@ -12163,7 +12184,7 @@
     <row r="133" spans="1:9">
       <c r="A133" s="96"/>
       <c r="B133" s="80" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C133" s="80" t="s">
         <v>508</v>
@@ -12214,7 +12235,7 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="96" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B137" s="80" t="s">
         <v>572</v>
@@ -12262,7 +12283,7 @@
       </c>
       <c r="I138" s="81">
         <f t="shared" ref="I138" si="60">SUMIFS(F137:F151, C137:C151,H138)</f>
-        <v>0.15972222222222221</v>
+        <v>0.19097222222222221</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -12294,7 +12315,7 @@
     <row r="140" spans="1:9">
       <c r="A140" s="96"/>
       <c r="B140" s="80" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C140" s="80" t="s">
         <v>504</v>
@@ -12320,7 +12341,7 @@
     <row r="141" spans="1:9">
       <c r="A141" s="96"/>
       <c r="B141" s="80" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C141" s="80" t="s">
         <v>512</v>
@@ -12372,7 +12393,7 @@
     <row r="143" spans="1:9">
       <c r="A143" s="96"/>
       <c r="B143" s="80" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C143" s="80" t="s">
         <v>504</v>
@@ -12398,7 +12419,7 @@
     <row r="144" spans="1:9">
       <c r="A144" s="96"/>
       <c r="B144" s="80" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C144" s="80" t="s">
         <v>504</v>
@@ -12418,7 +12439,7 @@
       </c>
       <c r="I144" s="79">
         <f t="shared" ref="I144" si="66">SUM(I138:I143)</f>
-        <v>0.29166666666666674</v>
+        <v>0.32291666666666674</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -12443,19 +12464,29 @@
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="96"/>
-      <c r="B146" s="80"/>
-      <c r="C146" s="80"/>
-      <c r="D146" s="81"/>
-      <c r="E146" s="81"/>
+      <c r="B146" s="80" t="s">
+        <v>649</v>
+      </c>
+      <c r="C146" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D146" s="81">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E146" s="81">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F146" s="81">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="I146" s="84"/>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="96"/>
-      <c r="B147" s="80"/>
+      <c r="B147" s="80" t="s">
+        <v>584</v>
+      </c>
       <c r="C147" s="80"/>
       <c r="D147" s="81"/>
       <c r="E147" s="81"/>
@@ -12510,7 +12541,7 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="96" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="B152" s="80" t="s">
         <v>528</v>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F475BE77-D1F8-44DD-83AB-2C8FF880028C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4B97B0D-1032-434E-ADD5-F02E1D87B1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="655">
   <si>
     <t>Resource Name</t>
   </si>
@@ -2149,6 +2149,12 @@
     <t>Reviewed Layout</t>
   </si>
   <si>
+    <t>Creating models for TMS</t>
+  </si>
+  <si>
+    <t>Explored on Angular &lt;Typescript introduction&gt;</t>
+  </si>
+  <si>
     <t>Prathima L</t>
   </si>
   <si>
@@ -2164,9 +2170,6 @@
     <t xml:space="preserve">exploration on angular </t>
   </si>
   <si>
-    <t>Creating models for TMS</t>
-  </si>
-  <si>
     <t>Worked on HTML layout(head trainee list ,head trainer list)</t>
   </si>
   <si>
@@ -2213,6 +2216,12 @@
   </si>
   <si>
     <t>understanding and reviewing the models with arul</t>
+  </si>
+  <si>
+    <t>Working on HTML layout(Department list(head,coordinator), Add and edit department page)</t>
+  </si>
+  <si>
+    <t>Working on HTML layout(Upload and veiw Assignment(trainee and trainer) )</t>
   </si>
   <si>
     <t>Resource Name 11</t>
@@ -5665,7 +5674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C319A4C-EADA-4641-96D7-D7B692B906C8}">
   <dimension ref="A1:Q165"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
+    <sheetView topLeftCell="A93" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -9121,17 +9130,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A106:A120"/>
+    <mergeCell ref="A121:A135"/>
+    <mergeCell ref="A136:A150"/>
+    <mergeCell ref="A151:A165"/>
     <mergeCell ref="A76:A90"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A45"/>
     <mergeCell ref="A46:A60"/>
     <mergeCell ref="A61:A75"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A106:A120"/>
-    <mergeCell ref="A121:A135"/>
-    <mergeCell ref="A136:A150"/>
-    <mergeCell ref="A151:A165"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I47 I62 I77 I92 I107 I122 I137 I152">
     <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
@@ -9197,8 +9206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13FBC9E-6B7C-42AF-90E3-40C9ABA19EBC}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="M132" sqref="M132"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="J118" sqref="J118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11279,7 +11288,7 @@
         <v>528</v>
       </c>
       <c r="C92" s="80" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D92" s="81">
         <v>0.375</v>
@@ -11321,7 +11330,7 @@
       </c>
       <c r="I93" s="81">
         <f t="shared" ref="I93" si="38">SUMIFS(F92:F106, C92:C106,H93)</f>
-        <v>0.27430555555555558</v>
+        <v>0.15277777777777773</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -11347,52 +11356,52 @@
       </c>
       <c r="I94" s="81">
         <f t="shared" ref="I94" si="39">SUMIFS(F92:F106, C92:C106,H94)</f>
-        <v>8.333333333333337E-2</v>
+        <v>5.555555555555558E-2</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="96"/>
       <c r="B95" s="80" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
       <c r="C95" s="80" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="D95" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E95" s="81">
-        <v>0.52083333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="F95" s="81">
         <f t="shared" si="30"/>
-        <v>4.1666666666666685E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H95" s="83" t="s">
         <v>510</v>
       </c>
       <c r="I95" s="81">
         <f t="shared" ref="I95" si="40">SUMIFS(F92:F106, C92:C106,H95)</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="96"/>
       <c r="B96" s="80" t="s">
-        <v>518</v>
+        <v>629</v>
       </c>
       <c r="C96" s="80" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D96" s="81">
-        <v>0.52083333333333337</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E96" s="81">
-        <v>0.54166666666666663</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="F96" s="81">
         <f t="shared" si="30"/>
-        <v>2.0833333333333259E-2</v>
+        <v>7.986111111111116E-2</v>
       </c>
       <c r="H96" s="83" t="s">
         <v>513</v>
@@ -11405,16 +11414,16 @@
     <row r="97" spans="1:13">
       <c r="A97" s="96"/>
       <c r="B97" s="80" t="s">
-        <v>520</v>
+        <v>620</v>
       </c>
       <c r="C97" s="80" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D97" s="81">
-        <v>0.47222222222222227</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="E97" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F97" s="81">
         <f t="shared" si="30"/>
@@ -11431,84 +11440,92 @@
     <row r="98" spans="1:13">
       <c r="A98" s="96"/>
       <c r="B98" s="80" t="s">
-        <v>521</v>
+        <v>630</v>
       </c>
       <c r="C98" s="80" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D98" s="81">
-        <v>0.65625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E98" s="81">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F98" s="81">
         <f t="shared" si="30"/>
-        <v>1.041666666666663E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="H98" s="83" t="s">
         <v>516</v>
       </c>
       <c r="I98" s="81">
         <f t="shared" ref="I98" si="43">SUMIFS(F92:F106, C92:C106,H98)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>4.5138888888888895E-2</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="96"/>
       <c r="B99" s="80" t="s">
-        <v>578</v>
+        <v>520</v>
       </c>
       <c r="C99" s="80" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="D99" s="81">
-        <v>0.66666666666666663</v>
+        <v>0.4375</v>
       </c>
       <c r="E99" s="81">
-        <v>0.75</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="F99" s="81">
         <f t="shared" si="30"/>
-        <v>8.333333333333337E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H99" s="78" t="s">
         <v>519</v>
       </c>
       <c r="I99" s="79">
         <f t="shared" ref="I99" si="44">SUM(I93:I98)</f>
-        <v>0.39583333333333326</v>
+        <v>0.29513888888888895</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="96"/>
       <c r="B100" s="80" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="C100" s="80" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="D100" s="81">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E100" s="81">
-        <v>0.875</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="F100" s="81">
         <f t="shared" si="30"/>
-        <v>0.125</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="I100" s="84"/>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="96"/>
-      <c r="B101" s="80"/>
-      <c r="C101" s="80"/>
-      <c r="D101" s="81"/>
-      <c r="E101" s="81"/>
+      <c r="B101" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C101" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D101" s="81">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E101" s="81">
+        <v>0.74305555555555547</v>
+      </c>
       <c r="F101" s="81">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="I101" s="84"/>
     </row>
@@ -11569,7 +11586,7 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="96" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B107" s="80" t="s">
         <v>526</v>
@@ -11620,7 +11637,7 @@
         <v>0.29861111111111133</v>
       </c>
       <c r="M108" s="82" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -11652,7 +11669,7 @@
     <row r="110" spans="1:13">
       <c r="A110" s="96"/>
       <c r="B110" s="80" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C110" s="80" t="s">
         <v>504</v>
@@ -11675,7 +11692,7 @@
         <v>0</v>
       </c>
       <c r="M110" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -11704,7 +11721,7 @@
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="M111" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -11736,7 +11753,7 @@
     <row r="113" spans="1:13">
       <c r="A113" s="96"/>
       <c r="B113" s="80" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C113" s="80" t="s">
         <v>504</v>
@@ -11788,7 +11805,7 @@
     <row r="115" spans="1:13">
       <c r="A115" s="96"/>
       <c r="B115" s="80" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C115" s="80" t="s">
         <v>504</v>
@@ -11847,7 +11864,7 @@
     <row r="118" spans="1:13">
       <c r="A118" s="96"/>
       <c r="B118" s="80" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C118" s="80" t="s">
         <v>504</v>
@@ -11866,7 +11883,7 @@
     <row r="119" spans="1:13">
       <c r="A119" s="96"/>
       <c r="B119" s="80" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C119" s="80" t="s">
         <v>504</v>
@@ -11909,7 +11926,7 @@
         <v>22</v>
       </c>
       <c r="B122" s="80" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C122" s="80" t="s">
         <v>508</v>
@@ -11931,7 +11948,7 @@
         <v>506</v>
       </c>
       <c r="M122" s="82" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -11960,7 +11977,7 @@
         <v>0.30902777777777785</v>
       </c>
       <c r="M123" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -11995,7 +12012,7 @@
     <row r="125" spans="1:13">
       <c r="A125" s="96"/>
       <c r="B125" s="80" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C125" s="80" t="s">
         <v>504</v>
@@ -12021,7 +12038,7 @@
     <row r="126" spans="1:13">
       <c r="A126" s="96"/>
       <c r="B126" s="80" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C126" s="80" t="s">
         <v>512</v>
@@ -12073,7 +12090,7 @@
     <row r="128" spans="1:13">
       <c r="A128" s="96"/>
       <c r="B128" s="80" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C128" s="80" t="s">
         <v>504</v>
@@ -12099,7 +12116,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="96"/>
       <c r="B129" s="80" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C129" s="80" t="s">
         <v>516</v>
@@ -12165,7 +12182,7 @@
     <row r="132" spans="1:9">
       <c r="A132" s="96"/>
       <c r="B132" s="80" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C132" s="80" t="s">
         <v>504</v>
@@ -12184,7 +12201,7 @@
     <row r="133" spans="1:9">
       <c r="A133" s="96"/>
       <c r="B133" s="80" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C133" s="80" t="s">
         <v>508</v>
@@ -12235,7 +12252,7 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="96" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B137" s="80" t="s">
         <v>572</v>
@@ -12283,7 +12300,7 @@
       </c>
       <c r="I138" s="81">
         <f t="shared" ref="I138" si="60">SUMIFS(F137:F151, C137:C151,H138)</f>
-        <v>0.19097222222222221</v>
+        <v>0.32291666666666663</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -12315,7 +12332,7 @@
     <row r="140" spans="1:9">
       <c r="A140" s="96"/>
       <c r="B140" s="80" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C140" s="80" t="s">
         <v>504</v>
@@ -12341,7 +12358,7 @@
     <row r="141" spans="1:9">
       <c r="A141" s="96"/>
       <c r="B141" s="80" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C141" s="80" t="s">
         <v>512</v>
@@ -12361,7 +12378,7 @@
       </c>
       <c r="I141" s="81">
         <f t="shared" ref="I141" si="63">SUMIFS(F137:F151, C137:C151,H141)</f>
-        <v>0</v>
+        <v>2.7777777777777679E-2</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -12393,7 +12410,7 @@
     <row r="143" spans="1:9">
       <c r="A143" s="96"/>
       <c r="B143" s="80" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C143" s="80" t="s">
         <v>504</v>
@@ -12419,7 +12436,7 @@
     <row r="144" spans="1:9">
       <c r="A144" s="96"/>
       <c r="B144" s="80" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C144" s="80" t="s">
         <v>504</v>
@@ -12439,7 +12456,7 @@
       </c>
       <c r="I144" s="79">
         <f t="shared" ref="I144" si="66">SUM(I138:I143)</f>
-        <v>0.32291666666666674</v>
+        <v>0.48263888888888884</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -12465,7 +12482,7 @@
     <row r="146" spans="1:9">
       <c r="A146" s="96"/>
       <c r="B146" s="80" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C146" s="80" t="s">
         <v>504</v>
@@ -12487,45 +12504,75 @@
       <c r="B147" s="80" t="s">
         <v>584</v>
       </c>
-      <c r="C147" s="80"/>
-      <c r="D147" s="81"/>
-      <c r="E147" s="81"/>
+      <c r="C147" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D147" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E147" s="81">
+        <v>0.71527777777777779</v>
+      </c>
       <c r="F147" s="81">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="96"/>
-      <c r="B148" s="80"/>
-      <c r="C148" s="80"/>
-      <c r="D148" s="81"/>
-      <c r="E148" s="81"/>
+      <c r="B148" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C148" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D148" s="81">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E148" s="81">
+        <v>0.74305555555555547</v>
+      </c>
       <c r="F148" s="81">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>2.7777777777777679E-2</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="96"/>
-      <c r="B149" s="80"/>
-      <c r="C149" s="80"/>
-      <c r="D149" s="81"/>
-      <c r="E149" s="81"/>
+      <c r="B149" s="80" t="s">
+        <v>652</v>
+      </c>
+      <c r="C149" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D149" s="81">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E149" s="81">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="F149" s="81">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="96"/>
-      <c r="B150" s="80"/>
-      <c r="C150" s="80"/>
-      <c r="D150" s="81"/>
-      <c r="E150" s="81"/>
+      <c r="B150" s="80" t="s">
+        <v>653</v>
+      </c>
+      <c r="C150" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D150" s="81">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E150" s="81">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="F150" s="81">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -12541,7 +12588,7 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="96" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B152" s="80" t="s">
         <v>528</v>
@@ -12837,17 +12884,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4B97B0D-1032-434E-ADD5-F02E1D87B1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D66AE577-9861-4ADF-BB09-B51CC37AD794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5674,7 +5674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C319A4C-EADA-4641-96D7-D7B692B906C8}">
   <dimension ref="A1:Q165"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
+    <sheetView topLeftCell="A119" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -9206,8 +9206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13FBC9E-6B7C-42AF-90E3-40C9ABA19EBC}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="J118" sqref="J118"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="J149" sqref="J149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D66AE577-9861-4ADF-BB09-B51CC37AD794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C93963B-D6B6-476A-94B3-A5D44B8C2656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="654">
   <si>
     <t>Resource Name</t>
   </si>
@@ -2222,9 +2222,6 @@
   </si>
   <si>
     <t>Working on HTML layout(Upload and veiw Assignment(trainee and trainer) )</t>
-  </si>
-  <si>
-    <t>Resource Name 11</t>
   </si>
 </sst>
 </file>
@@ -2513,7 +2510,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2774,6 +2771,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5674,7 +5674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C319A4C-EADA-4641-96D7-D7B692B906C8}">
   <dimension ref="A1:Q165"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
+    <sheetView topLeftCell="A65" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -9130,17 +9130,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A106:A120"/>
-    <mergeCell ref="A121:A135"/>
-    <mergeCell ref="A136:A150"/>
-    <mergeCell ref="A151:A165"/>
     <mergeCell ref="A76:A90"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A45"/>
     <mergeCell ref="A46:A60"/>
     <mergeCell ref="A61:A75"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A106:A120"/>
+    <mergeCell ref="A121:A135"/>
+    <mergeCell ref="A136:A150"/>
+    <mergeCell ref="A151:A165"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I47 I62 I77 I92 I107 I122 I137 I152">
     <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
@@ -9206,8 +9206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13FBC9E-6B7C-42AF-90E3-40C9ABA19EBC}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="J149" sqref="J149"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12588,23 +12588,23 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="96" t="s">
-        <v>654</v>
+        <v>23</v>
       </c>
       <c r="B152" s="80" t="s">
-        <v>528</v>
+        <v>298</v>
       </c>
       <c r="C152" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D152" s="81">
-        <v>0.41666666666666669</v>
+        <v>0</v>
       </c>
       <c r="E152" s="81">
-        <v>0.4236111111111111</v>
+        <v>0</v>
       </c>
       <c r="F152" s="81">
         <f t="shared" si="59"/>
-        <v>6.9444444444444198E-3</v>
+        <v>0</v>
       </c>
       <c r="H152" s="79" t="s">
         <v>505</v>
@@ -12622,21 +12622,21 @@
         <v>508</v>
       </c>
       <c r="D153" s="81">
-        <v>0.42708333333333331</v>
+        <v>0</v>
       </c>
       <c r="E153" s="81">
-        <v>0.45833333333333331</v>
+        <v>0</v>
       </c>
       <c r="F153" s="81">
         <f t="shared" si="59"/>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
       <c r="H153" s="83" t="s">
         <v>504</v>
       </c>
       <c r="I153" s="81">
         <f t="shared" ref="I153" si="67">SUMIFS(F152:F166, C152:C166,H153)</f>
-        <v>0.22916666666666674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -12648,21 +12648,21 @@
         <v>504</v>
       </c>
       <c r="D154" s="81">
-        <v>0.45833333333333331</v>
+        <v>0</v>
       </c>
       <c r="E154" s="81">
-        <v>0.47222222222222227</v>
+        <v>0</v>
       </c>
       <c r="F154" s="81">
         <f t="shared" si="59"/>
-        <v>1.3888888888888951E-2</v>
+        <v>0</v>
       </c>
       <c r="H154" s="83" t="s">
         <v>508</v>
       </c>
       <c r="I154" s="81">
         <f t="shared" ref="I154" si="68">SUMIFS(F152:F166, C152:C166,H154)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -12674,14 +12674,14 @@
         <v>508</v>
       </c>
       <c r="D155" s="81">
-        <v>0.47916666666666669</v>
+        <v>0</v>
       </c>
       <c r="E155" s="81">
-        <v>0.52083333333333337</v>
+        <v>0</v>
       </c>
       <c r="F155" s="81">
         <f t="shared" si="59"/>
-        <v>4.1666666666666685E-2</v>
+        <v>0</v>
       </c>
       <c r="H155" s="83" t="s">
         <v>510</v>
@@ -12700,14 +12700,14 @@
         <v>516</v>
       </c>
       <c r="D156" s="81">
-        <v>0.52083333333333337</v>
+        <v>0</v>
       </c>
       <c r="E156" s="81">
-        <v>0.54166666666666663</v>
+        <v>0</v>
       </c>
       <c r="F156" s="81">
         <f t="shared" si="59"/>
-        <v>2.0833333333333259E-2</v>
+        <v>0</v>
       </c>
       <c r="H156" s="83" t="s">
         <v>513</v>
@@ -12726,14 +12726,14 @@
         <v>516</v>
       </c>
       <c r="D157" s="81">
-        <v>0.47222222222222227</v>
+        <v>0</v>
       </c>
       <c r="E157" s="81">
-        <v>0.47916666666666669</v>
+        <v>0</v>
       </c>
       <c r="F157" s="81">
         <f t="shared" si="59"/>
-        <v>6.9444444444444198E-3</v>
+        <v>0</v>
       </c>
       <c r="H157" s="83" t="s">
         <v>512</v>
@@ -12752,21 +12752,21 @@
         <v>516</v>
       </c>
       <c r="D158" s="81">
-        <v>0.65625</v>
+        <v>0</v>
       </c>
       <c r="E158" s="81">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="F158" s="81">
         <f t="shared" si="59"/>
-        <v>1.041666666666663E-2</v>
+        <v>0</v>
       </c>
       <c r="H158" s="83" t="s">
         <v>516</v>
       </c>
       <c r="I158" s="81">
         <f t="shared" ref="I158" si="72">SUMIFS(F152:F166, C152:C166,H158)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -12778,21 +12778,21 @@
         <v>504</v>
       </c>
       <c r="D159" s="81">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="E159" s="81">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F159" s="81">
         <f t="shared" si="59"/>
-        <v>8.333333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="H159" s="78" t="s">
         <v>519</v>
       </c>
       <c r="I159" s="79">
         <f t="shared" ref="I159" si="73">SUM(I153:I158)</f>
-        <v>0.34027777777777773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -12804,14 +12804,14 @@
         <v>504</v>
       </c>
       <c r="D160" s="81">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E160" s="81">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="F160" s="81">
         <f t="shared" si="59"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I160" s="84"/>
     </row>
@@ -12819,8 +12819,12 @@
       <c r="A161" s="96"/>
       <c r="B161" s="80"/>
       <c r="C161" s="80"/>
-      <c r="D161" s="81"/>
-      <c r="E161" s="81"/>
+      <c r="D161" s="81">
+        <v>0</v>
+      </c>
+      <c r="E161" s="81">
+        <v>0</v>
+      </c>
       <c r="F161" s="81">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -12829,7 +12833,9 @@
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="96"/>
-      <c r="B162" s="80"/>
+      <c r="B162" s="97" t="s">
+        <v>94</v>
+      </c>
       <c r="C162" s="80"/>
       <c r="D162" s="81"/>
       <c r="E162" s="81"/>
@@ -12884,17 +12890,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C93963B-D6B6-476A-94B3-A5D44B8C2656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33303574-AEFB-41FA-A886-41F7D1BDB28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="657">
   <si>
     <t>Resource Name</t>
   </si>
@@ -2204,6 +2204,15 @@
   </si>
   <si>
     <t xml:space="preserve">Sobhana </t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Assignment layouts</t>
+  </si>
+  <si>
+    <t>Web api (services for course)</t>
   </si>
   <si>
     <t>Estimation for all pages</t>
@@ -5674,7 +5683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C319A4C-EADA-4641-96D7-D7B692B906C8}">
   <dimension ref="A1:Q165"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
+    <sheetView topLeftCell="A119" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -9130,17 +9139,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A106:A120"/>
+    <mergeCell ref="A121:A135"/>
+    <mergeCell ref="A136:A150"/>
+    <mergeCell ref="A151:A165"/>
     <mergeCell ref="A76:A90"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A45"/>
     <mergeCell ref="A46:A60"/>
     <mergeCell ref="A61:A75"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A106:A120"/>
-    <mergeCell ref="A121:A135"/>
-    <mergeCell ref="A136:A150"/>
-    <mergeCell ref="A151:A165"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I47 I62 I77 I92 I107 I122 I137 I152">
     <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
@@ -9206,8 +9215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13FBC9E-6B7C-42AF-90E3-40C9ABA19EBC}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView tabSelected="1" topLeftCell="D121" workbookViewId="0">
+      <selection activeCell="L139" sqref="L139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12113,7 +12122,7 @@
         <v>3.8194444444444586E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:13">
       <c r="A129" s="96"/>
       <c r="B129" s="80" t="s">
         <v>644</v>
@@ -12139,7 +12148,7 @@
         <v>0.47569444444444459</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:13">
       <c r="A130" s="96"/>
       <c r="B130" s="80" t="s">
         <v>584</v>
@@ -12159,7 +12168,7 @@
       </c>
       <c r="I130" s="84"/>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:13">
       <c r="A131" s="96"/>
       <c r="B131" s="80" t="s">
         <v>528</v>
@@ -12179,7 +12188,7 @@
       </c>
       <c r="I131" s="84"/>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:13">
       <c r="A132" s="96"/>
       <c r="B132" s="80" t="s">
         <v>645</v>
@@ -12198,7 +12207,7 @@
         <v>0.14583333333333337</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:13">
       <c r="A133" s="96"/>
       <c r="B133" s="80" t="s">
         <v>646</v>
@@ -12217,7 +12226,7 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:13">
       <c r="A134" s="96"/>
       <c r="B134" s="80"/>
       <c r="C134" s="80"/>
@@ -12228,7 +12237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:13">
       <c r="A135" s="96"/>
       <c r="B135" s="80"/>
       <c r="C135" s="80"/>
@@ -12239,7 +12248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:13">
       <c r="A136" s="96"/>
       <c r="B136" s="80"/>
       <c r="C136" s="80"/>
@@ -12250,7 +12259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:13">
       <c r="A137" s="96" t="s">
         <v>647</v>
       </c>
@@ -12276,8 +12285,11 @@
       <c r="I137" s="79" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="M137" s="82" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="96"/>
       <c r="B138" s="80" t="s">
         <v>551</v>
@@ -12302,8 +12314,11 @@
         <f t="shared" ref="I138" si="60">SUMIFS(F137:F151, C137:C151,H138)</f>
         <v>0.32291666666666663</v>
       </c>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="M138" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="96"/>
       <c r="B139" s="80" t="s">
         <v>520</v>
@@ -12328,11 +12343,14 @@
         <f t="shared" ref="I139" si="61">SUMIFS(F137:F151, C137:C151,H139)</f>
         <v>4.1666666666666685E-2</v>
       </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="M139" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="96"/>
       <c r="B140" s="80" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C140" s="80" t="s">
         <v>504</v>
@@ -12355,10 +12373,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:13">
       <c r="A141" s="96"/>
       <c r="B141" s="80" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C141" s="80" t="s">
         <v>512</v>
@@ -12381,7 +12399,7 @@
         <v>2.7777777777777679E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:13">
       <c r="A142" s="96"/>
       <c r="B142" s="80" t="s">
         <v>518</v>
@@ -12407,10 +12425,10 @@
         <v>3.472222222222221E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:13">
       <c r="A143" s="96"/>
       <c r="B143" s="80" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C143" s="80" t="s">
         <v>504</v>
@@ -12433,10 +12451,10 @@
         <v>5.5555555555555636E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:13">
       <c r="A144" s="96"/>
       <c r="B144" s="80" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C144" s="80" t="s">
         <v>504</v>
@@ -12482,7 +12500,7 @@
     <row r="146" spans="1:9">
       <c r="A146" s="96"/>
       <c r="B146" s="80" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C146" s="80" t="s">
         <v>504</v>
@@ -12540,7 +12558,7 @@
     <row r="149" spans="1:9">
       <c r="A149" s="96"/>
       <c r="B149" s="80" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C149" s="80" t="s">
         <v>504</v>
@@ -12559,7 +12577,7 @@
     <row r="150" spans="1:9">
       <c r="A150" s="96"/>
       <c r="B150" s="80" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C150" s="80" t="s">
         <v>504</v>
@@ -12591,7 +12609,7 @@
         <v>23</v>
       </c>
       <c r="B152" s="80" t="s">
-        <v>298</v>
+        <v>572</v>
       </c>
       <c r="C152" s="80" t="s">
         <v>504</v>
@@ -12890,17 +12908,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B061B7D-6EEA-4B1C-AEC4-8DE85D50023F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DB15D77-5725-4934-BD87-FBD0A2709A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="20" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="24" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5-4-22" sheetId="40" r:id="rId1"/>
@@ -11066,17 +11066,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A106:A120"/>
-    <mergeCell ref="A121:A135"/>
-    <mergeCell ref="A136:A150"/>
-    <mergeCell ref="A151:A165"/>
     <mergeCell ref="A76:A90"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A45"/>
     <mergeCell ref="A46:A60"/>
     <mergeCell ref="A61:A75"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A106:A120"/>
+    <mergeCell ref="A121:A135"/>
+    <mergeCell ref="A136:A150"/>
+    <mergeCell ref="A151:A165"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I47 I62 I77 I92 I107 I122 I137 I152">
     <cfRule type="cellIs" dxfId="129" priority="12" operator="greaterThan">
@@ -14835,17 +14835,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="116" priority="12" operator="greaterThan">
@@ -18681,17 +18681,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="103" priority="12" operator="greaterThan">
@@ -21843,17 +21843,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="90" priority="12" operator="greaterThan">
@@ -24926,17 +24926,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="77" priority="12" operator="greaterThan">
@@ -25002,7 +25002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60099D11-A512-4BF0-BF62-E7BD47F0C256}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A89" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -28201,17 +28201,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="64" priority="12" operator="greaterThan">
@@ -31805,17 +31805,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="51" priority="38" operator="greaterThan">
@@ -31932,8 +31932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490C0FB0-D79B-42A7-B070-C4769D6ECC67}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="K123" sqref="K123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35016,11 +35016,11 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="E139" s="81">
-        <v>0.51388888888888895</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="F139" s="81">
         <f>E139-D139</f>
-        <v>6.9444444444445308E-3</v>
+        <v>3.4722222222222099E-3</v>
       </c>
       <c r="H139" s="83" t="s">
         <v>508</v>
@@ -35131,7 +35131,7 @@
       </c>
       <c r="I143" s="81">
         <f>SUMIFS(F137:F151, C137:C151,H143)</f>
-        <v>3.4722222222222321E-2</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -35157,7 +35157,7 @@
       </c>
       <c r="I144" s="79">
         <f>SUM(I138:I143)</f>
-        <v>0.45138888888888895</v>
+        <v>0.44791666666666663</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -35599,17 +35599,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="25" priority="25" operator="greaterThan">

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DB15D77-5725-4934-BD87-FBD0A2709A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{292AC8C1-C66F-4169-89A7-06EE626624BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="24" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3711" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3720" uniqueCount="949">
   <si>
     <t>Resource Name</t>
   </si>
@@ -3043,6 +3043,12 @@
     <t>Resolving errors in  review services</t>
   </si>
   <si>
+    <t>Worked on review Controller</t>
+  </si>
+  <si>
+    <t>Worked on integration</t>
+  </si>
+  <si>
     <t>binding angular and webapi</t>
   </si>
   <si>
@@ -3070,6 +3076,9 @@
     <t>Intergrating and working in depatment component</t>
   </si>
   <si>
+    <t>Intergrating angular and web api(department page)</t>
+  </si>
+  <si>
     <t>Explaining webapi services by gokul and splitting services</t>
   </si>
   <si>
@@ -3086,6 +3095,9 @@
   </si>
   <si>
     <t>Refined navbar</t>
+  </si>
+  <si>
+    <t>Refined sidebar</t>
   </si>
   <si>
     <t xml:space="preserve"> Team meeting for splitting work</t>
@@ -15219,8 +15231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC76B7DB-CD87-426B-A30F-75E6803D15E0}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18757,7 +18769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD8057D-5D0C-4D52-82F8-96895A370A83}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A125" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -21919,7 +21931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC8A043-7908-4F76-BC2B-AEF2FC38FA90}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A166" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -25002,7 +25014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60099D11-A512-4BF0-BF62-E7BD47F0C256}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -28277,8 +28289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA12A76-B97F-49A9-AC8E-2B1CB75AA6A1}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="H163" sqref="H163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31932,8 +31944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490C0FB0-D79B-42A7-B070-C4769D6ECC67}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="K123" sqref="K123"/>
+    <sheetView tabSelected="1" topLeftCell="B125" workbookViewId="0">
+      <selection activeCell="K138" sqref="K138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34026,7 +34038,7 @@
       </c>
       <c r="I93" s="81">
         <f>SUMIFS(F92:F106, C92:C106,H93)</f>
-        <v>-0.59375</v>
+        <v>0.26736111111111122</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -34181,7 +34193,7 @@
       </c>
       <c r="I99" s="79">
         <f>SUM(I93:I98)</f>
-        <v>3.6006944444444451</v>
+        <v>4.4618055555555562</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -34235,10 +34247,12 @@
       <c r="D102" s="81">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E102" s="81"/>
+      <c r="E102" s="81">
+        <v>0.86111111111111116</v>
+      </c>
       <c r="F102" s="81">
         <f>E102-D102</f>
-        <v>-0.72916666666666663</v>
+        <v>0.13194444444444453</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -34316,7 +34330,7 @@
       <c r="A108" s="99"/>
       <c r="B108" s="80"/>
       <c r="C108" s="80" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D108" s="81">
         <v>0.38541666666666669</v>
@@ -34333,7 +34347,7 @@
       </c>
       <c r="I108" s="81">
         <f>SUMIFS(F107:F121, C107:C121,H108)</f>
-        <v>0.17013888888888873</v>
+        <v>0.2083333333333332</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -34359,7 +34373,7 @@
       </c>
       <c r="I109" s="81">
         <f>SUMIFS(F107:F121, C107:C121,H109)</f>
-        <v>0</v>
+        <v>5.2083333333333315E-2</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -34487,7 +34501,7 @@
       </c>
       <c r="I114" s="79">
         <f>SUM(I108:I113)</f>
-        <v>0.35416666666666657</v>
+        <v>0.44444444444444436</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -34570,35 +34584,59 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="99"/>
-      <c r="B119" s="80"/>
-      <c r="C119" s="80"/>
-      <c r="D119" s="81"/>
-      <c r="E119" s="81"/>
+      <c r="B119" s="80" t="s">
+        <v>925</v>
+      </c>
+      <c r="C119" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D119" s="81">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="E119" s="81">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F119" s="81">
         <f>E119-D119</f>
-        <v>0</v>
+        <v>2.777777777777779E-2</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="99"/>
-      <c r="B120" s="80"/>
-      <c r="C120" s="80"/>
-      <c r="D120" s="81"/>
-      <c r="E120" s="81"/>
+      <c r="B120" s="80" t="s">
+        <v>908</v>
+      </c>
+      <c r="C120" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D120" s="81">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E120" s="81">
+        <v>0.8125</v>
+      </c>
       <c r="F120" s="81">
         <f>E120-D120</f>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="99"/>
-      <c r="B121" s="80"/>
-      <c r="C121" s="80"/>
-      <c r="D121" s="81"/>
-      <c r="E121" s="81"/>
+      <c r="B121" s="80" t="s">
+        <v>926</v>
+      </c>
+      <c r="C121" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D121" s="81">
+        <v>0.8125</v>
+      </c>
+      <c r="E121" s="81">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="F121" s="81">
         <f>E121-D121</f>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -34657,7 +34695,7 @@
         <v>0.38472222222222224</v>
       </c>
       <c r="K123" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -34689,7 +34727,7 @@
     <row r="125" spans="1:11">
       <c r="A125" s="99"/>
       <c r="B125" s="80" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="C125" s="80" t="s">
         <v>504</v>
@@ -34790,10 +34828,10 @@
         <v>3.472222222222221E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:11">
       <c r="A129" s="99"/>
       <c r="B129" s="80" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="C129" s="80" t="s">
         <v>510</v>
@@ -34816,10 +34854,10 @@
         <v>0.55138888888888882</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:11">
       <c r="A130" s="99"/>
       <c r="B130" s="80" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C130" s="80" t="s">
         <v>504</v>
@@ -34836,7 +34874,7 @@
       </c>
       <c r="I130" s="84"/>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:11">
       <c r="A131" s="99"/>
       <c r="B131" s="80" t="s">
         <v>869</v>
@@ -34856,10 +34894,10 @@
       </c>
       <c r="I131" s="84"/>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:11">
       <c r="A132" s="99"/>
       <c r="B132" s="80" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C132" s="80" t="s">
         <v>504</v>
@@ -34875,10 +34913,10 @@
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:11">
       <c r="A133" s="99"/>
       <c r="B133" s="80" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C133" s="80" t="s">
         <v>504</v>
@@ -34894,7 +34932,7 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:11">
       <c r="A134" s="99"/>
       <c r="B134" s="80" t="s">
         <v>888</v>
@@ -34913,10 +34951,10 @@
         <v>1.388888888888884E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:11">
       <c r="A135" s="99"/>
       <c r="B135" s="80" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C135" s="80" t="s">
         <v>504</v>
@@ -34932,10 +34970,10 @@
         <v>2.777777777777779E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:11">
       <c r="A136" s="99"/>
       <c r="B136" s="80" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C136" s="80" t="s">
         <v>504</v>
@@ -34951,7 +34989,7 @@
         <v>8.2638888888888928E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:11">
       <c r="A137" s="99" t="s">
         <v>647</v>
       </c>
@@ -34977,11 +35015,14 @@
       <c r="I137" s="79" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="K137" s="82" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="99"/>
       <c r="B138" s="80" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C138" s="80" t="s">
         <v>504</v>
@@ -34990,21 +35031,24 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="E138" s="81">
-        <v>0.5</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="F138" s="81">
         <f>E138-D138</f>
-        <v>0.10416666666666669</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H138" s="83" t="s">
         <v>504</v>
       </c>
       <c r="I138" s="81">
         <f>SUMIFS(F137:F151, C137:C151,H138)</f>
-        <v>0.29166666666666657</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>0.29861111111111099</v>
+      </c>
+      <c r="K138" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="99"/>
       <c r="B139" s="80" t="s">
         <v>520</v>
@@ -35016,11 +35060,11 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="E139" s="81">
-        <v>0.51041666666666663</v>
+        <v>0.51736111111111105</v>
       </c>
       <c r="F139" s="81">
         <f>E139-D139</f>
-        <v>3.4722222222222099E-3</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H139" s="83" t="s">
         <v>508</v>
@@ -35030,7 +35074,7 @@
         <v>1.3888888888888895E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:11">
       <c r="A140" s="99"/>
       <c r="B140" s="80" t="s">
         <v>511</v>
@@ -35056,7 +35100,7 @@
         <v>5.208333333333337E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:11">
       <c r="A141" s="99"/>
       <c r="B141" s="80" t="s">
         <v>518</v>
@@ -35082,7 +35126,7 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:11">
       <c r="A142" s="99"/>
       <c r="B142" s="80" t="s">
         <v>528</v>
@@ -35108,10 +35152,10 @@
         <v>3.819444444444442E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:11">
       <c r="A143" s="99"/>
       <c r="B143" s="80" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="C143" s="80" t="s">
         <v>510</v>
@@ -35131,13 +35175,13 @@
       </c>
       <c r="I143" s="81">
         <f>SUMIFS(F137:F151, C137:C151,H143)</f>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>3.819444444444442E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="99"/>
       <c r="B144" s="80" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="C144" s="80" t="s">
         <v>504</v>
@@ -35157,13 +35201,13 @@
       </c>
       <c r="I144" s="79">
         <f>SUM(I138:I143)</f>
-        <v>0.44791666666666663</v>
+        <v>0.46180555555555547</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="99"/>
       <c r="B145" s="80" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="C145" s="80" t="s">
         <v>510</v>
@@ -35183,7 +35227,7 @@
     <row r="146" spans="1:9">
       <c r="A146" s="99"/>
       <c r="B146" s="80" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="C146" s="80" t="s">
         <v>504</v>
@@ -35203,7 +35247,7 @@
     <row r="147" spans="1:9">
       <c r="A147" s="99"/>
       <c r="B147" s="80" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C147" s="80" t="s">
         <v>504</v>
@@ -35241,7 +35285,7 @@
     <row r="149" spans="1:9">
       <c r="A149" s="99"/>
       <c r="B149" s="80" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="C149" s="80" t="s">
         <v>504</v>
@@ -35309,7 +35353,7 @@
     <row r="153" spans="1:9">
       <c r="A153" s="99"/>
       <c r="B153" s="80" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="C153" s="80" t="s">
         <v>504</v>
@@ -35318,37 +35362,37 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="E153" s="81">
-        <v>0.41666666666666669</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="F153" s="81">
         <f>E153-D153</f>
-        <v>2.083333333333337E-2</v>
+        <v>3.4722222222222265E-2</v>
       </c>
       <c r="H153" s="83" t="s">
         <v>504</v>
       </c>
       <c r="I153" s="81">
         <f>SUMIFS(F152:F166, C152:C166,H153)</f>
-        <v>0.20138888888888895</v>
+        <v>0.2326388888888889</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="99"/>
       <c r="B154" s="80" t="s">
-        <v>792</v>
+        <v>943</v>
       </c>
       <c r="C154" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D154" s="81">
-        <v>0.41666666666666669</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="E154" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="F154" s="81">
         <f>E154-D154</f>
-        <v>6.25E-2</v>
+        <v>7.9861111111111049E-2</v>
       </c>
       <c r="H154" s="83" t="s">
         <v>508</v>
@@ -35360,20 +35404,20 @@
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="99"/>
-      <c r="B155" s="80" t="s">
-        <v>642</v>
+      <c r="B155" t="s">
+        <v>792</v>
       </c>
       <c r="C155" s="80" t="s">
-        <v>512</v>
-      </c>
-      <c r="D155" s="81">
+        <v>516</v>
+      </c>
+      <c r="D155" s="84">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E155" s="84">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E155" s="81">
-        <v>0.55902777777777779</v>
-      </c>
       <c r="F155" s="81">
-        <f>E155-D155</f>
+        <f>E156-D156</f>
         <v>3.819444444444442E-2</v>
       </c>
       <c r="H155" s="83" t="s">
@@ -35387,19 +35431,19 @@
     <row r="156" spans="1:9">
       <c r="A156" s="99"/>
       <c r="B156" s="80" t="s">
-        <v>518</v>
+        <v>642</v>
       </c>
       <c r="C156" s="80" t="s">
         <v>516</v>
       </c>
       <c r="D156" s="81">
-        <v>0.54166666666666663</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E156" s="81">
-        <v>0.57291666666666663</v>
+        <v>0.55902777777777779</v>
       </c>
       <c r="F156" s="81">
-        <f>E156-D156</f>
+        <f>E157-D157</f>
         <v>3.125E-2</v>
       </c>
       <c r="H156" s="83" t="s">
@@ -35413,19 +35457,19 @@
     <row r="157" spans="1:9">
       <c r="A157" s="99"/>
       <c r="B157" s="80" t="s">
-        <v>940</v>
+        <v>518</v>
       </c>
       <c r="C157" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D157" s="81">
-        <v>0.59375</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E157" s="81">
-        <v>0.61458333333333337</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="F157" s="81">
-        <f>E157-D157</f>
+        <f>E158-D158</f>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H157" s="83" t="s">
@@ -35433,25 +35477,25 @@
       </c>
       <c r="I157" s="81">
         <f>SUMIFS(F152:F166, C152:C166,H157)</f>
-        <v>3.819444444444442E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="99"/>
       <c r="B158" s="80" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="C158" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D158" s="81">
+        <v>0.59375</v>
+      </c>
+      <c r="E158" s="81">
         <v>0.61458333333333337</v>
       </c>
-      <c r="E158" s="81">
-        <v>0.62847222222222221</v>
-      </c>
       <c r="F158" s="81">
-        <f>E158-D158</f>
+        <f>E159-D159</f>
         <v>1.388888888888884E-2</v>
       </c>
       <c r="H158" s="83" t="s">
@@ -35459,25 +35503,25 @@
       </c>
       <c r="I158" s="81">
         <f>SUMIFS(F152:F166, C152:C166,H158)</f>
-        <v>4.166666666666663E-2</v>
+        <v>7.9861111111111049E-2</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="99"/>
       <c r="B159" s="80" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="C159" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D159" s="81">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E159" s="81">
         <v>0.62847222222222221</v>
       </c>
-      <c r="E159" s="81">
-        <v>0.67013888888888884</v>
-      </c>
       <c r="F159" s="81">
-        <f>E159-D159</f>
+        <f>E160-D160</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="H159" s="78" t="s">
@@ -35485,25 +35529,25 @@
       </c>
       <c r="I159" s="79">
         <f>SUM(I153:I158)</f>
-        <v>0.34375</v>
+        <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="99"/>
       <c r="B160" s="80" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="C160" s="80" t="s">
         <v>510</v>
       </c>
       <c r="D160" s="81">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="E160" s="81">
         <v>0.67013888888888884</v>
       </c>
-      <c r="E160" s="81">
-        <v>0.71875</v>
-      </c>
       <c r="F160" s="81">
-        <f>E160-D160</f>
+        <f>E161-D161</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I160" s="84"/>
@@ -35511,19 +35555,19 @@
     <row r="161" spans="1:9">
       <c r="A161" s="99"/>
       <c r="B161" s="80" t="s">
-        <v>521</v>
+        <v>947</v>
       </c>
       <c r="C161" s="80" t="s">
         <v>516</v>
       </c>
       <c r="D161" s="81">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="E161" s="81">
         <v>0.71875</v>
       </c>
-      <c r="E161" s="81">
-        <v>0.72916666666666663</v>
-      </c>
       <c r="F161" s="81">
-        <f>E161-D161</f>
+        <f>E162-D162</f>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="I161" s="84"/>
@@ -35531,36 +35575,38 @@
     <row r="162" spans="1:9">
       <c r="A162" s="99"/>
       <c r="B162" s="80" t="s">
-        <v>944</v>
+        <v>521</v>
       </c>
       <c r="C162" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D162" s="81">
+        <v>0.71875</v>
+      </c>
+      <c r="E162" s="81">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E162" s="81">
-        <v>0.77083333333333337</v>
-      </c>
       <c r="F162" s="81">
-        <f>E162-D162</f>
+        <f>E163-D163</f>
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="99"/>
-      <c r="B163" s="80"/>
+      <c r="B163" s="80" t="s">
+        <v>948</v>
+      </c>
       <c r="C163" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D163" s="81">
-        <v>0</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E163" s="81">
-        <v>0</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="F163" s="81">
-        <f>E163-D163</f>
+        <f>E164-D164</f>
         <v>0</v>
       </c>
     </row>
@@ -35568,11 +35614,15 @@
       <c r="A164" s="99"/>
       <c r="B164" s="80"/>
       <c r="C164" s="80"/>
-      <c r="D164" s="81"/>
-      <c r="E164" s="81"/>
-      <c r="F164" s="81">
-        <f>E164-D164</f>
-        <v>0</v>
+      <c r="D164" s="81">
+        <v>0</v>
+      </c>
+      <c r="E164" s="81">
+        <v>0</v>
+      </c>
+      <c r="F164" s="81" t="e">
+        <f>#REF!-#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="165" spans="1:9">

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{292AC8C1-C66F-4169-89A7-06EE626624BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{599D97D6-2A2D-4324-8CF5-DAF89F0E608C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="24" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3720" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="954">
   <si>
     <t>Resource Name</t>
   </si>
@@ -2905,6 +2905,9 @@
     <t>Worked on service in add,edit angular</t>
   </si>
   <si>
+    <t>web api service integration</t>
+  </si>
+  <si>
     <t>College review</t>
   </si>
   <si>
@@ -2992,60 +2995,66 @@
     <t>Resolving error in ReferenceLoopHandling</t>
   </si>
   <si>
+    <t>Angular and webAPI integration session and working on it</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Interpolation and Binding &gt;</t>
+  </si>
+  <si>
+    <t>working on angular component topic list</t>
+  </si>
+  <si>
+    <t>Angular Component Creating (Viewmom,assignreview,cancelreview,completereview,view Attendance)</t>
+  </si>
+  <si>
+    <t>Correction in Angular Component(View Attendance)</t>
+  </si>
+  <si>
+    <t>Explored on the concepts of String Interpolation and  Binding</t>
+  </si>
+  <si>
+    <t>Reviewed the HTML pages(Create Topic, Delete Topic)</t>
+  </si>
+  <si>
+    <t>Worked on Angular component list</t>
+  </si>
+  <si>
+    <t>Angular for Listpages</t>
+  </si>
+  <si>
+    <t>Angular components  for (</t>
+  </si>
+  <si>
+    <t>Refined on angular components(trainee,trainer,coordinator list)</t>
+  </si>
+  <si>
+    <t>Working on user(Trainee list )</t>
+  </si>
+  <si>
+    <t>Customer meeting with rafi</t>
+  </si>
+  <si>
+    <t>Team meeting for splitting of topics</t>
+  </si>
+  <si>
+    <t>Session on creating services by Gokul</t>
+  </si>
+  <si>
+    <t>Worked on review service(GetReviewById)</t>
+  </si>
+  <si>
+    <t>Worked on review services (GetReviewByStatus)</t>
+  </si>
+  <si>
+    <t>Resolving errors in  review services</t>
+  </si>
+  <si>
+    <t>Worked on review Controller</t>
+  </si>
+  <si>
     <t>Angular and webAPI integration session</t>
   </si>
   <si>
-    <t>Working on Integration</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;Interpolation and Binding &gt;</t>
-  </si>
-  <si>
-    <t>working on angular component topic list</t>
-  </si>
-  <si>
-    <t>Angular Component Creating (Viewmom,assignreview,cancelreview,completereview,view Attendance)</t>
-  </si>
-  <si>
-    <t>Correction in Angular Component(View Attendance)</t>
-  </si>
-  <si>
-    <t>Explored on the concepts of String Interpolation and  Binding</t>
-  </si>
-  <si>
-    <t>Reviewed the HTML pages(Create Topic, Delete Topic)</t>
-  </si>
-  <si>
-    <t>Worked on Angular component list</t>
-  </si>
-  <si>
-    <t>Angular for Listpages</t>
-  </si>
-  <si>
-    <t>Angular components  for (</t>
-  </si>
-  <si>
-    <t>Customer meeting with rafi</t>
-  </si>
-  <si>
-    <t>Team meeting for splitting of topics</t>
-  </si>
-  <si>
-    <t>Session on creating services by Gokul</t>
-  </si>
-  <si>
-    <t>Worked on review service(GetReviewById)</t>
-  </si>
-  <si>
-    <t>Worked on review services (GetReviewByStatus)</t>
-  </si>
-  <si>
-    <t>Resolving errors in  review services</t>
-  </si>
-  <si>
-    <t>Worked on review Controller</t>
-  </si>
-  <si>
     <t>Worked on integration</t>
   </si>
   <si>
@@ -3076,7 +3085,7 @@
     <t>Intergrating and working in depatment component</t>
   </si>
   <si>
-    <t>Intergrating angular and web api(department page)</t>
+    <t>Intergrating angular and web api</t>
   </si>
   <si>
     <t>Explaining webapi services by gokul and splitting services</t>
@@ -3106,13 +3115,19 @@
     <t>Session for services and splitting services</t>
   </si>
   <si>
-    <t>Worked on review service</t>
-  </si>
-  <si>
     <t>angular session by training team</t>
   </si>
   <si>
-    <t>refined review service</t>
+    <t>Review service(GetReviewByStatus)</t>
+  </si>
+  <si>
+    <t>Resolved errors in services</t>
+  </si>
+  <si>
+    <t>Angular Integration session</t>
+  </si>
+  <si>
+    <t>started Integration</t>
   </si>
 </sst>
 </file>
@@ -15231,8 +15246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC76B7DB-CD87-426B-A30F-75E6803D15E0}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18769,7 +18784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD8057D-5D0C-4D52-82F8-96895A370A83}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -21931,7 +21946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC8A043-7908-4F76-BC2B-AEF2FC38FA90}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -25014,7 +25029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60099D11-A512-4BF0-BF62-E7BD47F0C256}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B11" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -28289,8 +28304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA12A76-B97F-49A9-AC8E-2B1CB75AA6A1}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="H163" sqref="H163"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31944,8 +31959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490C0FB0-D79B-42A7-B070-C4769D6ECC67}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B125" workbookViewId="0">
-      <selection activeCell="K138" sqref="K138"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32076,7 +32091,7 @@
         <v>5.5555555555555469E-2</v>
       </c>
       <c r="K4" t="s">
-        <v>809</v>
+        <v>879</v>
       </c>
       <c r="Q4" t="s">
         <v>510</v>
@@ -32172,7 +32187,7 @@
     <row r="8" spans="1:17">
       <c r="A8" s="99"/>
       <c r="B8" s="80" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C8" s="80" t="s">
         <v>508</v>
@@ -32198,7 +32213,7 @@
     <row r="9" spans="1:17">
       <c r="A9" s="99"/>
       <c r="B9" s="80" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C9" s="80" t="s">
         <v>504</v>
@@ -32244,7 +32259,7 @@
     <row r="11" spans="1:17">
       <c r="A11" s="99"/>
       <c r="B11" s="80" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C11" s="80" t="s">
         <v>504</v>
@@ -32349,7 +32364,7 @@
     <row r="18" spans="1:11">
       <c r="A18" s="99"/>
       <c r="B18" s="80" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C18" s="80" t="s">
         <v>504</v>
@@ -32378,7 +32393,7 @@
     <row r="19" spans="1:11">
       <c r="A19" s="99"/>
       <c r="B19" s="80" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C19" s="80" t="s">
         <v>504</v>
@@ -32456,7 +32471,7 @@
     <row r="22" spans="1:11">
       <c r="A22" s="99"/>
       <c r="B22" s="80" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C22" s="80" t="s">
         <v>513</v>
@@ -32534,7 +32549,7 @@
     <row r="25" spans="1:11">
       <c r="A25" s="99"/>
       <c r="B25" s="80" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C25" s="80" t="s">
         <v>504</v>
@@ -32574,7 +32589,7 @@
     <row r="27" spans="1:11">
       <c r="A27" s="99"/>
       <c r="B27" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C27" t="s">
         <v>596</v>
@@ -32593,7 +32608,7 @@
     <row r="28" spans="1:11">
       <c r="A28" s="99"/>
       <c r="B28" s="80" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C28" s="80" t="s">
         <v>504</v>
@@ -32612,7 +32627,7 @@
     <row r="29" spans="1:11">
       <c r="A29" s="99"/>
       <c r="B29" s="80" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C29" s="80" t="s">
         <v>508</v>
@@ -32631,7 +32646,7 @@
     <row r="30" spans="1:11">
       <c r="A30" s="99"/>
       <c r="B30" s="80" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C30" s="80" t="s">
         <v>504</v>
@@ -32650,7 +32665,7 @@
     <row r="31" spans="1:11">
       <c r="A31" s="99"/>
       <c r="B31" s="80" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C31" s="80" t="s">
         <v>504</v>
@@ -33009,7 +33024,7 @@
     <row r="48" spans="1:11">
       <c r="A48" s="99"/>
       <c r="B48" s="80" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C48" s="80" t="s">
         <v>504</v>
@@ -33061,13 +33076,13 @@
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="K49" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="99"/>
       <c r="B50" s="80" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C50" s="80" t="s">
         <v>504</v>
@@ -33171,7 +33186,7 @@
     <row r="54" spans="1:11">
       <c r="A54" s="99"/>
       <c r="B54" s="80" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C54" s="80" t="s">
         <v>510</v>
@@ -33197,7 +33212,7 @@
     <row r="55" spans="1:11">
       <c r="A55" s="99"/>
       <c r="B55" s="80" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C55" s="80" t="s">
         <v>504</v>
@@ -33237,7 +33252,7 @@
     <row r="57" spans="1:11">
       <c r="A57" s="99"/>
       <c r="B57" s="80" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C57" s="80" t="s">
         <v>504</v>
@@ -33256,7 +33271,7 @@
     <row r="58" spans="1:11">
       <c r="A58" s="99"/>
       <c r="B58" s="80" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C58" s="80" t="s">
         <v>504</v>
@@ -33297,7 +33312,7 @@
     <row r="60" spans="1:11">
       <c r="A60" s="99"/>
       <c r="B60" s="80" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C60" s="80" t="s">
         <v>504</v>
@@ -33316,7 +33331,7 @@
     <row r="61" spans="1:11">
       <c r="A61" s="99"/>
       <c r="B61" s="80" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C61" s="80" t="s">
         <v>504</v>
@@ -33362,7 +33377,7 @@
     <row r="63" spans="1:11">
       <c r="A63" s="99"/>
       <c r="B63" s="80" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C63" s="80" t="s">
         <v>504</v>
@@ -33420,7 +33435,7 @@
     <row r="65" spans="1:11">
       <c r="A65" s="99"/>
       <c r="B65" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C65" s="80" t="s">
         <v>504</v>
@@ -33440,13 +33455,13 @@
       </c>
       <c r="I65" s="81">
         <f>SUMIFS(F62:F75, C62:C75,H65)</f>
-        <v>8.333333333333337E-2</v>
+        <v>0.11458333333333337</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="99"/>
       <c r="B66" s="80" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C66" s="80" t="s">
         <v>512</v>
@@ -33524,7 +33539,7 @@
     <row r="69" spans="1:11">
       <c r="A69" s="99"/>
       <c r="B69" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C69" s="80" t="s">
         <v>510</v>
@@ -33544,13 +33559,13 @@
       </c>
       <c r="I69" s="79">
         <f>SUM(I63:I68)</f>
-        <v>0.43402777777777779</v>
+        <v>0.46527777777777779</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="99"/>
       <c r="B70" s="18" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C70" s="80" t="s">
         <v>504</v>
@@ -33570,7 +33585,7 @@
     <row r="71" spans="1:11">
       <c r="A71" s="99"/>
       <c r="B71" s="80" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C71" s="80" t="s">
         <v>510</v>
@@ -33590,7 +33605,7 @@
     <row r="72" spans="1:11">
       <c r="A72" s="99"/>
       <c r="B72" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C72" s="80" t="s">
         <v>504</v>
@@ -33609,7 +33624,7 @@
     <row r="73" spans="1:11">
       <c r="A73" s="99"/>
       <c r="B73" s="80" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C73" s="80" t="s">
         <v>504</v>
@@ -33628,7 +33643,7 @@
     <row r="74" spans="1:11">
       <c r="A74" s="99"/>
       <c r="B74" s="80" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C74" s="80" t="s">
         <v>504</v>
@@ -33647,7 +33662,7 @@
     <row r="75" spans="1:11">
       <c r="A75" s="99"/>
       <c r="B75" s="80" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C75" s="80" t="s">
         <v>510</v>
@@ -33656,31 +33671,20 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E75" s="81">
-        <v>0.8125</v>
+        <v>0.84375</v>
       </c>
       <c r="F75" s="81">
         <f>E75-D75</f>
-        <v>2.083333333333337E-2</v>
+        <v>5.208333333333337E-2</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="99"/>
-      <c r="B76" t="s">
-        <v>909</v>
-      </c>
-      <c r="C76" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D76" s="81">
-        <v>0.8125</v>
-      </c>
-      <c r="E76" s="81">
-        <v>0.84375</v>
-      </c>
-      <c r="F76" s="81">
-        <f>E76-D76</f>
-        <v>3.125E-2</v>
-      </c>
+      <c r="B76" s="80"/>
+      <c r="C76" s="80"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="81"/>
+      <c r="F76" s="81"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="99" t="s">
@@ -33796,7 +33800,7 @@
         <v>660</v>
       </c>
       <c r="C81" s="80" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D81" s="81">
         <v>0.52083333333333337</v>
@@ -33813,7 +33817,7 @@
       </c>
       <c r="I81" s="81">
         <f>SUMIFS(F77:F91, C77:C91,H81)</f>
-        <v>7.291666666666663E-2</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="K81" t="s">
         <v>847</v>
@@ -33842,7 +33846,7 @@
       </c>
       <c r="I82" s="81">
         <f>SUMIFS(F77:F91, C77:C91,H82)</f>
-        <v>0</v>
+        <v>3.819444444444442E-2</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -33874,7 +33878,7 @@
     <row r="84" spans="1:11">
       <c r="A84" s="99"/>
       <c r="B84" s="80" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C84" s="80" t="s">
         <v>504</v>
@@ -34313,11 +34317,11 @@
         <v>0.375</v>
       </c>
       <c r="E107" s="81">
-        <v>0.39583333333333331</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="F107" s="81">
         <f>E107-D107</f>
-        <v>2.0833333333333315E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H107" s="79" t="s">
         <v>505</v>
@@ -34328,26 +34332,28 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="99"/>
-      <c r="B108" s="80"/>
+      <c r="B108" s="80" t="s">
+        <v>919</v>
+      </c>
       <c r="C108" s="80" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D108" s="81">
-        <v>0.38541666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E108" s="81">
         <v>0.4375</v>
       </c>
       <c r="F108" s="81">
         <f>E108-D108</f>
-        <v>5.2083333333333315E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H108" s="83" t="s">
         <v>504</v>
       </c>
       <c r="I108" s="81">
         <f>SUMIFS(F107:F121, C107:C121,H108)</f>
-        <v>0.2083333333333332</v>
+        <v>0.28819444444444436</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -34373,40 +34379,42 @@
       </c>
       <c r="I109" s="81">
         <f>SUMIFS(F107:F121, C107:C121,H109)</f>
-        <v>5.2083333333333315E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="99"/>
-      <c r="B110" s="80"/>
+      <c r="B110" s="80" t="s">
+        <v>920</v>
+      </c>
       <c r="C110" s="80" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D110" s="81">
-        <v>0.44791666666666669</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="E110" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="F110" s="81">
         <f>E110-D110</f>
-        <v>3.125E-2</v>
+        <v>4.8611111111111105E-2</v>
       </c>
       <c r="H110" s="83" t="s">
         <v>510</v>
       </c>
       <c r="I110" s="81">
         <f>SUMIFS(F107:F121, C107:C121,H110)</f>
-        <v>8.333333333333337E-2</v>
+        <v>5.208333333333337E-2</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="99"/>
       <c r="B111" s="80" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="C111" s="80" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D111" s="81">
         <v>0.52083333333333337</v>
@@ -34423,7 +34431,7 @@
       </c>
       <c r="I111" s="81">
         <f>SUMIFS(F107:F121, C107:C121,H111)</f>
-        <v>6.25E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -34449,13 +34457,13 @@
       </c>
       <c r="I112" s="81">
         <f>SUMIFS(F107:F121, C107:C121,H112)</f>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="99"/>
       <c r="B113" s="80" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="C113" s="80" t="s">
         <v>513</v>
@@ -34481,7 +34489,7 @@
     <row r="114" spans="1:11">
       <c r="A114" s="99"/>
       <c r="B114" s="80" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C114" s="80" t="s">
         <v>504</v>
@@ -34501,13 +34509,13 @@
       </c>
       <c r="I114" s="79">
         <f>SUM(I108:I113)</f>
-        <v>0.44444444444444436</v>
+        <v>0.44097222222222221</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="99"/>
       <c r="B115" s="80" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="C115" s="80" t="s">
         <v>504</v>
@@ -34527,7 +34535,7 @@
     <row r="116" spans="1:11">
       <c r="A116" s="99"/>
       <c r="B116" s="80" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C116" s="80" t="s">
         <v>510</v>
@@ -34547,7 +34555,7 @@
     <row r="117" spans="1:11">
       <c r="A117" s="99"/>
       <c r="B117" s="80" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="C117" s="80" t="s">
         <v>504</v>
@@ -34566,7 +34574,7 @@
     <row r="118" spans="1:11">
       <c r="A118" s="99"/>
       <c r="B118" s="80" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="C118" s="80" t="s">
         <v>504</v>
@@ -34585,7 +34593,7 @@
     <row r="119" spans="1:11">
       <c r="A119" s="99"/>
       <c r="B119" s="80" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C119" s="80" t="s">
         <v>504</v>
@@ -34604,7 +34612,7 @@
     <row r="120" spans="1:11">
       <c r="A120" s="99"/>
       <c r="B120" s="80" t="s">
-        <v>908</v>
+        <v>928</v>
       </c>
       <c r="C120" s="80" t="s">
         <v>504</v>
@@ -34623,7 +34631,7 @@
     <row r="121" spans="1:11">
       <c r="A121" s="99"/>
       <c r="B121" s="80" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="C121" s="80" t="s">
         <v>504</v>
@@ -34695,7 +34703,7 @@
         <v>0.38472222222222224</v>
       </c>
       <c r="K123" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -34727,7 +34735,7 @@
     <row r="125" spans="1:11">
       <c r="A125" s="99"/>
       <c r="B125" s="80" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="C125" s="80" t="s">
         <v>504</v>
@@ -34831,7 +34839,7 @@
     <row r="129" spans="1:11">
       <c r="A129" s="99"/>
       <c r="B129" s="80" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="C129" s="80" t="s">
         <v>510</v>
@@ -34857,7 +34865,7 @@
     <row r="130" spans="1:11">
       <c r="A130" s="99"/>
       <c r="B130" s="80" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="C130" s="80" t="s">
         <v>504</v>
@@ -34897,7 +34905,7 @@
     <row r="132" spans="1:11">
       <c r="A132" s="99"/>
       <c r="B132" s="80" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="C132" s="80" t="s">
         <v>504</v>
@@ -34916,7 +34924,7 @@
     <row r="133" spans="1:11">
       <c r="A133" s="99"/>
       <c r="B133" s="80" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="C133" s="80" t="s">
         <v>504</v>
@@ -34935,7 +34943,7 @@
     <row r="134" spans="1:11">
       <c r="A134" s="99"/>
       <c r="B134" s="80" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C134" s="80" t="s">
         <v>508</v>
@@ -34954,7 +34962,7 @@
     <row r="135" spans="1:11">
       <c r="A135" s="99"/>
       <c r="B135" s="80" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="C135" s="80" t="s">
         <v>504</v>
@@ -34973,7 +34981,7 @@
     <row r="136" spans="1:11">
       <c r="A136" s="99"/>
       <c r="B136" s="80" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="C136" s="80" t="s">
         <v>504</v>
@@ -35022,7 +35030,7 @@
     <row r="138" spans="1:11">
       <c r="A138" s="99"/>
       <c r="B138" s="80" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="C138" s="80" t="s">
         <v>504</v>
@@ -35045,7 +35053,7 @@
         <v>0.29861111111111099</v>
       </c>
       <c r="K138" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -35155,7 +35163,7 @@
     <row r="143" spans="1:11">
       <c r="A143" s="99"/>
       <c r="B143" s="80" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="C143" s="80" t="s">
         <v>510</v>
@@ -35181,7 +35189,7 @@
     <row r="144" spans="1:11">
       <c r="A144" s="99"/>
       <c r="B144" s="80" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="C144" s="80" t="s">
         <v>504</v>
@@ -35207,7 +35215,7 @@
     <row r="145" spans="1:9">
       <c r="A145" s="99"/>
       <c r="B145" s="80" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="C145" s="80" t="s">
         <v>510</v>
@@ -35227,7 +35235,7 @@
     <row r="146" spans="1:9">
       <c r="A146" s="99"/>
       <c r="B146" s="80" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="C146" s="80" t="s">
         <v>504</v>
@@ -35247,7 +35255,7 @@
     <row r="147" spans="1:9">
       <c r="A147" s="99"/>
       <c r="B147" s="80" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="C147" s="80" t="s">
         <v>504</v>
@@ -35266,7 +35274,7 @@
     <row r="148" spans="1:9">
       <c r="A148" s="99"/>
       <c r="B148" s="80" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C148" s="80" t="s">
         <v>504</v>
@@ -35285,7 +35293,7 @@
     <row r="149" spans="1:9">
       <c r="A149" s="99"/>
       <c r="B149" s="80" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="C149" s="80" t="s">
         <v>504</v>
@@ -35353,7 +35361,7 @@
     <row r="153" spans="1:9">
       <c r="A153" s="99"/>
       <c r="B153" s="80" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="C153" s="80" t="s">
         <v>504</v>
@@ -35373,13 +35381,13 @@
       </c>
       <c r="I153" s="81">
         <f>SUMIFS(F152:F166, C152:C166,H153)</f>
-        <v>0.2326388888888889</v>
+        <v>0.30555555555555552</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="99"/>
       <c r="B154" s="80" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="C154" s="80" t="s">
         <v>504</v>
@@ -35404,20 +35412,20 @@
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="99"/>
-      <c r="B155" t="s">
-        <v>792</v>
+      <c r="B155" s="80" t="s">
+        <v>642</v>
       </c>
       <c r="C155" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D155" s="84">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="E155" s="84">
+        <v>512</v>
+      </c>
+      <c r="D155" s="81">
         <v>0.52083333333333337</v>
       </c>
+      <c r="E155" s="81">
+        <v>0.55902777777777779</v>
+      </c>
       <c r="F155" s="81">
-        <f>E156-D156</f>
+        <f>E155-D155</f>
         <v>3.819444444444442E-2</v>
       </c>
       <c r="H155" s="83" t="s">
@@ -35431,19 +35439,19 @@
     <row r="156" spans="1:9">
       <c r="A156" s="99"/>
       <c r="B156" s="80" t="s">
-        <v>642</v>
+        <v>518</v>
       </c>
       <c r="C156" s="80" t="s">
         <v>516</v>
       </c>
       <c r="D156" s="81">
-        <v>0.52083333333333337</v>
+        <v>0.55902777777777779</v>
       </c>
       <c r="E156" s="81">
-        <v>0.55902777777777779</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="F156" s="81">
-        <f>E157-D157</f>
+        <f>E156-D156</f>
         <v>3.125E-2</v>
       </c>
       <c r="H156" s="83" t="s">
@@ -35457,19 +35465,19 @@
     <row r="157" spans="1:9">
       <c r="A157" s="99"/>
       <c r="B157" s="80" t="s">
-        <v>518</v>
+        <v>947</v>
       </c>
       <c r="C157" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D157" s="81">
-        <v>0.54166666666666663</v>
+        <v>0.59375</v>
       </c>
       <c r="E157" s="81">
-        <v>0.57291666666666663</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="F157" s="81">
-        <f>E158-D158</f>
+        <f>E157-D157</f>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H157" s="83" t="s">
@@ -35477,25 +35485,25 @@
       </c>
       <c r="I157" s="81">
         <f>SUMIFS(F152:F166, C152:C166,H157)</f>
-        <v>0</v>
+        <v>3.819444444444442E-2</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="99"/>
       <c r="B158" s="80" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="C158" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D158" s="81">
-        <v>0.59375</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="E158" s="81">
-        <v>0.61458333333333337</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="F158" s="81">
-        <f>E159-D159</f>
+        <f>E158-D158</f>
         <v>1.388888888888884E-2</v>
       </c>
       <c r="H158" s="83" t="s">
@@ -35503,25 +35511,25 @@
       </c>
       <c r="I158" s="81">
         <f>SUMIFS(F152:F166, C152:C166,H158)</f>
-        <v>7.9861111111111049E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="99"/>
       <c r="B159" s="80" t="s">
-        <v>945</v>
+        <v>924</v>
       </c>
       <c r="C159" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D159" s="81">
-        <v>0.61458333333333337</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="E159" s="81">
-        <v>0.62847222222222221</v>
+        <v>0.67013888888888884</v>
       </c>
       <c r="F159" s="81">
-        <f>E160-D160</f>
+        <f>E159-D159</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="H159" s="78" t="s">
@@ -35529,25 +35537,25 @@
       </c>
       <c r="I159" s="79">
         <f>SUM(I153:I158)</f>
-        <v>0.37499999999999994</v>
+        <v>0.44791666666666657</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="99"/>
       <c r="B160" s="80" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C160" s="80" t="s">
         <v>510</v>
       </c>
       <c r="D160" s="81">
-        <v>0.62847222222222221</v>
+        <v>0.67013888888888884</v>
       </c>
       <c r="E160" s="81">
-        <v>0.67013888888888884</v>
+        <v>0.71875</v>
       </c>
       <c r="F160" s="81">
-        <f>E161-D161</f>
+        <f>E160-D160</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I160" s="84"/>
@@ -35555,19 +35563,19 @@
     <row r="161" spans="1:9">
       <c r="A161" s="99"/>
       <c r="B161" s="80" t="s">
-        <v>947</v>
+        <v>521</v>
       </c>
       <c r="C161" s="80" t="s">
         <v>516</v>
       </c>
       <c r="D161" s="81">
-        <v>0.67013888888888884</v>
+        <v>0.71875</v>
       </c>
       <c r="E161" s="81">
-        <v>0.71875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="F161" s="81">
-        <f>E162-D162</f>
+        <f>E161-D161</f>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="I161" s="84"/>
@@ -35575,7 +35583,7 @@
     <row r="162" spans="1:9">
       <c r="A162" s="99"/>
       <c r="B162" s="80" t="s">
-        <v>521</v>
+        <v>950</v>
       </c>
       <c r="C162" s="80" t="s">
         <v>504</v>
@@ -35584,56 +35592,68 @@
         <v>0.71875</v>
       </c>
       <c r="E162" s="81">
-        <v>0.72916666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="F162" s="81">
-        <f>E163-D163</f>
-        <v>4.1666666666666741E-2</v>
+        <f>E162-D162</f>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="99"/>
       <c r="B163" s="80" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="C163" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D163" s="81">
-        <v>0.72916666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="E163" s="81">
-        <v>0.77083333333333337</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="F163" s="81">
-        <f>E164-D164</f>
-        <v>0</v>
+        <f>E163-D163</f>
+        <v>1.388888888888884E-2</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="99"/>
-      <c r="B164" s="80"/>
-      <c r="C164" s="80"/>
+      <c r="B164" s="80" t="s">
+        <v>952</v>
+      </c>
+      <c r="C164" s="80" t="s">
+        <v>504</v>
+      </c>
       <c r="D164" s="81">
-        <v>0</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E164" s="81">
-        <v>0</v>
-      </c>
-      <c r="F164" s="81" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+        <v>0.8125</v>
+      </c>
+      <c r="F164" s="81">
+        <f>E164-D164</f>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="99"/>
-      <c r="B165" s="80"/>
-      <c r="C165" s="80"/>
-      <c r="D165" s="81"/>
-      <c r="E165" s="81"/>
+      <c r="B165" s="80" t="s">
+        <v>953</v>
+      </c>
+      <c r="C165" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D165" s="81">
+        <v>0.8125</v>
+      </c>
+      <c r="E165" s="81">
+        <v>0.86111111111111116</v>
+      </c>
       <c r="F165" s="81">
         <f>E165-D165</f>
-        <v>0</v>
+        <v>4.861111111111116E-2</v>
       </c>
     </row>
     <row r="166" spans="1:9">

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{292AC8C1-C66F-4169-89A7-06EE626624BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BA8B43B-B649-49EA-AD06-8AC7B7D6A4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="24" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3720" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="955">
   <si>
     <t>Resource Name</t>
   </si>
@@ -2905,6 +2905,9 @@
     <t>Worked on service in add,edit angular</t>
   </si>
   <si>
+    <t>web api service integration</t>
+  </si>
+  <si>
     <t>College review</t>
   </si>
   <si>
@@ -2968,6 +2971,9 @@
     <t>Worked on sidebar and navbar</t>
   </si>
   <si>
+    <t>Services for Create ,update and it's integration</t>
+  </si>
+  <si>
     <t>Refinding the sidebar and watching video</t>
   </si>
   <si>
@@ -2992,60 +2998,66 @@
     <t>Resolving error in ReferenceLoopHandling</t>
   </si>
   <si>
+    <t>Angular and webAPI integration session and working on it</t>
+  </si>
+  <si>
+    <t>Learned Angular &lt;Interpolation and Binding &gt;</t>
+  </si>
+  <si>
+    <t>working on angular component topic list</t>
+  </si>
+  <si>
+    <t>Angular Component Creating (Viewmom,assignreview,cancelreview,completereview,view Attendance)</t>
+  </si>
+  <si>
+    <t>Correction in Angular Component(View Attendance)</t>
+  </si>
+  <si>
+    <t>Explored on the concepts of String Interpolation and  Binding</t>
+  </si>
+  <si>
+    <t>Reviewed the HTML pages(Create Topic, Delete Topic)</t>
+  </si>
+  <si>
+    <t>Worked on Angular component list</t>
+  </si>
+  <si>
+    <t>Angular for Listpages</t>
+  </si>
+  <si>
+    <t>Angular components  for (</t>
+  </si>
+  <si>
+    <t>Refined on angular components(trainee,trainer,coordinator list)</t>
+  </si>
+  <si>
+    <t>Worked on angular component (reviewer,review,reviewdetails)</t>
+  </si>
+  <si>
+    <t>Customer meeting with rafi</t>
+  </si>
+  <si>
+    <t>Team meeting for splitting of topics</t>
+  </si>
+  <si>
+    <t>Session on creating services by Gokul</t>
+  </si>
+  <si>
+    <t>Worked on review service(GetReviewById)</t>
+  </si>
+  <si>
+    <t>Worked on review services (GetReviewByStatus)</t>
+  </si>
+  <si>
+    <t>Resolving errors in  review services</t>
+  </si>
+  <si>
+    <t>Worked on review Controller</t>
+  </si>
+  <si>
     <t>Angular and webAPI integration session</t>
   </si>
   <si>
-    <t>Working on Integration</t>
-  </si>
-  <si>
-    <t>Learned Angular &lt;Interpolation and Binding &gt;</t>
-  </si>
-  <si>
-    <t>working on angular component topic list</t>
-  </si>
-  <si>
-    <t>Angular Component Creating (Viewmom,assignreview,cancelreview,completereview,view Attendance)</t>
-  </si>
-  <si>
-    <t>Correction in Angular Component(View Attendance)</t>
-  </si>
-  <si>
-    <t>Explored on the concepts of String Interpolation and  Binding</t>
-  </si>
-  <si>
-    <t>Reviewed the HTML pages(Create Topic, Delete Topic)</t>
-  </si>
-  <si>
-    <t>Worked on Angular component list</t>
-  </si>
-  <si>
-    <t>Angular for Listpages</t>
-  </si>
-  <si>
-    <t>Angular components  for (</t>
-  </si>
-  <si>
-    <t>Customer meeting with rafi</t>
-  </si>
-  <si>
-    <t>Team meeting for splitting of topics</t>
-  </si>
-  <si>
-    <t>Session on creating services by Gokul</t>
-  </si>
-  <si>
-    <t>Worked on review service(GetReviewById)</t>
-  </si>
-  <si>
-    <t>Worked on review services (GetReviewByStatus)</t>
-  </si>
-  <si>
-    <t>Resolving errors in  review services</t>
-  </si>
-  <si>
-    <t>Worked on review Controller</t>
-  </si>
-  <si>
     <t>Worked on integration</t>
   </si>
   <si>
@@ -3076,7 +3088,7 @@
     <t>Intergrating and working in depatment component</t>
   </si>
   <si>
-    <t>Intergrating angular and web api(department page)</t>
+    <t>Intergrating angular and web api</t>
   </si>
   <si>
     <t>Explaining webapi services by gokul and splitting services</t>
@@ -3106,13 +3118,19 @@
     <t>Session for services and splitting services</t>
   </si>
   <si>
-    <t>Worked on review service</t>
-  </si>
-  <si>
     <t>angular session by training team</t>
   </si>
   <si>
-    <t>refined review service</t>
+    <t>Review service(GetReviewByStatus)</t>
+  </si>
+  <si>
+    <t>Resolved errors in services</t>
+  </si>
+  <si>
+    <t>Angular Integration session</t>
+  </si>
+  <si>
+    <t>started Integration</t>
   </si>
 </sst>
 </file>
@@ -15231,8 +15249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC76B7DB-CD87-426B-A30F-75E6803D15E0}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18769,7 +18787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD8057D-5D0C-4D52-82F8-96895A370A83}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -21931,7 +21949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC8A043-7908-4F76-BC2B-AEF2FC38FA90}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -25014,7 +25032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60099D11-A512-4BF0-BF62-E7BD47F0C256}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -28289,8 +28307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA12A76-B97F-49A9-AC8E-2B1CB75AA6A1}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="H163" sqref="H163"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31944,8 +31962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490C0FB0-D79B-42A7-B070-C4769D6ECC67}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B125" workbookViewId="0">
-      <selection activeCell="K138" sqref="K138"/>
+    <sheetView tabSelected="1" topLeftCell="B54" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32076,7 +32094,7 @@
         <v>5.5555555555555469E-2</v>
       </c>
       <c r="K4" t="s">
-        <v>809</v>
+        <v>879</v>
       </c>
       <c r="Q4" t="s">
         <v>510</v>
@@ -32172,7 +32190,7 @@
     <row r="8" spans="1:17">
       <c r="A8" s="99"/>
       <c r="B8" s="80" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C8" s="80" t="s">
         <v>508</v>
@@ -32198,7 +32216,7 @@
     <row r="9" spans="1:17">
       <c r="A9" s="99"/>
       <c r="B9" s="80" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C9" s="80" t="s">
         <v>504</v>
@@ -32244,7 +32262,7 @@
     <row r="11" spans="1:17">
       <c r="A11" s="99"/>
       <c r="B11" s="80" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C11" s="80" t="s">
         <v>504</v>
@@ -32349,7 +32367,7 @@
     <row r="18" spans="1:11">
       <c r="A18" s="99"/>
       <c r="B18" s="80" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C18" s="80" t="s">
         <v>504</v>
@@ -32378,7 +32396,7 @@
     <row r="19" spans="1:11">
       <c r="A19" s="99"/>
       <c r="B19" s="80" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C19" s="80" t="s">
         <v>504</v>
@@ -32456,7 +32474,7 @@
     <row r="22" spans="1:11">
       <c r="A22" s="99"/>
       <c r="B22" s="80" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C22" s="80" t="s">
         <v>513</v>
@@ -32534,7 +32552,7 @@
     <row r="25" spans="1:11">
       <c r="A25" s="99"/>
       <c r="B25" s="80" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C25" s="80" t="s">
         <v>504</v>
@@ -32574,7 +32592,7 @@
     <row r="27" spans="1:11">
       <c r="A27" s="99"/>
       <c r="B27" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C27" t="s">
         <v>596</v>
@@ -32593,7 +32611,7 @@
     <row r="28" spans="1:11">
       <c r="A28" s="99"/>
       <c r="B28" s="80" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C28" s="80" t="s">
         <v>504</v>
@@ -32612,7 +32630,7 @@
     <row r="29" spans="1:11">
       <c r="A29" s="99"/>
       <c r="B29" s="80" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C29" s="80" t="s">
         <v>508</v>
@@ -32631,7 +32649,7 @@
     <row r="30" spans="1:11">
       <c r="A30" s="99"/>
       <c r="B30" s="80" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C30" s="80" t="s">
         <v>504</v>
@@ -32650,7 +32668,7 @@
     <row r="31" spans="1:11">
       <c r="A31" s="99"/>
       <c r="B31" s="80" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C31" s="80" t="s">
         <v>504</v>
@@ -33009,7 +33027,7 @@
     <row r="48" spans="1:11">
       <c r="A48" s="99"/>
       <c r="B48" s="80" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C48" s="80" t="s">
         <v>504</v>
@@ -33061,13 +33079,13 @@
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="K49" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="99"/>
       <c r="B50" s="80" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C50" s="80" t="s">
         <v>504</v>
@@ -33171,7 +33189,7 @@
     <row r="54" spans="1:11">
       <c r="A54" s="99"/>
       <c r="B54" s="80" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C54" s="80" t="s">
         <v>510</v>
@@ -33197,7 +33215,7 @@
     <row r="55" spans="1:11">
       <c r="A55" s="99"/>
       <c r="B55" s="80" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C55" s="80" t="s">
         <v>504</v>
@@ -33237,7 +33255,7 @@
     <row r="57" spans="1:11">
       <c r="A57" s="99"/>
       <c r="B57" s="80" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C57" s="80" t="s">
         <v>504</v>
@@ -33256,7 +33274,7 @@
     <row r="58" spans="1:11">
       <c r="A58" s="99"/>
       <c r="B58" s="80" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C58" s="80" t="s">
         <v>504</v>
@@ -33297,7 +33315,7 @@
     <row r="60" spans="1:11">
       <c r="A60" s="99"/>
       <c r="B60" s="80" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C60" s="80" t="s">
         <v>504</v>
@@ -33316,7 +33334,7 @@
     <row r="61" spans="1:11">
       <c r="A61" s="99"/>
       <c r="B61" s="80" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C61" s="80" t="s">
         <v>504</v>
@@ -33362,7 +33380,7 @@
     <row r="63" spans="1:11">
       <c r="A63" s="99"/>
       <c r="B63" s="80" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C63" s="80" t="s">
         <v>504</v>
@@ -33414,13 +33432,13 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="K64" t="s">
-        <v>836</v>
+        <v>901</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="99"/>
       <c r="B65" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C65" s="80" t="s">
         <v>504</v>
@@ -33440,13 +33458,13 @@
       </c>
       <c r="I65" s="81">
         <f>SUMIFS(F62:F75, C62:C75,H65)</f>
-        <v>8.333333333333337E-2</v>
+        <v>0.11458333333333337</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="99"/>
       <c r="B66" s="80" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="C66" s="80" t="s">
         <v>512</v>
@@ -33524,7 +33542,7 @@
     <row r="69" spans="1:11">
       <c r="A69" s="99"/>
       <c r="B69" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C69" s="80" t="s">
         <v>510</v>
@@ -33544,13 +33562,13 @@
       </c>
       <c r="I69" s="79">
         <f>SUM(I63:I68)</f>
-        <v>0.43402777777777779</v>
+        <v>0.46527777777777779</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="99"/>
       <c r="B70" s="18" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C70" s="80" t="s">
         <v>504</v>
@@ -33570,7 +33588,7 @@
     <row r="71" spans="1:11">
       <c r="A71" s="99"/>
       <c r="B71" s="80" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C71" s="80" t="s">
         <v>510</v>
@@ -33590,7 +33608,7 @@
     <row r="72" spans="1:11">
       <c r="A72" s="99"/>
       <c r="B72" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="C72" s="80" t="s">
         <v>504</v>
@@ -33609,7 +33627,7 @@
     <row r="73" spans="1:11">
       <c r="A73" s="99"/>
       <c r="B73" s="80" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C73" s="80" t="s">
         <v>504</v>
@@ -33628,7 +33646,7 @@
     <row r="74" spans="1:11">
       <c r="A74" s="99"/>
       <c r="B74" s="80" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C74" s="80" t="s">
         <v>504</v>
@@ -33647,7 +33665,7 @@
     <row r="75" spans="1:11">
       <c r="A75" s="99"/>
       <c r="B75" s="80" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C75" s="80" t="s">
         <v>510</v>
@@ -33656,31 +33674,20 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E75" s="81">
-        <v>0.8125</v>
+        <v>0.84375</v>
       </c>
       <c r="F75" s="81">
         <f>E75-D75</f>
-        <v>2.083333333333337E-2</v>
+        <v>5.208333333333337E-2</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="99"/>
-      <c r="B76" t="s">
-        <v>909</v>
-      </c>
-      <c r="C76" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D76" s="81">
-        <v>0.8125</v>
-      </c>
-      <c r="E76" s="81">
-        <v>0.84375</v>
-      </c>
-      <c r="F76" s="81">
-        <f>E76-D76</f>
-        <v>3.125E-2</v>
-      </c>
+      <c r="B76" s="80"/>
+      <c r="C76" s="80"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="81"/>
+      <c r="F76" s="81"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="99" t="s">
@@ -33712,7 +33719,7 @@
     <row r="78" spans="1:11">
       <c r="A78" s="99"/>
       <c r="B78" s="80" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C78" s="80" t="s">
         <v>510</v>
@@ -33764,7 +33771,7 @@
     <row r="80" spans="1:11">
       <c r="A80" s="99"/>
       <c r="B80" s="80" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C80" s="80" t="s">
         <v>504</v>
@@ -33796,7 +33803,7 @@
         <v>660</v>
       </c>
       <c r="C81" s="80" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D81" s="81">
         <v>0.52083333333333337</v>
@@ -33813,7 +33820,7 @@
       </c>
       <c r="I81" s="81">
         <f>SUMIFS(F77:F91, C77:C91,H81)</f>
-        <v>7.291666666666663E-2</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="K81" t="s">
         <v>847</v>
@@ -33842,7 +33849,7 @@
       </c>
       <c r="I82" s="81">
         <f>SUMIFS(F77:F91, C77:C91,H82)</f>
-        <v>0</v>
+        <v>3.819444444444442E-2</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -33874,7 +33881,7 @@
     <row r="84" spans="1:11">
       <c r="A84" s="99"/>
       <c r="B84" s="80" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C84" s="80" t="s">
         <v>504</v>
@@ -33920,7 +33927,7 @@
     <row r="86" spans="1:11">
       <c r="A86" s="99"/>
       <c r="B86" s="80" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C86" s="80" t="s">
         <v>504</v>
@@ -33940,7 +33947,7 @@
     <row r="87" spans="1:11">
       <c r="A87" s="99"/>
       <c r="B87" s="80" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C87" s="80" t="s">
         <v>504</v>
@@ -34018,7 +34025,7 @@
     <row r="93" spans="1:11">
       <c r="A93" s="99"/>
       <c r="B93" s="80" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C93" s="80" t="s">
         <v>510</v>
@@ -34044,7 +34051,7 @@
     <row r="94" spans="1:11">
       <c r="A94" s="99"/>
       <c r="B94" s="80" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C94" s="80" t="s">
         <v>504</v>
@@ -34095,7 +34102,7 @@
     <row r="96" spans="1:11">
       <c r="A96" s="99"/>
       <c r="B96" s="80" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C96" s="80" t="s">
         <v>504</v>
@@ -34199,7 +34206,7 @@
     <row r="100" spans="1:9">
       <c r="A100" s="99"/>
       <c r="B100" s="80" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C100" s="80" t="s">
         <v>504</v>
@@ -34239,7 +34246,7 @@
     <row r="102" spans="1:9">
       <c r="A102" s="99"/>
       <c r="B102" s="80" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C102" s="80" t="s">
         <v>504</v>
@@ -34313,11 +34320,11 @@
         <v>0.375</v>
       </c>
       <c r="E107" s="81">
-        <v>0.39583333333333331</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="F107" s="81">
         <f>E107-D107</f>
-        <v>2.0833333333333315E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H107" s="79" t="s">
         <v>505</v>
@@ -34328,26 +34335,28 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="99"/>
-      <c r="B108" s="80"/>
+      <c r="B108" s="80" t="s">
+        <v>920</v>
+      </c>
       <c r="C108" s="80" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D108" s="81">
-        <v>0.38541666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E108" s="81">
         <v>0.4375</v>
       </c>
       <c r="F108" s="81">
         <f>E108-D108</f>
-        <v>5.2083333333333315E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H108" s="83" t="s">
         <v>504</v>
       </c>
       <c r="I108" s="81">
         <f>SUMIFS(F107:F121, C107:C121,H108)</f>
-        <v>0.2083333333333332</v>
+        <v>0.29513888888888878</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -34373,40 +34382,42 @@
       </c>
       <c r="I109" s="81">
         <f>SUMIFS(F107:F121, C107:C121,H109)</f>
-        <v>5.2083333333333315E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="99"/>
-      <c r="B110" s="80"/>
+      <c r="B110" s="80" t="s">
+        <v>921</v>
+      </c>
       <c r="C110" s="80" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D110" s="81">
-        <v>0.44791666666666669</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="E110" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="F110" s="81">
         <f>E110-D110</f>
-        <v>3.125E-2</v>
+        <v>5.5555555555555525E-2</v>
       </c>
       <c r="H110" s="83" t="s">
         <v>510</v>
       </c>
       <c r="I110" s="81">
         <f>SUMIFS(F107:F121, C107:C121,H110)</f>
-        <v>8.333333333333337E-2</v>
+        <v>5.208333333333337E-2</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="99"/>
       <c r="B111" s="80" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="C111" s="80" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D111" s="81">
         <v>0.52083333333333337</v>
@@ -34423,7 +34434,7 @@
       </c>
       <c r="I111" s="81">
         <f>SUMIFS(F107:F121, C107:C121,H111)</f>
-        <v>6.25E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -34449,13 +34460,13 @@
       </c>
       <c r="I112" s="81">
         <f>SUMIFS(F107:F121, C107:C121,H112)</f>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="99"/>
       <c r="B113" s="80" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="C113" s="80" t="s">
         <v>513</v>
@@ -34481,7 +34492,7 @@
     <row r="114" spans="1:11">
       <c r="A114" s="99"/>
       <c r="B114" s="80" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="C114" s="80" t="s">
         <v>504</v>
@@ -34501,13 +34512,13 @@
       </c>
       <c r="I114" s="79">
         <f>SUM(I108:I113)</f>
-        <v>0.44444444444444436</v>
+        <v>0.44791666666666663</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="99"/>
       <c r="B115" s="80" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="C115" s="80" t="s">
         <v>504</v>
@@ -34527,7 +34538,7 @@
     <row r="116" spans="1:11">
       <c r="A116" s="99"/>
       <c r="B116" s="80" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C116" s="80" t="s">
         <v>510</v>
@@ -34547,7 +34558,7 @@
     <row r="117" spans="1:11">
       <c r="A117" s="99"/>
       <c r="B117" s="80" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="C117" s="80" t="s">
         <v>504</v>
@@ -34566,7 +34577,7 @@
     <row r="118" spans="1:11">
       <c r="A118" s="99"/>
       <c r="B118" s="80" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C118" s="80" t="s">
         <v>504</v>
@@ -34585,7 +34596,7 @@
     <row r="119" spans="1:11">
       <c r="A119" s="99"/>
       <c r="B119" s="80" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="C119" s="80" t="s">
         <v>504</v>
@@ -34604,7 +34615,7 @@
     <row r="120" spans="1:11">
       <c r="A120" s="99"/>
       <c r="B120" s="80" t="s">
-        <v>908</v>
+        <v>929</v>
       </c>
       <c r="C120" s="80" t="s">
         <v>504</v>
@@ -34623,7 +34634,7 @@
     <row r="121" spans="1:11">
       <c r="A121" s="99"/>
       <c r="B121" s="80" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="C121" s="80" t="s">
         <v>504</v>
@@ -34695,7 +34706,7 @@
         <v>0.38472222222222224</v>
       </c>
       <c r="K123" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -34727,7 +34738,7 @@
     <row r="125" spans="1:11">
       <c r="A125" s="99"/>
       <c r="B125" s="80" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="C125" s="80" t="s">
         <v>504</v>
@@ -34831,7 +34842,7 @@
     <row r="129" spans="1:11">
       <c r="A129" s="99"/>
       <c r="B129" s="80" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="C129" s="80" t="s">
         <v>510</v>
@@ -34857,7 +34868,7 @@
     <row r="130" spans="1:11">
       <c r="A130" s="99"/>
       <c r="B130" s="80" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="C130" s="80" t="s">
         <v>504</v>
@@ -34897,7 +34908,7 @@
     <row r="132" spans="1:11">
       <c r="A132" s="99"/>
       <c r="B132" s="80" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="C132" s="80" t="s">
         <v>504</v>
@@ -34916,7 +34927,7 @@
     <row r="133" spans="1:11">
       <c r="A133" s="99"/>
       <c r="B133" s="80" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="C133" s="80" t="s">
         <v>504</v>
@@ -34935,7 +34946,7 @@
     <row r="134" spans="1:11">
       <c r="A134" s="99"/>
       <c r="B134" s="80" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C134" s="80" t="s">
         <v>508</v>
@@ -34954,7 +34965,7 @@
     <row r="135" spans="1:11">
       <c r="A135" s="99"/>
       <c r="B135" s="80" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="C135" s="80" t="s">
         <v>504</v>
@@ -34973,7 +34984,7 @@
     <row r="136" spans="1:11">
       <c r="A136" s="99"/>
       <c r="B136" s="80" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="C136" s="80" t="s">
         <v>504</v>
@@ -35022,7 +35033,7 @@
     <row r="138" spans="1:11">
       <c r="A138" s="99"/>
       <c r="B138" s="80" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="C138" s="80" t="s">
         <v>504</v>
@@ -35045,7 +35056,7 @@
         <v>0.29861111111111099</v>
       </c>
       <c r="K138" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -35155,7 +35166,7 @@
     <row r="143" spans="1:11">
       <c r="A143" s="99"/>
       <c r="B143" s="80" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="C143" s="80" t="s">
         <v>510</v>
@@ -35181,7 +35192,7 @@
     <row r="144" spans="1:11">
       <c r="A144" s="99"/>
       <c r="B144" s="80" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="C144" s="80" t="s">
         <v>504</v>
@@ -35207,7 +35218,7 @@
     <row r="145" spans="1:9">
       <c r="A145" s="99"/>
       <c r="B145" s="80" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="C145" s="80" t="s">
         <v>510</v>
@@ -35227,7 +35238,7 @@
     <row r="146" spans="1:9">
       <c r="A146" s="99"/>
       <c r="B146" s="80" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="C146" s="80" t="s">
         <v>504</v>
@@ -35247,7 +35258,7 @@
     <row r="147" spans="1:9">
       <c r="A147" s="99"/>
       <c r="B147" s="80" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="C147" s="80" t="s">
         <v>504</v>
@@ -35266,7 +35277,7 @@
     <row r="148" spans="1:9">
       <c r="A148" s="99"/>
       <c r="B148" s="80" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C148" s="80" t="s">
         <v>504</v>
@@ -35285,7 +35296,7 @@
     <row r="149" spans="1:9">
       <c r="A149" s="99"/>
       <c r="B149" s="80" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="C149" s="80" t="s">
         <v>504</v>
@@ -35353,7 +35364,7 @@
     <row r="153" spans="1:9">
       <c r="A153" s="99"/>
       <c r="B153" s="80" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="C153" s="80" t="s">
         <v>504</v>
@@ -35373,13 +35384,13 @@
       </c>
       <c r="I153" s="81">
         <f>SUMIFS(F152:F166, C152:C166,H153)</f>
-        <v>0.2326388888888889</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="99"/>
       <c r="B154" s="80" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="C154" s="80" t="s">
         <v>504</v>
@@ -35404,20 +35415,20 @@
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="99"/>
-      <c r="B155" t="s">
-        <v>792</v>
+      <c r="B155" s="80" t="s">
+        <v>642</v>
       </c>
       <c r="C155" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D155" s="84">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="E155" s="84">
+        <v>512</v>
+      </c>
+      <c r="D155" s="81">
         <v>0.52083333333333337</v>
       </c>
+      <c r="E155" s="81">
+        <v>0.55902777777777779</v>
+      </c>
       <c r="F155" s="81">
-        <f>E156-D156</f>
+        <f>E155-D155</f>
         <v>3.819444444444442E-2</v>
       </c>
       <c r="H155" s="83" t="s">
@@ -35431,19 +35442,19 @@
     <row r="156" spans="1:9">
       <c r="A156" s="99"/>
       <c r="B156" s="80" t="s">
-        <v>642</v>
+        <v>518</v>
       </c>
       <c r="C156" s="80" t="s">
         <v>516</v>
       </c>
       <c r="D156" s="81">
-        <v>0.52083333333333337</v>
+        <v>0.55902777777777779</v>
       </c>
       <c r="E156" s="81">
-        <v>0.55902777777777779</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="F156" s="81">
-        <f>E157-D157</f>
+        <f>E156-D156</f>
         <v>3.125E-2</v>
       </c>
       <c r="H156" s="83" t="s">
@@ -35457,19 +35468,19 @@
     <row r="157" spans="1:9">
       <c r="A157" s="99"/>
       <c r="B157" s="80" t="s">
-        <v>518</v>
+        <v>948</v>
       </c>
       <c r="C157" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D157" s="81">
-        <v>0.54166666666666663</v>
+        <v>0.59375</v>
       </c>
       <c r="E157" s="81">
-        <v>0.57291666666666663</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="F157" s="81">
-        <f>E158-D158</f>
+        <f>E157-D157</f>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H157" s="83" t="s">
@@ -35477,25 +35488,25 @@
       </c>
       <c r="I157" s="81">
         <f>SUMIFS(F152:F166, C152:C166,H157)</f>
-        <v>0</v>
+        <v>3.819444444444442E-2</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="99"/>
       <c r="B158" s="80" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="C158" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D158" s="81">
-        <v>0.59375</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="E158" s="81">
-        <v>0.61458333333333337</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="F158" s="81">
-        <f>E159-D159</f>
+        <f>E158-D158</f>
         <v>1.388888888888884E-2</v>
       </c>
       <c r="H158" s="83" t="s">
@@ -35503,25 +35514,25 @@
       </c>
       <c r="I158" s="81">
         <f>SUMIFS(F152:F166, C152:C166,H158)</f>
-        <v>7.9861111111111049E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="99"/>
       <c r="B159" s="80" t="s">
-        <v>945</v>
+        <v>925</v>
       </c>
       <c r="C159" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D159" s="81">
-        <v>0.61458333333333337</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="E159" s="81">
-        <v>0.62847222222222221</v>
+        <v>0.67013888888888884</v>
       </c>
       <c r="F159" s="81">
-        <f>E160-D160</f>
+        <f>E159-D159</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="H159" s="78" t="s">
@@ -35529,25 +35540,25 @@
       </c>
       <c r="I159" s="79">
         <f>SUM(I153:I158)</f>
-        <v>0.37499999999999994</v>
+        <v>0.47569444444444436</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="99"/>
       <c r="B160" s="80" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="C160" s="80" t="s">
         <v>510</v>
       </c>
       <c r="D160" s="81">
-        <v>0.62847222222222221</v>
+        <v>0.67013888888888884</v>
       </c>
       <c r="E160" s="81">
-        <v>0.67013888888888884</v>
+        <v>0.71875</v>
       </c>
       <c r="F160" s="81">
-        <f>E161-D161</f>
+        <f>E160-D160</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="I160" s="84"/>
@@ -35555,19 +35566,19 @@
     <row r="161" spans="1:9">
       <c r="A161" s="99"/>
       <c r="B161" s="80" t="s">
-        <v>947</v>
+        <v>521</v>
       </c>
       <c r="C161" s="80" t="s">
         <v>516</v>
       </c>
       <c r="D161" s="81">
-        <v>0.67013888888888884</v>
+        <v>0.71875</v>
       </c>
       <c r="E161" s="81">
-        <v>0.71875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="F161" s="81">
-        <f>E162-D162</f>
+        <f>E161-D161</f>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="I161" s="84"/>
@@ -35575,7 +35586,7 @@
     <row r="162" spans="1:9">
       <c r="A162" s="99"/>
       <c r="B162" s="80" t="s">
-        <v>521</v>
+        <v>951</v>
       </c>
       <c r="C162" s="80" t="s">
         <v>504</v>
@@ -35584,56 +35595,68 @@
         <v>0.71875</v>
       </c>
       <c r="E162" s="81">
-        <v>0.72916666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="F162" s="81">
-        <f>E163-D163</f>
-        <v>4.1666666666666741E-2</v>
+        <f>E162-D162</f>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="99"/>
       <c r="B163" s="80" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="C163" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D163" s="81">
-        <v>0.72916666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="E163" s="81">
-        <v>0.77083333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="F163" s="81">
-        <f>E164-D164</f>
-        <v>0</v>
+        <f>E163-D163</f>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="99"/>
-      <c r="B164" s="80"/>
-      <c r="C164" s="80"/>
+      <c r="B164" s="80" t="s">
+        <v>953</v>
+      </c>
+      <c r="C164" s="80" t="s">
+        <v>504</v>
+      </c>
       <c r="D164" s="81">
-        <v>0</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E164" s="81">
-        <v>0</v>
-      </c>
-      <c r="F164" s="81" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
+        <v>0.8125</v>
+      </c>
+      <c r="F164" s="81">
+        <f>E164-D164</f>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="99"/>
-      <c r="B165" s="80"/>
-      <c r="C165" s="80"/>
-      <c r="D165" s="81"/>
-      <c r="E165" s="81"/>
+      <c r="B165" s="80" t="s">
+        <v>954</v>
+      </c>
+      <c r="C165" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D165" s="81">
+        <v>0.8125</v>
+      </c>
+      <c r="E165" s="81">
+        <v>0.86111111111111116</v>
+      </c>
       <c r="F165" s="81">
         <f>E165-D165</f>
-        <v>0</v>
+        <v>4.861111111111116E-2</v>
       </c>
     </row>
     <row r="166" spans="1:9">

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB649D3A-4B63-4080-AC7C-39469504F575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84836648-9745-4BFD-869E-182EB6A364F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="24" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11102,17 +11102,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A106:A120"/>
+    <mergeCell ref="A121:A135"/>
+    <mergeCell ref="A136:A150"/>
+    <mergeCell ref="A151:A165"/>
     <mergeCell ref="A76:A90"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A45"/>
     <mergeCell ref="A46:A60"/>
     <mergeCell ref="A61:A75"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A106:A120"/>
-    <mergeCell ref="A121:A135"/>
-    <mergeCell ref="A136:A150"/>
-    <mergeCell ref="A151:A165"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I47 I62 I77 I92 I107 I122 I137 I152">
     <cfRule type="cellIs" dxfId="129" priority="12" operator="greaterThan">
@@ -14871,17 +14871,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="116" priority="12" operator="greaterThan">
@@ -18717,17 +18717,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="103" priority="12" operator="greaterThan">
@@ -21879,17 +21879,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="90" priority="12" operator="greaterThan">
@@ -24962,17 +24962,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="77" priority="12" operator="greaterThan">
@@ -25038,7 +25038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60099D11-A512-4BF0-BF62-E7BD47F0C256}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
+    <sheetView topLeftCell="A89" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -28237,17 +28237,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="64" priority="12" operator="greaterThan">
@@ -28313,7 +28313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA12A76-B97F-49A9-AC8E-2B1CB75AA6A1}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -31841,17 +31841,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="51" priority="38" operator="greaterThan">
@@ -31968,8 +31968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490C0FB0-D79B-42A7-B070-C4769D6ECC67}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="N119" sqref="N119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35682,17 +35682,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="25" priority="25" operator="greaterThan">

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E3286A1-6A26-4541-9B23-75CFEF1F0357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A907D1D3-8CAA-4C4B-A752-D5B446FBDE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="25" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4075" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4078" uniqueCount="990">
   <si>
     <t>Resource Name</t>
   </si>
@@ -3158,6 +3158,9 @@
     <t>resolving conflict on course list</t>
   </si>
   <si>
+    <t>reworking on courselist</t>
+  </si>
+  <si>
     <t>git pull, added is disabled field,model migration</t>
   </si>
   <si>
@@ -3194,6 +3197,9 @@
     <t>Angular component  creating for reviewer list and review list</t>
   </si>
   <si>
+    <t>Angular component creating for View trainer profile ,courselist,topic list</t>
+  </si>
+  <si>
     <t>Refining Review services</t>
   </si>
   <si>
@@ -3227,7 +3233,10 @@
     <t>lunch break</t>
   </si>
   <si>
-    <t>Worked on Integration(</t>
+    <t>Worked on Integration(cancelled review,completed review)</t>
+  </si>
+  <si>
+    <t>Worked on integration(assigned review)</t>
   </si>
 </sst>
 </file>
@@ -32319,7 +32328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490C0FB0-D79B-42A7-B070-C4769D6ECC67}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A68" workbookViewId="0">
       <selection activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
@@ -36160,8 +36169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E7E2B6-6DCC-4C02-B6AC-CCA2DE26CDBC}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36585,7 +36594,7 @@
       </c>
       <c r="I18" s="81">
         <f>SUMIFS(F17:F31, C17:C31,H18)</f>
-        <v>0.30208333333333348</v>
+        <v>-0.47916666666666652</v>
       </c>
       <c r="K18" t="s">
         <v>814</v>
@@ -36744,7 +36753,7 @@
       </c>
       <c r="I24" s="79">
         <f>SUM(I18:I23)</f>
-        <v>0.41319444444444448</v>
+        <v>-0.36805555555555552</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -36808,13 +36817,19 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="99"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="81"/>
+      <c r="B28" s="80" t="s">
+        <v>963</v>
+      </c>
+      <c r="C28" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D28" s="81">
+        <v>0.78125</v>
+      </c>
       <c r="E28" s="81"/>
       <c r="F28" s="81">
         <f>E28-D28</f>
-        <v>0</v>
+        <v>-0.78125</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -36880,7 +36895,7 @@
     <row r="33" spans="1:11">
       <c r="A33" s="99"/>
       <c r="B33" s="80" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C33" s="80" t="s">
         <v>504</v>
@@ -36906,7 +36921,7 @@
     <row r="34" spans="1:11">
       <c r="A34" s="99"/>
       <c r="B34" s="18" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C34" s="80" t="s">
         <v>504</v>
@@ -36987,7 +37002,7 @@
     <row r="37" spans="1:11">
       <c r="A37" s="99"/>
       <c r="B37" s="80" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C37" s="80" t="s">
         <v>504</v>
@@ -37010,7 +37025,7 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="K37" s="80" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -37511,7 +37526,7 @@
     <row r="64" spans="1:11">
       <c r="A64" s="99"/>
       <c r="B64" s="80" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C64" s="80" t="s">
         <v>504</v>
@@ -37540,7 +37555,7 @@
     <row r="65" spans="1:11">
       <c r="A65" s="99"/>
       <c r="B65" s="80" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C65" s="80" t="s">
         <v>512</v>
@@ -37592,7 +37607,7 @@
     <row r="67" spans="1:11">
       <c r="A67" s="99"/>
       <c r="B67" s="80" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C67" s="80" t="s">
         <v>513</v>
@@ -37618,7 +37633,7 @@
     <row r="68" spans="1:11">
       <c r="A68" s="99"/>
       <c r="B68" s="80" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C68" s="80" t="s">
         <v>504</v>
@@ -37817,13 +37832,13 @@
       </c>
       <c r="I78" s="81">
         <f>SUMIFS(F77:F91, C77:C91,H78)</f>
-        <v>0.26388888888888901</v>
+        <v>0.1666666666666668</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="99"/>
       <c r="B79" s="80" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C79" s="80" t="s">
         <v>504</v>
@@ -37878,7 +37893,7 @@
     <row r="81" spans="1:11">
       <c r="A81" s="99"/>
       <c r="B81" s="80" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C81" s="80" t="s">
         <v>504</v>
@@ -37898,7 +37913,7 @@
       </c>
       <c r="I81" s="81">
         <f>SUMIFS(F77:F91, C77:C91,H81)</f>
-        <v>4.513888888888884E-2</v>
+        <v>5.5555555555555469E-2</v>
       </c>
       <c r="K81" t="s">
         <v>847</v>
@@ -37907,7 +37922,7 @@
     <row r="82" spans="1:11">
       <c r="A82" s="99"/>
       <c r="B82" s="80" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C82" s="80" t="s">
         <v>513</v>
@@ -37939,47 +37954,47 @@
         <v>516</v>
       </c>
       <c r="D83" s="81">
-        <v>0.53125</v>
+        <v>0.5625</v>
       </c>
       <c r="E83" s="81">
-        <v>0.5625</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="F83" s="81">
         <f>E83-D83</f>
-        <v>3.125E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H83" s="83" t="s">
         <v>516</v>
       </c>
       <c r="I83" s="81">
         <f>SUMIFS(F77:F91, C77:C91,H83)</f>
-        <v>5.5555555555555691E-2</v>
+        <v>5.2083333333333481E-2</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="99"/>
       <c r="B84" s="80" t="s">
-        <v>849</v>
+        <v>528</v>
       </c>
       <c r="C84" s="80" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="D84" s="81">
-        <v>0.56944444444444442</v>
+        <v>0.59375</v>
       </c>
       <c r="E84" s="81">
-        <v>0.66666666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="F84" s="81">
         <f>E84-D84</f>
-        <v>9.722222222222221E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H84" s="78" t="s">
         <v>519</v>
       </c>
       <c r="I84" s="79">
         <f>SUM(I78:I83)</f>
-        <v>0.41666666666666685</v>
+        <v>0.32638888888888906</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -38090,7 +38105,7 @@
         <v>851</v>
       </c>
       <c r="B92" s="80" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C92" s="80" t="s">
         <v>504</v>
@@ -38135,13 +38150,13 @@
       </c>
       <c r="I93" s="81">
         <f>SUMIFS(F92:F106, C92:C106,H93)</f>
-        <v>6.9444444444444475E-2</v>
+        <v>0.12847222222222221</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="99"/>
       <c r="B94" s="80" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C94" s="80" t="s">
         <v>504</v>
@@ -38150,11 +38165,11 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="E94" s="81">
-        <v>0.44791666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F94" s="81">
         <f>E94-D94</f>
-        <v>5.208333333333337E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H94" s="83" t="s">
         <v>508</v>
@@ -38173,14 +38188,14 @@
         <v>516</v>
       </c>
       <c r="D95" s="81">
-        <v>0.44791666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E95" s="81">
-        <v>0.46527777777777773</v>
+        <v>0.46875</v>
       </c>
       <c r="F95" s="81">
         <f>E95-D95</f>
-        <v>1.7361111111111049E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H95" s="83" t="s">
         <v>510</v>
@@ -38191,17 +38206,21 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="99"/>
-      <c r="B96" s="80"/>
-      <c r="C96" s="80"/>
+      <c r="B96" s="80" t="s">
+        <v>976</v>
+      </c>
+      <c r="C96" s="80" t="s">
+        <v>504</v>
+      </c>
       <c r="D96" s="81">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E96" s="81">
         <v>0.52083333333333337</v>
-      </c>
-      <c r="E96" s="81">
-        <v>0.5625</v>
       </c>
       <c r="F96" s="81">
         <f>E96-D96</f>
-        <v>4.166666666666663E-2</v>
+        <v>4.8611111111111105E-2</v>
       </c>
       <c r="H96" s="83" t="s">
         <v>513</v>
@@ -38252,7 +38271,7 @@
       </c>
       <c r="I98" s="81">
         <f>SUMIFS(F92:F106, C92:C106,H98)</f>
-        <v>1.7361111111111049E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -38274,7 +38293,7 @@
       </c>
       <c r="I99" s="79">
         <f>SUM(I93:I98)</f>
-        <v>8.6805555555555525E-2</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -38418,13 +38437,13 @@
       </c>
       <c r="I108" s="81">
         <f>SUMIFS(F107:F121, C107:C121,H108)</f>
-        <v>0.45486111111111105</v>
+        <v>0.33333333333333326</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="99"/>
       <c r="B109" s="80" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="C109" s="80" t="s">
         <v>504</v>
@@ -38476,7 +38495,7 @@
     <row r="111" spans="1:9">
       <c r="A111" s="99"/>
       <c r="B111" s="80" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="C111" s="80" t="s">
         <v>510</v>
@@ -38502,7 +38521,7 @@
     <row r="112" spans="1:9">
       <c r="A112" s="99"/>
       <c r="B112" s="80" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="C112" s="80" t="s">
         <v>512</v>
@@ -38557,7 +38576,7 @@
         <v>528</v>
       </c>
       <c r="C114" s="80" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="D114" s="81">
         <v>0.59375</v>
@@ -38574,13 +38593,13 @@
       </c>
       <c r="I114" s="79">
         <f>SUM(I108:I113)</f>
-        <v>0.55555555555555547</v>
+        <v>0.43402777777777768</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="99"/>
       <c r="B115" s="80" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C115" s="80" t="s">
         <v>504</v>
@@ -38589,57 +38608,57 @@
         <v>0.60763888888888895</v>
       </c>
       <c r="E115" s="81">
-        <v>0.65625</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="F115" s="81">
         <f>E115-D115</f>
-        <v>4.8611111111111049E-2</v>
+        <v>6.944444444444442E-2</v>
       </c>
       <c r="I115" s="84"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="99"/>
       <c r="B116" s="80" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="C116" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D116" s="81">
-        <v>0.65972222222222221</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="E116" s="81">
-        <v>0.69097222222222221</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="F116" s="81">
         <f>E116-D116</f>
-        <v>3.125E-2</v>
+        <v>4.513888888888884E-2</v>
       </c>
       <c r="I116" s="84"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="99"/>
       <c r="B117" s="80" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C117" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D117" s="81">
-        <v>0.69097222222222221</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="E117" s="81">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="F117" s="81">
         <f>E117-D117</f>
-        <v>1.736111111111116E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="99"/>
       <c r="B118" s="18" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="C118" s="80" t="s">
         <v>504</v>
@@ -38648,11 +38667,11 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E118" s="81">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F118" s="81">
         <f>E118-D118</f>
-        <v>0.29166666666666663</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -39354,13 +39373,13 @@
       </c>
       <c r="I153" s="81">
         <f>SUMIFS(F152:F166, C152:C166,H153)</f>
-        <v>0.28125000000000006</v>
+        <v>0.30208333333333354</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="99"/>
       <c r="B154" s="80" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="C154" s="80" t="s">
         <v>504</v>
@@ -39386,7 +39405,7 @@
     <row r="155" spans="1:9">
       <c r="A155" s="99"/>
       <c r="B155" s="80" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="C155" s="80" t="s">
         <v>504</v>
@@ -39412,7 +39431,7 @@
     <row r="156" spans="1:9">
       <c r="A156" s="99"/>
       <c r="B156" s="80" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="C156" s="80" t="s">
         <v>512</v>
@@ -39438,7 +39457,7 @@
     <row r="157" spans="1:9">
       <c r="A157" s="99"/>
       <c r="B157" s="80" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C157" s="80" t="s">
         <v>516</v>
@@ -39490,33 +39509,33 @@
     <row r="159" spans="1:9">
       <c r="A159" s="99"/>
       <c r="B159" s="80" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C159" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D159" s="81">
-        <v>0.58333333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E159" s="81">
-        <v>0.59722222222222221</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="F159" s="81">
         <f>E159-D159</f>
-        <v>1.388888888888884E-2</v>
+        <v>3.4722222222222321E-2</v>
       </c>
       <c r="H159" s="78" t="s">
         <v>519</v>
       </c>
       <c r="I159" s="79">
         <f>SUM(I153:I158)</f>
-        <v>0.37152777777777779</v>
+        <v>0.39236111111111127</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="99"/>
       <c r="B160" s="80" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C160" s="80" t="s">
         <v>504</v>
@@ -39536,7 +39555,7 @@
     <row r="161" spans="1:9">
       <c r="A161" s="99"/>
       <c r="B161" s="80" t="s">
-        <v>981</v>
+        <v>989</v>
       </c>
       <c r="C161" s="80" t="s">
         <v>504</v>
@@ -39555,9 +39574,7 @@
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="99"/>
-      <c r="B162" s="80" t="s">
-        <v>986</v>
-      </c>
+      <c r="B162" s="80"/>
       <c r="C162" s="80" t="s">
         <v>504</v>
       </c>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA4ED7F8-7139-4467-86E6-741985D0062F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A342237-2364-49E7-A7D7-49455C55EA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="25" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4116" uniqueCount="1008">
   <si>
     <t>Resource Name</t>
   </si>
@@ -32382,8 +32382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490C0FB0-D79B-42A7-B070-C4769D6ECC67}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36223,8 +36223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E7E2B6-6DCC-4C02-B6AC-CCA2DE26CDBC}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="E137" sqref="E137"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39206,47 +39206,47 @@
         <v>513</v>
       </c>
       <c r="D138" s="81">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E138" s="81">
         <v>0.39583333333333331</v>
-      </c>
-      <c r="E138" s="81">
-        <v>0.41666666666666669</v>
       </c>
       <c r="F138" s="81">
         <f>E138-D138</f>
-        <v>2.083333333333337E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H138" s="83" t="s">
         <v>504</v>
       </c>
       <c r="I138" s="81">
         <f>SUMIFS(F137:F151, C137:C151,H138)</f>
-        <v>0.19791666666666652</v>
+        <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="99"/>
       <c r="B139" s="80" t="s">
-        <v>868</v>
+        <v>996</v>
       </c>
       <c r="C139" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D139" s="81">
-        <v>0.41666666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E139" s="81">
-        <v>0.46527777777777773</v>
+        <v>0.4375</v>
       </c>
       <c r="F139" s="81">
         <f>E139-D139</f>
-        <v>4.8611111111111049E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H139" s="83" t="s">
         <v>508</v>
       </c>
       <c r="I139" s="81">
         <f>SUMIFS(F137:F151, C137:C151,H139)</f>
-        <v>2.4305555555555636E-2</v>
+        <v>3.1250000000000056E-2</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -39255,85 +39255,85 @@
         <v>520</v>
       </c>
       <c r="C140" s="80" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="D140" s="81">
-        <v>0.46527777777777773</v>
+        <v>0.4375</v>
       </c>
       <c r="E140" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F140" s="81">
         <f>E140-D140</f>
-        <v>1.3888888888888951E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H140" s="83" t="s">
         <v>510</v>
       </c>
       <c r="I140" s="81">
         <f>SUMIFS(F137:F151, C137:C151,H140)</f>
-        <v>6.9444444444444475E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="99"/>
       <c r="B141" s="80" t="s">
-        <v>869</v>
+        <v>997</v>
       </c>
       <c r="C141" s="80" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D141" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="E141" s="81">
-        <v>0.52777777777777779</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="F141" s="81">
         <f>E141-D141</f>
-        <v>4.8611111111111105E-2</v>
+        <v>7.2916666666666685E-2</v>
       </c>
       <c r="H141" s="83" t="s">
         <v>513</v>
       </c>
       <c r="I141" s="81">
         <f>SUMIFS(F137:F151, C137:C151,H141)</f>
-        <v>2.083333333333337E-2</v>
+        <v>1.7361111111111049E-2</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="99"/>
       <c r="B142" s="80" t="s">
-        <v>518</v>
+        <v>998</v>
       </c>
       <c r="C142" s="80" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D142" s="81">
-        <v>0.53472222222222221</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E142" s="81">
-        <v>0.56597222222222221</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="F142" s="81">
         <f>E142-D142</f>
-        <v>3.125E-2</v>
+        <v>4.8611111111111049E-2</v>
       </c>
       <c r="H142" s="83" t="s">
         <v>512</v>
       </c>
       <c r="I142" s="81">
         <f>SUMIFS(F137:F151, C137:C151,H142)</f>
-        <v>0</v>
+        <v>4.8611111111111049E-2</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="99"/>
       <c r="B143" s="80" t="s">
-        <v>870</v>
+        <v>518</v>
       </c>
       <c r="C143" s="80" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D143" s="81">
         <v>0.56944444444444442</v>
@@ -39350,117 +39350,149 @@
       </c>
       <c r="I143" s="81">
         <f>SUMIFS(F137:F151, C137:C151,H143)</f>
-        <v>4.1666666666666741E-2</v>
+        <v>3.4722222222222321E-2</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="99"/>
       <c r="B144" s="80" t="s">
-        <v>871</v>
+        <v>528</v>
       </c>
       <c r="C144" s="80" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="D144" s="81">
-        <v>0.59027777777777779</v>
+        <v>0.59375</v>
       </c>
       <c r="E144" s="81">
-        <v>0.66666666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="F144" s="81">
         <f>E144-D144</f>
-        <v>7.638888888888884E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H144" s="78" t="s">
         <v>519</v>
       </c>
       <c r="I144" s="79">
         <f>SUM(I138:I143)</f>
-        <v>0.35416666666666674</v>
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="99"/>
       <c r="B145" s="80" t="s">
-        <v>521</v>
+        <v>1000</v>
       </c>
       <c r="C145" s="80" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D145" s="81">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E145" s="81">
         <v>0.66666666666666663</v>
-      </c>
-      <c r="E145" s="81">
-        <v>0.67708333333333337</v>
       </c>
       <c r="F145" s="81">
         <f>E145-D145</f>
-        <v>1.0416666666666741E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I145" s="84"/>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="99"/>
       <c r="B146" s="80" t="s">
-        <v>872</v>
+        <v>521</v>
       </c>
       <c r="C146" s="80" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="D146" s="81">
-        <v>0.67708333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E146" s="81">
-        <v>0.75</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="F146" s="81">
         <f>E146-D146</f>
-        <v>7.291666666666663E-2</v>
+        <v>6.9444444444445308E-3</v>
       </c>
       <c r="I146" s="84"/>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="99"/>
-      <c r="B147" s="80"/>
-      <c r="C147" s="80"/>
-      <c r="D147" s="81"/>
-      <c r="E147" s="81"/>
+      <c r="B147" s="80" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C147" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D147" s="81">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="E147" s="81">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F147" s="81">
         <f>E147-D147</f>
-        <v>0</v>
+        <v>3.472222222222221E-2</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="99"/>
-      <c r="B148" s="80"/>
-      <c r="C148" s="80"/>
-      <c r="D148" s="81"/>
-      <c r="E148" s="81"/>
+      <c r="B148" s="80" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C148" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D148" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E148" s="81">
+        <v>0.8125</v>
+      </c>
       <c r="F148" s="81">
         <f>E148-D148</f>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="99"/>
-      <c r="B149" s="80"/>
-      <c r="C149" s="80"/>
-      <c r="D149" s="81"/>
-      <c r="E149" s="81"/>
+      <c r="B149" s="80" t="s">
+        <v>889</v>
+      </c>
+      <c r="C149" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D149" s="81">
+        <v>0.8125</v>
+      </c>
+      <c r="E149" s="81">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="F149" s="81">
         <f>E149-D149</f>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="99"/>
-      <c r="B150" s="80"/>
-      <c r="C150" s="80"/>
-      <c r="D150" s="81"/>
-      <c r="E150" s="81"/>
+      <c r="B150" s="80" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C150" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D150" s="81">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E150" s="81">
+        <v>0.86458333333333337</v>
+      </c>
       <c r="F150" s="81">
         <f>E150-D150</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="151" spans="1:9">

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A342237-2364-49E7-A7D7-49455C55EA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37267EFD-9AD3-4EA4-8A59-1AC9BC9F323E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="25" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4116" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4116" uniqueCount="1015">
   <si>
     <t>Resource Name</t>
   </si>
@@ -3279,6 +3279,27 @@
   </si>
   <si>
     <t>resolving error in swagger(add department)</t>
+  </si>
+  <si>
+    <t>Binding angular with webapi for topic list page</t>
+  </si>
+  <si>
+    <t>Resolving error binding angular and webapi (topic list page)</t>
+  </si>
+  <si>
+    <t>Binding angular and webapi (department list page)</t>
+  </si>
+  <si>
+    <t>Resolving conflict</t>
+  </si>
+  <si>
+    <t>Creating services for add department</t>
+  </si>
+  <si>
+    <t>Scoreboard discussion</t>
+  </si>
+  <si>
+    <t>Resolving error in swagger(add department)</t>
   </si>
   <si>
     <t>Learned how to integrate</t>
@@ -32382,8 +32403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490C0FB0-D79B-42A7-B070-C4769D6ECC67}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36223,8 +36244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E7E2B6-6DCC-4C02-B6AC-CCA2DE26CDBC}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39226,7 +39247,7 @@
     <row r="139" spans="1:9">
       <c r="A139" s="99"/>
       <c r="B139" s="80" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="C139" s="80" t="s">
         <v>504</v>
@@ -39261,11 +39282,11 @@
         <v>0.4375</v>
       </c>
       <c r="E140" s="81">
-        <v>0.44444444444444442</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="F140" s="81">
         <f>E140-D140</f>
-        <v>6.9444444444444198E-3</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H140" s="83" t="s">
         <v>510</v>
@@ -39278,7 +39299,7 @@
     <row r="141" spans="1:9">
       <c r="A141" s="99"/>
       <c r="B141" s="80" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="C141" s="80" t="s">
         <v>504</v>
@@ -39350,7 +39371,7 @@
       </c>
       <c r="I143" s="81">
         <f>SUMIFS(F137:F151, C137:C151,H143)</f>
-        <v>3.4722222222222321E-2</v>
+        <v>3.8194444444444586E-2</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -39376,13 +39397,13 @@
       </c>
       <c r="I144" s="79">
         <f>SUM(I138:I143)</f>
-        <v>0.47916666666666669</v>
+        <v>0.48263888888888895</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="99"/>
       <c r="B145" s="80" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="C145" s="80" t="s">
         <v>504</v>
@@ -39422,7 +39443,7 @@
     <row r="147" spans="1:9">
       <c r="A147" s="99"/>
       <c r="B147" s="80" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="C147" s="80" t="s">
         <v>504</v>
@@ -39441,7 +39462,7 @@
     <row r="148" spans="1:9">
       <c r="A148" s="99"/>
       <c r="B148" s="80" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="C148" s="80" t="s">
         <v>504</v>
@@ -39460,7 +39481,7 @@
     <row r="149" spans="1:9">
       <c r="A149" s="99"/>
       <c r="B149" s="80" t="s">
-        <v>889</v>
+        <v>1009</v>
       </c>
       <c r="C149" s="80" t="s">
         <v>508</v>
@@ -39479,7 +39500,7 @@
     <row r="150" spans="1:9">
       <c r="A150" s="99"/>
       <c r="B150" s="80" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="C150" s="80" t="s">
         <v>504</v>
@@ -39588,7 +39609,7 @@
     <row r="155" spans="1:9">
       <c r="A155" s="99"/>
       <c r="B155" s="80" t="s">
-        <v>1004</v>
+        <v>1011</v>
       </c>
       <c r="C155" s="80" t="s">
         <v>510</v>
@@ -39640,7 +39661,7 @@
     <row r="157" spans="1:9">
       <c r="A157" s="99"/>
       <c r="B157" s="80" t="s">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="C157" s="80" t="s">
         <v>516</v>
@@ -39692,7 +39713,7 @@
     <row r="159" spans="1:9">
       <c r="A159" s="99"/>
       <c r="B159" s="80" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="C159" s="80" t="s">
         <v>504</v>
@@ -39738,7 +39759,7 @@
     <row r="161" spans="1:9">
       <c r="A161" s="99"/>
       <c r="B161" s="80" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="C161" s="80" t="s">
         <v>504</v>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37267EFD-9AD3-4EA4-8A59-1AC9BC9F323E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFEC379D-5804-48A4-94BC-91AE0DD64803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="25" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32403,8 +32403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490C0FB0-D79B-42A7-B070-C4769D6ECC67}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="E155" sqref="E155"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36244,8 +36244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E7E2B6-6DCC-4C02-B6AC-CCA2DE26CDBC}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFEC379D-5804-48A4-94BC-91AE0DD64803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33E4176E-76D4-4F18-A20B-429CAD6915D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="25" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4116" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4128" uniqueCount="1023">
   <si>
     <t>Resource Name</t>
   </si>
@@ -3140,12 +3140,24 @@
     <t>started Integration</t>
   </si>
   <si>
-    <t>Creating angular component for topic list</t>
+    <t>Creating angular components for list pages(topic list,course list)</t>
+  </si>
+  <si>
+    <t>Refining styles in angular</t>
   </si>
   <si>
     <t>Refining component pages</t>
   </si>
   <si>
+    <t>angular components refining for list pages</t>
+  </si>
+  <si>
+    <t>Refining all components page</t>
+  </si>
+  <si>
+    <t>Exploration on navbar in angular</t>
+  </si>
+  <si>
     <t>Integrated angular and api ( course list)</t>
   </si>
   <si>
@@ -3206,6 +3218,9 @@
     <t>Angular Component Creating (Profile View for Head, co-ordinator)</t>
   </si>
   <si>
+    <t>Create components for department and course</t>
+  </si>
+  <si>
     <t>Angular Component Refining</t>
   </si>
   <si>
@@ -3221,6 +3236,9 @@
     <t>Angular component creating for View trainer profile ,courselist,topic list</t>
   </si>
   <si>
+    <t>Edit components in angular</t>
+  </si>
+  <si>
     <t>Redefined the created angular components</t>
   </si>
   <si>
@@ -3230,6 +3248,9 @@
     <t>Resolved conflicts and reworked on deleted angular components</t>
   </si>
   <si>
+    <t>Integration on angualar and web api for addreview</t>
+  </si>
+  <si>
     <t>Refining Review services</t>
   </si>
   <si>
@@ -3255,6 +3276,9 @@
   </si>
   <si>
     <t>Intergrating web api and angular (assigned  review)</t>
+  </si>
+  <si>
+    <t>Add department binding</t>
   </si>
   <si>
     <t>binding angular and webapi (topic list page)</t>
@@ -32403,8 +32427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490C0FB0-D79B-42A7-B070-C4769D6ECC67}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36244,8 +36268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E7E2B6-6DCC-4C02-B6AC-CCA2DE26CDBC}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36341,9 +36365,9 @@
       </c>
       <c r="I3" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H3)</f>
-        <v>0.31249999999999994</v>
-      </c>
-      <c r="K3" t="s">
+        <v>0.31944444444444436</v>
+      </c>
+      <c r="K3" s="82" t="s">
         <v>632</v>
       </c>
       <c r="Q3" t="s">
@@ -36376,7 +36400,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="K4" t="s">
-        <v>809</v>
+        <v>958</v>
       </c>
       <c r="Q4" t="s">
         <v>510</v>
@@ -36385,7 +36409,7 @@
     <row r="5" spans="1:17">
       <c r="A5" s="99"/>
       <c r="B5" s="80" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C5" s="80" t="s">
         <v>504</v>
@@ -36405,7 +36429,7 @@
       </c>
       <c r="I5" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H5)</f>
-        <v>4.1666666666666685E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="Q5" t="s">
         <v>513</v>
@@ -36420,21 +36444,21 @@
         <v>512</v>
       </c>
       <c r="D6" s="81">
-        <v>0.44097222222222227</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E6" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.55902777777777779</v>
       </c>
       <c r="F6" s="81">
         <f>E6-D6</f>
-        <v>3.819444444444442E-2</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="H6" s="83" t="s">
         <v>513</v>
       </c>
       <c r="I6" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H6)</f>
-        <v>6.9444444444444198E-3</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="Q6" t="s">
         <v>512</v>
@@ -36443,27 +36467,27 @@
     <row r="7" spans="1:17">
       <c r="A7" s="99"/>
       <c r="B7" s="80" t="s">
-        <v>782</v>
+        <v>518</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D7" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="E7" s="81">
-        <v>0.52083333333333337</v>
+        <v>0.59375</v>
       </c>
       <c r="F7" s="81">
         <f>E7-D7</f>
-        <v>4.1666666666666685E-2</v>
+        <v>2.430555555555558E-2</v>
       </c>
       <c r="H7" s="83" t="s">
         <v>512</v>
       </c>
       <c r="I7" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H7)</f>
-        <v>3.819444444444442E-2</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="Q7" t="s">
         <v>516</v>
@@ -36472,53 +36496,53 @@
     <row r="8" spans="1:17">
       <c r="A8" s="99"/>
       <c r="B8" s="80" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D8" s="81">
-        <v>0.52083333333333337</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="E8" s="81">
-        <v>0.5625</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="F8" s="81">
         <f>E8-D8</f>
-        <v>4.166666666666663E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H8" s="83" t="s">
         <v>516</v>
       </c>
       <c r="I8" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H8)</f>
-        <v>4.861111111111116E-2</v>
+        <v>3.1250000000000111E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="99"/>
       <c r="B9" s="80" t="s">
-        <v>811</v>
+        <v>960</v>
       </c>
       <c r="C9" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D9" s="81">
-        <v>0.56944444444444442</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E9" s="81">
         <v>0.6875</v>
       </c>
       <c r="F9" s="81">
         <f>E9-D9</f>
-        <v>0.11805555555555558</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="H9" s="78" t="s">
         <v>519</v>
       </c>
       <c r="I9" s="79">
         <f>SUM(I3:I8)</f>
-        <v>0.45486111111111105</v>
+        <v>0.44791666666666669</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -36544,7 +36568,7 @@
     <row r="11" spans="1:17">
       <c r="A11" s="99"/>
       <c r="B11" s="80" t="s">
-        <v>812</v>
+        <v>961</v>
       </c>
       <c r="C11" s="80" t="s">
         <v>504</v>
@@ -36553,23 +36577,31 @@
         <v>0.69444444444444453</v>
       </c>
       <c r="E11" s="81">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="F11" s="81">
         <f>E11-D11</f>
-        <v>5.5555555555555469E-2</v>
+        <v>9.7222222222222099E-2</v>
       </c>
       <c r="I11" s="84"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="99"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
+      <c r="B12" s="80" t="s">
+        <v>962</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D12" s="81">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E12" s="81">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="F12" s="81">
         <f>E12-D12</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -36621,7 +36653,7 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="C17" s="80" t="s">
         <v>504</v>
@@ -36642,8 +36674,8 @@
       <c r="I17" s="79" t="s">
         <v>506</v>
       </c>
-      <c r="K17" t="s">
-        <v>750</v>
+      <c r="K17" s="82" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -36678,7 +36710,7 @@
     <row r="19" spans="1:11">
       <c r="A19" s="99"/>
       <c r="B19" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="C19" s="80" t="s">
         <v>504</v>
@@ -36730,7 +36762,7 @@
     <row r="21" spans="1:11">
       <c r="A21" s="99"/>
       <c r="B21" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="C21" s="80" t="s">
         <v>504</v>
@@ -36756,7 +36788,7 @@
     <row r="22" spans="1:11">
       <c r="A22" s="99"/>
       <c r="B22" s="80" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="C22" s="80" t="s">
         <v>512</v>
@@ -36834,7 +36866,7 @@
     <row r="25" spans="1:11">
       <c r="A25" s="99"/>
       <c r="B25" s="80" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="C25" s="80" t="s">
         <v>504</v>
@@ -36874,7 +36906,7 @@
     <row r="27" spans="1:11">
       <c r="A27" s="99"/>
       <c r="B27" s="80" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="C27" s="80" t="s">
         <v>504</v>
@@ -36893,7 +36925,7 @@
     <row r="28" spans="1:11">
       <c r="A28" s="99"/>
       <c r="B28" s="80" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="C28" s="80" t="s">
         <v>504</v>
@@ -36931,7 +36963,7 @@
     <row r="30" spans="1:11">
       <c r="A30" s="99"/>
       <c r="B30" s="80" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="C30" s="80" t="s">
         <v>510</v>
@@ -36950,7 +36982,7 @@
     <row r="31" spans="1:11">
       <c r="A31" s="99"/>
       <c r="B31" s="80" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="C31" s="80" t="s">
         <v>504</v>
@@ -36996,7 +37028,7 @@
     <row r="33" spans="1:11">
       <c r="A33" s="99"/>
       <c r="B33" s="80" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="C33" s="80" t="s">
         <v>504</v>
@@ -37022,7 +37054,7 @@
     <row r="34" spans="1:11">
       <c r="A34" s="99"/>
       <c r="B34" s="18" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="C34" s="80" t="s">
         <v>504</v>
@@ -37096,14 +37128,14 @@
         <f>SUMIFS(F32:F46, C32:C46,H36)</f>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="K36" t="s">
-        <v>750</v>
+      <c r="K36" s="82" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="99"/>
       <c r="B37" s="80" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="C37" s="80" t="s">
         <v>504</v>
@@ -37126,7 +37158,7 @@
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="K37" s="80" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -37627,7 +37659,7 @@
     <row r="64" spans="1:11">
       <c r="A64" s="99"/>
       <c r="B64" s="80" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="C64" s="80" t="s">
         <v>504</v>
@@ -37650,13 +37682,13 @@
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="K64" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="99"/>
       <c r="B65" s="80" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="C65" s="80" t="s">
         <v>512</v>
@@ -37708,7 +37740,7 @@
     <row r="67" spans="1:11">
       <c r="A67" s="99"/>
       <c r="B67" s="80" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="C67" s="80" t="s">
         <v>513</v>
@@ -37734,7 +37766,7 @@
     <row r="68" spans="1:11">
       <c r="A68" s="99"/>
       <c r="B68" s="80" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="C68" s="80" t="s">
         <v>504</v>
@@ -37939,7 +37971,7 @@
     <row r="79" spans="1:11">
       <c r="A79" s="99"/>
       <c r="B79" s="80" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="C79" s="80" t="s">
         <v>504</v>
@@ -37987,14 +38019,14 @@
         <f>SUMIFS(F77:F91, C77:C91,H80)</f>
         <v>0</v>
       </c>
-      <c r="K80" t="s">
-        <v>845</v>
+      <c r="K80" s="82" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="99"/>
       <c r="B81" s="80" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="C81" s="80" t="s">
         <v>504</v>
@@ -38014,19 +38046,19 @@
       </c>
       <c r="I81" s="81">
         <f>SUMIFS(F77:F91, C77:C91,H81)</f>
-        <v>5.5555555555555469E-2</v>
+        <v>1.7361111111111049E-2</v>
       </c>
       <c r="K81" t="s">
-        <v>847</v>
+        <v>983</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="99"/>
       <c r="B82" s="80" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="C82" s="80" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D82" s="81">
         <v>0.52083333333333337</v>
@@ -38043,7 +38075,7 @@
       </c>
       <c r="I82" s="81">
         <f>SUMIFS(F77:F91, C77:C91,H82)</f>
-        <v>0</v>
+        <v>3.819444444444442E-2</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -38101,7 +38133,7 @@
     <row r="85" spans="1:11">
       <c r="A85" s="99"/>
       <c r="B85" s="80" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="C85" s="80" t="s">
         <v>504</v>
@@ -38141,7 +38173,7 @@
     <row r="87" spans="1:11">
       <c r="A87" s="99"/>
       <c r="B87" s="80" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="C87" s="80" t="s">
         <v>504</v>
@@ -38206,7 +38238,7 @@
         <v>851</v>
       </c>
       <c r="B92" s="80" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
       <c r="C92" s="80" t="s">
         <v>504</v>
@@ -38234,7 +38266,7 @@
         <v>808</v>
       </c>
       <c r="C93" s="80" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="D93" s="81">
         <v>0.3888888888888889</v>
@@ -38251,13 +38283,13 @@
       </c>
       <c r="I93" s="81">
         <f>SUMIFS(F92:F106, C92:C106,H93)</f>
-        <v>0.32986111111111105</v>
+        <v>0.32291666666666663</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="99"/>
       <c r="B94" s="80" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
       <c r="C94" s="80" t="s">
         <v>504</v>
@@ -38277,7 +38309,7 @@
       </c>
       <c r="I94" s="81">
         <f>SUMIFS(F92:F106, C92:C106,H94)</f>
-        <v>1.041666666666663E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -38304,11 +38336,14 @@
       <c r="I95" s="81">
         <v>0</v>
       </c>
+      <c r="K95" s="82" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="99"/>
       <c r="B96" s="80" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="C96" s="80" t="s">
         <v>504</v>
@@ -38328,16 +38363,19 @@
       </c>
       <c r="I96" s="81">
         <f>SUMIFS(F92:F106, C92:C106,H96)</f>
-        <v>4.166666666666663E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="K96" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="99"/>
       <c r="B97" s="80" t="s">
         <v>617</v>
       </c>
       <c r="C97" s="80" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D97" s="81">
         <v>0.52083333333333337</v>
@@ -38354,10 +38392,10 @@
       </c>
       <c r="I97" s="81">
         <f>SUMIFS(F92:F106, C92:C106,H97)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="99"/>
       <c r="B98" s="80" t="s">
         <v>518</v>
@@ -38383,13 +38421,13 @@
         <v>4.8611111111111105E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:11">
       <c r="A99" s="99"/>
       <c r="B99" s="80" t="s">
         <v>808</v>
       </c>
       <c r="C99" s="80" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="D99" s="81">
         <v>0.59375</v>
@@ -38409,10 +38447,10 @@
         <v>0.43055555555555541</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:11">
       <c r="A100" s="99"/>
       <c r="B100" s="80" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="C100" s="80" t="s">
         <v>504</v>
@@ -38429,7 +38467,7 @@
       </c>
       <c r="I100" s="84"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:11">
       <c r="A101" s="99"/>
       <c r="B101" s="80" t="s">
         <v>841</v>
@@ -38449,10 +38487,10 @@
       </c>
       <c r="I101" s="84"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:11">
       <c r="A102" s="99"/>
       <c r="B102" s="80" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="C102" s="80" t="s">
         <v>504</v>
@@ -38468,10 +38506,10 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:11">
       <c r="A103" s="99"/>
       <c r="B103" s="80" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="C103" s="80" t="s">
         <v>504</v>
@@ -38486,7 +38524,7 @@
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:11">
       <c r="A104" s="99"/>
       <c r="B104" s="80"/>
       <c r="C104" s="80"/>
@@ -38497,7 +38535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:11">
       <c r="A105" s="99"/>
       <c r="B105" s="80"/>
       <c r="C105" s="80"/>
@@ -38508,7 +38546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:11">
       <c r="A106" s="99"/>
       <c r="B106" s="80"/>
       <c r="C106" s="80"/>
@@ -38519,7 +38557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:11">
       <c r="A107" s="99" t="s">
         <v>631</v>
       </c>
@@ -38545,8 +38583,11 @@
       <c r="I107" s="79" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="K107" s="82" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="99"/>
       <c r="B108" s="80" t="s">
         <v>528</v>
@@ -38571,11 +38612,14 @@
         <f>SUMIFS(F107:F121, C107:C121,H108)</f>
         <v>0.28819444444444442</v>
       </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="K108" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="99"/>
       <c r="B109" s="80" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
       <c r="C109" s="80" t="s">
         <v>504</v>
@@ -38598,7 +38642,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:11">
       <c r="A110" s="99"/>
       <c r="B110" s="80" t="s">
         <v>792</v>
@@ -38624,10 +38668,10 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:11">
       <c r="A111" s="99"/>
       <c r="B111" s="80" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="C111" s="80" t="s">
         <v>510</v>
@@ -38650,10 +38694,10 @@
         <v>6.9444444444444198E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:11">
       <c r="A112" s="99"/>
       <c r="B112" s="80" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
       <c r="C112" s="80" t="s">
         <v>512</v>
@@ -38676,7 +38720,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:11">
       <c r="A113" s="99"/>
       <c r="B113" s="80" t="s">
         <v>518</v>
@@ -38702,13 +38746,13 @@
         <v>3.819444444444442E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:11">
       <c r="A114" s="99"/>
       <c r="B114" s="80" t="s">
         <v>528</v>
       </c>
       <c r="C114" s="80" t="s">
-        <v>990</v>
+        <v>997</v>
       </c>
       <c r="D114" s="81">
         <v>0.59375</v>
@@ -38728,10 +38772,10 @@
         <v>0.40277777777777768</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:11">
       <c r="A115" s="99"/>
       <c r="B115" s="80" t="s">
-        <v>991</v>
+        <v>998</v>
       </c>
       <c r="C115" s="80" t="s">
         <v>504</v>
@@ -38748,10 +38792,10 @@
       </c>
       <c r="I115" s="84"/>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:11">
       <c r="A116" s="99"/>
       <c r="B116" s="80" t="s">
-        <v>992</v>
+        <v>999</v>
       </c>
       <c r="C116" s="80" t="s">
         <v>504</v>
@@ -38768,10 +38812,10 @@
       </c>
       <c r="I116" s="84"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:11">
       <c r="A117" s="99"/>
       <c r="B117" s="80" t="s">
-        <v>993</v>
+        <v>1000</v>
       </c>
       <c r="C117" s="80" t="s">
         <v>504</v>
@@ -38787,10 +38831,10 @@
         <v>2.777777777777779E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:11">
       <c r="A118" s="99"/>
       <c r="B118" s="18" t="s">
-        <v>994</v>
+        <v>1001</v>
       </c>
       <c r="C118" s="80" t="s">
         <v>504</v>
@@ -38806,10 +38850,10 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:11">
       <c r="A119" s="99"/>
       <c r="B119" s="18" t="s">
-        <v>995</v>
+        <v>1002</v>
       </c>
       <c r="C119" s="80" t="s">
         <v>504</v>
@@ -38825,7 +38869,7 @@
         <v>7.291666666666663E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:11">
       <c r="A120" s="99"/>
       <c r="B120" s="80"/>
       <c r="C120" s="80"/>
@@ -38836,7 +38880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:11">
       <c r="A121" s="99"/>
       <c r="B121" s="80"/>
       <c r="C121" s="80"/>
@@ -38847,7 +38891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:11">
       <c r="A122" s="99" t="s">
         <v>22</v>
       </c>
@@ -38873,8 +38917,11 @@
       <c r="I122" s="79" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="K122" s="82" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="99"/>
       <c r="B123" s="80" t="s">
         <v>528</v>
@@ -38899,11 +38946,14 @@
         <f>SUMIFS(F122:F136, C122:C136,H123)</f>
         <v>0.31597222222222221</v>
       </c>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="K123" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="99"/>
       <c r="B124" s="80" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="C124" s="80" t="s">
         <v>504</v>
@@ -38926,7 +38976,7 @@
         <v>5.902777777777779E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:11">
       <c r="A125" s="99"/>
       <c r="B125" s="80" t="s">
         <v>520</v>
@@ -38952,10 +39002,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:11">
       <c r="A126" s="99"/>
       <c r="B126" s="80" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="C126" s="80" t="s">
         <v>504</v>
@@ -38978,10 +39028,10 @@
         <v>1.7361111111111049E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:11">
       <c r="A127" s="99"/>
       <c r="B127" s="80" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
       <c r="C127" s="80" t="s">
         <v>512</v>
@@ -39004,7 +39054,7 @@
         <v>4.8611111111111049E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:11">
       <c r="A128" s="99"/>
       <c r="B128" s="80" t="s">
         <v>518</v>
@@ -39030,7 +39080,7 @@
         <v>3.4722222222222321E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:11">
       <c r="A129" s="99"/>
       <c r="B129" s="80" t="s">
         <v>528</v>
@@ -39056,10 +39106,10 @@
         <v>0.47569444444444442</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:11">
       <c r="A130" s="99"/>
       <c r="B130" s="80" t="s">
-        <v>999</v>
+        <v>1007</v>
       </c>
       <c r="C130" s="80" t="s">
         <v>508</v>
@@ -39076,10 +39126,10 @@
       </c>
       <c r="I130" s="84"/>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:11">
       <c r="A131" s="99"/>
       <c r="B131" s="80" t="s">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="C131" s="80" t="s">
         <v>504</v>
@@ -39096,7 +39146,7 @@
       </c>
       <c r="I131" s="84"/>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:11">
       <c r="A132" s="99"/>
       <c r="B132" s="80" t="s">
         <v>521</v>
@@ -39115,10 +39165,10 @@
         <v>6.9444444444445308E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:11">
       <c r="A133" s="99"/>
       <c r="B133" s="80" t="s">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="C133" s="80" t="s">
         <v>504</v>
@@ -39134,10 +39184,10 @@
         <v>3.472222222222221E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:11">
       <c r="A134" s="99"/>
       <c r="B134" s="80" t="s">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="C134" s="80" t="s">
         <v>504</v>
@@ -39153,7 +39203,7 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:11">
       <c r="A135" s="99"/>
       <c r="B135" s="80" t="s">
         <v>889</v>
@@ -39172,10 +39222,10 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:11">
       <c r="A136" s="99"/>
       <c r="B136" s="80" t="s">
-        <v>1003</v>
+        <v>1011</v>
       </c>
       <c r="C136" s="80" t="s">
         <v>504</v>
@@ -39191,7 +39241,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:11">
       <c r="A137" s="99" t="s">
         <v>647</v>
       </c>
@@ -39217,8 +39267,11 @@
       <c r="I137" s="79" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="K137" s="82" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="99"/>
       <c r="B138" s="80" t="s">
         <v>528</v>
@@ -39243,11 +39296,14 @@
         <f>SUMIFS(F137:F151, C137:C151,H138)</f>
         <v>0.34722222222222221</v>
       </c>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="K138" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="99"/>
       <c r="B139" s="80" t="s">
-        <v>1004</v>
+        <v>1012</v>
       </c>
       <c r="C139" s="80" t="s">
         <v>504</v>
@@ -39270,7 +39326,7 @@
         <v>3.1250000000000056E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:11">
       <c r="A140" s="99"/>
       <c r="B140" s="80" t="s">
         <v>520</v>
@@ -39296,10 +39352,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:11">
       <c r="A141" s="99"/>
       <c r="B141" s="80" t="s">
-        <v>1005</v>
+        <v>1013</v>
       </c>
       <c r="C141" s="80" t="s">
         <v>504</v>
@@ -39322,10 +39378,10 @@
         <v>1.7361111111111049E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:11">
       <c r="A142" s="99"/>
       <c r="B142" s="80" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
       <c r="C142" s="80" t="s">
         <v>512</v>
@@ -39348,7 +39404,7 @@
         <v>4.8611111111111049E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:11">
       <c r="A143" s="99"/>
       <c r="B143" s="80" t="s">
         <v>518</v>
@@ -39374,7 +39430,7 @@
         <v>3.8194444444444586E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:11">
       <c r="A144" s="99"/>
       <c r="B144" s="80" t="s">
         <v>528</v>
@@ -39400,10 +39456,10 @@
         <v>0.48263888888888895</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:11">
       <c r="A145" s="99"/>
       <c r="B145" s="80" t="s">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="C145" s="80" t="s">
         <v>504</v>
@@ -39420,7 +39476,7 @@
       </c>
       <c r="I145" s="84"/>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:11">
       <c r="A146" s="99"/>
       <c r="B146" s="80" t="s">
         <v>521</v>
@@ -39440,10 +39496,10 @@
       </c>
       <c r="I146" s="84"/>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:11">
       <c r="A147" s="99"/>
       <c r="B147" s="80" t="s">
-        <v>1007</v>
+        <v>1015</v>
       </c>
       <c r="C147" s="80" t="s">
         <v>504</v>
@@ -39459,10 +39515,10 @@
         <v>3.472222222222221E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:11">
       <c r="A148" s="99"/>
       <c r="B148" s="80" t="s">
-        <v>1008</v>
+        <v>1016</v>
       </c>
       <c r="C148" s="80" t="s">
         <v>504</v>
@@ -39478,10 +39534,10 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:11">
       <c r="A149" s="99"/>
       <c r="B149" s="80" t="s">
-        <v>1009</v>
+        <v>1017</v>
       </c>
       <c r="C149" s="80" t="s">
         <v>508</v>
@@ -39497,10 +39553,10 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:11">
       <c r="A150" s="99"/>
       <c r="B150" s="80" t="s">
-        <v>1010</v>
+        <v>1018</v>
       </c>
       <c r="C150" s="80" t="s">
         <v>504</v>
@@ -39516,7 +39572,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:11">
       <c r="A151" s="99"/>
       <c r="B151" s="80"/>
       <c r="C151" s="80"/>
@@ -39527,7 +39583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:11">
       <c r="A152" s="99" t="s">
         <v>23</v>
       </c>
@@ -39554,7 +39610,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:11">
       <c r="A153" s="99"/>
       <c r="B153" s="80" t="s">
         <v>528</v>
@@ -39580,10 +39636,10 @@
         <v>0.30208333333333337</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:11">
       <c r="A154" s="99"/>
       <c r="B154" s="80" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
       <c r="C154" s="80" t="s">
         <v>504</v>
@@ -39605,11 +39661,14 @@
         <f>SUMIFS(F152:F166, C152:C166,H154)</f>
         <v>1.0416666666666685E-2</v>
       </c>
-    </row>
-    <row r="155" spans="1:9">
+      <c r="K154" s="82" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="99"/>
       <c r="B155" s="80" t="s">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="C155" s="80" t="s">
         <v>510</v>
@@ -39631,11 +39690,14 @@
         <f>SUMIFS(F152:F166, C152:C166,H155)</f>
         <v>7.2916666666666685E-2</v>
       </c>
-    </row>
-    <row r="156" spans="1:9">
+      <c r="K155" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="99"/>
       <c r="B156" s="80" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
       <c r="C156" s="80" t="s">
         <v>512</v>
@@ -39658,10 +39720,10 @@
         <v>1.7361111111111049E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:11">
       <c r="A157" s="99"/>
       <c r="B157" s="80" t="s">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="C157" s="80" t="s">
         <v>516</v>
@@ -39684,7 +39746,7 @@
         <v>4.8611111111111049E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:11">
       <c r="A158" s="99"/>
       <c r="B158" s="80" t="s">
         <v>528</v>
@@ -39710,10 +39772,10 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:11">
       <c r="A159" s="99"/>
       <c r="B159" s="80" t="s">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="C159" s="80" t="s">
         <v>504</v>
@@ -39736,10 +39798,10 @@
         <v>0.47222222222222221</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:11">
       <c r="A160" s="99"/>
       <c r="B160" s="80" t="s">
-        <v>993</v>
+        <v>1000</v>
       </c>
       <c r="C160" s="80" t="s">
         <v>504</v>
@@ -39759,7 +39821,7 @@
     <row r="161" spans="1:9">
       <c r="A161" s="99"/>
       <c r="B161" s="80" t="s">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="C161" s="80" t="s">
         <v>504</v>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEB35FF3-C02C-4DBB-9451-8FFB75BA1EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76594BDF-5362-462A-BE8B-23F2EB6B9514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="27" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4832" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4845" uniqueCount="1108">
   <si>
     <t>Resource Name</t>
   </si>
@@ -3502,9 +3502,21 @@
     <t>working on create Course feedback page</t>
   </si>
   <si>
+    <t>integration in feedback edit</t>
+  </si>
+  <si>
+    <t>worked on schedule review</t>
+  </si>
+  <si>
     <t>client Meeting with Rafi</t>
   </si>
   <si>
+    <t>Session by gokul and worked on create course feedback</t>
+  </si>
+  <si>
+    <t>conflict resolving and idle</t>
+  </si>
+  <si>
     <t>Profileview in Angular Component</t>
   </si>
   <si>
@@ -3538,6 +3550,12 @@
     <t>Tutorial video about JWT</t>
   </si>
   <si>
+    <t>Corrections in router</t>
+  </si>
+  <si>
+    <t>Angular Component (reworked)</t>
+  </si>
+  <si>
     <t>worked on review service (MOM)</t>
   </si>
   <si>
@@ -3562,7 +3580,19 @@
     <t>working on topic view in angular</t>
   </si>
   <si>
+    <t>binding webapi and angular for topic view</t>
+  </si>
+  <si>
+    <t>resolving error while intergration(topic view)</t>
+  </si>
+  <si>
+    <t>intergrating add department page</t>
+  </si>
+  <si>
     <t>Customer review</t>
+  </si>
+  <si>
+    <t>Worked on create schedule page</t>
   </si>
 </sst>
 </file>
@@ -44280,8 +44310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339D93A7-2AAE-4B5D-A9CF-16377D578EBD}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45410,18 +45440,18 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="E53" s="81">
-        <v>0</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="F53" s="81">
         <f>E53-D53</f>
-        <v>-0.56944444444444442</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H53" s="83" t="s">
         <v>516</v>
       </c>
       <c r="I53" s="81">
         <f>SUMIFS(F47:F61, C47:C61,H53)</f>
-        <v>-0.55902777777777768</v>
+        <v>3.1250000000000056E-2</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -45445,7 +45475,7 @@
       </c>
       <c r="I54" s="79">
         <f>SUM(I48:I53)</f>
-        <v>-0.38194444444444436</v>
+        <v>0.20833333333333337</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -45598,7 +45628,7 @@
       </c>
       <c r="I63" s="81">
         <f>SUMIFS(F62:F76, C62:C76,H63)</f>
-        <v>0.14583333333333331</v>
+        <v>0.29861111111111116</v>
       </c>
       <c r="K63" s="82" t="s">
         <v>632</v>
@@ -45630,31 +45660,33 @@
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="K64" t="s">
-        <v>985</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="99"/>
-      <c r="B65" s="80"/>
+      <c r="B65" s="80" t="s">
+        <v>1078</v>
+      </c>
       <c r="C65" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D65" s="81">
-        <v>0.4375</v>
+        <v>0.44097222222222227</v>
       </c>
       <c r="E65" s="81">
-        <v>0.5</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="F65" s="81">
         <f>E65-D65</f>
-        <v>6.25E-2</v>
+        <v>7.2916666666666685E-2</v>
       </c>
       <c r="H65" s="83" t="s">
         <v>510</v>
       </c>
       <c r="I65" s="81">
         <f>SUMIFS(F62:F76, C62:C76,H65)</f>
-        <v>1.388888888888884E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -45663,7 +45695,7 @@
         <v>528</v>
       </c>
       <c r="C66" s="80" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D66" s="81">
         <v>0.51388888888888895</v>
@@ -45680,16 +45712,16 @@
       </c>
       <c r="I66" s="81">
         <f>SUMIFS(F62:F76, C62:C76,H66)</f>
-        <v>4.513888888888884E-2</v>
+        <v>3.8194444444444309E-2</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="99"/>
       <c r="B67" s="80" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="C67" s="80" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D67" s="81">
         <v>0.52083333333333337</v>
@@ -45706,7 +45738,7 @@
       </c>
       <c r="I67" s="81">
         <f>SUMIFS(F62:F76, C62:C76,H67)</f>
-        <v>0</v>
+        <v>4.513888888888884E-2</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -45715,7 +45747,7 @@
         <v>518</v>
       </c>
       <c r="C68" s="80" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="D68" s="81">
         <v>0.56597222222222221</v>
@@ -45732,31 +45764,33 @@
       </c>
       <c r="I68" s="81">
         <f>SUMIFS(F62:F76, C62:C76,H68)</f>
-        <v>1.7361111111111105E-2</v>
+        <v>3.4722222222222265E-2</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="99"/>
-      <c r="B69" s="80"/>
+      <c r="B69" s="80" t="s">
+        <v>1080</v>
+      </c>
       <c r="C69" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D69" s="81">
-        <v>0</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="E69" s="81">
-        <v>0</v>
+        <v>0.64930555555555558</v>
       </c>
       <c r="F69" s="81">
         <f>E69-D69</f>
-        <v>0</v>
+        <v>5.902777777777779E-2</v>
       </c>
       <c r="H69" s="78" t="s">
         <v>519</v>
       </c>
       <c r="I69" s="79">
         <f>SUM(I63:I68)</f>
-        <v>0.23263888888888878</v>
+        <v>0.46875</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -45765,7 +45799,7 @@
         <v>528</v>
       </c>
       <c r="C70" s="80" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="D70" s="81">
         <v>0.64930555555555558</v>
@@ -45781,37 +45815,41 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="99"/>
-      <c r="B71" s="80"/>
+      <c r="B71" s="80" t="s">
+        <v>782</v>
+      </c>
       <c r="C71" s="80" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D71" s="81">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E71" s="81">
-        <v>0</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F71" s="81">
         <f>E71-D71</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="I71" s="84"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="99"/>
-      <c r="B72" s="80"/>
+      <c r="B72" s="80" t="s">
+        <v>1081</v>
+      </c>
       <c r="C72" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D72" s="81">
-        <v>0</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E72" s="81">
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F72" s="81">
         <f>E72-D72</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -45820,7 +45858,7 @@
         <v>528</v>
       </c>
       <c r="C73" s="80" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D73" s="81">
         <v>0.84375</v>
@@ -45896,7 +45934,7 @@
     <row r="78" spans="1:11">
       <c r="A78" s="99"/>
       <c r="B78" s="80" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="C78" s="80" t="s">
         <v>504</v>
@@ -45948,7 +45986,7 @@
     <row r="80" spans="1:11">
       <c r="A80" s="99"/>
       <c r="B80" s="80" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="C80" s="80" t="s">
         <v>504</v>
@@ -46000,7 +46038,7 @@
         <v>2.4305555555555469E-2</v>
       </c>
       <c r="K81" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -46058,7 +46096,7 @@
     <row r="84" spans="1:11">
       <c r="A84" s="99"/>
       <c r="B84" s="80" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="C84" s="80" t="s">
         <v>504</v>
@@ -46143,7 +46181,7 @@
     <row r="88" spans="1:11">
       <c r="A88" s="99"/>
       <c r="B88" s="80" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="C88" s="80" t="s">
         <v>504</v>
@@ -46162,7 +46200,7 @@
     <row r="89" spans="1:11">
       <c r="A89" s="99"/>
       <c r="B89" s="80" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="C89" s="80" t="s">
         <v>504</v>
@@ -46181,7 +46219,7 @@
     <row r="90" spans="1:11">
       <c r="A90" s="99"/>
       <c r="B90" s="80" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="C90" s="80" t="s">
         <v>510</v>
@@ -46210,7 +46248,7 @@
         <v>851</v>
       </c>
       <c r="B92" s="80" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="C92" s="80" t="s">
         <v>504</v>
@@ -46235,7 +46273,7 @@
     <row r="93" spans="1:11">
       <c r="A93" s="99"/>
       <c r="B93" s="80" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="C93" s="80" t="s">
         <v>504</v>
@@ -46255,13 +46293,13 @@
       </c>
       <c r="I93" s="81">
         <f>SUMIFS(F92:F106, C92:C106,H93)</f>
-        <v>9.375E-2</v>
+        <v>0.1423611111111111</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="99"/>
       <c r="B94" s="80" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="C94" s="80" t="s">
         <v>504</v>
@@ -46281,7 +46319,7 @@
       </c>
       <c r="I94" s="81">
         <f>SUMIFS(F92:F106, C92:C106,H94)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -46314,7 +46352,7 @@
     <row r="96" spans="1:11">
       <c r="A96" s="99"/>
       <c r="B96" s="80" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="C96" s="80" t="s">
         <v>510</v>
@@ -46411,32 +46449,52 @@
       </c>
       <c r="I99" s="79">
         <f>SUM(I93:I98)</f>
-        <v>0.18680555555555553</v>
+        <v>0.27708333333333335</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="99"/>
-      <c r="B100" s="80"/>
-      <c r="C100" s="80"/>
-      <c r="D100" s="81"/>
-      <c r="E100" s="81"/>
-      <c r="F100" s="81"/>
+      <c r="B100" s="80" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C100" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D100" s="81">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E100" s="81">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="F100" s="81">
+        <v>4.8611111111111112E-2</v>
+      </c>
       <c r="I100" s="84"/>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="99"/>
-      <c r="B101" s="80"/>
+      <c r="B101" t="s">
+        <v>782</v>
+      </c>
       <c r="C101" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D101" s="81"/>
-      <c r="E101" s="81"/>
-      <c r="F101" s="81"/>
+        <v>508</v>
+      </c>
+      <c r="D101" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E101" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F101" s="81">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="I101" s="84"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="99"/>
-      <c r="B102" s="80"/>
+      <c r="B102" s="80" t="s">
+        <v>1094</v>
+      </c>
       <c r="C102" s="80"/>
       <c r="D102" s="81"/>
       <c r="E102" s="81"/>
@@ -46505,7 +46563,7 @@
     <row r="108" spans="1:11">
       <c r="A108" s="99"/>
       <c r="B108" s="80" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="C108" s="80" t="s">
         <v>504</v>
@@ -46560,7 +46618,7 @@
     <row r="110" spans="1:11">
       <c r="A110" s="99"/>
       <c r="B110" s="80" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="C110" s="80" t="s">
         <v>504</v>
@@ -46586,7 +46644,7 @@
     <row r="111" spans="1:11">
       <c r="A111" s="99"/>
       <c r="B111" s="80" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="C111" s="80" t="s">
         <v>504</v>
@@ -46638,7 +46696,7 @@
     <row r="113" spans="1:11">
       <c r="A113" s="99"/>
       <c r="B113" s="80" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="C113" s="80" t="s">
         <v>512</v>
@@ -46690,7 +46748,7 @@
     <row r="115" spans="1:11">
       <c r="A115" s="99"/>
       <c r="B115" s="18" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="C115" s="80" t="s">
         <v>504</v>
@@ -46710,7 +46768,7 @@
     <row r="116" spans="1:11">
       <c r="A116" s="99"/>
       <c r="B116" s="18" t="s">
-        <v>1093</v>
+        <v>1099</v>
       </c>
       <c r="C116" s="80" t="s">
         <v>504</v>
@@ -46768,7 +46826,7 @@
     <row r="119" spans="1:11">
       <c r="A119" s="99"/>
       <c r="B119" s="80" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="C119" s="80" t="s">
         <v>504</v>
@@ -46787,7 +46845,7 @@
     <row r="120" spans="1:11">
       <c r="A120" s="99"/>
       <c r="B120" s="80" t="s">
-        <v>1095</v>
+        <v>1101</v>
       </c>
       <c r="C120" s="80" t="s">
         <v>508</v>
@@ -46855,7 +46913,7 @@
     <row r="123" spans="1:11">
       <c r="A123" s="99"/>
       <c r="B123" s="80" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="C123" s="80" t="s">
         <v>504</v>
@@ -46875,7 +46933,7 @@
       </c>
       <c r="I123" s="81">
         <f>SUMIFS(F122:F136, C122:C136,H123)</f>
-        <v>0.17708333333333343</v>
+        <v>0.17361111111111122</v>
       </c>
       <c r="K123" t="s">
         <v>1011</v>
@@ -46884,10 +46942,10 @@
     <row r="124" spans="1:11">
       <c r="A124" s="99"/>
       <c r="B124" s="80" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C124" s="80" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D124" s="81">
         <v>0.43055555555555558</v>
@@ -46910,7 +46968,7 @@
     <row r="125" spans="1:11">
       <c r="A125" s="99"/>
       <c r="B125" s="80" t="s">
-        <v>1067</v>
+        <v>1103</v>
       </c>
       <c r="C125" s="80" t="s">
         <v>504</v>
@@ -46919,11 +46977,11 @@
         <v>0.4375</v>
       </c>
       <c r="E125" s="81">
-        <v>0.52083333333333337</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="F125" s="81">
         <f>E125-D125</f>
-        <v>8.333333333333337E-2</v>
+        <v>7.6388888888888951E-2</v>
       </c>
       <c r="H125" s="83" t="s">
         <v>510</v>
@@ -46942,10 +47000,10 @@
         <v>513</v>
       </c>
       <c r="D126" s="81">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E126" s="81">
         <v>0.52083333333333337</v>
-      </c>
-      <c r="E126" s="81">
-        <v>0.52777777777777779</v>
       </c>
       <c r="F126" s="81">
         <f>E126-D126</f>
@@ -46956,7 +47014,7 @@
       </c>
       <c r="I126" s="81">
         <f>SUMIFS(F122:F136, C122:C136,H126)</f>
-        <v>1.388888888888884E-2</v>
+        <v>2.4305555555555469E-2</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -46971,18 +47029,18 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E127" s="81">
-        <v>0.56944444444444442</v>
+        <v>0.56597222222222221</v>
       </c>
       <c r="F127" s="81">
         <f>E127-D127</f>
-        <v>4.8611111111111049E-2</v>
+        <v>4.513888888888884E-2</v>
       </c>
       <c r="H127" s="83" t="s">
         <v>512</v>
       </c>
       <c r="I127" s="81">
         <f>SUMIFS(F122:F136, C122:C136,H127)</f>
-        <v>4.8611111111111049E-2</v>
+        <v>4.513888888888884E-2</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -47008,13 +47066,13 @@
       </c>
       <c r="I128" s="81">
         <f>SUMIFS(F122:F136, C122:C136,H128)</f>
-        <v>2.083333333333337E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="99"/>
       <c r="B129" s="80" t="s">
-        <v>1068</v>
+        <v>1104</v>
       </c>
       <c r="C129" s="80" t="s">
         <v>504</v>
@@ -47023,41 +47081,57 @@
         <v>0.59375</v>
       </c>
       <c r="E129" s="81">
-        <v>0.64583333333333337</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="F129" s="81">
         <f>E129-D129</f>
-        <v>5.208333333333337E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H129" s="78" t="s">
         <v>519</v>
       </c>
       <c r="I129" s="79">
         <f>SUM(I123:I128)</f>
-        <v>0.2673611111111111</v>
+        <v>0.27777777777777773</v>
       </c>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="99"/>
-      <c r="B130" s="80"/>
-      <c r="C130" s="80"/>
-      <c r="D130" s="81"/>
-      <c r="E130" s="81"/>
+      <c r="B130" s="80" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C130" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D130" s="81">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E130" s="81">
+        <v>0.64930555555555558</v>
+      </c>
       <c r="F130" s="81">
         <f>E130-D130</f>
-        <v>0</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="I130" s="84"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="99"/>
-      <c r="B131" s="80"/>
-      <c r="C131" s="80"/>
-      <c r="D131" s="81"/>
-      <c r="E131" s="81"/>
+      <c r="B131" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C131" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D131" s="81">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="E131" s="81">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F131" s="81">
         <f>E131-D131</f>
-        <v>0</v>
+        <v>1.7361111111111049E-2</v>
       </c>
       <c r="I131" s="84"/>
     </row>
@@ -47256,7 +47330,7 @@
     <row r="142" spans="1:11">
       <c r="A142" s="99"/>
       <c r="B142" s="80" t="s">
-        <v>1097</v>
+        <v>1106</v>
       </c>
       <c r="C142" s="80" t="s">
         <v>512</v>
@@ -47439,7 +47513,9 @@
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="99"/>
-      <c r="B153" s="80"/>
+      <c r="B153" s="80" t="s">
+        <v>1107</v>
+      </c>
       <c r="C153" s="80" t="s">
         <v>504</v>
       </c>
@@ -47464,7 +47540,7 @@
     <row r="154" spans="1:11">
       <c r="A154" s="99"/>
       <c r="B154" s="80" t="s">
-        <v>1002</v>
+        <v>792</v>
       </c>
       <c r="C154" s="80" t="s">
         <v>504</v>
@@ -47522,7 +47598,7 @@
     <row r="156" spans="1:11">
       <c r="A156" s="99"/>
       <c r="B156" s="80" t="s">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="C156" s="80" t="s">
         <v>504</v>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{601B660F-D7E6-4E53-8AA5-4875DAE63FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC3D1D93-7A68-4667-BF3A-E40DB9935D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="27" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4861" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4884" uniqueCount="1128">
   <si>
     <t>Resource Name</t>
   </si>
@@ -3502,6 +3502,9 @@
     <t>Worked on Users list page</t>
   </si>
   <si>
+    <t>Exploration on JWT</t>
+  </si>
+  <si>
     <t>working on topiclist(view)</t>
   </si>
   <si>
@@ -3520,6 +3523,12 @@
     <t>topiclist services</t>
   </si>
   <si>
+    <t>working on view of course and topic list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conflict resolving </t>
+  </si>
+  <si>
     <t>add user</t>
   </si>
   <si>
@@ -3538,6 +3547,9 @@
     <t>TopicList View Service</t>
   </si>
   <si>
+    <t>Angular Page for CourseList and CourseView</t>
+  </si>
+  <si>
     <t>working on create Course feedback page</t>
   </si>
   <si>
@@ -3631,7 +3643,10 @@
     <t xml:space="preserve">resloving error on add department </t>
   </si>
   <si>
-    <t>Customer review</t>
+    <t>resolving conflicts in git and creating sequence diagram (add department)</t>
+  </si>
+  <si>
+    <t>Intergrating add department page</t>
   </si>
   <si>
     <t>Worked on create schedule page</t>
@@ -12383,17 +12398,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A106:A120"/>
-    <mergeCell ref="A121:A135"/>
-    <mergeCell ref="A136:A150"/>
-    <mergeCell ref="A151:A165"/>
     <mergeCell ref="A76:A90"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A45"/>
     <mergeCell ref="A46:A60"/>
     <mergeCell ref="A61:A75"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A106:A120"/>
+    <mergeCell ref="A121:A135"/>
+    <mergeCell ref="A136:A150"/>
+    <mergeCell ref="A151:A165"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I47 I62 I77 I92 I107 I122 I137 I152">
     <cfRule type="cellIs" dxfId="207" priority="12" operator="greaterThan">
@@ -16152,17 +16167,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="194" priority="12" operator="greaterThan">
@@ -19998,17 +20013,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="181" priority="12" operator="greaterThan">
@@ -23160,17 +23175,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="168" priority="12" operator="greaterThan">
@@ -26243,17 +26258,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="155" priority="12" operator="greaterThan">
@@ -29518,17 +29533,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="142" priority="12" operator="greaterThan">
@@ -33122,17 +33137,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="129" priority="38" operator="greaterThan">
@@ -36963,17 +36978,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="103" priority="25" operator="greaterThan">
@@ -40753,17 +40768,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="77" priority="25" operator="greaterThan">
@@ -40880,7 +40895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80157801-CF16-46D1-B337-3BAC73FC495F}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A151" workbookViewId="0">
       <selection activeCell="B7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -44228,17 +44243,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="51" priority="25" operator="greaterThan">
@@ -44355,8 +44370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339D93A7-2AAE-4B5D-A9CF-16377D578EBD}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44452,7 +44467,7 @@
       </c>
       <c r="I3" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H3)</f>
-        <v>0.27430555555555564</v>
+        <v>0.15972222222222227</v>
       </c>
       <c r="K3" s="82" t="s">
         <v>632</v>
@@ -44516,7 +44531,7 @@
       </c>
       <c r="I5" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H5)</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="Q5" t="s">
         <v>513</v>
@@ -44545,7 +44560,7 @@
       </c>
       <c r="I6" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H6)</f>
-        <v>6.9444444444444198E-3</v>
+        <v>2.4305555555555469E-2</v>
       </c>
       <c r="Q6" t="s">
         <v>512</v>
@@ -44592,11 +44607,11 @@
         <v>0.58680555555555558</v>
       </c>
       <c r="E8" s="81">
-        <v>0.69444444444444453</v>
+        <v>0.64930555555555558</v>
       </c>
       <c r="F8" s="81">
         <f>E8-D8</f>
-        <v>0.10763888888888895</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H8" s="83" t="s">
         <v>516</v>
@@ -44609,44 +44624,54 @@
     <row r="9" spans="1:17">
       <c r="A9" s="99"/>
       <c r="B9" s="80" t="s">
-        <v>1034</v>
+        <v>528</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="D9" s="81">
-        <v>0.65277777777777779</v>
+        <v>0.64930555555555558</v>
       </c>
       <c r="E9" s="81">
-        <v>0.72222222222222221</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F9" s="81">
         <f>E9-D9</f>
-        <v>6.944444444444442E-2</v>
+        <v>1.7361111111111049E-2</v>
       </c>
       <c r="H9" s="78" t="s">
         <v>519</v>
       </c>
       <c r="I9" s="79">
         <f>SUM(I3:I8)</f>
-        <v>0.35000000000000009</v>
+        <v>0.29444444444444451</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="99"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
+      <c r="B10" s="80" t="s">
+        <v>782</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D10" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E10" s="81">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F10" s="81">
         <f>E10-D10</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="I10" s="84"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="99"/>
-      <c r="B11" s="80"/>
+      <c r="B11" s="80" t="s">
+        <v>1077</v>
+      </c>
       <c r="C11" s="80"/>
       <c r="D11" s="81"/>
       <c r="E11" s="81"/>
@@ -44744,7 +44769,7 @@
     <row r="18" spans="1:11">
       <c r="A18" s="99"/>
       <c r="B18" s="80" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C18" s="80" t="s">
         <v>504</v>
@@ -44764,7 +44789,7 @@
       </c>
       <c r="I18" s="81">
         <f>SUMIFS(F17:F31, C17:C31,H18)</f>
-        <v>12.1625</v>
+        <v>12.243055555555555</v>
       </c>
       <c r="K18" t="s">
         <v>814</v>
@@ -44773,7 +44798,7 @@
     <row r="19" spans="1:11">
       <c r="A19" s="99"/>
       <c r="B19" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C19" s="80" t="s">
         <v>504</v>
@@ -44825,7 +44850,7 @@
     <row r="21" spans="1:11">
       <c r="A21" s="99"/>
       <c r="B21" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C21" s="80" t="s">
         <v>504</v>
@@ -44851,7 +44876,7 @@
     <row r="22" spans="1:11">
       <c r="A22" s="99"/>
       <c r="B22" s="80" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C22" s="80" t="s">
         <v>513</v>
@@ -44877,7 +44902,7 @@
     <row r="23" spans="1:11">
       <c r="A23" s="99"/>
       <c r="B23" s="80" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C23" s="80" t="s">
         <v>512</v>
@@ -44923,13 +44948,13 @@
       </c>
       <c r="I24" s="79">
         <f>SUM(I18:I23)</f>
-        <v>12.36319444444444</v>
+        <v>12.443749999999996</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="99"/>
       <c r="B25" s="80" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C25" s="80" t="s">
         <v>508</v>
@@ -44991,31 +45016,39 @@
     <row r="28" spans="1:11">
       <c r="A28" s="99"/>
       <c r="B28" s="80" t="s">
-        <v>1041</v>
+        <v>1084</v>
       </c>
       <c r="C28" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D28" s="81">
-        <v>0.95486111111111116</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E28" s="81">
-        <v>0.99930555555555556</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="F28" s="81">
         <f>E28-D28</f>
-        <v>4.4444444444444398E-2</v>
+        <v>8.3333333333333259E-2</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="99"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
+      <c r="B29" s="80" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C29" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D29" s="81">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E29" s="81">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="F29" s="81">
         <f>E29-D29</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -45070,7 +45103,7 @@
     <row r="33" spans="1:11">
       <c r="A33" s="99"/>
       <c r="B33" s="80" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="C33" s="80" t="s">
         <v>504</v>
@@ -45122,7 +45155,7 @@
     <row r="35" spans="1:11">
       <c r="A35" s="99"/>
       <c r="B35" s="80" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="C35" s="80" t="s">
         <v>513</v>
@@ -45148,7 +45181,7 @@
     <row r="36" spans="1:11">
       <c r="A36" s="99"/>
       <c r="B36" s="80" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="C36" s="80" t="s">
         <v>504</v>
@@ -45343,7 +45376,7 @@
     <row r="48" spans="1:11">
       <c r="A48" s="99"/>
       <c r="B48" s="80" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C48" s="80" t="s">
         <v>504</v>
@@ -45363,7 +45396,7 @@
       </c>
       <c r="I48" s="81">
         <f>SUMIFS(F47:F61, C47:C61,H48)</f>
-        <v>0.125</v>
+        <v>0.19444444444444442</v>
       </c>
       <c r="K48" t="s">
         <v>1048</v>
@@ -45398,7 +45431,7 @@
     <row r="50" spans="1:11">
       <c r="A50" s="99"/>
       <c r="B50" s="80" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C50" s="80" t="s">
         <v>504</v>
@@ -45418,7 +45451,7 @@
       </c>
       <c r="I50" s="81">
         <f>SUMIFS(F47:F61, C47:C61,H50)</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -45502,7 +45535,7 @@
     <row r="54" spans="1:11">
       <c r="A54" s="99"/>
       <c r="B54" s="80" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="C54" s="80" t="s">
         <v>504</v>
@@ -45522,7 +45555,7 @@
       </c>
       <c r="I54" s="79">
         <f>SUM(I48:I53)</f>
-        <v>0.23611111111111105</v>
+        <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -45548,49 +45581,55 @@
     <row r="56" spans="1:11">
       <c r="A56" s="99"/>
       <c r="B56" s="80" t="s">
-        <v>782</v>
+        <v>817</v>
       </c>
       <c r="C56" s="80" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="D56" s="81">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E56" s="81">
-        <v>0</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F56" s="81">
         <f>E56-D56</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="I56" s="84"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="99"/>
-      <c r="B57" s="80"/>
+      <c r="B57" s="80" t="s">
+        <v>1092</v>
+      </c>
       <c r="C57" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D57" s="81">
-        <v>0</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="E57" s="81">
-        <v>0</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="F57" s="81">
         <f>E57-D57</f>
-        <v>0</v>
+        <v>6.944444444444442E-2</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="99"/>
       <c r="B58" s="80"/>
       <c r="C58" s="80"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
+      <c r="D58" s="81">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E58" s="81">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F58" s="81">
         <f>E58-D58</f>
-        <v>0</v>
+        <v>6.944444444444442E-2</v>
       </c>
       <c r="G58" t="s">
         <v>124</v>
@@ -45600,22 +45639,30 @@
       <c r="A59" s="99"/>
       <c r="B59" s="80"/>
       <c r="C59" s="80"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="81"/>
+      <c r="D59" s="81">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E59" s="81">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F59" s="81">
         <f>E59-D59</f>
-        <v>0</v>
+        <v>6.944444444444442E-2</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="99"/>
       <c r="B60" s="80"/>
       <c r="C60" s="80"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="81"/>
+      <c r="D60" s="81">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E60" s="81">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F60" s="81">
         <f>E60-D60</f>
-        <v>0</v>
+        <v>6.944444444444442E-2</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -45659,7 +45706,7 @@
     <row r="63" spans="1:11">
       <c r="A63" s="99"/>
       <c r="B63" s="80" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="C63" s="80" t="s">
         <v>504</v>
@@ -45711,13 +45758,13 @@
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="K64" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="99"/>
       <c r="B65" s="80" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="C65" s="80" t="s">
         <v>504</v>
@@ -45769,7 +45816,7 @@
     <row r="67" spans="1:11">
       <c r="A67" s="99"/>
       <c r="B67" s="80" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="C67" s="80" t="s">
         <v>512</v>
@@ -45821,7 +45868,7 @@
     <row r="69" spans="1:11">
       <c r="A69" s="99"/>
       <c r="B69" s="80" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="C69" s="80" t="s">
         <v>504</v>
@@ -45887,7 +45934,7 @@
     <row r="72" spans="1:11">
       <c r="A72" s="99"/>
       <c r="B72" s="80" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="C72" s="80" t="s">
         <v>504</v>
@@ -45985,7 +46032,7 @@
     <row r="78" spans="1:11">
       <c r="A78" s="99"/>
       <c r="B78" s="80" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="C78" s="80" t="s">
         <v>504</v>
@@ -46037,7 +46084,7 @@
     <row r="80" spans="1:11">
       <c r="A80" s="99"/>
       <c r="B80" s="80" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="C80" s="80" t="s">
         <v>504</v>
@@ -46089,7 +46136,7 @@
         <v>2.4305555555555469E-2</v>
       </c>
       <c r="K81" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -46147,7 +46194,7 @@
     <row r="84" spans="1:11">
       <c r="A84" s="99"/>
       <c r="B84" s="80" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="C84" s="80" t="s">
         <v>504</v>
@@ -46232,7 +46279,7 @@
     <row r="88" spans="1:11">
       <c r="A88" s="99"/>
       <c r="B88" s="80" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="C88" s="80" t="s">
         <v>504</v>
@@ -46251,7 +46298,7 @@
     <row r="89" spans="1:11">
       <c r="A89" s="99"/>
       <c r="B89" s="80" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="C89" s="80" t="s">
         <v>504</v>
@@ -46270,7 +46317,7 @@
     <row r="90" spans="1:11">
       <c r="A90" s="99"/>
       <c r="B90" s="80" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="C90" s="80" t="s">
         <v>510</v>
@@ -46299,7 +46346,7 @@
         <v>851</v>
       </c>
       <c r="B92" s="80" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C92" s="80" t="s">
         <v>504</v>
@@ -46324,7 +46371,7 @@
     <row r="93" spans="1:11">
       <c r="A93" s="99"/>
       <c r="B93" s="80" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="C93" s="80" t="s">
         <v>504</v>
@@ -46350,7 +46397,7 @@
     <row r="94" spans="1:11">
       <c r="A94" s="99"/>
       <c r="B94" s="80" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="C94" s="80" t="s">
         <v>504</v>
@@ -46403,7 +46450,7 @@
     <row r="96" spans="1:11">
       <c r="A96" s="99"/>
       <c r="B96" s="80" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="C96" s="80" t="s">
         <v>504</v>
@@ -46506,7 +46553,7 @@
     <row r="100" spans="1:11">
       <c r="A100" s="99"/>
       <c r="B100" s="80" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="C100" s="80" t="s">
         <v>504</v>
@@ -46544,7 +46591,7 @@
     <row r="102" spans="1:11">
       <c r="A102" s="99"/>
       <c r="B102" s="80" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="C102" s="80" t="s">
         <v>504</v>
@@ -46562,7 +46609,7 @@
     <row r="103" spans="1:11">
       <c r="A103" s="99"/>
       <c r="B103" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="C103" s="80" t="s">
         <v>504</v>
@@ -46580,7 +46627,7 @@
     <row r="104" spans="1:11">
       <c r="A104" s="99"/>
       <c r="B104" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="C104" s="80" t="s">
         <v>508</v>
@@ -46645,7 +46692,7 @@
     <row r="108" spans="1:11">
       <c r="A108" s="99"/>
       <c r="B108" s="80" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="C108" s="80" t="s">
         <v>504</v>
@@ -46700,7 +46747,7 @@
     <row r="110" spans="1:11">
       <c r="A110" s="99"/>
       <c r="B110" s="80" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="C110" s="80" t="s">
         <v>504</v>
@@ -46726,7 +46773,7 @@
     <row r="111" spans="1:11">
       <c r="A111" s="99"/>
       <c r="B111" s="80" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="C111" s="80" t="s">
         <v>504</v>
@@ -46778,7 +46825,7 @@
     <row r="113" spans="1:11">
       <c r="A113" s="99"/>
       <c r="B113" s="80" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="C113" s="80" t="s">
         <v>512</v>
@@ -46830,7 +46877,7 @@
     <row r="115" spans="1:11">
       <c r="A115" s="99"/>
       <c r="B115" s="18" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="C115" s="80" t="s">
         <v>504</v>
@@ -46850,7 +46897,7 @@
     <row r="116" spans="1:11">
       <c r="A116" s="99"/>
       <c r="B116" s="18" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="C116" s="80" t="s">
         <v>504</v>
@@ -46908,7 +46955,7 @@
     <row r="119" spans="1:11">
       <c r="A119" s="99"/>
       <c r="B119" s="80" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="C119" s="80" t="s">
         <v>504</v>
@@ -46927,7 +46974,7 @@
     <row r="120" spans="1:11">
       <c r="A120" s="99"/>
       <c r="B120" s="80" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="C120" s="80" t="s">
         <v>508</v>
@@ -46995,7 +47042,7 @@
     <row r="123" spans="1:11">
       <c r="A123" s="99"/>
       <c r="B123" s="80" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="C123" s="80" t="s">
         <v>504</v>
@@ -47015,7 +47062,7 @@
       </c>
       <c r="I123" s="81">
         <f>SUMIFS(F122:F136, C122:C136,H123)</f>
-        <v>0.28819444444444448</v>
+        <v>0.42986111111111119</v>
       </c>
       <c r="K123" t="s">
         <v>1011</v>
@@ -47050,7 +47097,7 @@
     <row r="125" spans="1:11">
       <c r="A125" s="99"/>
       <c r="B125" s="80" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="C125" s="80" t="s">
         <v>504</v>
@@ -47154,7 +47201,7 @@
     <row r="129" spans="1:11">
       <c r="A129" s="99"/>
       <c r="B129" s="80" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="C129" s="80" t="s">
         <v>504</v>
@@ -47174,13 +47221,13 @@
       </c>
       <c r="I129" s="79">
         <f>SUM(I123:I128)</f>
-        <v>0.46527777777777773</v>
+        <v>0.6069444444444444</v>
       </c>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="99"/>
       <c r="B130" s="80" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="C130" s="80" t="s">
         <v>504</v>
@@ -47239,7 +47286,7 @@
     <row r="133" spans="1:11">
       <c r="A133" s="99"/>
       <c r="B133" s="80" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="C133" s="80" t="s">
         <v>504</v>
@@ -47258,7 +47305,7 @@
     <row r="134" spans="1:11">
       <c r="A134" s="99"/>
       <c r="B134" s="80" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="C134" s="80" t="s">
         <v>508</v>
@@ -47295,13 +47342,21 @@
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="99"/>
-      <c r="B136" s="80"/>
-      <c r="C136" s="80"/>
-      <c r="D136" s="81"/>
-      <c r="E136" s="81"/>
+      <c r="B136" s="80" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C136" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D136" s="81">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="E136" s="81">
+        <v>0.99930555555555556</v>
+      </c>
       <c r="F136" s="81">
         <f>E136-D136</f>
-        <v>0</v>
+        <v>0.14166666666666672</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -47337,27 +47392,27 @@
     <row r="138" spans="1:11">
       <c r="A138" s="99"/>
       <c r="B138" s="80" t="s">
-        <v>1066</v>
+        <v>1119</v>
       </c>
       <c r="C138" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D138" s="81">
-        <v>0.3888888888888889</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="E138" s="81">
         <v>0.43055555555555558</v>
       </c>
       <c r="F138" s="81">
         <f>E138-D138</f>
-        <v>4.1666666666666685E-2</v>
+        <v>4.5138888888888895E-2</v>
       </c>
       <c r="H138" s="83" t="s">
         <v>504</v>
       </c>
       <c r="I138" s="81">
         <f>SUMIFS(F137:F151, C137:C151,H138)</f>
-        <v>0.17708333333333343</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="K138" t="s">
         <v>1011</v>
@@ -47366,10 +47421,10 @@
     <row r="139" spans="1:11">
       <c r="A139" s="99"/>
       <c r="B139" s="80" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C139" s="80" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D139" s="81">
         <v>0.43055555555555558</v>
@@ -47386,13 +47441,13 @@
       </c>
       <c r="I139" s="81">
         <f>SUMIFS(F137:F151, C137:C151,H139)</f>
-        <v>1.0416666666666685E-2</v>
+        <v>2.7777777777777846E-2</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="99"/>
       <c r="B140" s="80" t="s">
-        <v>1067</v>
+        <v>1120</v>
       </c>
       <c r="C140" s="80" t="s">
         <v>504</v>
@@ -47401,18 +47456,18 @@
         <v>0.4375</v>
       </c>
       <c r="E140" s="81">
-        <v>0.52083333333333337</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="F140" s="81">
         <f>E140-D140</f>
-        <v>8.333333333333337E-2</v>
+        <v>7.6388888888888951E-2</v>
       </c>
       <c r="H140" s="83" t="s">
         <v>510</v>
       </c>
       <c r="I140" s="81">
         <f>SUMIFS(F137:F151, C137:C151,H140)</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -47424,10 +47479,10 @@
         <v>513</v>
       </c>
       <c r="D141" s="81">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E141" s="81">
         <v>0.52083333333333337</v>
-      </c>
-      <c r="E141" s="81">
-        <v>0.52777777777777779</v>
       </c>
       <c r="F141" s="81">
         <f>E141-D141</f>
@@ -47438,13 +47493,13 @@
       </c>
       <c r="I141" s="81">
         <f>SUMIFS(F137:F151, C137:C151,H141)</f>
-        <v>1.388888888888884E-2</v>
+        <v>3.8194444444444309E-2</v>
       </c>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="99"/>
       <c r="B142" s="80" t="s">
-        <v>1120</v>
+        <v>1014</v>
       </c>
       <c r="C142" s="80" t="s">
         <v>512</v>
@@ -47453,18 +47508,18 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E142" s="81">
-        <v>0.56944444444444442</v>
+        <v>0.56597222222222221</v>
       </c>
       <c r="F142" s="81">
         <f>E142-D142</f>
-        <v>4.8611111111111049E-2</v>
+        <v>4.513888888888884E-2</v>
       </c>
       <c r="H142" s="83" t="s">
         <v>512</v>
       </c>
       <c r="I142" s="81">
         <f>SUMIFS(F137:F151, C137:C151,H142)</f>
-        <v>4.8611111111111049E-2</v>
+        <v>4.513888888888884E-2</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -47490,13 +47545,13 @@
       </c>
       <c r="I143" s="81">
         <f>SUMIFS(F137:F151, C137:C151,H143)</f>
-        <v>2.083333333333337E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="99"/>
       <c r="B144" s="80" t="s">
-        <v>1068</v>
+        <v>1121</v>
       </c>
       <c r="C144" s="80" t="s">
         <v>504</v>
@@ -47505,86 +47560,134 @@
         <v>0.59375</v>
       </c>
       <c r="E144" s="81">
-        <v>0.64583333333333337</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="F144" s="81">
         <f>E144-D144</f>
-        <v>5.208333333333337E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H144" s="78" t="s">
         <v>519</v>
       </c>
       <c r="I144" s="79">
         <f>SUM(I138:I143)</f>
-        <v>0.27083333333333337</v>
+        <v>0.47222222222222221</v>
       </c>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="99"/>
-      <c r="B145" s="80"/>
-      <c r="C145" s="80"/>
-      <c r="D145" s="81"/>
-      <c r="E145" s="81"/>
+      <c r="B145" s="80" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C145" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D145" s="81">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E145" s="81">
+        <v>0.64930555555555558</v>
+      </c>
       <c r="F145" s="81">
         <f>E145-D145</f>
-        <v>0</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="I145" s="84"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="99"/>
-      <c r="B146" s="80"/>
-      <c r="C146" s="80"/>
-      <c r="D146" s="81"/>
-      <c r="E146" s="81"/>
+      <c r="B146" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C146" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D146" s="81">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="E146" s="81">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F146" s="81">
         <f>E146-D146</f>
-        <v>0</v>
+        <v>1.7361111111111049E-2</v>
       </c>
       <c r="I146" s="84"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="99"/>
-      <c r="B147" s="80"/>
-      <c r="C147" s="80"/>
-      <c r="D147" s="81"/>
-      <c r="E147" s="81"/>
+      <c r="B147" s="80" t="s">
+        <v>782</v>
+      </c>
+      <c r="C147" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D147" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E147" s="81">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F147" s="81">
         <f>E147-D147</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="99"/>
-      <c r="B148" s="80"/>
-      <c r="C148" s="80"/>
-      <c r="D148" s="81"/>
-      <c r="E148" s="81"/>
+      <c r="B148" s="80" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C148" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D148" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E148" s="81">
+        <v>0.82291666666666663</v>
+      </c>
       <c r="F148" s="81">
         <f>E148-D148</f>
-        <v>0</v>
+        <v>0.11458333333333326</v>
       </c>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="99"/>
-      <c r="B149" s="80"/>
-      <c r="C149" s="80"/>
-      <c r="D149" s="81"/>
-      <c r="E149" s="81"/>
+      <c r="B149" s="80" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C149" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D149" s="81">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="E149" s="81">
+        <v>0.84027777777777779</v>
+      </c>
       <c r="F149" s="81">
         <f>E149-D149</f>
-        <v>0</v>
+        <v>1.736111111111116E-2</v>
       </c>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="99"/>
-      <c r="B150" s="80"/>
-      <c r="C150" s="80"/>
-      <c r="D150" s="81"/>
-      <c r="E150" s="81"/>
+      <c r="B150" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C150" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D150" s="81">
+        <v>0.84375</v>
+      </c>
+      <c r="E150" s="81">
+        <v>0.85763888888888884</v>
+      </c>
       <c r="F150" s="81">
         <f>E150-D150</f>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -47628,7 +47731,7 @@
     <row r="153" spans="1:11">
       <c r="A153" s="99"/>
       <c r="B153" s="80" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="C153" s="80" t="s">
         <v>504</v>
@@ -47683,7 +47786,7 @@
     <row r="155" spans="1:11">
       <c r="A155" s="99"/>
       <c r="B155" s="80" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="C155" s="80" t="s">
         <v>504</v>
@@ -47703,7 +47806,7 @@
       </c>
       <c r="I155" s="81">
         <f>SUMIFS(F152:F166, C152:C166,H155)</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="K155" t="s">
         <v>1070</v>
@@ -47732,7 +47835,7 @@
       </c>
       <c r="I156" s="81">
         <f>SUMIFS(F152:F166, C152:C166,H156)</f>
-        <v>6.9444444444444198E-3</v>
+        <v>2.4305555555555469E-2</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -47790,7 +47893,7 @@
     <row r="159" spans="1:11">
       <c r="A159" s="99"/>
       <c r="B159" s="80" t="s">
-        <v>1122</v>
+        <v>1127</v>
       </c>
       <c r="C159" s="80" t="s">
         <v>504</v>
@@ -47810,48 +47913,54 @@
       </c>
       <c r="I159" s="79">
         <f>SUM(I153:I158)</f>
-        <v>0.24305555555555564</v>
+        <v>0.30208333333333343</v>
       </c>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="99"/>
-      <c r="B160" s="80"/>
+      <c r="B160" t="s">
+        <v>528</v>
+      </c>
       <c r="C160" s="80" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="D160" s="81">
-        <v>0</v>
+        <v>0.64930555555555558</v>
       </c>
       <c r="E160" s="81">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F160" s="81">
         <f>E160-D160</f>
-        <v>0</v>
+        <v>1.7361111111111049E-2</v>
       </c>
       <c r="I160" s="84"/>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="99"/>
-      <c r="B161" s="80"/>
+      <c r="B161" s="80" t="s">
+        <v>782</v>
+      </c>
       <c r="C161" s="80" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="D161" s="81">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E161" s="81">
-        <v>0</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F161" s="81">
         <f>E161-D161</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="I161" s="84"/>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="99"/>
-      <c r="B162" s="80"/>
+      <c r="B162" s="80" t="s">
+        <v>1085</v>
+      </c>
       <c r="C162" s="80" t="s">
         <v>504</v>
       </c>
@@ -47918,17 +48027,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="25" priority="25" operator="greaterThan">

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC3D1D93-7A68-4667-BF3A-E40DB9935D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53072667-ED13-4E1A-AEF4-6588AE39687C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="27" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4884" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4903" uniqueCount="1136">
   <si>
     <t>Resource Name</t>
   </si>
@@ -3502,7 +3502,10 @@
     <t>Worked on Users list page</t>
   </si>
   <si>
-    <t>Exploration on JWT</t>
+    <t>Refining HTML pages</t>
+  </si>
+  <si>
+    <t>Web api Service (JWT)</t>
   </si>
   <si>
     <t>working on topiclist(view)</t>
@@ -3529,6 +3532,12 @@
     <t xml:space="preserve">conflict resolving </t>
   </si>
   <si>
+    <t>scoreboard</t>
+  </si>
+  <si>
+    <t>jwt exploration</t>
+  </si>
+  <si>
     <t>add user</t>
   </si>
   <si>
@@ -3550,6 +3559,18 @@
     <t>Angular Page for CourseList and CourseView</t>
   </si>
   <si>
+    <t>Resolving Error and Conflit in Angular</t>
+  </si>
+  <si>
+    <t>Performance discussion with rafi</t>
+  </si>
+  <si>
+    <t>Resolving Error and Conflit in API</t>
+  </si>
+  <si>
+    <t>Changes on Angular Page for CourseList and CourseView and API</t>
+  </si>
+  <si>
     <t>working on create Course feedback page</t>
   </si>
   <si>
@@ -3607,9 +3628,6 @@
     <t>Resolved the conflicts</t>
   </si>
   <si>
-    <t>Performance discussion with rafi</t>
-  </si>
-  <si>
     <t>worked on review service (MOM)</t>
   </si>
   <si>
@@ -3646,13 +3664,19 @@
     <t>resolving conflicts in git and creating sequence diagram (add department)</t>
   </si>
   <si>
+    <t>Binding webapi and angular for topic view</t>
+  </si>
+  <si>
     <t>Intergrating add department page</t>
   </si>
   <si>
-    <t>Worked on create schedule page</t>
-  </si>
-  <si>
-    <t>Session by team member for integration</t>
+    <t>Worked on create Page,Sequence diagram</t>
+  </si>
+  <si>
+    <t>Worked on creating schedule page</t>
+  </si>
+  <si>
+    <t>session by team member for integrating and worked on it</t>
   </si>
 </sst>
 </file>
@@ -12398,17 +12422,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A106:A120"/>
+    <mergeCell ref="A121:A135"/>
+    <mergeCell ref="A136:A150"/>
+    <mergeCell ref="A151:A165"/>
     <mergeCell ref="A76:A90"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A45"/>
     <mergeCell ref="A46:A60"/>
     <mergeCell ref="A61:A75"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A106:A120"/>
-    <mergeCell ref="A121:A135"/>
-    <mergeCell ref="A136:A150"/>
-    <mergeCell ref="A151:A165"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I47 I62 I77 I92 I107 I122 I137 I152">
     <cfRule type="cellIs" dxfId="207" priority="12" operator="greaterThan">
@@ -16167,17 +16191,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="194" priority="12" operator="greaterThan">
@@ -20013,17 +20037,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="181" priority="12" operator="greaterThan">
@@ -23175,17 +23199,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="168" priority="12" operator="greaterThan">
@@ -26258,17 +26282,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="155" priority="12" operator="greaterThan">
@@ -29533,17 +29557,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="142" priority="12" operator="greaterThan">
@@ -33137,17 +33161,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="129" priority="38" operator="greaterThan">
@@ -36978,17 +37002,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="103" priority="25" operator="greaterThan">
@@ -40768,17 +40792,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="77" priority="25" operator="greaterThan">
@@ -40895,8 +40919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80157801-CF16-46D1-B337-3BAC73FC495F}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44243,17 +44267,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="51" priority="25" operator="greaterThan">
@@ -44370,8 +44394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339D93A7-2AAE-4B5D-A9CF-16377D578EBD}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44467,7 +44491,7 @@
       </c>
       <c r="I3" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H3)</f>
-        <v>0.15972222222222227</v>
+        <v>0.23958333333333343</v>
       </c>
       <c r="K3" s="82" t="s">
         <v>632</v>
@@ -44644,7 +44668,7 @@
       </c>
       <c r="I9" s="79">
         <f>SUM(I3:I8)</f>
-        <v>0.29444444444444451</v>
+        <v>0.37430555555555567</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -44672,24 +44696,38 @@
       <c r="B11" s="80" t="s">
         <v>1077</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
+      <c r="C11" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D11" s="81">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="E11" s="81">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="F11" s="81">
         <f>E11-D11</f>
-        <v>0</v>
+        <v>5.9027777777777901E-2</v>
       </c>
       <c r="I11" s="84"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="99"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
+      <c r="B12" s="80" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D12" s="81">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E12" s="81">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F12" s="81">
         <f>E12-D12</f>
-        <v>0</v>
+        <v>2.0833333333333259E-2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -44769,7 +44807,7 @@
     <row r="18" spans="1:11">
       <c r="A18" s="99"/>
       <c r="B18" s="80" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C18" s="80" t="s">
         <v>504</v>
@@ -44798,7 +44836,7 @@
     <row r="19" spans="1:11">
       <c r="A19" s="99"/>
       <c r="B19" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C19" s="80" t="s">
         <v>504</v>
@@ -44818,7 +44856,7 @@
       </c>
       <c r="I19" s="81">
         <f>SUMIFS(F17:F31, C17:C31,H19)</f>
-        <v>6.94444444444417E-2</v>
+        <v>7.9861111111108329E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -44844,13 +44882,13 @@
       </c>
       <c r="I20" s="81">
         <f>SUMIFS(F17:F31, C17:C31,H20)</f>
-        <v>4.1666666666666741E-2</v>
+        <v>8.2638888888888928E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="99"/>
       <c r="B21" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C21" s="80" t="s">
         <v>504</v>
@@ -44876,7 +44914,7 @@
     <row r="22" spans="1:11">
       <c r="A22" s="99"/>
       <c r="B22" s="80" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C22" s="80" t="s">
         <v>513</v>
@@ -44902,7 +44940,7 @@
     <row r="23" spans="1:11">
       <c r="A23" s="99"/>
       <c r="B23" s="80" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C23" s="80" t="s">
         <v>512</v>
@@ -44948,13 +44986,13 @@
       </c>
       <c r="I24" s="79">
         <f>SUM(I18:I23)</f>
-        <v>12.443749999999996</v>
+        <v>12.495138888888887</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="99"/>
       <c r="B25" s="80" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C25" s="80" t="s">
         <v>508</v>
@@ -45016,7 +45054,7 @@
     <row r="28" spans="1:11">
       <c r="A28" s="99"/>
       <c r="B28" s="80" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C28" s="80" t="s">
         <v>504</v>
@@ -45035,7 +45073,7 @@
     <row r="29" spans="1:11">
       <c r="A29" s="99"/>
       <c r="B29" s="80" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C29" s="80" t="s">
         <v>504</v>
@@ -45053,24 +45091,40 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="99"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
+      <c r="B30" s="80" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C30" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D30" s="81">
+        <v>0.84375</v>
+      </c>
+      <c r="E30" s="81">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="F30" s="81">
         <f>E30-D30</f>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="99"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
+      <c r="B31" s="80" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C31" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D31" s="81">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E31" s="81">
+        <v>0.99930555555555556</v>
+      </c>
       <c r="F31" s="81">
         <f>E31-D31</f>
-        <v>0</v>
+        <v>4.0972222222222188E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -45103,7 +45157,7 @@
     <row r="33" spans="1:11">
       <c r="A33" s="99"/>
       <c r="B33" s="80" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C33" s="80" t="s">
         <v>504</v>
@@ -45155,7 +45209,7 @@
     <row r="35" spans="1:11">
       <c r="A35" s="99"/>
       <c r="B35" s="80" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C35" s="80" t="s">
         <v>513</v>
@@ -45181,7 +45235,7 @@
     <row r="36" spans="1:11">
       <c r="A36" s="99"/>
       <c r="B36" s="80" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="C36" s="80" t="s">
         <v>504</v>
@@ -45376,7 +45430,7 @@
     <row r="48" spans="1:11">
       <c r="A48" s="99"/>
       <c r="B48" s="80" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="C48" s="80" t="s">
         <v>504</v>
@@ -45396,7 +45450,7 @@
       </c>
       <c r="I48" s="81">
         <f>SUMIFS(F47:F61, C47:C61,H48)</f>
-        <v>0.19444444444444442</v>
+        <v>0.3402777777777779</v>
       </c>
       <c r="K48" t="s">
         <v>1048</v>
@@ -45425,13 +45479,13 @@
       </c>
       <c r="I49" s="81">
         <f>SUMIFS(F47:F61, C47:C61,H49)</f>
-        <v>1.0416666666666685E-2</v>
+        <v>2.7777777777777846E-2</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="99"/>
       <c r="B50" s="80" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="C50" s="80" t="s">
         <v>504</v>
@@ -45535,7 +45589,7 @@
     <row r="54" spans="1:11">
       <c r="A54" s="99"/>
       <c r="B54" s="80" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="C54" s="80" t="s">
         <v>504</v>
@@ -45555,7 +45609,7 @@
       </c>
       <c r="I54" s="79">
         <f>SUM(I48:I53)</f>
-        <v>0.34722222222222221</v>
+        <v>0.51041666666666685</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -45601,7 +45655,7 @@
     <row r="57" spans="1:11">
       <c r="A57" s="99"/>
       <c r="B57" s="80" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="C57" s="80" t="s">
         <v>504</v>
@@ -45619,17 +45673,21 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="99"/>
-      <c r="B58" s="80"/>
-      <c r="C58" s="80"/>
+      <c r="B58" s="80" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C58" s="80" t="s">
+        <v>504</v>
+      </c>
       <c r="D58" s="81">
-        <v>0.72222222222222221</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E58" s="81">
-        <v>0.79166666666666663</v>
+        <v>0.81944444444444453</v>
       </c>
       <c r="F58" s="81">
         <f>E58-D58</f>
-        <v>6.944444444444442E-2</v>
+        <v>2.7777777777777901E-2</v>
       </c>
       <c r="G58" t="s">
         <v>124</v>
@@ -45637,43 +45695,59 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="99"/>
-      <c r="B59" s="80"/>
-      <c r="C59" s="80"/>
+      <c r="B59" s="80" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C59" s="80" t="s">
+        <v>508</v>
+      </c>
       <c r="D59" s="81">
-        <v>0.72222222222222221</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="E59" s="81">
-        <v>0.79166666666666663</v>
+        <v>0.84027777777777779</v>
       </c>
       <c r="F59" s="81">
         <f>E59-D59</f>
-        <v>6.944444444444442E-2</v>
+        <v>1.736111111111116E-2</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="99"/>
-      <c r="B60" s="80"/>
-      <c r="C60" s="80"/>
+      <c r="B60" s="80" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C60" s="80" t="s">
+        <v>504</v>
+      </c>
       <c r="D60" s="81">
-        <v>0.72222222222222221</v>
+        <v>0.84027777777777779</v>
       </c>
       <c r="E60" s="81">
-        <v>0.79166666666666663</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="F60" s="81">
         <f>E60-D60</f>
-        <v>6.944444444444442E-2</v>
+        <v>4.8611111111111049E-2</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="99"/>
-      <c r="B61" s="80"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="81"/>
+      <c r="B61" s="80" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C61" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D61" s="81">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="E61" s="81">
+        <v>1</v>
+      </c>
       <c r="F61" s="81">
         <f>E61-D61</f>
-        <v>0</v>
+        <v>6.9444444444444531E-2</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -45706,7 +45780,7 @@
     <row r="63" spans="1:11">
       <c r="A63" s="99"/>
       <c r="B63" s="80" t="s">
-        <v>1093</v>
+        <v>1100</v>
       </c>
       <c r="C63" s="80" t="s">
         <v>504</v>
@@ -45758,13 +45832,13 @@
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="K64" t="s">
-        <v>1094</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="99"/>
       <c r="B65" s="80" t="s">
-        <v>1095</v>
+        <v>1102</v>
       </c>
       <c r="C65" s="80" t="s">
         <v>504</v>
@@ -45816,7 +45890,7 @@
     <row r="67" spans="1:11">
       <c r="A67" s="99"/>
       <c r="B67" s="80" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C67" s="80" t="s">
         <v>512</v>
@@ -45868,7 +45942,7 @@
     <row r="69" spans="1:11">
       <c r="A69" s="99"/>
       <c r="B69" s="80" t="s">
-        <v>1096</v>
+        <v>1103</v>
       </c>
       <c r="C69" s="80" t="s">
         <v>504</v>
@@ -45934,7 +46008,7 @@
     <row r="72" spans="1:11">
       <c r="A72" s="99"/>
       <c r="B72" s="80" t="s">
-        <v>1097</v>
+        <v>1104</v>
       </c>
       <c r="C72" s="80" t="s">
         <v>504</v>
@@ -45972,7 +46046,9 @@
     <row r="74" spans="1:11">
       <c r="A74" s="99"/>
       <c r="B74" s="80"/>
-      <c r="C74" s="80"/>
+      <c r="C74" s="80" t="s">
+        <v>508</v>
+      </c>
       <c r="D74" s="81"/>
       <c r="E74" s="81"/>
       <c r="F74" s="81">
@@ -46032,7 +46108,7 @@
     <row r="78" spans="1:11">
       <c r="A78" s="99"/>
       <c r="B78" s="80" t="s">
-        <v>1098</v>
+        <v>1105</v>
       </c>
       <c r="C78" s="80" t="s">
         <v>504</v>
@@ -46084,7 +46160,7 @@
     <row r="80" spans="1:11">
       <c r="A80" s="99"/>
       <c r="B80" s="80" t="s">
-        <v>1099</v>
+        <v>1106</v>
       </c>
       <c r="C80" s="80" t="s">
         <v>504</v>
@@ -46136,7 +46212,7 @@
         <v>2.4305555555555469E-2</v>
       </c>
       <c r="K81" t="s">
-        <v>1100</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -46194,7 +46270,7 @@
     <row r="84" spans="1:11">
       <c r="A84" s="99"/>
       <c r="B84" s="80" t="s">
-        <v>1101</v>
+        <v>1108</v>
       </c>
       <c r="C84" s="80" t="s">
         <v>504</v>
@@ -46279,7 +46355,7 @@
     <row r="88" spans="1:11">
       <c r="A88" s="99"/>
       <c r="B88" s="80" t="s">
-        <v>1102</v>
+        <v>1109</v>
       </c>
       <c r="C88" s="80" t="s">
         <v>504</v>
@@ -46298,7 +46374,7 @@
     <row r="89" spans="1:11">
       <c r="A89" s="99"/>
       <c r="B89" s="80" t="s">
-        <v>1103</v>
+        <v>1110</v>
       </c>
       <c r="C89" s="80" t="s">
         <v>504</v>
@@ -46317,7 +46393,7 @@
     <row r="90" spans="1:11">
       <c r="A90" s="99"/>
       <c r="B90" s="80" t="s">
-        <v>1104</v>
+        <v>1111</v>
       </c>
       <c r="C90" s="80" t="s">
         <v>510</v>
@@ -46346,7 +46422,7 @@
         <v>851</v>
       </c>
       <c r="B92" s="80" t="s">
-        <v>1105</v>
+        <v>1112</v>
       </c>
       <c r="C92" s="80" t="s">
         <v>504</v>
@@ -46371,7 +46447,7 @@
     <row r="93" spans="1:11">
       <c r="A93" s="99"/>
       <c r="B93" s="80" t="s">
-        <v>1106</v>
+        <v>1113</v>
       </c>
       <c r="C93" s="80" t="s">
         <v>504</v>
@@ -46397,7 +46473,7 @@
     <row r="94" spans="1:11">
       <c r="A94" s="99"/>
       <c r="B94" s="80" t="s">
-        <v>1107</v>
+        <v>1114</v>
       </c>
       <c r="C94" s="80" t="s">
         <v>504</v>
@@ -46450,7 +46526,7 @@
     <row r="96" spans="1:11">
       <c r="A96" s="99"/>
       <c r="B96" s="80" t="s">
-        <v>1108</v>
+        <v>1115</v>
       </c>
       <c r="C96" s="80" t="s">
         <v>504</v>
@@ -46553,7 +46629,7 @@
     <row r="100" spans="1:11">
       <c r="A100" s="99"/>
       <c r="B100" s="80" t="s">
-        <v>1109</v>
+        <v>1116</v>
       </c>
       <c r="C100" s="80" t="s">
         <v>504</v>
@@ -46591,7 +46667,7 @@
     <row r="102" spans="1:11">
       <c r="A102" s="99"/>
       <c r="B102" s="80" t="s">
-        <v>1110</v>
+        <v>1117</v>
       </c>
       <c r="C102" s="80" t="s">
         <v>504</v>
@@ -46609,7 +46685,7 @@
     <row r="103" spans="1:11">
       <c r="A103" s="99"/>
       <c r="B103" t="s">
-        <v>1111</v>
+        <v>1118</v>
       </c>
       <c r="C103" s="80" t="s">
         <v>504</v>
@@ -46627,7 +46703,7 @@
     <row r="104" spans="1:11">
       <c r="A104" s="99"/>
       <c r="B104" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="C104" s="80" t="s">
         <v>508</v>
@@ -46692,7 +46768,7 @@
     <row r="108" spans="1:11">
       <c r="A108" s="99"/>
       <c r="B108" s="80" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="C108" s="80" t="s">
         <v>504</v>
@@ -46747,7 +46823,7 @@
     <row r="110" spans="1:11">
       <c r="A110" s="99"/>
       <c r="B110" s="80" t="s">
-        <v>1103</v>
+        <v>1110</v>
       </c>
       <c r="C110" s="80" t="s">
         <v>504</v>
@@ -46773,7 +46849,7 @@
     <row r="111" spans="1:11">
       <c r="A111" s="99"/>
       <c r="B111" s="80" t="s">
-        <v>1114</v>
+        <v>1120</v>
       </c>
       <c r="C111" s="80" t="s">
         <v>504</v>
@@ -46825,7 +46901,7 @@
     <row r="113" spans="1:11">
       <c r="A113" s="99"/>
       <c r="B113" s="80" t="s">
-        <v>1115</v>
+        <v>1121</v>
       </c>
       <c r="C113" s="80" t="s">
         <v>512</v>
@@ -46877,7 +46953,7 @@
     <row r="115" spans="1:11">
       <c r="A115" s="99"/>
       <c r="B115" s="18" t="s">
-        <v>1116</v>
+        <v>1122</v>
       </c>
       <c r="C115" s="80" t="s">
         <v>504</v>
@@ -46897,7 +46973,7 @@
     <row r="116" spans="1:11">
       <c r="A116" s="99"/>
       <c r="B116" s="18" t="s">
-        <v>1117</v>
+        <v>1123</v>
       </c>
       <c r="C116" s="80" t="s">
         <v>504</v>
@@ -46955,7 +47031,7 @@
     <row r="119" spans="1:11">
       <c r="A119" s="99"/>
       <c r="B119" s="80" t="s">
-        <v>1118</v>
+        <v>1124</v>
       </c>
       <c r="C119" s="80" t="s">
         <v>504</v>
@@ -46974,7 +47050,7 @@
     <row r="120" spans="1:11">
       <c r="A120" s="99"/>
       <c r="B120" s="80" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="C120" s="80" t="s">
         <v>508</v>
@@ -47042,7 +47118,7 @@
     <row r="123" spans="1:11">
       <c r="A123" s="99"/>
       <c r="B123" s="80" t="s">
-        <v>1119</v>
+        <v>1125</v>
       </c>
       <c r="C123" s="80" t="s">
         <v>504</v>
@@ -47097,7 +47173,7 @@
     <row r="125" spans="1:11">
       <c r="A125" s="99"/>
       <c r="B125" s="80" t="s">
-        <v>1120</v>
+        <v>1126</v>
       </c>
       <c r="C125" s="80" t="s">
         <v>504</v>
@@ -47201,7 +47277,7 @@
     <row r="129" spans="1:11">
       <c r="A129" s="99"/>
       <c r="B129" s="80" t="s">
-        <v>1121</v>
+        <v>1127</v>
       </c>
       <c r="C129" s="80" t="s">
         <v>504</v>
@@ -47227,7 +47303,7 @@
     <row r="130" spans="1:11">
       <c r="A130" s="99"/>
       <c r="B130" s="80" t="s">
-        <v>1122</v>
+        <v>1128</v>
       </c>
       <c r="C130" s="80" t="s">
         <v>504</v>
@@ -47286,7 +47362,7 @@
     <row r="133" spans="1:11">
       <c r="A133" s="99"/>
       <c r="B133" s="80" t="s">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="C133" s="80" t="s">
         <v>504</v>
@@ -47305,7 +47381,7 @@
     <row r="134" spans="1:11">
       <c r="A134" s="99"/>
       <c r="B134" s="80" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="C134" s="80" t="s">
         <v>508</v>
@@ -47343,7 +47419,7 @@
     <row r="136" spans="1:11">
       <c r="A136" s="99"/>
       <c r="B136" s="80" t="s">
-        <v>1124</v>
+        <v>1130</v>
       </c>
       <c r="C136" s="80" t="s">
         <v>504</v>
@@ -47392,7 +47468,7 @@
     <row r="138" spans="1:11">
       <c r="A138" s="99"/>
       <c r="B138" s="80" t="s">
-        <v>1119</v>
+        <v>1125</v>
       </c>
       <c r="C138" s="80" t="s">
         <v>504</v>
@@ -47447,7 +47523,7 @@
     <row r="140" spans="1:11">
       <c r="A140" s="99"/>
       <c r="B140" s="80" t="s">
-        <v>1120</v>
+        <v>1131</v>
       </c>
       <c r="C140" s="80" t="s">
         <v>504</v>
@@ -47551,7 +47627,7 @@
     <row r="144" spans="1:11">
       <c r="A144" s="99"/>
       <c r="B144" s="80" t="s">
-        <v>1121</v>
+        <v>1127</v>
       </c>
       <c r="C144" s="80" t="s">
         <v>504</v>
@@ -47577,7 +47653,7 @@
     <row r="145" spans="1:11">
       <c r="A145" s="99"/>
       <c r="B145" s="80" t="s">
-        <v>1125</v>
+        <v>1132</v>
       </c>
       <c r="C145" s="80" t="s">
         <v>504</v>
@@ -47636,7 +47712,7 @@
     <row r="148" spans="1:11">
       <c r="A148" s="99"/>
       <c r="B148" s="80" t="s">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="C148" s="80" t="s">
         <v>504</v>
@@ -47655,7 +47731,7 @@
     <row r="149" spans="1:11">
       <c r="A149" s="99"/>
       <c r="B149" s="80" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="C149" s="80" t="s">
         <v>508</v>
@@ -47731,7 +47807,7 @@
     <row r="153" spans="1:11">
       <c r="A153" s="99"/>
       <c r="B153" s="80" t="s">
-        <v>1126</v>
+        <v>1133</v>
       </c>
       <c r="C153" s="80" t="s">
         <v>504</v>
@@ -47751,7 +47827,7 @@
       </c>
       <c r="I153" s="81">
         <f>SUMIFS(F152:F166, C152:C166,H153)</f>
-        <v>0.14583333333333348</v>
+        <v>0.25694444444444464</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -47786,7 +47862,7 @@
     <row r="155" spans="1:11">
       <c r="A155" s="99"/>
       <c r="B155" s="80" t="s">
-        <v>1126</v>
+        <v>1134</v>
       </c>
       <c r="C155" s="80" t="s">
         <v>504</v>
@@ -47835,7 +47911,7 @@
       </c>
       <c r="I156" s="81">
         <f>SUMIFS(F152:F166, C152:C166,H156)</f>
-        <v>2.4305555555555469E-2</v>
+        <v>3.8194444444444309E-2</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -47887,13 +47963,13 @@
       </c>
       <c r="I158" s="81">
         <f>SUMIFS(F152:F166, C152:C166,H158)</f>
-        <v>3.125E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="99"/>
       <c r="B159" s="80" t="s">
-        <v>1127</v>
+        <v>1135</v>
       </c>
       <c r="C159" s="80" t="s">
         <v>504</v>
@@ -47913,7 +47989,7 @@
       </c>
       <c r="I159" s="79">
         <f>SUM(I153:I158)</f>
-        <v>0.30208333333333343</v>
+        <v>0.43750000000000006</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -47959,48 +48035,58 @@
     <row r="162" spans="1:9">
       <c r="A162" s="99"/>
       <c r="B162" s="80" t="s">
-        <v>1085</v>
+        <v>521</v>
       </c>
       <c r="C162" s="80" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="D162" s="81">
-        <v>0</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E162" s="81">
-        <v>0</v>
+        <v>0.71875</v>
       </c>
       <c r="F162" s="81">
         <f>E162-D162</f>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="99"/>
-      <c r="B163" s="80"/>
+      <c r="B163" s="80" t="s">
+        <v>1086</v>
+      </c>
       <c r="C163" s="80" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D163" s="81">
-        <v>0</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="E163" s="81">
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F163" s="81">
         <f>E163-D163</f>
-        <v>0</v>
+        <v>0.11111111111111116</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="99"/>
-      <c r="B164" s="80"/>
-      <c r="C164" s="80"/>
-      <c r="D164" s="81"/>
-      <c r="E164" s="81"/>
+      <c r="B164" s="80" t="s">
+        <v>620</v>
+      </c>
+      <c r="C164" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D164" s="81">
+        <v>0.84375</v>
+      </c>
+      <c r="E164" s="81">
+        <v>0.85763888888888884</v>
+      </c>
       <c r="F164" s="81">
         <f>E164-D164</f>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -48027,17 +48113,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="25" priority="25" operator="greaterThan">

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC3D1D93-7A68-4667-BF3A-E40DB9935D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2517008-32DC-40D2-929A-37864500ACA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="27" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4884" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4903" uniqueCount="1136">
   <si>
     <t>Resource Name</t>
   </si>
@@ -3502,7 +3502,10 @@
     <t>Worked on Users list page</t>
   </si>
   <si>
-    <t>Exploration on JWT</t>
+    <t>Refining HTML pages</t>
+  </si>
+  <si>
+    <t>Web api Service (JWT)</t>
   </si>
   <si>
     <t>working on topiclist(view)</t>
@@ -3529,6 +3532,12 @@
     <t xml:space="preserve">conflict resolving </t>
   </si>
   <si>
+    <t>scoreboard</t>
+  </si>
+  <si>
+    <t>jwt exploration</t>
+  </si>
+  <si>
     <t>add user</t>
   </si>
   <si>
@@ -3550,6 +3559,18 @@
     <t>Angular Page for CourseList and CourseView</t>
   </si>
   <si>
+    <t>Resolving Error and Conflit in Angular</t>
+  </si>
+  <si>
+    <t>Performance discussion with rafi</t>
+  </si>
+  <si>
+    <t>Resolving Error and Conflit in API</t>
+  </si>
+  <si>
+    <t>Changes on Angular Page for CourseList and CourseView</t>
+  </si>
+  <si>
     <t>working on create Course feedback page</t>
   </si>
   <si>
@@ -3607,9 +3628,6 @@
     <t>Resolved the conflicts</t>
   </si>
   <si>
-    <t>Performance discussion with rafi</t>
-  </si>
-  <si>
     <t>worked on review service (MOM)</t>
   </si>
   <si>
@@ -3646,10 +3664,16 @@
     <t>resolving conflicts in git and creating sequence diagram (add department)</t>
   </si>
   <si>
+    <t>Binding webapi and angular for topic view</t>
+  </si>
+  <si>
     <t>Intergrating add department page</t>
   </si>
   <si>
-    <t>Worked on create schedule page</t>
+    <t>Worked on create Page,Sequence diagram</t>
+  </si>
+  <si>
+    <t>Worked on creating schedule page</t>
   </si>
   <si>
     <t>Session by team member for integration</t>
@@ -44370,8 +44394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339D93A7-2AAE-4B5D-A9CF-16377D578EBD}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44467,7 +44491,7 @@
       </c>
       <c r="I3" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H3)</f>
-        <v>0.15972222222222227</v>
+        <v>-0.55208333333333326</v>
       </c>
       <c r="K3" s="82" t="s">
         <v>632</v>
@@ -44644,7 +44668,7 @@
       </c>
       <c r="I9" s="79">
         <f>SUM(I3:I8)</f>
-        <v>0.29444444444444451</v>
+        <v>-0.41736111111111096</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -44672,24 +44696,36 @@
       <c r="B11" s="80" t="s">
         <v>1077</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
+      <c r="C11" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D11" s="81">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="E11" s="81">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="F11" s="81">
         <f>E11-D11</f>
-        <v>0</v>
+        <v>5.9027777777777901E-2</v>
       </c>
       <c r="I11" s="84"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="99"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="81"/>
+      <c r="B12" s="80" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D12" s="81">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="E12" s="81"/>
       <c r="F12" s="81">
         <f>E12-D12</f>
-        <v>0</v>
+        <v>-0.77083333333333337</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -44769,7 +44805,7 @@
     <row r="18" spans="1:11">
       <c r="A18" s="99"/>
       <c r="B18" s="80" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C18" s="80" t="s">
         <v>504</v>
@@ -44798,7 +44834,7 @@
     <row r="19" spans="1:11">
       <c r="A19" s="99"/>
       <c r="B19" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C19" s="80" t="s">
         <v>504</v>
@@ -44818,7 +44854,7 @@
       </c>
       <c r="I19" s="81">
         <f>SUMIFS(F17:F31, C17:C31,H19)</f>
-        <v>6.94444444444417E-2</v>
+        <v>7.9861111111108329E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -44844,13 +44880,13 @@
       </c>
       <c r="I20" s="81">
         <f>SUMIFS(F17:F31, C17:C31,H20)</f>
-        <v>4.1666666666666741E-2</v>
+        <v>8.2638888888888928E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="99"/>
       <c r="B21" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C21" s="80" t="s">
         <v>504</v>
@@ -44876,7 +44912,7 @@
     <row r="22" spans="1:11">
       <c r="A22" s="99"/>
       <c r="B22" s="80" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C22" s="80" t="s">
         <v>513</v>
@@ -44902,7 +44938,7 @@
     <row r="23" spans="1:11">
       <c r="A23" s="99"/>
       <c r="B23" s="80" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C23" s="80" t="s">
         <v>512</v>
@@ -44948,13 +44984,13 @@
       </c>
       <c r="I24" s="79">
         <f>SUM(I18:I23)</f>
-        <v>12.443749999999996</v>
+        <v>12.495138888888887</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="99"/>
       <c r="B25" s="80" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C25" s="80" t="s">
         <v>508</v>
@@ -45016,7 +45052,7 @@
     <row r="28" spans="1:11">
       <c r="A28" s="99"/>
       <c r="B28" s="80" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C28" s="80" t="s">
         <v>504</v>
@@ -45035,7 +45071,7 @@
     <row r="29" spans="1:11">
       <c r="A29" s="99"/>
       <c r="B29" s="80" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C29" s="80" t="s">
         <v>504</v>
@@ -45053,24 +45089,40 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="99"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
+      <c r="B30" s="80" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C30" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D30" s="81">
+        <v>0.84375</v>
+      </c>
+      <c r="E30" s="81">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="F30" s="81">
         <f>E30-D30</f>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="99"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
+      <c r="B31" s="80" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C31" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D31" s="81">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E31" s="81">
+        <v>0.99930555555555556</v>
+      </c>
       <c r="F31" s="81">
         <f>E31-D31</f>
-        <v>0</v>
+        <v>4.0972222222222188E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -45103,7 +45155,7 @@
     <row r="33" spans="1:11">
       <c r="A33" s="99"/>
       <c r="B33" s="80" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C33" s="80" t="s">
         <v>504</v>
@@ -45155,7 +45207,7 @@
     <row r="35" spans="1:11">
       <c r="A35" s="99"/>
       <c r="B35" s="80" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C35" s="80" t="s">
         <v>513</v>
@@ -45181,7 +45233,7 @@
     <row r="36" spans="1:11">
       <c r="A36" s="99"/>
       <c r="B36" s="80" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="C36" s="80" t="s">
         <v>504</v>
@@ -45376,7 +45428,7 @@
     <row r="48" spans="1:11">
       <c r="A48" s="99"/>
       <c r="B48" s="80" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="C48" s="80" t="s">
         <v>504</v>
@@ -45396,7 +45448,7 @@
       </c>
       <c r="I48" s="81">
         <f>SUMIFS(F47:F61, C47:C61,H48)</f>
-        <v>0.19444444444444442</v>
+        <v>0.3402777777777779</v>
       </c>
       <c r="K48" t="s">
         <v>1048</v>
@@ -45425,13 +45477,13 @@
       </c>
       <c r="I49" s="81">
         <f>SUMIFS(F47:F61, C47:C61,H49)</f>
-        <v>1.0416666666666685E-2</v>
+        <v>2.7777777777777846E-2</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="99"/>
       <c r="B50" s="80" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="C50" s="80" t="s">
         <v>504</v>
@@ -45535,7 +45587,7 @@
     <row r="54" spans="1:11">
       <c r="A54" s="99"/>
       <c r="B54" s="80" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="C54" s="80" t="s">
         <v>504</v>
@@ -45555,7 +45607,7 @@
       </c>
       <c r="I54" s="79">
         <f>SUM(I48:I53)</f>
-        <v>0.34722222222222221</v>
+        <v>0.51041666666666685</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -45601,7 +45653,7 @@
     <row r="57" spans="1:11">
       <c r="A57" s="99"/>
       <c r="B57" s="80" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="C57" s="80" t="s">
         <v>504</v>
@@ -45619,17 +45671,21 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="99"/>
-      <c r="B58" s="80"/>
-      <c r="C58" s="80"/>
+      <c r="B58" s="80" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C58" s="80" t="s">
+        <v>504</v>
+      </c>
       <c r="D58" s="81">
-        <v>0.72222222222222221</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E58" s="81">
-        <v>0.79166666666666663</v>
+        <v>0.81944444444444453</v>
       </c>
       <c r="F58" s="81">
         <f>E58-D58</f>
-        <v>6.944444444444442E-2</v>
+        <v>2.7777777777777901E-2</v>
       </c>
       <c r="G58" t="s">
         <v>124</v>
@@ -45637,43 +45693,59 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="99"/>
-      <c r="B59" s="80"/>
-      <c r="C59" s="80"/>
+      <c r="B59" s="80" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C59" s="80" t="s">
+        <v>508</v>
+      </c>
       <c r="D59" s="81">
-        <v>0.72222222222222221</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="E59" s="81">
-        <v>0.79166666666666663</v>
+        <v>0.84027777777777779</v>
       </c>
       <c r="F59" s="81">
         <f>E59-D59</f>
-        <v>6.944444444444442E-2</v>
+        <v>1.736111111111116E-2</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="99"/>
-      <c r="B60" s="80"/>
-      <c r="C60" s="80"/>
+      <c r="B60" s="80" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C60" s="80" t="s">
+        <v>504</v>
+      </c>
       <c r="D60" s="81">
-        <v>0.72222222222222221</v>
+        <v>0.84027777777777779</v>
       </c>
       <c r="E60" s="81">
-        <v>0.79166666666666663</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="F60" s="81">
         <f>E60-D60</f>
-        <v>6.944444444444442E-2</v>
+        <v>4.8611111111111049E-2</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="99"/>
-      <c r="B61" s="80"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="81"/>
+      <c r="B61" s="80" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C61" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D61" s="81">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="E61" s="81">
+        <v>1</v>
+      </c>
       <c r="F61" s="81">
         <f>E61-D61</f>
-        <v>0</v>
+        <v>6.9444444444444531E-2</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -45706,7 +45778,7 @@
     <row r="63" spans="1:11">
       <c r="A63" s="99"/>
       <c r="B63" s="80" t="s">
-        <v>1093</v>
+        <v>1100</v>
       </c>
       <c r="C63" s="80" t="s">
         <v>504</v>
@@ -45758,13 +45830,13 @@
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="K64" t="s">
-        <v>1094</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="99"/>
       <c r="B65" s="80" t="s">
-        <v>1095</v>
+        <v>1102</v>
       </c>
       <c r="C65" s="80" t="s">
         <v>504</v>
@@ -45816,7 +45888,7 @@
     <row r="67" spans="1:11">
       <c r="A67" s="99"/>
       <c r="B67" s="80" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C67" s="80" t="s">
         <v>512</v>
@@ -45868,7 +45940,7 @@
     <row r="69" spans="1:11">
       <c r="A69" s="99"/>
       <c r="B69" s="80" t="s">
-        <v>1096</v>
+        <v>1103</v>
       </c>
       <c r="C69" s="80" t="s">
         <v>504</v>
@@ -45934,7 +46006,7 @@
     <row r="72" spans="1:11">
       <c r="A72" s="99"/>
       <c r="B72" s="80" t="s">
-        <v>1097</v>
+        <v>1104</v>
       </c>
       <c r="C72" s="80" t="s">
         <v>504</v>
@@ -45972,7 +46044,9 @@
     <row r="74" spans="1:11">
       <c r="A74" s="99"/>
       <c r="B74" s="80"/>
-      <c r="C74" s="80"/>
+      <c r="C74" s="80" t="s">
+        <v>508</v>
+      </c>
       <c r="D74" s="81"/>
       <c r="E74" s="81"/>
       <c r="F74" s="81">
@@ -46032,7 +46106,7 @@
     <row r="78" spans="1:11">
       <c r="A78" s="99"/>
       <c r="B78" s="80" t="s">
-        <v>1098</v>
+        <v>1105</v>
       </c>
       <c r="C78" s="80" t="s">
         <v>504</v>
@@ -46084,7 +46158,7 @@
     <row r="80" spans="1:11">
       <c r="A80" s="99"/>
       <c r="B80" s="80" t="s">
-        <v>1099</v>
+        <v>1106</v>
       </c>
       <c r="C80" s="80" t="s">
         <v>504</v>
@@ -46136,7 +46210,7 @@
         <v>2.4305555555555469E-2</v>
       </c>
       <c r="K81" t="s">
-        <v>1100</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -46194,7 +46268,7 @@
     <row r="84" spans="1:11">
       <c r="A84" s="99"/>
       <c r="B84" s="80" t="s">
-        <v>1101</v>
+        <v>1108</v>
       </c>
       <c r="C84" s="80" t="s">
         <v>504</v>
@@ -46279,7 +46353,7 @@
     <row r="88" spans="1:11">
       <c r="A88" s="99"/>
       <c r="B88" s="80" t="s">
-        <v>1102</v>
+        <v>1109</v>
       </c>
       <c r="C88" s="80" t="s">
         <v>504</v>
@@ -46298,7 +46372,7 @@
     <row r="89" spans="1:11">
       <c r="A89" s="99"/>
       <c r="B89" s="80" t="s">
-        <v>1103</v>
+        <v>1110</v>
       </c>
       <c r="C89" s="80" t="s">
         <v>504</v>
@@ -46317,7 +46391,7 @@
     <row r="90" spans="1:11">
       <c r="A90" s="99"/>
       <c r="B90" s="80" t="s">
-        <v>1104</v>
+        <v>1111</v>
       </c>
       <c r="C90" s="80" t="s">
         <v>510</v>
@@ -46346,7 +46420,7 @@
         <v>851</v>
       </c>
       <c r="B92" s="80" t="s">
-        <v>1105</v>
+        <v>1112</v>
       </c>
       <c r="C92" s="80" t="s">
         <v>504</v>
@@ -46371,7 +46445,7 @@
     <row r="93" spans="1:11">
       <c r="A93" s="99"/>
       <c r="B93" s="80" t="s">
-        <v>1106</v>
+        <v>1113</v>
       </c>
       <c r="C93" s="80" t="s">
         <v>504</v>
@@ -46397,7 +46471,7 @@
     <row r="94" spans="1:11">
       <c r="A94" s="99"/>
       <c r="B94" s="80" t="s">
-        <v>1107</v>
+        <v>1114</v>
       </c>
       <c r="C94" s="80" t="s">
         <v>504</v>
@@ -46450,7 +46524,7 @@
     <row r="96" spans="1:11">
       <c r="A96" s="99"/>
       <c r="B96" s="80" t="s">
-        <v>1108</v>
+        <v>1115</v>
       </c>
       <c r="C96" s="80" t="s">
         <v>504</v>
@@ -46553,7 +46627,7 @@
     <row r="100" spans="1:11">
       <c r="A100" s="99"/>
       <c r="B100" s="80" t="s">
-        <v>1109</v>
+        <v>1116</v>
       </c>
       <c r="C100" s="80" t="s">
         <v>504</v>
@@ -46591,7 +46665,7 @@
     <row r="102" spans="1:11">
       <c r="A102" s="99"/>
       <c r="B102" s="80" t="s">
-        <v>1110</v>
+        <v>1117</v>
       </c>
       <c r="C102" s="80" t="s">
         <v>504</v>
@@ -46609,7 +46683,7 @@
     <row r="103" spans="1:11">
       <c r="A103" s="99"/>
       <c r="B103" t="s">
-        <v>1111</v>
+        <v>1118</v>
       </c>
       <c r="C103" s="80" t="s">
         <v>504</v>
@@ -46627,7 +46701,7 @@
     <row r="104" spans="1:11">
       <c r="A104" s="99"/>
       <c r="B104" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="C104" s="80" t="s">
         <v>508</v>
@@ -46692,7 +46766,7 @@
     <row r="108" spans="1:11">
       <c r="A108" s="99"/>
       <c r="B108" s="80" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="C108" s="80" t="s">
         <v>504</v>
@@ -46747,7 +46821,7 @@
     <row r="110" spans="1:11">
       <c r="A110" s="99"/>
       <c r="B110" s="80" t="s">
-        <v>1103</v>
+        <v>1110</v>
       </c>
       <c r="C110" s="80" t="s">
         <v>504</v>
@@ -46773,7 +46847,7 @@
     <row r="111" spans="1:11">
       <c r="A111" s="99"/>
       <c r="B111" s="80" t="s">
-        <v>1114</v>
+        <v>1120</v>
       </c>
       <c r="C111" s="80" t="s">
         <v>504</v>
@@ -46825,7 +46899,7 @@
     <row r="113" spans="1:11">
       <c r="A113" s="99"/>
       <c r="B113" s="80" t="s">
-        <v>1115</v>
+        <v>1121</v>
       </c>
       <c r="C113" s="80" t="s">
         <v>512</v>
@@ -46877,7 +46951,7 @@
     <row r="115" spans="1:11">
       <c r="A115" s="99"/>
       <c r="B115" s="18" t="s">
-        <v>1116</v>
+        <v>1122</v>
       </c>
       <c r="C115" s="80" t="s">
         <v>504</v>
@@ -46897,7 +46971,7 @@
     <row r="116" spans="1:11">
       <c r="A116" s="99"/>
       <c r="B116" s="18" t="s">
-        <v>1117</v>
+        <v>1123</v>
       </c>
       <c r="C116" s="80" t="s">
         <v>504</v>
@@ -46955,7 +47029,7 @@
     <row r="119" spans="1:11">
       <c r="A119" s="99"/>
       <c r="B119" s="80" t="s">
-        <v>1118</v>
+        <v>1124</v>
       </c>
       <c r="C119" s="80" t="s">
         <v>504</v>
@@ -46974,7 +47048,7 @@
     <row r="120" spans="1:11">
       <c r="A120" s="99"/>
       <c r="B120" s="80" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="C120" s="80" t="s">
         <v>508</v>
@@ -47042,7 +47116,7 @@
     <row r="123" spans="1:11">
       <c r="A123" s="99"/>
       <c r="B123" s="80" t="s">
-        <v>1119</v>
+        <v>1125</v>
       </c>
       <c r="C123" s="80" t="s">
         <v>504</v>
@@ -47097,7 +47171,7 @@
     <row r="125" spans="1:11">
       <c r="A125" s="99"/>
       <c r="B125" s="80" t="s">
-        <v>1120</v>
+        <v>1126</v>
       </c>
       <c r="C125" s="80" t="s">
         <v>504</v>
@@ -47201,7 +47275,7 @@
     <row r="129" spans="1:11">
       <c r="A129" s="99"/>
       <c r="B129" s="80" t="s">
-        <v>1121</v>
+        <v>1127</v>
       </c>
       <c r="C129" s="80" t="s">
         <v>504</v>
@@ -47227,7 +47301,7 @@
     <row r="130" spans="1:11">
       <c r="A130" s="99"/>
       <c r="B130" s="80" t="s">
-        <v>1122</v>
+        <v>1128</v>
       </c>
       <c r="C130" s="80" t="s">
         <v>504</v>
@@ -47286,7 +47360,7 @@
     <row r="133" spans="1:11">
       <c r="A133" s="99"/>
       <c r="B133" s="80" t="s">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="C133" s="80" t="s">
         <v>504</v>
@@ -47305,7 +47379,7 @@
     <row r="134" spans="1:11">
       <c r="A134" s="99"/>
       <c r="B134" s="80" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="C134" s="80" t="s">
         <v>508</v>
@@ -47343,7 +47417,7 @@
     <row r="136" spans="1:11">
       <c r="A136" s="99"/>
       <c r="B136" s="80" t="s">
-        <v>1124</v>
+        <v>1130</v>
       </c>
       <c r="C136" s="80" t="s">
         <v>504</v>
@@ -47392,7 +47466,7 @@
     <row r="138" spans="1:11">
       <c r="A138" s="99"/>
       <c r="B138" s="80" t="s">
-        <v>1119</v>
+        <v>1125</v>
       </c>
       <c r="C138" s="80" t="s">
         <v>504</v>
@@ -47447,7 +47521,7 @@
     <row r="140" spans="1:11">
       <c r="A140" s="99"/>
       <c r="B140" s="80" t="s">
-        <v>1120</v>
+        <v>1131</v>
       </c>
       <c r="C140" s="80" t="s">
         <v>504</v>
@@ -47551,7 +47625,7 @@
     <row r="144" spans="1:11">
       <c r="A144" s="99"/>
       <c r="B144" s="80" t="s">
-        <v>1121</v>
+        <v>1127</v>
       </c>
       <c r="C144" s="80" t="s">
         <v>504</v>
@@ -47577,7 +47651,7 @@
     <row r="145" spans="1:11">
       <c r="A145" s="99"/>
       <c r="B145" s="80" t="s">
-        <v>1125</v>
+        <v>1132</v>
       </c>
       <c r="C145" s="80" t="s">
         <v>504</v>
@@ -47636,7 +47710,7 @@
     <row r="148" spans="1:11">
       <c r="A148" s="99"/>
       <c r="B148" s="80" t="s">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="C148" s="80" t="s">
         <v>504</v>
@@ -47655,7 +47729,7 @@
     <row r="149" spans="1:11">
       <c r="A149" s="99"/>
       <c r="B149" s="80" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="C149" s="80" t="s">
         <v>508</v>
@@ -47731,7 +47805,7 @@
     <row r="153" spans="1:11">
       <c r="A153" s="99"/>
       <c r="B153" s="80" t="s">
-        <v>1126</v>
+        <v>1133</v>
       </c>
       <c r="C153" s="80" t="s">
         <v>504</v>
@@ -47751,7 +47825,7 @@
       </c>
       <c r="I153" s="81">
         <f>SUMIFS(F152:F166, C152:C166,H153)</f>
-        <v>0.14583333333333348</v>
+        <v>0.25694444444444464</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -47786,7 +47860,7 @@
     <row r="155" spans="1:11">
       <c r="A155" s="99"/>
       <c r="B155" s="80" t="s">
-        <v>1126</v>
+        <v>1134</v>
       </c>
       <c r="C155" s="80" t="s">
         <v>504</v>
@@ -47835,7 +47909,7 @@
       </c>
       <c r="I156" s="81">
         <f>SUMIFS(F152:F166, C152:C166,H156)</f>
-        <v>2.4305555555555469E-2</v>
+        <v>3.8194444444444309E-2</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -47887,13 +47961,13 @@
       </c>
       <c r="I158" s="81">
         <f>SUMIFS(F152:F166, C152:C166,H158)</f>
-        <v>3.125E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="99"/>
       <c r="B159" s="80" t="s">
-        <v>1127</v>
+        <v>1135</v>
       </c>
       <c r="C159" s="80" t="s">
         <v>504</v>
@@ -47913,7 +47987,7 @@
       </c>
       <c r="I159" s="79">
         <f>SUM(I153:I158)</f>
-        <v>0.30208333333333343</v>
+        <v>0.43750000000000006</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -47959,48 +48033,58 @@
     <row r="162" spans="1:9">
       <c r="A162" s="99"/>
       <c r="B162" s="80" t="s">
-        <v>1085</v>
+        <v>521</v>
       </c>
       <c r="C162" s="80" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="D162" s="81">
-        <v>0</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E162" s="81">
-        <v>0</v>
+        <v>0.71875</v>
       </c>
       <c r="F162" s="81">
         <f>E162-D162</f>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="99"/>
-      <c r="B163" s="80"/>
+      <c r="B163" s="80" t="s">
+        <v>1086</v>
+      </c>
       <c r="C163" s="80" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D163" s="81">
-        <v>0</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="E163" s="81">
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F163" s="81">
         <f>E163-D163</f>
-        <v>0</v>
+        <v>0.11111111111111116</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="99"/>
-      <c r="B164" s="80"/>
-      <c r="C164" s="80"/>
-      <c r="D164" s="81"/>
-      <c r="E164" s="81"/>
+      <c r="B164" s="80" t="s">
+        <v>620</v>
+      </c>
+      <c r="C164" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D164" s="81">
+        <v>0.84375</v>
+      </c>
+      <c r="E164" s="81">
+        <v>0.85763888888888884</v>
+      </c>
       <c r="F164" s="81">
         <f>E164-D164</f>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
       </c>
     </row>
     <row r="165" spans="1:9">

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53072667-ED13-4E1A-AEF4-6588AE39687C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC362865-5178-4494-8A1A-5DCACD03C687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="27" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4903" uniqueCount="1136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4905" uniqueCount="1135">
   <si>
     <t>Resource Name</t>
   </si>
@@ -3505,7 +3505,7 @@
     <t>Refining HTML pages</t>
   </si>
   <si>
-    <t>Web api Service (JWT)</t>
+    <t xml:space="preserve">Web Api Service Discussion </t>
   </si>
   <si>
     <t>working on topiclist(view)</t>
@@ -3611,9 +3611,6 @@
   </si>
   <si>
     <t>Reworked on add/edit user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Api Service Discussion </t>
   </si>
   <si>
     <t>Tutorial video about JWT</t>
@@ -12422,17 +12419,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A106:A120"/>
-    <mergeCell ref="A121:A135"/>
-    <mergeCell ref="A136:A150"/>
-    <mergeCell ref="A151:A165"/>
     <mergeCell ref="A76:A90"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A45"/>
     <mergeCell ref="A46:A60"/>
     <mergeCell ref="A61:A75"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A106:A120"/>
+    <mergeCell ref="A121:A135"/>
+    <mergeCell ref="A136:A150"/>
+    <mergeCell ref="A151:A165"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I47 I62 I77 I92 I107 I122 I137 I152">
     <cfRule type="cellIs" dxfId="207" priority="12" operator="greaterThan">
@@ -16191,17 +16188,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="194" priority="12" operator="greaterThan">
@@ -20037,17 +20034,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="181" priority="12" operator="greaterThan">
@@ -23199,17 +23196,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="168" priority="12" operator="greaterThan">
@@ -26282,17 +26279,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="155" priority="12" operator="greaterThan">
@@ -29557,17 +29554,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="142" priority="12" operator="greaterThan">
@@ -33161,17 +33158,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="129" priority="38" operator="greaterThan">
@@ -37002,17 +36999,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="103" priority="25" operator="greaterThan">
@@ -40792,17 +40789,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="77" priority="25" operator="greaterThan">
@@ -40919,8 +40916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80157801-CF16-46D1-B337-3BAC73FC495F}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44267,17 +44264,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="51" priority="25" operator="greaterThan">
@@ -44394,8 +44391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339D93A7-2AAE-4B5D-A9CF-16377D578EBD}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="E159" sqref="E159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44732,8 +44729,12 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="99"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
+      <c r="B13" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>513</v>
+      </c>
       <c r="D13" s="81"/>
       <c r="E13" s="81"/>
       <c r="F13" s="81">
@@ -46473,7 +46474,7 @@
     <row r="94" spans="1:11">
       <c r="A94" s="99"/>
       <c r="B94" s="80" t="s">
-        <v>1114</v>
+        <v>1078</v>
       </c>
       <c r="C94" s="80" t="s">
         <v>504</v>
@@ -46526,7 +46527,7 @@
     <row r="96" spans="1:11">
       <c r="A96" s="99"/>
       <c r="B96" s="80" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C96" s="80" t="s">
         <v>504</v>
@@ -46629,7 +46630,7 @@
     <row r="100" spans="1:11">
       <c r="A100" s="99"/>
       <c r="B100" s="80" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C100" s="80" t="s">
         <v>504</v>
@@ -46667,7 +46668,7 @@
     <row r="102" spans="1:11">
       <c r="A102" s="99"/>
       <c r="B102" s="80" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C102" s="80" t="s">
         <v>504</v>
@@ -46685,7 +46686,7 @@
     <row r="103" spans="1:11">
       <c r="A103" s="99"/>
       <c r="B103" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C103" s="80" t="s">
         <v>504</v>
@@ -46768,7 +46769,7 @@
     <row r="108" spans="1:11">
       <c r="A108" s="99"/>
       <c r="B108" s="80" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C108" s="80" t="s">
         <v>504</v>
@@ -46849,7 +46850,7 @@
     <row r="111" spans="1:11">
       <c r="A111" s="99"/>
       <c r="B111" s="80" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C111" s="80" t="s">
         <v>504</v>
@@ -46901,7 +46902,7 @@
     <row r="113" spans="1:11">
       <c r="A113" s="99"/>
       <c r="B113" s="80" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C113" s="80" t="s">
         <v>512</v>
@@ -46953,7 +46954,7 @@
     <row r="115" spans="1:11">
       <c r="A115" s="99"/>
       <c r="B115" s="18" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C115" s="80" t="s">
         <v>504</v>
@@ -46973,7 +46974,7 @@
     <row r="116" spans="1:11">
       <c r="A116" s="99"/>
       <c r="B116" s="18" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C116" s="80" t="s">
         <v>504</v>
@@ -47031,7 +47032,7 @@
     <row r="119" spans="1:11">
       <c r="A119" s="99"/>
       <c r="B119" s="80" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C119" s="80" t="s">
         <v>504</v>
@@ -47118,7 +47119,7 @@
     <row r="123" spans="1:11">
       <c r="A123" s="99"/>
       <c r="B123" s="80" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C123" s="80" t="s">
         <v>504</v>
@@ -47173,7 +47174,7 @@
     <row r="125" spans="1:11">
       <c r="A125" s="99"/>
       <c r="B125" s="80" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C125" s="80" t="s">
         <v>504</v>
@@ -47277,7 +47278,7 @@
     <row r="129" spans="1:11">
       <c r="A129" s="99"/>
       <c r="B129" s="80" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C129" s="80" t="s">
         <v>504</v>
@@ -47303,7 +47304,7 @@
     <row r="130" spans="1:11">
       <c r="A130" s="99"/>
       <c r="B130" s="80" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C130" s="80" t="s">
         <v>504</v>
@@ -47362,7 +47363,7 @@
     <row r="133" spans="1:11">
       <c r="A133" s="99"/>
       <c r="B133" s="80" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C133" s="80" t="s">
         <v>504</v>
@@ -47419,7 +47420,7 @@
     <row r="136" spans="1:11">
       <c r="A136" s="99"/>
       <c r="B136" s="80" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C136" s="80" t="s">
         <v>504</v>
@@ -47468,7 +47469,7 @@
     <row r="138" spans="1:11">
       <c r="A138" s="99"/>
       <c r="B138" s="80" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C138" s="80" t="s">
         <v>504</v>
@@ -47523,7 +47524,7 @@
     <row r="140" spans="1:11">
       <c r="A140" s="99"/>
       <c r="B140" s="80" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C140" s="80" t="s">
         <v>504</v>
@@ -47627,7 +47628,7 @@
     <row r="144" spans="1:11">
       <c r="A144" s="99"/>
       <c r="B144" s="80" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C144" s="80" t="s">
         <v>504</v>
@@ -47653,7 +47654,7 @@
     <row r="145" spans="1:11">
       <c r="A145" s="99"/>
       <c r="B145" s="80" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C145" s="80" t="s">
         <v>504</v>
@@ -47712,7 +47713,7 @@
     <row r="148" spans="1:11">
       <c r="A148" s="99"/>
       <c r="B148" s="80" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C148" s="80" t="s">
         <v>504</v>
@@ -47807,7 +47808,7 @@
     <row r="153" spans="1:11">
       <c r="A153" s="99"/>
       <c r="B153" s="80" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C153" s="80" t="s">
         <v>504</v>
@@ -47862,7 +47863,7 @@
     <row r="155" spans="1:11">
       <c r="A155" s="99"/>
       <c r="B155" s="80" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C155" s="80" t="s">
         <v>504</v>
@@ -47969,7 +47970,7 @@
     <row r="159" spans="1:11">
       <c r="A159" s="99"/>
       <c r="B159" s="80" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C159" s="80" t="s">
         <v>504</v>
@@ -48113,17 +48114,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="25" priority="25" operator="greaterThan">

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC362865-5178-4494-8A1A-5DCACD03C687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCD428D4-5921-46E3-8A52-52A2AA249643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="27" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4905" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4903" uniqueCount="1136">
   <si>
     <t>Resource Name</t>
   </si>
@@ -3505,114 +3505,117 @@
     <t>Refining HTML pages</t>
   </si>
   <si>
+    <t>Web api Service (JWT)</t>
+  </si>
+  <si>
+    <t>working on topiclist(view)</t>
+  </si>
+  <si>
+    <t>working on courselist</t>
+  </si>
+  <si>
+    <t>working on update courselist</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> team meeting</t>
+  </si>
+  <si>
+    <t>review Meeting</t>
+  </si>
+  <si>
+    <t>topiclist services</t>
+  </si>
+  <si>
+    <t>working on view of course and topic list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conflict resolving </t>
+  </si>
+  <si>
+    <t>scoreboard</t>
+  </si>
+  <si>
+    <t>jwt exploration</t>
+  </si>
+  <si>
+    <t>add user</t>
+  </si>
+  <si>
+    <t>client Meeting with Rafi</t>
+  </si>
+  <si>
+    <t>user service, helping team</t>
+  </si>
+  <si>
+    <t>Working on Services(CourseView and TopicList Page)</t>
+  </si>
+  <si>
+    <t>Reworking on Services(CourseView and TopicList Page)</t>
+  </si>
+  <si>
+    <t>TopicList View Service</t>
+  </si>
+  <si>
+    <t>Angular Page for CourseList and CourseView</t>
+  </si>
+  <si>
+    <t>Resolving Error and Conflit in Angular</t>
+  </si>
+  <si>
+    <t>Performance discussion with rafi</t>
+  </si>
+  <si>
+    <t>Resolving Error and Conflit in API</t>
+  </si>
+  <si>
+    <t>Changes on Angular Page for CourseList and CourseView</t>
+  </si>
+  <si>
+    <t>working on create Course feedback page</t>
+  </si>
+  <si>
+    <t>integration in feedback edit</t>
+  </si>
+  <si>
+    <t>worked on schedule review</t>
+  </si>
+  <si>
+    <t>Session by gokul and worked on create course feedback</t>
+  </si>
+  <si>
+    <t>conflict resolving and idle</t>
+  </si>
+  <si>
+    <t>Profileview in Angular Component</t>
+  </si>
+  <si>
+    <t>Rework in Adduser Component</t>
+  </si>
+  <si>
+    <t>Data validation</t>
+  </si>
+  <si>
+    <t>Corrections in Routing and path</t>
+  </si>
+  <si>
+    <t>Refining Angular Component</t>
+  </si>
+  <si>
+    <t>web Api Service discussion</t>
+  </si>
+  <si>
+    <t>web Api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timesheet Update </t>
+  </si>
+  <si>
+    <t>Reworked on add/edit user</t>
+  </si>
+  <si>
     <t xml:space="preserve">Web Api Service Discussion </t>
   </si>
   <si>
-    <t>working on topiclist(view)</t>
-  </si>
-  <si>
-    <t>working on courselist</t>
-  </si>
-  <si>
-    <t>working on update courselist</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> team meeting</t>
-  </si>
-  <si>
-    <t>review Meeting</t>
-  </si>
-  <si>
-    <t>topiclist services</t>
-  </si>
-  <si>
-    <t>working on view of course and topic list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conflict resolving </t>
-  </si>
-  <si>
-    <t>scoreboard</t>
-  </si>
-  <si>
-    <t>jwt exploration</t>
-  </si>
-  <si>
-    <t>add user</t>
-  </si>
-  <si>
-    <t>client Meeting with Rafi</t>
-  </si>
-  <si>
-    <t>user service, helping team</t>
-  </si>
-  <si>
-    <t>Working on Services(CourseView and TopicList Page)</t>
-  </si>
-  <si>
-    <t>Reworking on Services(CourseView and TopicList Page)</t>
-  </si>
-  <si>
-    <t>TopicList View Service</t>
-  </si>
-  <si>
-    <t>Angular Page for CourseList and CourseView</t>
-  </si>
-  <si>
-    <t>Resolving Error and Conflit in Angular</t>
-  </si>
-  <si>
-    <t>Performance discussion with rafi</t>
-  </si>
-  <si>
-    <t>Resolving Error and Conflit in API</t>
-  </si>
-  <si>
-    <t>Changes on Angular Page for CourseList and CourseView and API</t>
-  </si>
-  <si>
-    <t>working on create Course feedback page</t>
-  </si>
-  <si>
-    <t>integration in feedback edit</t>
-  </si>
-  <si>
-    <t>worked on schedule review</t>
-  </si>
-  <si>
-    <t>Session by gokul and worked on create course feedback</t>
-  </si>
-  <si>
-    <t>conflict resolving and idle</t>
-  </si>
-  <si>
-    <t>Profileview in Angular Component</t>
-  </si>
-  <si>
-    <t>Rework in Adduser Component</t>
-  </si>
-  <si>
-    <t>Data validation</t>
-  </si>
-  <si>
-    <t>Corrections in Routing and path</t>
-  </si>
-  <si>
-    <t>Refining Angular Component</t>
-  </si>
-  <si>
-    <t>web Api Service discussion</t>
-  </si>
-  <si>
-    <t>web Api</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timesheet Update </t>
-  </si>
-  <si>
-    <t>Reworked on add/edit user</t>
-  </si>
-  <si>
     <t>Tutorial video about JWT</t>
   </si>
   <si>
@@ -3673,7 +3676,7 @@
     <t>Worked on creating schedule page</t>
   </si>
   <si>
-    <t>session by team member for integrating and worked on it</t>
+    <t>Session by team member for integration</t>
   </si>
 </sst>
 </file>
@@ -12419,17 +12422,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A106:A120"/>
+    <mergeCell ref="A121:A135"/>
+    <mergeCell ref="A136:A150"/>
+    <mergeCell ref="A151:A165"/>
     <mergeCell ref="A76:A90"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A45"/>
     <mergeCell ref="A46:A60"/>
     <mergeCell ref="A61:A75"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A106:A120"/>
-    <mergeCell ref="A121:A135"/>
-    <mergeCell ref="A136:A150"/>
-    <mergeCell ref="A151:A165"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I47 I62 I77 I92 I107 I122 I137 I152">
     <cfRule type="cellIs" dxfId="207" priority="12" operator="greaterThan">
@@ -16188,17 +16191,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="194" priority="12" operator="greaterThan">
@@ -20034,17 +20037,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="181" priority="12" operator="greaterThan">
@@ -23196,17 +23199,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="168" priority="12" operator="greaterThan">
@@ -26279,17 +26282,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="155" priority="12" operator="greaterThan">
@@ -29554,17 +29557,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="142" priority="12" operator="greaterThan">
@@ -33158,17 +33161,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="129" priority="38" operator="greaterThan">
@@ -33285,7 +33288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490C0FB0-D79B-42A7-B070-C4769D6ECC67}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
@@ -36999,17 +37002,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="103" priority="25" operator="greaterThan">
@@ -37126,8 +37129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E7E2B6-6DCC-4C02-B6AC-CCA2DE26CDBC}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40789,17 +40792,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="77" priority="25" operator="greaterThan">
@@ -40916,8 +40919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80157801-CF16-46D1-B337-3BAC73FC495F}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="G179" sqref="G179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44264,17 +44267,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="51" priority="25" operator="greaterThan">
@@ -44391,8 +44394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339D93A7-2AAE-4B5D-A9CF-16377D578EBD}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="E159" sqref="E159"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44488,7 +44491,7 @@
       </c>
       <c r="I3" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H3)</f>
-        <v>0.23958333333333343</v>
+        <v>-0.55208333333333326</v>
       </c>
       <c r="K3" s="82" t="s">
         <v>632</v>
@@ -44665,7 +44668,7 @@
       </c>
       <c r="I9" s="79">
         <f>SUM(I3:I8)</f>
-        <v>0.37430555555555567</v>
+        <v>-0.41736111111111096</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -44719,22 +44722,16 @@
       <c r="D12" s="81">
         <v>0.77083333333333337</v>
       </c>
-      <c r="E12" s="81">
-        <v>0.79166666666666663</v>
-      </c>
+      <c r="E12" s="81"/>
       <c r="F12" s="81">
         <f>E12-D12</f>
-        <v>2.0833333333333259E-2</v>
+        <v>-0.77083333333333337</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="99"/>
-      <c r="B13" s="80" t="s">
-        <v>528</v>
-      </c>
-      <c r="C13" s="80" t="s">
-        <v>513</v>
-      </c>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="81"/>
       <c r="E13" s="81"/>
       <c r="F13" s="81">
@@ -45451,7 +45448,7 @@
       </c>
       <c r="I48" s="81">
         <f>SUMIFS(F47:F61, C47:C61,H48)</f>
-        <v>0.3402777777777779</v>
+        <v>0.22916666666666674</v>
       </c>
       <c r="K48" t="s">
         <v>1048</v>
@@ -45610,7 +45607,7 @@
       </c>
       <c r="I54" s="79">
         <f>SUM(I48:I53)</f>
-        <v>0.51041666666666685</v>
+        <v>0.39930555555555569</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -45744,11 +45741,11 @@
         <v>0.93055555555555547</v>
       </c>
       <c r="E61" s="81">
-        <v>1</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="F61" s="81">
         <f>E61-D61</f>
-        <v>6.9444444444444531E-2</v>
+        <v>-4.166666666666663E-2</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -46474,7 +46471,7 @@
     <row r="94" spans="1:11">
       <c r="A94" s="99"/>
       <c r="B94" s="80" t="s">
-        <v>1078</v>
+        <v>1114</v>
       </c>
       <c r="C94" s="80" t="s">
         <v>504</v>
@@ -46527,7 +46524,7 @@
     <row r="96" spans="1:11">
       <c r="A96" s="99"/>
       <c r="B96" s="80" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C96" s="80" t="s">
         <v>504</v>
@@ -46630,7 +46627,7 @@
     <row r="100" spans="1:11">
       <c r="A100" s="99"/>
       <c r="B100" s="80" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C100" s="80" t="s">
         <v>504</v>
@@ -46668,7 +46665,7 @@
     <row r="102" spans="1:11">
       <c r="A102" s="99"/>
       <c r="B102" s="80" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C102" s="80" t="s">
         <v>504</v>
@@ -46686,7 +46683,7 @@
     <row r="103" spans="1:11">
       <c r="A103" s="99"/>
       <c r="B103" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C103" s="80" t="s">
         <v>504</v>
@@ -46769,7 +46766,7 @@
     <row r="108" spans="1:11">
       <c r="A108" s="99"/>
       <c r="B108" s="80" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C108" s="80" t="s">
         <v>504</v>
@@ -46850,7 +46847,7 @@
     <row r="111" spans="1:11">
       <c r="A111" s="99"/>
       <c r="B111" s="80" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C111" s="80" t="s">
         <v>504</v>
@@ -46902,7 +46899,7 @@
     <row r="113" spans="1:11">
       <c r="A113" s="99"/>
       <c r="B113" s="80" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C113" s="80" t="s">
         <v>512</v>
@@ -46954,7 +46951,7 @@
     <row r="115" spans="1:11">
       <c r="A115" s="99"/>
       <c r="B115" s="18" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C115" s="80" t="s">
         <v>504</v>
@@ -46974,7 +46971,7 @@
     <row r="116" spans="1:11">
       <c r="A116" s="99"/>
       <c r="B116" s="18" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C116" s="80" t="s">
         <v>504</v>
@@ -47032,7 +47029,7 @@
     <row r="119" spans="1:11">
       <c r="A119" s="99"/>
       <c r="B119" s="80" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C119" s="80" t="s">
         <v>504</v>
@@ -47119,7 +47116,7 @@
     <row r="123" spans="1:11">
       <c r="A123" s="99"/>
       <c r="B123" s="80" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C123" s="80" t="s">
         <v>504</v>
@@ -47174,7 +47171,7 @@
     <row r="125" spans="1:11">
       <c r="A125" s="99"/>
       <c r="B125" s="80" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C125" s="80" t="s">
         <v>504</v>
@@ -47278,7 +47275,7 @@
     <row r="129" spans="1:11">
       <c r="A129" s="99"/>
       <c r="B129" s="80" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C129" s="80" t="s">
         <v>504</v>
@@ -47304,7 +47301,7 @@
     <row r="130" spans="1:11">
       <c r="A130" s="99"/>
       <c r="B130" s="80" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C130" s="80" t="s">
         <v>504</v>
@@ -47363,7 +47360,7 @@
     <row r="133" spans="1:11">
       <c r="A133" s="99"/>
       <c r="B133" s="80" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C133" s="80" t="s">
         <v>504</v>
@@ -47420,7 +47417,7 @@
     <row r="136" spans="1:11">
       <c r="A136" s="99"/>
       <c r="B136" s="80" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C136" s="80" t="s">
         <v>504</v>
@@ -47469,7 +47466,7 @@
     <row r="138" spans="1:11">
       <c r="A138" s="99"/>
       <c r="B138" s="80" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C138" s="80" t="s">
         <v>504</v>
@@ -47524,7 +47521,7 @@
     <row r="140" spans="1:11">
       <c r="A140" s="99"/>
       <c r="B140" s="80" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C140" s="80" t="s">
         <v>504</v>
@@ -47628,7 +47625,7 @@
     <row r="144" spans="1:11">
       <c r="A144" s="99"/>
       <c r="B144" s="80" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C144" s="80" t="s">
         <v>504</v>
@@ -47654,7 +47651,7 @@
     <row r="145" spans="1:11">
       <c r="A145" s="99"/>
       <c r="B145" s="80" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C145" s="80" t="s">
         <v>504</v>
@@ -47713,7 +47710,7 @@
     <row r="148" spans="1:11">
       <c r="A148" s="99"/>
       <c r="B148" s="80" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C148" s="80" t="s">
         <v>504</v>
@@ -47808,7 +47805,7 @@
     <row r="153" spans="1:11">
       <c r="A153" s="99"/>
       <c r="B153" s="80" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C153" s="80" t="s">
         <v>504</v>
@@ -47863,7 +47860,7 @@
     <row r="155" spans="1:11">
       <c r="A155" s="99"/>
       <c r="B155" s="80" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C155" s="80" t="s">
         <v>504</v>
@@ -47970,7 +47967,7 @@
     <row r="159" spans="1:11">
       <c r="A159" s="99"/>
       <c r="B159" s="80" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C159" s="80" t="s">
         <v>504</v>
@@ -48114,17 +48111,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="25" priority="25" operator="greaterThan">

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2517008-32DC-40D2-929A-37864500ACA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB400776-14BB-4653-BADF-99EE534C3A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="27" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4903" uniqueCount="1136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4905" uniqueCount="1136">
   <si>
     <t>Resource Name</t>
   </si>
@@ -3496,6 +3496,9 @@
     <t>Helping on angular routing</t>
   </si>
   <si>
+    <t>JWT for Login and session</t>
+  </si>
+  <si>
     <t>client Meeting</t>
   </si>
   <si>
@@ -3505,7 +3508,7 @@
     <t>Refining HTML pages</t>
   </si>
   <si>
-    <t>Web api Service (JWT)</t>
+    <t xml:space="preserve">Web Api Service Discussion </t>
   </si>
   <si>
     <t>working on topiclist(view)</t>
@@ -3568,7 +3571,7 @@
     <t>Resolving Error and Conflit in API</t>
   </si>
   <si>
-    <t>Changes on Angular Page for CourseList and CourseView</t>
+    <t>Changes on Angular Page for CourseList and CourseView and API</t>
   </si>
   <si>
     <t>working on create Course feedback page</t>
@@ -3613,9 +3616,6 @@
     <t>Reworked on add/edit user</t>
   </si>
   <si>
-    <t xml:space="preserve">Web Api Service Discussion </t>
-  </si>
-  <si>
     <t>Tutorial video about JWT</t>
   </si>
   <si>
@@ -3676,7 +3676,7 @@
     <t>Worked on creating schedule page</t>
   </si>
   <si>
-    <t>Session by team member for integration</t>
+    <t>session by team member for integrating and worked on it</t>
   </si>
 </sst>
 </file>
@@ -12422,17 +12422,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A106:A120"/>
+    <mergeCell ref="A121:A135"/>
+    <mergeCell ref="A136:A150"/>
+    <mergeCell ref="A151:A165"/>
     <mergeCell ref="A76:A90"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A45"/>
     <mergeCell ref="A46:A60"/>
     <mergeCell ref="A61:A75"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A106:A120"/>
-    <mergeCell ref="A121:A135"/>
-    <mergeCell ref="A136:A150"/>
-    <mergeCell ref="A151:A165"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I47 I62 I77 I92 I107 I122 I137 I152">
     <cfRule type="cellIs" dxfId="207" priority="12" operator="greaterThan">
@@ -16191,17 +16191,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="194" priority="12" operator="greaterThan">
@@ -20037,17 +20037,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="181" priority="12" operator="greaterThan">
@@ -23199,17 +23199,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="168" priority="12" operator="greaterThan">
@@ -26282,17 +26282,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="155" priority="12" operator="greaterThan">
@@ -29557,17 +29557,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="142" priority="12" operator="greaterThan">
@@ -33161,17 +33161,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="129" priority="38" operator="greaterThan">
@@ -37002,17 +37002,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="103" priority="25" operator="greaterThan">
@@ -40792,17 +40792,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="77" priority="25" operator="greaterThan">
@@ -44267,17 +44267,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="51" priority="25" operator="greaterThan">
@@ -44394,8 +44394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339D93A7-2AAE-4B5D-A9CF-16377D578EBD}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44491,7 +44491,7 @@
       </c>
       <c r="I3" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H3)</f>
-        <v>-0.55208333333333326</v>
+        <v>0.23958333333333343</v>
       </c>
       <c r="K3" s="82" t="s">
         <v>632</v>
@@ -44526,7 +44526,7 @@
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="K4" t="s">
-        <v>958</v>
+        <v>1075</v>
       </c>
       <c r="Q4" t="s">
         <v>510</v>
@@ -44564,7 +44564,7 @@
     <row r="6" spans="1:17">
       <c r="A6" s="99"/>
       <c r="B6" s="80" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C6" s="80" t="s">
         <v>512</v>
@@ -44584,7 +44584,7 @@
       </c>
       <c r="I6" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H6)</f>
-        <v>2.4305555555555469E-2</v>
+        <v>3.4722222222222099E-2</v>
       </c>
       <c r="Q6" t="s">
         <v>512</v>
@@ -44622,7 +44622,7 @@
     <row r="8" spans="1:17">
       <c r="A8" s="99"/>
       <c r="B8" s="80" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C8" s="80" t="s">
         <v>504</v>
@@ -44668,7 +44668,7 @@
       </c>
       <c r="I9" s="79">
         <f>SUM(I3:I8)</f>
-        <v>-0.41736111111111096</v>
+        <v>0.3847222222222223</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -44694,7 +44694,7 @@
     <row r="11" spans="1:17">
       <c r="A11" s="99"/>
       <c r="B11" s="80" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C11" s="80" t="s">
         <v>504</v>
@@ -44714,7 +44714,7 @@
     <row r="12" spans="1:17">
       <c r="A12" s="99"/>
       <c r="B12" s="80" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C12" s="80" t="s">
         <v>504</v>
@@ -44722,21 +44722,31 @@
       <c r="D12" s="81">
         <v>0.77083333333333337</v>
       </c>
-      <c r="E12" s="81"/>
+      <c r="E12" s="81">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F12" s="81">
         <f>E12-D12</f>
-        <v>-0.77083333333333337</v>
+        <v>2.0833333333333259E-2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="99"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
+      <c r="B13" s="80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D13" s="81">
+        <v>0.84375</v>
+      </c>
+      <c r="E13" s="81">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="F13" s="81">
         <f>E13-D13</f>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -44805,7 +44815,7 @@
     <row r="18" spans="1:11">
       <c r="A18" s="99"/>
       <c r="B18" s="80" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C18" s="80" t="s">
         <v>504</v>
@@ -44834,7 +44844,7 @@
     <row r="19" spans="1:11">
       <c r="A19" s="99"/>
       <c r="B19" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C19" s="80" t="s">
         <v>504</v>
@@ -44886,7 +44896,7 @@
     <row r="21" spans="1:11">
       <c r="A21" s="99"/>
       <c r="B21" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C21" s="80" t="s">
         <v>504</v>
@@ -44912,7 +44922,7 @@
     <row r="22" spans="1:11">
       <c r="A22" s="99"/>
       <c r="B22" s="80" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C22" s="80" t="s">
         <v>513</v>
@@ -44938,7 +44948,7 @@
     <row r="23" spans="1:11">
       <c r="A23" s="99"/>
       <c r="B23" s="80" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C23" s="80" t="s">
         <v>512</v>
@@ -44990,7 +45000,7 @@
     <row r="25" spans="1:11">
       <c r="A25" s="99"/>
       <c r="B25" s="80" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C25" s="80" t="s">
         <v>508</v>
@@ -45052,7 +45062,7 @@
     <row r="28" spans="1:11">
       <c r="A28" s="99"/>
       <c r="B28" s="80" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C28" s="80" t="s">
         <v>504</v>
@@ -45071,7 +45081,7 @@
     <row r="29" spans="1:11">
       <c r="A29" s="99"/>
       <c r="B29" s="80" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C29" s="80" t="s">
         <v>504</v>
@@ -45090,7 +45100,7 @@
     <row r="30" spans="1:11">
       <c r="A30" s="99"/>
       <c r="B30" s="80" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C30" s="80" t="s">
         <v>508</v>
@@ -45109,7 +45119,7 @@
     <row r="31" spans="1:11">
       <c r="A31" s="99"/>
       <c r="B31" s="80" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C31" s="80" t="s">
         <v>510</v>
@@ -45155,7 +45165,7 @@
     <row r="33" spans="1:11">
       <c r="A33" s="99"/>
       <c r="B33" s="80" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C33" s="80" t="s">
         <v>504</v>
@@ -45207,7 +45217,7 @@
     <row r="35" spans="1:11">
       <c r="A35" s="99"/>
       <c r="B35" s="80" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C35" s="80" t="s">
         <v>513</v>
@@ -45233,7 +45243,7 @@
     <row r="36" spans="1:11">
       <c r="A36" s="99"/>
       <c r="B36" s="80" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C36" s="80" t="s">
         <v>504</v>
@@ -45428,7 +45438,7 @@
     <row r="48" spans="1:11">
       <c r="A48" s="99"/>
       <c r="B48" s="80" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C48" s="80" t="s">
         <v>504</v>
@@ -45483,7 +45493,7 @@
     <row r="50" spans="1:11">
       <c r="A50" s="99"/>
       <c r="B50" s="80" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C50" s="80" t="s">
         <v>504</v>
@@ -45587,7 +45597,7 @@
     <row r="54" spans="1:11">
       <c r="A54" s="99"/>
       <c r="B54" s="80" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C54" s="80" t="s">
         <v>504</v>
@@ -45653,7 +45663,7 @@
     <row r="57" spans="1:11">
       <c r="A57" s="99"/>
       <c r="B57" s="80" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C57" s="80" t="s">
         <v>504</v>
@@ -45672,7 +45682,7 @@
     <row r="58" spans="1:11">
       <c r="A58" s="99"/>
       <c r="B58" s="80" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C58" s="80" t="s">
         <v>504</v>
@@ -45694,7 +45704,7 @@
     <row r="59" spans="1:11">
       <c r="A59" s="99"/>
       <c r="B59" s="80" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C59" s="80" t="s">
         <v>508</v>
@@ -45713,7 +45723,7 @@
     <row r="60" spans="1:11">
       <c r="A60" s="99"/>
       <c r="B60" s="80" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C60" s="80" t="s">
         <v>504</v>
@@ -45732,7 +45742,7 @@
     <row r="61" spans="1:11">
       <c r="A61" s="99"/>
       <c r="B61" s="80" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C61" s="80" t="s">
         <v>504</v>
@@ -45778,7 +45788,7 @@
     <row r="63" spans="1:11">
       <c r="A63" s="99"/>
       <c r="B63" s="80" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C63" s="80" t="s">
         <v>504</v>
@@ -45830,13 +45840,13 @@
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="K64" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="99"/>
       <c r="B65" s="80" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C65" s="80" t="s">
         <v>504</v>
@@ -45888,7 +45898,7 @@
     <row r="67" spans="1:11">
       <c r="A67" s="99"/>
       <c r="B67" s="80" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C67" s="80" t="s">
         <v>512</v>
@@ -45940,7 +45950,7 @@
     <row r="69" spans="1:11">
       <c r="A69" s="99"/>
       <c r="B69" s="80" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C69" s="80" t="s">
         <v>504</v>
@@ -46006,7 +46016,7 @@
     <row r="72" spans="1:11">
       <c r="A72" s="99"/>
       <c r="B72" s="80" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C72" s="80" t="s">
         <v>504</v>
@@ -46106,7 +46116,7 @@
     <row r="78" spans="1:11">
       <c r="A78" s="99"/>
       <c r="B78" s="80" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C78" s="80" t="s">
         <v>504</v>
@@ -46158,7 +46168,7 @@
     <row r="80" spans="1:11">
       <c r="A80" s="99"/>
       <c r="B80" s="80" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C80" s="80" t="s">
         <v>504</v>
@@ -46210,7 +46220,7 @@
         <v>2.4305555555555469E-2</v>
       </c>
       <c r="K81" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -46268,7 +46278,7 @@
     <row r="84" spans="1:11">
       <c r="A84" s="99"/>
       <c r="B84" s="80" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C84" s="80" t="s">
         <v>504</v>
@@ -46353,7 +46363,7 @@
     <row r="88" spans="1:11">
       <c r="A88" s="99"/>
       <c r="B88" s="80" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C88" s="80" t="s">
         <v>504</v>
@@ -46372,7 +46382,7 @@
     <row r="89" spans="1:11">
       <c r="A89" s="99"/>
       <c r="B89" s="80" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C89" s="80" t="s">
         <v>504</v>
@@ -46391,7 +46401,7 @@
     <row r="90" spans="1:11">
       <c r="A90" s="99"/>
       <c r="B90" s="80" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C90" s="80" t="s">
         <v>510</v>
@@ -46420,7 +46430,7 @@
         <v>851</v>
       </c>
       <c r="B92" s="80" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C92" s="80" t="s">
         <v>504</v>
@@ -46445,7 +46455,7 @@
     <row r="93" spans="1:11">
       <c r="A93" s="99"/>
       <c r="B93" s="80" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C93" s="80" t="s">
         <v>504</v>
@@ -46471,7 +46481,7 @@
     <row r="94" spans="1:11">
       <c r="A94" s="99"/>
       <c r="B94" s="80" t="s">
-        <v>1114</v>
+        <v>1079</v>
       </c>
       <c r="C94" s="80" t="s">
         <v>504</v>
@@ -46701,7 +46711,7 @@
     <row r="104" spans="1:11">
       <c r="A104" s="99"/>
       <c r="B104" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C104" s="80" t="s">
         <v>508</v>
@@ -46821,7 +46831,7 @@
     <row r="110" spans="1:11">
       <c r="A110" s="99"/>
       <c r="B110" s="80" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C110" s="80" t="s">
         <v>504</v>
@@ -47048,7 +47058,7 @@
     <row r="120" spans="1:11">
       <c r="A120" s="99"/>
       <c r="B120" s="80" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C120" s="80" t="s">
         <v>508</v>
@@ -47379,7 +47389,7 @@
     <row r="134" spans="1:11">
       <c r="A134" s="99"/>
       <c r="B134" s="80" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C134" s="80" t="s">
         <v>508</v>
@@ -47729,7 +47739,7 @@
     <row r="149" spans="1:11">
       <c r="A149" s="99"/>
       <c r="B149" s="80" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C149" s="80" t="s">
         <v>508</v>
@@ -48052,7 +48062,7 @@
     <row r="163" spans="1:9">
       <c r="A163" s="99"/>
       <c r="B163" s="80" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C163" s="80" t="s">
         <v>504</v>
@@ -48111,17 +48121,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="25" priority="25" operator="greaterThan">

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51E942F4-72A7-4B1A-94DC-1441BBB69086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF6E29A9-C35A-4245-B29B-51F273347512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="32" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="30" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5-4-22" sheetId="40" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6783" uniqueCount="1263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6760" uniqueCount="1263">
   <si>
     <t>Resource Name</t>
   </si>
@@ -13719,17 +13719,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A106:A120"/>
-    <mergeCell ref="A121:A135"/>
-    <mergeCell ref="A136:A150"/>
-    <mergeCell ref="A151:A165"/>
     <mergeCell ref="A76:A90"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A45"/>
     <mergeCell ref="A46:A60"/>
     <mergeCell ref="A61:A75"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A106:A120"/>
+    <mergeCell ref="A121:A135"/>
+    <mergeCell ref="A136:A150"/>
+    <mergeCell ref="A151:A165"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I47 I62 I77 I92 I107 I122 I137 I152">
     <cfRule type="cellIs" dxfId="298" priority="12" operator="greaterThan">
@@ -17488,17 +17488,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="285" priority="12" operator="greaterThan">
@@ -21334,17 +21334,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="272" priority="12" operator="greaterThan">
@@ -24496,17 +24496,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="259" priority="12" operator="greaterThan">
@@ -27579,17 +27579,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="246" priority="12" operator="greaterThan">
@@ -30854,17 +30854,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="233" priority="12" operator="greaterThan">
@@ -34458,17 +34458,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="220" priority="38" operator="greaterThan">
@@ -38299,17 +38299,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="194" priority="25" operator="greaterThan">
@@ -42089,17 +42089,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="168" priority="25" operator="greaterThan">
@@ -45564,17 +45564,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="142" priority="25" operator="greaterThan">
@@ -49391,17 +49391,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="116" priority="25" operator="greaterThan">
@@ -53052,17 +53052,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="90" priority="25" operator="greaterThan">
@@ -56903,17 +56903,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="64" priority="12" operator="greaterThan">
@@ -56979,7 +56979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C485A27-8294-46EE-BF3E-4AE5608F3B70}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+    <sheetView topLeftCell="A101" workbookViewId="0">
       <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
@@ -60381,17 +60381,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="51" priority="12" operator="greaterThan">
@@ -63695,17 +63695,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="38" priority="12" operator="greaterThan">
@@ -63771,7 +63771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259AE707-F180-49C8-A2F7-BE76079AD300}">
   <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
@@ -66696,17 +66696,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
@@ -66772,8 +66772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BBE5B9-D939-4611-A2D6-D38FE5D4566D}">
   <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="I103" sqref="I103"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15"/>
@@ -68205,20 +68205,20 @@
         <v>19</v>
       </c>
       <c r="B77" s="80" t="s">
-        <v>528</v>
+        <v>1238</v>
       </c>
       <c r="C77" s="80" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D77" s="81">
         <v>0.36458333333333331</v>
       </c>
       <c r="E77" s="81">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="F77" s="81">
         <f>E77-D77</f>
-        <v>1.0416666666666685E-2</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="H77" s="79" t="s">
         <v>505</v>
@@ -68229,124 +68229,71 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="99"/>
-      <c r="B78" s="80" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C78" s="80" t="s">
-        <v>508</v>
-      </c>
-      <c r="D78" s="81">
-        <v>0.37847222222222227</v>
-      </c>
-      <c r="E78" s="81">
-        <v>0.3923611111111111</v>
-      </c>
-      <c r="F78" s="81">
-        <f>E78-D78</f>
-        <v>1.388888888888884E-2</v>
-      </c>
+      <c r="B78" s="80"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="81"/>
+      <c r="E78" s="81"/>
+      <c r="F78" s="81"/>
       <c r="H78" s="83" t="s">
         <v>504</v>
       </c>
       <c r="I78" s="81">
         <f>SUMIFS(F77:F91, C77:C91,H78)</f>
-        <v>0.15972222222222227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="99"/>
       <c r="B79" s="80"/>
-      <c r="C79" s="80" t="s">
-        <v>513</v>
-      </c>
-      <c r="D79" s="81">
-        <v>0.41319444444444442</v>
-      </c>
-      <c r="E79" s="81">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="F79" s="81">
-        <f>E79-D79</f>
-        <v>1.3888888888888895E-2</v>
-      </c>
+      <c r="C79" s="80"/>
+      <c r="D79" s="81"/>
+      <c r="E79" s="81"/>
+      <c r="F79" s="81"/>
       <c r="H79" s="83" t="s">
         <v>508</v>
       </c>
       <c r="I79" s="81">
         <f>SUMIFS(F77:F91, C77:C91,H79)</f>
-        <v>1.388888888888884E-2</v>
+        <v>0.38541666666666669</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="99"/>
-      <c r="B80" s="80" t="s">
-        <v>520</v>
-      </c>
-      <c r="C80" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D80" s="81">
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="E80" s="81">
-        <v>0.44097222222222227</v>
-      </c>
-      <c r="F80" s="81">
-        <f>E80-D80</f>
-        <v>1.0416666666666685E-2</v>
-      </c>
+      <c r="B80" s="80"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="81"/>
+      <c r="E80" s="81"/>
+      <c r="F80" s="81"/>
       <c r="H80" s="83" t="s">
         <v>510</v>
       </c>
       <c r="I80" s="81">
         <f>SUMIFS(F77:F91, C77:C91,H80)</f>
-        <v>0.11805555555555564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="99"/>
-      <c r="B81" s="80" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C81" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D81" s="81">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="E81" s="81">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="F81" s="81">
-        <f>E81-D81</f>
-        <v>3.4722222222222265E-2</v>
-      </c>
+      <c r="B81" s="80"/>
+      <c r="C81" s="80"/>
+      <c r="D81" s="81"/>
+      <c r="E81" s="81"/>
+      <c r="F81" s="81"/>
       <c r="H81" s="83" t="s">
         <v>513</v>
       </c>
       <c r="I81" s="81">
         <f>SUMIFS(F77:F91, C77:C91,H81)</f>
-        <v>3.472222222222221E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="99"/>
-      <c r="B82" s="80" t="s">
-        <v>817</v>
-      </c>
-      <c r="C82" s="80" t="s">
-        <v>510</v>
-      </c>
-      <c r="D82" s="81">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E82" s="81">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F82" s="81">
-        <f>E82-D82</f>
-        <v>4.1666666666666685E-2</v>
-      </c>
+      <c r="B82" s="80"/>
+      <c r="C82" s="80"/>
+      <c r="D82" s="81"/>
+      <c r="E82" s="81"/>
+      <c r="F82" s="81"/>
       <c r="H82" s="83" t="s">
         <v>512</v>
       </c>
@@ -68357,152 +68304,75 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="99"/>
-      <c r="B83" s="80" t="s">
-        <v>518</v>
-      </c>
-      <c r="C83" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D83" s="81">
-        <v>0.53125</v>
-      </c>
-      <c r="E83" s="81">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F83" s="81">
-        <f>E83-D83</f>
-        <v>2.430555555555558E-2</v>
-      </c>
+      <c r="B83" s="80"/>
+      <c r="C83" s="80"/>
+      <c r="D83" s="81"/>
+      <c r="E83" s="81"/>
+      <c r="F83" s="81"/>
       <c r="H83" s="83" t="s">
         <v>516</v>
       </c>
       <c r="I83" s="81">
         <f>SUMIFS(F77:F91, C77:C91,H83)</f>
-        <v>4.5138888888888895E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="99"/>
-      <c r="B84" s="80" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C84" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D84" s="81">
-        <v>0.5625</v>
-      </c>
-      <c r="E84" s="81">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F84" s="81">
-        <f>E84-D84</f>
-        <v>8.333333333333337E-2</v>
-      </c>
+      <c r="B84" s="80"/>
+      <c r="C84" s="80"/>
+      <c r="D84" s="81"/>
+      <c r="E84" s="81"/>
+      <c r="F84" s="81"/>
       <c r="H84" s="78" t="s">
         <v>519</v>
       </c>
       <c r="I84" s="79">
         <f>SUM(I78:I83)</f>
-        <v>0.37152777777777785</v>
+        <v>0.38541666666666669</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="99"/>
-      <c r="B85" s="80" t="s">
-        <v>521</v>
-      </c>
-      <c r="C85" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D85" s="81">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="E85" s="81">
-        <v>0.65625</v>
-      </c>
-      <c r="F85" s="81">
-        <f>E85-D85</f>
-        <v>1.041666666666663E-2</v>
-      </c>
+      <c r="B85" s="80"/>
+      <c r="C85" s="80"/>
+      <c r="D85" s="81"/>
+      <c r="E85" s="81"/>
+      <c r="F85" s="81"/>
       <c r="I85" s="84"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="99"/>
-      <c r="B86" s="80" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C86" s="80" t="s">
-        <v>510</v>
-      </c>
-      <c r="D86" s="81">
-        <v>0.65972222222222221</v>
-      </c>
-      <c r="E86" s="81">
-        <v>0.6875</v>
-      </c>
-      <c r="F86" s="81">
-        <f>E86-D86</f>
-        <v>2.777777777777779E-2</v>
-      </c>
+      <c r="B86" s="80"/>
+      <c r="C86" s="80"/>
+      <c r="D86" s="81"/>
+      <c r="E86" s="81"/>
+      <c r="F86" s="81"/>
       <c r="I86" s="84"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="99"/>
-      <c r="B87" s="80" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C87" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D87" s="81">
-        <v>0.6875</v>
-      </c>
-      <c r="E87" s="81">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="F87" s="81">
-        <f>E87-D87</f>
-        <v>4.166666666666663E-2</v>
-      </c>
+      <c r="B87" s="80"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="81"/>
+      <c r="F87" s="81"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="99"/>
-      <c r="B88" s="80" t="s">
-        <v>528</v>
-      </c>
-      <c r="C88" s="80" t="s">
-        <v>513</v>
-      </c>
-      <c r="D88" s="81">
-        <v>0.73958333333333337</v>
-      </c>
-      <c r="E88" s="81">
-        <v>0.75</v>
-      </c>
-      <c r="F88" s="81">
-        <f>E88-D88</f>
-        <v>1.041666666666663E-2</v>
-      </c>
+      <c r="B88" s="80"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="81"/>
+      <c r="E88" s="81"/>
+      <c r="F88" s="81"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="99"/>
-      <c r="B89" s="80" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C89" s="80" t="s">
-        <v>510</v>
-      </c>
-      <c r="D89" s="81">
-        <v>0.82291666666666663</v>
-      </c>
-      <c r="E89" s="81">
-        <v>0.87152777777777779</v>
-      </c>
-      <c r="F89" s="81">
-        <f>E89-D89</f>
-        <v>4.861111111111116E-2</v>
-      </c>
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="81"/>
+      <c r="F89" s="81"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="99"/>
@@ -69896,17 +69766,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6182970-4D65-4DFA-B1F2-E598FF77763D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C043B4DB-A0D9-426B-B661-D72BE9FB4B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="30" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="34" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5-4-22" sheetId="40" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7040" uniqueCount="1291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7019" uniqueCount="1320">
   <si>
     <t>Resource Name</t>
   </si>
@@ -3821,6 +3821,15 @@
     <t>Hepling  teammates in routing</t>
   </si>
   <si>
+    <t>Dashboard Service Binding with Angular(Review)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular Session </t>
+  </si>
+  <si>
+    <t>Hepling on MOM service</t>
+  </si>
+  <si>
     <t>Angular explaining to tenacious</t>
   </si>
   <si>
@@ -3881,7 +3890,13 @@
     <t>Iswarya AM</t>
   </si>
   <si>
-    <t xml:space="preserve">Angular Session </t>
+    <t>Working on put method for course feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lunch </t>
+  </si>
+  <si>
+    <t>Working on put method for trainee feedback and helping on team members</t>
   </si>
   <si>
     <t>Data Validation in Regex</t>
@@ -3959,160 +3974,223 @@
     <t>working on course</t>
   </si>
   <si>
+    <t>Explaining create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web api understanding Cros </t>
+  </si>
+  <si>
+    <t>implementing cros</t>
+  </si>
+  <si>
+    <t>Models refactoring</t>
+  </si>
+  <si>
+    <t>web api user controller create</t>
+  </si>
+  <si>
+    <t>web api user service create</t>
+  </si>
+  <si>
+    <t>helping teamates</t>
+  </si>
+  <si>
+    <t>helping other teams</t>
+  </si>
+  <si>
+    <t>ef core working with relations</t>
+  </si>
+  <si>
+    <t>angular user list and user view refactoring</t>
+  </si>
+  <si>
+    <t>Changes in UserList (Angular Page)</t>
+  </si>
+  <si>
+    <t>Working on All User Add Pages in Angular</t>
+  </si>
+  <si>
+    <t>Resolving Errors in Angular</t>
+  </si>
+  <si>
+    <t>Refining the webAPI for course feedback</t>
+  </si>
+  <si>
+    <t>morning break</t>
+  </si>
+  <si>
+    <t>refining the webAPI for trainee feedback</t>
+  </si>
+  <si>
+    <t>Resolving the problem in webapi</t>
+  </si>
+  <si>
+    <t>Angular Components , routing path for assignment view</t>
+  </si>
+  <si>
+    <t>Refining mom controller</t>
+  </si>
+  <si>
+    <t>Refining mom Services</t>
+  </si>
+  <si>
+    <t>Resolving errors in mom</t>
+  </si>
+  <si>
+    <t>worked on mom services</t>
+  </si>
+  <si>
+    <t>exploration for creating sequence diagram</t>
+  </si>
+  <si>
+    <t>Reworked on schedule review</t>
+  </si>
+  <si>
+    <t>Worked on Create(Review)</t>
+  </si>
+  <si>
+    <t>Resolving errors during creation</t>
+  </si>
+  <si>
+    <t>Worked on Web api and angular integration</t>
+  </si>
+  <si>
+    <t>angular services</t>
+  </si>
+  <si>
+    <t>correction in Removed DTO Model</t>
+  </si>
+  <si>
+    <t>working on New structured Api(post)</t>
+  </si>
+  <si>
+    <t>Reviewing team work</t>
+  </si>
+  <si>
+    <t>seeing other team work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helping team member </t>
+  </si>
+  <si>
+    <t>angular routing error(unsolved)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helping other teams member </t>
+  </si>
+  <si>
+    <t>ef core many to many mapping</t>
+  </si>
+  <si>
+    <t>Working on Add Users Pages for Integration</t>
+  </si>
+  <si>
+    <t>Integration for Add Department and Department List in Angular</t>
+  </si>
+  <si>
+    <t>Resolving Errors in Routing</t>
+  </si>
+  <si>
+    <t>TimeSheet Updating</t>
+  </si>
+  <si>
+    <t>Working on new webAPI post method for course feedback</t>
+  </si>
+  <si>
+    <t>Resolving errors in new webAPI post method for course feedback</t>
+  </si>
+  <si>
+    <t>resolving errors in new webAPI post method for course feedback</t>
+  </si>
+  <si>
+    <t>College Review ppt preparation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attended college review </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explored on Angular (Tutorial Video) </t>
+  </si>
+  <si>
+    <t>Concepts of Angular</t>
+  </si>
+  <si>
+    <t>College work</t>
+  </si>
+  <si>
+    <t>Refined create service</t>
+  </si>
+  <si>
+    <t>Refined create page</t>
+  </si>
+  <si>
+    <t>Worked on Update(Review)</t>
+  </si>
+  <si>
+    <t>resolved errors and worked on update</t>
+  </si>
+  <si>
+    <t>Loading the backup files in local PC</t>
+  </si>
+  <si>
+    <t>Doing college works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check with the plan </t>
+  </si>
+  <si>
+    <t>validation for user model</t>
+  </si>
+  <si>
+    <t>reading project plan</t>
+  </si>
+  <si>
+    <t>seeding data</t>
+  </si>
+  <si>
+    <t>Doing College Project Works</t>
+  </si>
+  <si>
+    <t>Travelling</t>
+  </si>
+  <si>
+    <t>College Project Work</t>
+  </si>
+  <si>
+    <t>Backup from Git to Local PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting with Rafi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">College Review Preparation and  Presentation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">College Review </t>
+  </si>
+  <si>
+    <t>Migrated all the works</t>
+  </si>
+  <si>
+    <t>Resolved errors</t>
+  </si>
+  <si>
+    <t>Resolving migration errors in db</t>
+  </si>
+  <si>
+    <t>working on college project</t>
+  </si>
+  <si>
+    <t>integrating my local work on new api</t>
+  </si>
+  <si>
     <t>Resource Name 3</t>
   </si>
   <si>
-    <t>Explaining create</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web api understanding Cros </t>
-  </si>
-  <si>
-    <t>implementing cros</t>
-  </si>
-  <si>
-    <t>Models refactoring</t>
-  </si>
-  <si>
-    <t>web api user controller create</t>
-  </si>
-  <si>
-    <t>web api user service create</t>
-  </si>
-  <si>
-    <t>helping teamates</t>
-  </si>
-  <si>
-    <t>helping other teams</t>
-  </si>
-  <si>
-    <t>Changes in UserList (Angular Page)</t>
-  </si>
-  <si>
-    <t>Working on All User Add Pages in Angular</t>
-  </si>
-  <si>
-    <t>Resolving Errors in Angular</t>
-  </si>
-  <si>
-    <t>Angular Components , routing path for assignment view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lunch </t>
-  </si>
-  <si>
-    <t>Refining mom controller</t>
-  </si>
-  <si>
-    <t>Refining mom Services</t>
-  </si>
-  <si>
-    <t>Resolving errors in mom</t>
-  </si>
-  <si>
-    <t>worked on mom services</t>
-  </si>
-  <si>
-    <t>exploration for creating sequence diagram</t>
-  </si>
-  <si>
-    <t>Reworked on schedule review</t>
-  </si>
-  <si>
-    <t>Worked on Create(Review)</t>
-  </si>
-  <si>
-    <t>Resolving errors during creation</t>
-  </si>
-  <si>
-    <t>Worked on Web api and angular integration</t>
-  </si>
-  <si>
-    <t>angular services</t>
-  </si>
-  <si>
-    <t>correction in Removed DTO Model</t>
-  </si>
-  <si>
-    <t>working on New structured Api(post)</t>
-  </si>
-  <si>
-    <t>Working on Add Users Pages for Integration</t>
-  </si>
-  <si>
-    <t>Integration for Add Department and Department List in Angular</t>
-  </si>
-  <si>
-    <t>Resolving Errors in Routing</t>
-  </si>
-  <si>
-    <t>College Review ppt preparation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attended college review </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explored on Angular (Tutorial Video) </t>
-  </si>
-  <si>
-    <t>Concepts of Angular</t>
-  </si>
-  <si>
-    <t>College work</t>
-  </si>
-  <si>
-    <t>Refined create service</t>
-  </si>
-  <si>
-    <t>Refined create page</t>
-  </si>
-  <si>
-    <t>Worked on Update(Review)</t>
-  </si>
-  <si>
-    <t>resolved errors and worked on update</t>
-  </si>
-  <si>
-    <t>Loading the backup files in local PC</t>
-  </si>
-  <si>
-    <t>Doing college works</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check with the plan </t>
-  </si>
-  <si>
-    <t>Doing College Project Works</t>
-  </si>
-  <si>
-    <t>College Project Work</t>
-  </si>
-  <si>
-    <t>Backup from Git to Local PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting with Rafi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">College Review Preparation and  Presentation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">College Review </t>
-  </si>
-  <si>
-    <t>Migrated all the works</t>
-  </si>
-  <si>
-    <t>Resolved errors</t>
-  </si>
-  <si>
-    <t>Resolving migration errors in db</t>
-  </si>
-  <si>
-    <t>working on college project</t>
-  </si>
-  <si>
-    <t>integrating my local work on new api</t>
+    <t>Updating the sdk version in laptop</t>
+  </si>
+  <si>
+    <t>setting the sql database error</t>
   </si>
   <si>
     <t>Went to College for Review</t>
@@ -4149,6 +4227,15 @@
   </si>
   <si>
     <t>working on disable and update</t>
+  </si>
+  <si>
+    <t>General Catch Up with Savitha</t>
+  </si>
+  <si>
+    <t>Meeting with savitha</t>
+  </si>
+  <si>
+    <t>Worked on angular</t>
   </si>
 </sst>
 </file>
@@ -13934,17 +14021,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A106:A120"/>
+    <mergeCell ref="A121:A135"/>
+    <mergeCell ref="A136:A150"/>
+    <mergeCell ref="A151:A165"/>
     <mergeCell ref="A76:A90"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A45"/>
     <mergeCell ref="A46:A60"/>
     <mergeCell ref="A61:A75"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A106:A120"/>
-    <mergeCell ref="A121:A135"/>
-    <mergeCell ref="A136:A150"/>
-    <mergeCell ref="A151:A165"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I47 I62 I77 I92 I107 I122 I137 I152">
     <cfRule type="cellIs" dxfId="311" priority="12" operator="greaterThan">
@@ -17703,17 +17790,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="298" priority="12" operator="greaterThan">
@@ -21549,17 +21636,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="285" priority="12" operator="greaterThan">
@@ -24711,17 +24798,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="272" priority="12" operator="greaterThan">
@@ -27794,17 +27881,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="259" priority="12" operator="greaterThan">
@@ -31069,17 +31156,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="246" priority="12" operator="greaterThan">
@@ -34673,17 +34760,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="233" priority="38" operator="greaterThan">
@@ -38514,17 +38601,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="207" priority="25" operator="greaterThan">
@@ -42304,17 +42391,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="181" priority="25" operator="greaterThan">
@@ -45779,17 +45866,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="155" priority="25" operator="greaterThan">
@@ -49646,17 +49733,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="129" priority="25" operator="greaterThan">
@@ -49773,7 +49860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC6D715-A074-40FE-ABE8-1B45D8A9B360}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -53315,17 +53402,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="103" priority="25" operator="greaterThan">
@@ -53699,8 +53786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BFF484-AFDF-48FC-BAAE-44E18E687C3A}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53791,7 +53878,7 @@
       </c>
       <c r="I3" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H3)</f>
-        <v>0.22222222222222227</v>
+        <v>0.17361111111111116</v>
       </c>
       <c r="Q3" t="s">
         <v>508</v>
@@ -53809,18 +53896,18 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="E4" s="81">
-        <v>0.47222222222222227</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="F4" s="81">
         <f t="shared" si="0"/>
-        <v>5.9027777777777846E-2</v>
+        <v>1.736111111111116E-2</v>
       </c>
       <c r="H4" s="83" t="s">
         <v>508</v>
       </c>
       <c r="I4" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H4)</f>
-        <v>4.1666666666666685E-2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="s">
         <v>510</v>
@@ -53829,16 +53916,16 @@
     <row r="5" spans="1:17">
       <c r="A5" s="99"/>
       <c r="B5" s="80" t="s">
-        <v>551</v>
+        <v>1181</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D5" s="81">
+        <v>0.4375</v>
+      </c>
+      <c r="E5" s="81">
         <v>0.47916666666666669</v>
-      </c>
-      <c r="E5" s="81">
-        <v>0.52083333333333337</v>
       </c>
       <c r="F5" s="81">
         <f t="shared" si="0"/>
@@ -53849,7 +53936,7 @@
       </c>
       <c r="I5" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H5)</f>
-        <v>1.7361111111111105E-2</v>
+        <v>5.902777777777779E-2</v>
       </c>
       <c r="Q5" t="s">
         <v>513</v>
@@ -53858,27 +53945,27 @@
     <row r="6" spans="1:17">
       <c r="A6" s="99"/>
       <c r="B6" s="80" t="s">
-        <v>518</v>
+        <v>1182</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D6" s="81">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E6" s="81">
         <v>0.52083333333333337</v>
-      </c>
-      <c r="E6" s="81">
-        <v>0.54166666666666663</v>
       </c>
       <c r="F6" s="81">
         <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H6" s="83" t="s">
         <v>513</v>
       </c>
       <c r="I6" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H6)</f>
-        <v>5.9027777777777846E-2</v>
+        <v>1.736111111111116E-2</v>
       </c>
       <c r="Q6" t="s">
         <v>512</v>
@@ -53887,20 +53974,20 @@
     <row r="7" spans="1:17">
       <c r="A7" s="99"/>
       <c r="B7" s="80" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C7" s="80" t="s">
         <v>516</v>
       </c>
       <c r="D7" s="81">
-        <v>0.47222222222222227</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E7" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="F7" s="81">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>2.7777777777777679E-2</v>
       </c>
       <c r="H7" s="83" t="s">
         <v>512</v>
@@ -53916,27 +54003,27 @@
     <row r="8" spans="1:17">
       <c r="A8" s="99"/>
       <c r="B8" s="80" t="s">
-        <v>521</v>
+        <v>1183</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D8" s="81">
-        <v>0.65625</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="E8" s="81">
         <v>0.66666666666666663</v>
       </c>
       <c r="F8" s="81">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>0.11805555555555558</v>
       </c>
       <c r="H8" s="83" t="s">
         <v>516</v>
       </c>
       <c r="I8" s="81">
         <f>SUMIFS(F2:F16, C2:C16,H8)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>2.7777777777777679E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -53944,9 +54031,7 @@
       <c r="B9" s="80" t="s">
         <v>578</v>
       </c>
-      <c r="C9" s="80" t="s">
-        <v>504</v>
-      </c>
+      <c r="C9" s="80"/>
       <c r="D9" s="81">
         <v>0.66666666666666663</v>
       </c>
@@ -53962,7 +54047,7 @@
       </c>
       <c r="I9" s="79">
         <f>SUM(I3:I8)</f>
-        <v>0.37847222222222221</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -53970,9 +54055,7 @@
       <c r="B10" s="80" t="s">
         <v>546</v>
       </c>
-      <c r="C10" s="80" t="s">
-        <v>504</v>
-      </c>
+      <c r="C10" s="80"/>
       <c r="D10" s="81">
         <v>0.75</v>
       </c>
@@ -54057,7 +54140,7 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="C17" s="80" t="s">
         <v>504</v>
@@ -54134,7 +54217,7 @@
     <row r="20" spans="1:9">
       <c r="A20" s="99"/>
       <c r="B20" s="80" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="C20" s="80" t="s">
         <v>508</v>
@@ -54264,7 +54347,7 @@
     <row r="25" spans="1:9">
       <c r="A25" s="99"/>
       <c r="B25" s="80" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="C25" s="80" t="s">
         <v>504</v>
@@ -54284,7 +54367,7 @@
     <row r="26" spans="1:9">
       <c r="A26" s="99"/>
       <c r="B26" s="80" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="C26" s="80" t="s">
         <v>504</v>
@@ -54304,7 +54387,7 @@
     <row r="27" spans="1:9">
       <c r="A27" s="99"/>
       <c r="B27" s="80" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="C27" s="80" t="s">
         <v>504</v>
@@ -54342,7 +54425,7 @@
     <row r="29" spans="1:9">
       <c r="A29" s="99"/>
       <c r="B29" s="80" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="C29" s="80" t="s">
         <v>504</v>
@@ -54361,7 +54444,7 @@
     <row r="30" spans="1:9">
       <c r="A30" s="99"/>
       <c r="B30" s="80" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="C30" s="80" t="s">
         <v>510</v>
@@ -54380,7 +54463,7 @@
     <row r="31" spans="1:9">
       <c r="A31" s="99"/>
       <c r="B31" s="80" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="C31" s="80" t="s">
         <v>504</v>
@@ -54426,7 +54509,7 @@
     <row r="33" spans="1:9">
       <c r="A33" s="99"/>
       <c r="B33" s="80" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="C33" s="80" t="s">
         <v>504</v>
@@ -54478,7 +54561,7 @@
     <row r="35" spans="1:9">
       <c r="A35" s="99"/>
       <c r="B35" s="80" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="C35" s="80" t="s">
         <v>504</v>
@@ -54530,7 +54613,7 @@
     <row r="37" spans="1:9">
       <c r="A37" s="99"/>
       <c r="B37" s="80" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="C37" s="80" t="s">
         <v>504</v>
@@ -54582,7 +54665,7 @@
     <row r="39" spans="1:9">
       <c r="A39" s="99"/>
       <c r="B39" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="C39" s="80" t="s">
         <v>504</v>
@@ -54608,7 +54691,7 @@
     <row r="40" spans="1:9">
       <c r="A40" s="99"/>
       <c r="B40" s="80" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="C40" s="80" t="s">
         <v>504</v>
@@ -54648,7 +54731,7 @@
     <row r="42" spans="1:9">
       <c r="A42" s="99"/>
       <c r="B42" s="80" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="C42" s="80" t="s">
         <v>510</v>
@@ -54667,7 +54750,7 @@
     <row r="43" spans="1:9">
       <c r="A43" s="99"/>
       <c r="B43" s="80" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="C43" s="80" t="s">
         <v>504</v>
@@ -54742,7 +54825,7 @@
     <row r="48" spans="1:9">
       <c r="A48" s="99"/>
       <c r="B48" s="80" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="C48" s="80" t="s">
         <v>504</v>
@@ -54820,7 +54903,7 @@
     <row r="51" spans="1:9">
       <c r="A51" s="99"/>
       <c r="B51" s="80" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="C51" s="80" t="s">
         <v>504</v>
@@ -54898,7 +54981,7 @@
     <row r="54" spans="1:9">
       <c r="A54" s="99"/>
       <c r="B54" s="80" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="C54" s="80" t="s">
         <v>504</v>
@@ -54944,7 +55027,7 @@
     <row r="56" spans="1:9">
       <c r="A56" s="99"/>
       <c r="B56" s="80" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="C56" s="80" t="s">
         <v>504</v>
@@ -54983,7 +55066,7 @@
     <row r="58" spans="1:9">
       <c r="A58" s="99"/>
       <c r="B58" s="80" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="C58" s="80" t="s">
         <v>504</v>
@@ -55034,7 +55117,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="99" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="B62" s="80" t="s">
         <v>565</v>
@@ -55061,15 +55144,17 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="99"/>
-      <c r="B63" s="80"/>
+      <c r="B63" s="80" t="s">
+        <v>1204</v>
+      </c>
       <c r="C63" s="80" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D63" s="81">
-        <v>0.42708333333333331</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="E63" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.41319444444444442</v>
       </c>
       <c r="F63" s="81">
         <f t="shared" si="0"/>
@@ -55080,7 +55165,7 @@
       </c>
       <c r="I63" s="81">
         <f t="shared" ref="I63" si="16">SUMIFS(F62:F76, C62:C76,H63)</f>
-        <v>0.20833333333333337</v>
+        <v>0.24305555555555564</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -55106,7 +55191,7 @@
       </c>
       <c r="I64" s="81">
         <f t="shared" ref="I64" si="17">SUMIFS(F62:F76, C62:C76,H64)</f>
-        <v>3.819444444444442E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -55132,24 +55217,26 @@
       </c>
       <c r="I65" s="81">
         <f t="shared" ref="I65" si="18">SUMIFS(F62:F76, C62:C76,H65)</f>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="99"/>
-      <c r="B66" s="80"/>
+      <c r="B66" s="80" t="s">
+        <v>1204</v>
+      </c>
       <c r="C66" s="80" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D66" s="81">
-        <v>0.52083333333333337</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="E66" s="81">
-        <v>0.54166666666666663</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F66" s="81">
         <f t="shared" ref="F66:F129" si="19">E66-D66</f>
-        <v>2.0833333333333259E-2</v>
+        <v>3.4722222222222265E-2</v>
       </c>
       <c r="H66" s="83" t="s">
         <v>513</v>
@@ -55162,20 +55249,20 @@
     <row r="67" spans="1:9">
       <c r="A67" s="99"/>
       <c r="B67" s="80" t="s">
-        <v>1201</v>
+        <v>1182</v>
       </c>
       <c r="C67" s="80" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D67" s="81">
-        <v>0.47222222222222227</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E67" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="F67" s="81">
         <f t="shared" si="19"/>
-        <v>6.9444444444444198E-3</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H67" s="83" t="s">
         <v>512</v>
@@ -55188,72 +55275,70 @@
     <row r="68" spans="1:9">
       <c r="A68" s="99"/>
       <c r="B68" s="80" t="s">
-        <v>521</v>
+        <v>1205</v>
       </c>
       <c r="C68" s="80" t="s">
         <v>516</v>
       </c>
       <c r="D68" s="81">
-        <v>0.65625</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E68" s="81">
-        <v>0.66666666666666663</v>
+        <v>0.5625</v>
       </c>
       <c r="F68" s="81">
         <f t="shared" si="19"/>
-        <v>1.041666666666663E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H68" s="83" t="s">
         <v>516</v>
       </c>
       <c r="I68" s="81">
         <f t="shared" ref="I68" si="22">SUMIFS(F62:F76, C62:C76,H68)</f>
-        <v>4.5138888888888729E-2</v>
+        <v>4.8611111111111049E-2</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="99"/>
       <c r="B69" s="80" t="s">
-        <v>578</v>
+        <v>1206</v>
       </c>
       <c r="C69" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D69" s="81">
-        <v>0.66666666666666663</v>
+        <v>0.5625</v>
       </c>
       <c r="E69" s="81">
-        <v>0.75</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="F69" s="81">
         <f t="shared" si="19"/>
-        <v>8.333333333333337E-2</v>
+        <v>0.17708333333333337</v>
       </c>
       <c r="H69" s="78" t="s">
         <v>519</v>
       </c>
       <c r="I69" s="79">
         <f t="shared" ref="I69" si="23">SUM(I63:I68)</f>
-        <v>0.30902777777777768</v>
+        <v>0.35763888888888895</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="99"/>
-      <c r="B70" s="80" t="s">
-        <v>546</v>
-      </c>
+      <c r="B70" s="80"/>
       <c r="C70" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D70" s="81">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E70" s="81">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="F70" s="81">
         <f t="shared" si="19"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I70" s="84"/>
     </row>
@@ -55354,7 +55439,7 @@
     <row r="78" spans="1:9">
       <c r="A78" s="99"/>
       <c r="B78" s="80" t="s">
-        <v>1202</v>
+        <v>1207</v>
       </c>
       <c r="C78" s="80" t="s">
         <v>510</v>
@@ -55432,7 +55517,7 @@
     <row r="81" spans="1:9">
       <c r="A81" s="99"/>
       <c r="B81" s="80" t="s">
-        <v>1203</v>
+        <v>1208</v>
       </c>
       <c r="C81" s="80" t="s">
         <v>504</v>
@@ -55510,7 +55595,7 @@
     <row r="84" spans="1:9">
       <c r="A84" s="99"/>
       <c r="B84" s="80" t="s">
-        <v>1204</v>
+        <v>1209</v>
       </c>
       <c r="C84" s="80" t="s">
         <v>504</v>
@@ -55556,7 +55641,7 @@
     <row r="86" spans="1:9">
       <c r="A86" s="99"/>
       <c r="B86" s="80" t="s">
-        <v>1205</v>
+        <v>1210</v>
       </c>
       <c r="C86" s="80" t="s">
         <v>510</v>
@@ -55576,7 +55661,7 @@
     <row r="87" spans="1:9">
       <c r="A87" s="99"/>
       <c r="B87" s="80" t="s">
-        <v>1205</v>
+        <v>1210</v>
       </c>
       <c r="C87" s="80" t="s">
         <v>504</v>
@@ -55614,7 +55699,7 @@
     <row r="89" spans="1:9">
       <c r="A89" s="99"/>
       <c r="B89" s="80" t="s">
-        <v>1206</v>
+        <v>1211</v>
       </c>
       <c r="C89" s="80" t="s">
         <v>510</v>
@@ -55708,7 +55793,7 @@
     <row r="94" spans="1:9">
       <c r="A94" s="99"/>
       <c r="B94" s="80" t="s">
-        <v>1207</v>
+        <v>1212</v>
       </c>
       <c r="C94" s="80" t="s">
         <v>504</v>
@@ -55734,7 +55819,7 @@
     <row r="95" spans="1:9">
       <c r="A95" s="99"/>
       <c r="B95" s="80" t="s">
-        <v>1208</v>
+        <v>1213</v>
       </c>
       <c r="C95" s="80" t="s">
         <v>504</v>
@@ -55786,7 +55871,7 @@
     <row r="97" spans="1:9">
       <c r="A97" s="99"/>
       <c r="B97" s="80" t="s">
-        <v>1201</v>
+        <v>1182</v>
       </c>
       <c r="C97" s="80" t="s">
         <v>510</v>
@@ -55838,7 +55923,7 @@
     <row r="99" spans="1:9">
       <c r="A99" s="99"/>
       <c r="B99" s="80" t="s">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="C99" s="80" t="s">
         <v>504</v>
@@ -55864,7 +55949,7 @@
     <row r="100" spans="1:9">
       <c r="A100" s="99"/>
       <c r="B100" s="80" t="s">
-        <v>1210</v>
+        <v>1215</v>
       </c>
       <c r="C100" s="80" t="s">
         <v>504</v>
@@ -55904,7 +55989,7 @@
     <row r="102" spans="1:9">
       <c r="A102" s="99"/>
       <c r="B102" s="80" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="C102" s="80"/>
       <c r="D102" s="81"/>
@@ -55988,7 +56073,7 @@
     <row r="108" spans="1:9">
       <c r="A108" s="99"/>
       <c r="B108" s="80" t="s">
-        <v>1211</v>
+        <v>1216</v>
       </c>
       <c r="C108" s="80" t="s">
         <v>504</v>
@@ -56066,7 +56151,7 @@
     <row r="111" spans="1:9">
       <c r="A111" s="99"/>
       <c r="B111" s="80" t="s">
-        <v>1212</v>
+        <v>1217</v>
       </c>
       <c r="C111" s="80" t="s">
         <v>504</v>
@@ -56144,7 +56229,7 @@
     <row r="114" spans="1:9">
       <c r="A114" s="99"/>
       <c r="B114" s="80" t="s">
-        <v>1212</v>
+        <v>1217</v>
       </c>
       <c r="C114" s="80" t="s">
         <v>504</v>
@@ -56170,7 +56255,7 @@
     <row r="115" spans="1:9">
       <c r="A115" s="99"/>
       <c r="B115" s="18" t="s">
-        <v>1213</v>
+        <v>1218</v>
       </c>
       <c r="C115" s="80" t="s">
         <v>504</v>
@@ -56190,7 +56275,7 @@
     <row r="116" spans="1:9">
       <c r="A116" s="99"/>
       <c r="B116" s="80" t="s">
-        <v>1214</v>
+        <v>1219</v>
       </c>
       <c r="C116" s="80" t="s">
         <v>504</v>
@@ -56280,7 +56365,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="99" t="s">
-        <v>1215</v>
+        <v>1220</v>
       </c>
       <c r="B122" s="80" t="s">
         <v>528</v>
@@ -56576,7 +56661,7 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="99" t="s">
-        <v>1216</v>
+        <v>1221</v>
       </c>
       <c r="B137" s="80" t="s">
         <v>528</v>
@@ -57056,7 +57141,7 @@
     <row r="159" spans="1:9">
       <c r="A159" s="99"/>
       <c r="B159" s="80" t="s">
-        <v>1217</v>
+        <v>1222</v>
       </c>
       <c r="C159" s="80" t="s">
         <v>504</v>
@@ -57082,7 +57167,7 @@
     <row r="160" spans="1:9">
       <c r="A160" s="99"/>
       <c r="B160" s="80" t="s">
-        <v>1218</v>
+        <v>1223</v>
       </c>
       <c r="C160" s="80" t="s">
         <v>504</v>
@@ -57122,7 +57207,7 @@
     <row r="162" spans="1:9">
       <c r="A162" s="99"/>
       <c r="B162" s="80" t="s">
-        <v>1219</v>
+        <v>1224</v>
       </c>
       <c r="C162" s="80" t="s">
         <v>504</v>
@@ -57184,17 +57269,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="77" priority="12" operator="greaterThan">
@@ -57260,8 +57345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C485A27-8294-46EE-BF3E-4AE5608F3B70}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -57621,7 +57706,7 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>1220</v>
+        <v>1225</v>
       </c>
       <c r="C17" s="80" t="s">
         <v>513</v>
@@ -57672,7 +57757,7 @@
     <row r="19" spans="1:9">
       <c r="A19" s="99"/>
       <c r="B19" t="s">
-        <v>1221</v>
+        <v>1226</v>
       </c>
       <c r="C19" s="80" t="s">
         <v>504</v>
@@ -57698,7 +57783,7 @@
     <row r="20" spans="1:9">
       <c r="A20" s="99"/>
       <c r="B20" s="80" t="s">
-        <v>1222</v>
+        <v>1227</v>
       </c>
       <c r="C20" s="80" t="s">
         <v>504</v>
@@ -57750,7 +57835,7 @@
     <row r="22" spans="1:9">
       <c r="A22" s="99"/>
       <c r="B22" s="80" t="s">
-        <v>1223</v>
+        <v>1228</v>
       </c>
       <c r="C22" s="80" t="s">
         <v>504</v>
@@ -57776,7 +57861,7 @@
     <row r="23" spans="1:9">
       <c r="A23" s="99"/>
       <c r="B23" s="80" t="s">
-        <v>1224</v>
+        <v>1229</v>
       </c>
       <c r="C23" s="80" t="s">
         <v>596</v>
@@ -57848,7 +57933,7 @@
     <row r="26" spans="1:9">
       <c r="A26" s="99"/>
       <c r="B26" s="80" t="s">
-        <v>1225</v>
+        <v>1230</v>
       </c>
       <c r="C26" s="80" t="s">
         <v>504</v>
@@ -57887,7 +57972,7 @@
     <row r="28" spans="1:9">
       <c r="A28" s="99"/>
       <c r="B28" s="80" t="s">
-        <v>1226</v>
+        <v>1231</v>
       </c>
       <c r="C28" s="80" t="s">
         <v>504</v>
@@ -57938,7 +58023,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="99" t="s">
-        <v>1227</v>
+        <v>13</v>
       </c>
       <c r="B32" s="80" t="s">
         <v>528</v>
@@ -57986,13 +58071,13 @@
       </c>
       <c r="I33" s="81">
         <f>SUMIFS(F32:F46, C32:C46,H33)</f>
-        <v>0.18124999999999991</v>
+        <v>0.23958333333333315</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="99"/>
       <c r="B34" s="80" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="C34" s="80" t="s">
         <v>504</v>
@@ -58012,13 +58097,13 @@
       </c>
       <c r="I34" s="81">
         <f>SUMIFS(F32:F46, C32:C46,H34)</f>
-        <v>-0.6284722222222221</v>
+        <v>4.5138888888889006E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="99"/>
       <c r="B35" s="80" t="s">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="C35" s="80" t="s">
         <v>510</v>
@@ -58038,13 +58123,13 @@
       </c>
       <c r="I35" s="81">
         <f>SUMIFS(F32:F46, C32:C46,H35)</f>
-        <v>2.7777777777777735E-2</v>
+        <v>0.10069444444444448</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="99"/>
       <c r="B36" s="80" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="C36" s="80" t="s">
         <v>504</v>
@@ -58070,7 +58155,7 @@
     <row r="37" spans="1:9">
       <c r="A37" s="99"/>
       <c r="B37" s="80" t="s">
-        <v>1231</v>
+        <v>1235</v>
       </c>
       <c r="C37" s="80" t="s">
         <v>504</v>
@@ -58096,7 +58181,7 @@
     <row r="38" spans="1:9">
       <c r="A38" s="99"/>
       <c r="B38" s="80" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="C38" s="80" t="s">
         <v>504</v>
@@ -58122,7 +58207,7 @@
     <row r="39" spans="1:9">
       <c r="A39" s="99"/>
       <c r="B39" s="80" t="s">
-        <v>1233</v>
+        <v>1237</v>
       </c>
       <c r="C39" s="80" t="s">
         <v>504</v>
@@ -58142,7 +58227,7 @@
       </c>
       <c r="I39" s="79">
         <f>SUM(I33:I38)</f>
-        <v>-0.37777777777777777</v>
+        <v>0.42708333333333331</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -58168,7 +58253,7 @@
     <row r="41" spans="1:9">
       <c r="A41" s="99"/>
       <c r="B41" s="80" t="s">
-        <v>1234</v>
+        <v>1238</v>
       </c>
       <c r="C41" s="80" t="s">
         <v>504</v>
@@ -58188,7 +58273,7 @@
     <row r="42" spans="1:9">
       <c r="A42" s="99"/>
       <c r="B42" s="80" t="s">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="C42" s="80" t="s">
         <v>508</v>
@@ -58196,32 +58281,50 @@
       <c r="D42" s="81">
         <v>0.64236111111111105</v>
       </c>
-      <c r="E42" s="81"/>
+      <c r="E42" s="81">
+        <v>0.67361111111111116</v>
+      </c>
       <c r="F42" s="81">
         <f>E42-D42</f>
-        <v>-0.64236111111111105</v>
+        <v>3.1250000000000111E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="99"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
+      <c r="B43" s="80" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C43" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D43" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E43" s="81">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F43" s="81">
         <f>E43-D43</f>
-        <v>0</v>
+        <v>7.2916666666666741E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="99"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
+      <c r="B44" s="80" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C44" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D44" s="81">
+        <v>0.88750000000000007</v>
+      </c>
+      <c r="E44" s="81">
+        <v>0.9458333333333333</v>
+      </c>
       <c r="F44" s="81">
         <f>E44-D44</f>
-        <v>0</v>
+        <v>5.8333333333333237E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -58302,7 +58405,7 @@
     <row r="49" spans="1:9">
       <c r="A49" s="99"/>
       <c r="B49" s="80" t="s">
-        <v>1236</v>
+        <v>1242</v>
       </c>
       <c r="C49" s="80" t="s">
         <v>504</v>
@@ -58354,7 +58457,7 @@
     <row r="51" spans="1:9">
       <c r="A51" s="99"/>
       <c r="B51" s="80" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="C51" s="80" t="s">
         <v>504</v>
@@ -58432,7 +58535,7 @@
     <row r="54" spans="1:9">
       <c r="A54" s="99"/>
       <c r="B54" s="80" t="s">
-        <v>1237</v>
+        <v>1243</v>
       </c>
       <c r="C54" s="80" t="s">
         <v>504</v>
@@ -58478,7 +58581,7 @@
     <row r="56" spans="1:9">
       <c r="A56" s="99"/>
       <c r="B56" s="80" t="s">
-        <v>1238</v>
+        <v>1244</v>
       </c>
       <c r="C56" s="80" t="s">
         <v>504</v>
@@ -58552,23 +58655,23 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="99" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="B62" s="80" t="s">
         <v>528</v>
       </c>
       <c r="C62" s="80" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="D62" s="81">
-        <v>0.41666666666666669</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="E62" s="81">
-        <v>0.4236111111111111</v>
+        <v>0.375</v>
       </c>
       <c r="F62" s="81">
         <f>E62-D62</f>
-        <v>6.9444444444444198E-3</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H62" s="79" t="s">
         <v>505</v>
@@ -58580,124 +58683,124 @@
     <row r="63" spans="1:9">
       <c r="A63" s="99"/>
       <c r="B63" s="80" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="C63" s="80" t="s">
         <v>508</v>
       </c>
       <c r="D63" s="81">
-        <v>0.42708333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="E63" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="F63" s="81">
         <f>E63-D63</f>
-        <v>3.125E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H63" s="83" t="s">
         <v>504</v>
       </c>
       <c r="I63" s="81">
         <f>SUMIFS(F62:F76, C62:C76,H63)</f>
-        <v>0.22916666666666674</v>
+        <v>0.25694444444444453</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="99"/>
       <c r="B64" s="80" t="s">
-        <v>511</v>
+        <v>1245</v>
       </c>
       <c r="C64" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D64" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="E64" s="81">
-        <v>0.47222222222222227</v>
+        <v>0.4375</v>
       </c>
       <c r="F64" s="81">
         <f>E64-D64</f>
-        <v>1.3888888888888951E-2</v>
+        <v>5.555555555555558E-2</v>
       </c>
       <c r="H64" s="83" t="s">
         <v>508</v>
       </c>
       <c r="I64" s="81">
         <f>SUMIFS(F62:F76, C62:C76,H64)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="99"/>
       <c r="B65" s="80" t="s">
-        <v>551</v>
+        <v>1246</v>
       </c>
       <c r="C65" s="80" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="D65" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="E65" s="81">
-        <v>0.52083333333333337</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="F65" s="81">
         <f>E65-D65</f>
-        <v>4.1666666666666685E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H65" s="83" t="s">
         <v>510</v>
       </c>
       <c r="I65" s="81">
         <f>SUMIFS(F62:F76, C62:C76,H65)</f>
-        <v>0</v>
+        <v>4.8611111111111105E-2</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="99"/>
       <c r="B66" s="80" t="s">
-        <v>518</v>
+        <v>1247</v>
       </c>
       <c r="C66" s="80" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D66" s="81">
-        <v>0.52083333333333337</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="E66" s="81">
-        <v>0.54166666666666663</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F66" s="81">
         <f>E66-D66</f>
-        <v>2.0833333333333259E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H66" s="83" t="s">
         <v>513</v>
       </c>
       <c r="I66" s="81">
         <f>SUMIFS(F62:F76, C62:C76,H66)</f>
-        <v>0</v>
+        <v>1.0416666666666685E-2</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="99"/>
       <c r="B67" s="80" t="s">
-        <v>520</v>
+        <v>817</v>
       </c>
       <c r="C67" s="80" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D67" s="81">
-        <v>0.47222222222222227</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E67" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="F67" s="81">
         <f>E67-D67</f>
-        <v>6.9444444444444198E-3</v>
+        <v>4.8611111111111105E-2</v>
       </c>
       <c r="H67" s="83" t="s">
         <v>512</v>
@@ -58710,72 +58813,70 @@
     <row r="68" spans="1:9">
       <c r="A68" s="99"/>
       <c r="B68" s="80" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C68" s="80" t="s">
         <v>516</v>
       </c>
       <c r="D68" s="81">
-        <v>0.65625</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="E68" s="81">
-        <v>0.66666666666666663</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="F68" s="81">
         <f>E68-D68</f>
-        <v>1.041666666666663E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H68" s="83" t="s">
         <v>516</v>
       </c>
       <c r="I68" s="81">
         <f>SUMIFS(F62:F76, C62:C76,H68)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>5.2083333333333315E-2</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="99"/>
       <c r="B69" s="80" t="s">
-        <v>578</v>
+        <v>1248</v>
       </c>
       <c r="C69" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D69" s="81">
-        <v>0.66666666666666663</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="E69" s="81">
-        <v>0.75</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="F69" s="81">
         <f>E69-D69</f>
-        <v>8.333333333333337E-2</v>
+        <v>0.17013888888888895</v>
       </c>
       <c r="H69" s="78" t="s">
         <v>519</v>
       </c>
       <c r="I69" s="79">
         <f>SUM(I63:I68)</f>
-        <v>0.34027777777777773</v>
+        <v>0.37500000000000006</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="99"/>
-      <c r="B70" s="80" t="s">
-        <v>546</v>
-      </c>
+      <c r="B70" s="80"/>
       <c r="C70" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D70" s="81">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E70" s="81">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="F70" s="81">
         <f>E70-D70</f>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I70" s="84"/>
     </row>
@@ -58952,7 +59053,7 @@
     <row r="81" spans="1:9">
       <c r="A81" s="99"/>
       <c r="B81" s="80" t="s">
-        <v>1203</v>
+        <v>1208</v>
       </c>
       <c r="C81" s="80" t="s">
         <v>504</v>
@@ -59030,7 +59131,7 @@
     <row r="84" spans="1:9">
       <c r="A84" s="99"/>
       <c r="B84" s="80" t="s">
-        <v>1204</v>
+        <v>1209</v>
       </c>
       <c r="C84" s="80" t="s">
         <v>504</v>
@@ -59076,7 +59177,7 @@
     <row r="86" spans="1:9">
       <c r="A86" s="99"/>
       <c r="B86" s="80" t="s">
-        <v>1205</v>
+        <v>1210</v>
       </c>
       <c r="C86" s="80" t="s">
         <v>510</v>
@@ -59096,7 +59197,7 @@
     <row r="87" spans="1:9">
       <c r="A87" s="99"/>
       <c r="B87" s="80" t="s">
-        <v>1205</v>
+        <v>1210</v>
       </c>
       <c r="C87" s="80" t="s">
         <v>504</v>
@@ -59134,7 +59235,7 @@
     <row r="89" spans="1:9">
       <c r="A89" s="99"/>
       <c r="B89" s="80" t="s">
-        <v>1206</v>
+        <v>1211</v>
       </c>
       <c r="C89" s="80" t="s">
         <v>510</v>
@@ -59228,7 +59329,7 @@
     <row r="94" spans="1:9">
       <c r="A94" s="99"/>
       <c r="B94" s="80" t="s">
-        <v>1239</v>
+        <v>1249</v>
       </c>
       <c r="C94" s="80" t="s">
         <v>504</v>
@@ -59306,7 +59407,7 @@
     <row r="97" spans="1:9">
       <c r="A97" s="99"/>
       <c r="B97" s="80" t="s">
-        <v>1240</v>
+        <v>1205</v>
       </c>
       <c r="C97" s="80" t="s">
         <v>516</v>
@@ -59332,7 +59433,7 @@
     <row r="98" spans="1:9">
       <c r="A98" s="99"/>
       <c r="B98" s="80" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="C98" s="80" t="s">
         <v>504</v>
@@ -59530,7 +59631,7 @@
     <row r="109" spans="1:9">
       <c r="A109" s="99"/>
       <c r="B109" s="80" t="s">
-        <v>1241</v>
+        <v>1250</v>
       </c>
       <c r="C109" s="80" t="s">
         <v>504</v>
@@ -59582,7 +59683,7 @@
     <row r="111" spans="1:9">
       <c r="A111" s="99"/>
       <c r="B111" s="80" t="s">
-        <v>1242</v>
+        <v>1251</v>
       </c>
       <c r="C111" s="80" t="s">
         <v>504</v>
@@ -59660,7 +59761,7 @@
     <row r="114" spans="1:9">
       <c r="A114" s="99"/>
       <c r="B114" s="80" t="s">
-        <v>1243</v>
+        <v>1252</v>
       </c>
       <c r="C114" s="80" t="s">
         <v>504</v>
@@ -59686,7 +59787,7 @@
     <row r="115" spans="1:9">
       <c r="A115" s="99"/>
       <c r="B115" s="80" t="s">
-        <v>1244</v>
+        <v>1253</v>
       </c>
       <c r="C115" s="80" t="s">
         <v>504</v>
@@ -59706,7 +59807,7 @@
     <row r="116" spans="1:9">
       <c r="A116" s="99"/>
       <c r="B116" s="80" t="s">
-        <v>1245</v>
+        <v>1254</v>
       </c>
       <c r="C116" s="80" t="s">
         <v>510</v>
@@ -59780,7 +59881,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="99" t="s">
-        <v>1215</v>
+        <v>1220</v>
       </c>
       <c r="B122" s="80" t="s">
         <v>528</v>
@@ -60076,7 +60177,7 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="99" t="s">
-        <v>1216</v>
+        <v>1221</v>
       </c>
       <c r="B137" s="80" t="s">
         <v>528</v>
@@ -60426,7 +60527,7 @@
     <row r="154" spans="1:9">
       <c r="A154" s="99"/>
       <c r="B154" s="80" t="s">
-        <v>1246</v>
+        <v>1255</v>
       </c>
       <c r="C154" s="80" t="s">
         <v>504</v>
@@ -60530,7 +60631,7 @@
     <row r="158" spans="1:9">
       <c r="A158" s="99"/>
       <c r="B158" s="80" t="s">
-        <v>1247</v>
+        <v>1256</v>
       </c>
       <c r="C158" s="80" t="s">
         <v>504</v>
@@ -60556,7 +60657,7 @@
     <row r="159" spans="1:9">
       <c r="A159" s="99"/>
       <c r="B159" s="80" t="s">
-        <v>1248</v>
+        <v>1257</v>
       </c>
       <c r="C159" s="80" t="s">
         <v>504</v>
@@ -60602,7 +60703,7 @@
     <row r="161" spans="1:9">
       <c r="A161" s="99"/>
       <c r="B161" s="80" t="s">
-        <v>1249</v>
+        <v>1258</v>
       </c>
       <c r="C161" s="80" t="s">
         <v>504</v>
@@ -60676,17 +60777,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="64" priority="12" operator="greaterThan">
@@ -60752,8 +60853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD26D5DD-C1AC-4BEB-AE63-D5A54879FF02}">
   <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15"/>
@@ -61085,7 +61186,7 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>1250</v>
+        <v>1259</v>
       </c>
       <c r="C17" s="80" t="s">
         <v>504</v>
@@ -61110,7 +61211,7 @@
     <row r="18" spans="1:9">
       <c r="A18" s="99"/>
       <c r="B18" s="80" t="s">
-        <v>1251</v>
+        <v>1260</v>
       </c>
       <c r="C18" s="80" t="s">
         <v>504</v>
@@ -61162,7 +61263,7 @@
     <row r="20" spans="1:9">
       <c r="A20" s="99"/>
       <c r="B20" s="18" t="s">
-        <v>1252</v>
+        <v>1261</v>
       </c>
       <c r="C20" s="80" t="s">
         <v>504</v>
@@ -61240,7 +61341,7 @@
     <row r="23" spans="1:9">
       <c r="A23" s="99"/>
       <c r="B23" s="80" t="s">
-        <v>1252</v>
+        <v>1261</v>
       </c>
       <c r="C23" s="80" t="s">
         <v>504</v>
@@ -61292,7 +61393,7 @@
     <row r="25" spans="1:9">
       <c r="A25" s="99"/>
       <c r="B25" s="80" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="C25" s="80" t="s">
         <v>504</v>
@@ -61378,23 +61479,23 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="99" t="s">
-        <v>1227</v>
+        <v>13</v>
       </c>
       <c r="B32" s="80" t="s">
-        <v>528</v>
+        <v>1262</v>
       </c>
       <c r="C32" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D32" s="81">
-        <v>0.41666666666666669</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="E32" s="81">
-        <v>0.4236111111111111</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F32" s="81">
         <f>E32-D32</f>
-        <v>6.9444444444444198E-3</v>
+        <v>9.375E-2</v>
       </c>
       <c r="H32" s="79" t="s">
         <v>505</v>
@@ -61406,98 +61507,98 @@
     <row r="33" spans="1:9">
       <c r="A33" s="99"/>
       <c r="B33" s="80" t="s">
-        <v>551</v>
+        <v>590</v>
       </c>
       <c r="C33" s="80" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="D33" s="81">
-        <v>0.42708333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E33" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="F33" s="81">
         <f>E33-D33</f>
-        <v>3.125E-2</v>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="H33" s="83" t="s">
         <v>504</v>
       </c>
       <c r="I33" s="81">
         <f>SUMIFS(F32:F46, C32:C46,H33)</f>
-        <v>0.22916666666666674</v>
+        <v>0.23958333333333337</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="99"/>
       <c r="B34" s="80" t="s">
-        <v>511</v>
+        <v>1263</v>
       </c>
       <c r="C34" s="80" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D34" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="E34" s="81">
-        <v>0.47222222222222227</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="F34" s="81">
         <f>E34-D34</f>
-        <v>1.3888888888888951E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H34" s="83" t="s">
         <v>508</v>
       </c>
       <c r="I34" s="81">
         <f>SUMIFS(F32:F46, C32:C46,H34)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="99"/>
       <c r="B35" s="80" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
       <c r="C35" s="80" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="D35" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="E35" s="81">
-        <v>0.52083333333333337</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="F35" s="81">
         <f>E35-D35</f>
-        <v>4.1666666666666685E-2</v>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="H35" s="83" t="s">
         <v>510</v>
       </c>
       <c r="I35" s="81">
         <f>SUMIFS(F32:F46, C32:C46,H35)</f>
-        <v>0</v>
+        <v>9.7222222222222099E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="99"/>
       <c r="B36" s="80" t="s">
-        <v>518</v>
+        <v>1264</v>
       </c>
       <c r="C36" s="80" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D36" s="81">
-        <v>0.52083333333333337</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="E36" s="81">
-        <v>0.54166666666666663</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="F36" s="81">
         <f>E36-D36</f>
-        <v>2.0833333333333259E-2</v>
+        <v>4.861111111111116E-2</v>
       </c>
       <c r="H36" s="83" t="s">
         <v>513</v>
@@ -61510,20 +61611,20 @@
     <row r="37" spans="1:9">
       <c r="A37" s="99"/>
       <c r="B37" s="80" t="s">
-        <v>520</v>
+        <v>1265</v>
       </c>
       <c r="C37" s="80" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D37" s="81">
-        <v>0.47222222222222227</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E37" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="F37" s="81">
         <f>E37-D37</f>
-        <v>6.9444444444444198E-3</v>
+        <v>9.722222222222221E-2</v>
       </c>
       <c r="H37" s="83" t="s">
         <v>512</v>
@@ -61536,72 +61637,64 @@
     <row r="38" spans="1:9">
       <c r="A38" s="99"/>
       <c r="B38" s="80" t="s">
-        <v>521</v>
+        <v>1266</v>
       </c>
       <c r="C38" s="80" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D38" s="81">
-        <v>0.65625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E38" s="81">
-        <v>0.66666666666666663</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="F38" s="81">
         <f>E38-D38</f>
-        <v>1.041666666666663E-2</v>
+        <v>5.5555555555555469E-2</v>
       </c>
       <c r="H38" s="83" t="s">
         <v>516</v>
       </c>
       <c r="I38" s="81">
         <f>SUMIFS(F32:F46, C32:C46,H38)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>3.4722222222222154E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="99"/>
       <c r="B39" s="80" t="s">
-        <v>578</v>
+        <v>1267</v>
       </c>
       <c r="C39" s="80" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="D39" s="81">
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E39" s="81">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="F39" s="81">
         <f>E39-D39</f>
-        <v>8.333333333333337E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H39" s="78" t="s">
         <v>519</v>
       </c>
       <c r="I39" s="79">
         <f>SUM(I33:I38)</f>
-        <v>0.34027777777777773</v>
+        <v>0.40277777777777762</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="99"/>
-      <c r="B40" s="80" t="s">
-        <v>546</v>
-      </c>
-      <c r="C40" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D40" s="81">
-        <v>0.75</v>
-      </c>
-      <c r="E40" s="81">
-        <v>0.875</v>
-      </c>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
       <c r="F40" s="81">
         <f>E40-D40</f>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I40" s="84"/>
     </row>
@@ -61702,7 +61795,7 @@
     <row r="48" spans="1:9">
       <c r="A48" s="99"/>
       <c r="B48" s="80" t="s">
-        <v>1253</v>
+        <v>1268</v>
       </c>
       <c r="C48" s="80" t="s">
         <v>504</v>
@@ -61754,7 +61847,7 @@
     <row r="50" spans="1:9">
       <c r="A50" s="99"/>
       <c r="B50" t="s">
-        <v>1254</v>
+        <v>1269</v>
       </c>
       <c r="C50" s="80" t="s">
         <v>504</v>
@@ -61832,7 +61925,7 @@
     <row r="53" spans="1:9">
       <c r="A53" s="99"/>
       <c r="B53" t="s">
-        <v>1254</v>
+        <v>1269</v>
       </c>
       <c r="C53" s="80" t="s">
         <v>504</v>
@@ -61858,7 +61951,7 @@
     <row r="54" spans="1:9">
       <c r="A54" s="99"/>
       <c r="B54" s="80" t="s">
-        <v>1255</v>
+        <v>1270</v>
       </c>
       <c r="C54" s="80" t="s">
         <v>504</v>
@@ -61904,7 +61997,7 @@
     <row r="56" spans="1:9">
       <c r="A56" s="99"/>
       <c r="B56" s="80" t="s">
-        <v>1255</v>
+        <v>1270</v>
       </c>
       <c r="C56" s="80" t="s">
         <v>504</v>
@@ -61978,19 +62071,19 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="99" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="B62" s="80" t="s">
-        <v>528</v>
+        <v>1271</v>
       </c>
       <c r="C62" s="80" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D62" s="81">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="E62" s="81">
-        <v>0.4236111111111111</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="F62" s="81">
         <f>E62-D62</f>
@@ -62006,98 +62099,98 @@
     <row r="63" spans="1:9">
       <c r="A63" s="99"/>
       <c r="B63" s="80" t="s">
-        <v>551</v>
+        <v>1272</v>
       </c>
       <c r="C63" s="80" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D63" s="81">
-        <v>0.42708333333333331</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="E63" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="F63" s="81">
         <f>E63-D63</f>
-        <v>3.125E-2</v>
+        <v>5.555555555555558E-2</v>
       </c>
       <c r="H63" s="83" t="s">
         <v>504</v>
       </c>
       <c r="I63" s="81">
         <f>SUMIFS(F62:F76, C62:C76,H63)</f>
-        <v>0.22916666666666674</v>
+        <v>0.25347222222222232</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="99"/>
       <c r="B64" s="80" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="C64" s="80" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="D64" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="E64" s="81">
-        <v>0.47222222222222227</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="F64" s="81">
         <f>E64-D64</f>
-        <v>1.3888888888888951E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H64" s="83" t="s">
         <v>508</v>
       </c>
       <c r="I64" s="81">
         <f>SUMIFS(F62:F76, C62:C76,H64)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="99"/>
       <c r="B65" s="80" t="s">
-        <v>551</v>
+        <v>1273</v>
       </c>
       <c r="C65" s="80" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D65" s="81">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E65" s="81">
         <v>0.47916666666666669</v>
-      </c>
-      <c r="E65" s="81">
-        <v>0.52083333333333337</v>
       </c>
       <c r="F65" s="81">
         <f>E65-D65</f>
-        <v>4.1666666666666685E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H65" s="83" t="s">
         <v>510</v>
       </c>
       <c r="I65" s="81">
         <f>SUMIFS(F62:F76, C62:C76,H65)</f>
-        <v>0</v>
+        <v>5.2083333333333315E-2</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="99"/>
       <c r="B66" s="80" t="s">
-        <v>518</v>
+        <v>817</v>
       </c>
       <c r="C66" s="80" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D66" s="81">
-        <v>0.52083333333333337</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E66" s="81">
-        <v>0.54166666666666663</v>
+        <v>0.53125</v>
       </c>
       <c r="F66" s="81">
         <f>E66-D66</f>
-        <v>2.0833333333333259E-2</v>
+        <v>5.2083333333333315E-2</v>
       </c>
       <c r="H66" s="83" t="s">
         <v>513</v>
@@ -62110,20 +62203,20 @@
     <row r="67" spans="1:9">
       <c r="A67" s="99"/>
       <c r="B67" s="80" t="s">
-        <v>520</v>
+        <v>1205</v>
       </c>
       <c r="C67" s="80" t="s">
         <v>516</v>
       </c>
       <c r="D67" s="81">
-        <v>0.47222222222222227</v>
+        <v>0.53125</v>
       </c>
       <c r="E67" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="F67" s="81">
         <f>E67-D67</f>
-        <v>6.9444444444444198E-3</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H67" s="83" t="s">
         <v>512</v>
@@ -62136,72 +62229,68 @@
     <row r="68" spans="1:9">
       <c r="A68" s="99"/>
       <c r="B68" s="80" t="s">
-        <v>521</v>
+        <v>1274</v>
       </c>
       <c r="C68" s="80" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D68" s="81">
-        <v>0.65625</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E68" s="81">
-        <v>0.66666666666666663</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="F68" s="81">
         <f>E68-D68</f>
-        <v>1.041666666666663E-2</v>
+        <v>0.16666666666666674</v>
       </c>
       <c r="H68" s="83" t="s">
         <v>516</v>
       </c>
       <c r="I68" s="81">
         <f>SUMIFS(F62:F76, C62:C76,H68)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>5.2083333333333315E-2</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="99"/>
-      <c r="B69" s="80" t="s">
-        <v>578</v>
-      </c>
+      <c r="B69" s="80"/>
       <c r="C69" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D69" s="81">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="E69" s="81">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F69" s="81">
         <f>E69-D69</f>
-        <v>8.333333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="H69" s="78" t="s">
         <v>519</v>
       </c>
       <c r="I69" s="79">
         <f>SUM(I63:I68)</f>
-        <v>0.34027777777777773</v>
+        <v>0.36458333333333337</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="99"/>
-      <c r="B70" s="80" t="s">
-        <v>546</v>
-      </c>
+      <c r="B70" s="80"/>
       <c r="C70" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D70" s="81">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E70" s="81">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="F70" s="81">
         <f>E70-D70</f>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I70" s="84"/>
     </row>
@@ -62378,7 +62467,7 @@
     <row r="81" spans="1:9">
       <c r="A81" s="99"/>
       <c r="B81" s="80" t="s">
-        <v>1203</v>
+        <v>1208</v>
       </c>
       <c r="C81" s="80" t="s">
         <v>504</v>
@@ -62456,7 +62545,7 @@
     <row r="84" spans="1:9">
       <c r="A84" s="99"/>
       <c r="B84" s="80" t="s">
-        <v>1204</v>
+        <v>1209</v>
       </c>
       <c r="C84" s="80" t="s">
         <v>504</v>
@@ -62502,7 +62591,7 @@
     <row r="86" spans="1:9">
       <c r="A86" s="99"/>
       <c r="B86" s="80" t="s">
-        <v>1205</v>
+        <v>1210</v>
       </c>
       <c r="C86" s="80" t="s">
         <v>510</v>
@@ -62522,7 +62611,7 @@
     <row r="87" spans="1:9">
       <c r="A87" s="99"/>
       <c r="B87" s="80" t="s">
-        <v>1205</v>
+        <v>1210</v>
       </c>
       <c r="C87" s="80" t="s">
         <v>504</v>
@@ -62560,7 +62649,7 @@
     <row r="89" spans="1:9">
       <c r="A89" s="99"/>
       <c r="B89" s="80" t="s">
-        <v>1206</v>
+        <v>1211</v>
       </c>
       <c r="C89" s="80" t="s">
         <v>510</v>
@@ -62603,7 +62692,7 @@
         <v>691</v>
       </c>
       <c r="B92" s="80" t="s">
-        <v>1256</v>
+        <v>1275</v>
       </c>
       <c r="C92" s="80" t="s">
         <v>508</v>
@@ -62642,7 +62731,7 @@
     <row r="94" spans="1:9">
       <c r="A94" s="99"/>
       <c r="B94" s="80" t="s">
-        <v>1257</v>
+        <v>1276</v>
       </c>
       <c r="C94" s="80" t="s">
         <v>508</v>
@@ -62682,7 +62771,7 @@
     <row r="96" spans="1:9">
       <c r="A96" s="99"/>
       <c r="B96" s="80" t="s">
-        <v>1258</v>
+        <v>1277</v>
       </c>
       <c r="C96" s="80" t="s">
         <v>504</v>
@@ -62722,7 +62811,7 @@
     <row r="98" spans="1:9">
       <c r="A98" s="99"/>
       <c r="B98" s="80" t="s">
-        <v>1259</v>
+        <v>1278</v>
       </c>
       <c r="C98" s="80" t="s">
         <v>504</v>
@@ -62825,7 +62914,7 @@
         <v>631</v>
       </c>
       <c r="B107" s="80" t="s">
-        <v>1260</v>
+        <v>1279</v>
       </c>
       <c r="C107" s="80" t="s">
         <v>504</v>
@@ -63102,7 +63191,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="99" t="s">
-        <v>1215</v>
+        <v>1220</v>
       </c>
       <c r="B122" s="80" t="s">
         <v>528</v>
@@ -63398,7 +63487,7 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="99" t="s">
-        <v>1216</v>
+        <v>1221</v>
       </c>
       <c r="B137" s="80" t="s">
         <v>528</v>
@@ -63722,7 +63811,7 @@
     <row r="153" spans="1:9">
       <c r="A153" s="99"/>
       <c r="B153" s="80" t="s">
-        <v>1261</v>
+        <v>1280</v>
       </c>
       <c r="C153" s="80" t="s">
         <v>504</v>
@@ -63774,7 +63863,7 @@
     <row r="155" spans="1:9">
       <c r="A155" s="99"/>
       <c r="B155" s="80" t="s">
-        <v>1262</v>
+        <v>1281</v>
       </c>
       <c r="C155" s="80" t="s">
         <v>504</v>
@@ -63852,7 +63941,7 @@
     <row r="158" spans="1:9">
       <c r="A158" s="99"/>
       <c r="B158" s="80" t="s">
-        <v>1263</v>
+        <v>1282</v>
       </c>
       <c r="C158" s="80" t="s">
         <v>504</v>
@@ -63904,7 +63993,7 @@
     <row r="160" spans="1:9">
       <c r="A160" s="99"/>
       <c r="B160" s="80" t="s">
-        <v>1264</v>
+        <v>1283</v>
       </c>
       <c r="C160" s="80" t="s">
         <v>504</v>
@@ -63990,17 +64079,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="51" priority="12" operator="greaterThan">
@@ -64066,8 +64155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259AE707-F180-49C8-A2F7-BE76079AD300}">
   <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="15"/>
@@ -64126,7 +64215,7 @@
     <row r="3" spans="1:9">
       <c r="A3" s="99"/>
       <c r="B3" s="80" t="s">
-        <v>1265</v>
+        <v>1284</v>
       </c>
       <c r="C3" s="80" t="s">
         <v>504</v>
@@ -64365,7 +64454,7 @@
     <row r="18" spans="1:9">
       <c r="A18" s="99"/>
       <c r="B18" s="80" t="s">
-        <v>1266</v>
+        <v>1285</v>
       </c>
       <c r="C18" s="80" t="s">
         <v>508</v>
@@ -64391,7 +64480,7 @@
     <row r="19" spans="1:9">
       <c r="A19" s="99"/>
       <c r="B19" t="s">
-        <v>1267</v>
+        <v>1286</v>
       </c>
       <c r="C19" s="80" t="s">
         <v>504</v>
@@ -64584,10 +64673,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="99" t="s">
-        <v>1227</v>
+        <v>13</v>
       </c>
       <c r="B32" s="80" t="s">
-        <v>528</v>
+        <v>1287</v>
       </c>
       <c r="C32" s="80" t="s">
         <v>504</v>
@@ -64596,11 +64685,11 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E32" s="81">
-        <v>0.4236111111111111</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="F32" s="81">
         <f>E32-D32</f>
-        <v>6.9444444444444198E-3</v>
+        <v>3.819444444444442E-2</v>
       </c>
       <c r="H32" s="79" t="s">
         <v>505</v>
@@ -64612,72 +64701,72 @@
     <row r="33" spans="1:9">
       <c r="A33" s="99"/>
       <c r="B33" s="80" t="s">
-        <v>551</v>
+        <v>600</v>
       </c>
       <c r="C33" s="80" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="D33" s="81">
-        <v>0.42708333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E33" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="F33" s="81">
         <f>E33-D33</f>
-        <v>3.125E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H33" s="83" t="s">
         <v>504</v>
       </c>
       <c r="I33" s="81">
         <f>SUMIFS(F32:F46, C32:C46,H33)</f>
-        <v>0.22916666666666674</v>
+        <v>0.15277777777777779</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="99"/>
       <c r="B34" s="80" t="s">
-        <v>511</v>
+        <v>1288</v>
       </c>
       <c r="C34" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D34" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E34" s="81">
-        <v>0.47222222222222227</v>
+        <v>0.59375</v>
       </c>
       <c r="F34" s="81">
         <f>E34-D34</f>
-        <v>1.3888888888888951E-2</v>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="H34" s="83" t="s">
         <v>508</v>
       </c>
       <c r="I34" s="81">
         <f>SUMIFS(F32:F46, C32:C46,H34)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="99"/>
       <c r="B35" s="80" t="s">
-        <v>551</v>
+        <v>1289</v>
       </c>
       <c r="C35" s="80" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D35" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E35" s="81">
-        <v>0.52083333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F35" s="81">
         <f>E35-D35</f>
-        <v>4.1666666666666685E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H35" s="83" t="s">
         <v>510</v>
@@ -64689,47 +64778,31 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="99"/>
-      <c r="B36" s="80" t="s">
-        <v>518</v>
-      </c>
-      <c r="C36" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D36" s="81">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E36" s="81">
-        <v>0.54166666666666663</v>
-      </c>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
       <c r="F36" s="81">
         <f>E36-D36</f>
-        <v>2.0833333333333259E-2</v>
+        <v>0</v>
       </c>
       <c r="H36" s="83" t="s">
         <v>513</v>
       </c>
       <c r="I36" s="81">
         <f>SUMIFS(F32:F46, C32:C46,H36)</f>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="99"/>
-      <c r="B37" s="80" t="s">
-        <v>520</v>
-      </c>
-      <c r="C37" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D37" s="81">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="E37" s="81">
-        <v>0.47916666666666669</v>
-      </c>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
       <c r="F37" s="81">
         <f>E37-D37</f>
-        <v>6.9444444444444198E-3</v>
+        <v>0</v>
       </c>
       <c r="H37" s="83" t="s">
         <v>512</v>
@@ -64741,73 +64814,49 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="99"/>
-      <c r="B38" s="80" t="s">
-        <v>521</v>
-      </c>
-      <c r="C38" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="D38" s="81">
-        <v>0.65625</v>
-      </c>
-      <c r="E38" s="81">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
       <c r="F38" s="81">
         <f>E38-D38</f>
-        <v>1.041666666666663E-2</v>
+        <v>0</v>
       </c>
       <c r="H38" s="83" t="s">
         <v>516</v>
       </c>
       <c r="I38" s="81">
         <f>SUMIFS(F32:F46, C32:C46,H38)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="99"/>
-      <c r="B39" s="80" t="s">
-        <v>578</v>
-      </c>
-      <c r="C39" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D39" s="81">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E39" s="81">
-        <v>0.75</v>
-      </c>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
       <c r="F39" s="81">
         <f>E39-D39</f>
-        <v>8.333333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="H39" s="78" t="s">
         <v>519</v>
       </c>
       <c r="I39" s="79">
         <f>SUM(I33:I38)</f>
-        <v>0.34027777777777773</v>
+        <v>0.19444444444444448</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="99"/>
-      <c r="B40" s="80" t="s">
-        <v>546</v>
-      </c>
-      <c r="C40" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D40" s="81">
-        <v>0.75</v>
-      </c>
-      <c r="E40" s="81">
-        <v>0.875</v>
-      </c>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
       <c r="F40" s="81">
         <f>E40-D40</f>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I40" s="84"/>
     </row>
@@ -64908,7 +64957,7 @@
     <row r="48" spans="1:9">
       <c r="A48" s="99"/>
       <c r="B48" s="80" t="s">
-        <v>1268</v>
+        <v>1290</v>
       </c>
       <c r="C48" s="80" t="s">
         <v>508</v>
@@ -65120,23 +65169,23 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="99" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B62" s="80" t="s">
-        <v>528</v>
+        <v>1203</v>
+      </c>
+      <c r="B62" t="s">
+        <v>600</v>
       </c>
       <c r="C62" s="80" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="D62" s="81">
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E62" s="81">
-        <v>0.4236111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="F62" s="81">
         <f>E62-D62</f>
-        <v>6.9444444444444198E-3</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H62" s="79" t="s">
         <v>505</v>
@@ -65148,72 +65197,68 @@
     <row r="63" spans="1:9">
       <c r="A63" s="99"/>
       <c r="B63" s="80" t="s">
-        <v>551</v>
+        <v>1291</v>
       </c>
       <c r="C63" s="80" t="s">
         <v>508</v>
       </c>
       <c r="D63" s="81">
-        <v>0.42708333333333331</v>
+        <v>0</v>
       </c>
       <c r="E63" s="81">
-        <v>0.45833333333333331</v>
+        <v>0</v>
       </c>
       <c r="F63" s="81">
         <f>E63-D63</f>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
       <c r="H63" s="83" t="s">
         <v>504</v>
       </c>
       <c r="I63" s="81">
         <f>SUMIFS(F62:F76, C62:C76,H63)</f>
-        <v>0.22916666666666674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="99"/>
-      <c r="B64" s="80" t="s">
-        <v>511</v>
-      </c>
+      <c r="B64" s="80"/>
       <c r="C64" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D64" s="81">
-        <v>0.45833333333333331</v>
+        <v>0</v>
       </c>
       <c r="E64" s="81">
-        <v>0.47222222222222227</v>
+        <v>0</v>
       </c>
       <c r="F64" s="81">
         <f>E64-D64</f>
-        <v>1.3888888888888951E-2</v>
+        <v>0</v>
       </c>
       <c r="H64" s="83" t="s">
         <v>508</v>
       </c>
       <c r="I64" s="81">
         <f>SUMIFS(F62:F76, C62:C76,H64)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="99"/>
-      <c r="B65" s="80" t="s">
-        <v>551</v>
-      </c>
+      <c r="B65" s="80"/>
       <c r="C65" s="80" t="s">
         <v>508</v>
       </c>
       <c r="D65" s="81">
-        <v>0.47916666666666669</v>
+        <v>0</v>
       </c>
       <c r="E65" s="81">
-        <v>0.52083333333333337</v>
+        <v>0</v>
       </c>
       <c r="F65" s="81">
         <f>E65-D65</f>
-        <v>4.1666666666666685E-2</v>
+        <v>0</v>
       </c>
       <c r="H65" s="83" t="s">
         <v>510</v>
@@ -65225,47 +65270,43 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="99"/>
-      <c r="B66" s="80" t="s">
-        <v>518</v>
-      </c>
+      <c r="B66" s="80"/>
       <c r="C66" s="80" t="s">
         <v>516</v>
       </c>
       <c r="D66" s="81">
-        <v>0.52083333333333337</v>
+        <v>0</v>
       </c>
       <c r="E66" s="81">
-        <v>0.54166666666666663</v>
+        <v>0</v>
       </c>
       <c r="F66" s="81">
         <f>E66-D66</f>
-        <v>2.0833333333333259E-2</v>
+        <v>0</v>
       </c>
       <c r="H66" s="83" t="s">
         <v>513</v>
       </c>
       <c r="I66" s="81">
         <f>SUMIFS(F62:F76, C62:C76,H66)</f>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="99"/>
-      <c r="B67" s="80" t="s">
-        <v>520</v>
-      </c>
+      <c r="B67" s="80"/>
       <c r="C67" s="80" t="s">
         <v>516</v>
       </c>
       <c r="D67" s="81">
-        <v>0.47222222222222227</v>
+        <v>0</v>
       </c>
       <c r="E67" s="81">
-        <v>0.47916666666666669</v>
+        <v>0</v>
       </c>
       <c r="F67" s="81">
         <f>E67-D67</f>
-        <v>6.9444444444444198E-3</v>
+        <v>0</v>
       </c>
       <c r="H67" s="83" t="s">
         <v>512</v>
@@ -65277,73 +65318,67 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="99"/>
-      <c r="B68" s="80" t="s">
-        <v>521</v>
-      </c>
+      <c r="B68" s="80"/>
       <c r="C68" s="80" t="s">
         <v>516</v>
       </c>
       <c r="D68" s="81">
-        <v>0.65625</v>
+        <v>0</v>
       </c>
       <c r="E68" s="81">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="F68" s="81">
         <f>E68-D68</f>
-        <v>1.041666666666663E-2</v>
+        <v>0</v>
       </c>
       <c r="H68" s="83" t="s">
         <v>516</v>
       </c>
       <c r="I68" s="81">
         <f>SUMIFS(F62:F76, C62:C76,H68)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="99"/>
-      <c r="B69" s="80" t="s">
-        <v>578</v>
-      </c>
+      <c r="B69" s="80"/>
       <c r="C69" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D69" s="81">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="E69" s="81">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F69" s="81">
         <f>E69-D69</f>
-        <v>8.333333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="H69" s="78" t="s">
         <v>519</v>
       </c>
       <c r="I69" s="79">
         <f>SUM(I63:I68)</f>
-        <v>0.34027777777777773</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="99"/>
-      <c r="B70" s="80" t="s">
-        <v>546</v>
-      </c>
+      <c r="B70" s="80"/>
       <c r="C70" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D70" s="81">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E70" s="81">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="F70" s="81">
         <f>E70-D70</f>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I70" s="84"/>
     </row>
@@ -65444,7 +65479,7 @@
     <row r="78" spans="1:9">
       <c r="A78" s="99"/>
       <c r="B78" s="80" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="C78" s="80" t="s">
         <v>508</v>
@@ -65470,7 +65505,7 @@
     <row r="79" spans="1:9">
       <c r="A79" s="99"/>
       <c r="B79" s="80" t="s">
-        <v>1270</v>
+        <v>1293</v>
       </c>
       <c r="C79" s="80" t="s">
         <v>508</v>
@@ -65634,7 +65669,7 @@
         <v>691</v>
       </c>
       <c r="B92" s="80" t="s">
-        <v>1271</v>
+        <v>1294</v>
       </c>
       <c r="C92" s="80" t="s">
         <v>513</v>
@@ -65659,7 +65694,7 @@
     <row r="93" spans="1:9">
       <c r="A93" s="99"/>
       <c r="B93" s="80" t="s">
-        <v>1272</v>
+        <v>1295</v>
       </c>
       <c r="C93" s="80" t="s">
         <v>504</v>
@@ -65850,7 +65885,7 @@
         <v>631</v>
       </c>
       <c r="B107" s="80" t="s">
-        <v>1273</v>
+        <v>1296</v>
       </c>
       <c r="C107" s="80"/>
       <c r="D107" s="81">
@@ -66109,7 +66144,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="99" t="s">
-        <v>1215</v>
+        <v>1220</v>
       </c>
       <c r="B122" s="80" t="s">
         <v>528</v>
@@ -66405,7 +66440,7 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="99" t="s">
-        <v>1216</v>
+        <v>1221</v>
       </c>
       <c r="B137" s="80" t="s">
         <v>528</v>
@@ -66704,7 +66739,7 @@
         <v>23</v>
       </c>
       <c r="B152" s="80" t="s">
-        <v>1274</v>
+        <v>1297</v>
       </c>
       <c r="C152" s="80" t="s">
         <v>508</v>
@@ -66781,7 +66816,7 @@
     <row r="155" spans="1:9">
       <c r="A155" s="99"/>
       <c r="B155" s="80" t="s">
-        <v>1275</v>
+        <v>1298</v>
       </c>
       <c r="C155" s="80" t="s">
         <v>504</v>
@@ -66833,7 +66868,7 @@
     <row r="157" spans="1:9">
       <c r="A157" s="99"/>
       <c r="B157" s="80" t="s">
-        <v>1276</v>
+        <v>1299</v>
       </c>
       <c r="C157" s="80" t="s">
         <v>504</v>
@@ -66991,17 +67026,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="38" priority="12" operator="greaterThan">
@@ -67067,8 +67102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BBE5B9-D939-4611-A2D6-D38FE5D4566D}">
   <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="A1:I166"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15"/>
@@ -67423,7 +67458,7 @@
     <row r="18" spans="1:9">
       <c r="A18" s="99"/>
       <c r="B18" s="80" t="s">
-        <v>1277</v>
+        <v>1300</v>
       </c>
       <c r="C18" s="80" t="s">
         <v>508</v>
@@ -67449,7 +67484,7 @@
     <row r="19" spans="1:9">
       <c r="A19" s="99"/>
       <c r="B19" t="s">
-        <v>1278</v>
+        <v>1301</v>
       </c>
       <c r="C19" s="80" t="s">
         <v>504</v>
@@ -67475,7 +67510,7 @@
     <row r="20" spans="1:9">
       <c r="A20" s="99"/>
       <c r="B20" s="80" t="s">
-        <v>1226</v>
+        <v>1231</v>
       </c>
       <c r="C20" s="80" t="s">
         <v>504</v>
@@ -67649,7 +67684,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="99" t="s">
-        <v>1227</v>
+        <v>1302</v>
       </c>
       <c r="B32" s="80" t="s">
         <v>528</v>
@@ -67973,7 +68008,7 @@
     <row r="48" spans="1:9">
       <c r="A48" s="99"/>
       <c r="B48" s="80" t="s">
-        <v>1268</v>
+        <v>1290</v>
       </c>
       <c r="C48" s="80" t="s">
         <v>508</v>
@@ -68025,7 +68060,7 @@
     <row r="50" spans="1:9">
       <c r="A50" s="99"/>
       <c r="B50" s="80" t="s">
-        <v>1268</v>
+        <v>1290</v>
       </c>
       <c r="C50" s="80" t="s">
         <v>508</v>
@@ -68201,23 +68236,23 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="99" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="B62" s="80" t="s">
-        <v>528</v>
+        <v>1303</v>
       </c>
       <c r="C62" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D62" s="81">
-        <v>0.41666666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E62" s="81">
-        <v>0.4236111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="F62" s="81">
         <f>E62-D62</f>
-        <v>6.9444444444444198E-3</v>
+        <v>0.10416666666666669</v>
       </c>
       <c r="H62" s="79" t="s">
         <v>505</v>
@@ -68229,53 +68264,53 @@
     <row r="63" spans="1:9">
       <c r="A63" s="99"/>
       <c r="B63" s="80" t="s">
-        <v>551</v>
+        <v>1304</v>
       </c>
       <c r="C63" s="80" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D63" s="81">
-        <v>0.42708333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E63" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F63" s="81">
         <f>E63-D63</f>
-        <v>3.125E-2</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="H63" s="83" t="s">
         <v>504</v>
       </c>
       <c r="I63" s="81">
         <f>SUMIFS(F62:F76, C62:C76,H63)</f>
-        <v>0.22916666666666674</v>
+        <v>0.39583333333333343</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="99"/>
       <c r="B64" s="80" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="C64" s="80" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="D64" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E64" s="81">
-        <v>0.47222222222222227</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F64" s="81">
         <f>E64-D64</f>
-        <v>1.3888888888888951E-2</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="H64" s="83" t="s">
         <v>508</v>
       </c>
       <c r="I64" s="81">
         <f>SUMIFS(F62:F76, C62:C76,H64)</f>
-        <v>7.2916666666666685E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -68379,7 +68414,7 @@
       </c>
       <c r="I68" s="81">
         <f>SUMIFS(F62:F76, C62:C76,H68)</f>
-        <v>3.8194444444444309E-2</v>
+        <v>0.12152777777777757</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -68405,7 +68440,7 @@
       </c>
       <c r="I69" s="79">
         <f>SUM(I63:I68)</f>
-        <v>0.34027777777777773</v>
+        <v>0.55902777777777768</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -68500,7 +68535,7 @@
         <v>19</v>
       </c>
       <c r="B77" s="80" t="s">
-        <v>1260</v>
+        <v>1279</v>
       </c>
       <c r="C77" s="80" t="s">
         <v>508</v>
@@ -68721,7 +68756,7 @@
     <row r="93" spans="1:9">
       <c r="A93" s="99"/>
       <c r="B93" s="80" t="s">
-        <v>1279</v>
+        <v>1305</v>
       </c>
       <c r="C93" s="80" t="s">
         <v>508</v>
@@ -68747,7 +68782,7 @@
     <row r="94" spans="1:9">
       <c r="A94" s="99"/>
       <c r="B94" s="80" t="s">
-        <v>1280</v>
+        <v>1306</v>
       </c>
       <c r="C94" s="80" t="s">
         <v>508</v>
@@ -68773,7 +68808,7 @@
     <row r="95" spans="1:9">
       <c r="A95" s="99"/>
       <c r="B95" s="80" t="s">
-        <v>1281</v>
+        <v>1307</v>
       </c>
       <c r="C95" s="80" t="s">
         <v>504</v>
@@ -68918,7 +68953,7 @@
         <v>631</v>
       </c>
       <c r="B107" s="80" t="s">
-        <v>1260</v>
+        <v>1279</v>
       </c>
       <c r="C107" s="80"/>
       <c r="D107" s="81">
@@ -69177,7 +69212,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="99" t="s">
-        <v>1215</v>
+        <v>1220</v>
       </c>
       <c r="B122" s="80" t="s">
         <v>528</v>
@@ -69473,7 +69508,7 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="99" t="s">
-        <v>1216</v>
+        <v>1221</v>
       </c>
       <c r="B137" s="80" t="s">
         <v>528</v>
@@ -69797,7 +69832,7 @@
     <row r="153" spans="1:9">
       <c r="A153" s="99"/>
       <c r="B153" s="80" t="s">
-        <v>1282</v>
+        <v>1308</v>
       </c>
       <c r="C153" s="80" t="s">
         <v>504</v>
@@ -69849,7 +69884,7 @@
     <row r="155" spans="1:9">
       <c r="A155" s="99"/>
       <c r="B155" s="80" t="s">
-        <v>1283</v>
+        <v>1309</v>
       </c>
       <c r="C155" s="80" t="s">
         <v>504</v>
@@ -69901,7 +69936,7 @@
     <row r="157" spans="1:9">
       <c r="A157" s="99"/>
       <c r="B157" s="80" t="s">
-        <v>1284</v>
+        <v>1310</v>
       </c>
       <c r="C157" s="80" t="s">
         <v>504</v>
@@ -70061,17 +70096,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
@@ -70137,8 +70172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5B3044-AB4B-48AC-ABC6-D956A99D0D2A}">
   <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="15"/>
@@ -70468,7 +70503,7 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>1285</v>
+        <v>1311</v>
       </c>
       <c r="C17" s="80" t="s">
         <v>508</v>
@@ -70545,7 +70580,7 @@
     <row r="20" spans="1:9">
       <c r="A20" s="99"/>
       <c r="B20" s="80" t="s">
-        <v>1286</v>
+        <v>1312</v>
       </c>
       <c r="C20" s="80" t="s">
         <v>513</v>
@@ -70571,7 +70606,7 @@
     <row r="21" spans="1:9">
       <c r="A21" s="99"/>
       <c r="B21" t="s">
-        <v>1287</v>
+        <v>1313</v>
       </c>
       <c r="C21" s="80" t="s">
         <v>510</v>
@@ -70623,7 +70658,7 @@
     <row r="23" spans="1:9">
       <c r="A23" s="99"/>
       <c r="B23" s="80" t="s">
-        <v>1288</v>
+        <v>1314</v>
       </c>
       <c r="C23" s="80" t="s">
         <v>504</v>
@@ -70649,7 +70684,7 @@
     <row r="24" spans="1:9">
       <c r="A24" s="99"/>
       <c r="B24" t="s">
-        <v>1289</v>
+        <v>1315</v>
       </c>
       <c r="C24" s="80" t="s">
         <v>504</v>
@@ -70675,7 +70710,7 @@
     <row r="25" spans="1:9">
       <c r="A25" s="99"/>
       <c r="B25" s="80" t="s">
-        <v>1290</v>
+        <v>1316</v>
       </c>
       <c r="C25" s="80" t="s">
         <v>504</v>
@@ -70761,7 +70796,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="99" t="s">
-        <v>1227</v>
+        <v>1302</v>
       </c>
       <c r="B32" s="80" t="s">
         <v>528</v>
@@ -71085,20 +71120,20 @@
     <row r="48" spans="1:9">
       <c r="A48" s="99"/>
       <c r="B48" s="80" t="s">
-        <v>1268</v>
+        <v>1317</v>
       </c>
       <c r="C48" s="80" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="D48" s="81">
-        <v>0.45833333333333331</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="E48" s="81">
-        <v>0.52083333333333337</v>
+        <v>0.4826388888888889</v>
       </c>
       <c r="F48" s="81">
         <f>E48-D48</f>
-        <v>6.2500000000000056E-2</v>
+        <v>1.736111111111116E-2</v>
       </c>
       <c r="H48" s="83" t="s">
         <v>504</v>
@@ -71111,46 +71146,38 @@
     <row r="49" spans="1:9">
       <c r="A49" s="99"/>
       <c r="B49" s="80" t="s">
-        <v>518</v>
+        <v>1290</v>
       </c>
       <c r="C49" s="80" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="D49" s="81">
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="E49" s="81">
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F49" s="81">
         <f>E49-D49</f>
-        <v>4.1666666666666741E-2</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="H49" s="83" t="s">
         <v>508</v>
       </c>
       <c r="I49" s="81">
         <f>SUMIFS(F47:F61, C47:C61,H49)</f>
-        <v>0.10416666666666669</v>
+        <v>0.16666666666666663</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="99"/>
-      <c r="B50" s="80" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C50" s="80" t="s">
-        <v>508</v>
-      </c>
-      <c r="D50" s="81">
-        <v>0.625</v>
-      </c>
-      <c r="E50" s="81">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="B50" s="80"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="81"/>
       <c r="F50" s="81">
         <f>E50-D50</f>
-        <v>4.166666666666663E-2</v>
+        <v>0</v>
       </c>
       <c r="H50" s="83" t="s">
         <v>510</v>
@@ -71175,7 +71202,7 @@
       </c>
       <c r="I51" s="81">
         <f>SUMIFS(F47:F61, C47:C61,H51)</f>
-        <v>0</v>
+        <v>1.736111111111116E-2</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -71211,7 +71238,7 @@
       </c>
       <c r="I53" s="81">
         <f>SUMIFS(F47:F61, C47:C61,H53)</f>
-        <v>4.1666666666666741E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -71229,7 +71256,7 @@
       </c>
       <c r="I54" s="79">
         <f>SUM(I48:I53)</f>
-        <v>0.18750000000000011</v>
+        <v>0.22569444444444448</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -71313,7 +71340,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="99" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="B62" s="80" t="s">
         <v>528</v>
@@ -71612,7 +71639,7 @@
         <v>19</v>
       </c>
       <c r="B77" s="80" t="s">
-        <v>1260</v>
+        <v>1279</v>
       </c>
       <c r="C77" s="80" t="s">
         <v>508</v>
@@ -71833,7 +71860,7 @@
     <row r="93" spans="1:9">
       <c r="A93" s="99"/>
       <c r="B93" s="80" t="s">
-        <v>1279</v>
+        <v>1305</v>
       </c>
       <c r="C93" s="80" t="s">
         <v>508</v>
@@ -71859,7 +71886,7 @@
     <row r="94" spans="1:9">
       <c r="A94" s="99"/>
       <c r="B94" s="80" t="s">
-        <v>1280</v>
+        <v>1306</v>
       </c>
       <c r="C94" s="80" t="s">
         <v>508</v>
@@ -71885,7 +71912,7 @@
     <row r="95" spans="1:9">
       <c r="A95" s="99"/>
       <c r="B95" s="80" t="s">
-        <v>1281</v>
+        <v>1307</v>
       </c>
       <c r="C95" s="80" t="s">
         <v>504</v>
@@ -72030,7 +72057,7 @@
         <v>631</v>
       </c>
       <c r="B107" s="80" t="s">
-        <v>1260</v>
+        <v>1279</v>
       </c>
       <c r="C107" s="80"/>
       <c r="D107" s="81">
@@ -72289,7 +72316,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="99" t="s">
-        <v>1215</v>
+        <v>1220</v>
       </c>
       <c r="B122" s="80" t="s">
         <v>528</v>
@@ -72585,7 +72612,7 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="99" t="s">
-        <v>1216</v>
+        <v>1221</v>
       </c>
       <c r="B137" s="80" t="s">
         <v>528</v>
@@ -72909,7 +72936,7 @@
     <row r="153" spans="1:9">
       <c r="A153" s="99"/>
       <c r="B153" s="80" t="s">
-        <v>1282</v>
+        <v>590</v>
       </c>
       <c r="C153" s="80" t="s">
         <v>504</v>
@@ -72918,37 +72945,37 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="E153" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F153" s="81">
         <f>E153-D153</f>
-        <v>3.4722222222222265E-2</v>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="H153" s="83" t="s">
         <v>504</v>
       </c>
       <c r="I153" s="81">
         <f>SUMIFS(F152:F166, C152:C166,H153)</f>
-        <v>0.24305555555555552</v>
+        <v>0.16319444444444453</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="99"/>
       <c r="B154" s="80" t="s">
-        <v>590</v>
+        <v>1318</v>
       </c>
       <c r="C154" s="80" t="s">
         <v>516</v>
       </c>
       <c r="D154" s="81">
-        <v>0.47916666666666669</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="E154" s="81">
-        <v>0.5</v>
+        <v>0.48194444444444445</v>
       </c>
       <c r="F154" s="81">
         <f>E154-D154</f>
-        <v>2.0833333333333315E-2</v>
+        <v>1.6666666666666718E-2</v>
       </c>
       <c r="H154" s="83" t="s">
         <v>508</v>
@@ -72961,20 +72988,20 @@
     <row r="155" spans="1:9">
       <c r="A155" s="99"/>
       <c r="B155" s="80" t="s">
-        <v>1283</v>
+        <v>1309</v>
       </c>
       <c r="C155" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D155" s="81">
-        <v>0.5</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="E155" s="81">
-        <v>0.60416666666666663</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="F155" s="81">
         <f>E155-D155</f>
-        <v>0.10416666666666663</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H155" s="83" t="s">
         <v>510</v>
@@ -72993,40 +73020,40 @@
         <v>516</v>
       </c>
       <c r="D156" s="81">
-        <v>0.60416666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E156" s="81">
-        <v>0.63194444444444442</v>
+        <v>0.5625</v>
       </c>
       <c r="F156" s="81">
         <f>E156-D156</f>
-        <v>2.777777777777779E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H156" s="83" t="s">
         <v>513</v>
       </c>
       <c r="I156" s="81">
         <f>SUMIFS(F152:F166, C152:C166,H156)</f>
-        <v>1.388888888888884E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="99"/>
-      <c r="B157" s="80" t="s">
-        <v>1284</v>
+      <c r="B157" t="s">
+        <v>1319</v>
       </c>
       <c r="C157" s="80" t="s">
         <v>504</v>
       </c>
       <c r="D157" s="81">
-        <v>0.64583333333333337</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="E157" s="81">
-        <v>0.75</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="F157" s="81">
         <f>E157-D157</f>
-        <v>0.10416666666666663</v>
+        <v>0.10763888888888895</v>
       </c>
       <c r="H157" s="83" t="s">
         <v>512</v>
@@ -73039,27 +73066,27 @@
     <row r="158" spans="1:9">
       <c r="A158" s="99"/>
       <c r="B158" s="80" t="s">
-        <v>528</v>
+        <v>1310</v>
       </c>
       <c r="C158" s="80" t="s">
         <v>513</v>
       </c>
       <c r="D158" s="81">
-        <v>0.79861111111111116</v>
+        <v>0.6875</v>
       </c>
       <c r="E158" s="81">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="F158" s="81">
         <f>E158-D158</f>
-        <v>1.388888888888884E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H158" s="83" t="s">
         <v>516</v>
       </c>
       <c r="I158" s="81">
         <f>SUMIFS(F152:F166, C152:C166,H158)</f>
-        <v>4.8611111111111105E-2</v>
+        <v>3.7500000000000089E-2</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -73083,7 +73110,7 @@
       </c>
       <c r="I159" s="79">
         <f>SUM(I153:I158)</f>
-        <v>0.34722222222222215</v>
+        <v>0.3048611111111113</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -73173,17 +73200,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A77:A91"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="A62:A76"/>
     <mergeCell ref="A92:A106"/>
     <mergeCell ref="A107:A121"/>
     <mergeCell ref="A122:A136"/>
     <mergeCell ref="A137:A151"/>
     <mergeCell ref="A152:A166"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A31"/>
-    <mergeCell ref="A32:A46"/>
-    <mergeCell ref="A47:A61"/>
-    <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A77:A91"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
@@ -73998,7 +74025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72FD7D6-2E49-4D32-923A-F7B61A1B2E55}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>

--- a/Process/Timesheet/PTW-Timesheet.xlsx
+++ b/Process/Timesheet/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C043B4DB-A0D9-426B-B661-D72BE9FB4B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F666C3A-EE64-4B94-9FEB-2AD8F839B6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="34" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7019" uniqueCount="1320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6998" uniqueCount="1327">
   <si>
     <t>Resource Name</t>
   </si>
@@ -4148,6 +4148,9 @@
     <t>seeding data</t>
   </si>
   <si>
+    <t>searching dummy data</t>
+  </si>
+  <si>
     <t>Doing College Project Works</t>
   </si>
   <si>
@@ -4184,52 +4187,70 @@
     <t>integrating my local work on new api</t>
   </si>
   <si>
+    <t>seeded data for Role, Department, User</t>
+  </si>
+  <si>
+    <t>JWT exploration</t>
+  </si>
+  <si>
+    <t>Remove migration and added new migrations</t>
+  </si>
+  <si>
+    <t>helped team mate</t>
+  </si>
+  <si>
+    <t>Updating the sdk version in laptop</t>
+  </si>
+  <si>
+    <t>setting the sql database error</t>
+  </si>
+  <si>
+    <t>Resolving the problems in webapi</t>
+  </si>
+  <si>
+    <t>Went to College for Review</t>
+  </si>
+  <si>
+    <t>Worked on work given by saraswati</t>
+  </si>
+  <si>
+    <t>Explored on Angular</t>
+  </si>
+  <si>
+    <t>Integrated my local works</t>
+  </si>
+  <si>
+    <t>Resolved migration errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on Integration(Review) </t>
+  </si>
+  <si>
+    <t>Angular Assignment</t>
+  </si>
+  <si>
+    <t>savitha meeting</t>
+  </si>
+  <si>
+    <t>exploration jwt api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working on create </t>
+  </si>
+  <si>
+    <t>finished create for course</t>
+  </si>
+  <si>
+    <t>working on disable and update</t>
+  </si>
+  <si>
     <t>Resource Name 3</t>
   </si>
   <si>
-    <t>Updating the sdk version in laptop</t>
-  </si>
-  <si>
-    <t>setting the sql database error</t>
-  </si>
-  <si>
-    <t>Went to College for Review</t>
-  </si>
-  <si>
-    <t>Worked on work given by saraswati</t>
-  </si>
-  <si>
-    <t>Explored on Angular</t>
-  </si>
-  <si>
-    <t>Integrated my local works</t>
-  </si>
-  <si>
-    <t>Resolved migration errors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Working on Integration(Review) </t>
-  </si>
-  <si>
-    <t>Angular Assignment</t>
-  </si>
-  <si>
-    <t>savitha meeting</t>
-  </si>
-  <si>
-    <t>exploration jwt api</t>
-  </si>
-  <si>
-    <t xml:space="preserve">working on create </t>
-  </si>
-  <si>
-    <t>finished create for course</t>
-  </si>
-  <si>
-    <t>working on disable and update</t>
-  </si>
-  <si>
     <t>General Catch Up with Savitha</t>
+  </si>
+  <si>
+    <t>college work</t>
   </si>
   <si>
     <t>Meeting with savitha</t>
@@ -49860,7 +49881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC6D715-A074-40FE-ABE8-1B45D8A9B360}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -53786,8 +53807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BFF484-AFDF-48FC-BAAE-44E18E687C3A}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -57345,8 +57366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C485A27-8294-46EE-BF3E-4AE5608F3B70}">
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -60854,7 +60875,7 @@
   <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15"/>
@@ -64155,7 +64176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259AE707-F180-49C8-A2F7-BE76079AD300}">
   <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A102" workbookViewId="0">
       <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
@@ -64721,7 +64742,7 @@
       </c>
       <c r="I33" s="81">
         <f>SUMIFS(F32:F46, C32:C46,H33)</f>
-        <v>0.15277777777777779</v>
+        <v>0.23611111111111116</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -64778,13 +64799,21 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="99"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
+      <c r="B36" s="80" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C36" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D36" s="81">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E36" s="81">
+        <v>0.75</v>
+      </c>
       <c r="F36" s="81">
         <f>E36-D36</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="H36" s="83" t="s">
         <v>513</v>
@@ -64845,7 +64874,7 @@
       </c>
       <c r="I39" s="79">
         <f>SUM(I33:I38)</f>
-        <v>0.19444444444444448</v>
+        <v>0.27777777777777785</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -64957,7 +64986,7 @@
     <row r="48" spans="1:9">
       <c r="A48" s="99"/>
       <c r="B48" s="80" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="C48" s="80" t="s">
         <v>508</v>
@@ -65197,7 +65226,7 @@
     <row r="63" spans="1:9">
       <c r="A63" s="99"/>
       <c r="B63" s="80" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C63" s="80" t="s">
         <v>508</v>
@@ -65479,7 +65508,7 @@
     <row r="78" spans="1:9">
       <c r="A78" s="99"/>
       <c r="B78" s="80" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="C78" s="80" t="s">
         <v>508</v>
@@ -65505,7 +65534,7 @@
     <row r="79" spans="1:9">
       <c r="A79" s="99"/>
       <c r="B79" s="80" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="C79" s="80" t="s">
         <v>508</v>
@@ -65669,7 +65698,7 @@
         <v>691</v>
       </c>
       <c r="B92" s="80" t="s">
-        <v>1294</v>
+     